--- a/Flex_SGM/obj/Release/Package/PackageTmp/Templates/TemplatePCR.xlsx
+++ b/Flex_SGM/obj/Release/Package/PackageTmp/Templates/TemplatePCR.xlsx
@@ -1306,7 +1306,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1566,73 +1566,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1662,45 +1618,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1710,33 +1644,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1750,20 +1657,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1780,26 +1681,121 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1810,10 +1806,23 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2427,8 +2436,8 @@
   </sheetPr>
   <dimension ref="A1:BD277"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AP137" sqref="AP137:AQ137"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AO57" sqref="AO57:AR57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2519,43 +2528,43 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
-      <c r="P2" s="132" t="s">
+      <c r="P2" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="132"/>
-      <c r="AH2" s="132"/>
-      <c r="AI2" s="132"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
       <c r="AJ2" s="18"/>
-      <c r="AK2" s="122" t="s">
+      <c r="AK2" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="126" t="s">
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="126"/>
-      <c r="AS2" s="126"/>
-      <c r="AT2" s="127"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="116"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="20"/>
       <c r="AW2" s="20"/>
@@ -2580,39 +2589,39 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
-      <c r="P3" s="132" t="s">
+      <c r="P3" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
       <c r="AJ3" s="18"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="125"/>
-      <c r="AM3" s="125"/>
-      <c r="AN3" s="128"/>
-      <c r="AO3" s="128"/>
-      <c r="AP3" s="128"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="128"/>
-      <c r="AS3" s="128"/>
-      <c r="AT3" s="129"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="114"/>
+      <c r="AN3" s="117"/>
+      <c r="AO3" s="117"/>
+      <c r="AP3" s="117"/>
+      <c r="AQ3" s="117"/>
+      <c r="AR3" s="117"/>
+      <c r="AS3" s="117"/>
+      <c r="AT3" s="118"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="20"/>
       <c r="AW3" s="20"/>
@@ -2638,51 +2647,51 @@
     <row r="5" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="105"/>
-      <c r="AI5" s="105"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="105"/>
-      <c r="AP5" s="105"/>
-      <c r="AQ5" s="105"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="105"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152"/>
+      <c r="W5" s="152"/>
+      <c r="X5" s="152"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152"/>
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="152"/>
+      <c r="AH5" s="152"/>
+      <c r="AI5" s="152"/>
+      <c r="AJ5" s="152"/>
+      <c r="AK5" s="152"/>
+      <c r="AL5" s="152"/>
+      <c r="AM5" s="152"/>
+      <c r="AN5" s="152"/>
+      <c r="AO5" s="152"/>
+      <c r="AP5" s="152"/>
+      <c r="AQ5" s="152"/>
+      <c r="AR5" s="152"/>
+      <c r="AS5" s="152"/>
       <c r="AT5" s="18"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="20"/>
@@ -2754,18 +2763,18 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="162" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
       <c r="R7" s="6"/>
       <c r="S7" s="15" t="s">
         <v>29</v>
@@ -2774,34 +2783,34 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="130" t="s">
+      <c r="X7" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="130"/>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="162"/>
+      <c r="AA7" s="162"/>
+      <c r="AB7" s="162"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="162"/>
       <c r="AH7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-      <c r="AL7" s="121" t="s">
+      <c r="AL7" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="AM7" s="121"/>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="121"/>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="121"/>
-      <c r="AR7" s="121"/>
-      <c r="AS7" s="121"/>
-      <c r="AT7" s="121"/>
+      <c r="AM7" s="160"/>
+      <c r="AN7" s="160"/>
+      <c r="AO7" s="160"/>
+      <c r="AP7" s="160"/>
+      <c r="AQ7" s="160"/>
+      <c r="AR7" s="160"/>
+      <c r="AS7" s="160"/>
+      <c r="AT7" s="160"/>
       <c r="AU7" s="8"/>
     </row>
     <row r="8" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2861,18 +2870,18 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="130" t="s">
+      <c r="H9" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
       <c r="R9" s="6"/>
       <c r="S9" s="15" t="s">
         <v>30</v>
@@ -2881,34 +2890,34 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="130" t="s">
+      <c r="X9" s="162" t="s">
         <v>166</v>
       </c>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="130"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="162"/>
+      <c r="AF9" s="162"/>
       <c r="AH9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AL9" s="121" t="s">
+      <c r="AL9" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="AM9" s="121"/>
-      <c r="AN9" s="121"/>
-      <c r="AO9" s="121"/>
-      <c r="AP9" s="121"/>
-      <c r="AQ9" s="121"/>
-      <c r="AR9" s="121"/>
-      <c r="AS9" s="121"/>
-      <c r="AT9" s="121"/>
+      <c r="AM9" s="160"/>
+      <c r="AN9" s="160"/>
+      <c r="AO9" s="160"/>
+      <c r="AP9" s="160"/>
+      <c r="AQ9" s="160"/>
+      <c r="AR9" s="160"/>
+      <c r="AS9" s="160"/>
+      <c r="AT9" s="160"/>
       <c r="AU9" s="8"/>
     </row>
     <row r="10" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2968,50 +2977,50 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="130" t="s">
+      <c r="H11" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="130"/>
-      <c r="AC11" s="130"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="130"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="162"/>
+      <c r="AF11" s="162"/>
       <c r="AH11" s="53" t="s">
         <v>25</v>
       </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-      <c r="AL11" s="130" t="s">
+      <c r="AL11" s="175" t="s">
         <v>169</v>
       </c>
-      <c r="AM11" s="130"/>
-      <c r="AN11" s="130"/>
-      <c r="AO11" s="130"/>
-      <c r="AP11" s="130"/>
-      <c r="AQ11" s="130"/>
-      <c r="AR11" s="130"/>
-      <c r="AS11" s="130"/>
-      <c r="AT11" s="130"/>
+      <c r="AM11" s="175"/>
+      <c r="AN11" s="175"/>
+      <c r="AO11" s="175"/>
+      <c r="AP11" s="175"/>
+      <c r="AQ11" s="175"/>
+      <c r="AR11" s="175"/>
+      <c r="AS11" s="175"/>
+      <c r="AT11" s="175"/>
       <c r="AU11" s="8"/>
     </row>
     <row r="12" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3071,47 +3080,47 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="131" t="s">
+      <c r="H13" s="161" t="s">
         <v>170</v>
       </c>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="131"/>
-      <c r="AD13" s="131"/>
-      <c r="AE13" s="131"/>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="131"/>
-      <c r="AI13" s="131"/>
-      <c r="AJ13" s="131"/>
-      <c r="AK13" s="131"/>
-      <c r="AL13" s="131"/>
-      <c r="AM13" s="131"/>
-      <c r="AN13" s="131"/>
-      <c r="AO13" s="131"/>
-      <c r="AP13" s="131"/>
-      <c r="AQ13" s="131"/>
-      <c r="AR13" s="131"/>
-      <c r="AS13" s="131"/>
-      <c r="AT13" s="131"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="161"/>
+      <c r="T13" s="161"/>
+      <c r="U13" s="161"/>
+      <c r="V13" s="161"/>
+      <c r="W13" s="161"/>
+      <c r="X13" s="161"/>
+      <c r="Y13" s="161"/>
+      <c r="Z13" s="161"/>
+      <c r="AA13" s="161"/>
+      <c r="AB13" s="161"/>
+      <c r="AC13" s="161"/>
+      <c r="AD13" s="161"/>
+      <c r="AE13" s="161"/>
+      <c r="AF13" s="161"/>
+      <c r="AG13" s="161"/>
+      <c r="AH13" s="161"/>
+      <c r="AI13" s="161"/>
+      <c r="AJ13" s="161"/>
+      <c r="AK13" s="161"/>
+      <c r="AL13" s="161"/>
+      <c r="AM13" s="161"/>
+      <c r="AN13" s="161"/>
+      <c r="AO13" s="161"/>
+      <c r="AP13" s="161"/>
+      <c r="AQ13" s="161"/>
+      <c r="AR13" s="161"/>
+      <c r="AS13" s="161"/>
+      <c r="AT13" s="161"/>
       <c r="AU13" s="8"/>
     </row>
     <row r="14" spans="1:56" s="20" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3249,58 +3258,58 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
-      <c r="AJ16" s="120" t="s">
+      <c r="AJ16" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="AK16" s="120"/>
-      <c r="AL16" s="120"/>
-      <c r="AM16" s="120"/>
-      <c r="AN16" s="120"/>
-      <c r="AO16" s="120"/>
-      <c r="AP16" s="120"/>
-      <c r="AQ16" s="120"/>
-      <c r="AR16" s="120"/>
-      <c r="AS16" s="120"/>
-      <c r="AT16" s="120"/>
+      <c r="AK16" s="165"/>
+      <c r="AL16" s="165"/>
+      <c r="AM16" s="165"/>
+      <c r="AN16" s="165"/>
+      <c r="AO16" s="165"/>
+      <c r="AP16" s="165"/>
+      <c r="AQ16" s="165"/>
+      <c r="AR16" s="165"/>
+      <c r="AS16" s="165"/>
+      <c r="AT16" s="165"/>
       <c r="AU16" s="8"/>
     </row>
     <row r="17" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="166" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="176"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="176"/>
-      <c r="N17" s="176"/>
-      <c r="O17" s="176"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="176"/>
-      <c r="S17" s="176"/>
-      <c r="T17" s="176"/>
-      <c r="U17" s="176"/>
-      <c r="V17" s="176"/>
-      <c r="W17" s="176"/>
-      <c r="X17" s="176"/>
-      <c r="Y17" s="176"/>
-      <c r="Z17" s="176"/>
-      <c r="AA17" s="176"/>
-      <c r="AB17" s="176"/>
-      <c r="AC17" s="176"/>
-      <c r="AD17" s="176"/>
-      <c r="AE17" s="176"/>
-      <c r="AF17" s="176"/>
-      <c r="AG17" s="176"/>
-      <c r="AH17" s="176"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="166"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="166"/>
+      <c r="S17" s="166"/>
+      <c r="T17" s="166"/>
+      <c r="U17" s="166"/>
+      <c r="V17" s="166"/>
+      <c r="W17" s="166"/>
+      <c r="X17" s="166"/>
+      <c r="Y17" s="166"/>
+      <c r="Z17" s="166"/>
+      <c r="AA17" s="166"/>
+      <c r="AB17" s="166"/>
+      <c r="AC17" s="166"/>
+      <c r="AD17" s="166"/>
+      <c r="AE17" s="166"/>
+      <c r="AF17" s="166"/>
+      <c r="AG17" s="166"/>
+      <c r="AH17" s="166"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
@@ -3317,39 +3326,39 @@
     </row>
     <row r="18" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="176"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="176"/>
-      <c r="N18" s="176"/>
-      <c r="O18" s="176"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="176"/>
-      <c r="S18" s="176"/>
-      <c r="T18" s="176"/>
-      <c r="U18" s="176"/>
-      <c r="V18" s="176"/>
-      <c r="W18" s="176"/>
-      <c r="X18" s="176"/>
-      <c r="Y18" s="176"/>
-      <c r="Z18" s="176"/>
-      <c r="AA18" s="176"/>
-      <c r="AB18" s="176"/>
-      <c r="AC18" s="176"/>
-      <c r="AD18" s="176"/>
-      <c r="AE18" s="176"/>
-      <c r="AF18" s="176"/>
-      <c r="AG18" s="176"/>
-      <c r="AH18" s="176"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="166"/>
+      <c r="P18" s="166"/>
+      <c r="Q18" s="166"/>
+      <c r="R18" s="166"/>
+      <c r="S18" s="166"/>
+      <c r="T18" s="166"/>
+      <c r="U18" s="166"/>
+      <c r="V18" s="166"/>
+      <c r="W18" s="166"/>
+      <c r="X18" s="166"/>
+      <c r="Y18" s="166"/>
+      <c r="Z18" s="166"/>
+      <c r="AA18" s="166"/>
+      <c r="AB18" s="166"/>
+      <c r="AC18" s="166"/>
+      <c r="AD18" s="166"/>
+      <c r="AE18" s="166"/>
+      <c r="AF18" s="166"/>
+      <c r="AG18" s="166"/>
+      <c r="AH18" s="166"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="8" t="s">
         <v>47</v>
@@ -3361,50 +3370,50 @@
       <c r="AO18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP18" s="119" t="s">
+      <c r="AP18" s="176" t="s">
         <v>174</v>
       </c>
-      <c r="AQ18" s="119"/>
-      <c r="AR18" s="119"/>
-      <c r="AS18" s="119"/>
-      <c r="AT18" s="119"/>
+      <c r="AQ18" s="176"/>
+      <c r="AR18" s="176"/>
+      <c r="AS18" s="176"/>
+      <c r="AT18" s="176"/>
       <c r="AU18" s="8"/>
     </row>
     <row r="19" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="176"/>
-      <c r="M19" s="176"/>
-      <c r="N19" s="176"/>
-      <c r="O19" s="176"/>
-      <c r="P19" s="176"/>
-      <c r="Q19" s="176"/>
-      <c r="R19" s="176"/>
-      <c r="S19" s="176"/>
-      <c r="T19" s="176"/>
-      <c r="U19" s="176"/>
-      <c r="V19" s="176"/>
-      <c r="W19" s="176"/>
-      <c r="X19" s="176"/>
-      <c r="Y19" s="176"/>
-      <c r="Z19" s="176"/>
-      <c r="AA19" s="176"/>
-      <c r="AB19" s="176"/>
-      <c r="AC19" s="176"/>
-      <c r="AD19" s="176"/>
-      <c r="AE19" s="176"/>
-      <c r="AF19" s="176"/>
-      <c r="AG19" s="176"/>
-      <c r="AH19" s="176"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="166"/>
+      <c r="P19" s="166"/>
+      <c r="Q19" s="166"/>
+      <c r="R19" s="166"/>
+      <c r="S19" s="166"/>
+      <c r="T19" s="166"/>
+      <c r="U19" s="166"/>
+      <c r="V19" s="166"/>
+      <c r="W19" s="166"/>
+      <c r="X19" s="166"/>
+      <c r="Y19" s="166"/>
+      <c r="Z19" s="166"/>
+      <c r="AA19" s="166"/>
+      <c r="AB19" s="166"/>
+      <c r="AC19" s="166"/>
+      <c r="AD19" s="166"/>
+      <c r="AE19" s="166"/>
+      <c r="AF19" s="166"/>
+      <c r="AG19" s="166"/>
+      <c r="AH19" s="166"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="11"/>
       <c r="AK19" s="7"/>
@@ -3412,48 +3421,48 @@
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="7"/>
+      <c r="AP19" s="177"/>
+      <c r="AQ19" s="177"/>
+      <c r="AR19" s="177"/>
+      <c r="AS19" s="177"/>
+      <c r="AT19" s="177"/>
       <c r="AU19" s="8"/>
     </row>
     <row r="20" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="176"/>
-      <c r="N20" s="176"/>
-      <c r="O20" s="176"/>
-      <c r="P20" s="176"/>
-      <c r="Q20" s="176"/>
-      <c r="R20" s="176"/>
-      <c r="S20" s="176"/>
-      <c r="T20" s="176"/>
-      <c r="U20" s="176"/>
-      <c r="V20" s="176"/>
-      <c r="W20" s="176"/>
-      <c r="X20" s="176"/>
-      <c r="Y20" s="176"/>
-      <c r="Z20" s="176"/>
-      <c r="AA20" s="176"/>
-      <c r="AB20" s="176"/>
-      <c r="AC20" s="176"/>
-      <c r="AD20" s="176"/>
-      <c r="AE20" s="176"/>
-      <c r="AF20" s="176"/>
-      <c r="AG20" s="176"/>
-      <c r="AH20" s="176"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="166"/>
+      <c r="R20" s="166"/>
+      <c r="S20" s="166"/>
+      <c r="T20" s="166"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="166"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="166"/>
+      <c r="Y20" s="166"/>
+      <c r="Z20" s="166"/>
+      <c r="AA20" s="166"/>
+      <c r="AB20" s="166"/>
+      <c r="AC20" s="166"/>
+      <c r="AD20" s="166"/>
+      <c r="AE20" s="166"/>
+      <c r="AF20" s="166"/>
+      <c r="AG20" s="166"/>
+      <c r="AH20" s="166"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8" t="s">
         <v>41</v>
@@ -3465,50 +3474,50 @@
       <c r="AO20" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP20" s="119" t="s">
+      <c r="AP20" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="AQ20" s="119"/>
-      <c r="AR20" s="119"/>
-      <c r="AS20" s="119"/>
-      <c r="AT20" s="119"/>
+      <c r="AQ20" s="176"/>
+      <c r="AR20" s="176"/>
+      <c r="AS20" s="176"/>
+      <c r="AT20" s="176"/>
       <c r="AU20" s="8"/>
     </row>
     <row r="21" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="176"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="176"/>
-      <c r="N21" s="176"/>
-      <c r="O21" s="176"/>
-      <c r="P21" s="176"/>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="176"/>
-      <c r="S21" s="176"/>
-      <c r="T21" s="176"/>
-      <c r="U21" s="176"/>
-      <c r="V21" s="176"/>
-      <c r="W21" s="176"/>
-      <c r="X21" s="176"/>
-      <c r="Y21" s="176"/>
-      <c r="Z21" s="176"/>
-      <c r="AA21" s="176"/>
-      <c r="AB21" s="176"/>
-      <c r="AC21" s="176"/>
-      <c r="AD21" s="176"/>
-      <c r="AE21" s="176"/>
-      <c r="AF21" s="176"/>
-      <c r="AG21" s="176"/>
-      <c r="AH21" s="176"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="166"/>
+      <c r="R21" s="166"/>
+      <c r="S21" s="166"/>
+      <c r="T21" s="166"/>
+      <c r="U21" s="166"/>
+      <c r="V21" s="166"/>
+      <c r="W21" s="166"/>
+      <c r="X21" s="166"/>
+      <c r="Y21" s="166"/>
+      <c r="Z21" s="166"/>
+      <c r="AA21" s="166"/>
+      <c r="AB21" s="166"/>
+      <c r="AC21" s="166"/>
+      <c r="AD21" s="166"/>
+      <c r="AE21" s="166"/>
+      <c r="AF21" s="166"/>
+      <c r="AG21" s="166"/>
+      <c r="AH21" s="166"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="7"/>
@@ -3516,48 +3525,48 @@
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
+      <c r="AP21" s="177"/>
+      <c r="AQ21" s="177"/>
+      <c r="AR21" s="177"/>
+      <c r="AS21" s="177"/>
+      <c r="AT21" s="177"/>
       <c r="AU21" s="8"/>
     </row>
     <row r="22" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="176"/>
-      <c r="N22" s="176"/>
-      <c r="O22" s="176"/>
-      <c r="P22" s="176"/>
-      <c r="Q22" s="176"/>
-      <c r="R22" s="176"/>
-      <c r="S22" s="176"/>
-      <c r="T22" s="176"/>
-      <c r="U22" s="176"/>
-      <c r="V22" s="176"/>
-      <c r="W22" s="176"/>
-      <c r="X22" s="176"/>
-      <c r="Y22" s="176"/>
-      <c r="Z22" s="176"/>
-      <c r="AA22" s="176"/>
-      <c r="AB22" s="176"/>
-      <c r="AC22" s="176"/>
-      <c r="AD22" s="176"/>
-      <c r="AE22" s="176"/>
-      <c r="AF22" s="176"/>
-      <c r="AG22" s="176"/>
-      <c r="AH22" s="176"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="166"/>
+      <c r="P22" s="166"/>
+      <c r="Q22" s="166"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="166"/>
+      <c r="T22" s="166"/>
+      <c r="U22" s="166"/>
+      <c r="V22" s="166"/>
+      <c r="W22" s="166"/>
+      <c r="X22" s="166"/>
+      <c r="Y22" s="166"/>
+      <c r="Z22" s="166"/>
+      <c r="AA22" s="166"/>
+      <c r="AB22" s="166"/>
+      <c r="AC22" s="166"/>
+      <c r="AD22" s="166"/>
+      <c r="AE22" s="166"/>
+      <c r="AF22" s="166"/>
+      <c r="AG22" s="166"/>
+      <c r="AH22" s="166"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8" t="s">
         <v>39</v>
@@ -3569,50 +3578,50 @@
       <c r="AO22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP22" s="119" t="s">
+      <c r="AP22" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="AQ22" s="119"/>
-      <c r="AR22" s="119"/>
-      <c r="AS22" s="119"/>
-      <c r="AT22" s="119"/>
+      <c r="AQ22" s="176"/>
+      <c r="AR22" s="176"/>
+      <c r="AS22" s="176"/>
+      <c r="AT22" s="176"/>
       <c r="AU22" s="8"/>
     </row>
     <row r="23" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="176"/>
-      <c r="N23" s="176"/>
-      <c r="O23" s="176"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="176"/>
-      <c r="S23" s="176"/>
-      <c r="T23" s="176"/>
-      <c r="U23" s="176"/>
-      <c r="V23" s="176"/>
-      <c r="W23" s="176"/>
-      <c r="X23" s="176"/>
-      <c r="Y23" s="176"/>
-      <c r="Z23" s="176"/>
-      <c r="AA23" s="176"/>
-      <c r="AB23" s="176"/>
-      <c r="AC23" s="176"/>
-      <c r="AD23" s="176"/>
-      <c r="AE23" s="176"/>
-      <c r="AF23" s="176"/>
-      <c r="AG23" s="176"/>
-      <c r="AH23" s="176"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="166"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="166"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="166"/>
+      <c r="T23" s="166"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="166"/>
+      <c r="W23" s="166"/>
+      <c r="X23" s="166"/>
+      <c r="Y23" s="166"/>
+      <c r="Z23" s="166"/>
+      <c r="AA23" s="166"/>
+      <c r="AB23" s="166"/>
+      <c r="AC23" s="166"/>
+      <c r="AD23" s="166"/>
+      <c r="AE23" s="166"/>
+      <c r="AF23" s="166"/>
+      <c r="AG23" s="166"/>
+      <c r="AH23" s="166"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
@@ -3620,48 +3629,48 @@
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
-      <c r="AP23" s="8"/>
-      <c r="AQ23" s="8"/>
-      <c r="AR23" s="8"/>
-      <c r="AS23" s="8"/>
-      <c r="AT23" s="8"/>
+      <c r="AP23" s="178"/>
+      <c r="AQ23" s="178"/>
+      <c r="AR23" s="178"/>
+      <c r="AS23" s="178"/>
+      <c r="AT23" s="178"/>
       <c r="AU23" s="8"/>
     </row>
     <row r="24" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="176"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="176"/>
-      <c r="N24" s="176"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="176"/>
-      <c r="R24" s="176"/>
-      <c r="S24" s="176"/>
-      <c r="T24" s="176"/>
-      <c r="U24" s="176"/>
-      <c r="V24" s="176"/>
-      <c r="W24" s="176"/>
-      <c r="X24" s="176"/>
-      <c r="Y24" s="176"/>
-      <c r="Z24" s="176"/>
-      <c r="AA24" s="176"/>
-      <c r="AB24" s="176"/>
-      <c r="AC24" s="176"/>
-      <c r="AD24" s="176"/>
-      <c r="AE24" s="176"/>
-      <c r="AF24" s="176"/>
-      <c r="AG24" s="176"/>
-      <c r="AH24" s="176"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="166"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="166"/>
+      <c r="R24" s="166"/>
+      <c r="S24" s="166"/>
+      <c r="T24" s="166"/>
+      <c r="U24" s="166"/>
+      <c r="V24" s="166"/>
+      <c r="W24" s="166"/>
+      <c r="X24" s="166"/>
+      <c r="Y24" s="166"/>
+      <c r="Z24" s="166"/>
+      <c r="AA24" s="166"/>
+      <c r="AB24" s="166"/>
+      <c r="AC24" s="166"/>
+      <c r="AD24" s="166"/>
+      <c r="AE24" s="166"/>
+      <c r="AF24" s="166"/>
+      <c r="AG24" s="166"/>
+      <c r="AH24" s="166"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8" t="s">
         <v>42</v>
@@ -3673,50 +3682,50 @@
       <c r="AO24" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP24" s="119" t="s">
+      <c r="AP24" s="176" t="s">
         <v>177</v>
       </c>
-      <c r="AQ24" s="119"/>
-      <c r="AR24" s="119"/>
-      <c r="AS24" s="119"/>
-      <c r="AT24" s="119"/>
+      <c r="AQ24" s="176"/>
+      <c r="AR24" s="176"/>
+      <c r="AS24" s="176"/>
+      <c r="AT24" s="176"/>
       <c r="AU24" s="8"/>
     </row>
     <row r="25" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="176"/>
-      <c r="K25" s="176"/>
-      <c r="L25" s="176"/>
-      <c r="M25" s="176"/>
-      <c r="N25" s="176"/>
-      <c r="O25" s="176"/>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="176"/>
-      <c r="R25" s="176"/>
-      <c r="S25" s="176"/>
-      <c r="T25" s="176"/>
-      <c r="U25" s="176"/>
-      <c r="V25" s="176"/>
-      <c r="W25" s="176"/>
-      <c r="X25" s="176"/>
-      <c r="Y25" s="176"/>
-      <c r="Z25" s="176"/>
-      <c r="AA25" s="176"/>
-      <c r="AB25" s="176"/>
-      <c r="AC25" s="176"/>
-      <c r="AD25" s="176"/>
-      <c r="AE25" s="176"/>
-      <c r="AF25" s="176"/>
-      <c r="AG25" s="176"/>
-      <c r="AH25" s="176"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="166"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="166"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="166"/>
+      <c r="R25" s="166"/>
+      <c r="S25" s="166"/>
+      <c r="T25" s="166"/>
+      <c r="U25" s="166"/>
+      <c r="V25" s="166"/>
+      <c r="W25" s="166"/>
+      <c r="X25" s="166"/>
+      <c r="Y25" s="166"/>
+      <c r="Z25" s="166"/>
+      <c r="AA25" s="166"/>
+      <c r="AB25" s="166"/>
+      <c r="AC25" s="166"/>
+      <c r="AD25" s="166"/>
+      <c r="AE25" s="166"/>
+      <c r="AF25" s="166"/>
+      <c r="AG25" s="166"/>
+      <c r="AH25" s="166"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="11"/>
@@ -3724,50 +3733,50 @@
       <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
       <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
+      <c r="AP25" s="177"/>
+      <c r="AQ25" s="177"/>
+      <c r="AR25" s="177"/>
+      <c r="AS25" s="177"/>
+      <c r="AT25" s="177"/>
       <c r="AU25" s="8"/>
     </row>
     <row r="26" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="166" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="176"/>
-      <c r="N26" s="176"/>
-      <c r="O26" s="176"/>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="176"/>
-      <c r="R26" s="176"/>
-      <c r="S26" s="176"/>
-      <c r="T26" s="176"/>
-      <c r="U26" s="176"/>
-      <c r="V26" s="176"/>
-      <c r="W26" s="176"/>
-      <c r="X26" s="176"/>
-      <c r="Y26" s="176"/>
-      <c r="Z26" s="176"/>
-      <c r="AA26" s="176"/>
-      <c r="AB26" s="176"/>
-      <c r="AC26" s="176"/>
-      <c r="AD26" s="176"/>
-      <c r="AE26" s="176"/>
-      <c r="AF26" s="176"/>
-      <c r="AG26" s="176"/>
-      <c r="AH26" s="176"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="166"/>
+      <c r="O26" s="166"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="166"/>
+      <c r="R26" s="166"/>
+      <c r="S26" s="166"/>
+      <c r="T26" s="166"/>
+      <c r="U26" s="166"/>
+      <c r="V26" s="166"/>
+      <c r="W26" s="166"/>
+      <c r="X26" s="166"/>
+      <c r="Y26" s="166"/>
+      <c r="Z26" s="166"/>
+      <c r="AA26" s="166"/>
+      <c r="AB26" s="166"/>
+      <c r="AC26" s="166"/>
+      <c r="AD26" s="166"/>
+      <c r="AE26" s="166"/>
+      <c r="AF26" s="166"/>
+      <c r="AG26" s="166"/>
+      <c r="AH26" s="166"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8" t="s">
         <v>19</v>
@@ -3779,50 +3788,50 @@
       <c r="AO26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP26" s="119" t="s">
+      <c r="AP26" s="176" t="s">
         <v>178</v>
       </c>
-      <c r="AQ26" s="119"/>
-      <c r="AR26" s="119"/>
-      <c r="AS26" s="119"/>
-      <c r="AT26" s="119"/>
+      <c r="AQ26" s="176"/>
+      <c r="AR26" s="176"/>
+      <c r="AS26" s="176"/>
+      <c r="AT26" s="176"/>
       <c r="AU26" s="8"/>
     </row>
     <row r="27" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="176"/>
-      <c r="N27" s="176"/>
-      <c r="O27" s="176"/>
-      <c r="P27" s="176"/>
-      <c r="Q27" s="176"/>
-      <c r="R27" s="176"/>
-      <c r="S27" s="176"/>
-      <c r="T27" s="176"/>
-      <c r="U27" s="176"/>
-      <c r="V27" s="176"/>
-      <c r="W27" s="176"/>
-      <c r="X27" s="176"/>
-      <c r="Y27" s="176"/>
-      <c r="Z27" s="176"/>
-      <c r="AA27" s="176"/>
-      <c r="AB27" s="176"/>
-      <c r="AC27" s="176"/>
-      <c r="AD27" s="176"/>
-      <c r="AE27" s="176"/>
-      <c r="AF27" s="176"/>
-      <c r="AG27" s="176"/>
-      <c r="AH27" s="176"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="166"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="166"/>
+      <c r="R27" s="166"/>
+      <c r="S27" s="166"/>
+      <c r="T27" s="166"/>
+      <c r="U27" s="166"/>
+      <c r="V27" s="166"/>
+      <c r="W27" s="166"/>
+      <c r="X27" s="166"/>
+      <c r="Y27" s="166"/>
+      <c r="Z27" s="166"/>
+      <c r="AA27" s="166"/>
+      <c r="AB27" s="166"/>
+      <c r="AC27" s="166"/>
+      <c r="AD27" s="166"/>
+      <c r="AE27" s="166"/>
+      <c r="AF27" s="166"/>
+      <c r="AG27" s="166"/>
+      <c r="AH27" s="166"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
@@ -3830,48 +3839,48 @@
       <c r="AM27" s="8"/>
       <c r="AN27" s="12"/>
       <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="7"/>
-      <c r="AR27" s="7"/>
-      <c r="AS27" s="7"/>
-      <c r="AT27" s="7"/>
+      <c r="AP27" s="177"/>
+      <c r="AQ27" s="177"/>
+      <c r="AR27" s="177"/>
+      <c r="AS27" s="177"/>
+      <c r="AT27" s="177"/>
       <c r="AU27" s="8"/>
     </row>
     <row r="28" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="176"/>
-      <c r="O28" s="176"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="176"/>
-      <c r="R28" s="176"/>
-      <c r="S28" s="176"/>
-      <c r="T28" s="176"/>
-      <c r="U28" s="176"/>
-      <c r="V28" s="176"/>
-      <c r="W28" s="176"/>
-      <c r="X28" s="176"/>
-      <c r="Y28" s="176"/>
-      <c r="Z28" s="176"/>
-      <c r="AA28" s="176"/>
-      <c r="AB28" s="176"/>
-      <c r="AC28" s="176"/>
-      <c r="AD28" s="176"/>
-      <c r="AE28" s="176"/>
-      <c r="AF28" s="176"/>
-      <c r="AG28" s="176"/>
-      <c r="AH28" s="176"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="166"/>
+      <c r="P28" s="166"/>
+      <c r="Q28" s="166"/>
+      <c r="R28" s="166"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="166"/>
+      <c r="U28" s="166"/>
+      <c r="V28" s="166"/>
+      <c r="W28" s="166"/>
+      <c r="X28" s="166"/>
+      <c r="Y28" s="166"/>
+      <c r="Z28" s="166"/>
+      <c r="AA28" s="166"/>
+      <c r="AB28" s="166"/>
+      <c r="AC28" s="166"/>
+      <c r="AD28" s="166"/>
+      <c r="AE28" s="166"/>
+      <c r="AF28" s="166"/>
+      <c r="AG28" s="166"/>
+      <c r="AH28" s="166"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8" t="s">
         <v>43</v>
@@ -3883,50 +3892,50 @@
       <c r="AO28" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP28" s="119" t="s">
+      <c r="AP28" s="176" t="s">
         <v>179</v>
       </c>
-      <c r="AQ28" s="119"/>
-      <c r="AR28" s="119"/>
-      <c r="AS28" s="119"/>
-      <c r="AT28" s="119"/>
+      <c r="AQ28" s="176"/>
+      <c r="AR28" s="176"/>
+      <c r="AS28" s="176"/>
+      <c r="AT28" s="176"/>
       <c r="AU28" s="8"/>
     </row>
     <row r="29" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="176"/>
-      <c r="N29" s="176"/>
-      <c r="O29" s="176"/>
-      <c r="P29" s="176"/>
-      <c r="Q29" s="176"/>
-      <c r="R29" s="176"/>
-      <c r="S29" s="176"/>
-      <c r="T29" s="176"/>
-      <c r="U29" s="176"/>
-      <c r="V29" s="176"/>
-      <c r="W29" s="176"/>
-      <c r="X29" s="176"/>
-      <c r="Y29" s="176"/>
-      <c r="Z29" s="176"/>
-      <c r="AA29" s="176"/>
-      <c r="AB29" s="176"/>
-      <c r="AC29" s="176"/>
-      <c r="AD29" s="176"/>
-      <c r="AE29" s="176"/>
-      <c r="AF29" s="176"/>
-      <c r="AG29" s="176"/>
-      <c r="AH29" s="176"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="166"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="166"/>
+      <c r="U29" s="166"/>
+      <c r="V29" s="166"/>
+      <c r="W29" s="166"/>
+      <c r="X29" s="166"/>
+      <c r="Y29" s="166"/>
+      <c r="Z29" s="166"/>
+      <c r="AA29" s="166"/>
+      <c r="AB29" s="166"/>
+      <c r="AC29" s="166"/>
+      <c r="AD29" s="166"/>
+      <c r="AE29" s="166"/>
+      <c r="AF29" s="166"/>
+      <c r="AG29" s="166"/>
+      <c r="AH29" s="166"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
@@ -3934,48 +3943,48 @@
       <c r="AM29" s="8"/>
       <c r="AN29" s="12"/>
       <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
-      <c r="AQ29" s="7"/>
-      <c r="AR29" s="7"/>
-      <c r="AS29" s="7"/>
-      <c r="AT29" s="7"/>
+      <c r="AP29" s="177"/>
+      <c r="AQ29" s="177"/>
+      <c r="AR29" s="177"/>
+      <c r="AS29" s="177"/>
+      <c r="AT29" s="177"/>
       <c r="AU29" s="8"/>
     </row>
     <row r="30" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="176"/>
-      <c r="N30" s="176"/>
-      <c r="O30" s="176"/>
-      <c r="P30" s="176"/>
-      <c r="Q30" s="176"/>
-      <c r="R30" s="176"/>
-      <c r="S30" s="176"/>
-      <c r="T30" s="176"/>
-      <c r="U30" s="176"/>
-      <c r="V30" s="176"/>
-      <c r="W30" s="176"/>
-      <c r="X30" s="176"/>
-      <c r="Y30" s="176"/>
-      <c r="Z30" s="176"/>
-      <c r="AA30" s="176"/>
-      <c r="AB30" s="176"/>
-      <c r="AC30" s="176"/>
-      <c r="AD30" s="176"/>
-      <c r="AE30" s="176"/>
-      <c r="AF30" s="176"/>
-      <c r="AG30" s="176"/>
-      <c r="AH30" s="176"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="166"/>
+      <c r="O30" s="166"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="166"/>
+      <c r="R30" s="166"/>
+      <c r="S30" s="166"/>
+      <c r="T30" s="166"/>
+      <c r="U30" s="166"/>
+      <c r="V30" s="166"/>
+      <c r="W30" s="166"/>
+      <c r="X30" s="166"/>
+      <c r="Y30" s="166"/>
+      <c r="Z30" s="166"/>
+      <c r="AA30" s="166"/>
+      <c r="AB30" s="166"/>
+      <c r="AC30" s="166"/>
+      <c r="AD30" s="166"/>
+      <c r="AE30" s="166"/>
+      <c r="AF30" s="166"/>
+      <c r="AG30" s="166"/>
+      <c r="AH30" s="166"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8" t="s">
         <v>45</v>
@@ -3987,50 +3996,50 @@
       <c r="AO30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP30" s="119" t="s">
+      <c r="AP30" s="176" t="s">
         <v>180</v>
       </c>
-      <c r="AQ30" s="119"/>
-      <c r="AR30" s="119"/>
-      <c r="AS30" s="119"/>
-      <c r="AT30" s="119"/>
+      <c r="AQ30" s="176"/>
+      <c r="AR30" s="176"/>
+      <c r="AS30" s="176"/>
+      <c r="AT30" s="176"/>
       <c r="AU30" s="8"/>
     </row>
     <row r="31" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="176"/>
-      <c r="O31" s="176"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="176"/>
-      <c r="R31" s="176"/>
-      <c r="S31" s="176"/>
-      <c r="T31" s="176"/>
-      <c r="U31" s="176"/>
-      <c r="V31" s="176"/>
-      <c r="W31" s="176"/>
-      <c r="X31" s="176"/>
-      <c r="Y31" s="176"/>
-      <c r="Z31" s="176"/>
-      <c r="AA31" s="176"/>
-      <c r="AB31" s="176"/>
-      <c r="AC31" s="176"/>
-      <c r="AD31" s="176"/>
-      <c r="AE31" s="176"/>
-      <c r="AF31" s="176"/>
-      <c r="AG31" s="176"/>
-      <c r="AH31" s="176"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="166"/>
+      <c r="S31" s="166"/>
+      <c r="T31" s="166"/>
+      <c r="U31" s="166"/>
+      <c r="V31" s="166"/>
+      <c r="W31" s="166"/>
+      <c r="X31" s="166"/>
+      <c r="Y31" s="166"/>
+      <c r="Z31" s="166"/>
+      <c r="AA31" s="166"/>
+      <c r="AB31" s="166"/>
+      <c r="AC31" s="166"/>
+      <c r="AD31" s="166"/>
+      <c r="AE31" s="166"/>
+      <c r="AF31" s="166"/>
+      <c r="AG31" s="166"/>
+      <c r="AH31" s="166"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
@@ -4038,48 +4047,48 @@
       <c r="AM31" s="8"/>
       <c r="AN31" s="12"/>
       <c r="AO31" s="8"/>
-      <c r="AP31" s="8"/>
-      <c r="AQ31" s="8"/>
-      <c r="AR31" s="8"/>
-      <c r="AS31" s="8"/>
-      <c r="AT31" s="8"/>
+      <c r="AP31" s="178"/>
+      <c r="AQ31" s="178"/>
+      <c r="AR31" s="178"/>
+      <c r="AS31" s="178"/>
+      <c r="AT31" s="178"/>
       <c r="AU31" s="8"/>
     </row>
     <row r="32" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="176"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="176"/>
-      <c r="R32" s="176"/>
-      <c r="S32" s="176"/>
-      <c r="T32" s="176"/>
-      <c r="U32" s="176"/>
-      <c r="V32" s="176"/>
-      <c r="W32" s="176"/>
-      <c r="X32" s="176"/>
-      <c r="Y32" s="176"/>
-      <c r="Z32" s="176"/>
-      <c r="AA32" s="176"/>
-      <c r="AB32" s="176"/>
-      <c r="AC32" s="176"/>
-      <c r="AD32" s="176"/>
-      <c r="AE32" s="176"/>
-      <c r="AF32" s="176"/>
-      <c r="AG32" s="176"/>
-      <c r="AH32" s="176"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="166"/>
+      <c r="O32" s="166"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="166"/>
+      <c r="R32" s="166"/>
+      <c r="S32" s="166"/>
+      <c r="T32" s="166"/>
+      <c r="U32" s="166"/>
+      <c r="V32" s="166"/>
+      <c r="W32" s="166"/>
+      <c r="X32" s="166"/>
+      <c r="Y32" s="166"/>
+      <c r="Z32" s="166"/>
+      <c r="AA32" s="166"/>
+      <c r="AB32" s="166"/>
+      <c r="AC32" s="166"/>
+      <c r="AD32" s="166"/>
+      <c r="AE32" s="166"/>
+      <c r="AF32" s="166"/>
+      <c r="AG32" s="166"/>
+      <c r="AH32" s="166"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8" t="s">
         <v>46</v>
@@ -4091,50 +4100,50 @@
       <c r="AO32" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP32" s="119" t="s">
+      <c r="AP32" s="176" t="s">
         <v>181</v>
       </c>
-      <c r="AQ32" s="119"/>
-      <c r="AR32" s="119"/>
-      <c r="AS32" s="119"/>
-      <c r="AT32" s="119"/>
+      <c r="AQ32" s="176"/>
+      <c r="AR32" s="176"/>
+      <c r="AS32" s="176"/>
+      <c r="AT32" s="176"/>
       <c r="AU32" s="8"/>
     </row>
     <row r="33" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="176"/>
-      <c r="N33" s="176"/>
-      <c r="O33" s="176"/>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="176"/>
-      <c r="S33" s="176"/>
-      <c r="T33" s="176"/>
-      <c r="U33" s="176"/>
-      <c r="V33" s="176"/>
-      <c r="W33" s="176"/>
-      <c r="X33" s="176"/>
-      <c r="Y33" s="176"/>
-      <c r="Z33" s="176"/>
-      <c r="AA33" s="176"/>
-      <c r="AB33" s="176"/>
-      <c r="AC33" s="176"/>
-      <c r="AD33" s="176"/>
-      <c r="AE33" s="176"/>
-      <c r="AF33" s="176"/>
-      <c r="AG33" s="176"/>
-      <c r="AH33" s="176"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="166"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="166"/>
+      <c r="T33" s="166"/>
+      <c r="U33" s="166"/>
+      <c r="V33" s="166"/>
+      <c r="W33" s="166"/>
+      <c r="X33" s="166"/>
+      <c r="Y33" s="166"/>
+      <c r="Z33" s="166"/>
+      <c r="AA33" s="166"/>
+      <c r="AB33" s="166"/>
+      <c r="AC33" s="166"/>
+      <c r="AD33" s="166"/>
+      <c r="AE33" s="166"/>
+      <c r="AF33" s="166"/>
+      <c r="AG33" s="166"/>
+      <c r="AH33" s="166"/>
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8"/>
@@ -4142,50 +4151,50 @@
       <c r="AM33" s="8"/>
       <c r="AN33" s="12"/>
       <c r="AO33" s="8"/>
-      <c r="AP33" s="8"/>
-      <c r="AQ33" s="8"/>
-      <c r="AR33" s="8"/>
-      <c r="AS33" s="8"/>
-      <c r="AT33" s="8"/>
+      <c r="AP33" s="178"/>
+      <c r="AQ33" s="178"/>
+      <c r="AR33" s="178"/>
+      <c r="AS33" s="178"/>
+      <c r="AT33" s="178"/>
       <c r="AU33" s="8"/>
     </row>
     <row r="34" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="176"/>
-      <c r="L34" s="176"/>
-      <c r="M34" s="176"/>
-      <c r="N34" s="176"/>
-      <c r="O34" s="176"/>
-      <c r="P34" s="176"/>
-      <c r="Q34" s="176"/>
-      <c r="R34" s="176"/>
-      <c r="S34" s="176"/>
-      <c r="T34" s="176"/>
-      <c r="U34" s="176"/>
-      <c r="V34" s="176"/>
-      <c r="W34" s="176"/>
-      <c r="X34" s="176"/>
-      <c r="Y34" s="176"/>
-      <c r="Z34" s="176"/>
-      <c r="AA34" s="176"/>
-      <c r="AB34" s="176"/>
-      <c r="AC34" s="176"/>
-      <c r="AD34" s="176"/>
-      <c r="AE34" s="176"/>
-      <c r="AF34" s="176"/>
-      <c r="AG34" s="176"/>
-      <c r="AH34" s="176"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="166"/>
+      <c r="K34" s="166"/>
+      <c r="L34" s="166"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="166"/>
+      <c r="O34" s="166"/>
+      <c r="P34" s="166"/>
+      <c r="Q34" s="166"/>
+      <c r="R34" s="166"/>
+      <c r="S34" s="166"/>
+      <c r="T34" s="166"/>
+      <c r="U34" s="166"/>
+      <c r="V34" s="166"/>
+      <c r="W34" s="166"/>
+      <c r="X34" s="166"/>
+      <c r="Y34" s="166"/>
+      <c r="Z34" s="166"/>
+      <c r="AA34" s="166"/>
+      <c r="AB34" s="166"/>
+      <c r="AC34" s="166"/>
+      <c r="AD34" s="166"/>
+      <c r="AE34" s="166"/>
+      <c r="AF34" s="166"/>
+      <c r="AG34" s="166"/>
+      <c r="AH34" s="166"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8" t="s">
         <v>50</v>
@@ -4197,50 +4206,50 @@
       <c r="AO34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP34" s="119" t="s">
+      <c r="AP34" s="176" t="s">
         <v>182</v>
       </c>
-      <c r="AQ34" s="119"/>
-      <c r="AR34" s="119"/>
-      <c r="AS34" s="119"/>
-      <c r="AT34" s="119"/>
+      <c r="AQ34" s="176"/>
+      <c r="AR34" s="176"/>
+      <c r="AS34" s="176"/>
+      <c r="AT34" s="176"/>
       <c r="AU34" s="8"/>
     </row>
     <row r="35" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="176"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="176"/>
-      <c r="K35" s="176"/>
-      <c r="L35" s="176"/>
-      <c r="M35" s="176"/>
-      <c r="N35" s="176"/>
-      <c r="O35" s="176"/>
-      <c r="P35" s="176"/>
-      <c r="Q35" s="176"/>
-      <c r="R35" s="176"/>
-      <c r="S35" s="176"/>
-      <c r="T35" s="176"/>
-      <c r="U35" s="176"/>
-      <c r="V35" s="176"/>
-      <c r="W35" s="176"/>
-      <c r="X35" s="176"/>
-      <c r="Y35" s="176"/>
-      <c r="Z35" s="176"/>
-      <c r="AA35" s="176"/>
-      <c r="AB35" s="176"/>
-      <c r="AC35" s="176"/>
-      <c r="AD35" s="176"/>
-      <c r="AE35" s="176"/>
-      <c r="AF35" s="176"/>
-      <c r="AG35" s="176"/>
-      <c r="AH35" s="176"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="166"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="166"/>
+      <c r="N35" s="166"/>
+      <c r="O35" s="166"/>
+      <c r="P35" s="166"/>
+      <c r="Q35" s="166"/>
+      <c r="R35" s="166"/>
+      <c r="S35" s="166"/>
+      <c r="T35" s="166"/>
+      <c r="U35" s="166"/>
+      <c r="V35" s="166"/>
+      <c r="W35" s="166"/>
+      <c r="X35" s="166"/>
+      <c r="Y35" s="166"/>
+      <c r="Z35" s="166"/>
+      <c r="AA35" s="166"/>
+      <c r="AB35" s="166"/>
+      <c r="AC35" s="166"/>
+      <c r="AD35" s="166"/>
+      <c r="AE35" s="166"/>
+      <c r="AF35" s="166"/>
+      <c r="AG35" s="166"/>
+      <c r="AH35" s="166"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
@@ -4248,48 +4257,48 @@
       <c r="AM35" s="8"/>
       <c r="AN35" s="12"/>
       <c r="AO35" s="12"/>
-      <c r="AP35" s="12"/>
-      <c r="AQ35" s="12"/>
-      <c r="AR35" s="8"/>
-      <c r="AS35" s="8"/>
-      <c r="AT35" s="8"/>
+      <c r="AP35" s="179"/>
+      <c r="AQ35" s="179"/>
+      <c r="AR35" s="178"/>
+      <c r="AS35" s="178"/>
+      <c r="AT35" s="178"/>
       <c r="AU35" s="8"/>
     </row>
     <row r="36" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
-      <c r="N36" s="176"/>
-      <c r="O36" s="176"/>
-      <c r="P36" s="176"/>
-      <c r="Q36" s="176"/>
-      <c r="R36" s="176"/>
-      <c r="S36" s="176"/>
-      <c r="T36" s="176"/>
-      <c r="U36" s="176"/>
-      <c r="V36" s="176"/>
-      <c r="W36" s="176"/>
-      <c r="X36" s="176"/>
-      <c r="Y36" s="176"/>
-      <c r="Z36" s="176"/>
-      <c r="AA36" s="176"/>
-      <c r="AB36" s="176"/>
-      <c r="AC36" s="176"/>
-      <c r="AD36" s="176"/>
-      <c r="AE36" s="176"/>
-      <c r="AF36" s="176"/>
-      <c r="AG36" s="176"/>
-      <c r="AH36" s="176"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="166"/>
+      <c r="K36" s="166"/>
+      <c r="L36" s="166"/>
+      <c r="M36" s="166"/>
+      <c r="N36" s="166"/>
+      <c r="O36" s="166"/>
+      <c r="P36" s="166"/>
+      <c r="Q36" s="166"/>
+      <c r="R36" s="166"/>
+      <c r="S36" s="166"/>
+      <c r="T36" s="166"/>
+      <c r="U36" s="166"/>
+      <c r="V36" s="166"/>
+      <c r="W36" s="166"/>
+      <c r="X36" s="166"/>
+      <c r="Y36" s="166"/>
+      <c r="Z36" s="166"/>
+      <c r="AA36" s="166"/>
+      <c r="AB36" s="166"/>
+      <c r="AC36" s="166"/>
+      <c r="AD36" s="166"/>
+      <c r="AE36" s="166"/>
+      <c r="AF36" s="166"/>
+      <c r="AG36" s="166"/>
+      <c r="AH36" s="166"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8" t="s">
         <v>49</v>
@@ -4301,50 +4310,50 @@
       <c r="AO36" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP36" s="119" t="s">
+      <c r="AP36" s="176" t="s">
         <v>183</v>
       </c>
-      <c r="AQ36" s="119"/>
-      <c r="AR36" s="119"/>
-      <c r="AS36" s="119"/>
-      <c r="AT36" s="119"/>
+      <c r="AQ36" s="176"/>
+      <c r="AR36" s="176"/>
+      <c r="AS36" s="176"/>
+      <c r="AT36" s="176"/>
       <c r="AU36" s="8"/>
     </row>
     <row r="37" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="176"/>
-      <c r="K37" s="176"/>
-      <c r="L37" s="176"/>
-      <c r="M37" s="176"/>
-      <c r="N37" s="176"/>
-      <c r="O37" s="176"/>
-      <c r="P37" s="176"/>
-      <c r="Q37" s="176"/>
-      <c r="R37" s="176"/>
-      <c r="S37" s="176"/>
-      <c r="T37" s="176"/>
-      <c r="U37" s="176"/>
-      <c r="V37" s="176"/>
-      <c r="W37" s="176"/>
-      <c r="X37" s="176"/>
-      <c r="Y37" s="176"/>
-      <c r="Z37" s="176"/>
-      <c r="AA37" s="176"/>
-      <c r="AB37" s="176"/>
-      <c r="AC37" s="176"/>
-      <c r="AD37" s="176"/>
-      <c r="AE37" s="176"/>
-      <c r="AF37" s="176"/>
-      <c r="AG37" s="176"/>
-      <c r="AH37" s="176"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="166"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="166"/>
+      <c r="K37" s="166"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="166"/>
+      <c r="N37" s="166"/>
+      <c r="O37" s="166"/>
+      <c r="P37" s="166"/>
+      <c r="Q37" s="166"/>
+      <c r="R37" s="166"/>
+      <c r="S37" s="166"/>
+      <c r="T37" s="166"/>
+      <c r="U37" s="166"/>
+      <c r="V37" s="166"/>
+      <c r="W37" s="166"/>
+      <c r="X37" s="166"/>
+      <c r="Y37" s="166"/>
+      <c r="Z37" s="166"/>
+      <c r="AA37" s="166"/>
+      <c r="AB37" s="166"/>
+      <c r="AC37" s="166"/>
+      <c r="AD37" s="166"/>
+      <c r="AE37" s="166"/>
+      <c r="AF37" s="166"/>
+      <c r="AG37" s="166"/>
+      <c r="AH37" s="166"/>
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
@@ -4352,48 +4361,48 @@
       <c r="AM37" s="8"/>
       <c r="AN37" s="12"/>
       <c r="AO37" s="12"/>
-      <c r="AP37" s="12"/>
-      <c r="AQ37" s="12"/>
-      <c r="AR37" s="8"/>
-      <c r="AS37" s="8"/>
-      <c r="AT37" s="8"/>
+      <c r="AP37" s="179"/>
+      <c r="AQ37" s="179"/>
+      <c r="AR37" s="178"/>
+      <c r="AS37" s="178"/>
+      <c r="AT37" s="178"/>
       <c r="AU37" s="8"/>
     </row>
     <row r="38" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="176"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="176"/>
-      <c r="K38" s="176"/>
-      <c r="L38" s="176"/>
-      <c r="M38" s="176"/>
-      <c r="N38" s="176"/>
-      <c r="O38" s="176"/>
-      <c r="P38" s="176"/>
-      <c r="Q38" s="176"/>
-      <c r="R38" s="176"/>
-      <c r="S38" s="176"/>
-      <c r="T38" s="176"/>
-      <c r="U38" s="176"/>
-      <c r="V38" s="176"/>
-      <c r="W38" s="176"/>
-      <c r="X38" s="176"/>
-      <c r="Y38" s="176"/>
-      <c r="Z38" s="176"/>
-      <c r="AA38" s="176"/>
-      <c r="AB38" s="176"/>
-      <c r="AC38" s="176"/>
-      <c r="AD38" s="176"/>
-      <c r="AE38" s="176"/>
-      <c r="AF38" s="176"/>
-      <c r="AG38" s="176"/>
-      <c r="AH38" s="176"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="166"/>
+      <c r="K38" s="166"/>
+      <c r="L38" s="166"/>
+      <c r="M38" s="166"/>
+      <c r="N38" s="166"/>
+      <c r="O38" s="166"/>
+      <c r="P38" s="166"/>
+      <c r="Q38" s="166"/>
+      <c r="R38" s="166"/>
+      <c r="S38" s="166"/>
+      <c r="T38" s="166"/>
+      <c r="U38" s="166"/>
+      <c r="V38" s="166"/>
+      <c r="W38" s="166"/>
+      <c r="X38" s="166"/>
+      <c r="Y38" s="166"/>
+      <c r="Z38" s="166"/>
+      <c r="AA38" s="166"/>
+      <c r="AB38" s="166"/>
+      <c r="AC38" s="166"/>
+      <c r="AD38" s="166"/>
+      <c r="AE38" s="166"/>
+      <c r="AF38" s="166"/>
+      <c r="AG38" s="166"/>
+      <c r="AH38" s="166"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8" t="s">
         <v>48</v>
@@ -4405,50 +4414,50 @@
       <c r="AO38" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP38" s="119" t="s">
+      <c r="AP38" s="176" t="s">
         <v>184</v>
       </c>
-      <c r="AQ38" s="119"/>
-      <c r="AR38" s="119"/>
-      <c r="AS38" s="119"/>
-      <c r="AT38" s="119"/>
+      <c r="AQ38" s="176"/>
+      <c r="AR38" s="176"/>
+      <c r="AS38" s="176"/>
+      <c r="AT38" s="176"/>
       <c r="AU38" s="8"/>
     </row>
     <row r="39" spans="1:47" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="176"/>
-      <c r="L39" s="176"/>
-      <c r="M39" s="176"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="176"/>
-      <c r="P39" s="176"/>
-      <c r="Q39" s="176"/>
-      <c r="R39" s="176"/>
-      <c r="S39" s="176"/>
-      <c r="T39" s="176"/>
-      <c r="U39" s="176"/>
-      <c r="V39" s="176"/>
-      <c r="W39" s="176"/>
-      <c r="X39" s="176"/>
-      <c r="Y39" s="176"/>
-      <c r="Z39" s="176"/>
-      <c r="AA39" s="176"/>
-      <c r="AB39" s="176"/>
-      <c r="AC39" s="176"/>
-      <c r="AD39" s="176"/>
-      <c r="AE39" s="176"/>
-      <c r="AF39" s="176"/>
-      <c r="AG39" s="176"/>
-      <c r="AH39" s="176"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="166"/>
+      <c r="K39" s="166"/>
+      <c r="L39" s="166"/>
+      <c r="M39" s="166"/>
+      <c r="N39" s="166"/>
+      <c r="O39" s="166"/>
+      <c r="P39" s="166"/>
+      <c r="Q39" s="166"/>
+      <c r="R39" s="166"/>
+      <c r="S39" s="166"/>
+      <c r="T39" s="166"/>
+      <c r="U39" s="166"/>
+      <c r="V39" s="166"/>
+      <c r="W39" s="166"/>
+      <c r="X39" s="166"/>
+      <c r="Y39" s="166"/>
+      <c r="Z39" s="166"/>
+      <c r="AA39" s="166"/>
+      <c r="AB39" s="166"/>
+      <c r="AC39" s="166"/>
+      <c r="AD39" s="166"/>
+      <c r="AE39" s="166"/>
+      <c r="AF39" s="166"/>
+      <c r="AG39" s="166"/>
+      <c r="AH39" s="166"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
@@ -4465,39 +4474,39 @@
     </row>
     <row r="40" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="176"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="176"/>
-      <c r="K40" s="176"/>
-      <c r="L40" s="176"/>
-      <c r="M40" s="176"/>
-      <c r="N40" s="176"/>
-      <c r="O40" s="176"/>
-      <c r="P40" s="176"/>
-      <c r="Q40" s="176"/>
-      <c r="R40" s="176"/>
-      <c r="S40" s="176"/>
-      <c r="T40" s="176"/>
-      <c r="U40" s="176"/>
-      <c r="V40" s="176"/>
-      <c r="W40" s="176"/>
-      <c r="X40" s="176"/>
-      <c r="Y40" s="176"/>
-      <c r="Z40" s="176"/>
-      <c r="AA40" s="176"/>
-      <c r="AB40" s="176"/>
-      <c r="AC40" s="176"/>
-      <c r="AD40" s="176"/>
-      <c r="AE40" s="176"/>
-      <c r="AF40" s="176"/>
-      <c r="AG40" s="176"/>
-      <c r="AH40" s="176"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="166"/>
+      <c r="N40" s="166"/>
+      <c r="O40" s="166"/>
+      <c r="P40" s="166"/>
+      <c r="Q40" s="166"/>
+      <c r="R40" s="166"/>
+      <c r="S40" s="166"/>
+      <c r="T40" s="166"/>
+      <c r="U40" s="166"/>
+      <c r="V40" s="166"/>
+      <c r="W40" s="166"/>
+      <c r="X40" s="166"/>
+      <c r="Y40" s="166"/>
+      <c r="Z40" s="166"/>
+      <c r="AA40" s="166"/>
+      <c r="AB40" s="166"/>
+      <c r="AC40" s="166"/>
+      <c r="AD40" s="166"/>
+      <c r="AE40" s="166"/>
+      <c r="AF40" s="166"/>
+      <c r="AG40" s="166"/>
+      <c r="AH40" s="166"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="15" t="s">
         <v>17</v>
@@ -4516,39 +4525,39 @@
     </row>
     <row r="41" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="176"/>
-      <c r="K41" s="176"/>
-      <c r="L41" s="176"/>
-      <c r="M41" s="176"/>
-      <c r="N41" s="176"/>
-      <c r="O41" s="176"/>
-      <c r="P41" s="176"/>
-      <c r="Q41" s="176"/>
-      <c r="R41" s="176"/>
-      <c r="S41" s="176"/>
-      <c r="T41" s="176"/>
-      <c r="U41" s="176"/>
-      <c r="V41" s="176"/>
-      <c r="W41" s="176"/>
-      <c r="X41" s="176"/>
-      <c r="Y41" s="176"/>
-      <c r="Z41" s="176"/>
-      <c r="AA41" s="176"/>
-      <c r="AB41" s="176"/>
-      <c r="AC41" s="176"/>
-      <c r="AD41" s="176"/>
-      <c r="AE41" s="176"/>
-      <c r="AF41" s="176"/>
-      <c r="AG41" s="176"/>
-      <c r="AH41" s="176"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="166"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="166"/>
+      <c r="N41" s="166"/>
+      <c r="O41" s="166"/>
+      <c r="P41" s="166"/>
+      <c r="Q41" s="166"/>
+      <c r="R41" s="166"/>
+      <c r="S41" s="166"/>
+      <c r="T41" s="166"/>
+      <c r="U41" s="166"/>
+      <c r="V41" s="166"/>
+      <c r="W41" s="166"/>
+      <c r="X41" s="166"/>
+      <c r="Y41" s="166"/>
+      <c r="Z41" s="166"/>
+      <c r="AA41" s="166"/>
+      <c r="AB41" s="166"/>
+      <c r="AC41" s="166"/>
+      <c r="AD41" s="166"/>
+      <c r="AE41" s="166"/>
+      <c r="AF41" s="166"/>
+      <c r="AG41" s="166"/>
+      <c r="AH41" s="166"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
@@ -4565,39 +4574,39 @@
     </row>
     <row r="42" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="176"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="176"/>
-      <c r="K42" s="176"/>
-      <c r="L42" s="176"/>
-      <c r="M42" s="176"/>
-      <c r="N42" s="176"/>
-      <c r="O42" s="176"/>
-      <c r="P42" s="176"/>
-      <c r="Q42" s="176"/>
-      <c r="R42" s="176"/>
-      <c r="S42" s="176"/>
-      <c r="T42" s="176"/>
-      <c r="U42" s="176"/>
-      <c r="V42" s="176"/>
-      <c r="W42" s="176"/>
-      <c r="X42" s="176"/>
-      <c r="Y42" s="176"/>
-      <c r="Z42" s="176"/>
-      <c r="AA42" s="176"/>
-      <c r="AB42" s="176"/>
-      <c r="AC42" s="176"/>
-      <c r="AD42" s="176"/>
-      <c r="AE42" s="176"/>
-      <c r="AF42" s="176"/>
-      <c r="AG42" s="176"/>
-      <c r="AH42" s="176"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="166"/>
+      <c r="L42" s="166"/>
+      <c r="M42" s="166"/>
+      <c r="N42" s="166"/>
+      <c r="O42" s="166"/>
+      <c r="P42" s="166"/>
+      <c r="Q42" s="166"/>
+      <c r="R42" s="166"/>
+      <c r="S42" s="166"/>
+      <c r="T42" s="166"/>
+      <c r="U42" s="166"/>
+      <c r="V42" s="166"/>
+      <c r="W42" s="166"/>
+      <c r="X42" s="166"/>
+      <c r="Y42" s="166"/>
+      <c r="Z42" s="166"/>
+      <c r="AA42" s="166"/>
+      <c r="AB42" s="166"/>
+      <c r="AC42" s="166"/>
+      <c r="AD42" s="166"/>
+      <c r="AE42" s="166"/>
+      <c r="AF42" s="166"/>
+      <c r="AG42" s="166"/>
+      <c r="AH42" s="166"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8" t="s">
         <v>99</v>
@@ -4607,50 +4616,50 @@
       <c r="AM42" s="8"/>
       <c r="AN42" s="8"/>
       <c r="AO42" s="8"/>
-      <c r="AP42" s="121" t="s">
+      <c r="AP42" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="AQ42" s="121"/>
-      <c r="AR42" s="121"/>
-      <c r="AS42" s="121"/>
-      <c r="AT42" s="121"/>
+      <c r="AQ42" s="160"/>
+      <c r="AR42" s="160"/>
+      <c r="AS42" s="160"/>
+      <c r="AT42" s="160"/>
       <c r="AU42" s="14"/>
     </row>
     <row r="43" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="176"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="176"/>
-      <c r="K43" s="176"/>
-      <c r="L43" s="176"/>
-      <c r="M43" s="176"/>
-      <c r="N43" s="176"/>
-      <c r="O43" s="176"/>
-      <c r="P43" s="176"/>
-      <c r="Q43" s="176"/>
-      <c r="R43" s="176"/>
-      <c r="S43" s="176"/>
-      <c r="T43" s="176"/>
-      <c r="U43" s="176"/>
-      <c r="V43" s="176"/>
-      <c r="W43" s="176"/>
-      <c r="X43" s="176"/>
-      <c r="Y43" s="176"/>
-      <c r="Z43" s="176"/>
-      <c r="AA43" s="176"/>
-      <c r="AB43" s="176"/>
-      <c r="AC43" s="176"/>
-      <c r="AD43" s="176"/>
-      <c r="AE43" s="176"/>
-      <c r="AF43" s="176"/>
-      <c r="AG43" s="176"/>
-      <c r="AH43" s="176"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="166"/>
+      <c r="M43" s="166"/>
+      <c r="N43" s="166"/>
+      <c r="O43" s="166"/>
+      <c r="P43" s="166"/>
+      <c r="Q43" s="166"/>
+      <c r="R43" s="166"/>
+      <c r="S43" s="166"/>
+      <c r="T43" s="166"/>
+      <c r="U43" s="166"/>
+      <c r="V43" s="166"/>
+      <c r="W43" s="166"/>
+      <c r="X43" s="166"/>
+      <c r="Y43" s="166"/>
+      <c r="Z43" s="166"/>
+      <c r="AA43" s="166"/>
+      <c r="AB43" s="166"/>
+      <c r="AC43" s="166"/>
+      <c r="AD43" s="166"/>
+      <c r="AE43" s="166"/>
+      <c r="AF43" s="166"/>
+      <c r="AG43" s="166"/>
+      <c r="AH43" s="166"/>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
@@ -4667,39 +4676,39 @@
     </row>
     <row r="44" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="176"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="176"/>
-      <c r="J44" s="176"/>
-      <c r="K44" s="176"/>
-      <c r="L44" s="176"/>
-      <c r="M44" s="176"/>
-      <c r="N44" s="176"/>
-      <c r="O44" s="176"/>
-      <c r="P44" s="176"/>
-      <c r="Q44" s="176"/>
-      <c r="R44" s="176"/>
-      <c r="S44" s="176"/>
-      <c r="T44" s="176"/>
-      <c r="U44" s="176"/>
-      <c r="V44" s="176"/>
-      <c r="W44" s="176"/>
-      <c r="X44" s="176"/>
-      <c r="Y44" s="176"/>
-      <c r="Z44" s="176"/>
-      <c r="AA44" s="176"/>
-      <c r="AB44" s="176"/>
-      <c r="AC44" s="176"/>
-      <c r="AD44" s="176"/>
-      <c r="AE44" s="176"/>
-      <c r="AF44" s="176"/>
-      <c r="AG44" s="176"/>
-      <c r="AH44" s="176"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="166"/>
+      <c r="N44" s="166"/>
+      <c r="O44" s="166"/>
+      <c r="P44" s="166"/>
+      <c r="Q44" s="166"/>
+      <c r="R44" s="166"/>
+      <c r="S44" s="166"/>
+      <c r="T44" s="166"/>
+      <c r="U44" s="166"/>
+      <c r="V44" s="166"/>
+      <c r="W44" s="166"/>
+      <c r="X44" s="166"/>
+      <c r="Y44" s="166"/>
+      <c r="Z44" s="166"/>
+      <c r="AA44" s="166"/>
+      <c r="AB44" s="166"/>
+      <c r="AC44" s="166"/>
+      <c r="AD44" s="166"/>
+      <c r="AE44" s="166"/>
+      <c r="AF44" s="166"/>
+      <c r="AG44" s="166"/>
+      <c r="AH44" s="166"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8" t="s">
         <v>97</v>
@@ -4709,88 +4718,88 @@
       <c r="AM44" s="8"/>
       <c r="AN44" s="22"/>
       <c r="AO44" s="22"/>
-      <c r="AP44" s="121" t="s">
+      <c r="AP44" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="AQ44" s="121"/>
-      <c r="AR44" s="121"/>
-      <c r="AS44" s="121"/>
-      <c r="AT44" s="121"/>
+      <c r="AQ44" s="160"/>
+      <c r="AR44" s="160"/>
+      <c r="AS44" s="160"/>
+      <c r="AT44" s="160"/>
       <c r="AU44" s="14"/>
     </row>
     <row r="45" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="176"/>
-      <c r="K45" s="176"/>
-      <c r="L45" s="176"/>
-      <c r="M45" s="176"/>
-      <c r="N45" s="176"/>
-      <c r="O45" s="176"/>
-      <c r="P45" s="176"/>
-      <c r="Q45" s="176"/>
-      <c r="R45" s="176"/>
-      <c r="S45" s="176"/>
-      <c r="T45" s="176"/>
-      <c r="U45" s="176"/>
-      <c r="V45" s="176"/>
-      <c r="W45" s="176"/>
-      <c r="X45" s="176"/>
-      <c r="Y45" s="176"/>
-      <c r="Z45" s="176"/>
-      <c r="AA45" s="176"/>
-      <c r="AB45" s="176"/>
-      <c r="AC45" s="176"/>
-      <c r="AD45" s="176"/>
-      <c r="AE45" s="176"/>
-      <c r="AF45" s="176"/>
-      <c r="AG45" s="176"/>
-      <c r="AH45" s="176"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="166"/>
+      <c r="G45" s="166"/>
+      <c r="H45" s="166"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="166"/>
+      <c r="L45" s="166"/>
+      <c r="M45" s="166"/>
+      <c r="N45" s="166"/>
+      <c r="O45" s="166"/>
+      <c r="P45" s="166"/>
+      <c r="Q45" s="166"/>
+      <c r="R45" s="166"/>
+      <c r="S45" s="166"/>
+      <c r="T45" s="166"/>
+      <c r="U45" s="166"/>
+      <c r="V45" s="166"/>
+      <c r="W45" s="166"/>
+      <c r="X45" s="166"/>
+      <c r="Y45" s="166"/>
+      <c r="Z45" s="166"/>
+      <c r="AA45" s="166"/>
+      <c r="AB45" s="166"/>
+      <c r="AC45" s="166"/>
+      <c r="AD45" s="166"/>
+      <c r="AE45" s="166"/>
+      <c r="AF45" s="166"/>
+      <c r="AG45" s="166"/>
+      <c r="AH45" s="166"/>
       <c r="AI45" s="8"/>
       <c r="AU45" s="14"/>
     </row>
     <row r="46" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="176"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="176"/>
-      <c r="J46" s="176"/>
-      <c r="K46" s="176"/>
-      <c r="L46" s="176"/>
-      <c r="M46" s="176"/>
-      <c r="N46" s="176"/>
-      <c r="O46" s="176"/>
-      <c r="P46" s="176"/>
-      <c r="Q46" s="176"/>
-      <c r="R46" s="176"/>
-      <c r="S46" s="176"/>
-      <c r="T46" s="176"/>
-      <c r="U46" s="176"/>
-      <c r="V46" s="176"/>
-      <c r="W46" s="176"/>
-      <c r="X46" s="176"/>
-      <c r="Y46" s="176"/>
-      <c r="Z46" s="176"/>
-      <c r="AA46" s="176"/>
-      <c r="AB46" s="176"/>
-      <c r="AC46" s="176"/>
-      <c r="AD46" s="176"/>
-      <c r="AE46" s="176"/>
-      <c r="AF46" s="176"/>
-      <c r="AG46" s="176"/>
-      <c r="AH46" s="176"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="166"/>
+      <c r="M46" s="166"/>
+      <c r="N46" s="166"/>
+      <c r="O46" s="166"/>
+      <c r="P46" s="166"/>
+      <c r="Q46" s="166"/>
+      <c r="R46" s="166"/>
+      <c r="S46" s="166"/>
+      <c r="T46" s="166"/>
+      <c r="U46" s="166"/>
+      <c r="V46" s="166"/>
+      <c r="W46" s="166"/>
+      <c r="X46" s="166"/>
+      <c r="Y46" s="166"/>
+      <c r="Z46" s="166"/>
+      <c r="AA46" s="166"/>
+      <c r="AB46" s="166"/>
+      <c r="AC46" s="166"/>
+      <c r="AD46" s="166"/>
+      <c r="AE46" s="166"/>
+      <c r="AF46" s="166"/>
+      <c r="AG46" s="166"/>
+      <c r="AH46" s="166"/>
       <c r="AJ46" s="8" t="s">
         <v>98</v>
       </c>
@@ -4799,50 +4808,50 @@
       <c r="AM46" s="8"/>
       <c r="AN46" s="8"/>
       <c r="AO46" s="8"/>
-      <c r="AP46" s="121" t="s">
+      <c r="AP46" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="AQ46" s="121"/>
-      <c r="AR46" s="121"/>
-      <c r="AS46" s="121"/>
-      <c r="AT46" s="121"/>
+      <c r="AQ46" s="160"/>
+      <c r="AR46" s="160"/>
+      <c r="AS46" s="160"/>
+      <c r="AT46" s="160"/>
       <c r="AU46" s="14"/>
     </row>
     <row r="47" spans="1:47" s="20" customFormat="1" ht="8.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="176"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="176"/>
-      <c r="L47" s="176"/>
-      <c r="M47" s="176"/>
-      <c r="N47" s="176"/>
-      <c r="O47" s="176"/>
-      <c r="P47" s="176"/>
-      <c r="Q47" s="176"/>
-      <c r="R47" s="176"/>
-      <c r="S47" s="176"/>
-      <c r="T47" s="176"/>
-      <c r="U47" s="176"/>
-      <c r="V47" s="176"/>
-      <c r="W47" s="176"/>
-      <c r="X47" s="176"/>
-      <c r="Y47" s="176"/>
-      <c r="Z47" s="176"/>
-      <c r="AA47" s="176"/>
-      <c r="AB47" s="176"/>
-      <c r="AC47" s="176"/>
-      <c r="AD47" s="176"/>
-      <c r="AE47" s="176"/>
-      <c r="AF47" s="176"/>
-      <c r="AG47" s="176"/>
-      <c r="AH47" s="176"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="166"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="166"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="166"/>
+      <c r="L47" s="166"/>
+      <c r="M47" s="166"/>
+      <c r="N47" s="166"/>
+      <c r="O47" s="166"/>
+      <c r="P47" s="166"/>
+      <c r="Q47" s="166"/>
+      <c r="R47" s="166"/>
+      <c r="S47" s="166"/>
+      <c r="T47" s="166"/>
+      <c r="U47" s="166"/>
+      <c r="V47" s="166"/>
+      <c r="W47" s="166"/>
+      <c r="X47" s="166"/>
+      <c r="Y47" s="166"/>
+      <c r="Z47" s="166"/>
+      <c r="AA47" s="166"/>
+      <c r="AB47" s="166"/>
+      <c r="AC47" s="166"/>
+      <c r="AD47" s="166"/>
+      <c r="AE47" s="166"/>
+      <c r="AF47" s="166"/>
+      <c r="AG47" s="166"/>
+      <c r="AH47" s="166"/>
       <c r="AI47" s="8"/>
       <c r="AU47" s="14"/>
     </row>
@@ -4932,38 +4941,38 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="117" t="s">
+      <c r="I50" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="J50" s="117"/>
-      <c r="K50" s="117"/>
-      <c r="L50" s="117"/>
-      <c r="M50" s="117"/>
-      <c r="N50" s="117"/>
-      <c r="O50" s="117"/>
-      <c r="P50" s="117"/>
-      <c r="Q50" s="117"/>
-      <c r="R50" s="117"/>
-      <c r="S50" s="117"/>
-      <c r="T50" s="117"/>
-      <c r="U50" s="117"/>
-      <c r="V50" s="117"/>
-      <c r="W50" s="117"/>
+      <c r="J50" s="163"/>
+      <c r="K50" s="163"/>
+      <c r="L50" s="163"/>
+      <c r="M50" s="163"/>
+      <c r="N50" s="163"/>
+      <c r="O50" s="163"/>
+      <c r="P50" s="163"/>
+      <c r="Q50" s="163"/>
+      <c r="R50" s="163"/>
+      <c r="S50" s="163"/>
+      <c r="T50" s="163"/>
+      <c r="U50" s="163"/>
+      <c r="V50" s="163"/>
+      <c r="W50" s="163"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="15" t="s">
         <v>24</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
-      <c r="AB50" s="118" t="s">
+      <c r="AB50" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="AC50" s="118"/>
-      <c r="AD50" s="118"/>
-      <c r="AE50" s="118"/>
-      <c r="AF50" s="118"/>
-      <c r="AG50" s="118"/>
-      <c r="AH50" s="118"/>
+      <c r="AC50" s="164"/>
+      <c r="AD50" s="164"/>
+      <c r="AE50" s="164"/>
+      <c r="AF50" s="164"/>
+      <c r="AG50" s="164"/>
+      <c r="AH50" s="164"/>
       <c r="AU50" s="14"/>
     </row>
     <row r="51" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5073,21 +5082,21 @@
         <v>6</v>
       </c>
       <c r="I55" s="54"/>
-      <c r="J55" s="106" t="s">
+      <c r="J55" s="167" t="s">
         <v>190</v>
       </c>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106"/>
+      <c r="K55" s="167"/>
+      <c r="L55" s="167"/>
       <c r="N55" s="13"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S55" s="106" t="s">
+      <c r="S55" s="167" t="s">
         <v>198</v>
       </c>
-      <c r="T55" s="106"/>
-      <c r="U55" s="106"/>
+      <c r="T55" s="167"/>
+      <c r="U55" s="167"/>
       <c r="W55" s="8" t="s">
         <v>92</v>
       </c>
@@ -5097,13 +5106,13 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
-      <c r="AD55" s="116" t="s">
+      <c r="AD55" s="168" t="s">
         <v>206</v>
       </c>
-      <c r="AE55" s="116"/>
-      <c r="AF55" s="116"/>
-      <c r="AG55" s="116"/>
-      <c r="AH55" s="116"/>
+      <c r="AE55" s="168"/>
+      <c r="AF55" s="168"/>
+      <c r="AG55" s="168"/>
+      <c r="AH55" s="168"/>
       <c r="AI55" s="8"/>
       <c r="AJ55" s="8" t="s">
         <v>42</v>
@@ -5112,12 +5121,12 @@
       <c r="AL55" s="8"/>
       <c r="AM55" s="8"/>
       <c r="AN55" s="12"/>
-      <c r="AO55" s="103" t="s">
+      <c r="AO55" s="180" t="s">
         <v>214</v>
       </c>
-      <c r="AP55" s="103"/>
-      <c r="AQ55" s="103"/>
-      <c r="AR55" s="103"/>
+      <c r="AP55" s="180"/>
+      <c r="AQ55" s="180"/>
+      <c r="AR55" s="180"/>
       <c r="AS55" s="98" t="s">
         <v>55</v>
       </c>
@@ -5156,10 +5165,10 @@
       <c r="AL56" s="8"/>
       <c r="AM56" s="8"/>
       <c r="AN56" s="12"/>
-      <c r="AO56" s="11"/>
-      <c r="AP56" s="11"/>
-      <c r="AQ56" s="11"/>
-      <c r="AR56" s="16"/>
+      <c r="AO56" s="181"/>
+      <c r="AP56" s="181"/>
+      <c r="AQ56" s="181"/>
+      <c r="AR56" s="182"/>
       <c r="AS56" s="16"/>
       <c r="AT56" s="14"/>
       <c r="AU56" s="8"/>
@@ -5172,21 +5181,21 @@
         <v>7</v>
       </c>
       <c r="I57" s="54"/>
-      <c r="J57" s="106" t="s">
+      <c r="J57" s="167" t="s">
         <v>191</v>
       </c>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
+      <c r="K57" s="167"/>
+      <c r="L57" s="167"/>
       <c r="N57" s="56"/>
       <c r="P57" s="56"/>
       <c r="Q57" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S57" s="106" t="s">
+      <c r="S57" s="167" t="s">
         <v>199</v>
       </c>
-      <c r="T57" s="106"/>
-      <c r="U57" s="106"/>
+      <c r="T57" s="167"/>
+      <c r="U57" s="167"/>
       <c r="W57" s="8" t="s">
         <v>93</v>
       </c>
@@ -5196,13 +5205,13 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
-      <c r="AD57" s="116" t="s">
+      <c r="AD57" s="168" t="s">
         <v>207</v>
       </c>
-      <c r="AE57" s="116"/>
-      <c r="AF57" s="116"/>
-      <c r="AG57" s="116"/>
-      <c r="AH57" s="116"/>
+      <c r="AE57" s="168"/>
+      <c r="AF57" s="168"/>
+      <c r="AG57" s="168"/>
+      <c r="AH57" s="168"/>
       <c r="AI57" s="8"/>
       <c r="AJ57" s="8" t="s">
         <v>39</v>
@@ -5211,12 +5220,12 @@
       <c r="AL57" s="8"/>
       <c r="AM57" s="8"/>
       <c r="AN57" s="12"/>
-      <c r="AO57" s="103" t="s">
+      <c r="AO57" s="180" t="s">
         <v>215</v>
       </c>
-      <c r="AP57" s="103"/>
-      <c r="AQ57" s="103"/>
-      <c r="AR57" s="103"/>
+      <c r="AP57" s="180"/>
+      <c r="AQ57" s="180"/>
+      <c r="AR57" s="180"/>
       <c r="AS57" s="98" t="s">
         <v>55</v>
       </c>
@@ -5255,10 +5264,10 @@
       <c r="AL58" s="8"/>
       <c r="AM58" s="8"/>
       <c r="AN58" s="12"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
-      <c r="AQ58" s="11"/>
-      <c r="AR58" s="16"/>
+      <c r="AO58" s="181"/>
+      <c r="AP58" s="181"/>
+      <c r="AQ58" s="181"/>
+      <c r="AR58" s="182"/>
       <c r="AS58" s="16"/>
       <c r="AT58" s="14"/>
       <c r="AU58" s="8"/>
@@ -5271,21 +5280,21 @@
         <v>18</v>
       </c>
       <c r="I59" s="54"/>
-      <c r="J59" s="106" t="s">
+      <c r="J59" s="167" t="s">
         <v>192</v>
       </c>
-      <c r="K59" s="106"/>
-      <c r="L59" s="106"/>
+      <c r="K59" s="167"/>
+      <c r="L59" s="167"/>
       <c r="N59" s="13"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S59" s="106" t="s">
+      <c r="S59" s="167" t="s">
         <v>200</v>
       </c>
-      <c r="T59" s="106"/>
-      <c r="U59" s="106"/>
+      <c r="T59" s="167"/>
+      <c r="U59" s="167"/>
       <c r="W59" s="8" t="s">
         <v>91</v>
       </c>
@@ -5295,13 +5304,13 @@
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
-      <c r="AD59" s="116" t="s">
+      <c r="AD59" s="168" t="s">
         <v>208</v>
       </c>
-      <c r="AE59" s="116"/>
-      <c r="AF59" s="116"/>
-      <c r="AG59" s="116"/>
-      <c r="AH59" s="116"/>
+      <c r="AE59" s="168"/>
+      <c r="AF59" s="168"/>
+      <c r="AG59" s="168"/>
+      <c r="AH59" s="168"/>
       <c r="AI59" s="8"/>
       <c r="AJ59" s="8" t="s">
         <v>40</v>
@@ -5310,12 +5319,12 @@
       <c r="AL59" s="8"/>
       <c r="AM59" s="8"/>
       <c r="AN59" s="12"/>
-      <c r="AO59" s="103" t="s">
+      <c r="AO59" s="180" t="s">
         <v>216</v>
       </c>
-      <c r="AP59" s="103"/>
-      <c r="AQ59" s="103"/>
-      <c r="AR59" s="103"/>
+      <c r="AP59" s="180"/>
+      <c r="AQ59" s="180"/>
+      <c r="AR59" s="180"/>
       <c r="AS59" s="98" t="s">
         <v>55</v>
       </c>
@@ -5354,10 +5363,10 @@
       <c r="AL60" s="8"/>
       <c r="AM60" s="8"/>
       <c r="AN60" s="12"/>
-      <c r="AO60" s="11"/>
-      <c r="AP60" s="11"/>
-      <c r="AQ60" s="11"/>
-      <c r="AR60" s="16"/>
+      <c r="AO60" s="181"/>
+      <c r="AP60" s="181"/>
+      <c r="AQ60" s="181"/>
+      <c r="AR60" s="182"/>
       <c r="AS60" s="16"/>
       <c r="AT60" s="14"/>
       <c r="AU60" s="8"/>
@@ -5370,21 +5379,21 @@
         <v>8</v>
       </c>
       <c r="I61" s="54"/>
-      <c r="J61" s="106" t="s">
+      <c r="J61" s="167" t="s">
         <v>193</v>
       </c>
-      <c r="K61" s="106"/>
-      <c r="L61" s="106"/>
+      <c r="K61" s="167"/>
+      <c r="L61" s="167"/>
       <c r="N61" s="13"/>
       <c r="P61" s="13"/>
       <c r="Q61" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S61" s="106" t="s">
+      <c r="S61" s="167" t="s">
         <v>201</v>
       </c>
-      <c r="T61" s="106"/>
-      <c r="U61" s="106"/>
+      <c r="T61" s="167"/>
+      <c r="U61" s="167"/>
       <c r="W61" s="8" t="s">
         <v>96</v>
       </c>
@@ -5394,13 +5403,13 @@
       <c r="AA61" s="8"/>
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
-      <c r="AD61" s="116" t="s">
+      <c r="AD61" s="168" t="s">
         <v>209</v>
       </c>
-      <c r="AE61" s="116"/>
-      <c r="AF61" s="116"/>
-      <c r="AG61" s="116"/>
-      <c r="AH61" s="116"/>
+      <c r="AE61" s="168"/>
+      <c r="AF61" s="168"/>
+      <c r="AG61" s="168"/>
+      <c r="AH61" s="168"/>
       <c r="AI61" s="8"/>
       <c r="AJ61" s="8" t="s">
         <v>41</v>
@@ -5409,12 +5418,12 @@
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
       <c r="AN61" s="12"/>
-      <c r="AO61" s="103" t="s">
+      <c r="AO61" s="180" t="s">
         <v>217</v>
       </c>
-      <c r="AP61" s="103"/>
-      <c r="AQ61" s="103"/>
-      <c r="AR61" s="103"/>
+      <c r="AP61" s="180"/>
+      <c r="AQ61" s="180"/>
+      <c r="AR61" s="180"/>
       <c r="AS61" s="98" t="s">
         <v>55</v>
       </c>
@@ -5453,10 +5462,10 @@
       <c r="AL62" s="8"/>
       <c r="AM62" s="8"/>
       <c r="AN62" s="12"/>
-      <c r="AO62" s="11"/>
-      <c r="AP62" s="11"/>
-      <c r="AQ62" s="11"/>
-      <c r="AR62" s="16"/>
+      <c r="AO62" s="181"/>
+      <c r="AP62" s="181"/>
+      <c r="AQ62" s="181"/>
+      <c r="AR62" s="182"/>
       <c r="AS62" s="16"/>
       <c r="AT62" s="14"/>
       <c r="AU62" s="8"/>
@@ -5469,21 +5478,21 @@
         <v>9</v>
       </c>
       <c r="I63" s="54"/>
-      <c r="J63" s="106" t="s">
+      <c r="J63" s="167" t="s">
         <v>194</v>
       </c>
-      <c r="K63" s="106"/>
-      <c r="L63" s="106"/>
+      <c r="K63" s="167"/>
+      <c r="L63" s="167"/>
       <c r="N63" s="13"/>
       <c r="P63" s="13"/>
       <c r="Q63" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="S63" s="106" t="s">
+      <c r="S63" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="T63" s="106"/>
-      <c r="U63" s="106"/>
+      <c r="T63" s="167"/>
+      <c r="U63" s="167"/>
       <c r="W63" s="8" t="s">
         <v>16</v>
       </c>
@@ -5493,13 +5502,13 @@
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
-      <c r="AD63" s="116" t="s">
+      <c r="AD63" s="168" t="s">
         <v>210</v>
       </c>
-      <c r="AE63" s="116"/>
-      <c r="AF63" s="116"/>
-      <c r="AG63" s="116"/>
-      <c r="AH63" s="116"/>
+      <c r="AE63" s="168"/>
+      <c r="AF63" s="168"/>
+      <c r="AG63" s="168"/>
+      <c r="AH63" s="168"/>
       <c r="AI63" s="8"/>
       <c r="AJ63" s="8" t="s">
         <v>52</v>
@@ -5508,12 +5517,12 @@
       <c r="AL63" s="8"/>
       <c r="AM63" s="8"/>
       <c r="AN63" s="11"/>
-      <c r="AO63" s="103" t="s">
+      <c r="AO63" s="180" t="s">
         <v>218</v>
       </c>
-      <c r="AP63" s="103"/>
-      <c r="AQ63" s="103"/>
-      <c r="AR63" s="103"/>
+      <c r="AP63" s="180"/>
+      <c r="AQ63" s="180"/>
+      <c r="AR63" s="180"/>
       <c r="AS63" s="98" t="s">
         <v>55</v>
       </c>
@@ -5552,10 +5561,10 @@
       <c r="AL64" s="8"/>
       <c r="AM64" s="21"/>
       <c r="AN64" s="11"/>
-      <c r="AO64" s="11"/>
-      <c r="AP64" s="11"/>
-      <c r="AQ64" s="11"/>
-      <c r="AR64" s="16"/>
+      <c r="AO64" s="181"/>
+      <c r="AP64" s="181"/>
+      <c r="AQ64" s="181"/>
+      <c r="AR64" s="182"/>
       <c r="AS64" s="16"/>
       <c r="AT64" s="14"/>
       <c r="AU64" s="8"/>
@@ -5568,21 +5577,21 @@
         <v>88</v>
       </c>
       <c r="I65" s="54"/>
-      <c r="J65" s="106" t="s">
+      <c r="J65" s="167" t="s">
         <v>195</v>
       </c>
-      <c r="K65" s="106"/>
-      <c r="L65" s="106"/>
+      <c r="K65" s="167"/>
+      <c r="L65" s="167"/>
       <c r="N65" s="13"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="S65" s="106" t="s">
+      <c r="S65" s="167" t="s">
         <v>203</v>
       </c>
-      <c r="T65" s="106"/>
-      <c r="U65" s="106"/>
+      <c r="T65" s="167"/>
+      <c r="U65" s="167"/>
       <c r="W65" s="8" t="s">
         <v>94</v>
       </c>
@@ -5592,13 +5601,13 @@
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
-      <c r="AD65" s="116" t="s">
+      <c r="AD65" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="AE65" s="116"/>
-      <c r="AF65" s="116"/>
-      <c r="AG65" s="116"/>
-      <c r="AH65" s="116"/>
+      <c r="AE65" s="168"/>
+      <c r="AF65" s="168"/>
+      <c r="AG65" s="168"/>
+      <c r="AH65" s="168"/>
       <c r="AI65" s="8"/>
       <c r="AJ65" s="8" t="s">
         <v>54</v>
@@ -5607,12 +5616,12 @@
       <c r="AL65" s="8"/>
       <c r="AM65" s="8"/>
       <c r="AN65" s="8"/>
-      <c r="AO65" s="103" t="s">
+      <c r="AO65" s="180" t="s">
         <v>219</v>
       </c>
-      <c r="AP65" s="103"/>
-      <c r="AQ65" s="103"/>
-      <c r="AR65" s="103"/>
+      <c r="AP65" s="180"/>
+      <c r="AQ65" s="180"/>
+      <c r="AR65" s="180"/>
       <c r="AS65" s="98" t="s">
         <v>55</v>
       </c>
@@ -5651,10 +5660,10 @@
       <c r="AL66" s="8"/>
       <c r="AM66" s="8"/>
       <c r="AN66" s="22"/>
-      <c r="AO66" s="11"/>
-      <c r="AP66" s="11"/>
-      <c r="AQ66" s="11"/>
-      <c r="AR66" s="16"/>
+      <c r="AO66" s="181"/>
+      <c r="AP66" s="181"/>
+      <c r="AQ66" s="181"/>
+      <c r="AR66" s="182"/>
       <c r="AS66" s="22"/>
       <c r="AT66" s="22"/>
       <c r="AU66" s="8"/>
@@ -5667,21 +5676,21 @@
         <v>89</v>
       </c>
       <c r="I67" s="54"/>
-      <c r="J67" s="106" t="s">
+      <c r="J67" s="167" t="s">
         <v>196</v>
       </c>
-      <c r="K67" s="106"/>
-      <c r="L67" s="106"/>
+      <c r="K67" s="167"/>
+      <c r="L67" s="167"/>
       <c r="N67" s="13"/>
       <c r="P67" s="13"/>
       <c r="Q67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="S67" s="106" t="s">
+      <c r="S67" s="167" t="s">
         <v>204</v>
       </c>
-      <c r="T67" s="106"/>
-      <c r="U67" s="106"/>
+      <c r="T67" s="167"/>
+      <c r="U67" s="167"/>
       <c r="W67" s="8" t="s">
         <v>95</v>
       </c>
@@ -5691,13 +5700,13 @@
       <c r="AA67" s="8"/>
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
-      <c r="AD67" s="116" t="s">
+      <c r="AD67" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="AE67" s="116"/>
-      <c r="AF67" s="116"/>
-      <c r="AG67" s="116"/>
-      <c r="AH67" s="116"/>
+      <c r="AE67" s="168"/>
+      <c r="AF67" s="168"/>
+      <c r="AG67" s="168"/>
+      <c r="AH67" s="168"/>
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8" t="s">
         <v>53</v>
@@ -5706,12 +5715,12 @@
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
       <c r="AN67" s="8"/>
-      <c r="AO67" s="103" t="s">
+      <c r="AO67" s="180" t="s">
         <v>220</v>
       </c>
-      <c r="AP67" s="103"/>
-      <c r="AQ67" s="103"/>
-      <c r="AR67" s="103"/>
+      <c r="AP67" s="180"/>
+      <c r="AQ67" s="180"/>
+      <c r="AR67" s="180"/>
       <c r="AS67" s="98" t="s">
         <v>55</v>
       </c>
@@ -5748,10 +5757,10 @@
       <c r="AL68" s="8"/>
       <c r="AM68" s="8"/>
       <c r="AN68" s="8"/>
-      <c r="AO68" s="11"/>
-      <c r="AP68" s="11"/>
-      <c r="AQ68" s="11"/>
-      <c r="AR68" s="16"/>
+      <c r="AO68" s="181"/>
+      <c r="AP68" s="181"/>
+      <c r="AQ68" s="181"/>
+      <c r="AR68" s="182"/>
       <c r="AS68" s="11"/>
       <c r="AT68" s="8"/>
       <c r="AU68" s="8"/>
@@ -5764,21 +5773,21 @@
         <v>3</v>
       </c>
       <c r="I69" s="54"/>
-      <c r="J69" s="106" t="s">
+      <c r="J69" s="167" t="s">
         <v>197</v>
       </c>
-      <c r="K69" s="106"/>
-      <c r="L69" s="106"/>
+      <c r="K69" s="167"/>
+      <c r="L69" s="167"/>
       <c r="N69" s="13"/>
       <c r="P69" s="13"/>
       <c r="Q69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="106" t="s">
+      <c r="S69" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="T69" s="106"/>
-      <c r="U69" s="106"/>
+      <c r="T69" s="167"/>
+      <c r="U69" s="167"/>
       <c r="W69" s="20" t="s">
         <v>160</v>
       </c>
@@ -5787,13 +5796,13 @@
       <c r="AA69" s="8"/>
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
-      <c r="AD69" s="116" t="s">
+      <c r="AD69" s="168" t="s">
         <v>213</v>
       </c>
-      <c r="AE69" s="116"/>
-      <c r="AF69" s="116"/>
-      <c r="AG69" s="116"/>
-      <c r="AH69" s="116"/>
+      <c r="AE69" s="168"/>
+      <c r="AF69" s="168"/>
+      <c r="AG69" s="168"/>
+      <c r="AH69" s="168"/>
       <c r="AI69" s="8"/>
       <c r="AJ69" s="8" t="s">
         <v>57</v>
@@ -5802,12 +5811,12 @@
       <c r="AL69" s="8"/>
       <c r="AM69" s="21"/>
       <c r="AN69" s="8"/>
-      <c r="AO69" s="103" t="s">
+      <c r="AO69" s="180" t="s">
         <v>221</v>
       </c>
-      <c r="AP69" s="103"/>
-      <c r="AQ69" s="103"/>
-      <c r="AR69" s="103"/>
+      <c r="AP69" s="180"/>
+      <c r="AQ69" s="180"/>
+      <c r="AR69" s="180"/>
       <c r="AS69" s="98" t="s">
         <v>55</v>
       </c>
@@ -5912,43 +5921,43 @@
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
       <c r="O74" s="18"/>
-      <c r="P74" s="132" t="s">
+      <c r="P74" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="Q74" s="132"/>
-      <c r="R74" s="132"/>
-      <c r="S74" s="132"/>
-      <c r="T74" s="132"/>
-      <c r="U74" s="132"/>
-      <c r="V74" s="132"/>
-      <c r="W74" s="132"/>
-      <c r="X74" s="132"/>
-      <c r="Y74" s="132"/>
-      <c r="Z74" s="132"/>
-      <c r="AA74" s="132"/>
-      <c r="AB74" s="132"/>
-      <c r="AC74" s="132"/>
-      <c r="AD74" s="132"/>
-      <c r="AE74" s="132"/>
-      <c r="AF74" s="132"/>
-      <c r="AG74" s="132"/>
-      <c r="AH74" s="132"/>
-      <c r="AI74" s="132"/>
+      <c r="Q74" s="110"/>
+      <c r="R74" s="110"/>
+      <c r="S74" s="110"/>
+      <c r="T74" s="110"/>
+      <c r="U74" s="110"/>
+      <c r="V74" s="110"/>
+      <c r="W74" s="110"/>
+      <c r="X74" s="110"/>
+      <c r="Y74" s="110"/>
+      <c r="Z74" s="110"/>
+      <c r="AA74" s="110"/>
+      <c r="AB74" s="110"/>
+      <c r="AC74" s="110"/>
+      <c r="AD74" s="110"/>
+      <c r="AE74" s="110"/>
+      <c r="AF74" s="110"/>
+      <c r="AG74" s="110"/>
+      <c r="AH74" s="110"/>
+      <c r="AI74" s="110"/>
       <c r="AJ74" s="18"/>
-      <c r="AK74" s="122" t="s">
+      <c r="AK74" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AL74" s="123"/>
-      <c r="AM74" s="123"/>
-      <c r="AN74" s="126" t="s">
+      <c r="AL74" s="112"/>
+      <c r="AM74" s="112"/>
+      <c r="AN74" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="AO74" s="126"/>
-      <c r="AP74" s="126"/>
-      <c r="AQ74" s="126"/>
-      <c r="AR74" s="126"/>
-      <c r="AS74" s="126"/>
-      <c r="AT74" s="127"/>
+      <c r="AO74" s="115"/>
+      <c r="AP74" s="115"/>
+      <c r="AQ74" s="115"/>
+      <c r="AR74" s="115"/>
+      <c r="AS74" s="115"/>
+      <c r="AT74" s="116"/>
       <c r="AU74" s="1"/>
     </row>
     <row r="75" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5967,39 +5976,39 @@
       <c r="M75" s="18"/>
       <c r="N75" s="18"/>
       <c r="O75" s="18"/>
-      <c r="P75" s="132" t="s">
+      <c r="P75" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="Q75" s="132"/>
-      <c r="R75" s="132"/>
-      <c r="S75" s="132"/>
-      <c r="T75" s="132"/>
-      <c r="U75" s="132"/>
-      <c r="V75" s="132"/>
-      <c r="W75" s="132"/>
-      <c r="X75" s="132"/>
-      <c r="Y75" s="132"/>
-      <c r="Z75" s="132"/>
-      <c r="AA75" s="132"/>
-      <c r="AB75" s="132"/>
-      <c r="AC75" s="132"/>
-      <c r="AD75" s="132"/>
-      <c r="AE75" s="132"/>
-      <c r="AF75" s="132"/>
-      <c r="AG75" s="132"/>
-      <c r="AH75" s="132"/>
-      <c r="AI75" s="132"/>
+      <c r="Q75" s="110"/>
+      <c r="R75" s="110"/>
+      <c r="S75" s="110"/>
+      <c r="T75" s="110"/>
+      <c r="U75" s="110"/>
+      <c r="V75" s="110"/>
+      <c r="W75" s="110"/>
+      <c r="X75" s="110"/>
+      <c r="Y75" s="110"/>
+      <c r="Z75" s="110"/>
+      <c r="AA75" s="110"/>
+      <c r="AB75" s="110"/>
+      <c r="AC75" s="110"/>
+      <c r="AD75" s="110"/>
+      <c r="AE75" s="110"/>
+      <c r="AF75" s="110"/>
+      <c r="AG75" s="110"/>
+      <c r="AH75" s="110"/>
+      <c r="AI75" s="110"/>
       <c r="AJ75" s="18"/>
-      <c r="AK75" s="124"/>
-      <c r="AL75" s="125"/>
-      <c r="AM75" s="125"/>
-      <c r="AN75" s="128"/>
-      <c r="AO75" s="128"/>
-      <c r="AP75" s="128"/>
-      <c r="AQ75" s="128"/>
-      <c r="AR75" s="128"/>
-      <c r="AS75" s="128"/>
-      <c r="AT75" s="129"/>
+      <c r="AK75" s="113"/>
+      <c r="AL75" s="114"/>
+      <c r="AM75" s="114"/>
+      <c r="AN75" s="117"/>
+      <c r="AO75" s="117"/>
+      <c r="AP75" s="117"/>
+      <c r="AQ75" s="117"/>
+      <c r="AR75" s="117"/>
+      <c r="AS75" s="117"/>
+      <c r="AT75" s="118"/>
       <c r="AU75" s="1"/>
     </row>
     <row r="76" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6053,51 +6062,51 @@
     </row>
     <row r="77" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
-      <c r="B77" s="105" t="s">
+      <c r="B77" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="105"/>
-      <c r="D77" s="105"/>
-      <c r="E77" s="105"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="105"/>
-      <c r="H77" s="105"/>
-      <c r="I77" s="105"/>
-      <c r="J77" s="105"/>
-      <c r="K77" s="105"/>
-      <c r="L77" s="105"/>
-      <c r="M77" s="105"/>
-      <c r="N77" s="105"/>
-      <c r="O77" s="105"/>
-      <c r="P77" s="105"/>
-      <c r="Q77" s="105"/>
-      <c r="R77" s="105"/>
-      <c r="S77" s="105"/>
-      <c r="T77" s="105"/>
-      <c r="U77" s="105"/>
-      <c r="V77" s="105"/>
-      <c r="W77" s="105"/>
-      <c r="X77" s="105"/>
-      <c r="Y77" s="105"/>
-      <c r="Z77" s="105"/>
-      <c r="AA77" s="105"/>
-      <c r="AB77" s="105"/>
-      <c r="AC77" s="105"/>
-      <c r="AD77" s="105"/>
-      <c r="AE77" s="105"/>
-      <c r="AF77" s="105"/>
-      <c r="AG77" s="105"/>
-      <c r="AH77" s="105"/>
-      <c r="AI77" s="105"/>
-      <c r="AJ77" s="105"/>
-      <c r="AK77" s="105"/>
-      <c r="AL77" s="105"/>
-      <c r="AM77" s="105"/>
-      <c r="AN77" s="105"/>
-      <c r="AO77" s="105"/>
-      <c r="AP77" s="105"/>
-      <c r="AQ77" s="105"/>
-      <c r="AR77" s="105"/>
+      <c r="C77" s="152"/>
+      <c r="D77" s="152"/>
+      <c r="E77" s="152"/>
+      <c r="F77" s="152"/>
+      <c r="G77" s="152"/>
+      <c r="H77" s="152"/>
+      <c r="I77" s="152"/>
+      <c r="J77" s="152"/>
+      <c r="K77" s="152"/>
+      <c r="L77" s="152"/>
+      <c r="M77" s="152"/>
+      <c r="N77" s="152"/>
+      <c r="O77" s="152"/>
+      <c r="P77" s="152"/>
+      <c r="Q77" s="152"/>
+      <c r="R77" s="152"/>
+      <c r="S77" s="152"/>
+      <c r="T77" s="152"/>
+      <c r="U77" s="152"/>
+      <c r="V77" s="152"/>
+      <c r="W77" s="152"/>
+      <c r="X77" s="152"/>
+      <c r="Y77" s="152"/>
+      <c r="Z77" s="152"/>
+      <c r="AA77" s="152"/>
+      <c r="AB77" s="152"/>
+      <c r="AC77" s="152"/>
+      <c r="AD77" s="152"/>
+      <c r="AE77" s="152"/>
+      <c r="AF77" s="152"/>
+      <c r="AG77" s="152"/>
+      <c r="AH77" s="152"/>
+      <c r="AI77" s="152"/>
+      <c r="AJ77" s="152"/>
+      <c r="AK77" s="152"/>
+      <c r="AL77" s="152"/>
+      <c r="AM77" s="152"/>
+      <c r="AN77" s="152"/>
+      <c r="AO77" s="152"/>
+      <c r="AP77" s="152"/>
+      <c r="AQ77" s="152"/>
+      <c r="AR77" s="152"/>
       <c r="AS77" s="48"/>
       <c r="AT77" s="8"/>
       <c r="AU77" s="8"/>
@@ -6167,33 +6176,33 @@
       <c r="AG79" s="59"/>
       <c r="AH79" s="59"/>
       <c r="AI79" s="59"/>
-      <c r="AJ79" s="164" t="s">
+      <c r="AJ79" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="AK79" s="150" t="s">
+      <c r="AK79" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="AL79" s="150" t="s">
+      <c r="AL79" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="AM79" s="150" t="s">
+      <c r="AM79" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="AN79" s="150" t="s">
+      <c r="AN79" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AO79" s="150" t="s">
+      <c r="AO79" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="AP79" s="150" t="s">
+      <c r="AP79" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="AQ79" s="150" t="s">
+      <c r="AQ79" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="AR79" s="150"/>
-      <c r="AS79" s="150"/>
-      <c r="AT79" s="152"/>
+      <c r="AR79" s="139"/>
+      <c r="AS79" s="139"/>
+      <c r="AT79" s="143"/>
       <c r="AU79" s="8"/>
     </row>
     <row r="80" spans="1:48" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6234,17 +6243,17 @@
       <c r="AG80" s="62"/>
       <c r="AH80" s="62"/>
       <c r="AI80" s="62"/>
-      <c r="AJ80" s="165"/>
-      <c r="AK80" s="151"/>
-      <c r="AL80" s="151"/>
-      <c r="AM80" s="151"/>
-      <c r="AN80" s="151"/>
-      <c r="AO80" s="151"/>
-      <c r="AP80" s="151"/>
-      <c r="AQ80" s="151"/>
-      <c r="AR80" s="151"/>
-      <c r="AS80" s="151"/>
-      <c r="AT80" s="153"/>
+      <c r="AJ80" s="138"/>
+      <c r="AK80" s="140"/>
+      <c r="AL80" s="140"/>
+      <c r="AM80" s="140"/>
+      <c r="AN80" s="140"/>
+      <c r="AO80" s="140"/>
+      <c r="AP80" s="140"/>
+      <c r="AQ80" s="140"/>
+      <c r="AR80" s="140"/>
+      <c r="AS80" s="140"/>
+      <c r="AT80" s="144"/>
       <c r="AU80" s="8"/>
     </row>
     <row r="81" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6285,17 +6294,17 @@
       <c r="AG81" s="62"/>
       <c r="AH81" s="62"/>
       <c r="AI81" s="62"/>
-      <c r="AJ81" s="165"/>
-      <c r="AK81" s="151"/>
-      <c r="AL81" s="151"/>
-      <c r="AM81" s="151"/>
-      <c r="AN81" s="151"/>
-      <c r="AO81" s="151"/>
-      <c r="AP81" s="151"/>
-      <c r="AQ81" s="151"/>
-      <c r="AR81" s="151"/>
-      <c r="AS81" s="151"/>
-      <c r="AT81" s="153"/>
+      <c r="AJ81" s="138"/>
+      <c r="AK81" s="140"/>
+      <c r="AL81" s="140"/>
+      <c r="AM81" s="140"/>
+      <c r="AN81" s="140"/>
+      <c r="AO81" s="140"/>
+      <c r="AP81" s="140"/>
+      <c r="AQ81" s="140"/>
+      <c r="AR81" s="140"/>
+      <c r="AS81" s="140"/>
+      <c r="AT81" s="144"/>
       <c r="AU81" s="8"/>
     </row>
     <row r="82" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6336,17 +6345,17 @@
       <c r="AG82" s="62"/>
       <c r="AH82" s="62"/>
       <c r="AI82" s="62"/>
-      <c r="AJ82" s="165"/>
-      <c r="AK82" s="151"/>
-      <c r="AL82" s="151"/>
-      <c r="AM82" s="151"/>
-      <c r="AN82" s="151"/>
-      <c r="AO82" s="151"/>
-      <c r="AP82" s="151"/>
-      <c r="AQ82" s="151"/>
-      <c r="AR82" s="151"/>
-      <c r="AS82" s="151"/>
-      <c r="AT82" s="153"/>
+      <c r="AJ82" s="138"/>
+      <c r="AK82" s="140"/>
+      <c r="AL82" s="140"/>
+      <c r="AM82" s="140"/>
+      <c r="AN82" s="140"/>
+      <c r="AO82" s="140"/>
+      <c r="AP82" s="140"/>
+      <c r="AQ82" s="140"/>
+      <c r="AR82" s="140"/>
+      <c r="AS82" s="140"/>
+      <c r="AT82" s="144"/>
       <c r="AU82" s="8"/>
     </row>
     <row r="83" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6387,114 +6396,114 @@
       <c r="AG83" s="65"/>
       <c r="AH83" s="65"/>
       <c r="AI83" s="65"/>
-      <c r="AJ83" s="165"/>
-      <c r="AK83" s="151"/>
-      <c r="AL83" s="151"/>
-      <c r="AM83" s="151"/>
-      <c r="AN83" s="151"/>
-      <c r="AO83" s="151"/>
-      <c r="AP83" s="151"/>
-      <c r="AQ83" s="151"/>
-      <c r="AR83" s="151"/>
-      <c r="AS83" s="151"/>
-      <c r="AT83" s="153"/>
+      <c r="AJ83" s="138"/>
+      <c r="AK83" s="140"/>
+      <c r="AL83" s="140"/>
+      <c r="AM83" s="140"/>
+      <c r="AN83" s="140"/>
+      <c r="AO83" s="140"/>
+      <c r="AP83" s="140"/>
+      <c r="AQ83" s="140"/>
+      <c r="AR83" s="140"/>
+      <c r="AS83" s="140"/>
+      <c r="AT83" s="144"/>
       <c r="AU83" s="8"/>
     </row>
     <row r="84" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
-      <c r="B84" s="145" t="s">
+      <c r="B84" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="146"/>
-      <c r="D84" s="146"/>
-      <c r="E84" s="146"/>
-      <c r="F84" s="146"/>
-      <c r="G84" s="146" t="s">
+      <c r="C84" s="103"/>
+      <c r="D84" s="103"/>
+      <c r="E84" s="103"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="H84" s="146"/>
-      <c r="I84" s="146"/>
-      <c r="J84" s="146" t="s">
+      <c r="H84" s="103"/>
+      <c r="I84" s="103"/>
+      <c r="J84" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="K84" s="146"/>
-      <c r="L84" s="146"/>
-      <c r="M84" s="146"/>
-      <c r="N84" s="146"/>
-      <c r="O84" s="166" t="s">
+      <c r="K84" s="103"/>
+      <c r="L84" s="103"/>
+      <c r="M84" s="103"/>
+      <c r="N84" s="103"/>
+      <c r="O84" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="P84" s="166"/>
-      <c r="Q84" s="166"/>
-      <c r="R84" s="166"/>
-      <c r="S84" s="166"/>
-      <c r="T84" s="166"/>
-      <c r="U84" s="166"/>
-      <c r="V84" s="166"/>
-      <c r="W84" s="167"/>
-      <c r="X84" s="161" t="s">
+      <c r="P84" s="141"/>
+      <c r="Q84" s="141"/>
+      <c r="R84" s="141"/>
+      <c r="S84" s="141"/>
+      <c r="T84" s="141"/>
+      <c r="U84" s="141"/>
+      <c r="V84" s="141"/>
+      <c r="W84" s="142"/>
+      <c r="X84" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="Y84" s="162"/>
-      <c r="Z84" s="162"/>
-      <c r="AA84" s="162"/>
-      <c r="AB84" s="162"/>
-      <c r="AC84" s="162"/>
-      <c r="AD84" s="162"/>
-      <c r="AE84" s="162"/>
-      <c r="AF84" s="162"/>
-      <c r="AG84" s="162"/>
-      <c r="AH84" s="162"/>
-      <c r="AI84" s="163"/>
-      <c r="AJ84" s="165"/>
-      <c r="AK84" s="151"/>
-      <c r="AL84" s="151"/>
-      <c r="AM84" s="151"/>
-      <c r="AN84" s="151"/>
-      <c r="AO84" s="151"/>
-      <c r="AP84" s="151"/>
-      <c r="AQ84" s="151"/>
-      <c r="AR84" s="151"/>
-      <c r="AS84" s="151"/>
-      <c r="AT84" s="153"/>
+      <c r="Y84" s="135"/>
+      <c r="Z84" s="135"/>
+      <c r="AA84" s="135"/>
+      <c r="AB84" s="135"/>
+      <c r="AC84" s="135"/>
+      <c r="AD84" s="135"/>
+      <c r="AE84" s="135"/>
+      <c r="AF84" s="135"/>
+      <c r="AG84" s="135"/>
+      <c r="AH84" s="135"/>
+      <c r="AI84" s="136"/>
+      <c r="AJ84" s="138"/>
+      <c r="AK84" s="140"/>
+      <c r="AL84" s="140"/>
+      <c r="AM84" s="140"/>
+      <c r="AN84" s="140"/>
+      <c r="AO84" s="140"/>
+      <c r="AP84" s="140"/>
+      <c r="AQ84" s="140"/>
+      <c r="AR84" s="140"/>
+      <c r="AS84" s="140"/>
+      <c r="AT84" s="144"/>
       <c r="AU84" s="8"/>
     </row>
     <row r="85" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
-      <c r="B85" s="135"/>
-      <c r="C85" s="108"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="108"/>
-      <c r="F85" s="108"/>
-      <c r="G85" s="108"/>
-      <c r="H85" s="108"/>
-      <c r="I85" s="108"/>
-      <c r="J85" s="107"/>
-      <c r="K85" s="108"/>
-      <c r="L85" s="108"/>
-      <c r="M85" s="108"/>
-      <c r="N85" s="108"/>
-      <c r="O85" s="109"/>
-      <c r="P85" s="109"/>
-      <c r="Q85" s="109"/>
-      <c r="R85" s="109"/>
-      <c r="S85" s="109"/>
-      <c r="T85" s="109"/>
-      <c r="U85" s="109"/>
-      <c r="V85" s="109"/>
-      <c r="W85" s="110"/>
-      <c r="X85" s="154"/>
-      <c r="Y85" s="155"/>
-      <c r="Z85" s="155"/>
-      <c r="AA85" s="155"/>
-      <c r="AB85" s="155"/>
-      <c r="AC85" s="155"/>
-      <c r="AD85" s="155"/>
-      <c r="AE85" s="155"/>
-      <c r="AF85" s="155"/>
-      <c r="AG85" s="155"/>
-      <c r="AH85" s="155"/>
-      <c r="AI85" s="156"/>
+      <c r="B85" s="106"/>
+      <c r="C85" s="107"/>
+      <c r="D85" s="107"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="107"/>
+      <c r="H85" s="107"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="131"/>
+      <c r="K85" s="107"/>
+      <c r="L85" s="107"/>
+      <c r="M85" s="107"/>
+      <c r="N85" s="107"/>
+      <c r="O85" s="132"/>
+      <c r="P85" s="132"/>
+      <c r="Q85" s="132"/>
+      <c r="R85" s="132"/>
+      <c r="S85" s="132"/>
+      <c r="T85" s="132"/>
+      <c r="U85" s="132"/>
+      <c r="V85" s="132"/>
+      <c r="W85" s="133"/>
+      <c r="X85" s="128"/>
+      <c r="Y85" s="129"/>
+      <c r="Z85" s="129"/>
+      <c r="AA85" s="129"/>
+      <c r="AB85" s="129"/>
+      <c r="AC85" s="129"/>
+      <c r="AD85" s="129"/>
+      <c r="AE85" s="129"/>
+      <c r="AF85" s="129"/>
+      <c r="AG85" s="129"/>
+      <c r="AH85" s="129"/>
+      <c r="AI85" s="130"/>
       <c r="AJ85" s="69"/>
       <c r="AK85" s="70"/>
       <c r="AL85" s="71"/>
@@ -6510,40 +6519,40 @@
     </row>
     <row r="86" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
-      <c r="B86" s="135"/>
-      <c r="C86" s="108"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="108"/>
-      <c r="F86" s="108"/>
-      <c r="G86" s="108"/>
-      <c r="H86" s="108"/>
-      <c r="I86" s="108"/>
-      <c r="J86" s="107"/>
-      <c r="K86" s="108"/>
-      <c r="L86" s="108"/>
-      <c r="M86" s="108"/>
-      <c r="N86" s="108"/>
-      <c r="O86" s="109"/>
-      <c r="P86" s="109"/>
-      <c r="Q86" s="109"/>
-      <c r="R86" s="109"/>
-      <c r="S86" s="109"/>
-      <c r="T86" s="109"/>
-      <c r="U86" s="109"/>
-      <c r="V86" s="109"/>
-      <c r="W86" s="110"/>
-      <c r="X86" s="154"/>
-      <c r="Y86" s="155"/>
-      <c r="Z86" s="155"/>
-      <c r="AA86" s="155"/>
-      <c r="AB86" s="155"/>
-      <c r="AC86" s="155"/>
-      <c r="AD86" s="155"/>
-      <c r="AE86" s="155"/>
-      <c r="AF86" s="155"/>
-      <c r="AG86" s="155"/>
-      <c r="AH86" s="155"/>
-      <c r="AI86" s="156"/>
+      <c r="B86" s="106"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="107"/>
+      <c r="J86" s="131"/>
+      <c r="K86" s="107"/>
+      <c r="L86" s="107"/>
+      <c r="M86" s="107"/>
+      <c r="N86" s="107"/>
+      <c r="O86" s="132"/>
+      <c r="P86" s="132"/>
+      <c r="Q86" s="132"/>
+      <c r="R86" s="132"/>
+      <c r="S86" s="132"/>
+      <c r="T86" s="132"/>
+      <c r="U86" s="132"/>
+      <c r="V86" s="132"/>
+      <c r="W86" s="133"/>
+      <c r="X86" s="128"/>
+      <c r="Y86" s="129"/>
+      <c r="Z86" s="129"/>
+      <c r="AA86" s="129"/>
+      <c r="AB86" s="129"/>
+      <c r="AC86" s="129"/>
+      <c r="AD86" s="129"/>
+      <c r="AE86" s="129"/>
+      <c r="AF86" s="129"/>
+      <c r="AG86" s="129"/>
+      <c r="AH86" s="129"/>
+      <c r="AI86" s="130"/>
       <c r="AJ86" s="66"/>
       <c r="AK86" s="67"/>
       <c r="AL86" s="67"/>
@@ -6559,40 +6568,40 @@
     </row>
     <row r="87" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
-      <c r="B87" s="135"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="108"/>
-      <c r="G87" s="108"/>
-      <c r="H87" s="108"/>
-      <c r="I87" s="108"/>
-      <c r="J87" s="107"/>
-      <c r="K87" s="108"/>
-      <c r="L87" s="108"/>
-      <c r="M87" s="108"/>
-      <c r="N87" s="108"/>
-      <c r="O87" s="109"/>
-      <c r="P87" s="109"/>
-      <c r="Q87" s="109"/>
-      <c r="R87" s="109"/>
-      <c r="S87" s="109"/>
-      <c r="T87" s="109"/>
-      <c r="U87" s="109"/>
-      <c r="V87" s="109"/>
-      <c r="W87" s="110"/>
-      <c r="X87" s="154"/>
-      <c r="Y87" s="155"/>
-      <c r="Z87" s="155"/>
-      <c r="AA87" s="155"/>
-      <c r="AB87" s="155"/>
-      <c r="AC87" s="155"/>
-      <c r="AD87" s="155"/>
-      <c r="AE87" s="155"/>
-      <c r="AF87" s="155"/>
-      <c r="AG87" s="155"/>
-      <c r="AH87" s="155"/>
-      <c r="AI87" s="156"/>
+      <c r="B87" s="106"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
+      <c r="I87" s="107"/>
+      <c r="J87" s="131"/>
+      <c r="K87" s="107"/>
+      <c r="L87" s="107"/>
+      <c r="M87" s="107"/>
+      <c r="N87" s="107"/>
+      <c r="O87" s="132"/>
+      <c r="P87" s="132"/>
+      <c r="Q87" s="132"/>
+      <c r="R87" s="132"/>
+      <c r="S87" s="132"/>
+      <c r="T87" s="132"/>
+      <c r="U87" s="132"/>
+      <c r="V87" s="132"/>
+      <c r="W87" s="133"/>
+      <c r="X87" s="128"/>
+      <c r="Y87" s="129"/>
+      <c r="Z87" s="129"/>
+      <c r="AA87" s="129"/>
+      <c r="AB87" s="129"/>
+      <c r="AC87" s="129"/>
+      <c r="AD87" s="129"/>
+      <c r="AE87" s="129"/>
+      <c r="AF87" s="129"/>
+      <c r="AG87" s="129"/>
+      <c r="AH87" s="129"/>
+      <c r="AI87" s="130"/>
       <c r="AJ87" s="69"/>
       <c r="AK87" s="70"/>
       <c r="AL87" s="71"/>
@@ -6608,40 +6617,40 @@
     </row>
     <row r="88" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="135"/>
-      <c r="C88" s="108"/>
-      <c r="D88" s="108"/>
-      <c r="E88" s="108"/>
-      <c r="F88" s="108"/>
-      <c r="G88" s="108"/>
-      <c r="H88" s="108"/>
-      <c r="I88" s="108"/>
-      <c r="J88" s="107"/>
-      <c r="K88" s="108"/>
-      <c r="L88" s="108"/>
-      <c r="M88" s="108"/>
-      <c r="N88" s="108"/>
-      <c r="O88" s="109"/>
-      <c r="P88" s="109"/>
-      <c r="Q88" s="109"/>
-      <c r="R88" s="109"/>
-      <c r="S88" s="109"/>
-      <c r="T88" s="109"/>
-      <c r="U88" s="109"/>
-      <c r="V88" s="109"/>
-      <c r="W88" s="110"/>
-      <c r="X88" s="154"/>
-      <c r="Y88" s="155"/>
-      <c r="Z88" s="155"/>
-      <c r="AA88" s="155"/>
-      <c r="AB88" s="155"/>
-      <c r="AC88" s="155"/>
-      <c r="AD88" s="155"/>
-      <c r="AE88" s="155"/>
-      <c r="AF88" s="155"/>
-      <c r="AG88" s="155"/>
-      <c r="AH88" s="155"/>
-      <c r="AI88" s="156"/>
+      <c r="B88" s="106"/>
+      <c r="C88" s="107"/>
+      <c r="D88" s="107"/>
+      <c r="E88" s="107"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="107"/>
+      <c r="H88" s="107"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="131"/>
+      <c r="K88" s="107"/>
+      <c r="L88" s="107"/>
+      <c r="M88" s="107"/>
+      <c r="N88" s="107"/>
+      <c r="O88" s="132"/>
+      <c r="P88" s="132"/>
+      <c r="Q88" s="132"/>
+      <c r="R88" s="132"/>
+      <c r="S88" s="132"/>
+      <c r="T88" s="132"/>
+      <c r="U88" s="132"/>
+      <c r="V88" s="132"/>
+      <c r="W88" s="133"/>
+      <c r="X88" s="128"/>
+      <c r="Y88" s="129"/>
+      <c r="Z88" s="129"/>
+      <c r="AA88" s="129"/>
+      <c r="AB88" s="129"/>
+      <c r="AC88" s="129"/>
+      <c r="AD88" s="129"/>
+      <c r="AE88" s="129"/>
+      <c r="AF88" s="129"/>
+      <c r="AG88" s="129"/>
+      <c r="AH88" s="129"/>
+      <c r="AI88" s="130"/>
       <c r="AJ88" s="69"/>
       <c r="AK88" s="70"/>
       <c r="AL88" s="71"/>
@@ -6666,40 +6675,40 @@
     </row>
     <row r="89" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="135"/>
-      <c r="C89" s="108"/>
-      <c r="D89" s="108"/>
-      <c r="E89" s="108"/>
-      <c r="F89" s="108"/>
-      <c r="G89" s="108"/>
-      <c r="H89" s="108"/>
-      <c r="I89" s="108"/>
-      <c r="J89" s="107"/>
-      <c r="K89" s="108"/>
-      <c r="L89" s="108"/>
-      <c r="M89" s="108"/>
-      <c r="N89" s="108"/>
-      <c r="O89" s="109"/>
-      <c r="P89" s="109"/>
-      <c r="Q89" s="109"/>
-      <c r="R89" s="109"/>
-      <c r="S89" s="109"/>
-      <c r="T89" s="109"/>
-      <c r="U89" s="109"/>
-      <c r="V89" s="109"/>
-      <c r="W89" s="110"/>
-      <c r="X89" s="154"/>
-      <c r="Y89" s="155"/>
-      <c r="Z89" s="155"/>
-      <c r="AA89" s="155"/>
-      <c r="AB89" s="155"/>
-      <c r="AC89" s="155"/>
-      <c r="AD89" s="155"/>
-      <c r="AE89" s="155"/>
-      <c r="AF89" s="155"/>
-      <c r="AG89" s="155"/>
-      <c r="AH89" s="155"/>
-      <c r="AI89" s="156"/>
+      <c r="B89" s="106"/>
+      <c r="C89" s="107"/>
+      <c r="D89" s="107"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="107"/>
+      <c r="H89" s="107"/>
+      <c r="I89" s="107"/>
+      <c r="J89" s="131"/>
+      <c r="K89" s="107"/>
+      <c r="L89" s="107"/>
+      <c r="M89" s="107"/>
+      <c r="N89" s="107"/>
+      <c r="O89" s="132"/>
+      <c r="P89" s="132"/>
+      <c r="Q89" s="132"/>
+      <c r="R89" s="132"/>
+      <c r="S89" s="132"/>
+      <c r="T89" s="132"/>
+      <c r="U89" s="132"/>
+      <c r="V89" s="132"/>
+      <c r="W89" s="133"/>
+      <c r="X89" s="128"/>
+      <c r="Y89" s="129"/>
+      <c r="Z89" s="129"/>
+      <c r="AA89" s="129"/>
+      <c r="AB89" s="129"/>
+      <c r="AC89" s="129"/>
+      <c r="AD89" s="129"/>
+      <c r="AE89" s="129"/>
+      <c r="AF89" s="129"/>
+      <c r="AG89" s="129"/>
+      <c r="AH89" s="129"/>
+      <c r="AI89" s="130"/>
       <c r="AJ89" s="69"/>
       <c r="AK89" s="70"/>
       <c r="AL89" s="71"/>
@@ -6724,40 +6733,40 @@
     </row>
     <row r="90" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="135"/>
-      <c r="C90" s="108"/>
-      <c r="D90" s="108"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="108"/>
-      <c r="G90" s="108"/>
-      <c r="H90" s="108"/>
-      <c r="I90" s="108"/>
-      <c r="J90" s="107"/>
-      <c r="K90" s="108"/>
-      <c r="L90" s="108"/>
-      <c r="M90" s="108"/>
-      <c r="N90" s="108"/>
-      <c r="O90" s="109"/>
-      <c r="P90" s="109"/>
-      <c r="Q90" s="109"/>
-      <c r="R90" s="109"/>
-      <c r="S90" s="109"/>
-      <c r="T90" s="109"/>
-      <c r="U90" s="109"/>
-      <c r="V90" s="109"/>
-      <c r="W90" s="110"/>
-      <c r="X90" s="154"/>
-      <c r="Y90" s="155"/>
-      <c r="Z90" s="155"/>
-      <c r="AA90" s="155"/>
-      <c r="AB90" s="155"/>
-      <c r="AC90" s="155"/>
-      <c r="AD90" s="155"/>
-      <c r="AE90" s="155"/>
-      <c r="AF90" s="155"/>
-      <c r="AG90" s="155"/>
-      <c r="AH90" s="155"/>
-      <c r="AI90" s="156"/>
+      <c r="B90" s="106"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="107"/>
+      <c r="G90" s="107"/>
+      <c r="H90" s="107"/>
+      <c r="I90" s="107"/>
+      <c r="J90" s="131"/>
+      <c r="K90" s="107"/>
+      <c r="L90" s="107"/>
+      <c r="M90" s="107"/>
+      <c r="N90" s="107"/>
+      <c r="O90" s="132"/>
+      <c r="P90" s="132"/>
+      <c r="Q90" s="132"/>
+      <c r="R90" s="132"/>
+      <c r="S90" s="132"/>
+      <c r="T90" s="132"/>
+      <c r="U90" s="132"/>
+      <c r="V90" s="132"/>
+      <c r="W90" s="133"/>
+      <c r="X90" s="128"/>
+      <c r="Y90" s="129"/>
+      <c r="Z90" s="129"/>
+      <c r="AA90" s="129"/>
+      <c r="AB90" s="129"/>
+      <c r="AC90" s="129"/>
+      <c r="AD90" s="129"/>
+      <c r="AE90" s="129"/>
+      <c r="AF90" s="129"/>
+      <c r="AG90" s="129"/>
+      <c r="AH90" s="129"/>
+      <c r="AI90" s="130"/>
       <c r="AJ90" s="69"/>
       <c r="AK90" s="70"/>
       <c r="AL90" s="71"/>
@@ -6782,40 +6791,40 @@
     </row>
     <row r="91" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="135"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="108"/>
-      <c r="H91" s="108"/>
-      <c r="I91" s="108"/>
-      <c r="J91" s="108"/>
-      <c r="K91" s="108"/>
-      <c r="L91" s="108"/>
-      <c r="M91" s="108"/>
-      <c r="N91" s="108"/>
-      <c r="O91" s="109"/>
-      <c r="P91" s="109"/>
-      <c r="Q91" s="109"/>
-      <c r="R91" s="109"/>
-      <c r="S91" s="109"/>
-      <c r="T91" s="109"/>
-      <c r="U91" s="109"/>
-      <c r="V91" s="109"/>
-      <c r="W91" s="110"/>
-      <c r="X91" s="157"/>
-      <c r="Y91" s="158"/>
-      <c r="Z91" s="158"/>
-      <c r="AA91" s="158"/>
-      <c r="AB91" s="158"/>
-      <c r="AC91" s="158"/>
-      <c r="AD91" s="158"/>
-      <c r="AE91" s="158"/>
-      <c r="AF91" s="158"/>
-      <c r="AG91" s="158"/>
-      <c r="AH91" s="158"/>
-      <c r="AI91" s="159"/>
+      <c r="B91" s="106"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="107"/>
+      <c r="H91" s="107"/>
+      <c r="I91" s="107"/>
+      <c r="J91" s="107"/>
+      <c r="K91" s="107"/>
+      <c r="L91" s="107"/>
+      <c r="M91" s="107"/>
+      <c r="N91" s="107"/>
+      <c r="O91" s="132"/>
+      <c r="P91" s="132"/>
+      <c r="Q91" s="132"/>
+      <c r="R91" s="132"/>
+      <c r="S91" s="132"/>
+      <c r="T91" s="132"/>
+      <c r="U91" s="132"/>
+      <c r="V91" s="132"/>
+      <c r="W91" s="133"/>
+      <c r="X91" s="149"/>
+      <c r="Y91" s="150"/>
+      <c r="Z91" s="150"/>
+      <c r="AA91" s="150"/>
+      <c r="AB91" s="150"/>
+      <c r="AC91" s="150"/>
+      <c r="AD91" s="150"/>
+      <c r="AE91" s="150"/>
+      <c r="AF91" s="150"/>
+      <c r="AG91" s="150"/>
+      <c r="AH91" s="150"/>
+      <c r="AI91" s="151"/>
       <c r="AJ91" s="69"/>
       <c r="AK91" s="70"/>
       <c r="AL91" s="71"/>
@@ -6840,40 +6849,40 @@
     </row>
     <row r="92" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="135"/>
-      <c r="C92" s="108"/>
-      <c r="D92" s="108"/>
-      <c r="E92" s="108"/>
-      <c r="F92" s="108"/>
-      <c r="G92" s="108"/>
-      <c r="H92" s="108"/>
-      <c r="I92" s="108"/>
-      <c r="J92" s="108"/>
-      <c r="K92" s="108"/>
-      <c r="L92" s="108"/>
-      <c r="M92" s="108"/>
-      <c r="N92" s="108"/>
-      <c r="O92" s="109"/>
-      <c r="P92" s="109"/>
-      <c r="Q92" s="109"/>
-      <c r="R92" s="109"/>
-      <c r="S92" s="109"/>
-      <c r="T92" s="109"/>
-      <c r="U92" s="109"/>
-      <c r="V92" s="109"/>
-      <c r="W92" s="110"/>
-      <c r="X92" s="157"/>
-      <c r="Y92" s="158"/>
-      <c r="Z92" s="158"/>
-      <c r="AA92" s="158"/>
-      <c r="AB92" s="158"/>
-      <c r="AC92" s="158"/>
-      <c r="AD92" s="158"/>
-      <c r="AE92" s="158"/>
-      <c r="AF92" s="158"/>
-      <c r="AG92" s="158"/>
-      <c r="AH92" s="158"/>
-      <c r="AI92" s="159"/>
+      <c r="B92" s="106"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="107"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="107"/>
+      <c r="G92" s="107"/>
+      <c r="H92" s="107"/>
+      <c r="I92" s="107"/>
+      <c r="J92" s="107"/>
+      <c r="K92" s="107"/>
+      <c r="L92" s="107"/>
+      <c r="M92" s="107"/>
+      <c r="N92" s="107"/>
+      <c r="O92" s="132"/>
+      <c r="P92" s="132"/>
+      <c r="Q92" s="132"/>
+      <c r="R92" s="132"/>
+      <c r="S92" s="132"/>
+      <c r="T92" s="132"/>
+      <c r="U92" s="132"/>
+      <c r="V92" s="132"/>
+      <c r="W92" s="133"/>
+      <c r="X92" s="149"/>
+      <c r="Y92" s="150"/>
+      <c r="Z92" s="150"/>
+      <c r="AA92" s="150"/>
+      <c r="AB92" s="150"/>
+      <c r="AC92" s="150"/>
+      <c r="AD92" s="150"/>
+      <c r="AE92" s="150"/>
+      <c r="AF92" s="150"/>
+      <c r="AG92" s="150"/>
+      <c r="AH92" s="150"/>
+      <c r="AI92" s="151"/>
       <c r="AJ92" s="69"/>
       <c r="AK92" s="70"/>
       <c r="AL92" s="71"/>
@@ -6898,40 +6907,40 @@
     </row>
     <row r="93" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
-      <c r="B93" s="111"/>
-      <c r="C93" s="112"/>
-      <c r="D93" s="112"/>
-      <c r="E93" s="112"/>
-      <c r="F93" s="112"/>
-      <c r="G93" s="112"/>
-      <c r="H93" s="112"/>
-      <c r="I93" s="112"/>
-      <c r="J93" s="112"/>
-      <c r="K93" s="112"/>
-      <c r="L93" s="112"/>
-      <c r="M93" s="112"/>
-      <c r="N93" s="112"/>
-      <c r="O93" s="133"/>
-      <c r="P93" s="133"/>
-      <c r="Q93" s="133"/>
-      <c r="R93" s="133"/>
-      <c r="S93" s="133"/>
-      <c r="T93" s="133"/>
-      <c r="U93" s="133"/>
-      <c r="V93" s="133"/>
-      <c r="W93" s="134"/>
-      <c r="X93" s="113"/>
-      <c r="Y93" s="114"/>
-      <c r="Z93" s="114"/>
-      <c r="AA93" s="114"/>
-      <c r="AB93" s="114"/>
-      <c r="AC93" s="114"/>
-      <c r="AD93" s="114"/>
-      <c r="AE93" s="114"/>
-      <c r="AF93" s="114"/>
-      <c r="AG93" s="114"/>
-      <c r="AH93" s="114"/>
-      <c r="AI93" s="115"/>
+      <c r="B93" s="119"/>
+      <c r="C93" s="120"/>
+      <c r="D93" s="120"/>
+      <c r="E93" s="120"/>
+      <c r="F93" s="120"/>
+      <c r="G93" s="120"/>
+      <c r="H93" s="120"/>
+      <c r="I93" s="120"/>
+      <c r="J93" s="120"/>
+      <c r="K93" s="120"/>
+      <c r="L93" s="120"/>
+      <c r="M93" s="120"/>
+      <c r="N93" s="120"/>
+      <c r="O93" s="154"/>
+      <c r="P93" s="154"/>
+      <c r="Q93" s="154"/>
+      <c r="R93" s="154"/>
+      <c r="S93" s="154"/>
+      <c r="T93" s="154"/>
+      <c r="U93" s="154"/>
+      <c r="V93" s="154"/>
+      <c r="W93" s="155"/>
+      <c r="X93" s="169"/>
+      <c r="Y93" s="170"/>
+      <c r="Z93" s="170"/>
+      <c r="AA93" s="170"/>
+      <c r="AB93" s="170"/>
+      <c r="AC93" s="170"/>
+      <c r="AD93" s="170"/>
+      <c r="AE93" s="170"/>
+      <c r="AF93" s="170"/>
+      <c r="AG93" s="170"/>
+      <c r="AH93" s="170"/>
+      <c r="AI93" s="171"/>
       <c r="AJ93" s="72"/>
       <c r="AK93" s="73"/>
       <c r="AL93" s="74"/>
@@ -6996,154 +7005,154 @@
     </row>
     <row r="95" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
-      <c r="B95" s="149" t="s">
+      <c r="B95" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="149"/>
-      <c r="D95" s="149"/>
-      <c r="E95" s="149"/>
-      <c r="F95" s="149"/>
-      <c r="G95" s="149"/>
-      <c r="H95" s="149"/>
-      <c r="I95" s="149"/>
-      <c r="J95" s="149"/>
-      <c r="K95" s="149"/>
-      <c r="L95" s="149"/>
-      <c r="M95" s="149"/>
-      <c r="N95" s="149"/>
-      <c r="O95" s="149"/>
-      <c r="P95" s="149"/>
-      <c r="Q95" s="149"/>
-      <c r="R95" s="149"/>
-      <c r="S95" s="149"/>
-      <c r="T95" s="149"/>
-      <c r="U95" s="149"/>
-      <c r="V95" s="149"/>
-      <c r="W95" s="149"/>
-      <c r="X95" s="149"/>
-      <c r="Y95" s="149"/>
-      <c r="Z95" s="149"/>
-      <c r="AA95" s="149"/>
-      <c r="AB95" s="149"/>
-      <c r="AC95" s="149"/>
-      <c r="AD95" s="149"/>
-      <c r="AE95" s="149"/>
-      <c r="AF95" s="149"/>
-      <c r="AG95" s="149"/>
-      <c r="AH95" s="149"/>
-      <c r="AI95" s="149"/>
-      <c r="AJ95" s="149"/>
-      <c r="AK95" s="149"/>
-      <c r="AL95" s="149"/>
-      <c r="AM95" s="149"/>
-      <c r="AN95" s="149"/>
-      <c r="AO95" s="149"/>
-      <c r="AP95" s="149"/>
-      <c r="AQ95" s="149"/>
-      <c r="AR95" s="149"/>
-      <c r="AS95" s="149"/>
-      <c r="AT95" s="149"/>
+      <c r="C95" s="159"/>
+      <c r="D95" s="159"/>
+      <c r="E95" s="159"/>
+      <c r="F95" s="159"/>
+      <c r="G95" s="159"/>
+      <c r="H95" s="159"/>
+      <c r="I95" s="159"/>
+      <c r="J95" s="159"/>
+      <c r="K95" s="159"/>
+      <c r="L95" s="159"/>
+      <c r="M95" s="159"/>
+      <c r="N95" s="159"/>
+      <c r="O95" s="159"/>
+      <c r="P95" s="159"/>
+      <c r="Q95" s="159"/>
+      <c r="R95" s="159"/>
+      <c r="S95" s="159"/>
+      <c r="T95" s="159"/>
+      <c r="U95" s="159"/>
+      <c r="V95" s="159"/>
+      <c r="W95" s="159"/>
+      <c r="X95" s="159"/>
+      <c r="Y95" s="159"/>
+      <c r="Z95" s="159"/>
+      <c r="AA95" s="159"/>
+      <c r="AB95" s="159"/>
+      <c r="AC95" s="159"/>
+      <c r="AD95" s="159"/>
+      <c r="AE95" s="159"/>
+      <c r="AF95" s="159"/>
+      <c r="AG95" s="159"/>
+      <c r="AH95" s="159"/>
+      <c r="AI95" s="159"/>
+      <c r="AJ95" s="159"/>
+      <c r="AK95" s="159"/>
+      <c r="AL95" s="159"/>
+      <c r="AM95" s="159"/>
+      <c r="AN95" s="159"/>
+      <c r="AO95" s="159"/>
+      <c r="AP95" s="159"/>
+      <c r="AQ95" s="159"/>
+      <c r="AR95" s="159"/>
+      <c r="AS95" s="159"/>
+      <c r="AT95" s="159"/>
       <c r="AU95" s="8"/>
     </row>
     <row r="96" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
-      <c r="B96" s="149" t="s">
+      <c r="B96" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="149"/>
-      <c r="D96" s="149"/>
-      <c r="E96" s="149"/>
-      <c r="F96" s="149"/>
-      <c r="G96" s="149"/>
-      <c r="H96" s="149"/>
-      <c r="I96" s="149"/>
-      <c r="J96" s="149"/>
-      <c r="K96" s="149"/>
-      <c r="L96" s="149"/>
-      <c r="M96" s="149"/>
-      <c r="N96" s="149"/>
-      <c r="O96" s="149"/>
-      <c r="P96" s="149"/>
-      <c r="Q96" s="149"/>
-      <c r="R96" s="149"/>
-      <c r="S96" s="149"/>
-      <c r="T96" s="149"/>
-      <c r="U96" s="149"/>
-      <c r="V96" s="149"/>
-      <c r="W96" s="149"/>
-      <c r="X96" s="149"/>
-      <c r="Y96" s="149"/>
-      <c r="Z96" s="149"/>
-      <c r="AA96" s="149"/>
-      <c r="AB96" s="149"/>
-      <c r="AC96" s="149"/>
-      <c r="AD96" s="149"/>
-      <c r="AE96" s="149"/>
-      <c r="AF96" s="149"/>
-      <c r="AG96" s="149"/>
-      <c r="AH96" s="149"/>
-      <c r="AI96" s="149"/>
-      <c r="AJ96" s="149"/>
-      <c r="AK96" s="149"/>
-      <c r="AL96" s="149"/>
-      <c r="AM96" s="149"/>
-      <c r="AN96" s="149"/>
-      <c r="AO96" s="149"/>
-      <c r="AP96" s="149"/>
-      <c r="AQ96" s="149"/>
-      <c r="AR96" s="149"/>
-      <c r="AS96" s="149"/>
-      <c r="AT96" s="149"/>
+      <c r="C96" s="159"/>
+      <c r="D96" s="159"/>
+      <c r="E96" s="159"/>
+      <c r="F96" s="159"/>
+      <c r="G96" s="159"/>
+      <c r="H96" s="159"/>
+      <c r="I96" s="159"/>
+      <c r="J96" s="159"/>
+      <c r="K96" s="159"/>
+      <c r="L96" s="159"/>
+      <c r="M96" s="159"/>
+      <c r="N96" s="159"/>
+      <c r="O96" s="159"/>
+      <c r="P96" s="159"/>
+      <c r="Q96" s="159"/>
+      <c r="R96" s="159"/>
+      <c r="S96" s="159"/>
+      <c r="T96" s="159"/>
+      <c r="U96" s="159"/>
+      <c r="V96" s="159"/>
+      <c r="W96" s="159"/>
+      <c r="X96" s="159"/>
+      <c r="Y96" s="159"/>
+      <c r="Z96" s="159"/>
+      <c r="AA96" s="159"/>
+      <c r="AB96" s="159"/>
+      <c r="AC96" s="159"/>
+      <c r="AD96" s="159"/>
+      <c r="AE96" s="159"/>
+      <c r="AF96" s="159"/>
+      <c r="AG96" s="159"/>
+      <c r="AH96" s="159"/>
+      <c r="AI96" s="159"/>
+      <c r="AJ96" s="159"/>
+      <c r="AK96" s="159"/>
+      <c r="AL96" s="159"/>
+      <c r="AM96" s="159"/>
+      <c r="AN96" s="159"/>
+      <c r="AO96" s="159"/>
+      <c r="AP96" s="159"/>
+      <c r="AQ96" s="159"/>
+      <c r="AR96" s="159"/>
+      <c r="AS96" s="159"/>
+      <c r="AT96" s="159"/>
       <c r="AU96" s="8"/>
     </row>
     <row r="97" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="105" t="s">
+      <c r="C97" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="105"/>
-      <c r="K97" s="105"/>
-      <c r="L97" s="105"/>
-      <c r="M97" s="105"/>
-      <c r="N97" s="105"/>
-      <c r="O97" s="105"/>
-      <c r="P97" s="105"/>
-      <c r="Q97" s="105"/>
-      <c r="R97" s="105"/>
-      <c r="S97" s="105"/>
-      <c r="T97" s="105"/>
-      <c r="U97" s="105"/>
-      <c r="V97" s="105"/>
-      <c r="W97" s="105"/>
-      <c r="X97" s="105"/>
-      <c r="Y97" s="105"/>
-      <c r="Z97" s="105"/>
-      <c r="AA97" s="105"/>
-      <c r="AB97" s="105"/>
-      <c r="AC97" s="105"/>
-      <c r="AD97" s="105"/>
-      <c r="AE97" s="105"/>
-      <c r="AF97" s="105"/>
-      <c r="AG97" s="105"/>
-      <c r="AH97" s="105"/>
-      <c r="AI97" s="105"/>
-      <c r="AJ97" s="105"/>
-      <c r="AK97" s="105"/>
-      <c r="AL97" s="105"/>
-      <c r="AM97" s="105"/>
-      <c r="AN97" s="105"/>
-      <c r="AO97" s="105"/>
-      <c r="AP97" s="105"/>
-      <c r="AQ97" s="105"/>
-      <c r="AR97" s="105"/>
-      <c r="AS97" s="105"/>
+      <c r="D97" s="152"/>
+      <c r="E97" s="152"/>
+      <c r="F97" s="152"/>
+      <c r="G97" s="152"/>
+      <c r="H97" s="152"/>
+      <c r="I97" s="152"/>
+      <c r="J97" s="152"/>
+      <c r="K97" s="152"/>
+      <c r="L97" s="152"/>
+      <c r="M97" s="152"/>
+      <c r="N97" s="152"/>
+      <c r="O97" s="152"/>
+      <c r="P97" s="152"/>
+      <c r="Q97" s="152"/>
+      <c r="R97" s="152"/>
+      <c r="S97" s="152"/>
+      <c r="T97" s="152"/>
+      <c r="U97" s="152"/>
+      <c r="V97" s="152"/>
+      <c r="W97" s="152"/>
+      <c r="X97" s="152"/>
+      <c r="Y97" s="152"/>
+      <c r="Z97" s="152"/>
+      <c r="AA97" s="152"/>
+      <c r="AB97" s="152"/>
+      <c r="AC97" s="152"/>
+      <c r="AD97" s="152"/>
+      <c r="AE97" s="152"/>
+      <c r="AF97" s="152"/>
+      <c r="AG97" s="152"/>
+      <c r="AH97" s="152"/>
+      <c r="AI97" s="152"/>
+      <c r="AJ97" s="152"/>
+      <c r="AK97" s="152"/>
+      <c r="AL97" s="152"/>
+      <c r="AM97" s="152"/>
+      <c r="AN97" s="152"/>
+      <c r="AO97" s="152"/>
+      <c r="AP97" s="152"/>
+      <c r="AQ97" s="152"/>
+      <c r="AR97" s="152"/>
+      <c r="AS97" s="152"/>
       <c r="AT97" s="18"/>
       <c r="AU97" s="8"/>
     </row>
@@ -7198,53 +7207,53 @@
     </row>
     <row r="99" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
-      <c r="B99" s="142" t="s">
+      <c r="B99" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="C99" s="143"/>
-      <c r="D99" s="143"/>
-      <c r="E99" s="143"/>
-      <c r="F99" s="143"/>
-      <c r="G99" s="143"/>
-      <c r="H99" s="143"/>
-      <c r="I99" s="143"/>
-      <c r="J99" s="143"/>
-      <c r="K99" s="143"/>
-      <c r="L99" s="143"/>
-      <c r="M99" s="143"/>
-      <c r="N99" s="143"/>
-      <c r="O99" s="143"/>
-      <c r="P99" s="143"/>
-      <c r="Q99" s="143"/>
-      <c r="R99" s="143"/>
-      <c r="S99" s="143"/>
-      <c r="T99" s="143"/>
-      <c r="U99" s="143"/>
-      <c r="V99" s="143"/>
-      <c r="W99" s="143"/>
-      <c r="X99" s="143"/>
-      <c r="Y99" s="143"/>
-      <c r="Z99" s="143"/>
-      <c r="AA99" s="143"/>
-      <c r="AB99" s="143"/>
-      <c r="AC99" s="143"/>
-      <c r="AD99" s="143"/>
-      <c r="AE99" s="143"/>
-      <c r="AF99" s="143"/>
-      <c r="AG99" s="143"/>
-      <c r="AH99" s="143"/>
-      <c r="AI99" s="143"/>
-      <c r="AJ99" s="143"/>
-      <c r="AK99" s="143"/>
-      <c r="AL99" s="143"/>
-      <c r="AM99" s="143"/>
-      <c r="AN99" s="143"/>
-      <c r="AO99" s="143"/>
-      <c r="AP99" s="143"/>
-      <c r="AQ99" s="143"/>
-      <c r="AR99" s="143"/>
-      <c r="AS99" s="143"/>
-      <c r="AT99" s="144"/>
+      <c r="C99" s="126"/>
+      <c r="D99" s="126"/>
+      <c r="E99" s="126"/>
+      <c r="F99" s="126"/>
+      <c r="G99" s="126"/>
+      <c r="H99" s="126"/>
+      <c r="I99" s="126"/>
+      <c r="J99" s="126"/>
+      <c r="K99" s="126"/>
+      <c r="L99" s="126"/>
+      <c r="M99" s="126"/>
+      <c r="N99" s="126"/>
+      <c r="O99" s="126"/>
+      <c r="P99" s="126"/>
+      <c r="Q99" s="126"/>
+      <c r="R99" s="126"/>
+      <c r="S99" s="126"/>
+      <c r="T99" s="126"/>
+      <c r="U99" s="126"/>
+      <c r="V99" s="126"/>
+      <c r="W99" s="126"/>
+      <c r="X99" s="126"/>
+      <c r="Y99" s="126"/>
+      <c r="Z99" s="126"/>
+      <c r="AA99" s="126"/>
+      <c r="AB99" s="126"/>
+      <c r="AC99" s="126"/>
+      <c r="AD99" s="126"/>
+      <c r="AE99" s="126"/>
+      <c r="AF99" s="126"/>
+      <c r="AG99" s="126"/>
+      <c r="AH99" s="126"/>
+      <c r="AI99" s="126"/>
+      <c r="AJ99" s="126"/>
+      <c r="AK99" s="126"/>
+      <c r="AL99" s="126"/>
+      <c r="AM99" s="126"/>
+      <c r="AN99" s="126"/>
+      <c r="AO99" s="126"/>
+      <c r="AP99" s="126"/>
+      <c r="AQ99" s="126"/>
+      <c r="AR99" s="126"/>
+      <c r="AS99" s="126"/>
+      <c r="AT99" s="127"/>
       <c r="AU99" s="8"/>
     </row>
     <row r="100" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7298,361 +7307,361 @@
     </row>
     <row r="101" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
-      <c r="B101" s="145" t="s">
+      <c r="B101" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="146"/>
-      <c r="D101" s="146"/>
-      <c r="E101" s="146"/>
-      <c r="F101" s="146"/>
-      <c r="G101" s="146" t="s">
+      <c r="C101" s="103"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="H101" s="146"/>
-      <c r="I101" s="146"/>
-      <c r="J101" s="146"/>
-      <c r="K101" s="146"/>
-      <c r="L101" s="146"/>
-      <c r="M101" s="146"/>
-      <c r="N101" s="146"/>
-      <c r="O101" s="146"/>
-      <c r="P101" s="146"/>
-      <c r="Q101" s="146"/>
-      <c r="R101" s="147" t="s">
+      <c r="H101" s="103"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="103"/>
+      <c r="K101" s="103"/>
+      <c r="L101" s="103"/>
+      <c r="M101" s="103"/>
+      <c r="N101" s="103"/>
+      <c r="O101" s="103"/>
+      <c r="P101" s="103"/>
+      <c r="Q101" s="103"/>
+      <c r="R101" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="S101" s="147"/>
-      <c r="T101" s="147"/>
-      <c r="U101" s="147"/>
-      <c r="V101" s="147" t="s">
+      <c r="S101" s="104"/>
+      <c r="T101" s="104"/>
+      <c r="U101" s="104"/>
+      <c r="V101" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="W101" s="147"/>
-      <c r="X101" s="148"/>
+      <c r="W101" s="104"/>
+      <c r="X101" s="105"/>
       <c r="Y101" s="13"/>
-      <c r="Z101" s="145" t="s">
+      <c r="Z101" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="AA101" s="146"/>
-      <c r="AB101" s="146"/>
-      <c r="AC101" s="146"/>
-      <c r="AD101" s="146" t="s">
+      <c r="AA101" s="103"/>
+      <c r="AB101" s="103"/>
+      <c r="AC101" s="103"/>
+      <c r="AD101" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="AE101" s="146"/>
-      <c r="AF101" s="146"/>
-      <c r="AG101" s="146"/>
-      <c r="AH101" s="146"/>
-      <c r="AI101" s="146"/>
-      <c r="AJ101" s="146"/>
-      <c r="AK101" s="146"/>
-      <c r="AL101" s="146"/>
-      <c r="AM101" s="146"/>
-      <c r="AN101" s="147" t="s">
+      <c r="AE101" s="103"/>
+      <c r="AF101" s="103"/>
+      <c r="AG101" s="103"/>
+      <c r="AH101" s="103"/>
+      <c r="AI101" s="103"/>
+      <c r="AJ101" s="103"/>
+      <c r="AK101" s="103"/>
+      <c r="AL101" s="103"/>
+      <c r="AM101" s="103"/>
+      <c r="AN101" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="AO101" s="147"/>
-      <c r="AP101" s="147"/>
-      <c r="AQ101" s="147"/>
-      <c r="AR101" s="147" t="s">
+      <c r="AO101" s="104"/>
+      <c r="AP101" s="104"/>
+      <c r="AQ101" s="104"/>
+      <c r="AR101" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="AS101" s="147"/>
-      <c r="AT101" s="148"/>
+      <c r="AS101" s="104"/>
+      <c r="AT101" s="105"/>
       <c r="AU101" s="8"/>
     </row>
     <row r="102" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
-      <c r="B102" s="135"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
-      <c r="G102" s="108"/>
-      <c r="H102" s="108"/>
-      <c r="I102" s="108"/>
-      <c r="J102" s="108"/>
-      <c r="K102" s="108"/>
-      <c r="L102" s="108"/>
-      <c r="M102" s="108"/>
-      <c r="N102" s="108"/>
-      <c r="O102" s="108"/>
-      <c r="P102" s="108"/>
-      <c r="Q102" s="108"/>
-      <c r="R102" s="168"/>
-      <c r="S102" s="168"/>
-      <c r="T102" s="168"/>
-      <c r="U102" s="168"/>
-      <c r="V102" s="172"/>
-      <c r="W102" s="168"/>
-      <c r="X102" s="169"/>
+      <c r="B102" s="106"/>
+      <c r="C102" s="107"/>
+      <c r="D102" s="107"/>
+      <c r="E102" s="107"/>
+      <c r="F102" s="107"/>
+      <c r="G102" s="107"/>
+      <c r="H102" s="107"/>
+      <c r="I102" s="107"/>
+      <c r="J102" s="107"/>
+      <c r="K102" s="107"/>
+      <c r="L102" s="107"/>
+      <c r="M102" s="107"/>
+      <c r="N102" s="107"/>
+      <c r="O102" s="107"/>
+      <c r="P102" s="107"/>
+      <c r="Q102" s="107"/>
+      <c r="R102" s="108"/>
+      <c r="S102" s="108"/>
+      <c r="T102" s="108"/>
+      <c r="U102" s="108"/>
+      <c r="V102" s="124"/>
+      <c r="W102" s="108"/>
+      <c r="X102" s="109"/>
       <c r="Y102" s="51"/>
-      <c r="Z102" s="135"/>
-      <c r="AA102" s="108"/>
-      <c r="AB102" s="108"/>
-      <c r="AC102" s="108"/>
-      <c r="AD102" s="108"/>
-      <c r="AE102" s="108"/>
-      <c r="AF102" s="108"/>
-      <c r="AG102" s="108"/>
-      <c r="AH102" s="108"/>
-      <c r="AI102" s="108"/>
-      <c r="AJ102" s="108"/>
-      <c r="AK102" s="108"/>
-      <c r="AL102" s="108"/>
-      <c r="AM102" s="108"/>
-      <c r="AN102" s="168"/>
-      <c r="AO102" s="168"/>
-      <c r="AP102" s="168"/>
-      <c r="AQ102" s="168"/>
-      <c r="AR102" s="168"/>
-      <c r="AS102" s="168"/>
-      <c r="AT102" s="169"/>
+      <c r="Z102" s="106"/>
+      <c r="AA102" s="107"/>
+      <c r="AB102" s="107"/>
+      <c r="AC102" s="107"/>
+      <c r="AD102" s="107"/>
+      <c r="AE102" s="107"/>
+      <c r="AF102" s="107"/>
+      <c r="AG102" s="107"/>
+      <c r="AH102" s="107"/>
+      <c r="AI102" s="107"/>
+      <c r="AJ102" s="107"/>
+      <c r="AK102" s="107"/>
+      <c r="AL102" s="107"/>
+      <c r="AM102" s="107"/>
+      <c r="AN102" s="108"/>
+      <c r="AO102" s="108"/>
+      <c r="AP102" s="108"/>
+      <c r="AQ102" s="108"/>
+      <c r="AR102" s="108"/>
+      <c r="AS102" s="108"/>
+      <c r="AT102" s="109"/>
       <c r="AU102" s="8"/>
     </row>
     <row r="103" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
-      <c r="B103" s="135"/>
-      <c r="C103" s="108"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="108"/>
-      <c r="F103" s="108"/>
-      <c r="G103" s="108"/>
-      <c r="H103" s="108"/>
-      <c r="I103" s="108"/>
-      <c r="J103" s="108"/>
-      <c r="K103" s="108"/>
-      <c r="L103" s="108"/>
-      <c r="M103" s="108"/>
-      <c r="N103" s="108"/>
-      <c r="O103" s="108"/>
-      <c r="P103" s="108"/>
-      <c r="Q103" s="108"/>
-      <c r="R103" s="168"/>
-      <c r="S103" s="168"/>
-      <c r="T103" s="168"/>
-      <c r="U103" s="168"/>
-      <c r="V103" s="168"/>
-      <c r="W103" s="168"/>
-      <c r="X103" s="169"/>
+      <c r="B103" s="106"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="107"/>
+      <c r="H103" s="107"/>
+      <c r="I103" s="107"/>
+      <c r="J103" s="107"/>
+      <c r="K103" s="107"/>
+      <c r="L103" s="107"/>
+      <c r="M103" s="107"/>
+      <c r="N103" s="107"/>
+      <c r="O103" s="107"/>
+      <c r="P103" s="107"/>
+      <c r="Q103" s="107"/>
+      <c r="R103" s="108"/>
+      <c r="S103" s="108"/>
+      <c r="T103" s="108"/>
+      <c r="U103" s="108"/>
+      <c r="V103" s="108"/>
+      <c r="W103" s="108"/>
+      <c r="X103" s="109"/>
       <c r="Y103" s="51"/>
-      <c r="Z103" s="135"/>
-      <c r="AA103" s="108"/>
-      <c r="AB103" s="108"/>
-      <c r="AC103" s="108"/>
-      <c r="AD103" s="108"/>
-      <c r="AE103" s="108"/>
-      <c r="AF103" s="108"/>
-      <c r="AG103" s="108"/>
-      <c r="AH103" s="108"/>
-      <c r="AI103" s="108"/>
-      <c r="AJ103" s="108"/>
-      <c r="AK103" s="108"/>
-      <c r="AL103" s="108"/>
-      <c r="AM103" s="108"/>
-      <c r="AN103" s="168"/>
-      <c r="AO103" s="168"/>
-      <c r="AP103" s="168"/>
-      <c r="AQ103" s="168"/>
-      <c r="AR103" s="168"/>
-      <c r="AS103" s="168"/>
-      <c r="AT103" s="169"/>
+      <c r="Z103" s="106"/>
+      <c r="AA103" s="107"/>
+      <c r="AB103" s="107"/>
+      <c r="AC103" s="107"/>
+      <c r="AD103" s="107"/>
+      <c r="AE103" s="107"/>
+      <c r="AF103" s="107"/>
+      <c r="AG103" s="107"/>
+      <c r="AH103" s="107"/>
+      <c r="AI103" s="107"/>
+      <c r="AJ103" s="107"/>
+      <c r="AK103" s="107"/>
+      <c r="AL103" s="107"/>
+      <c r="AM103" s="107"/>
+      <c r="AN103" s="108"/>
+      <c r="AO103" s="108"/>
+      <c r="AP103" s="108"/>
+      <c r="AQ103" s="108"/>
+      <c r="AR103" s="108"/>
+      <c r="AS103" s="108"/>
+      <c r="AT103" s="109"/>
       <c r="AU103" s="8"/>
     </row>
     <row r="104" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
-      <c r="B104" s="135"/>
-      <c r="C104" s="108"/>
-      <c r="D104" s="108"/>
-      <c r="E104" s="108"/>
-      <c r="F104" s="108"/>
-      <c r="G104" s="108"/>
-      <c r="H104" s="108"/>
-      <c r="I104" s="108"/>
-      <c r="J104" s="108"/>
-      <c r="K104" s="108"/>
-      <c r="L104" s="108"/>
-      <c r="M104" s="108"/>
-      <c r="N104" s="108"/>
-      <c r="O104" s="108"/>
-      <c r="P104" s="108"/>
-      <c r="Q104" s="108"/>
-      <c r="R104" s="168"/>
-      <c r="S104" s="168"/>
-      <c r="T104" s="168"/>
-      <c r="U104" s="168"/>
-      <c r="V104" s="168"/>
-      <c r="W104" s="168"/>
-      <c r="X104" s="169"/>
+      <c r="B104" s="106"/>
+      <c r="C104" s="107"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
+      <c r="F104" s="107"/>
+      <c r="G104" s="107"/>
+      <c r="H104" s="107"/>
+      <c r="I104" s="107"/>
+      <c r="J104" s="107"/>
+      <c r="K104" s="107"/>
+      <c r="L104" s="107"/>
+      <c r="M104" s="107"/>
+      <c r="N104" s="107"/>
+      <c r="O104" s="107"/>
+      <c r="P104" s="107"/>
+      <c r="Q104" s="107"/>
+      <c r="R104" s="108"/>
+      <c r="S104" s="108"/>
+      <c r="T104" s="108"/>
+      <c r="U104" s="108"/>
+      <c r="V104" s="108"/>
+      <c r="W104" s="108"/>
+      <c r="X104" s="109"/>
       <c r="Y104" s="51"/>
-      <c r="Z104" s="135"/>
-      <c r="AA104" s="108"/>
-      <c r="AB104" s="108"/>
-      <c r="AC104" s="108"/>
-      <c r="AD104" s="108"/>
-      <c r="AE104" s="108"/>
-      <c r="AF104" s="108"/>
-      <c r="AG104" s="108"/>
-      <c r="AH104" s="108"/>
-      <c r="AI104" s="108"/>
-      <c r="AJ104" s="108"/>
-      <c r="AK104" s="108"/>
-      <c r="AL104" s="108"/>
-      <c r="AM104" s="108"/>
-      <c r="AN104" s="168"/>
-      <c r="AO104" s="168"/>
-      <c r="AP104" s="168"/>
-      <c r="AQ104" s="168"/>
-      <c r="AR104" s="168"/>
-      <c r="AS104" s="168"/>
-      <c r="AT104" s="169"/>
+      <c r="Z104" s="106"/>
+      <c r="AA104" s="107"/>
+      <c r="AB104" s="107"/>
+      <c r="AC104" s="107"/>
+      <c r="AD104" s="107"/>
+      <c r="AE104" s="107"/>
+      <c r="AF104" s="107"/>
+      <c r="AG104" s="107"/>
+      <c r="AH104" s="107"/>
+      <c r="AI104" s="107"/>
+      <c r="AJ104" s="107"/>
+      <c r="AK104" s="107"/>
+      <c r="AL104" s="107"/>
+      <c r="AM104" s="107"/>
+      <c r="AN104" s="108"/>
+      <c r="AO104" s="108"/>
+      <c r="AP104" s="108"/>
+      <c r="AQ104" s="108"/>
+      <c r="AR104" s="108"/>
+      <c r="AS104" s="108"/>
+      <c r="AT104" s="109"/>
       <c r="AU104" s="8"/>
     </row>
     <row r="105" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
-      <c r="B105" s="135"/>
-      <c r="C105" s="108"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="108"/>
-      <c r="F105" s="108"/>
-      <c r="G105" s="108"/>
-      <c r="H105" s="108"/>
-      <c r="I105" s="108"/>
-      <c r="J105" s="108"/>
-      <c r="K105" s="108"/>
-      <c r="L105" s="108"/>
-      <c r="M105" s="108"/>
-      <c r="N105" s="108"/>
-      <c r="O105" s="108"/>
-      <c r="P105" s="108"/>
-      <c r="Q105" s="108"/>
-      <c r="R105" s="168"/>
-      <c r="S105" s="168"/>
-      <c r="T105" s="168"/>
-      <c r="U105" s="168"/>
-      <c r="V105" s="168"/>
-      <c r="W105" s="168"/>
-      <c r="X105" s="169"/>
+      <c r="B105" s="106"/>
+      <c r="C105" s="107"/>
+      <c r="D105" s="107"/>
+      <c r="E105" s="107"/>
+      <c r="F105" s="107"/>
+      <c r="G105" s="107"/>
+      <c r="H105" s="107"/>
+      <c r="I105" s="107"/>
+      <c r="J105" s="107"/>
+      <c r="K105" s="107"/>
+      <c r="L105" s="107"/>
+      <c r="M105" s="107"/>
+      <c r="N105" s="107"/>
+      <c r="O105" s="107"/>
+      <c r="P105" s="107"/>
+      <c r="Q105" s="107"/>
+      <c r="R105" s="108"/>
+      <c r="S105" s="108"/>
+      <c r="T105" s="108"/>
+      <c r="U105" s="108"/>
+      <c r="V105" s="108"/>
+      <c r="W105" s="108"/>
+      <c r="X105" s="109"/>
       <c r="Y105" s="51"/>
-      <c r="Z105" s="135"/>
-      <c r="AA105" s="108"/>
-      <c r="AB105" s="108"/>
-      <c r="AC105" s="108"/>
-      <c r="AD105" s="108"/>
-      <c r="AE105" s="108"/>
-      <c r="AF105" s="108"/>
-      <c r="AG105" s="108"/>
-      <c r="AH105" s="108"/>
-      <c r="AI105" s="108"/>
-      <c r="AJ105" s="108"/>
-      <c r="AK105" s="108"/>
-      <c r="AL105" s="108"/>
-      <c r="AM105" s="108"/>
-      <c r="AN105" s="168"/>
-      <c r="AO105" s="168"/>
-      <c r="AP105" s="168"/>
-      <c r="AQ105" s="168"/>
-      <c r="AR105" s="168"/>
-      <c r="AS105" s="168"/>
-      <c r="AT105" s="169"/>
+      <c r="Z105" s="106"/>
+      <c r="AA105" s="107"/>
+      <c r="AB105" s="107"/>
+      <c r="AC105" s="107"/>
+      <c r="AD105" s="107"/>
+      <c r="AE105" s="107"/>
+      <c r="AF105" s="107"/>
+      <c r="AG105" s="107"/>
+      <c r="AH105" s="107"/>
+      <c r="AI105" s="107"/>
+      <c r="AJ105" s="107"/>
+      <c r="AK105" s="107"/>
+      <c r="AL105" s="107"/>
+      <c r="AM105" s="107"/>
+      <c r="AN105" s="108"/>
+      <c r="AO105" s="108"/>
+      <c r="AP105" s="108"/>
+      <c r="AQ105" s="108"/>
+      <c r="AR105" s="108"/>
+      <c r="AS105" s="108"/>
+      <c r="AT105" s="109"/>
       <c r="AU105" s="8"/>
     </row>
     <row r="106" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
-      <c r="B106" s="135"/>
-      <c r="C106" s="108"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="108"/>
-      <c r="F106" s="108"/>
-      <c r="G106" s="108"/>
-      <c r="H106" s="108"/>
-      <c r="I106" s="108"/>
-      <c r="J106" s="108"/>
-      <c r="K106" s="108"/>
-      <c r="L106" s="108"/>
-      <c r="M106" s="108"/>
-      <c r="N106" s="108"/>
-      <c r="O106" s="108"/>
-      <c r="P106" s="108"/>
-      <c r="Q106" s="108"/>
-      <c r="R106" s="168"/>
-      <c r="S106" s="168"/>
-      <c r="T106" s="168"/>
-      <c r="U106" s="168"/>
-      <c r="V106" s="168"/>
-      <c r="W106" s="168"/>
-      <c r="X106" s="169"/>
+      <c r="B106" s="106"/>
+      <c r="C106" s="107"/>
+      <c r="D106" s="107"/>
+      <c r="E106" s="107"/>
+      <c r="F106" s="107"/>
+      <c r="G106" s="107"/>
+      <c r="H106" s="107"/>
+      <c r="I106" s="107"/>
+      <c r="J106" s="107"/>
+      <c r="K106" s="107"/>
+      <c r="L106" s="107"/>
+      <c r="M106" s="107"/>
+      <c r="N106" s="107"/>
+      <c r="O106" s="107"/>
+      <c r="P106" s="107"/>
+      <c r="Q106" s="107"/>
+      <c r="R106" s="108"/>
+      <c r="S106" s="108"/>
+      <c r="T106" s="108"/>
+      <c r="U106" s="108"/>
+      <c r="V106" s="108"/>
+      <c r="W106" s="108"/>
+      <c r="X106" s="109"/>
       <c r="Y106" s="51"/>
-      <c r="Z106" s="135"/>
-      <c r="AA106" s="108"/>
-      <c r="AB106" s="108"/>
-      <c r="AC106" s="108"/>
-      <c r="AD106" s="108"/>
-      <c r="AE106" s="108"/>
-      <c r="AF106" s="108"/>
-      <c r="AG106" s="108"/>
-      <c r="AH106" s="108"/>
-      <c r="AI106" s="108"/>
-      <c r="AJ106" s="108"/>
-      <c r="AK106" s="108"/>
-      <c r="AL106" s="108"/>
-      <c r="AM106" s="108"/>
-      <c r="AN106" s="168"/>
-      <c r="AO106" s="168"/>
-      <c r="AP106" s="168"/>
-      <c r="AQ106" s="168"/>
-      <c r="AR106" s="168"/>
-      <c r="AS106" s="168"/>
-      <c r="AT106" s="169"/>
+      <c r="Z106" s="106"/>
+      <c r="AA106" s="107"/>
+      <c r="AB106" s="107"/>
+      <c r="AC106" s="107"/>
+      <c r="AD106" s="107"/>
+      <c r="AE106" s="107"/>
+      <c r="AF106" s="107"/>
+      <c r="AG106" s="107"/>
+      <c r="AH106" s="107"/>
+      <c r="AI106" s="107"/>
+      <c r="AJ106" s="107"/>
+      <c r="AK106" s="107"/>
+      <c r="AL106" s="107"/>
+      <c r="AM106" s="107"/>
+      <c r="AN106" s="108"/>
+      <c r="AO106" s="108"/>
+      <c r="AP106" s="108"/>
+      <c r="AQ106" s="108"/>
+      <c r="AR106" s="108"/>
+      <c r="AS106" s="108"/>
+      <c r="AT106" s="109"/>
       <c r="AU106" s="8"/>
     </row>
     <row r="107" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
-      <c r="B107" s="111"/>
-      <c r="C107" s="112"/>
-      <c r="D107" s="112"/>
-      <c r="E107" s="112"/>
-      <c r="F107" s="112"/>
-      <c r="G107" s="112"/>
-      <c r="H107" s="112"/>
-      <c r="I107" s="112"/>
-      <c r="J107" s="112"/>
-      <c r="K107" s="112"/>
-      <c r="L107" s="112"/>
-      <c r="M107" s="112"/>
-      <c r="N107" s="112"/>
-      <c r="O107" s="112"/>
-      <c r="P107" s="112"/>
-      <c r="Q107" s="112"/>
-      <c r="R107" s="170"/>
-      <c r="S107" s="170"/>
-      <c r="T107" s="170"/>
-      <c r="U107" s="170"/>
-      <c r="V107" s="170"/>
-      <c r="W107" s="170"/>
-      <c r="X107" s="171"/>
+      <c r="B107" s="119"/>
+      <c r="C107" s="120"/>
+      <c r="D107" s="120"/>
+      <c r="E107" s="120"/>
+      <c r="F107" s="120"/>
+      <c r="G107" s="120"/>
+      <c r="H107" s="120"/>
+      <c r="I107" s="120"/>
+      <c r="J107" s="120"/>
+      <c r="K107" s="120"/>
+      <c r="L107" s="120"/>
+      <c r="M107" s="120"/>
+      <c r="N107" s="120"/>
+      <c r="O107" s="120"/>
+      <c r="P107" s="120"/>
+      <c r="Q107" s="120"/>
+      <c r="R107" s="121"/>
+      <c r="S107" s="121"/>
+      <c r="T107" s="121"/>
+      <c r="U107" s="121"/>
+      <c r="V107" s="121"/>
+      <c r="W107" s="121"/>
+      <c r="X107" s="122"/>
       <c r="Y107" s="51"/>
-      <c r="Z107" s="111"/>
-      <c r="AA107" s="112"/>
-      <c r="AB107" s="112"/>
-      <c r="AC107" s="112"/>
-      <c r="AD107" s="112"/>
-      <c r="AE107" s="112"/>
-      <c r="AF107" s="112"/>
-      <c r="AG107" s="112"/>
-      <c r="AH107" s="112"/>
-      <c r="AI107" s="112"/>
-      <c r="AJ107" s="112"/>
-      <c r="AK107" s="112"/>
-      <c r="AL107" s="112"/>
-      <c r="AM107" s="112"/>
-      <c r="AN107" s="170"/>
-      <c r="AO107" s="170"/>
-      <c r="AP107" s="170"/>
-      <c r="AQ107" s="170"/>
-      <c r="AR107" s="170"/>
-      <c r="AS107" s="170"/>
-      <c r="AT107" s="171"/>
+      <c r="Z107" s="119"/>
+      <c r="AA107" s="120"/>
+      <c r="AB107" s="120"/>
+      <c r="AC107" s="120"/>
+      <c r="AD107" s="120"/>
+      <c r="AE107" s="120"/>
+      <c r="AF107" s="120"/>
+      <c r="AG107" s="120"/>
+      <c r="AH107" s="120"/>
+      <c r="AI107" s="120"/>
+      <c r="AJ107" s="120"/>
+      <c r="AK107" s="120"/>
+      <c r="AL107" s="120"/>
+      <c r="AM107" s="120"/>
+      <c r="AN107" s="121"/>
+      <c r="AO107" s="121"/>
+      <c r="AP107" s="121"/>
+      <c r="AQ107" s="121"/>
+      <c r="AR107" s="121"/>
+      <c r="AS107" s="121"/>
+      <c r="AT107" s="122"/>
       <c r="AU107" s="8"/>
     </row>
     <row r="108" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7706,53 +7715,53 @@
     </row>
     <row r="109" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
-      <c r="B109" s="142" t="s">
+      <c r="B109" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="143"/>
-      <c r="D109" s="143"/>
-      <c r="E109" s="143"/>
-      <c r="F109" s="143"/>
-      <c r="G109" s="143"/>
-      <c r="H109" s="143"/>
-      <c r="I109" s="143"/>
-      <c r="J109" s="143"/>
-      <c r="K109" s="143"/>
-      <c r="L109" s="143"/>
-      <c r="M109" s="143"/>
-      <c r="N109" s="143"/>
-      <c r="O109" s="143"/>
-      <c r="P109" s="143"/>
-      <c r="Q109" s="143"/>
-      <c r="R109" s="143"/>
-      <c r="S109" s="143"/>
-      <c r="T109" s="143"/>
-      <c r="U109" s="143"/>
-      <c r="V109" s="143"/>
-      <c r="W109" s="143"/>
-      <c r="X109" s="143"/>
-      <c r="Y109" s="143"/>
-      <c r="Z109" s="143"/>
-      <c r="AA109" s="143"/>
-      <c r="AB109" s="143"/>
-      <c r="AC109" s="143"/>
-      <c r="AD109" s="143"/>
-      <c r="AE109" s="143"/>
-      <c r="AF109" s="143"/>
-      <c r="AG109" s="143"/>
-      <c r="AH109" s="143"/>
-      <c r="AI109" s="143"/>
-      <c r="AJ109" s="143"/>
-      <c r="AK109" s="143"/>
-      <c r="AL109" s="143"/>
-      <c r="AM109" s="143"/>
-      <c r="AN109" s="143"/>
-      <c r="AO109" s="143"/>
-      <c r="AP109" s="143"/>
-      <c r="AQ109" s="143"/>
-      <c r="AR109" s="143"/>
-      <c r="AS109" s="143"/>
-      <c r="AT109" s="144"/>
+      <c r="C109" s="126"/>
+      <c r="D109" s="126"/>
+      <c r="E109" s="126"/>
+      <c r="F109" s="126"/>
+      <c r="G109" s="126"/>
+      <c r="H109" s="126"/>
+      <c r="I109" s="126"/>
+      <c r="J109" s="126"/>
+      <c r="K109" s="126"/>
+      <c r="L109" s="126"/>
+      <c r="M109" s="126"/>
+      <c r="N109" s="126"/>
+      <c r="O109" s="126"/>
+      <c r="P109" s="126"/>
+      <c r="Q109" s="126"/>
+      <c r="R109" s="126"/>
+      <c r="S109" s="126"/>
+      <c r="T109" s="126"/>
+      <c r="U109" s="126"/>
+      <c r="V109" s="126"/>
+      <c r="W109" s="126"/>
+      <c r="X109" s="126"/>
+      <c r="Y109" s="126"/>
+      <c r="Z109" s="126"/>
+      <c r="AA109" s="126"/>
+      <c r="AB109" s="126"/>
+      <c r="AC109" s="126"/>
+      <c r="AD109" s="126"/>
+      <c r="AE109" s="126"/>
+      <c r="AF109" s="126"/>
+      <c r="AG109" s="126"/>
+      <c r="AH109" s="126"/>
+      <c r="AI109" s="126"/>
+      <c r="AJ109" s="126"/>
+      <c r="AK109" s="126"/>
+      <c r="AL109" s="126"/>
+      <c r="AM109" s="126"/>
+      <c r="AN109" s="126"/>
+      <c r="AO109" s="126"/>
+      <c r="AP109" s="126"/>
+      <c r="AQ109" s="126"/>
+      <c r="AR109" s="126"/>
+      <c r="AS109" s="126"/>
+      <c r="AT109" s="127"/>
       <c r="AU109" s="8"/>
     </row>
     <row r="110" spans="1:47" s="3" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7806,557 +7815,557 @@
     </row>
     <row r="111" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
-      <c r="B111" s="145" t="s">
+      <c r="B111" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="146"/>
-      <c r="D111" s="146"/>
-      <c r="E111" s="146"/>
-      <c r="F111" s="146"/>
-      <c r="G111" s="146" t="s">
+      <c r="C111" s="103"/>
+      <c r="D111" s="103"/>
+      <c r="E111" s="103"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="H111" s="146"/>
-      <c r="I111" s="146"/>
-      <c r="J111" s="146"/>
-      <c r="K111" s="146"/>
-      <c r="L111" s="146"/>
-      <c r="M111" s="146"/>
-      <c r="N111" s="146"/>
-      <c r="O111" s="146"/>
-      <c r="P111" s="146"/>
-      <c r="Q111" s="146"/>
-      <c r="R111" s="147" t="s">
+      <c r="H111" s="103"/>
+      <c r="I111" s="103"/>
+      <c r="J111" s="103"/>
+      <c r="K111" s="103"/>
+      <c r="L111" s="103"/>
+      <c r="M111" s="103"/>
+      <c r="N111" s="103"/>
+      <c r="O111" s="103"/>
+      <c r="P111" s="103"/>
+      <c r="Q111" s="103"/>
+      <c r="R111" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="S111" s="147"/>
-      <c r="T111" s="147"/>
-      <c r="U111" s="147"/>
-      <c r="V111" s="147" t="s">
+      <c r="S111" s="104"/>
+      <c r="T111" s="104"/>
+      <c r="U111" s="104"/>
+      <c r="V111" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="W111" s="147"/>
-      <c r="X111" s="148"/>
+      <c r="W111" s="104"/>
+      <c r="X111" s="105"/>
       <c r="Y111" s="13"/>
-      <c r="Z111" s="145" t="s">
+      <c r="Z111" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="AA111" s="146"/>
-      <c r="AB111" s="146"/>
-      <c r="AC111" s="146"/>
-      <c r="AD111" s="146" t="s">
+      <c r="AA111" s="103"/>
+      <c r="AB111" s="103"/>
+      <c r="AC111" s="103"/>
+      <c r="AD111" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="AE111" s="146"/>
-      <c r="AF111" s="146"/>
-      <c r="AG111" s="146"/>
-      <c r="AH111" s="146"/>
-      <c r="AI111" s="146"/>
-      <c r="AJ111" s="146"/>
-      <c r="AK111" s="146"/>
-      <c r="AL111" s="146"/>
-      <c r="AM111" s="146"/>
-      <c r="AN111" s="147" t="s">
+      <c r="AE111" s="103"/>
+      <c r="AF111" s="103"/>
+      <c r="AG111" s="103"/>
+      <c r="AH111" s="103"/>
+      <c r="AI111" s="103"/>
+      <c r="AJ111" s="103"/>
+      <c r="AK111" s="103"/>
+      <c r="AL111" s="103"/>
+      <c r="AM111" s="103"/>
+      <c r="AN111" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="AO111" s="147"/>
-      <c r="AP111" s="147"/>
-      <c r="AQ111" s="147"/>
-      <c r="AR111" s="147" t="s">
+      <c r="AO111" s="104"/>
+      <c r="AP111" s="104"/>
+      <c r="AQ111" s="104"/>
+      <c r="AR111" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="AS111" s="147"/>
-      <c r="AT111" s="148"/>
+      <c r="AS111" s="104"/>
+      <c r="AT111" s="105"/>
       <c r="AU111" s="8"/>
     </row>
     <row r="112" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
-      <c r="B112" s="135"/>
-      <c r="C112" s="108"/>
-      <c r="D112" s="108"/>
-      <c r="E112" s="108"/>
-      <c r="F112" s="108"/>
-      <c r="G112" s="108"/>
-      <c r="H112" s="108"/>
-      <c r="I112" s="108"/>
-      <c r="J112" s="108"/>
-      <c r="K112" s="108"/>
-      <c r="L112" s="108"/>
-      <c r="M112" s="108"/>
-      <c r="N112" s="108"/>
-      <c r="O112" s="108"/>
-      <c r="P112" s="108"/>
-      <c r="Q112" s="108"/>
-      <c r="R112" s="168"/>
-      <c r="S112" s="168"/>
-      <c r="T112" s="168"/>
-      <c r="U112" s="168"/>
-      <c r="V112" s="168"/>
-      <c r="W112" s="168"/>
-      <c r="X112" s="169"/>
+      <c r="B112" s="106"/>
+      <c r="C112" s="107"/>
+      <c r="D112" s="107"/>
+      <c r="E112" s="107"/>
+      <c r="F112" s="107"/>
+      <c r="G112" s="107"/>
+      <c r="H112" s="107"/>
+      <c r="I112" s="107"/>
+      <c r="J112" s="107"/>
+      <c r="K112" s="107"/>
+      <c r="L112" s="107"/>
+      <c r="M112" s="107"/>
+      <c r="N112" s="107"/>
+      <c r="O112" s="107"/>
+      <c r="P112" s="107"/>
+      <c r="Q112" s="107"/>
+      <c r="R112" s="108"/>
+      <c r="S112" s="108"/>
+      <c r="T112" s="108"/>
+      <c r="U112" s="108"/>
+      <c r="V112" s="108"/>
+      <c r="W112" s="108"/>
+      <c r="X112" s="109"/>
       <c r="Y112" s="51"/>
-      <c r="Z112" s="135"/>
-      <c r="AA112" s="108"/>
-      <c r="AB112" s="108"/>
-      <c r="AC112" s="108"/>
-      <c r="AD112" s="108"/>
-      <c r="AE112" s="108"/>
-      <c r="AF112" s="108"/>
-      <c r="AG112" s="108"/>
-      <c r="AH112" s="108"/>
-      <c r="AI112" s="108"/>
-      <c r="AJ112" s="108"/>
-      <c r="AK112" s="108"/>
-      <c r="AL112" s="108"/>
-      <c r="AM112" s="108"/>
-      <c r="AN112" s="168"/>
-      <c r="AO112" s="168"/>
-      <c r="AP112" s="168"/>
-      <c r="AQ112" s="168"/>
-      <c r="AR112" s="168"/>
-      <c r="AS112" s="168"/>
-      <c r="AT112" s="169"/>
+      <c r="Z112" s="106"/>
+      <c r="AA112" s="107"/>
+      <c r="AB112" s="107"/>
+      <c r="AC112" s="107"/>
+      <c r="AD112" s="107"/>
+      <c r="AE112" s="107"/>
+      <c r="AF112" s="107"/>
+      <c r="AG112" s="107"/>
+      <c r="AH112" s="107"/>
+      <c r="AI112" s="107"/>
+      <c r="AJ112" s="107"/>
+      <c r="AK112" s="107"/>
+      <c r="AL112" s="107"/>
+      <c r="AM112" s="107"/>
+      <c r="AN112" s="108"/>
+      <c r="AO112" s="108"/>
+      <c r="AP112" s="108"/>
+      <c r="AQ112" s="108"/>
+      <c r="AR112" s="108"/>
+      <c r="AS112" s="108"/>
+      <c r="AT112" s="109"/>
       <c r="AU112" s="8"/>
     </row>
     <row r="113" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
-      <c r="B113" s="135"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
-      <c r="G113" s="108"/>
-      <c r="H113" s="108"/>
-      <c r="I113" s="108"/>
-      <c r="J113" s="108"/>
-      <c r="K113" s="108"/>
-      <c r="L113" s="108"/>
-      <c r="M113" s="108"/>
-      <c r="N113" s="108"/>
-      <c r="O113" s="108"/>
-      <c r="P113" s="108"/>
-      <c r="Q113" s="108"/>
-      <c r="R113" s="168"/>
-      <c r="S113" s="168"/>
-      <c r="T113" s="168"/>
-      <c r="U113" s="168"/>
-      <c r="V113" s="168"/>
-      <c r="W113" s="168"/>
-      <c r="X113" s="169"/>
+      <c r="B113" s="106"/>
+      <c r="C113" s="107"/>
+      <c r="D113" s="107"/>
+      <c r="E113" s="107"/>
+      <c r="F113" s="107"/>
+      <c r="G113" s="107"/>
+      <c r="H113" s="107"/>
+      <c r="I113" s="107"/>
+      <c r="J113" s="107"/>
+      <c r="K113" s="107"/>
+      <c r="L113" s="107"/>
+      <c r="M113" s="107"/>
+      <c r="N113" s="107"/>
+      <c r="O113" s="107"/>
+      <c r="P113" s="107"/>
+      <c r="Q113" s="107"/>
+      <c r="R113" s="108"/>
+      <c r="S113" s="108"/>
+      <c r="T113" s="108"/>
+      <c r="U113" s="108"/>
+      <c r="V113" s="108"/>
+      <c r="W113" s="108"/>
+      <c r="X113" s="109"/>
       <c r="Y113" s="51"/>
-      <c r="Z113" s="135"/>
-      <c r="AA113" s="108"/>
-      <c r="AB113" s="108"/>
-      <c r="AC113" s="108"/>
-      <c r="AD113" s="108"/>
-      <c r="AE113" s="108"/>
-      <c r="AF113" s="108"/>
-      <c r="AG113" s="108"/>
-      <c r="AH113" s="108"/>
-      <c r="AI113" s="108"/>
-      <c r="AJ113" s="108"/>
-      <c r="AK113" s="108"/>
-      <c r="AL113" s="108"/>
-      <c r="AM113" s="108"/>
-      <c r="AN113" s="168"/>
-      <c r="AO113" s="168"/>
-      <c r="AP113" s="168"/>
-      <c r="AQ113" s="168"/>
-      <c r="AR113" s="168"/>
-      <c r="AS113" s="168"/>
-      <c r="AT113" s="169"/>
+      <c r="Z113" s="106"/>
+      <c r="AA113" s="107"/>
+      <c r="AB113" s="107"/>
+      <c r="AC113" s="107"/>
+      <c r="AD113" s="107"/>
+      <c r="AE113" s="107"/>
+      <c r="AF113" s="107"/>
+      <c r="AG113" s="107"/>
+      <c r="AH113" s="107"/>
+      <c r="AI113" s="107"/>
+      <c r="AJ113" s="107"/>
+      <c r="AK113" s="107"/>
+      <c r="AL113" s="107"/>
+      <c r="AM113" s="107"/>
+      <c r="AN113" s="108"/>
+      <c r="AO113" s="108"/>
+      <c r="AP113" s="108"/>
+      <c r="AQ113" s="108"/>
+      <c r="AR113" s="108"/>
+      <c r="AS113" s="108"/>
+      <c r="AT113" s="109"/>
       <c r="AU113" s="8"/>
     </row>
     <row r="114" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
-      <c r="B114" s="135"/>
-      <c r="C114" s="108"/>
-      <c r="D114" s="108"/>
-      <c r="E114" s="108"/>
-      <c r="F114" s="108"/>
-      <c r="G114" s="108"/>
-      <c r="H114" s="108"/>
-      <c r="I114" s="108"/>
-      <c r="J114" s="108"/>
-      <c r="K114" s="108"/>
-      <c r="L114" s="108"/>
-      <c r="M114" s="108"/>
-      <c r="N114" s="108"/>
-      <c r="O114" s="108"/>
-      <c r="P114" s="108"/>
-      <c r="Q114" s="108"/>
-      <c r="R114" s="168"/>
-      <c r="S114" s="168"/>
-      <c r="T114" s="168"/>
-      <c r="U114" s="168"/>
-      <c r="V114" s="168"/>
-      <c r="W114" s="168"/>
-      <c r="X114" s="169"/>
+      <c r="B114" s="106"/>
+      <c r="C114" s="107"/>
+      <c r="D114" s="107"/>
+      <c r="E114" s="107"/>
+      <c r="F114" s="107"/>
+      <c r="G114" s="107"/>
+      <c r="H114" s="107"/>
+      <c r="I114" s="107"/>
+      <c r="J114" s="107"/>
+      <c r="K114" s="107"/>
+      <c r="L114" s="107"/>
+      <c r="M114" s="107"/>
+      <c r="N114" s="107"/>
+      <c r="O114" s="107"/>
+      <c r="P114" s="107"/>
+      <c r="Q114" s="107"/>
+      <c r="R114" s="108"/>
+      <c r="S114" s="108"/>
+      <c r="T114" s="108"/>
+      <c r="U114" s="108"/>
+      <c r="V114" s="108"/>
+      <c r="W114" s="108"/>
+      <c r="X114" s="109"/>
       <c r="Y114" s="51"/>
-      <c r="Z114" s="135"/>
-      <c r="AA114" s="108"/>
-      <c r="AB114" s="108"/>
-      <c r="AC114" s="108"/>
-      <c r="AD114" s="108"/>
-      <c r="AE114" s="108"/>
-      <c r="AF114" s="108"/>
-      <c r="AG114" s="108"/>
-      <c r="AH114" s="108"/>
-      <c r="AI114" s="108"/>
-      <c r="AJ114" s="108"/>
-      <c r="AK114" s="108"/>
-      <c r="AL114" s="108"/>
-      <c r="AM114" s="108"/>
-      <c r="AN114" s="168"/>
-      <c r="AO114" s="168"/>
-      <c r="AP114" s="168"/>
-      <c r="AQ114" s="168"/>
-      <c r="AR114" s="168"/>
-      <c r="AS114" s="168"/>
-      <c r="AT114" s="169"/>
+      <c r="Z114" s="106"/>
+      <c r="AA114" s="107"/>
+      <c r="AB114" s="107"/>
+      <c r="AC114" s="107"/>
+      <c r="AD114" s="107"/>
+      <c r="AE114" s="107"/>
+      <c r="AF114" s="107"/>
+      <c r="AG114" s="107"/>
+      <c r="AH114" s="107"/>
+      <c r="AI114" s="107"/>
+      <c r="AJ114" s="107"/>
+      <c r="AK114" s="107"/>
+      <c r="AL114" s="107"/>
+      <c r="AM114" s="107"/>
+      <c r="AN114" s="108"/>
+      <c r="AO114" s="108"/>
+      <c r="AP114" s="108"/>
+      <c r="AQ114" s="108"/>
+      <c r="AR114" s="108"/>
+      <c r="AS114" s="108"/>
+      <c r="AT114" s="109"/>
       <c r="AU114" s="8"/>
     </row>
     <row r="115" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
-      <c r="B115" s="135"/>
-      <c r="C115" s="108"/>
-      <c r="D115" s="108"/>
-      <c r="E115" s="108"/>
-      <c r="F115" s="108"/>
-      <c r="G115" s="108"/>
-      <c r="H115" s="108"/>
-      <c r="I115" s="108"/>
-      <c r="J115" s="108"/>
-      <c r="K115" s="108"/>
-      <c r="L115" s="108"/>
-      <c r="M115" s="108"/>
-      <c r="N115" s="108"/>
-      <c r="O115" s="108"/>
-      <c r="P115" s="108"/>
-      <c r="Q115" s="108"/>
-      <c r="R115" s="168"/>
-      <c r="S115" s="168"/>
-      <c r="T115" s="168"/>
-      <c r="U115" s="168"/>
-      <c r="V115" s="168"/>
-      <c r="W115" s="168"/>
-      <c r="X115" s="169"/>
+      <c r="B115" s="106"/>
+      <c r="C115" s="107"/>
+      <c r="D115" s="107"/>
+      <c r="E115" s="107"/>
+      <c r="F115" s="107"/>
+      <c r="G115" s="107"/>
+      <c r="H115" s="107"/>
+      <c r="I115" s="107"/>
+      <c r="J115" s="107"/>
+      <c r="K115" s="107"/>
+      <c r="L115" s="107"/>
+      <c r="M115" s="107"/>
+      <c r="N115" s="107"/>
+      <c r="O115" s="107"/>
+      <c r="P115" s="107"/>
+      <c r="Q115" s="107"/>
+      <c r="R115" s="108"/>
+      <c r="S115" s="108"/>
+      <c r="T115" s="108"/>
+      <c r="U115" s="108"/>
+      <c r="V115" s="108"/>
+      <c r="W115" s="108"/>
+      <c r="X115" s="109"/>
       <c r="Y115" s="51"/>
-      <c r="Z115" s="135"/>
-      <c r="AA115" s="108"/>
-      <c r="AB115" s="108"/>
-      <c r="AC115" s="108"/>
-      <c r="AD115" s="108"/>
-      <c r="AE115" s="108"/>
-      <c r="AF115" s="108"/>
-      <c r="AG115" s="108"/>
-      <c r="AH115" s="108"/>
-      <c r="AI115" s="108"/>
-      <c r="AJ115" s="108"/>
-      <c r="AK115" s="108"/>
-      <c r="AL115" s="108"/>
-      <c r="AM115" s="108"/>
-      <c r="AN115" s="168"/>
-      <c r="AO115" s="168"/>
-      <c r="AP115" s="168"/>
-      <c r="AQ115" s="168"/>
-      <c r="AR115" s="168"/>
-      <c r="AS115" s="168"/>
-      <c r="AT115" s="169"/>
+      <c r="Z115" s="106"/>
+      <c r="AA115" s="107"/>
+      <c r="AB115" s="107"/>
+      <c r="AC115" s="107"/>
+      <c r="AD115" s="107"/>
+      <c r="AE115" s="107"/>
+      <c r="AF115" s="107"/>
+      <c r="AG115" s="107"/>
+      <c r="AH115" s="107"/>
+      <c r="AI115" s="107"/>
+      <c r="AJ115" s="107"/>
+      <c r="AK115" s="107"/>
+      <c r="AL115" s="107"/>
+      <c r="AM115" s="107"/>
+      <c r="AN115" s="108"/>
+      <c r="AO115" s="108"/>
+      <c r="AP115" s="108"/>
+      <c r="AQ115" s="108"/>
+      <c r="AR115" s="108"/>
+      <c r="AS115" s="108"/>
+      <c r="AT115" s="109"/>
       <c r="AU115" s="8"/>
     </row>
     <row r="116" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
-      <c r="B116" s="135"/>
-      <c r="C116" s="108"/>
-      <c r="D116" s="108"/>
-      <c r="E116" s="108"/>
-      <c r="F116" s="108"/>
-      <c r="G116" s="108"/>
-      <c r="H116" s="108"/>
-      <c r="I116" s="108"/>
-      <c r="J116" s="108"/>
-      <c r="K116" s="108"/>
-      <c r="L116" s="108"/>
-      <c r="M116" s="108"/>
-      <c r="N116" s="108"/>
-      <c r="O116" s="108"/>
-      <c r="P116" s="108"/>
-      <c r="Q116" s="108"/>
-      <c r="R116" s="168"/>
-      <c r="S116" s="168"/>
-      <c r="T116" s="168"/>
-      <c r="U116" s="168"/>
-      <c r="V116" s="168"/>
-      <c r="W116" s="168"/>
-      <c r="X116" s="169"/>
+      <c r="B116" s="106"/>
+      <c r="C116" s="107"/>
+      <c r="D116" s="107"/>
+      <c r="E116" s="107"/>
+      <c r="F116" s="107"/>
+      <c r="G116" s="107"/>
+      <c r="H116" s="107"/>
+      <c r="I116" s="107"/>
+      <c r="J116" s="107"/>
+      <c r="K116" s="107"/>
+      <c r="L116" s="107"/>
+      <c r="M116" s="107"/>
+      <c r="N116" s="107"/>
+      <c r="O116" s="107"/>
+      <c r="P116" s="107"/>
+      <c r="Q116" s="107"/>
+      <c r="R116" s="108"/>
+      <c r="S116" s="108"/>
+      <c r="T116" s="108"/>
+      <c r="U116" s="108"/>
+      <c r="V116" s="108"/>
+      <c r="W116" s="108"/>
+      <c r="X116" s="109"/>
       <c r="Y116" s="51"/>
-      <c r="Z116" s="135"/>
-      <c r="AA116" s="108"/>
-      <c r="AB116" s="108"/>
-      <c r="AC116" s="108"/>
-      <c r="AD116" s="108"/>
-      <c r="AE116" s="108"/>
-      <c r="AF116" s="108"/>
-      <c r="AG116" s="108"/>
-      <c r="AH116" s="108"/>
-      <c r="AI116" s="108"/>
-      <c r="AJ116" s="108"/>
-      <c r="AK116" s="108"/>
-      <c r="AL116" s="108"/>
-      <c r="AM116" s="108"/>
-      <c r="AN116" s="168"/>
-      <c r="AO116" s="168"/>
-      <c r="AP116" s="168"/>
-      <c r="AQ116" s="168"/>
-      <c r="AR116" s="168"/>
-      <c r="AS116" s="168"/>
-      <c r="AT116" s="169"/>
+      <c r="Z116" s="106"/>
+      <c r="AA116" s="107"/>
+      <c r="AB116" s="107"/>
+      <c r="AC116" s="107"/>
+      <c r="AD116" s="107"/>
+      <c r="AE116" s="107"/>
+      <c r="AF116" s="107"/>
+      <c r="AG116" s="107"/>
+      <c r="AH116" s="107"/>
+      <c r="AI116" s="107"/>
+      <c r="AJ116" s="107"/>
+      <c r="AK116" s="107"/>
+      <c r="AL116" s="107"/>
+      <c r="AM116" s="107"/>
+      <c r="AN116" s="108"/>
+      <c r="AO116" s="108"/>
+      <c r="AP116" s="108"/>
+      <c r="AQ116" s="108"/>
+      <c r="AR116" s="108"/>
+      <c r="AS116" s="108"/>
+      <c r="AT116" s="109"/>
       <c r="AU116" s="8"/>
     </row>
     <row r="117" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
-      <c r="B117" s="135"/>
-      <c r="C117" s="108"/>
-      <c r="D117" s="108"/>
-      <c r="E117" s="108"/>
-      <c r="F117" s="108"/>
-      <c r="G117" s="108"/>
-      <c r="H117" s="108"/>
-      <c r="I117" s="108"/>
-      <c r="J117" s="108"/>
-      <c r="K117" s="108"/>
-      <c r="L117" s="108"/>
-      <c r="M117" s="108"/>
-      <c r="N117" s="108"/>
-      <c r="O117" s="108"/>
-      <c r="P117" s="108"/>
-      <c r="Q117" s="108"/>
-      <c r="R117" s="168"/>
-      <c r="S117" s="168"/>
-      <c r="T117" s="168"/>
-      <c r="U117" s="168"/>
-      <c r="V117" s="168"/>
-      <c r="W117" s="168"/>
-      <c r="X117" s="169"/>
+      <c r="B117" s="106"/>
+      <c r="C117" s="107"/>
+      <c r="D117" s="107"/>
+      <c r="E117" s="107"/>
+      <c r="F117" s="107"/>
+      <c r="G117" s="107"/>
+      <c r="H117" s="107"/>
+      <c r="I117" s="107"/>
+      <c r="J117" s="107"/>
+      <c r="K117" s="107"/>
+      <c r="L117" s="107"/>
+      <c r="M117" s="107"/>
+      <c r="N117" s="107"/>
+      <c r="O117" s="107"/>
+      <c r="P117" s="107"/>
+      <c r="Q117" s="107"/>
+      <c r="R117" s="108"/>
+      <c r="S117" s="108"/>
+      <c r="T117" s="108"/>
+      <c r="U117" s="108"/>
+      <c r="V117" s="108"/>
+      <c r="W117" s="108"/>
+      <c r="X117" s="109"/>
       <c r="Y117" s="51"/>
-      <c r="Z117" s="135"/>
-      <c r="AA117" s="108"/>
-      <c r="AB117" s="108"/>
-      <c r="AC117" s="108"/>
-      <c r="AD117" s="108"/>
-      <c r="AE117" s="108"/>
-      <c r="AF117" s="108"/>
-      <c r="AG117" s="108"/>
-      <c r="AH117" s="108"/>
-      <c r="AI117" s="108"/>
-      <c r="AJ117" s="108"/>
-      <c r="AK117" s="108"/>
-      <c r="AL117" s="108"/>
-      <c r="AM117" s="108"/>
-      <c r="AN117" s="168"/>
-      <c r="AO117" s="168"/>
-      <c r="AP117" s="168"/>
-      <c r="AQ117" s="168"/>
-      <c r="AR117" s="168"/>
-      <c r="AS117" s="168"/>
-      <c r="AT117" s="169"/>
+      <c r="Z117" s="106"/>
+      <c r="AA117" s="107"/>
+      <c r="AB117" s="107"/>
+      <c r="AC117" s="107"/>
+      <c r="AD117" s="107"/>
+      <c r="AE117" s="107"/>
+      <c r="AF117" s="107"/>
+      <c r="AG117" s="107"/>
+      <c r="AH117" s="107"/>
+      <c r="AI117" s="107"/>
+      <c r="AJ117" s="107"/>
+      <c r="AK117" s="107"/>
+      <c r="AL117" s="107"/>
+      <c r="AM117" s="107"/>
+      <c r="AN117" s="108"/>
+      <c r="AO117" s="108"/>
+      <c r="AP117" s="108"/>
+      <c r="AQ117" s="108"/>
+      <c r="AR117" s="108"/>
+      <c r="AS117" s="108"/>
+      <c r="AT117" s="109"/>
       <c r="AU117" s="8"/>
     </row>
     <row r="118" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
-      <c r="B118" s="135"/>
-      <c r="C118" s="108"/>
-      <c r="D118" s="108"/>
-      <c r="E118" s="108"/>
-      <c r="F118" s="108"/>
-      <c r="G118" s="108"/>
-      <c r="H118" s="108"/>
-      <c r="I118" s="108"/>
-      <c r="J118" s="108"/>
-      <c r="K118" s="108"/>
-      <c r="L118" s="108"/>
-      <c r="M118" s="108"/>
-      <c r="N118" s="108"/>
-      <c r="O118" s="108"/>
-      <c r="P118" s="108"/>
-      <c r="Q118" s="108"/>
-      <c r="R118" s="168"/>
-      <c r="S118" s="168"/>
-      <c r="T118" s="168"/>
-      <c r="U118" s="168"/>
-      <c r="V118" s="168"/>
-      <c r="W118" s="168"/>
-      <c r="X118" s="169"/>
+      <c r="B118" s="106"/>
+      <c r="C118" s="107"/>
+      <c r="D118" s="107"/>
+      <c r="E118" s="107"/>
+      <c r="F118" s="107"/>
+      <c r="G118" s="107"/>
+      <c r="H118" s="107"/>
+      <c r="I118" s="107"/>
+      <c r="J118" s="107"/>
+      <c r="K118" s="107"/>
+      <c r="L118" s="107"/>
+      <c r="M118" s="107"/>
+      <c r="N118" s="107"/>
+      <c r="O118" s="107"/>
+      <c r="P118" s="107"/>
+      <c r="Q118" s="107"/>
+      <c r="R118" s="108"/>
+      <c r="S118" s="108"/>
+      <c r="T118" s="108"/>
+      <c r="U118" s="108"/>
+      <c r="V118" s="108"/>
+      <c r="W118" s="108"/>
+      <c r="X118" s="109"/>
       <c r="Y118" s="51"/>
-      <c r="Z118" s="135"/>
-      <c r="AA118" s="108"/>
-      <c r="AB118" s="108"/>
-      <c r="AC118" s="108"/>
-      <c r="AD118" s="108"/>
-      <c r="AE118" s="108"/>
-      <c r="AF118" s="108"/>
-      <c r="AG118" s="108"/>
-      <c r="AH118" s="108"/>
-      <c r="AI118" s="108"/>
-      <c r="AJ118" s="108"/>
-      <c r="AK118" s="108"/>
-      <c r="AL118" s="108"/>
-      <c r="AM118" s="108"/>
-      <c r="AN118" s="168"/>
-      <c r="AO118" s="168"/>
-      <c r="AP118" s="168"/>
-      <c r="AQ118" s="168"/>
-      <c r="AR118" s="168"/>
-      <c r="AS118" s="168"/>
-      <c r="AT118" s="169"/>
+      <c r="Z118" s="106"/>
+      <c r="AA118" s="107"/>
+      <c r="AB118" s="107"/>
+      <c r="AC118" s="107"/>
+      <c r="AD118" s="107"/>
+      <c r="AE118" s="107"/>
+      <c r="AF118" s="107"/>
+      <c r="AG118" s="107"/>
+      <c r="AH118" s="107"/>
+      <c r="AI118" s="107"/>
+      <c r="AJ118" s="107"/>
+      <c r="AK118" s="107"/>
+      <c r="AL118" s="107"/>
+      <c r="AM118" s="107"/>
+      <c r="AN118" s="108"/>
+      <c r="AO118" s="108"/>
+      <c r="AP118" s="108"/>
+      <c r="AQ118" s="108"/>
+      <c r="AR118" s="108"/>
+      <c r="AS118" s="108"/>
+      <c r="AT118" s="109"/>
       <c r="AU118" s="8"/>
     </row>
     <row r="119" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
-      <c r="B119" s="135"/>
-      <c r="C119" s="108"/>
-      <c r="D119" s="108"/>
-      <c r="E119" s="108"/>
-      <c r="F119" s="108"/>
-      <c r="G119" s="108"/>
-      <c r="H119" s="108"/>
-      <c r="I119" s="108"/>
-      <c r="J119" s="108"/>
-      <c r="K119" s="108"/>
-      <c r="L119" s="108"/>
-      <c r="M119" s="108"/>
-      <c r="N119" s="108"/>
-      <c r="O119" s="108"/>
-      <c r="P119" s="108"/>
-      <c r="Q119" s="108"/>
-      <c r="R119" s="168"/>
-      <c r="S119" s="168"/>
-      <c r="T119" s="168"/>
-      <c r="U119" s="168"/>
-      <c r="V119" s="168"/>
-      <c r="W119" s="168"/>
-      <c r="X119" s="169"/>
+      <c r="B119" s="106"/>
+      <c r="C119" s="107"/>
+      <c r="D119" s="107"/>
+      <c r="E119" s="107"/>
+      <c r="F119" s="107"/>
+      <c r="G119" s="107"/>
+      <c r="H119" s="107"/>
+      <c r="I119" s="107"/>
+      <c r="J119" s="107"/>
+      <c r="K119" s="107"/>
+      <c r="L119" s="107"/>
+      <c r="M119" s="107"/>
+      <c r="N119" s="107"/>
+      <c r="O119" s="107"/>
+      <c r="P119" s="107"/>
+      <c r="Q119" s="107"/>
+      <c r="R119" s="108"/>
+      <c r="S119" s="108"/>
+      <c r="T119" s="108"/>
+      <c r="U119" s="108"/>
+      <c r="V119" s="108"/>
+      <c r="W119" s="108"/>
+      <c r="X119" s="109"/>
       <c r="Y119" s="51"/>
-      <c r="Z119" s="135"/>
-      <c r="AA119" s="108"/>
-      <c r="AB119" s="108"/>
-      <c r="AC119" s="108"/>
-      <c r="AD119" s="108"/>
-      <c r="AE119" s="108"/>
-      <c r="AF119" s="108"/>
-      <c r="AG119" s="108"/>
-      <c r="AH119" s="108"/>
-      <c r="AI119" s="108"/>
-      <c r="AJ119" s="108"/>
-      <c r="AK119" s="108"/>
-      <c r="AL119" s="108"/>
-      <c r="AM119" s="108"/>
-      <c r="AN119" s="168"/>
-      <c r="AO119" s="168"/>
-      <c r="AP119" s="168"/>
-      <c r="AQ119" s="168"/>
-      <c r="AR119" s="168"/>
-      <c r="AS119" s="168"/>
-      <c r="AT119" s="169"/>
+      <c r="Z119" s="106"/>
+      <c r="AA119" s="107"/>
+      <c r="AB119" s="107"/>
+      <c r="AC119" s="107"/>
+      <c r="AD119" s="107"/>
+      <c r="AE119" s="107"/>
+      <c r="AF119" s="107"/>
+      <c r="AG119" s="107"/>
+      <c r="AH119" s="107"/>
+      <c r="AI119" s="107"/>
+      <c r="AJ119" s="107"/>
+      <c r="AK119" s="107"/>
+      <c r="AL119" s="107"/>
+      <c r="AM119" s="107"/>
+      <c r="AN119" s="108"/>
+      <c r="AO119" s="108"/>
+      <c r="AP119" s="108"/>
+      <c r="AQ119" s="108"/>
+      <c r="AR119" s="108"/>
+      <c r="AS119" s="108"/>
+      <c r="AT119" s="109"/>
       <c r="AU119" s="8"/>
     </row>
     <row r="120" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
-      <c r="B120" s="135"/>
-      <c r="C120" s="108"/>
-      <c r="D120" s="108"/>
-      <c r="E120" s="108"/>
-      <c r="F120" s="108"/>
-      <c r="G120" s="108"/>
-      <c r="H120" s="108"/>
-      <c r="I120" s="108"/>
-      <c r="J120" s="108"/>
-      <c r="K120" s="108"/>
-      <c r="L120" s="108"/>
-      <c r="M120" s="108"/>
-      <c r="N120" s="108"/>
-      <c r="O120" s="108"/>
-      <c r="P120" s="108"/>
-      <c r="Q120" s="108"/>
-      <c r="R120" s="168"/>
-      <c r="S120" s="168"/>
-      <c r="T120" s="168"/>
-      <c r="U120" s="168"/>
-      <c r="V120" s="168"/>
-      <c r="W120" s="168"/>
-      <c r="X120" s="169"/>
+      <c r="B120" s="106"/>
+      <c r="C120" s="107"/>
+      <c r="D120" s="107"/>
+      <c r="E120" s="107"/>
+      <c r="F120" s="107"/>
+      <c r="G120" s="107"/>
+      <c r="H120" s="107"/>
+      <c r="I120" s="107"/>
+      <c r="J120" s="107"/>
+      <c r="K120" s="107"/>
+      <c r="L120" s="107"/>
+      <c r="M120" s="107"/>
+      <c r="N120" s="107"/>
+      <c r="O120" s="107"/>
+      <c r="P120" s="107"/>
+      <c r="Q120" s="107"/>
+      <c r="R120" s="108"/>
+      <c r="S120" s="108"/>
+      <c r="T120" s="108"/>
+      <c r="U120" s="108"/>
+      <c r="V120" s="108"/>
+      <c r="W120" s="108"/>
+      <c r="X120" s="109"/>
       <c r="Y120" s="51"/>
-      <c r="Z120" s="135"/>
-      <c r="AA120" s="108"/>
-      <c r="AB120" s="108"/>
-      <c r="AC120" s="108"/>
-      <c r="AD120" s="108"/>
-      <c r="AE120" s="108"/>
-      <c r="AF120" s="108"/>
-      <c r="AG120" s="108"/>
-      <c r="AH120" s="108"/>
-      <c r="AI120" s="108"/>
-      <c r="AJ120" s="108"/>
-      <c r="AK120" s="108"/>
-      <c r="AL120" s="108"/>
-      <c r="AM120" s="108"/>
-      <c r="AN120" s="168"/>
-      <c r="AO120" s="168"/>
-      <c r="AP120" s="168"/>
-      <c r="AQ120" s="168"/>
-      <c r="AR120" s="168"/>
-      <c r="AS120" s="168"/>
-      <c r="AT120" s="169"/>
+      <c r="Z120" s="106"/>
+      <c r="AA120" s="107"/>
+      <c r="AB120" s="107"/>
+      <c r="AC120" s="107"/>
+      <c r="AD120" s="107"/>
+      <c r="AE120" s="107"/>
+      <c r="AF120" s="107"/>
+      <c r="AG120" s="107"/>
+      <c r="AH120" s="107"/>
+      <c r="AI120" s="107"/>
+      <c r="AJ120" s="107"/>
+      <c r="AK120" s="107"/>
+      <c r="AL120" s="107"/>
+      <c r="AM120" s="107"/>
+      <c r="AN120" s="108"/>
+      <c r="AO120" s="108"/>
+      <c r="AP120" s="108"/>
+      <c r="AQ120" s="108"/>
+      <c r="AR120" s="108"/>
+      <c r="AS120" s="108"/>
+      <c r="AT120" s="109"/>
       <c r="AU120" s="8"/>
     </row>
     <row r="121" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
-      <c r="B121" s="111"/>
-      <c r="C121" s="112"/>
-      <c r="D121" s="112"/>
-      <c r="E121" s="112"/>
-      <c r="F121" s="112"/>
-      <c r="G121" s="112"/>
-      <c r="H121" s="112"/>
-      <c r="I121" s="112"/>
-      <c r="J121" s="112"/>
-      <c r="K121" s="112"/>
-      <c r="L121" s="112"/>
-      <c r="M121" s="112"/>
-      <c r="N121" s="112"/>
-      <c r="O121" s="112"/>
-      <c r="P121" s="112"/>
-      <c r="Q121" s="112"/>
-      <c r="R121" s="170"/>
-      <c r="S121" s="170"/>
-      <c r="T121" s="170"/>
-      <c r="U121" s="170"/>
-      <c r="V121" s="170"/>
-      <c r="W121" s="170"/>
-      <c r="X121" s="171"/>
+      <c r="B121" s="119"/>
+      <c r="C121" s="120"/>
+      <c r="D121" s="120"/>
+      <c r="E121" s="120"/>
+      <c r="F121" s="120"/>
+      <c r="G121" s="120"/>
+      <c r="H121" s="120"/>
+      <c r="I121" s="120"/>
+      <c r="J121" s="120"/>
+      <c r="K121" s="120"/>
+      <c r="L121" s="120"/>
+      <c r="M121" s="120"/>
+      <c r="N121" s="120"/>
+      <c r="O121" s="120"/>
+      <c r="P121" s="120"/>
+      <c r="Q121" s="120"/>
+      <c r="R121" s="121"/>
+      <c r="S121" s="121"/>
+      <c r="T121" s="121"/>
+      <c r="U121" s="121"/>
+      <c r="V121" s="121"/>
+      <c r="W121" s="121"/>
+      <c r="X121" s="122"/>
       <c r="Y121" s="51"/>
-      <c r="Z121" s="111"/>
-      <c r="AA121" s="112"/>
-      <c r="AB121" s="112"/>
-      <c r="AC121" s="112"/>
-      <c r="AD121" s="112"/>
-      <c r="AE121" s="112"/>
-      <c r="AF121" s="112"/>
-      <c r="AG121" s="112"/>
-      <c r="AH121" s="112"/>
-      <c r="AI121" s="112"/>
-      <c r="AJ121" s="112"/>
-      <c r="AK121" s="112"/>
-      <c r="AL121" s="112"/>
-      <c r="AM121" s="112"/>
-      <c r="AN121" s="170"/>
-      <c r="AO121" s="170"/>
-      <c r="AP121" s="170"/>
-      <c r="AQ121" s="170"/>
-      <c r="AR121" s="170"/>
-      <c r="AS121" s="170"/>
-      <c r="AT121" s="171"/>
+      <c r="Z121" s="119"/>
+      <c r="AA121" s="120"/>
+      <c r="AB121" s="120"/>
+      <c r="AC121" s="120"/>
+      <c r="AD121" s="120"/>
+      <c r="AE121" s="120"/>
+      <c r="AF121" s="120"/>
+      <c r="AG121" s="120"/>
+      <c r="AH121" s="120"/>
+      <c r="AI121" s="120"/>
+      <c r="AJ121" s="120"/>
+      <c r="AK121" s="120"/>
+      <c r="AL121" s="120"/>
+      <c r="AM121" s="120"/>
+      <c r="AN121" s="121"/>
+      <c r="AO121" s="121"/>
+      <c r="AP121" s="121"/>
+      <c r="AQ121" s="121"/>
+      <c r="AR121" s="121"/>
+      <c r="AS121" s="121"/>
+      <c r="AT121" s="122"/>
       <c r="AU121" s="8"/>
     </row>
     <row r="122" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8410,53 +8419,53 @@
     </row>
     <row r="123" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
-      <c r="B123" s="142" t="s">
+      <c r="B123" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="143"/>
-      <c r="D123" s="143"/>
-      <c r="E123" s="143"/>
-      <c r="F123" s="143"/>
-      <c r="G123" s="143"/>
-      <c r="H123" s="143"/>
-      <c r="I123" s="143"/>
-      <c r="J123" s="143"/>
-      <c r="K123" s="143"/>
-      <c r="L123" s="143"/>
-      <c r="M123" s="143"/>
-      <c r="N123" s="143"/>
-      <c r="O123" s="143"/>
-      <c r="P123" s="143"/>
-      <c r="Q123" s="143"/>
-      <c r="R123" s="143"/>
-      <c r="S123" s="143"/>
-      <c r="T123" s="143"/>
-      <c r="U123" s="143"/>
-      <c r="V123" s="143"/>
-      <c r="W123" s="143"/>
-      <c r="X123" s="143"/>
-      <c r="Y123" s="143"/>
-      <c r="Z123" s="143"/>
-      <c r="AA123" s="143"/>
-      <c r="AB123" s="143"/>
-      <c r="AC123" s="143"/>
-      <c r="AD123" s="143"/>
-      <c r="AE123" s="143"/>
-      <c r="AF123" s="143"/>
-      <c r="AG123" s="143"/>
-      <c r="AH123" s="143"/>
-      <c r="AI123" s="143"/>
-      <c r="AJ123" s="143"/>
-      <c r="AK123" s="143"/>
-      <c r="AL123" s="143"/>
-      <c r="AM123" s="143"/>
-      <c r="AN123" s="143"/>
-      <c r="AO123" s="143"/>
-      <c r="AP123" s="143"/>
-      <c r="AQ123" s="143"/>
-      <c r="AR123" s="143"/>
-      <c r="AS123" s="143"/>
-      <c r="AT123" s="144"/>
+      <c r="C123" s="126"/>
+      <c r="D123" s="126"/>
+      <c r="E123" s="126"/>
+      <c r="F123" s="126"/>
+      <c r="G123" s="126"/>
+      <c r="H123" s="126"/>
+      <c r="I123" s="126"/>
+      <c r="J123" s="126"/>
+      <c r="K123" s="126"/>
+      <c r="L123" s="126"/>
+      <c r="M123" s="126"/>
+      <c r="N123" s="126"/>
+      <c r="O123" s="126"/>
+      <c r="P123" s="126"/>
+      <c r="Q123" s="126"/>
+      <c r="R123" s="126"/>
+      <c r="S123" s="126"/>
+      <c r="T123" s="126"/>
+      <c r="U123" s="126"/>
+      <c r="V123" s="126"/>
+      <c r="W123" s="126"/>
+      <c r="X123" s="126"/>
+      <c r="Y123" s="126"/>
+      <c r="Z123" s="126"/>
+      <c r="AA123" s="126"/>
+      <c r="AB123" s="126"/>
+      <c r="AC123" s="126"/>
+      <c r="AD123" s="126"/>
+      <c r="AE123" s="126"/>
+      <c r="AF123" s="126"/>
+      <c r="AG123" s="126"/>
+      <c r="AH123" s="126"/>
+      <c r="AI123" s="126"/>
+      <c r="AJ123" s="126"/>
+      <c r="AK123" s="126"/>
+      <c r="AL123" s="126"/>
+      <c r="AM123" s="126"/>
+      <c r="AN123" s="126"/>
+      <c r="AO123" s="126"/>
+      <c r="AP123" s="126"/>
+      <c r="AQ123" s="126"/>
+      <c r="AR123" s="126"/>
+      <c r="AS123" s="126"/>
+      <c r="AT123" s="127"/>
       <c r="AU123" s="8"/>
     </row>
     <row r="124" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8510,361 +8519,361 @@
     </row>
     <row r="125" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
-      <c r="B125" s="145" t="s">
+      <c r="B125" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="146"/>
-      <c r="D125" s="146"/>
-      <c r="E125" s="146"/>
-      <c r="F125" s="146"/>
-      <c r="G125" s="146" t="s">
+      <c r="C125" s="103"/>
+      <c r="D125" s="103"/>
+      <c r="E125" s="103"/>
+      <c r="F125" s="103"/>
+      <c r="G125" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="H125" s="146"/>
-      <c r="I125" s="146"/>
-      <c r="J125" s="146"/>
-      <c r="K125" s="146"/>
-      <c r="L125" s="146"/>
-      <c r="M125" s="146"/>
-      <c r="N125" s="146"/>
-      <c r="O125" s="146"/>
-      <c r="P125" s="146"/>
-      <c r="Q125" s="146"/>
-      <c r="R125" s="147" t="s">
+      <c r="H125" s="103"/>
+      <c r="I125" s="103"/>
+      <c r="J125" s="103"/>
+      <c r="K125" s="103"/>
+      <c r="L125" s="103"/>
+      <c r="M125" s="103"/>
+      <c r="N125" s="103"/>
+      <c r="O125" s="103"/>
+      <c r="P125" s="103"/>
+      <c r="Q125" s="103"/>
+      <c r="R125" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="S125" s="147"/>
-      <c r="T125" s="147"/>
-      <c r="U125" s="147"/>
-      <c r="V125" s="147" t="s">
+      <c r="S125" s="104"/>
+      <c r="T125" s="104"/>
+      <c r="U125" s="104"/>
+      <c r="V125" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="W125" s="147"/>
-      <c r="X125" s="148"/>
+      <c r="W125" s="104"/>
+      <c r="X125" s="105"/>
       <c r="Y125" s="13"/>
-      <c r="Z125" s="145" t="s">
+      <c r="Z125" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="AA125" s="146"/>
-      <c r="AB125" s="146"/>
-      <c r="AC125" s="146"/>
-      <c r="AD125" s="146" t="s">
+      <c r="AA125" s="103"/>
+      <c r="AB125" s="103"/>
+      <c r="AC125" s="103"/>
+      <c r="AD125" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="AE125" s="146"/>
-      <c r="AF125" s="146"/>
-      <c r="AG125" s="146"/>
-      <c r="AH125" s="146"/>
-      <c r="AI125" s="146"/>
-      <c r="AJ125" s="146"/>
-      <c r="AK125" s="146"/>
-      <c r="AL125" s="146"/>
-      <c r="AM125" s="146"/>
-      <c r="AN125" s="147" t="s">
+      <c r="AE125" s="103"/>
+      <c r="AF125" s="103"/>
+      <c r="AG125" s="103"/>
+      <c r="AH125" s="103"/>
+      <c r="AI125" s="103"/>
+      <c r="AJ125" s="103"/>
+      <c r="AK125" s="103"/>
+      <c r="AL125" s="103"/>
+      <c r="AM125" s="103"/>
+      <c r="AN125" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="AO125" s="147"/>
-      <c r="AP125" s="147"/>
-      <c r="AQ125" s="147"/>
-      <c r="AR125" s="147" t="s">
+      <c r="AO125" s="104"/>
+      <c r="AP125" s="104"/>
+      <c r="AQ125" s="104"/>
+      <c r="AR125" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="AS125" s="147"/>
-      <c r="AT125" s="148"/>
+      <c r="AS125" s="104"/>
+      <c r="AT125" s="105"/>
       <c r="AU125" s="8"/>
     </row>
     <row r="126" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
-      <c r="B126" s="135"/>
-      <c r="C126" s="108"/>
-      <c r="D126" s="108"/>
-      <c r="E126" s="108"/>
-      <c r="F126" s="108"/>
-      <c r="G126" s="108"/>
-      <c r="H126" s="108"/>
-      <c r="I126" s="108"/>
-      <c r="J126" s="108"/>
-      <c r="K126" s="108"/>
-      <c r="L126" s="108"/>
-      <c r="M126" s="108"/>
-      <c r="N126" s="108"/>
-      <c r="O126" s="108"/>
-      <c r="P126" s="108"/>
-      <c r="Q126" s="108"/>
-      <c r="R126" s="168"/>
-      <c r="S126" s="168"/>
-      <c r="T126" s="168"/>
-      <c r="U126" s="168"/>
-      <c r="V126" s="168"/>
-      <c r="W126" s="168"/>
-      <c r="X126" s="169"/>
+      <c r="B126" s="106"/>
+      <c r="C126" s="107"/>
+      <c r="D126" s="107"/>
+      <c r="E126" s="107"/>
+      <c r="F126" s="107"/>
+      <c r="G126" s="107"/>
+      <c r="H126" s="107"/>
+      <c r="I126" s="107"/>
+      <c r="J126" s="107"/>
+      <c r="K126" s="107"/>
+      <c r="L126" s="107"/>
+      <c r="M126" s="107"/>
+      <c r="N126" s="107"/>
+      <c r="O126" s="107"/>
+      <c r="P126" s="107"/>
+      <c r="Q126" s="107"/>
+      <c r="R126" s="108"/>
+      <c r="S126" s="108"/>
+      <c r="T126" s="108"/>
+      <c r="U126" s="108"/>
+      <c r="V126" s="108"/>
+      <c r="W126" s="108"/>
+      <c r="X126" s="109"/>
       <c r="Y126" s="51"/>
-      <c r="Z126" s="135"/>
-      <c r="AA126" s="108"/>
-      <c r="AB126" s="108"/>
-      <c r="AC126" s="108"/>
-      <c r="AD126" s="108"/>
-      <c r="AE126" s="108"/>
-      <c r="AF126" s="108"/>
-      <c r="AG126" s="108"/>
-      <c r="AH126" s="108"/>
-      <c r="AI126" s="108"/>
-      <c r="AJ126" s="108"/>
-      <c r="AK126" s="108"/>
-      <c r="AL126" s="108"/>
-      <c r="AM126" s="108"/>
-      <c r="AN126" s="168"/>
-      <c r="AO126" s="168"/>
-      <c r="AP126" s="168"/>
-      <c r="AQ126" s="168"/>
-      <c r="AR126" s="168"/>
-      <c r="AS126" s="168"/>
-      <c r="AT126" s="169"/>
+      <c r="Z126" s="106"/>
+      <c r="AA126" s="107"/>
+      <c r="AB126" s="107"/>
+      <c r="AC126" s="107"/>
+      <c r="AD126" s="107"/>
+      <c r="AE126" s="107"/>
+      <c r="AF126" s="107"/>
+      <c r="AG126" s="107"/>
+      <c r="AH126" s="107"/>
+      <c r="AI126" s="107"/>
+      <c r="AJ126" s="107"/>
+      <c r="AK126" s="107"/>
+      <c r="AL126" s="107"/>
+      <c r="AM126" s="107"/>
+      <c r="AN126" s="108"/>
+      <c r="AO126" s="108"/>
+      <c r="AP126" s="108"/>
+      <c r="AQ126" s="108"/>
+      <c r="AR126" s="108"/>
+      <c r="AS126" s="108"/>
+      <c r="AT126" s="109"/>
       <c r="AU126" s="8"/>
     </row>
     <row r="127" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
-      <c r="B127" s="135"/>
-      <c r="C127" s="108"/>
-      <c r="D127" s="108"/>
-      <c r="E127" s="108"/>
-      <c r="F127" s="108"/>
-      <c r="G127" s="108"/>
-      <c r="H127" s="108"/>
-      <c r="I127" s="108"/>
-      <c r="J127" s="108"/>
-      <c r="K127" s="108"/>
-      <c r="L127" s="108"/>
-      <c r="M127" s="108"/>
-      <c r="N127" s="108"/>
-      <c r="O127" s="108"/>
-      <c r="P127" s="108"/>
-      <c r="Q127" s="108"/>
-      <c r="R127" s="168"/>
-      <c r="S127" s="168"/>
-      <c r="T127" s="168"/>
-      <c r="U127" s="168"/>
-      <c r="V127" s="168"/>
-      <c r="W127" s="168"/>
-      <c r="X127" s="169"/>
+      <c r="B127" s="106"/>
+      <c r="C127" s="107"/>
+      <c r="D127" s="107"/>
+      <c r="E127" s="107"/>
+      <c r="F127" s="107"/>
+      <c r="G127" s="107"/>
+      <c r="H127" s="107"/>
+      <c r="I127" s="107"/>
+      <c r="J127" s="107"/>
+      <c r="K127" s="107"/>
+      <c r="L127" s="107"/>
+      <c r="M127" s="107"/>
+      <c r="N127" s="107"/>
+      <c r="O127" s="107"/>
+      <c r="P127" s="107"/>
+      <c r="Q127" s="107"/>
+      <c r="R127" s="108"/>
+      <c r="S127" s="108"/>
+      <c r="T127" s="108"/>
+      <c r="U127" s="108"/>
+      <c r="V127" s="108"/>
+      <c r="W127" s="108"/>
+      <c r="X127" s="109"/>
       <c r="Y127" s="51"/>
-      <c r="Z127" s="135"/>
-      <c r="AA127" s="108"/>
-      <c r="AB127" s="108"/>
-      <c r="AC127" s="108"/>
-      <c r="AD127" s="108"/>
-      <c r="AE127" s="108"/>
-      <c r="AF127" s="108"/>
-      <c r="AG127" s="108"/>
-      <c r="AH127" s="108"/>
-      <c r="AI127" s="108"/>
-      <c r="AJ127" s="108"/>
-      <c r="AK127" s="108"/>
-      <c r="AL127" s="108"/>
-      <c r="AM127" s="108"/>
-      <c r="AN127" s="168"/>
-      <c r="AO127" s="168"/>
-      <c r="AP127" s="168"/>
-      <c r="AQ127" s="168"/>
-      <c r="AR127" s="168"/>
-      <c r="AS127" s="168"/>
-      <c r="AT127" s="169"/>
+      <c r="Z127" s="106"/>
+      <c r="AA127" s="107"/>
+      <c r="AB127" s="107"/>
+      <c r="AC127" s="107"/>
+      <c r="AD127" s="107"/>
+      <c r="AE127" s="107"/>
+      <c r="AF127" s="107"/>
+      <c r="AG127" s="107"/>
+      <c r="AH127" s="107"/>
+      <c r="AI127" s="107"/>
+      <c r="AJ127" s="107"/>
+      <c r="AK127" s="107"/>
+      <c r="AL127" s="107"/>
+      <c r="AM127" s="107"/>
+      <c r="AN127" s="108"/>
+      <c r="AO127" s="108"/>
+      <c r="AP127" s="108"/>
+      <c r="AQ127" s="108"/>
+      <c r="AR127" s="108"/>
+      <c r="AS127" s="108"/>
+      <c r="AT127" s="109"/>
       <c r="AU127" s="8"/>
     </row>
     <row r="128" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
-      <c r="B128" s="135"/>
-      <c r="C128" s="108"/>
-      <c r="D128" s="108"/>
-      <c r="E128" s="108"/>
-      <c r="F128" s="108"/>
-      <c r="G128" s="108"/>
-      <c r="H128" s="108"/>
-      <c r="I128" s="108"/>
-      <c r="J128" s="108"/>
-      <c r="K128" s="108"/>
-      <c r="L128" s="108"/>
-      <c r="M128" s="108"/>
-      <c r="N128" s="108"/>
-      <c r="O128" s="108"/>
-      <c r="P128" s="108"/>
-      <c r="Q128" s="108"/>
-      <c r="R128" s="168"/>
-      <c r="S128" s="168"/>
-      <c r="T128" s="168"/>
-      <c r="U128" s="168"/>
-      <c r="V128" s="168"/>
-      <c r="W128" s="168"/>
-      <c r="X128" s="169"/>
+      <c r="B128" s="106"/>
+      <c r="C128" s="107"/>
+      <c r="D128" s="107"/>
+      <c r="E128" s="107"/>
+      <c r="F128" s="107"/>
+      <c r="G128" s="107"/>
+      <c r="H128" s="107"/>
+      <c r="I128" s="107"/>
+      <c r="J128" s="107"/>
+      <c r="K128" s="107"/>
+      <c r="L128" s="107"/>
+      <c r="M128" s="107"/>
+      <c r="N128" s="107"/>
+      <c r="O128" s="107"/>
+      <c r="P128" s="107"/>
+      <c r="Q128" s="107"/>
+      <c r="R128" s="108"/>
+      <c r="S128" s="108"/>
+      <c r="T128" s="108"/>
+      <c r="U128" s="108"/>
+      <c r="V128" s="108"/>
+      <c r="W128" s="108"/>
+      <c r="X128" s="109"/>
       <c r="Y128" s="51"/>
-      <c r="Z128" s="135"/>
-      <c r="AA128" s="108"/>
-      <c r="AB128" s="108"/>
-      <c r="AC128" s="108"/>
-      <c r="AD128" s="108"/>
-      <c r="AE128" s="108"/>
-      <c r="AF128" s="108"/>
-      <c r="AG128" s="108"/>
-      <c r="AH128" s="108"/>
-      <c r="AI128" s="108"/>
-      <c r="AJ128" s="108"/>
-      <c r="AK128" s="108"/>
-      <c r="AL128" s="108"/>
-      <c r="AM128" s="108"/>
-      <c r="AN128" s="168"/>
-      <c r="AO128" s="168"/>
-      <c r="AP128" s="168"/>
-      <c r="AQ128" s="168"/>
-      <c r="AR128" s="168"/>
-      <c r="AS128" s="168"/>
-      <c r="AT128" s="169"/>
+      <c r="Z128" s="106"/>
+      <c r="AA128" s="107"/>
+      <c r="AB128" s="107"/>
+      <c r="AC128" s="107"/>
+      <c r="AD128" s="107"/>
+      <c r="AE128" s="107"/>
+      <c r="AF128" s="107"/>
+      <c r="AG128" s="107"/>
+      <c r="AH128" s="107"/>
+      <c r="AI128" s="107"/>
+      <c r="AJ128" s="107"/>
+      <c r="AK128" s="107"/>
+      <c r="AL128" s="107"/>
+      <c r="AM128" s="107"/>
+      <c r="AN128" s="108"/>
+      <c r="AO128" s="108"/>
+      <c r="AP128" s="108"/>
+      <c r="AQ128" s="108"/>
+      <c r="AR128" s="108"/>
+      <c r="AS128" s="108"/>
+      <c r="AT128" s="109"/>
       <c r="AU128" s="8"/>
     </row>
     <row r="129" spans="1:56" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
-      <c r="B129" s="135"/>
-      <c r="C129" s="108"/>
-      <c r="D129" s="108"/>
-      <c r="E129" s="108"/>
-      <c r="F129" s="108"/>
-      <c r="G129" s="108"/>
-      <c r="H129" s="108"/>
-      <c r="I129" s="108"/>
-      <c r="J129" s="108"/>
-      <c r="K129" s="108"/>
-      <c r="L129" s="108"/>
-      <c r="M129" s="108"/>
-      <c r="N129" s="108"/>
-      <c r="O129" s="108"/>
-      <c r="P129" s="108"/>
-      <c r="Q129" s="108"/>
-      <c r="R129" s="168"/>
-      <c r="S129" s="168"/>
-      <c r="T129" s="168"/>
-      <c r="U129" s="168"/>
-      <c r="V129" s="168"/>
-      <c r="W129" s="168"/>
-      <c r="X129" s="169"/>
+      <c r="B129" s="106"/>
+      <c r="C129" s="107"/>
+      <c r="D129" s="107"/>
+      <c r="E129" s="107"/>
+      <c r="F129" s="107"/>
+      <c r="G129" s="107"/>
+      <c r="H129" s="107"/>
+      <c r="I129" s="107"/>
+      <c r="J129" s="107"/>
+      <c r="K129" s="107"/>
+      <c r="L129" s="107"/>
+      <c r="M129" s="107"/>
+      <c r="N129" s="107"/>
+      <c r="O129" s="107"/>
+      <c r="P129" s="107"/>
+      <c r="Q129" s="107"/>
+      <c r="R129" s="108"/>
+      <c r="S129" s="108"/>
+      <c r="T129" s="108"/>
+      <c r="U129" s="108"/>
+      <c r="V129" s="108"/>
+      <c r="W129" s="108"/>
+      <c r="X129" s="109"/>
       <c r="Y129" s="51"/>
-      <c r="Z129" s="135"/>
-      <c r="AA129" s="108"/>
-      <c r="AB129" s="108"/>
-      <c r="AC129" s="108"/>
-      <c r="AD129" s="108"/>
-      <c r="AE129" s="108"/>
-      <c r="AF129" s="108"/>
-      <c r="AG129" s="108"/>
-      <c r="AH129" s="108"/>
-      <c r="AI129" s="108"/>
-      <c r="AJ129" s="108"/>
-      <c r="AK129" s="108"/>
-      <c r="AL129" s="108"/>
-      <c r="AM129" s="108"/>
-      <c r="AN129" s="168"/>
-      <c r="AO129" s="168"/>
-      <c r="AP129" s="168"/>
-      <c r="AQ129" s="168"/>
-      <c r="AR129" s="168"/>
-      <c r="AS129" s="168"/>
-      <c r="AT129" s="169"/>
+      <c r="Z129" s="106"/>
+      <c r="AA129" s="107"/>
+      <c r="AB129" s="107"/>
+      <c r="AC129" s="107"/>
+      <c r="AD129" s="107"/>
+      <c r="AE129" s="107"/>
+      <c r="AF129" s="107"/>
+      <c r="AG129" s="107"/>
+      <c r="AH129" s="107"/>
+      <c r="AI129" s="107"/>
+      <c r="AJ129" s="107"/>
+      <c r="AK129" s="107"/>
+      <c r="AL129" s="107"/>
+      <c r="AM129" s="107"/>
+      <c r="AN129" s="108"/>
+      <c r="AO129" s="108"/>
+      <c r="AP129" s="108"/>
+      <c r="AQ129" s="108"/>
+      <c r="AR129" s="108"/>
+      <c r="AS129" s="108"/>
+      <c r="AT129" s="109"/>
       <c r="AU129" s="8"/>
     </row>
     <row r="130" spans="1:56" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
-      <c r="B130" s="135"/>
-      <c r="C130" s="108"/>
-      <c r="D130" s="108"/>
-      <c r="E130" s="108"/>
-      <c r="F130" s="108"/>
-      <c r="G130" s="108"/>
-      <c r="H130" s="108"/>
-      <c r="I130" s="108"/>
-      <c r="J130" s="108"/>
-      <c r="K130" s="108"/>
-      <c r="L130" s="108"/>
-      <c r="M130" s="108"/>
-      <c r="N130" s="108"/>
-      <c r="O130" s="108"/>
-      <c r="P130" s="108"/>
-      <c r="Q130" s="108"/>
-      <c r="R130" s="168"/>
-      <c r="S130" s="168"/>
-      <c r="T130" s="168"/>
-      <c r="U130" s="168"/>
-      <c r="V130" s="168"/>
-      <c r="W130" s="168"/>
-      <c r="X130" s="169"/>
+      <c r="B130" s="106"/>
+      <c r="C130" s="107"/>
+      <c r="D130" s="107"/>
+      <c r="E130" s="107"/>
+      <c r="F130" s="107"/>
+      <c r="G130" s="107"/>
+      <c r="H130" s="107"/>
+      <c r="I130" s="107"/>
+      <c r="J130" s="107"/>
+      <c r="K130" s="107"/>
+      <c r="L130" s="107"/>
+      <c r="M130" s="107"/>
+      <c r="N130" s="107"/>
+      <c r="O130" s="107"/>
+      <c r="P130" s="107"/>
+      <c r="Q130" s="107"/>
+      <c r="R130" s="108"/>
+      <c r="S130" s="108"/>
+      <c r="T130" s="108"/>
+      <c r="U130" s="108"/>
+      <c r="V130" s="108"/>
+      <c r="W130" s="108"/>
+      <c r="X130" s="109"/>
       <c r="Y130" s="51"/>
-      <c r="Z130" s="135"/>
-      <c r="AA130" s="108"/>
-      <c r="AB130" s="108"/>
-      <c r="AC130" s="108"/>
-      <c r="AD130" s="108"/>
-      <c r="AE130" s="108"/>
-      <c r="AF130" s="108"/>
-      <c r="AG130" s="108"/>
-      <c r="AH130" s="108"/>
-      <c r="AI130" s="108"/>
-      <c r="AJ130" s="108"/>
-      <c r="AK130" s="108"/>
-      <c r="AL130" s="108"/>
-      <c r="AM130" s="108"/>
-      <c r="AN130" s="168"/>
-      <c r="AO130" s="168"/>
-      <c r="AP130" s="168"/>
-      <c r="AQ130" s="168"/>
-      <c r="AR130" s="168"/>
-      <c r="AS130" s="168"/>
-      <c r="AT130" s="169"/>
+      <c r="Z130" s="106"/>
+      <c r="AA130" s="107"/>
+      <c r="AB130" s="107"/>
+      <c r="AC130" s="107"/>
+      <c r="AD130" s="107"/>
+      <c r="AE130" s="107"/>
+      <c r="AF130" s="107"/>
+      <c r="AG130" s="107"/>
+      <c r="AH130" s="107"/>
+      <c r="AI130" s="107"/>
+      <c r="AJ130" s="107"/>
+      <c r="AK130" s="107"/>
+      <c r="AL130" s="107"/>
+      <c r="AM130" s="107"/>
+      <c r="AN130" s="108"/>
+      <c r="AO130" s="108"/>
+      <c r="AP130" s="108"/>
+      <c r="AQ130" s="108"/>
+      <c r="AR130" s="108"/>
+      <c r="AS130" s="108"/>
+      <c r="AT130" s="109"/>
       <c r="AU130" s="8"/>
     </row>
     <row r="131" spans="1:56" s="28" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
-      <c r="B131" s="111"/>
-      <c r="C131" s="112"/>
-      <c r="D131" s="112"/>
-      <c r="E131" s="112"/>
-      <c r="F131" s="112"/>
-      <c r="G131" s="112"/>
-      <c r="H131" s="112"/>
-      <c r="I131" s="112"/>
-      <c r="J131" s="112"/>
-      <c r="K131" s="112"/>
-      <c r="L131" s="112"/>
-      <c r="M131" s="112"/>
-      <c r="N131" s="112"/>
-      <c r="O131" s="112"/>
-      <c r="P131" s="112"/>
-      <c r="Q131" s="112"/>
-      <c r="R131" s="170"/>
-      <c r="S131" s="170"/>
-      <c r="T131" s="170"/>
-      <c r="U131" s="170"/>
-      <c r="V131" s="170"/>
-      <c r="W131" s="170"/>
-      <c r="X131" s="171"/>
+      <c r="B131" s="119"/>
+      <c r="C131" s="120"/>
+      <c r="D131" s="120"/>
+      <c r="E131" s="120"/>
+      <c r="F131" s="120"/>
+      <c r="G131" s="120"/>
+      <c r="H131" s="120"/>
+      <c r="I131" s="120"/>
+      <c r="J131" s="120"/>
+      <c r="K131" s="120"/>
+      <c r="L131" s="120"/>
+      <c r="M131" s="120"/>
+      <c r="N131" s="120"/>
+      <c r="O131" s="120"/>
+      <c r="P131" s="120"/>
+      <c r="Q131" s="120"/>
+      <c r="R131" s="121"/>
+      <c r="S131" s="121"/>
+      <c r="T131" s="121"/>
+      <c r="U131" s="121"/>
+      <c r="V131" s="121"/>
+      <c r="W131" s="121"/>
+      <c r="X131" s="122"/>
       <c r="Y131" s="51"/>
-      <c r="Z131" s="111"/>
-      <c r="AA131" s="112"/>
-      <c r="AB131" s="112"/>
-      <c r="AC131" s="112"/>
-      <c r="AD131" s="112"/>
-      <c r="AE131" s="112"/>
-      <c r="AF131" s="112"/>
-      <c r="AG131" s="112"/>
-      <c r="AH131" s="112"/>
-      <c r="AI131" s="112"/>
-      <c r="AJ131" s="112"/>
-      <c r="AK131" s="112"/>
-      <c r="AL131" s="112"/>
-      <c r="AM131" s="112"/>
-      <c r="AN131" s="170"/>
-      <c r="AO131" s="170"/>
-      <c r="AP131" s="170"/>
-      <c r="AQ131" s="170"/>
-      <c r="AR131" s="170"/>
-      <c r="AS131" s="170"/>
-      <c r="AT131" s="171"/>
+      <c r="Z131" s="119"/>
+      <c r="AA131" s="120"/>
+      <c r="AB131" s="120"/>
+      <c r="AC131" s="120"/>
+      <c r="AD131" s="120"/>
+      <c r="AE131" s="120"/>
+      <c r="AF131" s="120"/>
+      <c r="AG131" s="120"/>
+      <c r="AH131" s="120"/>
+      <c r="AI131" s="120"/>
+      <c r="AJ131" s="120"/>
+      <c r="AK131" s="120"/>
+      <c r="AL131" s="120"/>
+      <c r="AM131" s="120"/>
+      <c r="AN131" s="121"/>
+      <c r="AO131" s="121"/>
+      <c r="AP131" s="121"/>
+      <c r="AQ131" s="121"/>
+      <c r="AR131" s="121"/>
+      <c r="AS131" s="121"/>
+      <c r="AT131" s="122"/>
       <c r="AU131" s="8"/>
     </row>
     <row r="132" spans="1:56" s="20" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8874,51 +8883,51 @@
     <row r="133" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="105" t="s">
+      <c r="C133" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="D133" s="105"/>
-      <c r="E133" s="105"/>
-      <c r="F133" s="105"/>
-      <c r="G133" s="105"/>
-      <c r="H133" s="105"/>
-      <c r="I133" s="105"/>
-      <c r="J133" s="105"/>
-      <c r="K133" s="105"/>
-      <c r="L133" s="105"/>
-      <c r="M133" s="105"/>
-      <c r="N133" s="105"/>
-      <c r="O133" s="105"/>
-      <c r="P133" s="105"/>
-      <c r="Q133" s="105"/>
-      <c r="R133" s="105"/>
-      <c r="S133" s="105"/>
-      <c r="T133" s="105"/>
-      <c r="U133" s="105"/>
-      <c r="V133" s="105"/>
-      <c r="W133" s="105"/>
-      <c r="X133" s="105"/>
-      <c r="Y133" s="105"/>
-      <c r="Z133" s="105"/>
-      <c r="AA133" s="105"/>
-      <c r="AB133" s="105"/>
-      <c r="AC133" s="105"/>
-      <c r="AD133" s="105"/>
-      <c r="AE133" s="105"/>
-      <c r="AF133" s="105"/>
-      <c r="AG133" s="105"/>
-      <c r="AH133" s="105"/>
-      <c r="AI133" s="105"/>
-      <c r="AJ133" s="105"/>
-      <c r="AK133" s="105"/>
-      <c r="AL133" s="105"/>
-      <c r="AM133" s="105"/>
-      <c r="AN133" s="105"/>
-      <c r="AO133" s="105"/>
-      <c r="AP133" s="105"/>
-      <c r="AQ133" s="105"/>
-      <c r="AR133" s="105"/>
-      <c r="AS133" s="105"/>
+      <c r="D133" s="152"/>
+      <c r="E133" s="152"/>
+      <c r="F133" s="152"/>
+      <c r="G133" s="152"/>
+      <c r="H133" s="152"/>
+      <c r="I133" s="152"/>
+      <c r="J133" s="152"/>
+      <c r="K133" s="152"/>
+      <c r="L133" s="152"/>
+      <c r="M133" s="152"/>
+      <c r="N133" s="152"/>
+      <c r="O133" s="152"/>
+      <c r="P133" s="152"/>
+      <c r="Q133" s="152"/>
+      <c r="R133" s="152"/>
+      <c r="S133" s="152"/>
+      <c r="T133" s="152"/>
+      <c r="U133" s="152"/>
+      <c r="V133" s="152"/>
+      <c r="W133" s="152"/>
+      <c r="X133" s="152"/>
+      <c r="Y133" s="152"/>
+      <c r="Z133" s="152"/>
+      <c r="AA133" s="152"/>
+      <c r="AB133" s="152"/>
+      <c r="AC133" s="152"/>
+      <c r="AD133" s="152"/>
+      <c r="AE133" s="152"/>
+      <c r="AF133" s="152"/>
+      <c r="AG133" s="152"/>
+      <c r="AH133" s="152"/>
+      <c r="AI133" s="152"/>
+      <c r="AJ133" s="152"/>
+      <c r="AK133" s="152"/>
+      <c r="AL133" s="152"/>
+      <c r="AM133" s="152"/>
+      <c r="AN133" s="152"/>
+      <c r="AO133" s="152"/>
+      <c r="AP133" s="152"/>
+      <c r="AQ133" s="152"/>
+      <c r="AR133" s="152"/>
+      <c r="AS133" s="152"/>
       <c r="AT133" s="18"/>
       <c r="AU133" s="8"/>
     </row>
@@ -9016,15 +9025,15 @@
       <c r="AM135" s="29"/>
       <c r="AN135" s="29"/>
       <c r="AO135" s="29"/>
-      <c r="AP135" s="160" t="s">
+      <c r="AP135" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="AQ135" s="160"/>
+      <c r="AQ135" s="153"/>
       <c r="AR135" s="27"/>
-      <c r="AS135" s="160" t="s">
+      <c r="AS135" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="AT135" s="160"/>
+      <c r="AT135" s="153"/>
       <c r="AU135" s="8"/>
       <c r="AV135" s="23"/>
     </row>
@@ -9077,16 +9086,16 @@
       </c>
       <c r="M137" s="21"/>
       <c r="N137" s="49"/>
-      <c r="P137" s="141"/>
-      <c r="Q137" s="141"/>
-      <c r="R137" s="141"/>
-      <c r="S137" s="141"/>
-      <c r="T137" s="141"/>
-      <c r="U137" s="141"/>
-      <c r="V137" s="141"/>
-      <c r="W137" s="141"/>
-      <c r="X137" s="141"/>
-      <c r="Y137" s="141"/>
+      <c r="P137" s="158"/>
+      <c r="Q137" s="158"/>
+      <c r="R137" s="158"/>
+      <c r="S137" s="158"/>
+      <c r="T137" s="158"/>
+      <c r="U137" s="158"/>
+      <c r="V137" s="158"/>
+      <c r="W137" s="158"/>
+      <c r="X137" s="158"/>
+      <c r="Y137" s="158"/>
       <c r="Z137" s="31" t="s">
         <v>129</v>
       </c>
@@ -9104,11 +9113,11 @@
       <c r="AM137" s="8"/>
       <c r="AN137" s="8"/>
       <c r="AO137" s="8"/>
-      <c r="AP137" s="104"/>
-      <c r="AQ137" s="104"/>
+      <c r="AP137" s="156"/>
+      <c r="AQ137" s="156"/>
       <c r="AR137" s="8"/>
-      <c r="AS137" s="104"/>
-      <c r="AT137" s="104"/>
+      <c r="AS137" s="156"/>
+      <c r="AT137" s="156"/>
       <c r="AU137" s="8"/>
     </row>
     <row r="138" spans="1:56" s="20" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2">
@@ -9171,16 +9180,16 @@
       </c>
       <c r="M139" s="21"/>
       <c r="N139" s="49"/>
-      <c r="P139" s="141"/>
-      <c r="Q139" s="141"/>
-      <c r="R139" s="141"/>
-      <c r="S139" s="141"/>
-      <c r="T139" s="141"/>
-      <c r="U139" s="141"/>
-      <c r="V139" s="141"/>
-      <c r="W139" s="141"/>
-      <c r="X139" s="141"/>
-      <c r="Y139" s="141"/>
+      <c r="P139" s="158"/>
+      <c r="Q139" s="158"/>
+      <c r="R139" s="158"/>
+      <c r="S139" s="158"/>
+      <c r="T139" s="158"/>
+      <c r="U139" s="158"/>
+      <c r="V139" s="158"/>
+      <c r="W139" s="158"/>
+      <c r="X139" s="158"/>
+      <c r="Y139" s="158"/>
       <c r="Z139" s="31" t="s">
         <v>131</v>
       </c>
@@ -9192,17 +9201,17 @@
       <c r="AG139" s="6"/>
       <c r="AH139" s="6"/>
       <c r="AI139" s="6"/>
-      <c r="AJ139" s="140"/>
-      <c r="AK139" s="140"/>
-      <c r="AL139" s="140"/>
-      <c r="AM139" s="140"/>
-      <c r="AN139" s="140"/>
-      <c r="AO139" s="140"/>
-      <c r="AP139" s="140"/>
-      <c r="AQ139" s="140"/>
-      <c r="AR139" s="140"/>
-      <c r="AS139" s="140"/>
-      <c r="AT139" s="140"/>
+      <c r="AJ139" s="157"/>
+      <c r="AK139" s="157"/>
+      <c r="AL139" s="157"/>
+      <c r="AM139" s="157"/>
+      <c r="AN139" s="157"/>
+      <c r="AO139" s="157"/>
+      <c r="AP139" s="157"/>
+      <c r="AQ139" s="157"/>
+      <c r="AR139" s="157"/>
+      <c r="AS139" s="157"/>
+      <c r="AT139" s="157"/>
       <c r="AU139" s="8"/>
     </row>
     <row r="140" spans="1:56" s="20" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2">
@@ -9332,44 +9341,44 @@
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
       <c r="O143" s="18"/>
-      <c r="P143" s="132" t="s">
+      <c r="P143" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="Q143" s="132"/>
-      <c r="R143" s="132"/>
-      <c r="S143" s="132"/>
-      <c r="T143" s="132"/>
-      <c r="U143" s="132"/>
-      <c r="V143" s="132"/>
-      <c r="W143" s="132"/>
-      <c r="X143" s="132"/>
-      <c r="Y143" s="132"/>
-      <c r="Z143" s="132"/>
-      <c r="AA143" s="132"/>
-      <c r="AB143" s="132"/>
-      <c r="AC143" s="132"/>
-      <c r="AD143" s="132"/>
-      <c r="AE143" s="132"/>
-      <c r="AF143" s="132"/>
-      <c r="AG143" s="132"/>
-      <c r="AH143" s="132"/>
-      <c r="AI143" s="132"/>
+      <c r="Q143" s="110"/>
+      <c r="R143" s="110"/>
+      <c r="S143" s="110"/>
+      <c r="T143" s="110"/>
+      <c r="U143" s="110"/>
+      <c r="V143" s="110"/>
+      <c r="W143" s="110"/>
+      <c r="X143" s="110"/>
+      <c r="Y143" s="110"/>
+      <c r="Z143" s="110"/>
+      <c r="AA143" s="110"/>
+      <c r="AB143" s="110"/>
+      <c r="AC143" s="110"/>
+      <c r="AD143" s="110"/>
+      <c r="AE143" s="110"/>
+      <c r="AF143" s="110"/>
+      <c r="AG143" s="110"/>
+      <c r="AH143" s="110"/>
+      <c r="AI143" s="110"/>
       <c r="AJ143" s="18"/>
-      <c r="AK143" s="122" t="s">
+      <c r="AK143" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AL143" s="123"/>
-      <c r="AM143" s="123"/>
-      <c r="AN143" s="136" t="str">
+      <c r="AL143" s="112"/>
+      <c r="AM143" s="112"/>
+      <c r="AN143" s="145" t="str">
         <f>AN2</f>
         <v>SJI-YY-NNN-M</v>
       </c>
-      <c r="AO143" s="136"/>
-      <c r="AP143" s="136"/>
-      <c r="AQ143" s="136"/>
-      <c r="AR143" s="136"/>
-      <c r="AS143" s="136"/>
-      <c r="AT143" s="137"/>
+      <c r="AO143" s="145"/>
+      <c r="AP143" s="145"/>
+      <c r="AQ143" s="145"/>
+      <c r="AR143" s="145"/>
+      <c r="AS143" s="145"/>
+      <c r="AT143" s="146"/>
       <c r="AU143" s="1"/>
       <c r="AV143" s="20"/>
       <c r="AW143" s="20"/>
@@ -9396,39 +9405,39 @@
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
       <c r="O144" s="18"/>
-      <c r="P144" s="132" t="s">
+      <c r="P144" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="Q144" s="132"/>
-      <c r="R144" s="132"/>
-      <c r="S144" s="132"/>
-      <c r="T144" s="132"/>
-      <c r="U144" s="132"/>
-      <c r="V144" s="132"/>
-      <c r="W144" s="132"/>
-      <c r="X144" s="132"/>
-      <c r="Y144" s="132"/>
-      <c r="Z144" s="132"/>
-      <c r="AA144" s="132"/>
-      <c r="AB144" s="132"/>
-      <c r="AC144" s="132"/>
-      <c r="AD144" s="132"/>
-      <c r="AE144" s="132"/>
-      <c r="AF144" s="132"/>
-      <c r="AG144" s="132"/>
-      <c r="AH144" s="132"/>
-      <c r="AI144" s="132"/>
+      <c r="Q144" s="110"/>
+      <c r="R144" s="110"/>
+      <c r="S144" s="110"/>
+      <c r="T144" s="110"/>
+      <c r="U144" s="110"/>
+      <c r="V144" s="110"/>
+      <c r="W144" s="110"/>
+      <c r="X144" s="110"/>
+      <c r="Y144" s="110"/>
+      <c r="Z144" s="110"/>
+      <c r="AA144" s="110"/>
+      <c r="AB144" s="110"/>
+      <c r="AC144" s="110"/>
+      <c r="AD144" s="110"/>
+      <c r="AE144" s="110"/>
+      <c r="AF144" s="110"/>
+      <c r="AG144" s="110"/>
+      <c r="AH144" s="110"/>
+      <c r="AI144" s="110"/>
       <c r="AJ144" s="18"/>
-      <c r="AK144" s="124"/>
-      <c r="AL144" s="125"/>
-      <c r="AM144" s="125"/>
-      <c r="AN144" s="138"/>
-      <c r="AO144" s="138"/>
-      <c r="AP144" s="138"/>
-      <c r="AQ144" s="138"/>
-      <c r="AR144" s="138"/>
-      <c r="AS144" s="138"/>
-      <c r="AT144" s="139"/>
+      <c r="AK144" s="113"/>
+      <c r="AL144" s="114"/>
+      <c r="AM144" s="114"/>
+      <c r="AN144" s="147"/>
+      <c r="AO144" s="147"/>
+      <c r="AP144" s="147"/>
+      <c r="AQ144" s="147"/>
+      <c r="AR144" s="147"/>
+      <c r="AS144" s="147"/>
+      <c r="AT144" s="148"/>
       <c r="AU144" s="1"/>
       <c r="AV144" s="20"/>
       <c r="AW144" s="20"/>
@@ -9458,51 +9467,51 @@
     <row r="146" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="105" t="s">
+      <c r="C146" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="D146" s="105"/>
-      <c r="E146" s="105"/>
-      <c r="F146" s="105"/>
-      <c r="G146" s="105"/>
-      <c r="H146" s="105"/>
-      <c r="I146" s="105"/>
-      <c r="J146" s="105"/>
-      <c r="K146" s="105"/>
-      <c r="L146" s="105"/>
-      <c r="M146" s="105"/>
-      <c r="N146" s="105"/>
-      <c r="O146" s="105"/>
-      <c r="P146" s="105"/>
-      <c r="Q146" s="105"/>
-      <c r="R146" s="105"/>
-      <c r="S146" s="105"/>
-      <c r="T146" s="105"/>
-      <c r="U146" s="105"/>
-      <c r="V146" s="105"/>
-      <c r="W146" s="105"/>
-      <c r="X146" s="105"/>
-      <c r="Y146" s="105"/>
-      <c r="Z146" s="105"/>
-      <c r="AA146" s="105"/>
-      <c r="AB146" s="105"/>
-      <c r="AC146" s="105"/>
-      <c r="AD146" s="105"/>
-      <c r="AE146" s="105"/>
-      <c r="AF146" s="105"/>
-      <c r="AG146" s="105"/>
-      <c r="AH146" s="105"/>
-      <c r="AI146" s="105"/>
-      <c r="AJ146" s="105"/>
-      <c r="AK146" s="105"/>
-      <c r="AL146" s="105"/>
-      <c r="AM146" s="105"/>
-      <c r="AN146" s="105"/>
-      <c r="AO146" s="105"/>
-      <c r="AP146" s="105"/>
-      <c r="AQ146" s="105"/>
-      <c r="AR146" s="105"/>
-      <c r="AS146" s="105"/>
+      <c r="D146" s="152"/>
+      <c r="E146" s="152"/>
+      <c r="F146" s="152"/>
+      <c r="G146" s="152"/>
+      <c r="H146" s="152"/>
+      <c r="I146" s="152"/>
+      <c r="J146" s="152"/>
+      <c r="K146" s="152"/>
+      <c r="L146" s="152"/>
+      <c r="M146" s="152"/>
+      <c r="N146" s="152"/>
+      <c r="O146" s="152"/>
+      <c r="P146" s="152"/>
+      <c r="Q146" s="152"/>
+      <c r="R146" s="152"/>
+      <c r="S146" s="152"/>
+      <c r="T146" s="152"/>
+      <c r="U146" s="152"/>
+      <c r="V146" s="152"/>
+      <c r="W146" s="152"/>
+      <c r="X146" s="152"/>
+      <c r="Y146" s="152"/>
+      <c r="Z146" s="152"/>
+      <c r="AA146" s="152"/>
+      <c r="AB146" s="152"/>
+      <c r="AC146" s="152"/>
+      <c r="AD146" s="152"/>
+      <c r="AE146" s="152"/>
+      <c r="AF146" s="152"/>
+      <c r="AG146" s="152"/>
+      <c r="AH146" s="152"/>
+      <c r="AI146" s="152"/>
+      <c r="AJ146" s="152"/>
+      <c r="AK146" s="152"/>
+      <c r="AL146" s="152"/>
+      <c r="AM146" s="152"/>
+      <c r="AN146" s="152"/>
+      <c r="AO146" s="152"/>
+      <c r="AP146" s="152"/>
+      <c r="AQ146" s="152"/>
+      <c r="AR146" s="152"/>
+      <c r="AS146" s="152"/>
       <c r="AT146" s="18"/>
       <c r="AU146" s="1"/>
       <c r="AV146" s="20"/>
@@ -12775,44 +12784,44 @@
       <c r="M213" s="18"/>
       <c r="N213" s="18"/>
       <c r="O213" s="18"/>
-      <c r="P213" s="132" t="s">
+      <c r="P213" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="Q213" s="132"/>
-      <c r="R213" s="132"/>
-      <c r="S213" s="132"/>
-      <c r="T213" s="132"/>
-      <c r="U213" s="132"/>
-      <c r="V213" s="132"/>
-      <c r="W213" s="132"/>
-      <c r="X213" s="132"/>
-      <c r="Y213" s="132"/>
-      <c r="Z213" s="132"/>
-      <c r="AA213" s="132"/>
-      <c r="AB213" s="132"/>
-      <c r="AC213" s="132"/>
-      <c r="AD213" s="132"/>
-      <c r="AE213" s="132"/>
-      <c r="AF213" s="132"/>
-      <c r="AG213" s="132"/>
-      <c r="AH213" s="132"/>
-      <c r="AI213" s="132"/>
+      <c r="Q213" s="110"/>
+      <c r="R213" s="110"/>
+      <c r="S213" s="110"/>
+      <c r="T213" s="110"/>
+      <c r="U213" s="110"/>
+      <c r="V213" s="110"/>
+      <c r="W213" s="110"/>
+      <c r="X213" s="110"/>
+      <c r="Y213" s="110"/>
+      <c r="Z213" s="110"/>
+      <c r="AA213" s="110"/>
+      <c r="AB213" s="110"/>
+      <c r="AC213" s="110"/>
+      <c r="AD213" s="110"/>
+      <c r="AE213" s="110"/>
+      <c r="AF213" s="110"/>
+      <c r="AG213" s="110"/>
+      <c r="AH213" s="110"/>
+      <c r="AI213" s="110"/>
       <c r="AJ213" s="18"/>
-      <c r="AK213" s="122" t="s">
+      <c r="AK213" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AL213" s="123"/>
-      <c r="AM213" s="123"/>
-      <c r="AN213" s="136" t="str">
+      <c r="AL213" s="112"/>
+      <c r="AM213" s="112"/>
+      <c r="AN213" s="145" t="str">
         <f>AN2</f>
         <v>SJI-YY-NNN-M</v>
       </c>
-      <c r="AO213" s="136"/>
-      <c r="AP213" s="136"/>
-      <c r="AQ213" s="136"/>
-      <c r="AR213" s="136"/>
-      <c r="AS213" s="136"/>
-      <c r="AT213" s="137"/>
+      <c r="AO213" s="145"/>
+      <c r="AP213" s="145"/>
+      <c r="AQ213" s="145"/>
+      <c r="AR213" s="145"/>
+      <c r="AS213" s="145"/>
+      <c r="AT213" s="146"/>
       <c r="AU213" s="1"/>
       <c r="AV213" s="20"/>
       <c r="AW213" s="20"/>
@@ -12839,39 +12848,39 @@
       <c r="M214" s="18"/>
       <c r="N214" s="18"/>
       <c r="O214" s="18"/>
-      <c r="P214" s="132" t="s">
+      <c r="P214" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="Q214" s="132"/>
-      <c r="R214" s="132"/>
-      <c r="S214" s="132"/>
-      <c r="T214" s="132"/>
-      <c r="U214" s="132"/>
-      <c r="V214" s="132"/>
-      <c r="W214" s="132"/>
-      <c r="X214" s="132"/>
-      <c r="Y214" s="132"/>
-      <c r="Z214" s="132"/>
-      <c r="AA214" s="132"/>
-      <c r="AB214" s="132"/>
-      <c r="AC214" s="132"/>
-      <c r="AD214" s="132"/>
-      <c r="AE214" s="132"/>
-      <c r="AF214" s="132"/>
-      <c r="AG214" s="132"/>
-      <c r="AH214" s="132"/>
-      <c r="AI214" s="132"/>
+      <c r="Q214" s="110"/>
+      <c r="R214" s="110"/>
+      <c r="S214" s="110"/>
+      <c r="T214" s="110"/>
+      <c r="U214" s="110"/>
+      <c r="V214" s="110"/>
+      <c r="W214" s="110"/>
+      <c r="X214" s="110"/>
+      <c r="Y214" s="110"/>
+      <c r="Z214" s="110"/>
+      <c r="AA214" s="110"/>
+      <c r="AB214" s="110"/>
+      <c r="AC214" s="110"/>
+      <c r="AD214" s="110"/>
+      <c r="AE214" s="110"/>
+      <c r="AF214" s="110"/>
+      <c r="AG214" s="110"/>
+      <c r="AH214" s="110"/>
+      <c r="AI214" s="110"/>
       <c r="AJ214" s="18"/>
-      <c r="AK214" s="124"/>
-      <c r="AL214" s="125"/>
-      <c r="AM214" s="125"/>
-      <c r="AN214" s="138"/>
-      <c r="AO214" s="138"/>
-      <c r="AP214" s="138"/>
-      <c r="AQ214" s="138"/>
-      <c r="AR214" s="138"/>
-      <c r="AS214" s="138"/>
-      <c r="AT214" s="139"/>
+      <c r="AK214" s="113"/>
+      <c r="AL214" s="114"/>
+      <c r="AM214" s="114"/>
+      <c r="AN214" s="147"/>
+      <c r="AO214" s="147"/>
+      <c r="AP214" s="147"/>
+      <c r="AQ214" s="147"/>
+      <c r="AR214" s="147"/>
+      <c r="AS214" s="147"/>
+      <c r="AT214" s="148"/>
       <c r="AU214" s="1"/>
       <c r="AV214" s="20"/>
       <c r="AW214" s="20"/>
@@ -12901,51 +12910,51 @@
     <row r="216" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
-      <c r="C216" s="105" t="s">
+      <c r="C216" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="D216" s="105"/>
-      <c r="E216" s="105"/>
-      <c r="F216" s="105"/>
-      <c r="G216" s="105"/>
-      <c r="H216" s="105"/>
-      <c r="I216" s="105"/>
-      <c r="J216" s="105"/>
-      <c r="K216" s="105"/>
-      <c r="L216" s="105"/>
-      <c r="M216" s="105"/>
-      <c r="N216" s="105"/>
-      <c r="O216" s="105"/>
-      <c r="P216" s="105"/>
-      <c r="Q216" s="105"/>
-      <c r="R216" s="105"/>
-      <c r="S216" s="105"/>
-      <c r="T216" s="105"/>
-      <c r="U216" s="105"/>
-      <c r="V216" s="105"/>
-      <c r="W216" s="105"/>
-      <c r="X216" s="105"/>
-      <c r="Y216" s="105"/>
-      <c r="Z216" s="105"/>
-      <c r="AA216" s="105"/>
-      <c r="AB216" s="105"/>
-      <c r="AC216" s="105"/>
-      <c r="AD216" s="105"/>
-      <c r="AE216" s="105"/>
-      <c r="AF216" s="105"/>
-      <c r="AG216" s="105"/>
-      <c r="AH216" s="105"/>
-      <c r="AI216" s="105"/>
-      <c r="AJ216" s="105"/>
-      <c r="AK216" s="105"/>
-      <c r="AL216" s="105"/>
-      <c r="AM216" s="105"/>
-      <c r="AN216" s="105"/>
-      <c r="AO216" s="105"/>
-      <c r="AP216" s="105"/>
-      <c r="AQ216" s="105"/>
-      <c r="AR216" s="105"/>
-      <c r="AS216" s="105"/>
+      <c r="D216" s="152"/>
+      <c r="E216" s="152"/>
+      <c r="F216" s="152"/>
+      <c r="G216" s="152"/>
+      <c r="H216" s="152"/>
+      <c r="I216" s="152"/>
+      <c r="J216" s="152"/>
+      <c r="K216" s="152"/>
+      <c r="L216" s="152"/>
+      <c r="M216" s="152"/>
+      <c r="N216" s="152"/>
+      <c r="O216" s="152"/>
+      <c r="P216" s="152"/>
+      <c r="Q216" s="152"/>
+      <c r="R216" s="152"/>
+      <c r="S216" s="152"/>
+      <c r="T216" s="152"/>
+      <c r="U216" s="152"/>
+      <c r="V216" s="152"/>
+      <c r="W216" s="152"/>
+      <c r="X216" s="152"/>
+      <c r="Y216" s="152"/>
+      <c r="Z216" s="152"/>
+      <c r="AA216" s="152"/>
+      <c r="AB216" s="152"/>
+      <c r="AC216" s="152"/>
+      <c r="AD216" s="152"/>
+      <c r="AE216" s="152"/>
+      <c r="AF216" s="152"/>
+      <c r="AG216" s="152"/>
+      <c r="AH216" s="152"/>
+      <c r="AI216" s="152"/>
+      <c r="AJ216" s="152"/>
+      <c r="AK216" s="152"/>
+      <c r="AL216" s="152"/>
+      <c r="AM216" s="152"/>
+      <c r="AN216" s="152"/>
+      <c r="AO216" s="152"/>
+      <c r="AP216" s="152"/>
+      <c r="AQ216" s="152"/>
+      <c r="AR216" s="152"/>
+      <c r="AS216" s="152"/>
       <c r="AT216" s="18"/>
       <c r="AU216" s="1"/>
       <c r="AV216" s="20"/>
@@ -15956,6 +15965,338 @@
   </protectedRanges>
   <dataConsolidate/>
   <mergeCells count="356">
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO57:AR57"/>
+    <mergeCell ref="AO59:AR59"/>
+    <mergeCell ref="AO61:AR61"/>
+    <mergeCell ref="AO63:AR63"/>
+    <mergeCell ref="AO65:AR65"/>
+    <mergeCell ref="AO67:AR67"/>
+    <mergeCell ref="AO69:AR69"/>
+    <mergeCell ref="AP137:AQ137"/>
+    <mergeCell ref="B77:AR77"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="O90:W90"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="X93:AI93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="AD69:AH69"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="AD59:AH59"/>
+    <mergeCell ref="AD61:AH61"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="AD65:AH65"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="I50:W50"/>
+    <mergeCell ref="AB50:AH50"/>
+    <mergeCell ref="AP26:AT26"/>
+    <mergeCell ref="AP18:AT18"/>
+    <mergeCell ref="AP24:AT24"/>
+    <mergeCell ref="AJ16:AT16"/>
+    <mergeCell ref="AP46:AT46"/>
+    <mergeCell ref="AP44:AT44"/>
+    <mergeCell ref="AP20:AT20"/>
+    <mergeCell ref="AP22:AT22"/>
+    <mergeCell ref="AP30:AT30"/>
+    <mergeCell ref="AP36:AT36"/>
+    <mergeCell ref="AP34:AT34"/>
+    <mergeCell ref="AP42:AT42"/>
+    <mergeCell ref="AP28:AT28"/>
+    <mergeCell ref="AP38:AT38"/>
+    <mergeCell ref="AP32:AT32"/>
+    <mergeCell ref="B17:AH25"/>
+    <mergeCell ref="B26:AH33"/>
+    <mergeCell ref="B34:AH47"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AT3"/>
+    <mergeCell ref="AL9:AT9"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="H13:AT13"/>
+    <mergeCell ref="P2:AI2"/>
+    <mergeCell ref="P3:AI3"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="H7:Q7"/>
+    <mergeCell ref="X9:AF9"/>
+    <mergeCell ref="X7:AF7"/>
+    <mergeCell ref="H11:AF11"/>
+    <mergeCell ref="AL11:AT11"/>
+    <mergeCell ref="C5:AS5"/>
+    <mergeCell ref="O93:W93"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="C216:AS216"/>
+    <mergeCell ref="C146:AS146"/>
+    <mergeCell ref="P213:AI213"/>
+    <mergeCell ref="AK213:AM214"/>
+    <mergeCell ref="AN213:AT214"/>
+    <mergeCell ref="P214:AI214"/>
+    <mergeCell ref="AS137:AT137"/>
+    <mergeCell ref="AJ139:AT139"/>
+    <mergeCell ref="P137:Y137"/>
+    <mergeCell ref="P139:Y139"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="O92:W92"/>
+    <mergeCell ref="B123:AT123"/>
+    <mergeCell ref="Z125:AC125"/>
+    <mergeCell ref="AD125:AM125"/>
+    <mergeCell ref="AN125:AQ125"/>
+    <mergeCell ref="AR125:AT125"/>
+    <mergeCell ref="B95:AT95"/>
+    <mergeCell ref="B96:AT96"/>
+    <mergeCell ref="C97:AS97"/>
+    <mergeCell ref="B99:AT99"/>
+    <mergeCell ref="AM79:AM84"/>
+    <mergeCell ref="AN79:AN84"/>
+    <mergeCell ref="AO79:AO84"/>
+    <mergeCell ref="AP79:AP84"/>
+    <mergeCell ref="AQ79:AQ84"/>
+    <mergeCell ref="AR79:AR84"/>
+    <mergeCell ref="AS79:AS84"/>
+    <mergeCell ref="AT79:AT84"/>
+    <mergeCell ref="P143:AI143"/>
+    <mergeCell ref="AK143:AM144"/>
+    <mergeCell ref="AN143:AT144"/>
+    <mergeCell ref="P144:AI144"/>
+    <mergeCell ref="X90:AI90"/>
+    <mergeCell ref="X91:AI91"/>
+    <mergeCell ref="X92:AI92"/>
+    <mergeCell ref="C133:AS133"/>
+    <mergeCell ref="AP135:AQ135"/>
+    <mergeCell ref="AS135:AT135"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="X84:AI84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="X85:AI85"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="AJ79:AJ84"/>
+    <mergeCell ref="AK79:AK84"/>
+    <mergeCell ref="AL79:AL84"/>
+    <mergeCell ref="O84:W84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="O85:W85"/>
+    <mergeCell ref="X86:AI86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="X87:AI87"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="O86:W86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="O87:W87"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="X88:AI88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="X89:AI89"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="O88:W88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="O89:W89"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B109:AT109"/>
+    <mergeCell ref="AD104:AM104"/>
+    <mergeCell ref="AN104:AQ104"/>
+    <mergeCell ref="AR104:AT104"/>
+    <mergeCell ref="Z105:AC105"/>
+    <mergeCell ref="AD105:AM105"/>
+    <mergeCell ref="AN105:AQ105"/>
+    <mergeCell ref="AR105:AT105"/>
+    <mergeCell ref="Z106:AC106"/>
+    <mergeCell ref="AD106:AM106"/>
+    <mergeCell ref="AN106:AQ106"/>
+    <mergeCell ref="AR106:AT106"/>
+    <mergeCell ref="Z127:AC127"/>
+    <mergeCell ref="AD127:AM127"/>
+    <mergeCell ref="AN127:AQ127"/>
+    <mergeCell ref="AR127:AT127"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AM128"/>
+    <mergeCell ref="AN128:AQ128"/>
+    <mergeCell ref="AR128:AT128"/>
+    <mergeCell ref="Z126:AC126"/>
+    <mergeCell ref="AD126:AM126"/>
+    <mergeCell ref="AN126:AQ126"/>
+    <mergeCell ref="AR126:AT126"/>
+    <mergeCell ref="Z131:AC131"/>
+    <mergeCell ref="AD131:AM131"/>
+    <mergeCell ref="AN131:AQ131"/>
+    <mergeCell ref="AR131:AT131"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="G125:Q125"/>
+    <mergeCell ref="R125:U125"/>
+    <mergeCell ref="V125:X125"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="G126:Q126"/>
+    <mergeCell ref="R126:U126"/>
+    <mergeCell ref="V126:X126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="G127:Q127"/>
+    <mergeCell ref="R127:U127"/>
+    <mergeCell ref="V127:X127"/>
+    <mergeCell ref="Z129:AC129"/>
+    <mergeCell ref="AD129:AM129"/>
+    <mergeCell ref="AN129:AQ129"/>
+    <mergeCell ref="AR129:AT129"/>
+    <mergeCell ref="Z130:AC130"/>
+    <mergeCell ref="AD130:AM130"/>
+    <mergeCell ref="AN130:AQ130"/>
+    <mergeCell ref="AR130:AT130"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="G111:Q111"/>
+    <mergeCell ref="R111:U111"/>
+    <mergeCell ref="V111:X111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="G112:Q112"/>
+    <mergeCell ref="R112:U112"/>
+    <mergeCell ref="V112:X112"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="G131:Q131"/>
+    <mergeCell ref="R131:U131"/>
+    <mergeCell ref="V131:X131"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="G130:Q130"/>
+    <mergeCell ref="R130:U130"/>
+    <mergeCell ref="V130:X130"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="G128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:X128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="G129:Q129"/>
+    <mergeCell ref="R129:U129"/>
+    <mergeCell ref="V129:X129"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="G116:Q116"/>
+    <mergeCell ref="R116:U116"/>
+    <mergeCell ref="V116:X116"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="G113:Q113"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="V113:X113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="G114:Q114"/>
+    <mergeCell ref="R114:U114"/>
+    <mergeCell ref="V114:X114"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="G121:Q121"/>
+    <mergeCell ref="R121:U121"/>
+    <mergeCell ref="V121:X121"/>
+    <mergeCell ref="Z111:AC111"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="Z115:AC115"/>
+    <mergeCell ref="Z117:AC117"/>
+    <mergeCell ref="Z120:AC120"/>
+    <mergeCell ref="Z121:AC121"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="G120:Q120"/>
+    <mergeCell ref="R120:U120"/>
+    <mergeCell ref="V120:X120"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="G117:Q117"/>
+    <mergeCell ref="R117:U117"/>
+    <mergeCell ref="V117:X117"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="G119:Q119"/>
+    <mergeCell ref="R119:U119"/>
+    <mergeCell ref="V119:X119"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="G115:Q115"/>
+    <mergeCell ref="AN119:AQ119"/>
+    <mergeCell ref="AR119:AT119"/>
+    <mergeCell ref="AD115:AM115"/>
+    <mergeCell ref="AN115:AQ115"/>
+    <mergeCell ref="AR115:AT115"/>
+    <mergeCell ref="Z116:AC116"/>
+    <mergeCell ref="AD116:AM116"/>
+    <mergeCell ref="AN116:AQ116"/>
+    <mergeCell ref="AR116:AT116"/>
+    <mergeCell ref="AD121:AM121"/>
+    <mergeCell ref="AN121:AQ121"/>
+    <mergeCell ref="AR121:AT121"/>
+    <mergeCell ref="Z101:AC101"/>
+    <mergeCell ref="AD101:AM101"/>
+    <mergeCell ref="AN101:AQ101"/>
+    <mergeCell ref="AR101:AT101"/>
+    <mergeCell ref="Z102:AC102"/>
+    <mergeCell ref="AD102:AM102"/>
+    <mergeCell ref="AN102:AQ102"/>
+    <mergeCell ref="AR102:AT102"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AM103"/>
+    <mergeCell ref="AN103:AQ103"/>
+    <mergeCell ref="AR103:AT103"/>
+    <mergeCell ref="Z104:AC104"/>
+    <mergeCell ref="AD120:AM120"/>
+    <mergeCell ref="AN120:AQ120"/>
+    <mergeCell ref="AR120:AT120"/>
+    <mergeCell ref="AD117:AM117"/>
+    <mergeCell ref="AN117:AQ117"/>
+    <mergeCell ref="AR117:AT117"/>
+    <mergeCell ref="Z119:AC119"/>
+    <mergeCell ref="AD119:AM119"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:X103"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="V104:X104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:Q105"/>
+    <mergeCell ref="R105:U105"/>
+    <mergeCell ref="P74:AI74"/>
+    <mergeCell ref="AK74:AM75"/>
+    <mergeCell ref="AN74:AT75"/>
+    <mergeCell ref="P75:AI75"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="G107:Q107"/>
+    <mergeCell ref="R107:U107"/>
+    <mergeCell ref="V107:X107"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="G106:Q106"/>
+    <mergeCell ref="Z107:AC107"/>
+    <mergeCell ref="AD107:AM107"/>
+    <mergeCell ref="AN107:AQ107"/>
+    <mergeCell ref="AR107:AT107"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:Q101"/>
+    <mergeCell ref="R101:U101"/>
+    <mergeCell ref="V101:X101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:Q102"/>
+    <mergeCell ref="R106:U106"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="R102:U102"/>
+    <mergeCell ref="V102:X102"/>
     <mergeCell ref="AD111:AM111"/>
     <mergeCell ref="AN111:AQ111"/>
     <mergeCell ref="AR111:AT111"/>
@@ -15980,338 +16321,6 @@
     <mergeCell ref="AR114:AT114"/>
     <mergeCell ref="R115:U115"/>
     <mergeCell ref="V115:X115"/>
-    <mergeCell ref="P74:AI74"/>
-    <mergeCell ref="AK74:AM75"/>
-    <mergeCell ref="AN74:AT75"/>
-    <mergeCell ref="P75:AI75"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="G107:Q107"/>
-    <mergeCell ref="R107:U107"/>
-    <mergeCell ref="V107:X107"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="G106:Q106"/>
-    <mergeCell ref="Z107:AC107"/>
-    <mergeCell ref="AD107:AM107"/>
-    <mergeCell ref="AN107:AQ107"/>
-    <mergeCell ref="AR107:AT107"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:Q101"/>
-    <mergeCell ref="R101:U101"/>
-    <mergeCell ref="V101:X101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:Q102"/>
-    <mergeCell ref="R106:U106"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="R102:U102"/>
-    <mergeCell ref="V102:X102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="G103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:X103"/>
-    <mergeCell ref="V106:X106"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="V104:X104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:Q105"/>
-    <mergeCell ref="R105:U105"/>
-    <mergeCell ref="AD121:AM121"/>
-    <mergeCell ref="AN121:AQ121"/>
-    <mergeCell ref="AR121:AT121"/>
-    <mergeCell ref="Z101:AC101"/>
-    <mergeCell ref="AD101:AM101"/>
-    <mergeCell ref="AN101:AQ101"/>
-    <mergeCell ref="AR101:AT101"/>
-    <mergeCell ref="Z102:AC102"/>
-    <mergeCell ref="AD102:AM102"/>
-    <mergeCell ref="AN102:AQ102"/>
-    <mergeCell ref="AR102:AT102"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AM103"/>
-    <mergeCell ref="AN103:AQ103"/>
-    <mergeCell ref="AR103:AT103"/>
-    <mergeCell ref="Z104:AC104"/>
-    <mergeCell ref="AD120:AM120"/>
-    <mergeCell ref="AN120:AQ120"/>
-    <mergeCell ref="AR120:AT120"/>
-    <mergeCell ref="AD117:AM117"/>
-    <mergeCell ref="AN117:AQ117"/>
-    <mergeCell ref="AR117:AT117"/>
-    <mergeCell ref="Z119:AC119"/>
-    <mergeCell ref="AD119:AM119"/>
-    <mergeCell ref="AN119:AQ119"/>
-    <mergeCell ref="AR119:AT119"/>
-    <mergeCell ref="AD115:AM115"/>
-    <mergeCell ref="AN115:AQ115"/>
-    <mergeCell ref="AR115:AT115"/>
-    <mergeCell ref="Z116:AC116"/>
-    <mergeCell ref="AD116:AM116"/>
-    <mergeCell ref="AN116:AQ116"/>
-    <mergeCell ref="AR116:AT116"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="G121:Q121"/>
-    <mergeCell ref="R121:U121"/>
-    <mergeCell ref="V121:X121"/>
-    <mergeCell ref="Z111:AC111"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="Z115:AC115"/>
-    <mergeCell ref="Z117:AC117"/>
-    <mergeCell ref="Z120:AC120"/>
-    <mergeCell ref="Z121:AC121"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="G120:Q120"/>
-    <mergeCell ref="R120:U120"/>
-    <mergeCell ref="V120:X120"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="G117:Q117"/>
-    <mergeCell ref="R117:U117"/>
-    <mergeCell ref="V117:X117"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="G119:Q119"/>
-    <mergeCell ref="R119:U119"/>
-    <mergeCell ref="V119:X119"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="G115:Q115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="G116:Q116"/>
-    <mergeCell ref="R116:U116"/>
-    <mergeCell ref="V116:X116"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="G113:Q113"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="V113:X113"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="G114:Q114"/>
-    <mergeCell ref="R114:U114"/>
-    <mergeCell ref="V114:X114"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="G111:Q111"/>
-    <mergeCell ref="R111:U111"/>
-    <mergeCell ref="V111:X111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="G112:Q112"/>
-    <mergeCell ref="R112:U112"/>
-    <mergeCell ref="V112:X112"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="G131:Q131"/>
-    <mergeCell ref="R131:U131"/>
-    <mergeCell ref="V131:X131"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="G130:Q130"/>
-    <mergeCell ref="R130:U130"/>
-    <mergeCell ref="V130:X130"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="G128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:X128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="G129:Q129"/>
-    <mergeCell ref="R129:U129"/>
-    <mergeCell ref="V129:X129"/>
-    <mergeCell ref="Z131:AC131"/>
-    <mergeCell ref="AD131:AM131"/>
-    <mergeCell ref="AN131:AQ131"/>
-    <mergeCell ref="AR131:AT131"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="G125:Q125"/>
-    <mergeCell ref="R125:U125"/>
-    <mergeCell ref="V125:X125"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="G126:Q126"/>
-    <mergeCell ref="R126:U126"/>
-    <mergeCell ref="V126:X126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="G127:Q127"/>
-    <mergeCell ref="R127:U127"/>
-    <mergeCell ref="V127:X127"/>
-    <mergeCell ref="Z129:AC129"/>
-    <mergeCell ref="AD129:AM129"/>
-    <mergeCell ref="AN129:AQ129"/>
-    <mergeCell ref="AR129:AT129"/>
-    <mergeCell ref="Z130:AC130"/>
-    <mergeCell ref="AD130:AM130"/>
-    <mergeCell ref="AN130:AQ130"/>
-    <mergeCell ref="AR130:AT130"/>
-    <mergeCell ref="Z127:AC127"/>
-    <mergeCell ref="AD127:AM127"/>
-    <mergeCell ref="AN127:AQ127"/>
-    <mergeCell ref="AR127:AT127"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AM128"/>
-    <mergeCell ref="AN128:AQ128"/>
-    <mergeCell ref="AR128:AT128"/>
-    <mergeCell ref="Z126:AC126"/>
-    <mergeCell ref="AD126:AM126"/>
-    <mergeCell ref="AN126:AQ126"/>
-    <mergeCell ref="AR126:AT126"/>
-    <mergeCell ref="B109:AT109"/>
-    <mergeCell ref="AD104:AM104"/>
-    <mergeCell ref="AN104:AQ104"/>
-    <mergeCell ref="AR104:AT104"/>
-    <mergeCell ref="Z105:AC105"/>
-    <mergeCell ref="AD105:AM105"/>
-    <mergeCell ref="AN105:AQ105"/>
-    <mergeCell ref="AR105:AT105"/>
-    <mergeCell ref="Z106:AC106"/>
-    <mergeCell ref="AD106:AM106"/>
-    <mergeCell ref="AN106:AQ106"/>
-    <mergeCell ref="AR106:AT106"/>
-    <mergeCell ref="X88:AI88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="X89:AI89"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="O88:W88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="O89:W89"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="X86:AI86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="X87:AI87"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="O86:W86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="O87:W87"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="X84:AI84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="X85:AI85"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="AJ79:AJ84"/>
-    <mergeCell ref="AK79:AK84"/>
-    <mergeCell ref="AL79:AL84"/>
-    <mergeCell ref="O84:W84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="O85:W85"/>
-    <mergeCell ref="AM79:AM84"/>
-    <mergeCell ref="AN79:AN84"/>
-    <mergeCell ref="AO79:AO84"/>
-    <mergeCell ref="AP79:AP84"/>
-    <mergeCell ref="AQ79:AQ84"/>
-    <mergeCell ref="AR79:AR84"/>
-    <mergeCell ref="AS79:AS84"/>
-    <mergeCell ref="AT79:AT84"/>
-    <mergeCell ref="P143:AI143"/>
-    <mergeCell ref="AK143:AM144"/>
-    <mergeCell ref="AN143:AT144"/>
-    <mergeCell ref="P144:AI144"/>
-    <mergeCell ref="X90:AI90"/>
-    <mergeCell ref="X91:AI91"/>
-    <mergeCell ref="X92:AI92"/>
-    <mergeCell ref="C133:AS133"/>
-    <mergeCell ref="AP135:AQ135"/>
-    <mergeCell ref="AS135:AT135"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:W91"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="O93:W93"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="C216:AS216"/>
-    <mergeCell ref="C146:AS146"/>
-    <mergeCell ref="P213:AI213"/>
-    <mergeCell ref="AK213:AM214"/>
-    <mergeCell ref="AN213:AT214"/>
-    <mergeCell ref="P214:AI214"/>
-    <mergeCell ref="AS137:AT137"/>
-    <mergeCell ref="AJ139:AT139"/>
-    <mergeCell ref="P137:Y137"/>
-    <mergeCell ref="P139:Y139"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="O92:W92"/>
-    <mergeCell ref="B123:AT123"/>
-    <mergeCell ref="Z125:AC125"/>
-    <mergeCell ref="AD125:AM125"/>
-    <mergeCell ref="AN125:AQ125"/>
-    <mergeCell ref="AR125:AT125"/>
-    <mergeCell ref="B95:AT95"/>
-    <mergeCell ref="B96:AT96"/>
-    <mergeCell ref="C97:AS97"/>
-    <mergeCell ref="B99:AT99"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AT3"/>
-    <mergeCell ref="AL9:AT9"/>
-    <mergeCell ref="AL7:AT7"/>
-    <mergeCell ref="H13:AT13"/>
-    <mergeCell ref="P2:AI2"/>
-    <mergeCell ref="P3:AI3"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="H7:Q7"/>
-    <mergeCell ref="X9:AF9"/>
-    <mergeCell ref="X7:AF7"/>
-    <mergeCell ref="H11:AF11"/>
-    <mergeCell ref="AL11:AT11"/>
-    <mergeCell ref="C5:AS5"/>
-    <mergeCell ref="I50:W50"/>
-    <mergeCell ref="AB50:AH50"/>
-    <mergeCell ref="AP26:AT26"/>
-    <mergeCell ref="AP18:AT18"/>
-    <mergeCell ref="AP24:AT24"/>
-    <mergeCell ref="AJ16:AT16"/>
-    <mergeCell ref="AP46:AT46"/>
-    <mergeCell ref="AP44:AT44"/>
-    <mergeCell ref="AP20:AT20"/>
-    <mergeCell ref="AP22:AT22"/>
-    <mergeCell ref="AP30:AT30"/>
-    <mergeCell ref="AP36:AT36"/>
-    <mergeCell ref="AP34:AT34"/>
-    <mergeCell ref="AP42:AT42"/>
-    <mergeCell ref="AP28:AT28"/>
-    <mergeCell ref="AP38:AT38"/>
-    <mergeCell ref="AP32:AT32"/>
-    <mergeCell ref="B17:AH25"/>
-    <mergeCell ref="B26:AH33"/>
-    <mergeCell ref="B34:AH47"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="AD69:AH69"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="AD59:AH59"/>
-    <mergeCell ref="AD61:AH61"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="AD65:AH65"/>
-    <mergeCell ref="AD67:AH67"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO57:AR57"/>
-    <mergeCell ref="AO59:AR59"/>
-    <mergeCell ref="AO61:AR61"/>
-    <mergeCell ref="AO63:AR63"/>
-    <mergeCell ref="AO65:AR65"/>
-    <mergeCell ref="AO67:AR67"/>
-    <mergeCell ref="AO69:AR69"/>
-    <mergeCell ref="AP137:AQ137"/>
-    <mergeCell ref="B77:AR77"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="O90:W90"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="X93:AI93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="J93:N93"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.22053571428571428" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16347,13 +16356,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="172" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="175"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="174"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">

--- a/Flex_SGM/obj/Release/Package/PackageTmp/Templates/TemplatePCR.xlsx
+++ b/Flex_SGM/obj/Release/Package/PackageTmp/Templates/TemplatePCR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjimautomatizacion1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcamacho\source\repos\flexngate\Bitacora\Bitacora\Flex_SGM\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4152D807-D6F9-43E7-86FD-D58336545869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="825" windowWidth="12120" windowHeight="7320" tabRatio="284"/>
+    <workbookView xWindow="480" yWindow="825" windowWidth="12120" windowHeight="7320" tabRatio="284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCR" sheetId="8" r:id="rId1"/>
@@ -19,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">PCR!$A$1:$AU$211</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="222">
   <si>
     <t>Part Name:</t>
   </si>
@@ -703,7 +704,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
@@ -1566,29 +1567,82 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1618,23 +1672,49 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1644,6 +1724,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1657,14 +1764,20 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1681,121 +1794,26 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1806,29 +1824,12 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 3 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2145,7 +2146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2220,6 +2221,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2255,6 +2273,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2430,17 +2465,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BD277"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AO57" sqref="AO57:AR57"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AN74" sqref="AN74:AT75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="1" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="1" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="2.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="1" style="2" customWidth="1"/>
@@ -2528,43 +2563,43 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
-      <c r="P2" s="110" t="s">
+      <c r="P2" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="110"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="137"/>
       <c r="AJ2" s="18"/>
-      <c r="AK2" s="111" t="s">
+      <c r="AK2" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="115" t="s">
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="115"/>
-      <c r="AT2" s="116"/>
+      <c r="AO2" s="132"/>
+      <c r="AP2" s="132"/>
+      <c r="AQ2" s="132"/>
+      <c r="AR2" s="132"/>
+      <c r="AS2" s="132"/>
+      <c r="AT2" s="133"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="20"/>
       <c r="AW2" s="20"/>
@@ -2589,39 +2624,39 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
-      <c r="P3" s="110" t="s">
+      <c r="P3" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="110"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="137"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="137"/>
+      <c r="AI3" s="137"/>
       <c r="AJ3" s="18"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="117"/>
-      <c r="AO3" s="117"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="117"/>
-      <c r="AR3" s="117"/>
-      <c r="AS3" s="117"/>
-      <c r="AT3" s="118"/>
+      <c r="AK3" s="130"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="20"/>
       <c r="AW3" s="20"/>
@@ -2647,51 +2682,51 @@
     <row r="5" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="152"/>
-      <c r="N5" s="152"/>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="152"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
-      <c r="AE5" s="152"/>
-      <c r="AF5" s="152"/>
-      <c r="AG5" s="152"/>
-      <c r="AH5" s="152"/>
-      <c r="AI5" s="152"/>
-      <c r="AJ5" s="152"/>
-      <c r="AK5" s="152"/>
-      <c r="AL5" s="152"/>
-      <c r="AM5" s="152"/>
-      <c r="AN5" s="152"/>
-      <c r="AO5" s="152"/>
-      <c r="AP5" s="152"/>
-      <c r="AQ5" s="152"/>
-      <c r="AR5" s="152"/>
-      <c r="AS5" s="152"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
       <c r="AT5" s="18"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="20"/>
@@ -2763,18 +2798,18 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="162" t="s">
+      <c r="H7" s="138" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="162"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
       <c r="R7" s="6"/>
       <c r="S7" s="15" t="s">
         <v>29</v>
@@ -2783,34 +2818,34 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="162" t="s">
+      <c r="X7" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="162"/>
-      <c r="AA7" s="162"/>
-      <c r="AB7" s="162"/>
-      <c r="AC7" s="162"/>
-      <c r="AD7" s="162"/>
-      <c r="AE7" s="162"/>
-      <c r="AF7" s="162"/>
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="138"/>
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="138"/>
+      <c r="AF7" s="138"/>
       <c r="AH7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-      <c r="AL7" s="160" t="s">
+      <c r="AL7" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="AM7" s="160"/>
-      <c r="AN7" s="160"/>
-      <c r="AO7" s="160"/>
-      <c r="AP7" s="160"/>
-      <c r="AQ7" s="160"/>
-      <c r="AR7" s="160"/>
-      <c r="AS7" s="160"/>
-      <c r="AT7" s="160"/>
+      <c r="AM7" s="126"/>
+      <c r="AN7" s="126"/>
+      <c r="AO7" s="126"/>
+      <c r="AP7" s="126"/>
+      <c r="AQ7" s="126"/>
+      <c r="AR7" s="126"/>
+      <c r="AS7" s="126"/>
+      <c r="AT7" s="126"/>
       <c r="AU7" s="8"/>
     </row>
     <row r="8" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2870,18 +2905,18 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="162" t="s">
+      <c r="H9" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
       <c r="R9" s="6"/>
       <c r="S9" s="15" t="s">
         <v>30</v>
@@ -2890,34 +2925,34 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="162" t="s">
+      <c r="X9" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="Y9" s="162"/>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="162"/>
-      <c r="AC9" s="162"/>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="162"/>
-      <c r="AF9" s="162"/>
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="138"/>
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="138"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="138"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="138"/>
       <c r="AH9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AL9" s="160" t="s">
+      <c r="AL9" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="AM9" s="160"/>
-      <c r="AN9" s="160"/>
-      <c r="AO9" s="160"/>
-      <c r="AP9" s="160"/>
-      <c r="AQ9" s="160"/>
-      <c r="AR9" s="160"/>
-      <c r="AS9" s="160"/>
-      <c r="AT9" s="160"/>
+      <c r="AM9" s="126"/>
+      <c r="AN9" s="126"/>
+      <c r="AO9" s="126"/>
+      <c r="AP9" s="126"/>
+      <c r="AQ9" s="126"/>
+      <c r="AR9" s="126"/>
+      <c r="AS9" s="126"/>
+      <c r="AT9" s="126"/>
       <c r="AU9" s="8"/>
     </row>
     <row r="10" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2977,50 +3012,50 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="162" t="s">
+      <c r="H11" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="162"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="162"/>
-      <c r="AF11" s="162"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="138"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="138"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="138"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="138"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="138"/>
       <c r="AH11" s="53" t="s">
         <v>25</v>
       </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-      <c r="AL11" s="175" t="s">
+      <c r="AL11" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="AM11" s="175"/>
-      <c r="AN11" s="175"/>
-      <c r="AO11" s="175"/>
-      <c r="AP11" s="175"/>
-      <c r="AQ11" s="175"/>
-      <c r="AR11" s="175"/>
-      <c r="AS11" s="175"/>
-      <c r="AT11" s="175"/>
+      <c r="AM11" s="139"/>
+      <c r="AN11" s="139"/>
+      <c r="AO11" s="139"/>
+      <c r="AP11" s="139"/>
+      <c r="AQ11" s="139"/>
+      <c r="AR11" s="139"/>
+      <c r="AS11" s="139"/>
+      <c r="AT11" s="139"/>
       <c r="AU11" s="8"/>
     </row>
     <row r="12" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3080,47 +3115,47 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="161" t="s">
+      <c r="H13" s="136" t="s">
         <v>170</v>
       </c>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="161"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="161"/>
-      <c r="X13" s="161"/>
-      <c r="Y13" s="161"/>
-      <c r="Z13" s="161"/>
-      <c r="AA13" s="161"/>
-      <c r="AB13" s="161"/>
-      <c r="AC13" s="161"/>
-      <c r="AD13" s="161"/>
-      <c r="AE13" s="161"/>
-      <c r="AF13" s="161"/>
-      <c r="AG13" s="161"/>
-      <c r="AH13" s="161"/>
-      <c r="AI13" s="161"/>
-      <c r="AJ13" s="161"/>
-      <c r="AK13" s="161"/>
-      <c r="AL13" s="161"/>
-      <c r="AM13" s="161"/>
-      <c r="AN13" s="161"/>
-      <c r="AO13" s="161"/>
-      <c r="AP13" s="161"/>
-      <c r="AQ13" s="161"/>
-      <c r="AR13" s="161"/>
-      <c r="AS13" s="161"/>
-      <c r="AT13" s="161"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="136"/>
+      <c r="AB13" s="136"/>
+      <c r="AC13" s="136"/>
+      <c r="AD13" s="136"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="136"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="136"/>
+      <c r="AJ13" s="136"/>
+      <c r="AK13" s="136"/>
+      <c r="AL13" s="136"/>
+      <c r="AM13" s="136"/>
+      <c r="AN13" s="136"/>
+      <c r="AO13" s="136"/>
+      <c r="AP13" s="136"/>
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="136"/>
+      <c r="AT13" s="136"/>
       <c r="AU13" s="8"/>
     </row>
     <row r="14" spans="1:56" s="20" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3258,58 +3293,58 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
-      <c r="AJ16" s="165" t="s">
+      <c r="AJ16" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="AK16" s="165"/>
-      <c r="AL16" s="165"/>
-      <c r="AM16" s="165"/>
-      <c r="AN16" s="165"/>
-      <c r="AO16" s="165"/>
-      <c r="AP16" s="165"/>
-      <c r="AQ16" s="165"/>
-      <c r="AR16" s="165"/>
-      <c r="AS16" s="165"/>
-      <c r="AT16" s="165"/>
+      <c r="AK16" s="125"/>
+      <c r="AL16" s="125"/>
+      <c r="AM16" s="125"/>
+      <c r="AN16" s="125"/>
+      <c r="AO16" s="125"/>
+      <c r="AP16" s="125"/>
+      <c r="AQ16" s="125"/>
+      <c r="AR16" s="125"/>
+      <c r="AS16" s="125"/>
+      <c r="AT16" s="125"/>
       <c r="AU16" s="8"/>
     </row>
     <row r="17" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
-      <c r="B17" s="166" t="s">
+      <c r="B17" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="166"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="166"/>
-      <c r="V17" s="166"/>
-      <c r="W17" s="166"/>
-      <c r="X17" s="166"/>
-      <c r="Y17" s="166"/>
-      <c r="Z17" s="166"/>
-      <c r="AA17" s="166"/>
-      <c r="AB17" s="166"/>
-      <c r="AC17" s="166"/>
-      <c r="AD17" s="166"/>
-      <c r="AE17" s="166"/>
-      <c r="AF17" s="166"/>
-      <c r="AG17" s="166"/>
-      <c r="AH17" s="166"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="127"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
@@ -3326,39 +3361,39 @@
     </row>
     <row r="18" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="166"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="166"/>
-      <c r="Z18" s="166"/>
-      <c r="AA18" s="166"/>
-      <c r="AB18" s="166"/>
-      <c r="AC18" s="166"/>
-      <c r="AD18" s="166"/>
-      <c r="AE18" s="166"/>
-      <c r="AF18" s="166"/>
-      <c r="AG18" s="166"/>
-      <c r="AH18" s="166"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="127"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="127"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="8" t="s">
         <v>47</v>
@@ -3370,50 +3405,50 @@
       <c r="AO18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP18" s="176" t="s">
+      <c r="AP18" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="AQ18" s="176"/>
-      <c r="AR18" s="176"/>
-      <c r="AS18" s="176"/>
-      <c r="AT18" s="176"/>
+      <c r="AQ18" s="124"/>
+      <c r="AR18" s="124"/>
+      <c r="AS18" s="124"/>
+      <c r="AT18" s="124"/>
       <c r="AU18" s="8"/>
     </row>
     <row r="19" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="166"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="166"/>
-      <c r="T19" s="166"/>
-      <c r="U19" s="166"/>
-      <c r="V19" s="166"/>
-      <c r="W19" s="166"/>
-      <c r="X19" s="166"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="166"/>
-      <c r="AA19" s="166"/>
-      <c r="AB19" s="166"/>
-      <c r="AC19" s="166"/>
-      <c r="AD19" s="166"/>
-      <c r="AE19" s="166"/>
-      <c r="AF19" s="166"/>
-      <c r="AG19" s="166"/>
-      <c r="AH19" s="166"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="127"/>
+      <c r="AF19" s="127"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="127"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="11"/>
       <c r="AK19" s="7"/>
@@ -3421,48 +3456,48 @@
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
-      <c r="AP19" s="177"/>
-      <c r="AQ19" s="177"/>
-      <c r="AR19" s="177"/>
-      <c r="AS19" s="177"/>
-      <c r="AT19" s="177"/>
+      <c r="AP19" s="103"/>
+      <c r="AQ19" s="103"/>
+      <c r="AR19" s="103"/>
+      <c r="AS19" s="103"/>
+      <c r="AT19" s="103"/>
       <c r="AU19" s="8"/>
     </row>
     <row r="20" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="166"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="166"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="166"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="166"/>
-      <c r="Y20" s="166"/>
-      <c r="Z20" s="166"/>
-      <c r="AA20" s="166"/>
-      <c r="AB20" s="166"/>
-      <c r="AC20" s="166"/>
-      <c r="AD20" s="166"/>
-      <c r="AE20" s="166"/>
-      <c r="AF20" s="166"/>
-      <c r="AG20" s="166"/>
-      <c r="AH20" s="166"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8" t="s">
         <v>41</v>
@@ -3474,50 +3509,50 @@
       <c r="AO20" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP20" s="176" t="s">
+      <c r="AP20" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="AQ20" s="176"/>
-      <c r="AR20" s="176"/>
-      <c r="AS20" s="176"/>
-      <c r="AT20" s="176"/>
+      <c r="AQ20" s="124"/>
+      <c r="AR20" s="124"/>
+      <c r="AS20" s="124"/>
+      <c r="AT20" s="124"/>
       <c r="AU20" s="8"/>
     </row>
     <row r="21" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="166"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="166"/>
-      <c r="T21" s="166"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="166"/>
-      <c r="X21" s="166"/>
-      <c r="Y21" s="166"/>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="166"/>
-      <c r="AB21" s="166"/>
-      <c r="AC21" s="166"/>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="166"/>
-      <c r="AF21" s="166"/>
-      <c r="AG21" s="166"/>
-      <c r="AH21" s="166"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="127"/>
+      <c r="AF21" s="127"/>
+      <c r="AG21" s="127"/>
+      <c r="AH21" s="127"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="7"/>
@@ -3525,48 +3560,48 @@
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="7"/>
-      <c r="AP21" s="177"/>
-      <c r="AQ21" s="177"/>
-      <c r="AR21" s="177"/>
-      <c r="AS21" s="177"/>
-      <c r="AT21" s="177"/>
+      <c r="AP21" s="103"/>
+      <c r="AQ21" s="103"/>
+      <c r="AR21" s="103"/>
+      <c r="AS21" s="103"/>
+      <c r="AT21" s="103"/>
       <c r="AU21" s="8"/>
     </row>
     <row r="22" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="166"/>
-      <c r="V22" s="166"/>
-      <c r="W22" s="166"/>
-      <c r="X22" s="166"/>
-      <c r="Y22" s="166"/>
-      <c r="Z22" s="166"/>
-      <c r="AA22" s="166"/>
-      <c r="AB22" s="166"/>
-      <c r="AC22" s="166"/>
-      <c r="AD22" s="166"/>
-      <c r="AE22" s="166"/>
-      <c r="AF22" s="166"/>
-      <c r="AG22" s="166"/>
-      <c r="AH22" s="166"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="127"/>
+      <c r="AF22" s="127"/>
+      <c r="AG22" s="127"/>
+      <c r="AH22" s="127"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8" t="s">
         <v>39</v>
@@ -3578,50 +3613,50 @@
       <c r="AO22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP22" s="176" t="s">
+      <c r="AP22" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="AQ22" s="176"/>
-      <c r="AR22" s="176"/>
-      <c r="AS22" s="176"/>
-      <c r="AT22" s="176"/>
+      <c r="AQ22" s="124"/>
+      <c r="AR22" s="124"/>
+      <c r="AS22" s="124"/>
+      <c r="AT22" s="124"/>
       <c r="AU22" s="8"/>
     </row>
     <row r="23" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="166"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="166"/>
-      <c r="T23" s="166"/>
-      <c r="U23" s="166"/>
-      <c r="V23" s="166"/>
-      <c r="W23" s="166"/>
-      <c r="X23" s="166"/>
-      <c r="Y23" s="166"/>
-      <c r="Z23" s="166"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="166"/>
-      <c r="AC23" s="166"/>
-      <c r="AD23" s="166"/>
-      <c r="AE23" s="166"/>
-      <c r="AF23" s="166"/>
-      <c r="AG23" s="166"/>
-      <c r="AH23" s="166"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="127"/>
+      <c r="AF23" s="127"/>
+      <c r="AG23" s="127"/>
+      <c r="AH23" s="127"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
@@ -3629,48 +3664,48 @@
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
-      <c r="AP23" s="178"/>
-      <c r="AQ23" s="178"/>
-      <c r="AR23" s="178"/>
-      <c r="AS23" s="178"/>
-      <c r="AT23" s="178"/>
+      <c r="AP23" s="104"/>
+      <c r="AQ23" s="104"/>
+      <c r="AR23" s="104"/>
+      <c r="AS23" s="104"/>
+      <c r="AT23" s="104"/>
       <c r="AU23" s="8"/>
     </row>
     <row r="24" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="166"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="166"/>
-      <c r="T24" s="166"/>
-      <c r="U24" s="166"/>
-      <c r="V24" s="166"/>
-      <c r="W24" s="166"/>
-      <c r="X24" s="166"/>
-      <c r="Y24" s="166"/>
-      <c r="Z24" s="166"/>
-      <c r="AA24" s="166"/>
-      <c r="AB24" s="166"/>
-      <c r="AC24" s="166"/>
-      <c r="AD24" s="166"/>
-      <c r="AE24" s="166"/>
-      <c r="AF24" s="166"/>
-      <c r="AG24" s="166"/>
-      <c r="AH24" s="166"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="127"/>
+      <c r="AF24" s="127"/>
+      <c r="AG24" s="127"/>
+      <c r="AH24" s="127"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8" t="s">
         <v>42</v>
@@ -3682,50 +3717,50 @@
       <c r="AO24" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP24" s="176" t="s">
+      <c r="AP24" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="AQ24" s="176"/>
-      <c r="AR24" s="176"/>
-      <c r="AS24" s="176"/>
-      <c r="AT24" s="176"/>
+      <c r="AQ24" s="124"/>
+      <c r="AR24" s="124"/>
+      <c r="AS24" s="124"/>
+      <c r="AT24" s="124"/>
       <c r="AU24" s="8"/>
     </row>
     <row r="25" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="166"/>
-      <c r="L25" s="166"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="166"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="166"/>
-      <c r="T25" s="166"/>
-      <c r="U25" s="166"/>
-      <c r="V25" s="166"/>
-      <c r="W25" s="166"/>
-      <c r="X25" s="166"/>
-      <c r="Y25" s="166"/>
-      <c r="Z25" s="166"/>
-      <c r="AA25" s="166"/>
-      <c r="AB25" s="166"/>
-      <c r="AC25" s="166"/>
-      <c r="AD25" s="166"/>
-      <c r="AE25" s="166"/>
-      <c r="AF25" s="166"/>
-      <c r="AG25" s="166"/>
-      <c r="AH25" s="166"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="127"/>
+      <c r="AD25" s="127"/>
+      <c r="AE25" s="127"/>
+      <c r="AF25" s="127"/>
+      <c r="AG25" s="127"/>
+      <c r="AH25" s="127"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="11"/>
@@ -3733,50 +3768,50 @@
       <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
       <c r="AO25" s="7"/>
-      <c r="AP25" s="177"/>
-      <c r="AQ25" s="177"/>
-      <c r="AR25" s="177"/>
-      <c r="AS25" s="177"/>
-      <c r="AT25" s="177"/>
+      <c r="AP25" s="103"/>
+      <c r="AQ25" s="103"/>
+      <c r="AR25" s="103"/>
+      <c r="AS25" s="103"/>
+      <c r="AT25" s="103"/>
       <c r="AU25" s="8"/>
     </row>
     <row r="26" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="166"/>
-      <c r="K26" s="166"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="166"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="166"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="166"/>
-      <c r="T26" s="166"/>
-      <c r="U26" s="166"/>
-      <c r="V26" s="166"/>
-      <c r="W26" s="166"/>
-      <c r="X26" s="166"/>
-      <c r="Y26" s="166"/>
-      <c r="Z26" s="166"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="166"/>
-      <c r="AC26" s="166"/>
-      <c r="AD26" s="166"/>
-      <c r="AE26" s="166"/>
-      <c r="AF26" s="166"/>
-      <c r="AG26" s="166"/>
-      <c r="AH26" s="166"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="127"/>
+      <c r="AF26" s="127"/>
+      <c r="AG26" s="127"/>
+      <c r="AH26" s="127"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8" t="s">
         <v>19</v>
@@ -3788,50 +3823,50 @@
       <c r="AO26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP26" s="176" t="s">
+      <c r="AP26" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="AQ26" s="176"/>
-      <c r="AR26" s="176"/>
-      <c r="AS26" s="176"/>
-      <c r="AT26" s="176"/>
+      <c r="AQ26" s="124"/>
+      <c r="AR26" s="124"/>
+      <c r="AS26" s="124"/>
+      <c r="AT26" s="124"/>
       <c r="AU26" s="8"/>
     </row>
     <row r="27" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="166"/>
-      <c r="O27" s="166"/>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="166"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="166"/>
-      <c r="T27" s="166"/>
-      <c r="U27" s="166"/>
-      <c r="V27" s="166"/>
-      <c r="W27" s="166"/>
-      <c r="X27" s="166"/>
-      <c r="Y27" s="166"/>
-      <c r="Z27" s="166"/>
-      <c r="AA27" s="166"/>
-      <c r="AB27" s="166"/>
-      <c r="AC27" s="166"/>
-      <c r="AD27" s="166"/>
-      <c r="AE27" s="166"/>
-      <c r="AF27" s="166"/>
-      <c r="AG27" s="166"/>
-      <c r="AH27" s="166"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="127"/>
+      <c r="AF27" s="127"/>
+      <c r="AG27" s="127"/>
+      <c r="AH27" s="127"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
@@ -3839,48 +3874,48 @@
       <c r="AM27" s="8"/>
       <c r="AN27" s="12"/>
       <c r="AO27" s="7"/>
-      <c r="AP27" s="177"/>
-      <c r="AQ27" s="177"/>
-      <c r="AR27" s="177"/>
-      <c r="AS27" s="177"/>
-      <c r="AT27" s="177"/>
+      <c r="AP27" s="103"/>
+      <c r="AQ27" s="103"/>
+      <c r="AR27" s="103"/>
+      <c r="AS27" s="103"/>
+      <c r="AT27" s="103"/>
       <c r="AU27" s="8"/>
     </row>
     <row r="28" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="166"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="166"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="166"/>
-      <c r="U28" s="166"/>
-      <c r="V28" s="166"/>
-      <c r="W28" s="166"/>
-      <c r="X28" s="166"/>
-      <c r="Y28" s="166"/>
-      <c r="Z28" s="166"/>
-      <c r="AA28" s="166"/>
-      <c r="AB28" s="166"/>
-      <c r="AC28" s="166"/>
-      <c r="AD28" s="166"/>
-      <c r="AE28" s="166"/>
-      <c r="AF28" s="166"/>
-      <c r="AG28" s="166"/>
-      <c r="AH28" s="166"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="127"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="127"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="127"/>
+      <c r="AF28" s="127"/>
+      <c r="AG28" s="127"/>
+      <c r="AH28" s="127"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8" t="s">
         <v>43</v>
@@ -3892,50 +3927,50 @@
       <c r="AO28" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP28" s="176" t="s">
+      <c r="AP28" s="124" t="s">
         <v>179</v>
       </c>
-      <c r="AQ28" s="176"/>
-      <c r="AR28" s="176"/>
-      <c r="AS28" s="176"/>
-      <c r="AT28" s="176"/>
+      <c r="AQ28" s="124"/>
+      <c r="AR28" s="124"/>
+      <c r="AS28" s="124"/>
+      <c r="AT28" s="124"/>
       <c r="AU28" s="8"/>
     </row>
     <row r="29" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="166"/>
-      <c r="U29" s="166"/>
-      <c r="V29" s="166"/>
-      <c r="W29" s="166"/>
-      <c r="X29" s="166"/>
-      <c r="Y29" s="166"/>
-      <c r="Z29" s="166"/>
-      <c r="AA29" s="166"/>
-      <c r="AB29" s="166"/>
-      <c r="AC29" s="166"/>
-      <c r="AD29" s="166"/>
-      <c r="AE29" s="166"/>
-      <c r="AF29" s="166"/>
-      <c r="AG29" s="166"/>
-      <c r="AH29" s="166"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
+      <c r="U29" s="127"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="127"/>
+      <c r="X29" s="127"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="127"/>
+      <c r="AB29" s="127"/>
+      <c r="AC29" s="127"/>
+      <c r="AD29" s="127"/>
+      <c r="AE29" s="127"/>
+      <c r="AF29" s="127"/>
+      <c r="AG29" s="127"/>
+      <c r="AH29" s="127"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
@@ -3943,48 +3978,48 @@
       <c r="AM29" s="8"/>
       <c r="AN29" s="12"/>
       <c r="AO29" s="7"/>
-      <c r="AP29" s="177"/>
-      <c r="AQ29" s="177"/>
-      <c r="AR29" s="177"/>
-      <c r="AS29" s="177"/>
-      <c r="AT29" s="177"/>
+      <c r="AP29" s="103"/>
+      <c r="AQ29" s="103"/>
+      <c r="AR29" s="103"/>
+      <c r="AS29" s="103"/>
+      <c r="AT29" s="103"/>
       <c r="AU29" s="8"/>
     </row>
     <row r="30" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="166"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="166"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="166"/>
-      <c r="U30" s="166"/>
-      <c r="V30" s="166"/>
-      <c r="W30" s="166"/>
-      <c r="X30" s="166"/>
-      <c r="Y30" s="166"/>
-      <c r="Z30" s="166"/>
-      <c r="AA30" s="166"/>
-      <c r="AB30" s="166"/>
-      <c r="AC30" s="166"/>
-      <c r="AD30" s="166"/>
-      <c r="AE30" s="166"/>
-      <c r="AF30" s="166"/>
-      <c r="AG30" s="166"/>
-      <c r="AH30" s="166"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="127"/>
+      <c r="AC30" s="127"/>
+      <c r="AD30" s="127"/>
+      <c r="AE30" s="127"/>
+      <c r="AF30" s="127"/>
+      <c r="AG30" s="127"/>
+      <c r="AH30" s="127"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8" t="s">
         <v>45</v>
@@ -3996,50 +4031,50 @@
       <c r="AO30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP30" s="176" t="s">
+      <c r="AP30" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="AQ30" s="176"/>
-      <c r="AR30" s="176"/>
-      <c r="AS30" s="176"/>
-      <c r="AT30" s="176"/>
+      <c r="AQ30" s="124"/>
+      <c r="AR30" s="124"/>
+      <c r="AS30" s="124"/>
+      <c r="AT30" s="124"/>
       <c r="AU30" s="8"/>
     </row>
     <row r="31" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="166"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="166"/>
-      <c r="T31" s="166"/>
-      <c r="U31" s="166"/>
-      <c r="V31" s="166"/>
-      <c r="W31" s="166"/>
-      <c r="X31" s="166"/>
-      <c r="Y31" s="166"/>
-      <c r="Z31" s="166"/>
-      <c r="AA31" s="166"/>
-      <c r="AB31" s="166"/>
-      <c r="AC31" s="166"/>
-      <c r="AD31" s="166"/>
-      <c r="AE31" s="166"/>
-      <c r="AF31" s="166"/>
-      <c r="AG31" s="166"/>
-      <c r="AH31" s="166"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="127"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="127"/>
+      <c r="AF31" s="127"/>
+      <c r="AG31" s="127"/>
+      <c r="AH31" s="127"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
@@ -4047,48 +4082,48 @@
       <c r="AM31" s="8"/>
       <c r="AN31" s="12"/>
       <c r="AO31" s="8"/>
-      <c r="AP31" s="178"/>
-      <c r="AQ31" s="178"/>
-      <c r="AR31" s="178"/>
-      <c r="AS31" s="178"/>
-      <c r="AT31" s="178"/>
+      <c r="AP31" s="104"/>
+      <c r="AQ31" s="104"/>
+      <c r="AR31" s="104"/>
+      <c r="AS31" s="104"/>
+      <c r="AT31" s="104"/>
       <c r="AU31" s="8"/>
     </row>
     <row r="32" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="166"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="166"/>
-      <c r="U32" s="166"/>
-      <c r="V32" s="166"/>
-      <c r="W32" s="166"/>
-      <c r="X32" s="166"/>
-      <c r="Y32" s="166"/>
-      <c r="Z32" s="166"/>
-      <c r="AA32" s="166"/>
-      <c r="AB32" s="166"/>
-      <c r="AC32" s="166"/>
-      <c r="AD32" s="166"/>
-      <c r="AE32" s="166"/>
-      <c r="AF32" s="166"/>
-      <c r="AG32" s="166"/>
-      <c r="AH32" s="166"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="127"/>
+      <c r="AC32" s="127"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="127"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="127"/>
+      <c r="AH32" s="127"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8" t="s">
         <v>46</v>
@@ -4100,50 +4135,50 @@
       <c r="AO32" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP32" s="176" t="s">
+      <c r="AP32" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="AQ32" s="176"/>
-      <c r="AR32" s="176"/>
-      <c r="AS32" s="176"/>
-      <c r="AT32" s="176"/>
+      <c r="AQ32" s="124"/>
+      <c r="AR32" s="124"/>
+      <c r="AS32" s="124"/>
+      <c r="AT32" s="124"/>
       <c r="AU32" s="8"/>
     </row>
     <row r="33" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="166"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="166"/>
-      <c r="T33" s="166"/>
-      <c r="U33" s="166"/>
-      <c r="V33" s="166"/>
-      <c r="W33" s="166"/>
-      <c r="X33" s="166"/>
-      <c r="Y33" s="166"/>
-      <c r="Z33" s="166"/>
-      <c r="AA33" s="166"/>
-      <c r="AB33" s="166"/>
-      <c r="AC33" s="166"/>
-      <c r="AD33" s="166"/>
-      <c r="AE33" s="166"/>
-      <c r="AF33" s="166"/>
-      <c r="AG33" s="166"/>
-      <c r="AH33" s="166"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
+      <c r="U33" s="127"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="127"/>
+      <c r="AC33" s="127"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="127"/>
+      <c r="AF33" s="127"/>
+      <c r="AG33" s="127"/>
+      <c r="AH33" s="127"/>
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8"/>
@@ -4151,50 +4186,50 @@
       <c r="AM33" s="8"/>
       <c r="AN33" s="12"/>
       <c r="AO33" s="8"/>
-      <c r="AP33" s="178"/>
-      <c r="AQ33" s="178"/>
-      <c r="AR33" s="178"/>
-      <c r="AS33" s="178"/>
-      <c r="AT33" s="178"/>
+      <c r="AP33" s="104"/>
+      <c r="AQ33" s="104"/>
+      <c r="AR33" s="104"/>
+      <c r="AS33" s="104"/>
+      <c r="AT33" s="104"/>
       <c r="AU33" s="8"/>
     </row>
     <row r="34" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
-      <c r="B34" s="166" t="s">
+      <c r="B34" s="127" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="166"/>
-      <c r="K34" s="166"/>
-      <c r="L34" s="166"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="166"/>
-      <c r="O34" s="166"/>
-      <c r="P34" s="166"/>
-      <c r="Q34" s="166"/>
-      <c r="R34" s="166"/>
-      <c r="S34" s="166"/>
-      <c r="T34" s="166"/>
-      <c r="U34" s="166"/>
-      <c r="V34" s="166"/>
-      <c r="W34" s="166"/>
-      <c r="X34" s="166"/>
-      <c r="Y34" s="166"/>
-      <c r="Z34" s="166"/>
-      <c r="AA34" s="166"/>
-      <c r="AB34" s="166"/>
-      <c r="AC34" s="166"/>
-      <c r="AD34" s="166"/>
-      <c r="AE34" s="166"/>
-      <c r="AF34" s="166"/>
-      <c r="AG34" s="166"/>
-      <c r="AH34" s="166"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
+      <c r="O34" s="127"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="127"/>
+      <c r="S34" s="127"/>
+      <c r="T34" s="127"/>
+      <c r="U34" s="127"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="127"/>
+      <c r="X34" s="127"/>
+      <c r="Y34" s="127"/>
+      <c r="Z34" s="127"/>
+      <c r="AA34" s="127"/>
+      <c r="AB34" s="127"/>
+      <c r="AC34" s="127"/>
+      <c r="AD34" s="127"/>
+      <c r="AE34" s="127"/>
+      <c r="AF34" s="127"/>
+      <c r="AG34" s="127"/>
+      <c r="AH34" s="127"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8" t="s">
         <v>50</v>
@@ -4206,50 +4241,50 @@
       <c r="AO34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP34" s="176" t="s">
+      <c r="AP34" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="AQ34" s="176"/>
-      <c r="AR34" s="176"/>
-      <c r="AS34" s="176"/>
-      <c r="AT34" s="176"/>
+      <c r="AQ34" s="124"/>
+      <c r="AR34" s="124"/>
+      <c r="AS34" s="124"/>
+      <c r="AT34" s="124"/>
       <c r="AU34" s="8"/>
     </row>
     <row r="35" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="166"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="166"/>
-      <c r="K35" s="166"/>
-      <c r="L35" s="166"/>
-      <c r="M35" s="166"/>
-      <c r="N35" s="166"/>
-      <c r="O35" s="166"/>
-      <c r="P35" s="166"/>
-      <c r="Q35" s="166"/>
-      <c r="R35" s="166"/>
-      <c r="S35" s="166"/>
-      <c r="T35" s="166"/>
-      <c r="U35" s="166"/>
-      <c r="V35" s="166"/>
-      <c r="W35" s="166"/>
-      <c r="X35" s="166"/>
-      <c r="Y35" s="166"/>
-      <c r="Z35" s="166"/>
-      <c r="AA35" s="166"/>
-      <c r="AB35" s="166"/>
-      <c r="AC35" s="166"/>
-      <c r="AD35" s="166"/>
-      <c r="AE35" s="166"/>
-      <c r="AF35" s="166"/>
-      <c r="AG35" s="166"/>
-      <c r="AH35" s="166"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="127"/>
+      <c r="R35" s="127"/>
+      <c r="S35" s="127"/>
+      <c r="T35" s="127"/>
+      <c r="U35" s="127"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="127"/>
+      <c r="X35" s="127"/>
+      <c r="Y35" s="127"/>
+      <c r="Z35" s="127"/>
+      <c r="AA35" s="127"/>
+      <c r="AB35" s="127"/>
+      <c r="AC35" s="127"/>
+      <c r="AD35" s="127"/>
+      <c r="AE35" s="127"/>
+      <c r="AF35" s="127"/>
+      <c r="AG35" s="127"/>
+      <c r="AH35" s="127"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
@@ -4257,48 +4292,48 @@
       <c r="AM35" s="8"/>
       <c r="AN35" s="12"/>
       <c r="AO35" s="12"/>
-      <c r="AP35" s="179"/>
-      <c r="AQ35" s="179"/>
-      <c r="AR35" s="178"/>
-      <c r="AS35" s="178"/>
-      <c r="AT35" s="178"/>
+      <c r="AP35" s="105"/>
+      <c r="AQ35" s="105"/>
+      <c r="AR35" s="104"/>
+      <c r="AS35" s="104"/>
+      <c r="AT35" s="104"/>
       <c r="AU35" s="8"/>
     </row>
     <row r="36" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="166"/>
-      <c r="C36" s="166"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="166"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="166"/>
-      <c r="K36" s="166"/>
-      <c r="L36" s="166"/>
-      <c r="M36" s="166"/>
-      <c r="N36" s="166"/>
-      <c r="O36" s="166"/>
-      <c r="P36" s="166"/>
-      <c r="Q36" s="166"/>
-      <c r="R36" s="166"/>
-      <c r="S36" s="166"/>
-      <c r="T36" s="166"/>
-      <c r="U36" s="166"/>
-      <c r="V36" s="166"/>
-      <c r="W36" s="166"/>
-      <c r="X36" s="166"/>
-      <c r="Y36" s="166"/>
-      <c r="Z36" s="166"/>
-      <c r="AA36" s="166"/>
-      <c r="AB36" s="166"/>
-      <c r="AC36" s="166"/>
-      <c r="AD36" s="166"/>
-      <c r="AE36" s="166"/>
-      <c r="AF36" s="166"/>
-      <c r="AG36" s="166"/>
-      <c r="AH36" s="166"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="127"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="127"/>
+      <c r="S36" s="127"/>
+      <c r="T36" s="127"/>
+      <c r="U36" s="127"/>
+      <c r="V36" s="127"/>
+      <c r="W36" s="127"/>
+      <c r="X36" s="127"/>
+      <c r="Y36" s="127"/>
+      <c r="Z36" s="127"/>
+      <c r="AA36" s="127"/>
+      <c r="AB36" s="127"/>
+      <c r="AC36" s="127"/>
+      <c r="AD36" s="127"/>
+      <c r="AE36" s="127"/>
+      <c r="AF36" s="127"/>
+      <c r="AG36" s="127"/>
+      <c r="AH36" s="127"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8" t="s">
         <v>49</v>
@@ -4310,50 +4345,50 @@
       <c r="AO36" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP36" s="176" t="s">
+      <c r="AP36" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="AQ36" s="176"/>
-      <c r="AR36" s="176"/>
-      <c r="AS36" s="176"/>
-      <c r="AT36" s="176"/>
+      <c r="AQ36" s="124"/>
+      <c r="AR36" s="124"/>
+      <c r="AS36" s="124"/>
+      <c r="AT36" s="124"/>
       <c r="AU36" s="8"/>
     </row>
     <row r="37" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="166"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="166"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="166"/>
-      <c r="K37" s="166"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="166"/>
-      <c r="N37" s="166"/>
-      <c r="O37" s="166"/>
-      <c r="P37" s="166"/>
-      <c r="Q37" s="166"/>
-      <c r="R37" s="166"/>
-      <c r="S37" s="166"/>
-      <c r="T37" s="166"/>
-      <c r="U37" s="166"/>
-      <c r="V37" s="166"/>
-      <c r="W37" s="166"/>
-      <c r="X37" s="166"/>
-      <c r="Y37" s="166"/>
-      <c r="Z37" s="166"/>
-      <c r="AA37" s="166"/>
-      <c r="AB37" s="166"/>
-      <c r="AC37" s="166"/>
-      <c r="AD37" s="166"/>
-      <c r="AE37" s="166"/>
-      <c r="AF37" s="166"/>
-      <c r="AG37" s="166"/>
-      <c r="AH37" s="166"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="127"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="127"/>
+      <c r="S37" s="127"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="127"/>
+      <c r="V37" s="127"/>
+      <c r="W37" s="127"/>
+      <c r="X37" s="127"/>
+      <c r="Y37" s="127"/>
+      <c r="Z37" s="127"/>
+      <c r="AA37" s="127"/>
+      <c r="AB37" s="127"/>
+      <c r="AC37" s="127"/>
+      <c r="AD37" s="127"/>
+      <c r="AE37" s="127"/>
+      <c r="AF37" s="127"/>
+      <c r="AG37" s="127"/>
+      <c r="AH37" s="127"/>
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
@@ -4361,48 +4396,48 @@
       <c r="AM37" s="8"/>
       <c r="AN37" s="12"/>
       <c r="AO37" s="12"/>
-      <c r="AP37" s="179"/>
-      <c r="AQ37" s="179"/>
-      <c r="AR37" s="178"/>
-      <c r="AS37" s="178"/>
-      <c r="AT37" s="178"/>
+      <c r="AP37" s="105"/>
+      <c r="AQ37" s="105"/>
+      <c r="AR37" s="104"/>
+      <c r="AS37" s="104"/>
+      <c r="AT37" s="104"/>
       <c r="AU37" s="8"/>
     </row>
     <row r="38" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
-      <c r="B38" s="166"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="166"/>
-      <c r="K38" s="166"/>
-      <c r="L38" s="166"/>
-      <c r="M38" s="166"/>
-      <c r="N38" s="166"/>
-      <c r="O38" s="166"/>
-      <c r="P38" s="166"/>
-      <c r="Q38" s="166"/>
-      <c r="R38" s="166"/>
-      <c r="S38" s="166"/>
-      <c r="T38" s="166"/>
-      <c r="U38" s="166"/>
-      <c r="V38" s="166"/>
-      <c r="W38" s="166"/>
-      <c r="X38" s="166"/>
-      <c r="Y38" s="166"/>
-      <c r="Z38" s="166"/>
-      <c r="AA38" s="166"/>
-      <c r="AB38" s="166"/>
-      <c r="AC38" s="166"/>
-      <c r="AD38" s="166"/>
-      <c r="AE38" s="166"/>
-      <c r="AF38" s="166"/>
-      <c r="AG38" s="166"/>
-      <c r="AH38" s="166"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="127"/>
+      <c r="N38" s="127"/>
+      <c r="O38" s="127"/>
+      <c r="P38" s="127"/>
+      <c r="Q38" s="127"/>
+      <c r="R38" s="127"/>
+      <c r="S38" s="127"/>
+      <c r="T38" s="127"/>
+      <c r="U38" s="127"/>
+      <c r="V38" s="127"/>
+      <c r="W38" s="127"/>
+      <c r="X38" s="127"/>
+      <c r="Y38" s="127"/>
+      <c r="Z38" s="127"/>
+      <c r="AA38" s="127"/>
+      <c r="AB38" s="127"/>
+      <c r="AC38" s="127"/>
+      <c r="AD38" s="127"/>
+      <c r="AE38" s="127"/>
+      <c r="AF38" s="127"/>
+      <c r="AG38" s="127"/>
+      <c r="AH38" s="127"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8" t="s">
         <v>48</v>
@@ -4414,50 +4449,50 @@
       <c r="AO38" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP38" s="176" t="s">
+      <c r="AP38" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="AQ38" s="176"/>
-      <c r="AR38" s="176"/>
-      <c r="AS38" s="176"/>
-      <c r="AT38" s="176"/>
+      <c r="AQ38" s="124"/>
+      <c r="AR38" s="124"/>
+      <c r="AS38" s="124"/>
+      <c r="AT38" s="124"/>
       <c r="AU38" s="8"/>
     </row>
     <row r="39" spans="1:47" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
-      <c r="B39" s="166"/>
-      <c r="C39" s="166"/>
-      <c r="D39" s="166"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="166"/>
-      <c r="K39" s="166"/>
-      <c r="L39" s="166"/>
-      <c r="M39" s="166"/>
-      <c r="N39" s="166"/>
-      <c r="O39" s="166"/>
-      <c r="P39" s="166"/>
-      <c r="Q39" s="166"/>
-      <c r="R39" s="166"/>
-      <c r="S39" s="166"/>
-      <c r="T39" s="166"/>
-      <c r="U39" s="166"/>
-      <c r="V39" s="166"/>
-      <c r="W39" s="166"/>
-      <c r="X39" s="166"/>
-      <c r="Y39" s="166"/>
-      <c r="Z39" s="166"/>
-      <c r="AA39" s="166"/>
-      <c r="AB39" s="166"/>
-      <c r="AC39" s="166"/>
-      <c r="AD39" s="166"/>
-      <c r="AE39" s="166"/>
-      <c r="AF39" s="166"/>
-      <c r="AG39" s="166"/>
-      <c r="AH39" s="166"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="127"/>
+      <c r="Q39" s="127"/>
+      <c r="R39" s="127"/>
+      <c r="S39" s="127"/>
+      <c r="T39" s="127"/>
+      <c r="U39" s="127"/>
+      <c r="V39" s="127"/>
+      <c r="W39" s="127"/>
+      <c r="X39" s="127"/>
+      <c r="Y39" s="127"/>
+      <c r="Z39" s="127"/>
+      <c r="AA39" s="127"/>
+      <c r="AB39" s="127"/>
+      <c r="AC39" s="127"/>
+      <c r="AD39" s="127"/>
+      <c r="AE39" s="127"/>
+      <c r="AF39" s="127"/>
+      <c r="AG39" s="127"/>
+      <c r="AH39" s="127"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
@@ -4474,39 +4509,39 @@
     </row>
     <row r="40" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
-      <c r="B40" s="166"/>
-      <c r="C40" s="166"/>
-      <c r="D40" s="166"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="166"/>
-      <c r="N40" s="166"/>
-      <c r="O40" s="166"/>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="166"/>
-      <c r="R40" s="166"/>
-      <c r="S40" s="166"/>
-      <c r="T40" s="166"/>
-      <c r="U40" s="166"/>
-      <c r="V40" s="166"/>
-      <c r="W40" s="166"/>
-      <c r="X40" s="166"/>
-      <c r="Y40" s="166"/>
-      <c r="Z40" s="166"/>
-      <c r="AA40" s="166"/>
-      <c r="AB40" s="166"/>
-      <c r="AC40" s="166"/>
-      <c r="AD40" s="166"/>
-      <c r="AE40" s="166"/>
-      <c r="AF40" s="166"/>
-      <c r="AG40" s="166"/>
-      <c r="AH40" s="166"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="127"/>
+      <c r="N40" s="127"/>
+      <c r="O40" s="127"/>
+      <c r="P40" s="127"/>
+      <c r="Q40" s="127"/>
+      <c r="R40" s="127"/>
+      <c r="S40" s="127"/>
+      <c r="T40" s="127"/>
+      <c r="U40" s="127"/>
+      <c r="V40" s="127"/>
+      <c r="W40" s="127"/>
+      <c r="X40" s="127"/>
+      <c r="Y40" s="127"/>
+      <c r="Z40" s="127"/>
+      <c r="AA40" s="127"/>
+      <c r="AB40" s="127"/>
+      <c r="AC40" s="127"/>
+      <c r="AD40" s="127"/>
+      <c r="AE40" s="127"/>
+      <c r="AF40" s="127"/>
+      <c r="AG40" s="127"/>
+      <c r="AH40" s="127"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="15" t="s">
         <v>17</v>
@@ -4525,39 +4560,39 @@
     </row>
     <row r="41" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" s="166"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="166"/>
-      <c r="E41" s="166"/>
-      <c r="F41" s="166"/>
-      <c r="G41" s="166"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="166"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="166"/>
-      <c r="N41" s="166"/>
-      <c r="O41" s="166"/>
-      <c r="P41" s="166"/>
-      <c r="Q41" s="166"/>
-      <c r="R41" s="166"/>
-      <c r="S41" s="166"/>
-      <c r="T41" s="166"/>
-      <c r="U41" s="166"/>
-      <c r="V41" s="166"/>
-      <c r="W41" s="166"/>
-      <c r="X41" s="166"/>
-      <c r="Y41" s="166"/>
-      <c r="Z41" s="166"/>
-      <c r="AA41" s="166"/>
-      <c r="AB41" s="166"/>
-      <c r="AC41" s="166"/>
-      <c r="AD41" s="166"/>
-      <c r="AE41" s="166"/>
-      <c r="AF41" s="166"/>
-      <c r="AG41" s="166"/>
-      <c r="AH41" s="166"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="127"/>
+      <c r="O41" s="127"/>
+      <c r="P41" s="127"/>
+      <c r="Q41" s="127"/>
+      <c r="R41" s="127"/>
+      <c r="S41" s="127"/>
+      <c r="T41" s="127"/>
+      <c r="U41" s="127"/>
+      <c r="V41" s="127"/>
+      <c r="W41" s="127"/>
+      <c r="X41" s="127"/>
+      <c r="Y41" s="127"/>
+      <c r="Z41" s="127"/>
+      <c r="AA41" s="127"/>
+      <c r="AB41" s="127"/>
+      <c r="AC41" s="127"/>
+      <c r="AD41" s="127"/>
+      <c r="AE41" s="127"/>
+      <c r="AF41" s="127"/>
+      <c r="AG41" s="127"/>
+      <c r="AH41" s="127"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
@@ -4574,39 +4609,39 @@
     </row>
     <row r="42" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
-      <c r="B42" s="166"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="166"/>
-      <c r="E42" s="166"/>
-      <c r="F42" s="166"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="166"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="166"/>
-      <c r="K42" s="166"/>
-      <c r="L42" s="166"/>
-      <c r="M42" s="166"/>
-      <c r="N42" s="166"/>
-      <c r="O42" s="166"/>
-      <c r="P42" s="166"/>
-      <c r="Q42" s="166"/>
-      <c r="R42" s="166"/>
-      <c r="S42" s="166"/>
-      <c r="T42" s="166"/>
-      <c r="U42" s="166"/>
-      <c r="V42" s="166"/>
-      <c r="W42" s="166"/>
-      <c r="X42" s="166"/>
-      <c r="Y42" s="166"/>
-      <c r="Z42" s="166"/>
-      <c r="AA42" s="166"/>
-      <c r="AB42" s="166"/>
-      <c r="AC42" s="166"/>
-      <c r="AD42" s="166"/>
-      <c r="AE42" s="166"/>
-      <c r="AF42" s="166"/>
-      <c r="AG42" s="166"/>
-      <c r="AH42" s="166"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="127"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="127"/>
+      <c r="P42" s="127"/>
+      <c r="Q42" s="127"/>
+      <c r="R42" s="127"/>
+      <c r="S42" s="127"/>
+      <c r="T42" s="127"/>
+      <c r="U42" s="127"/>
+      <c r="V42" s="127"/>
+      <c r="W42" s="127"/>
+      <c r="X42" s="127"/>
+      <c r="Y42" s="127"/>
+      <c r="Z42" s="127"/>
+      <c r="AA42" s="127"/>
+      <c r="AB42" s="127"/>
+      <c r="AC42" s="127"/>
+      <c r="AD42" s="127"/>
+      <c r="AE42" s="127"/>
+      <c r="AF42" s="127"/>
+      <c r="AG42" s="127"/>
+      <c r="AH42" s="127"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8" t="s">
         <v>99</v>
@@ -4616,50 +4651,50 @@
       <c r="AM42" s="8"/>
       <c r="AN42" s="8"/>
       <c r="AO42" s="8"/>
-      <c r="AP42" s="160" t="s">
+      <c r="AP42" s="126" t="s">
         <v>185</v>
       </c>
-      <c r="AQ42" s="160"/>
-      <c r="AR42" s="160"/>
-      <c r="AS42" s="160"/>
-      <c r="AT42" s="160"/>
+      <c r="AQ42" s="126"/>
+      <c r="AR42" s="126"/>
+      <c r="AS42" s="126"/>
+      <c r="AT42" s="126"/>
       <c r="AU42" s="14"/>
     </row>
     <row r="43" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="166"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="166"/>
-      <c r="K43" s="166"/>
-      <c r="L43" s="166"/>
-      <c r="M43" s="166"/>
-      <c r="N43" s="166"/>
-      <c r="O43" s="166"/>
-      <c r="P43" s="166"/>
-      <c r="Q43" s="166"/>
-      <c r="R43" s="166"/>
-      <c r="S43" s="166"/>
-      <c r="T43" s="166"/>
-      <c r="U43" s="166"/>
-      <c r="V43" s="166"/>
-      <c r="W43" s="166"/>
-      <c r="X43" s="166"/>
-      <c r="Y43" s="166"/>
-      <c r="Z43" s="166"/>
-      <c r="AA43" s="166"/>
-      <c r="AB43" s="166"/>
-      <c r="AC43" s="166"/>
-      <c r="AD43" s="166"/>
-      <c r="AE43" s="166"/>
-      <c r="AF43" s="166"/>
-      <c r="AG43" s="166"/>
-      <c r="AH43" s="166"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="127"/>
+      <c r="N43" s="127"/>
+      <c r="O43" s="127"/>
+      <c r="P43" s="127"/>
+      <c r="Q43" s="127"/>
+      <c r="R43" s="127"/>
+      <c r="S43" s="127"/>
+      <c r="T43" s="127"/>
+      <c r="U43" s="127"/>
+      <c r="V43" s="127"/>
+      <c r="W43" s="127"/>
+      <c r="X43" s="127"/>
+      <c r="Y43" s="127"/>
+      <c r="Z43" s="127"/>
+      <c r="AA43" s="127"/>
+      <c r="AB43" s="127"/>
+      <c r="AC43" s="127"/>
+      <c r="AD43" s="127"/>
+      <c r="AE43" s="127"/>
+      <c r="AF43" s="127"/>
+      <c r="AG43" s="127"/>
+      <c r="AH43" s="127"/>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
@@ -4676,39 +4711,39 @@
     </row>
     <row r="44" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="166"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="166"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="166"/>
-      <c r="K44" s="166"/>
-      <c r="L44" s="166"/>
-      <c r="M44" s="166"/>
-      <c r="N44" s="166"/>
-      <c r="O44" s="166"/>
-      <c r="P44" s="166"/>
-      <c r="Q44" s="166"/>
-      <c r="R44" s="166"/>
-      <c r="S44" s="166"/>
-      <c r="T44" s="166"/>
-      <c r="U44" s="166"/>
-      <c r="V44" s="166"/>
-      <c r="W44" s="166"/>
-      <c r="X44" s="166"/>
-      <c r="Y44" s="166"/>
-      <c r="Z44" s="166"/>
-      <c r="AA44" s="166"/>
-      <c r="AB44" s="166"/>
-      <c r="AC44" s="166"/>
-      <c r="AD44" s="166"/>
-      <c r="AE44" s="166"/>
-      <c r="AF44" s="166"/>
-      <c r="AG44" s="166"/>
-      <c r="AH44" s="166"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="127"/>
+      <c r="L44" s="127"/>
+      <c r="M44" s="127"/>
+      <c r="N44" s="127"/>
+      <c r="O44" s="127"/>
+      <c r="P44" s="127"/>
+      <c r="Q44" s="127"/>
+      <c r="R44" s="127"/>
+      <c r="S44" s="127"/>
+      <c r="T44" s="127"/>
+      <c r="U44" s="127"/>
+      <c r="V44" s="127"/>
+      <c r="W44" s="127"/>
+      <c r="X44" s="127"/>
+      <c r="Y44" s="127"/>
+      <c r="Z44" s="127"/>
+      <c r="AA44" s="127"/>
+      <c r="AB44" s="127"/>
+      <c r="AC44" s="127"/>
+      <c r="AD44" s="127"/>
+      <c r="AE44" s="127"/>
+      <c r="AF44" s="127"/>
+      <c r="AG44" s="127"/>
+      <c r="AH44" s="127"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8" t="s">
         <v>97</v>
@@ -4718,88 +4753,88 @@
       <c r="AM44" s="8"/>
       <c r="AN44" s="22"/>
       <c r="AO44" s="22"/>
-      <c r="AP44" s="160" t="s">
+      <c r="AP44" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="AQ44" s="160"/>
-      <c r="AR44" s="160"/>
-      <c r="AS44" s="160"/>
-      <c r="AT44" s="160"/>
+      <c r="AQ44" s="126"/>
+      <c r="AR44" s="126"/>
+      <c r="AS44" s="126"/>
+      <c r="AT44" s="126"/>
       <c r="AU44" s="14"/>
     </row>
     <row r="45" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="166"/>
-      <c r="C45" s="166"/>
-      <c r="D45" s="166"/>
-      <c r="E45" s="166"/>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="166"/>
-      <c r="I45" s="166"/>
-      <c r="J45" s="166"/>
-      <c r="K45" s="166"/>
-      <c r="L45" s="166"/>
-      <c r="M45" s="166"/>
-      <c r="N45" s="166"/>
-      <c r="O45" s="166"/>
-      <c r="P45" s="166"/>
-      <c r="Q45" s="166"/>
-      <c r="R45" s="166"/>
-      <c r="S45" s="166"/>
-      <c r="T45" s="166"/>
-      <c r="U45" s="166"/>
-      <c r="V45" s="166"/>
-      <c r="W45" s="166"/>
-      <c r="X45" s="166"/>
-      <c r="Y45" s="166"/>
-      <c r="Z45" s="166"/>
-      <c r="AA45" s="166"/>
-      <c r="AB45" s="166"/>
-      <c r="AC45" s="166"/>
-      <c r="AD45" s="166"/>
-      <c r="AE45" s="166"/>
-      <c r="AF45" s="166"/>
-      <c r="AG45" s="166"/>
-      <c r="AH45" s="166"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
+      <c r="L45" s="127"/>
+      <c r="M45" s="127"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="127"/>
+      <c r="P45" s="127"/>
+      <c r="Q45" s="127"/>
+      <c r="R45" s="127"/>
+      <c r="S45" s="127"/>
+      <c r="T45" s="127"/>
+      <c r="U45" s="127"/>
+      <c r="V45" s="127"/>
+      <c r="W45" s="127"/>
+      <c r="X45" s="127"/>
+      <c r="Y45" s="127"/>
+      <c r="Z45" s="127"/>
+      <c r="AA45" s="127"/>
+      <c r="AB45" s="127"/>
+      <c r="AC45" s="127"/>
+      <c r="AD45" s="127"/>
+      <c r="AE45" s="127"/>
+      <c r="AF45" s="127"/>
+      <c r="AG45" s="127"/>
+      <c r="AH45" s="127"/>
       <c r="AI45" s="8"/>
       <c r="AU45" s="14"/>
     </row>
     <row r="46" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="166"/>
-      <c r="P46" s="166"/>
-      <c r="Q46" s="166"/>
-      <c r="R46" s="166"/>
-      <c r="S46" s="166"/>
-      <c r="T46" s="166"/>
-      <c r="U46" s="166"/>
-      <c r="V46" s="166"/>
-      <c r="W46" s="166"/>
-      <c r="X46" s="166"/>
-      <c r="Y46" s="166"/>
-      <c r="Z46" s="166"/>
-      <c r="AA46" s="166"/>
-      <c r="AB46" s="166"/>
-      <c r="AC46" s="166"/>
-      <c r="AD46" s="166"/>
-      <c r="AE46" s="166"/>
-      <c r="AF46" s="166"/>
-      <c r="AG46" s="166"/>
-      <c r="AH46" s="166"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="127"/>
+      <c r="N46" s="127"/>
+      <c r="O46" s="127"/>
+      <c r="P46" s="127"/>
+      <c r="Q46" s="127"/>
+      <c r="R46" s="127"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="127"/>
+      <c r="U46" s="127"/>
+      <c r="V46" s="127"/>
+      <c r="W46" s="127"/>
+      <c r="X46" s="127"/>
+      <c r="Y46" s="127"/>
+      <c r="Z46" s="127"/>
+      <c r="AA46" s="127"/>
+      <c r="AB46" s="127"/>
+      <c r="AC46" s="127"/>
+      <c r="AD46" s="127"/>
+      <c r="AE46" s="127"/>
+      <c r="AF46" s="127"/>
+      <c r="AG46" s="127"/>
+      <c r="AH46" s="127"/>
       <c r="AJ46" s="8" t="s">
         <v>98</v>
       </c>
@@ -4808,50 +4843,50 @@
       <c r="AM46" s="8"/>
       <c r="AN46" s="8"/>
       <c r="AO46" s="8"/>
-      <c r="AP46" s="160" t="s">
+      <c r="AP46" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="AQ46" s="160"/>
-      <c r="AR46" s="160"/>
-      <c r="AS46" s="160"/>
-      <c r="AT46" s="160"/>
+      <c r="AQ46" s="126"/>
+      <c r="AR46" s="126"/>
+      <c r="AS46" s="126"/>
+      <c r="AT46" s="126"/>
       <c r="AU46" s="14"/>
     </row>
     <row r="47" spans="1:47" s="20" customFormat="1" ht="8.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="166"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="166"/>
-      <c r="K47" s="166"/>
-      <c r="L47" s="166"/>
-      <c r="M47" s="166"/>
-      <c r="N47" s="166"/>
-      <c r="O47" s="166"/>
-      <c r="P47" s="166"/>
-      <c r="Q47" s="166"/>
-      <c r="R47" s="166"/>
-      <c r="S47" s="166"/>
-      <c r="T47" s="166"/>
-      <c r="U47" s="166"/>
-      <c r="V47" s="166"/>
-      <c r="W47" s="166"/>
-      <c r="X47" s="166"/>
-      <c r="Y47" s="166"/>
-      <c r="Z47" s="166"/>
-      <c r="AA47" s="166"/>
-      <c r="AB47" s="166"/>
-      <c r="AC47" s="166"/>
-      <c r="AD47" s="166"/>
-      <c r="AE47" s="166"/>
-      <c r="AF47" s="166"/>
-      <c r="AG47" s="166"/>
-      <c r="AH47" s="166"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
+      <c r="K47" s="127"/>
+      <c r="L47" s="127"/>
+      <c r="M47" s="127"/>
+      <c r="N47" s="127"/>
+      <c r="O47" s="127"/>
+      <c r="P47" s="127"/>
+      <c r="Q47" s="127"/>
+      <c r="R47" s="127"/>
+      <c r="S47" s="127"/>
+      <c r="T47" s="127"/>
+      <c r="U47" s="127"/>
+      <c r="V47" s="127"/>
+      <c r="W47" s="127"/>
+      <c r="X47" s="127"/>
+      <c r="Y47" s="127"/>
+      <c r="Z47" s="127"/>
+      <c r="AA47" s="127"/>
+      <c r="AB47" s="127"/>
+      <c r="AC47" s="127"/>
+      <c r="AD47" s="127"/>
+      <c r="AE47" s="127"/>
+      <c r="AF47" s="127"/>
+      <c r="AG47" s="127"/>
+      <c r="AH47" s="127"/>
       <c r="AI47" s="8"/>
       <c r="AU47" s="14"/>
     </row>
@@ -4941,38 +4976,38 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="163" t="s">
+      <c r="I50" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="J50" s="163"/>
-      <c r="K50" s="163"/>
-      <c r="L50" s="163"/>
-      <c r="M50" s="163"/>
-      <c r="N50" s="163"/>
-      <c r="O50" s="163"/>
-      <c r="P50" s="163"/>
-      <c r="Q50" s="163"/>
-      <c r="R50" s="163"/>
-      <c r="S50" s="163"/>
-      <c r="T50" s="163"/>
-      <c r="U50" s="163"/>
-      <c r="V50" s="163"/>
-      <c r="W50" s="163"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="122"/>
+      <c r="U50" s="122"/>
+      <c r="V50" s="122"/>
+      <c r="W50" s="122"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="15" t="s">
         <v>24</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
-      <c r="AB50" s="164" t="s">
+      <c r="AB50" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="AC50" s="164"/>
-      <c r="AD50" s="164"/>
-      <c r="AE50" s="164"/>
-      <c r="AF50" s="164"/>
-      <c r="AG50" s="164"/>
-      <c r="AH50" s="164"/>
+      <c r="AC50" s="123"/>
+      <c r="AD50" s="123"/>
+      <c r="AE50" s="123"/>
+      <c r="AF50" s="123"/>
+      <c r="AG50" s="123"/>
+      <c r="AH50" s="123"/>
       <c r="AU50" s="14"/>
     </row>
     <row r="51" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5082,21 +5117,21 @@
         <v>6</v>
       </c>
       <c r="I55" s="54"/>
-      <c r="J55" s="167" t="s">
+      <c r="J55" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="K55" s="167"/>
-      <c r="L55" s="167"/>
+      <c r="K55" s="111"/>
+      <c r="L55" s="111"/>
       <c r="N55" s="13"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S55" s="167" t="s">
+      <c r="S55" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="T55" s="167"/>
-      <c r="U55" s="167"/>
+      <c r="T55" s="111"/>
+      <c r="U55" s="111"/>
       <c r="W55" s="8" t="s">
         <v>92</v>
       </c>
@@ -5106,13 +5141,13 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
-      <c r="AD55" s="168" t="s">
+      <c r="AD55" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="AE55" s="168"/>
-      <c r="AF55" s="168"/>
-      <c r="AG55" s="168"/>
-      <c r="AH55" s="168"/>
+      <c r="AE55" s="121"/>
+      <c r="AF55" s="121"/>
+      <c r="AG55" s="121"/>
+      <c r="AH55" s="121"/>
       <c r="AI55" s="8"/>
       <c r="AJ55" s="8" t="s">
         <v>42</v>
@@ -5121,12 +5156,12 @@
       <c r="AL55" s="8"/>
       <c r="AM55" s="8"/>
       <c r="AN55" s="12"/>
-      <c r="AO55" s="180" t="s">
+      <c r="AO55" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="AP55" s="180"/>
-      <c r="AQ55" s="180"/>
-      <c r="AR55" s="180"/>
+      <c r="AP55" s="108"/>
+      <c r="AQ55" s="108"/>
+      <c r="AR55" s="108"/>
       <c r="AS55" s="98" t="s">
         <v>55</v>
       </c>
@@ -5165,10 +5200,10 @@
       <c r="AL56" s="8"/>
       <c r="AM56" s="8"/>
       <c r="AN56" s="12"/>
-      <c r="AO56" s="181"/>
-      <c r="AP56" s="181"/>
-      <c r="AQ56" s="181"/>
-      <c r="AR56" s="182"/>
+      <c r="AO56" s="106"/>
+      <c r="AP56" s="106"/>
+      <c r="AQ56" s="106"/>
+      <c r="AR56" s="107"/>
       <c r="AS56" s="16"/>
       <c r="AT56" s="14"/>
       <c r="AU56" s="8"/>
@@ -5181,21 +5216,21 @@
         <v>7</v>
       </c>
       <c r="I57" s="54"/>
-      <c r="J57" s="167" t="s">
+      <c r="J57" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="K57" s="167"/>
-      <c r="L57" s="167"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="111"/>
       <c r="N57" s="56"/>
       <c r="P57" s="56"/>
       <c r="Q57" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S57" s="167" t="s">
+      <c r="S57" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="T57" s="167"/>
-      <c r="U57" s="167"/>
+      <c r="T57" s="111"/>
+      <c r="U57" s="111"/>
       <c r="W57" s="8" t="s">
         <v>93</v>
       </c>
@@ -5205,13 +5240,13 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
-      <c r="AD57" s="168" t="s">
+      <c r="AD57" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="AE57" s="168"/>
-      <c r="AF57" s="168"/>
-      <c r="AG57" s="168"/>
-      <c r="AH57" s="168"/>
+      <c r="AE57" s="121"/>
+      <c r="AF57" s="121"/>
+      <c r="AG57" s="121"/>
+      <c r="AH57" s="121"/>
       <c r="AI57" s="8"/>
       <c r="AJ57" s="8" t="s">
         <v>39</v>
@@ -5220,12 +5255,12 @@
       <c r="AL57" s="8"/>
       <c r="AM57" s="8"/>
       <c r="AN57" s="12"/>
-      <c r="AO57" s="180" t="s">
+      <c r="AO57" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="AP57" s="180"/>
-      <c r="AQ57" s="180"/>
-      <c r="AR57" s="180"/>
+      <c r="AP57" s="108"/>
+      <c r="AQ57" s="108"/>
+      <c r="AR57" s="108"/>
       <c r="AS57" s="98" t="s">
         <v>55</v>
       </c>
@@ -5264,10 +5299,10 @@
       <c r="AL58" s="8"/>
       <c r="AM58" s="8"/>
       <c r="AN58" s="12"/>
-      <c r="AO58" s="181"/>
-      <c r="AP58" s="181"/>
-      <c r="AQ58" s="181"/>
-      <c r="AR58" s="182"/>
+      <c r="AO58" s="106"/>
+      <c r="AP58" s="106"/>
+      <c r="AQ58" s="106"/>
+      <c r="AR58" s="107"/>
       <c r="AS58" s="16"/>
       <c r="AT58" s="14"/>
       <c r="AU58" s="8"/>
@@ -5280,21 +5315,21 @@
         <v>18</v>
       </c>
       <c r="I59" s="54"/>
-      <c r="J59" s="167" t="s">
+      <c r="J59" s="111" t="s">
         <v>192</v>
       </c>
-      <c r="K59" s="167"/>
-      <c r="L59" s="167"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="111"/>
       <c r="N59" s="13"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S59" s="167" t="s">
+      <c r="S59" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="T59" s="167"/>
-      <c r="U59" s="167"/>
+      <c r="T59" s="111"/>
+      <c r="U59" s="111"/>
       <c r="W59" s="8" t="s">
         <v>91</v>
       </c>
@@ -5304,13 +5339,13 @@
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
-      <c r="AD59" s="168" t="s">
+      <c r="AD59" s="121" t="s">
         <v>208</v>
       </c>
-      <c r="AE59" s="168"/>
-      <c r="AF59" s="168"/>
-      <c r="AG59" s="168"/>
-      <c r="AH59" s="168"/>
+      <c r="AE59" s="121"/>
+      <c r="AF59" s="121"/>
+      <c r="AG59" s="121"/>
+      <c r="AH59" s="121"/>
       <c r="AI59" s="8"/>
       <c r="AJ59" s="8" t="s">
         <v>40</v>
@@ -5319,12 +5354,12 @@
       <c r="AL59" s="8"/>
       <c r="AM59" s="8"/>
       <c r="AN59" s="12"/>
-      <c r="AO59" s="180" t="s">
+      <c r="AO59" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="AP59" s="180"/>
-      <c r="AQ59" s="180"/>
-      <c r="AR59" s="180"/>
+      <c r="AP59" s="108"/>
+      <c r="AQ59" s="108"/>
+      <c r="AR59" s="108"/>
       <c r="AS59" s="98" t="s">
         <v>55</v>
       </c>
@@ -5363,10 +5398,10 @@
       <c r="AL60" s="8"/>
       <c r="AM60" s="8"/>
       <c r="AN60" s="12"/>
-      <c r="AO60" s="181"/>
-      <c r="AP60" s="181"/>
-      <c r="AQ60" s="181"/>
-      <c r="AR60" s="182"/>
+      <c r="AO60" s="106"/>
+      <c r="AP60" s="106"/>
+      <c r="AQ60" s="106"/>
+      <c r="AR60" s="107"/>
       <c r="AS60" s="16"/>
       <c r="AT60" s="14"/>
       <c r="AU60" s="8"/>
@@ -5379,21 +5414,21 @@
         <v>8</v>
       </c>
       <c r="I61" s="54"/>
-      <c r="J61" s="167" t="s">
+      <c r="J61" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="K61" s="167"/>
-      <c r="L61" s="167"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
       <c r="N61" s="13"/>
       <c r="P61" s="13"/>
       <c r="Q61" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S61" s="167" t="s">
+      <c r="S61" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="T61" s="167"/>
-      <c r="U61" s="167"/>
+      <c r="T61" s="111"/>
+      <c r="U61" s="111"/>
       <c r="W61" s="8" t="s">
         <v>96</v>
       </c>
@@ -5403,13 +5438,13 @@
       <c r="AA61" s="8"/>
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
-      <c r="AD61" s="168" t="s">
+      <c r="AD61" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="AE61" s="168"/>
-      <c r="AF61" s="168"/>
-      <c r="AG61" s="168"/>
-      <c r="AH61" s="168"/>
+      <c r="AE61" s="121"/>
+      <c r="AF61" s="121"/>
+      <c r="AG61" s="121"/>
+      <c r="AH61" s="121"/>
       <c r="AI61" s="8"/>
       <c r="AJ61" s="8" t="s">
         <v>41</v>
@@ -5418,12 +5453,12 @@
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
       <c r="AN61" s="12"/>
-      <c r="AO61" s="180" t="s">
+      <c r="AO61" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="AP61" s="180"/>
-      <c r="AQ61" s="180"/>
-      <c r="AR61" s="180"/>
+      <c r="AP61" s="108"/>
+      <c r="AQ61" s="108"/>
+      <c r="AR61" s="108"/>
       <c r="AS61" s="98" t="s">
         <v>55</v>
       </c>
@@ -5462,10 +5497,10 @@
       <c r="AL62" s="8"/>
       <c r="AM62" s="8"/>
       <c r="AN62" s="12"/>
-      <c r="AO62" s="181"/>
-      <c r="AP62" s="181"/>
-      <c r="AQ62" s="181"/>
-      <c r="AR62" s="182"/>
+      <c r="AO62" s="106"/>
+      <c r="AP62" s="106"/>
+      <c r="AQ62" s="106"/>
+      <c r="AR62" s="107"/>
       <c r="AS62" s="16"/>
       <c r="AT62" s="14"/>
       <c r="AU62" s="8"/>
@@ -5478,21 +5513,21 @@
         <v>9</v>
       </c>
       <c r="I63" s="54"/>
-      <c r="J63" s="167" t="s">
+      <c r="J63" s="111" t="s">
         <v>194</v>
       </c>
-      <c r="K63" s="167"/>
-      <c r="L63" s="167"/>
+      <c r="K63" s="111"/>
+      <c r="L63" s="111"/>
       <c r="N63" s="13"/>
       <c r="P63" s="13"/>
       <c r="Q63" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="S63" s="167" t="s">
+      <c r="S63" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="T63" s="167"/>
-      <c r="U63" s="167"/>
+      <c r="T63" s="111"/>
+      <c r="U63" s="111"/>
       <c r="W63" s="8" t="s">
         <v>16</v>
       </c>
@@ -5502,13 +5537,13 @@
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
-      <c r="AD63" s="168" t="s">
+      <c r="AD63" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="AE63" s="168"/>
-      <c r="AF63" s="168"/>
-      <c r="AG63" s="168"/>
-      <c r="AH63" s="168"/>
+      <c r="AE63" s="121"/>
+      <c r="AF63" s="121"/>
+      <c r="AG63" s="121"/>
+      <c r="AH63" s="121"/>
       <c r="AI63" s="8"/>
       <c r="AJ63" s="8" t="s">
         <v>52</v>
@@ -5517,12 +5552,12 @@
       <c r="AL63" s="8"/>
       <c r="AM63" s="8"/>
       <c r="AN63" s="11"/>
-      <c r="AO63" s="180" t="s">
+      <c r="AO63" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="AP63" s="180"/>
-      <c r="AQ63" s="180"/>
-      <c r="AR63" s="180"/>
+      <c r="AP63" s="108"/>
+      <c r="AQ63" s="108"/>
+      <c r="AR63" s="108"/>
       <c r="AS63" s="98" t="s">
         <v>55</v>
       </c>
@@ -5561,10 +5596,10 @@
       <c r="AL64" s="8"/>
       <c r="AM64" s="21"/>
       <c r="AN64" s="11"/>
-      <c r="AO64" s="181"/>
-      <c r="AP64" s="181"/>
-      <c r="AQ64" s="181"/>
-      <c r="AR64" s="182"/>
+      <c r="AO64" s="106"/>
+      <c r="AP64" s="106"/>
+      <c r="AQ64" s="106"/>
+      <c r="AR64" s="107"/>
       <c r="AS64" s="16"/>
       <c r="AT64" s="14"/>
       <c r="AU64" s="8"/>
@@ -5577,21 +5612,21 @@
         <v>88</v>
       </c>
       <c r="I65" s="54"/>
-      <c r="J65" s="167" t="s">
+      <c r="J65" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="K65" s="167"/>
-      <c r="L65" s="167"/>
+      <c r="K65" s="111"/>
+      <c r="L65" s="111"/>
       <c r="N65" s="13"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="S65" s="167" t="s">
+      <c r="S65" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="T65" s="167"/>
-      <c r="U65" s="167"/>
+      <c r="T65" s="111"/>
+      <c r="U65" s="111"/>
       <c r="W65" s="8" t="s">
         <v>94</v>
       </c>
@@ -5601,13 +5636,13 @@
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
-      <c r="AD65" s="168" t="s">
+      <c r="AD65" s="121" t="s">
         <v>211</v>
       </c>
-      <c r="AE65" s="168"/>
-      <c r="AF65" s="168"/>
-      <c r="AG65" s="168"/>
-      <c r="AH65" s="168"/>
+      <c r="AE65" s="121"/>
+      <c r="AF65" s="121"/>
+      <c r="AG65" s="121"/>
+      <c r="AH65" s="121"/>
       <c r="AI65" s="8"/>
       <c r="AJ65" s="8" t="s">
         <v>54</v>
@@ -5616,12 +5651,12 @@
       <c r="AL65" s="8"/>
       <c r="AM65" s="8"/>
       <c r="AN65" s="8"/>
-      <c r="AO65" s="180" t="s">
+      <c r="AO65" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="AP65" s="180"/>
-      <c r="AQ65" s="180"/>
-      <c r="AR65" s="180"/>
+      <c r="AP65" s="108"/>
+      <c r="AQ65" s="108"/>
+      <c r="AR65" s="108"/>
       <c r="AS65" s="98" t="s">
         <v>55</v>
       </c>
@@ -5660,10 +5695,10 @@
       <c r="AL66" s="8"/>
       <c r="AM66" s="8"/>
       <c r="AN66" s="22"/>
-      <c r="AO66" s="181"/>
-      <c r="AP66" s="181"/>
-      <c r="AQ66" s="181"/>
-      <c r="AR66" s="182"/>
+      <c r="AO66" s="106"/>
+      <c r="AP66" s="106"/>
+      <c r="AQ66" s="106"/>
+      <c r="AR66" s="107"/>
       <c r="AS66" s="22"/>
       <c r="AT66" s="22"/>
       <c r="AU66" s="8"/>
@@ -5676,21 +5711,21 @@
         <v>89</v>
       </c>
       <c r="I67" s="54"/>
-      <c r="J67" s="167" t="s">
+      <c r="J67" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="K67" s="167"/>
-      <c r="L67" s="167"/>
+      <c r="K67" s="111"/>
+      <c r="L67" s="111"/>
       <c r="N67" s="13"/>
       <c r="P67" s="13"/>
       <c r="Q67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="S67" s="167" t="s">
+      <c r="S67" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="T67" s="167"/>
-      <c r="U67" s="167"/>
+      <c r="T67" s="111"/>
+      <c r="U67" s="111"/>
       <c r="W67" s="8" t="s">
         <v>95</v>
       </c>
@@ -5700,13 +5735,13 @@
       <c r="AA67" s="8"/>
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
-      <c r="AD67" s="168" t="s">
+      <c r="AD67" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="AE67" s="168"/>
-      <c r="AF67" s="168"/>
-      <c r="AG67" s="168"/>
-      <c r="AH67" s="168"/>
+      <c r="AE67" s="121"/>
+      <c r="AF67" s="121"/>
+      <c r="AG67" s="121"/>
+      <c r="AH67" s="121"/>
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8" t="s">
         <v>53</v>
@@ -5715,12 +5750,12 @@
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
       <c r="AN67" s="8"/>
-      <c r="AO67" s="180" t="s">
+      <c r="AO67" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="AP67" s="180"/>
-      <c r="AQ67" s="180"/>
-      <c r="AR67" s="180"/>
+      <c r="AP67" s="108"/>
+      <c r="AQ67" s="108"/>
+      <c r="AR67" s="108"/>
       <c r="AS67" s="98" t="s">
         <v>55</v>
       </c>
@@ -5757,10 +5792,10 @@
       <c r="AL68" s="8"/>
       <c r="AM68" s="8"/>
       <c r="AN68" s="8"/>
-      <c r="AO68" s="181"/>
-      <c r="AP68" s="181"/>
-      <c r="AQ68" s="181"/>
-      <c r="AR68" s="182"/>
+      <c r="AO68" s="106"/>
+      <c r="AP68" s="106"/>
+      <c r="AQ68" s="106"/>
+      <c r="AR68" s="107"/>
       <c r="AS68" s="11"/>
       <c r="AT68" s="8"/>
       <c r="AU68" s="8"/>
@@ -5773,21 +5808,21 @@
         <v>3</v>
       </c>
       <c r="I69" s="54"/>
-      <c r="J69" s="167" t="s">
+      <c r="J69" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="K69" s="167"/>
-      <c r="L69" s="167"/>
+      <c r="K69" s="111"/>
+      <c r="L69" s="111"/>
       <c r="N69" s="13"/>
       <c r="P69" s="13"/>
       <c r="Q69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="167" t="s">
+      <c r="S69" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="T69" s="167"/>
-      <c r="U69" s="167"/>
+      <c r="T69" s="111"/>
+      <c r="U69" s="111"/>
       <c r="W69" s="20" t="s">
         <v>160</v>
       </c>
@@ -5796,13 +5831,13 @@
       <c r="AA69" s="8"/>
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
-      <c r="AD69" s="168" t="s">
+      <c r="AD69" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="AE69" s="168"/>
-      <c r="AF69" s="168"/>
-      <c r="AG69" s="168"/>
-      <c r="AH69" s="168"/>
+      <c r="AE69" s="121"/>
+      <c r="AF69" s="121"/>
+      <c r="AG69" s="121"/>
+      <c r="AH69" s="121"/>
       <c r="AI69" s="8"/>
       <c r="AJ69" s="8" t="s">
         <v>57</v>
@@ -5811,12 +5846,12 @@
       <c r="AL69" s="8"/>
       <c r="AM69" s="21"/>
       <c r="AN69" s="8"/>
-      <c r="AO69" s="180" t="s">
+      <c r="AO69" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="AP69" s="180"/>
-      <c r="AQ69" s="180"/>
-      <c r="AR69" s="180"/>
+      <c r="AP69" s="108"/>
+      <c r="AQ69" s="108"/>
+      <c r="AR69" s="108"/>
       <c r="AS69" s="98" t="s">
         <v>55</v>
       </c>
@@ -5921,43 +5956,44 @@
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
       <c r="O74" s="18"/>
-      <c r="P74" s="110" t="s">
+      <c r="P74" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="Q74" s="110"/>
-      <c r="R74" s="110"/>
-      <c r="S74" s="110"/>
-      <c r="T74" s="110"/>
-      <c r="U74" s="110"/>
-      <c r="V74" s="110"/>
-      <c r="W74" s="110"/>
-      <c r="X74" s="110"/>
-      <c r="Y74" s="110"/>
-      <c r="Z74" s="110"/>
-      <c r="AA74" s="110"/>
-      <c r="AB74" s="110"/>
-      <c r="AC74" s="110"/>
-      <c r="AD74" s="110"/>
-      <c r="AE74" s="110"/>
-      <c r="AF74" s="110"/>
-      <c r="AG74" s="110"/>
-      <c r="AH74" s="110"/>
-      <c r="AI74" s="110"/>
+      <c r="Q74" s="137"/>
+      <c r="R74" s="137"/>
+      <c r="S74" s="137"/>
+      <c r="T74" s="137"/>
+      <c r="U74" s="137"/>
+      <c r="V74" s="137"/>
+      <c r="W74" s="137"/>
+      <c r="X74" s="137"/>
+      <c r="Y74" s="137"/>
+      <c r="Z74" s="137"/>
+      <c r="AA74" s="137"/>
+      <c r="AB74" s="137"/>
+      <c r="AC74" s="137"/>
+      <c r="AD74" s="137"/>
+      <c r="AE74" s="137"/>
+      <c r="AF74" s="137"/>
+      <c r="AG74" s="137"/>
+      <c r="AH74" s="137"/>
+      <c r="AI74" s="137"/>
       <c r="AJ74" s="18"/>
-      <c r="AK74" s="111" t="s">
+      <c r="AK74" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="AL74" s="112"/>
-      <c r="AM74" s="112"/>
-      <c r="AN74" s="115" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO74" s="115"/>
-      <c r="AP74" s="115"/>
-      <c r="AQ74" s="115"/>
-      <c r="AR74" s="115"/>
-      <c r="AS74" s="115"/>
-      <c r="AT74" s="116"/>
+      <c r="AL74" s="129"/>
+      <c r="AM74" s="129"/>
+      <c r="AN74" s="132" t="str">
+        <f>AN2</f>
+        <v>SJI-YY-NNN-M</v>
+      </c>
+      <c r="AO74" s="132"/>
+      <c r="AP74" s="132"/>
+      <c r="AQ74" s="132"/>
+      <c r="AR74" s="132"/>
+      <c r="AS74" s="132"/>
+      <c r="AT74" s="133"/>
       <c r="AU74" s="1"/>
     </row>
     <row r="75" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5976,39 +6012,39 @@
       <c r="M75" s="18"/>
       <c r="N75" s="18"/>
       <c r="O75" s="18"/>
-      <c r="P75" s="110" t="s">
+      <c r="P75" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="Q75" s="110"/>
-      <c r="R75" s="110"/>
-      <c r="S75" s="110"/>
-      <c r="T75" s="110"/>
-      <c r="U75" s="110"/>
-      <c r="V75" s="110"/>
-      <c r="W75" s="110"/>
-      <c r="X75" s="110"/>
-      <c r="Y75" s="110"/>
-      <c r="Z75" s="110"/>
-      <c r="AA75" s="110"/>
-      <c r="AB75" s="110"/>
-      <c r="AC75" s="110"/>
-      <c r="AD75" s="110"/>
-      <c r="AE75" s="110"/>
-      <c r="AF75" s="110"/>
-      <c r="AG75" s="110"/>
-      <c r="AH75" s="110"/>
-      <c r="AI75" s="110"/>
+      <c r="Q75" s="137"/>
+      <c r="R75" s="137"/>
+      <c r="S75" s="137"/>
+      <c r="T75" s="137"/>
+      <c r="U75" s="137"/>
+      <c r="V75" s="137"/>
+      <c r="W75" s="137"/>
+      <c r="X75" s="137"/>
+      <c r="Y75" s="137"/>
+      <c r="Z75" s="137"/>
+      <c r="AA75" s="137"/>
+      <c r="AB75" s="137"/>
+      <c r="AC75" s="137"/>
+      <c r="AD75" s="137"/>
+      <c r="AE75" s="137"/>
+      <c r="AF75" s="137"/>
+      <c r="AG75" s="137"/>
+      <c r="AH75" s="137"/>
+      <c r="AI75" s="137"/>
       <c r="AJ75" s="18"/>
-      <c r="AK75" s="113"/>
-      <c r="AL75" s="114"/>
-      <c r="AM75" s="114"/>
-      <c r="AN75" s="117"/>
-      <c r="AO75" s="117"/>
-      <c r="AP75" s="117"/>
-      <c r="AQ75" s="117"/>
-      <c r="AR75" s="117"/>
-      <c r="AS75" s="117"/>
-      <c r="AT75" s="118"/>
+      <c r="AK75" s="130"/>
+      <c r="AL75" s="131"/>
+      <c r="AM75" s="131"/>
+      <c r="AN75" s="134"/>
+      <c r="AO75" s="134"/>
+      <c r="AP75" s="134"/>
+      <c r="AQ75" s="134"/>
+      <c r="AR75" s="134"/>
+      <c r="AS75" s="134"/>
+      <c r="AT75" s="135"/>
       <c r="AU75" s="1"/>
     </row>
     <row r="76" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6062,51 +6098,51 @@
     </row>
     <row r="77" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
-      <c r="B77" s="152" t="s">
+      <c r="B77" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="152"/>
-      <c r="D77" s="152"/>
-      <c r="E77" s="152"/>
-      <c r="F77" s="152"/>
-      <c r="G77" s="152"/>
-      <c r="H77" s="152"/>
-      <c r="I77" s="152"/>
-      <c r="J77" s="152"/>
-      <c r="K77" s="152"/>
-      <c r="L77" s="152"/>
-      <c r="M77" s="152"/>
-      <c r="N77" s="152"/>
-      <c r="O77" s="152"/>
-      <c r="P77" s="152"/>
-      <c r="Q77" s="152"/>
-      <c r="R77" s="152"/>
-      <c r="S77" s="152"/>
-      <c r="T77" s="152"/>
-      <c r="U77" s="152"/>
-      <c r="V77" s="152"/>
-      <c r="W77" s="152"/>
-      <c r="X77" s="152"/>
-      <c r="Y77" s="152"/>
-      <c r="Z77" s="152"/>
-      <c r="AA77" s="152"/>
-      <c r="AB77" s="152"/>
-      <c r="AC77" s="152"/>
-      <c r="AD77" s="152"/>
-      <c r="AE77" s="152"/>
-      <c r="AF77" s="152"/>
-      <c r="AG77" s="152"/>
-      <c r="AH77" s="152"/>
-      <c r="AI77" s="152"/>
-      <c r="AJ77" s="152"/>
-      <c r="AK77" s="152"/>
-      <c r="AL77" s="152"/>
-      <c r="AM77" s="152"/>
-      <c r="AN77" s="152"/>
-      <c r="AO77" s="152"/>
-      <c r="AP77" s="152"/>
-      <c r="AQ77" s="152"/>
-      <c r="AR77" s="152"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="110"/>
+      <c r="F77" s="110"/>
+      <c r="G77" s="110"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="110"/>
+      <c r="K77" s="110"/>
+      <c r="L77" s="110"/>
+      <c r="M77" s="110"/>
+      <c r="N77" s="110"/>
+      <c r="O77" s="110"/>
+      <c r="P77" s="110"/>
+      <c r="Q77" s="110"/>
+      <c r="R77" s="110"/>
+      <c r="S77" s="110"/>
+      <c r="T77" s="110"/>
+      <c r="U77" s="110"/>
+      <c r="V77" s="110"/>
+      <c r="W77" s="110"/>
+      <c r="X77" s="110"/>
+      <c r="Y77" s="110"/>
+      <c r="Z77" s="110"/>
+      <c r="AA77" s="110"/>
+      <c r="AB77" s="110"/>
+      <c r="AC77" s="110"/>
+      <c r="AD77" s="110"/>
+      <c r="AE77" s="110"/>
+      <c r="AF77" s="110"/>
+      <c r="AG77" s="110"/>
+      <c r="AH77" s="110"/>
+      <c r="AI77" s="110"/>
+      <c r="AJ77" s="110"/>
+      <c r="AK77" s="110"/>
+      <c r="AL77" s="110"/>
+      <c r="AM77" s="110"/>
+      <c r="AN77" s="110"/>
+      <c r="AO77" s="110"/>
+      <c r="AP77" s="110"/>
+      <c r="AQ77" s="110"/>
+      <c r="AR77" s="110"/>
       <c r="AS77" s="48"/>
       <c r="AT77" s="8"/>
       <c r="AU77" s="8"/>
@@ -6176,33 +6212,33 @@
       <c r="AG79" s="59"/>
       <c r="AH79" s="59"/>
       <c r="AI79" s="59"/>
-      <c r="AJ79" s="137" t="s">
+      <c r="AJ79" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="AK79" s="139" t="s">
+      <c r="AK79" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="AL79" s="139" t="s">
+      <c r="AL79" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="AM79" s="139" t="s">
+      <c r="AM79" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="AN79" s="139" t="s">
+      <c r="AN79" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="AO79" s="139" t="s">
+      <c r="AO79" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="AP79" s="139" t="s">
+      <c r="AP79" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="AQ79" s="139" t="s">
+      <c r="AQ79" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="AR79" s="139"/>
-      <c r="AS79" s="139"/>
-      <c r="AT79" s="143"/>
+      <c r="AR79" s="157"/>
+      <c r="AS79" s="157"/>
+      <c r="AT79" s="159"/>
       <c r="AU79" s="8"/>
     </row>
     <row r="80" spans="1:48" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6243,17 +6279,17 @@
       <c r="AG80" s="62"/>
       <c r="AH80" s="62"/>
       <c r="AI80" s="62"/>
-      <c r="AJ80" s="138"/>
-      <c r="AK80" s="140"/>
-      <c r="AL80" s="140"/>
-      <c r="AM80" s="140"/>
-      <c r="AN80" s="140"/>
-      <c r="AO80" s="140"/>
-      <c r="AP80" s="140"/>
-      <c r="AQ80" s="140"/>
-      <c r="AR80" s="140"/>
-      <c r="AS80" s="140"/>
-      <c r="AT80" s="144"/>
+      <c r="AJ80" s="172"/>
+      <c r="AK80" s="158"/>
+      <c r="AL80" s="158"/>
+      <c r="AM80" s="158"/>
+      <c r="AN80" s="158"/>
+      <c r="AO80" s="158"/>
+      <c r="AP80" s="158"/>
+      <c r="AQ80" s="158"/>
+      <c r="AR80" s="158"/>
+      <c r="AS80" s="158"/>
+      <c r="AT80" s="160"/>
       <c r="AU80" s="8"/>
     </row>
     <row r="81" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6294,17 +6330,17 @@
       <c r="AG81" s="62"/>
       <c r="AH81" s="62"/>
       <c r="AI81" s="62"/>
-      <c r="AJ81" s="138"/>
-      <c r="AK81" s="140"/>
-      <c r="AL81" s="140"/>
-      <c r="AM81" s="140"/>
-      <c r="AN81" s="140"/>
-      <c r="AO81" s="140"/>
-      <c r="AP81" s="140"/>
-      <c r="AQ81" s="140"/>
-      <c r="AR81" s="140"/>
-      <c r="AS81" s="140"/>
-      <c r="AT81" s="144"/>
+      <c r="AJ81" s="172"/>
+      <c r="AK81" s="158"/>
+      <c r="AL81" s="158"/>
+      <c r="AM81" s="158"/>
+      <c r="AN81" s="158"/>
+      <c r="AO81" s="158"/>
+      <c r="AP81" s="158"/>
+      <c r="AQ81" s="158"/>
+      <c r="AR81" s="158"/>
+      <c r="AS81" s="158"/>
+      <c r="AT81" s="160"/>
       <c r="AU81" s="8"/>
     </row>
     <row r="82" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6345,17 +6381,17 @@
       <c r="AG82" s="62"/>
       <c r="AH82" s="62"/>
       <c r="AI82" s="62"/>
-      <c r="AJ82" s="138"/>
-      <c r="AK82" s="140"/>
-      <c r="AL82" s="140"/>
-      <c r="AM82" s="140"/>
-      <c r="AN82" s="140"/>
-      <c r="AO82" s="140"/>
-      <c r="AP82" s="140"/>
-      <c r="AQ82" s="140"/>
-      <c r="AR82" s="140"/>
-      <c r="AS82" s="140"/>
-      <c r="AT82" s="144"/>
+      <c r="AJ82" s="172"/>
+      <c r="AK82" s="158"/>
+      <c r="AL82" s="158"/>
+      <c r="AM82" s="158"/>
+      <c r="AN82" s="158"/>
+      <c r="AO82" s="158"/>
+      <c r="AP82" s="158"/>
+      <c r="AQ82" s="158"/>
+      <c r="AR82" s="158"/>
+      <c r="AS82" s="158"/>
+      <c r="AT82" s="160"/>
       <c r="AU82" s="8"/>
     </row>
     <row r="83" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6396,114 +6432,114 @@
       <c r="AG83" s="65"/>
       <c r="AH83" s="65"/>
       <c r="AI83" s="65"/>
-      <c r="AJ83" s="138"/>
-      <c r="AK83" s="140"/>
-      <c r="AL83" s="140"/>
-      <c r="AM83" s="140"/>
-      <c r="AN83" s="140"/>
-      <c r="AO83" s="140"/>
-      <c r="AP83" s="140"/>
-      <c r="AQ83" s="140"/>
-      <c r="AR83" s="140"/>
-      <c r="AS83" s="140"/>
-      <c r="AT83" s="144"/>
+      <c r="AJ83" s="172"/>
+      <c r="AK83" s="158"/>
+      <c r="AL83" s="158"/>
+      <c r="AM83" s="158"/>
+      <c r="AN83" s="158"/>
+      <c r="AO83" s="158"/>
+      <c r="AP83" s="158"/>
+      <c r="AQ83" s="158"/>
+      <c r="AR83" s="158"/>
+      <c r="AS83" s="158"/>
+      <c r="AT83" s="160"/>
       <c r="AU83" s="8"/>
     </row>
     <row r="84" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
-      <c r="B84" s="123" t="s">
+      <c r="B84" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="103"/>
-      <c r="D84" s="103"/>
-      <c r="E84" s="103"/>
-      <c r="F84" s="103"/>
-      <c r="G84" s="103" t="s">
+      <c r="C84" s="153"/>
+      <c r="D84" s="153"/>
+      <c r="E84" s="153"/>
+      <c r="F84" s="153"/>
+      <c r="G84" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="H84" s="103"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="103" t="s">
+      <c r="H84" s="153"/>
+      <c r="I84" s="153"/>
+      <c r="J84" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="K84" s="103"/>
-      <c r="L84" s="103"/>
-      <c r="M84" s="103"/>
-      <c r="N84" s="103"/>
-      <c r="O84" s="141" t="s">
+      <c r="K84" s="153"/>
+      <c r="L84" s="153"/>
+      <c r="M84" s="153"/>
+      <c r="N84" s="153"/>
+      <c r="O84" s="173" t="s">
         <v>141</v>
       </c>
-      <c r="P84" s="141"/>
-      <c r="Q84" s="141"/>
-      <c r="R84" s="141"/>
-      <c r="S84" s="141"/>
-      <c r="T84" s="141"/>
-      <c r="U84" s="141"/>
-      <c r="V84" s="141"/>
-      <c r="W84" s="142"/>
-      <c r="X84" s="134" t="s">
+      <c r="P84" s="173"/>
+      <c r="Q84" s="173"/>
+      <c r="R84" s="173"/>
+      <c r="S84" s="173"/>
+      <c r="T84" s="173"/>
+      <c r="U84" s="173"/>
+      <c r="V84" s="173"/>
+      <c r="W84" s="174"/>
+      <c r="X84" s="168" t="s">
         <v>142</v>
       </c>
-      <c r="Y84" s="135"/>
-      <c r="Z84" s="135"/>
-      <c r="AA84" s="135"/>
-      <c r="AB84" s="135"/>
-      <c r="AC84" s="135"/>
-      <c r="AD84" s="135"/>
-      <c r="AE84" s="135"/>
-      <c r="AF84" s="135"/>
-      <c r="AG84" s="135"/>
-      <c r="AH84" s="135"/>
-      <c r="AI84" s="136"/>
-      <c r="AJ84" s="138"/>
-      <c r="AK84" s="140"/>
-      <c r="AL84" s="140"/>
-      <c r="AM84" s="140"/>
-      <c r="AN84" s="140"/>
-      <c r="AO84" s="140"/>
-      <c r="AP84" s="140"/>
-      <c r="AQ84" s="140"/>
-      <c r="AR84" s="140"/>
-      <c r="AS84" s="140"/>
-      <c r="AT84" s="144"/>
+      <c r="Y84" s="169"/>
+      <c r="Z84" s="169"/>
+      <c r="AA84" s="169"/>
+      <c r="AB84" s="169"/>
+      <c r="AC84" s="169"/>
+      <c r="AD84" s="169"/>
+      <c r="AE84" s="169"/>
+      <c r="AF84" s="169"/>
+      <c r="AG84" s="169"/>
+      <c r="AH84" s="169"/>
+      <c r="AI84" s="170"/>
+      <c r="AJ84" s="172"/>
+      <c r="AK84" s="158"/>
+      <c r="AL84" s="158"/>
+      <c r="AM84" s="158"/>
+      <c r="AN84" s="158"/>
+      <c r="AO84" s="158"/>
+      <c r="AP84" s="158"/>
+      <c r="AQ84" s="158"/>
+      <c r="AR84" s="158"/>
+      <c r="AS84" s="158"/>
+      <c r="AT84" s="160"/>
       <c r="AU84" s="8"/>
     </row>
     <row r="85" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
-      <c r="B85" s="106"/>
-      <c r="C85" s="107"/>
-      <c r="D85" s="107"/>
-      <c r="E85" s="107"/>
-      <c r="F85" s="107"/>
-      <c r="G85" s="107"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="107"/>
-      <c r="J85" s="131"/>
-      <c r="K85" s="107"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="107"/>
-      <c r="N85" s="107"/>
-      <c r="O85" s="132"/>
-      <c r="P85" s="132"/>
-      <c r="Q85" s="132"/>
-      <c r="R85" s="132"/>
-      <c r="S85" s="132"/>
-      <c r="T85" s="132"/>
-      <c r="U85" s="132"/>
-      <c r="V85" s="132"/>
-      <c r="W85" s="133"/>
-      <c r="X85" s="128"/>
-      <c r="Y85" s="129"/>
-      <c r="Z85" s="129"/>
-      <c r="AA85" s="129"/>
-      <c r="AB85" s="129"/>
-      <c r="AC85" s="129"/>
-      <c r="AD85" s="129"/>
-      <c r="AE85" s="129"/>
-      <c r="AF85" s="129"/>
-      <c r="AG85" s="129"/>
-      <c r="AH85" s="129"/>
-      <c r="AI85" s="130"/>
+      <c r="B85" s="142"/>
+      <c r="C85" s="113"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="113"/>
+      <c r="F85" s="113"/>
+      <c r="G85" s="113"/>
+      <c r="H85" s="113"/>
+      <c r="I85" s="113"/>
+      <c r="J85" s="112"/>
+      <c r="K85" s="113"/>
+      <c r="L85" s="113"/>
+      <c r="M85" s="113"/>
+      <c r="N85" s="113"/>
+      <c r="O85" s="114"/>
+      <c r="P85" s="114"/>
+      <c r="Q85" s="114"/>
+      <c r="R85" s="114"/>
+      <c r="S85" s="114"/>
+      <c r="T85" s="114"/>
+      <c r="U85" s="114"/>
+      <c r="V85" s="114"/>
+      <c r="W85" s="115"/>
+      <c r="X85" s="161"/>
+      <c r="Y85" s="162"/>
+      <c r="Z85" s="162"/>
+      <c r="AA85" s="162"/>
+      <c r="AB85" s="162"/>
+      <c r="AC85" s="162"/>
+      <c r="AD85" s="162"/>
+      <c r="AE85" s="162"/>
+      <c r="AF85" s="162"/>
+      <c r="AG85" s="162"/>
+      <c r="AH85" s="162"/>
+      <c r="AI85" s="163"/>
       <c r="AJ85" s="69"/>
       <c r="AK85" s="70"/>
       <c r="AL85" s="71"/>
@@ -6519,40 +6555,40 @@
     </row>
     <row r="86" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
-      <c r="B86" s="106"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="107"/>
-      <c r="J86" s="131"/>
-      <c r="K86" s="107"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="107"/>
-      <c r="N86" s="107"/>
-      <c r="O86" s="132"/>
-      <c r="P86" s="132"/>
-      <c r="Q86" s="132"/>
-      <c r="R86" s="132"/>
-      <c r="S86" s="132"/>
-      <c r="T86" s="132"/>
-      <c r="U86" s="132"/>
-      <c r="V86" s="132"/>
-      <c r="W86" s="133"/>
-      <c r="X86" s="128"/>
-      <c r="Y86" s="129"/>
-      <c r="Z86" s="129"/>
-      <c r="AA86" s="129"/>
-      <c r="AB86" s="129"/>
-      <c r="AC86" s="129"/>
-      <c r="AD86" s="129"/>
-      <c r="AE86" s="129"/>
-      <c r="AF86" s="129"/>
-      <c r="AG86" s="129"/>
-      <c r="AH86" s="129"/>
-      <c r="AI86" s="130"/>
+      <c r="B86" s="142"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="113"/>
+      <c r="E86" s="113"/>
+      <c r="F86" s="113"/>
+      <c r="G86" s="113"/>
+      <c r="H86" s="113"/>
+      <c r="I86" s="113"/>
+      <c r="J86" s="112"/>
+      <c r="K86" s="113"/>
+      <c r="L86" s="113"/>
+      <c r="M86" s="113"/>
+      <c r="N86" s="113"/>
+      <c r="O86" s="114"/>
+      <c r="P86" s="114"/>
+      <c r="Q86" s="114"/>
+      <c r="R86" s="114"/>
+      <c r="S86" s="114"/>
+      <c r="T86" s="114"/>
+      <c r="U86" s="114"/>
+      <c r="V86" s="114"/>
+      <c r="W86" s="115"/>
+      <c r="X86" s="161"/>
+      <c r="Y86" s="162"/>
+      <c r="Z86" s="162"/>
+      <c r="AA86" s="162"/>
+      <c r="AB86" s="162"/>
+      <c r="AC86" s="162"/>
+      <c r="AD86" s="162"/>
+      <c r="AE86" s="162"/>
+      <c r="AF86" s="162"/>
+      <c r="AG86" s="162"/>
+      <c r="AH86" s="162"/>
+      <c r="AI86" s="163"/>
       <c r="AJ86" s="66"/>
       <c r="AK86" s="67"/>
       <c r="AL86" s="67"/>
@@ -6568,40 +6604,40 @@
     </row>
     <row r="87" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
-      <c r="B87" s="106"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="107"/>
-      <c r="E87" s="107"/>
-      <c r="F87" s="107"/>
-      <c r="G87" s="107"/>
-      <c r="H87" s="107"/>
-      <c r="I87" s="107"/>
-      <c r="J87" s="131"/>
-      <c r="K87" s="107"/>
-      <c r="L87" s="107"/>
-      <c r="M87" s="107"/>
-      <c r="N87" s="107"/>
-      <c r="O87" s="132"/>
-      <c r="P87" s="132"/>
-      <c r="Q87" s="132"/>
-      <c r="R87" s="132"/>
-      <c r="S87" s="132"/>
-      <c r="T87" s="132"/>
-      <c r="U87" s="132"/>
-      <c r="V87" s="132"/>
-      <c r="W87" s="133"/>
-      <c r="X87" s="128"/>
-      <c r="Y87" s="129"/>
-      <c r="Z87" s="129"/>
-      <c r="AA87" s="129"/>
-      <c r="AB87" s="129"/>
-      <c r="AC87" s="129"/>
-      <c r="AD87" s="129"/>
-      <c r="AE87" s="129"/>
-      <c r="AF87" s="129"/>
-      <c r="AG87" s="129"/>
-      <c r="AH87" s="129"/>
-      <c r="AI87" s="130"/>
+      <c r="B87" s="142"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="113"/>
+      <c r="E87" s="113"/>
+      <c r="F87" s="113"/>
+      <c r="G87" s="113"/>
+      <c r="H87" s="113"/>
+      <c r="I87" s="113"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="113"/>
+      <c r="L87" s="113"/>
+      <c r="M87" s="113"/>
+      <c r="N87" s="113"/>
+      <c r="O87" s="114"/>
+      <c r="P87" s="114"/>
+      <c r="Q87" s="114"/>
+      <c r="R87" s="114"/>
+      <c r="S87" s="114"/>
+      <c r="T87" s="114"/>
+      <c r="U87" s="114"/>
+      <c r="V87" s="114"/>
+      <c r="W87" s="115"/>
+      <c r="X87" s="161"/>
+      <c r="Y87" s="162"/>
+      <c r="Z87" s="162"/>
+      <c r="AA87" s="162"/>
+      <c r="AB87" s="162"/>
+      <c r="AC87" s="162"/>
+      <c r="AD87" s="162"/>
+      <c r="AE87" s="162"/>
+      <c r="AF87" s="162"/>
+      <c r="AG87" s="162"/>
+      <c r="AH87" s="162"/>
+      <c r="AI87" s="163"/>
       <c r="AJ87" s="69"/>
       <c r="AK87" s="70"/>
       <c r="AL87" s="71"/>
@@ -6617,40 +6653,40 @@
     </row>
     <row r="88" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="106"/>
-      <c r="C88" s="107"/>
-      <c r="D88" s="107"/>
-      <c r="E88" s="107"/>
-      <c r="F88" s="107"/>
-      <c r="G88" s="107"/>
-      <c r="H88" s="107"/>
-      <c r="I88" s="107"/>
-      <c r="J88" s="131"/>
-      <c r="K88" s="107"/>
-      <c r="L88" s="107"/>
-      <c r="M88" s="107"/>
-      <c r="N88" s="107"/>
-      <c r="O88" s="132"/>
-      <c r="P88" s="132"/>
-      <c r="Q88" s="132"/>
-      <c r="R88" s="132"/>
-      <c r="S88" s="132"/>
-      <c r="T88" s="132"/>
-      <c r="U88" s="132"/>
-      <c r="V88" s="132"/>
-      <c r="W88" s="133"/>
-      <c r="X88" s="128"/>
-      <c r="Y88" s="129"/>
-      <c r="Z88" s="129"/>
-      <c r="AA88" s="129"/>
-      <c r="AB88" s="129"/>
-      <c r="AC88" s="129"/>
-      <c r="AD88" s="129"/>
-      <c r="AE88" s="129"/>
-      <c r="AF88" s="129"/>
-      <c r="AG88" s="129"/>
-      <c r="AH88" s="129"/>
-      <c r="AI88" s="130"/>
+      <c r="B88" s="142"/>
+      <c r="C88" s="113"/>
+      <c r="D88" s="113"/>
+      <c r="E88" s="113"/>
+      <c r="F88" s="113"/>
+      <c r="G88" s="113"/>
+      <c r="H88" s="113"/>
+      <c r="I88" s="113"/>
+      <c r="J88" s="112"/>
+      <c r="K88" s="113"/>
+      <c r="L88" s="113"/>
+      <c r="M88" s="113"/>
+      <c r="N88" s="113"/>
+      <c r="O88" s="114"/>
+      <c r="P88" s="114"/>
+      <c r="Q88" s="114"/>
+      <c r="R88" s="114"/>
+      <c r="S88" s="114"/>
+      <c r="T88" s="114"/>
+      <c r="U88" s="114"/>
+      <c r="V88" s="114"/>
+      <c r="W88" s="115"/>
+      <c r="X88" s="161"/>
+      <c r="Y88" s="162"/>
+      <c r="Z88" s="162"/>
+      <c r="AA88" s="162"/>
+      <c r="AB88" s="162"/>
+      <c r="AC88" s="162"/>
+      <c r="AD88" s="162"/>
+      <c r="AE88" s="162"/>
+      <c r="AF88" s="162"/>
+      <c r="AG88" s="162"/>
+      <c r="AH88" s="162"/>
+      <c r="AI88" s="163"/>
       <c r="AJ88" s="69"/>
       <c r="AK88" s="70"/>
       <c r="AL88" s="71"/>
@@ -6675,40 +6711,40 @@
     </row>
     <row r="89" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="106"/>
-      <c r="C89" s="107"/>
-      <c r="D89" s="107"/>
-      <c r="E89" s="107"/>
-      <c r="F89" s="107"/>
-      <c r="G89" s="107"/>
-      <c r="H89" s="107"/>
-      <c r="I89" s="107"/>
-      <c r="J89" s="131"/>
-      <c r="K89" s="107"/>
-      <c r="L89" s="107"/>
-      <c r="M89" s="107"/>
-      <c r="N89" s="107"/>
-      <c r="O89" s="132"/>
-      <c r="P89" s="132"/>
-      <c r="Q89" s="132"/>
-      <c r="R89" s="132"/>
-      <c r="S89" s="132"/>
-      <c r="T89" s="132"/>
-      <c r="U89" s="132"/>
-      <c r="V89" s="132"/>
-      <c r="W89" s="133"/>
-      <c r="X89" s="128"/>
-      <c r="Y89" s="129"/>
-      <c r="Z89" s="129"/>
-      <c r="AA89" s="129"/>
-      <c r="AB89" s="129"/>
-      <c r="AC89" s="129"/>
-      <c r="AD89" s="129"/>
-      <c r="AE89" s="129"/>
-      <c r="AF89" s="129"/>
-      <c r="AG89" s="129"/>
-      <c r="AH89" s="129"/>
-      <c r="AI89" s="130"/>
+      <c r="B89" s="142"/>
+      <c r="C89" s="113"/>
+      <c r="D89" s="113"/>
+      <c r="E89" s="113"/>
+      <c r="F89" s="113"/>
+      <c r="G89" s="113"/>
+      <c r="H89" s="113"/>
+      <c r="I89" s="113"/>
+      <c r="J89" s="112"/>
+      <c r="K89" s="113"/>
+      <c r="L89" s="113"/>
+      <c r="M89" s="113"/>
+      <c r="N89" s="113"/>
+      <c r="O89" s="114"/>
+      <c r="P89" s="114"/>
+      <c r="Q89" s="114"/>
+      <c r="R89" s="114"/>
+      <c r="S89" s="114"/>
+      <c r="T89" s="114"/>
+      <c r="U89" s="114"/>
+      <c r="V89" s="114"/>
+      <c r="W89" s="115"/>
+      <c r="X89" s="161"/>
+      <c r="Y89" s="162"/>
+      <c r="Z89" s="162"/>
+      <c r="AA89" s="162"/>
+      <c r="AB89" s="162"/>
+      <c r="AC89" s="162"/>
+      <c r="AD89" s="162"/>
+      <c r="AE89" s="162"/>
+      <c r="AF89" s="162"/>
+      <c r="AG89" s="162"/>
+      <c r="AH89" s="162"/>
+      <c r="AI89" s="163"/>
       <c r="AJ89" s="69"/>
       <c r="AK89" s="70"/>
       <c r="AL89" s="71"/>
@@ -6733,40 +6769,40 @@
     </row>
     <row r="90" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="106"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="107"/>
-      <c r="E90" s="107"/>
-      <c r="F90" s="107"/>
-      <c r="G90" s="107"/>
-      <c r="H90" s="107"/>
-      <c r="I90" s="107"/>
-      <c r="J90" s="131"/>
-      <c r="K90" s="107"/>
-      <c r="L90" s="107"/>
-      <c r="M90" s="107"/>
-      <c r="N90" s="107"/>
-      <c r="O90" s="132"/>
-      <c r="P90" s="132"/>
-      <c r="Q90" s="132"/>
-      <c r="R90" s="132"/>
-      <c r="S90" s="132"/>
-      <c r="T90" s="132"/>
-      <c r="U90" s="132"/>
-      <c r="V90" s="132"/>
-      <c r="W90" s="133"/>
-      <c r="X90" s="128"/>
-      <c r="Y90" s="129"/>
-      <c r="Z90" s="129"/>
-      <c r="AA90" s="129"/>
-      <c r="AB90" s="129"/>
-      <c r="AC90" s="129"/>
-      <c r="AD90" s="129"/>
-      <c r="AE90" s="129"/>
-      <c r="AF90" s="129"/>
-      <c r="AG90" s="129"/>
-      <c r="AH90" s="129"/>
-      <c r="AI90" s="130"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="113"/>
+      <c r="D90" s="113"/>
+      <c r="E90" s="113"/>
+      <c r="F90" s="113"/>
+      <c r="G90" s="113"/>
+      <c r="H90" s="113"/>
+      <c r="I90" s="113"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="113"/>
+      <c r="L90" s="113"/>
+      <c r="M90" s="113"/>
+      <c r="N90" s="113"/>
+      <c r="O90" s="114"/>
+      <c r="P90" s="114"/>
+      <c r="Q90" s="114"/>
+      <c r="R90" s="114"/>
+      <c r="S90" s="114"/>
+      <c r="T90" s="114"/>
+      <c r="U90" s="114"/>
+      <c r="V90" s="114"/>
+      <c r="W90" s="115"/>
+      <c r="X90" s="161"/>
+      <c r="Y90" s="162"/>
+      <c r="Z90" s="162"/>
+      <c r="AA90" s="162"/>
+      <c r="AB90" s="162"/>
+      <c r="AC90" s="162"/>
+      <c r="AD90" s="162"/>
+      <c r="AE90" s="162"/>
+      <c r="AF90" s="162"/>
+      <c r="AG90" s="162"/>
+      <c r="AH90" s="162"/>
+      <c r="AI90" s="163"/>
       <c r="AJ90" s="69"/>
       <c r="AK90" s="70"/>
       <c r="AL90" s="71"/>
@@ -6791,40 +6827,40 @@
     </row>
     <row r="91" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="106"/>
-      <c r="C91" s="107"/>
-      <c r="D91" s="107"/>
-      <c r="E91" s="107"/>
-      <c r="F91" s="107"/>
-      <c r="G91" s="107"/>
-      <c r="H91" s="107"/>
-      <c r="I91" s="107"/>
-      <c r="J91" s="107"/>
-      <c r="K91" s="107"/>
-      <c r="L91" s="107"/>
-      <c r="M91" s="107"/>
-      <c r="N91" s="107"/>
-      <c r="O91" s="132"/>
-      <c r="P91" s="132"/>
-      <c r="Q91" s="132"/>
-      <c r="R91" s="132"/>
-      <c r="S91" s="132"/>
-      <c r="T91" s="132"/>
-      <c r="U91" s="132"/>
-      <c r="V91" s="132"/>
-      <c r="W91" s="133"/>
-      <c r="X91" s="149"/>
-      <c r="Y91" s="150"/>
-      <c r="Z91" s="150"/>
-      <c r="AA91" s="150"/>
-      <c r="AB91" s="150"/>
-      <c r="AC91" s="150"/>
-      <c r="AD91" s="150"/>
-      <c r="AE91" s="150"/>
-      <c r="AF91" s="150"/>
-      <c r="AG91" s="150"/>
-      <c r="AH91" s="150"/>
-      <c r="AI91" s="151"/>
+      <c r="B91" s="142"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
+      <c r="G91" s="113"/>
+      <c r="H91" s="113"/>
+      <c r="I91" s="113"/>
+      <c r="J91" s="113"/>
+      <c r="K91" s="113"/>
+      <c r="L91" s="113"/>
+      <c r="M91" s="113"/>
+      <c r="N91" s="113"/>
+      <c r="O91" s="114"/>
+      <c r="P91" s="114"/>
+      <c r="Q91" s="114"/>
+      <c r="R91" s="114"/>
+      <c r="S91" s="114"/>
+      <c r="T91" s="114"/>
+      <c r="U91" s="114"/>
+      <c r="V91" s="114"/>
+      <c r="W91" s="115"/>
+      <c r="X91" s="164"/>
+      <c r="Y91" s="165"/>
+      <c r="Z91" s="165"/>
+      <c r="AA91" s="165"/>
+      <c r="AB91" s="165"/>
+      <c r="AC91" s="165"/>
+      <c r="AD91" s="165"/>
+      <c r="AE91" s="165"/>
+      <c r="AF91" s="165"/>
+      <c r="AG91" s="165"/>
+      <c r="AH91" s="165"/>
+      <c r="AI91" s="166"/>
       <c r="AJ91" s="69"/>
       <c r="AK91" s="70"/>
       <c r="AL91" s="71"/>
@@ -6849,40 +6885,40 @@
     </row>
     <row r="92" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="106"/>
-      <c r="C92" s="107"/>
-      <c r="D92" s="107"/>
-      <c r="E92" s="107"/>
-      <c r="F92" s="107"/>
-      <c r="G92" s="107"/>
-      <c r="H92" s="107"/>
-      <c r="I92" s="107"/>
-      <c r="J92" s="107"/>
-      <c r="K92" s="107"/>
-      <c r="L92" s="107"/>
-      <c r="M92" s="107"/>
-      <c r="N92" s="107"/>
-      <c r="O92" s="132"/>
-      <c r="P92" s="132"/>
-      <c r="Q92" s="132"/>
-      <c r="R92" s="132"/>
-      <c r="S92" s="132"/>
-      <c r="T92" s="132"/>
-      <c r="U92" s="132"/>
-      <c r="V92" s="132"/>
-      <c r="W92" s="133"/>
-      <c r="X92" s="149"/>
-      <c r="Y92" s="150"/>
-      <c r="Z92" s="150"/>
-      <c r="AA92" s="150"/>
-      <c r="AB92" s="150"/>
-      <c r="AC92" s="150"/>
-      <c r="AD92" s="150"/>
-      <c r="AE92" s="150"/>
-      <c r="AF92" s="150"/>
-      <c r="AG92" s="150"/>
-      <c r="AH92" s="150"/>
-      <c r="AI92" s="151"/>
+      <c r="B92" s="142"/>
+      <c r="C92" s="113"/>
+      <c r="D92" s="113"/>
+      <c r="E92" s="113"/>
+      <c r="F92" s="113"/>
+      <c r="G92" s="113"/>
+      <c r="H92" s="113"/>
+      <c r="I92" s="113"/>
+      <c r="J92" s="113"/>
+      <c r="K92" s="113"/>
+      <c r="L92" s="113"/>
+      <c r="M92" s="113"/>
+      <c r="N92" s="113"/>
+      <c r="O92" s="114"/>
+      <c r="P92" s="114"/>
+      <c r="Q92" s="114"/>
+      <c r="R92" s="114"/>
+      <c r="S92" s="114"/>
+      <c r="T92" s="114"/>
+      <c r="U92" s="114"/>
+      <c r="V92" s="114"/>
+      <c r="W92" s="115"/>
+      <c r="X92" s="164"/>
+      <c r="Y92" s="165"/>
+      <c r="Z92" s="165"/>
+      <c r="AA92" s="165"/>
+      <c r="AB92" s="165"/>
+      <c r="AC92" s="165"/>
+      <c r="AD92" s="165"/>
+      <c r="AE92" s="165"/>
+      <c r="AF92" s="165"/>
+      <c r="AG92" s="165"/>
+      <c r="AH92" s="165"/>
+      <c r="AI92" s="166"/>
       <c r="AJ92" s="69"/>
       <c r="AK92" s="70"/>
       <c r="AL92" s="71"/>
@@ -6907,40 +6943,40 @@
     </row>
     <row r="93" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
-      <c r="B93" s="119"/>
-      <c r="C93" s="120"/>
-      <c r="D93" s="120"/>
-      <c r="E93" s="120"/>
-      <c r="F93" s="120"/>
-      <c r="G93" s="120"/>
-      <c r="H93" s="120"/>
-      <c r="I93" s="120"/>
-      <c r="J93" s="120"/>
-      <c r="K93" s="120"/>
-      <c r="L93" s="120"/>
-      <c r="M93" s="120"/>
-      <c r="N93" s="120"/>
-      <c r="O93" s="154"/>
-      <c r="P93" s="154"/>
-      <c r="Q93" s="154"/>
-      <c r="R93" s="154"/>
-      <c r="S93" s="154"/>
-      <c r="T93" s="154"/>
-      <c r="U93" s="154"/>
-      <c r="V93" s="154"/>
-      <c r="W93" s="155"/>
-      <c r="X93" s="169"/>
-      <c r="Y93" s="170"/>
-      <c r="Z93" s="170"/>
-      <c r="AA93" s="170"/>
-      <c r="AB93" s="170"/>
-      <c r="AC93" s="170"/>
-      <c r="AD93" s="170"/>
-      <c r="AE93" s="170"/>
-      <c r="AF93" s="170"/>
-      <c r="AG93" s="170"/>
-      <c r="AH93" s="170"/>
-      <c r="AI93" s="171"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="117"/>
+      <c r="D93" s="117"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="117"/>
+      <c r="G93" s="117"/>
+      <c r="H93" s="117"/>
+      <c r="I93" s="117"/>
+      <c r="J93" s="117"/>
+      <c r="K93" s="117"/>
+      <c r="L93" s="117"/>
+      <c r="M93" s="117"/>
+      <c r="N93" s="117"/>
+      <c r="O93" s="140"/>
+      <c r="P93" s="140"/>
+      <c r="Q93" s="140"/>
+      <c r="R93" s="140"/>
+      <c r="S93" s="140"/>
+      <c r="T93" s="140"/>
+      <c r="U93" s="140"/>
+      <c r="V93" s="140"/>
+      <c r="W93" s="141"/>
+      <c r="X93" s="118"/>
+      <c r="Y93" s="119"/>
+      <c r="Z93" s="119"/>
+      <c r="AA93" s="119"/>
+      <c r="AB93" s="119"/>
+      <c r="AC93" s="119"/>
+      <c r="AD93" s="119"/>
+      <c r="AE93" s="119"/>
+      <c r="AF93" s="119"/>
+      <c r="AG93" s="119"/>
+      <c r="AH93" s="119"/>
+      <c r="AI93" s="120"/>
       <c r="AJ93" s="72"/>
       <c r="AK93" s="73"/>
       <c r="AL93" s="74"/>
@@ -7005,154 +7041,154 @@
     </row>
     <row r="95" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
-      <c r="B95" s="159" t="s">
+      <c r="B95" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="159"/>
-      <c r="D95" s="159"/>
-      <c r="E95" s="159"/>
-      <c r="F95" s="159"/>
-      <c r="G95" s="159"/>
-      <c r="H95" s="159"/>
-      <c r="I95" s="159"/>
-      <c r="J95" s="159"/>
-      <c r="K95" s="159"/>
-      <c r="L95" s="159"/>
-      <c r="M95" s="159"/>
-      <c r="N95" s="159"/>
-      <c r="O95" s="159"/>
-      <c r="P95" s="159"/>
-      <c r="Q95" s="159"/>
-      <c r="R95" s="159"/>
-      <c r="S95" s="159"/>
-      <c r="T95" s="159"/>
-      <c r="U95" s="159"/>
-      <c r="V95" s="159"/>
-      <c r="W95" s="159"/>
-      <c r="X95" s="159"/>
-      <c r="Y95" s="159"/>
-      <c r="Z95" s="159"/>
-      <c r="AA95" s="159"/>
-      <c r="AB95" s="159"/>
-      <c r="AC95" s="159"/>
-      <c r="AD95" s="159"/>
-      <c r="AE95" s="159"/>
-      <c r="AF95" s="159"/>
-      <c r="AG95" s="159"/>
-      <c r="AH95" s="159"/>
-      <c r="AI95" s="159"/>
-      <c r="AJ95" s="159"/>
-      <c r="AK95" s="159"/>
-      <c r="AL95" s="159"/>
-      <c r="AM95" s="159"/>
-      <c r="AN95" s="159"/>
-      <c r="AO95" s="159"/>
-      <c r="AP95" s="159"/>
-      <c r="AQ95" s="159"/>
-      <c r="AR95" s="159"/>
-      <c r="AS95" s="159"/>
-      <c r="AT95" s="159"/>
+      <c r="C95" s="156"/>
+      <c r="D95" s="156"/>
+      <c r="E95" s="156"/>
+      <c r="F95" s="156"/>
+      <c r="G95" s="156"/>
+      <c r="H95" s="156"/>
+      <c r="I95" s="156"/>
+      <c r="J95" s="156"/>
+      <c r="K95" s="156"/>
+      <c r="L95" s="156"/>
+      <c r="M95" s="156"/>
+      <c r="N95" s="156"/>
+      <c r="O95" s="156"/>
+      <c r="P95" s="156"/>
+      <c r="Q95" s="156"/>
+      <c r="R95" s="156"/>
+      <c r="S95" s="156"/>
+      <c r="T95" s="156"/>
+      <c r="U95" s="156"/>
+      <c r="V95" s="156"/>
+      <c r="W95" s="156"/>
+      <c r="X95" s="156"/>
+      <c r="Y95" s="156"/>
+      <c r="Z95" s="156"/>
+      <c r="AA95" s="156"/>
+      <c r="AB95" s="156"/>
+      <c r="AC95" s="156"/>
+      <c r="AD95" s="156"/>
+      <c r="AE95" s="156"/>
+      <c r="AF95" s="156"/>
+      <c r="AG95" s="156"/>
+      <c r="AH95" s="156"/>
+      <c r="AI95" s="156"/>
+      <c r="AJ95" s="156"/>
+      <c r="AK95" s="156"/>
+      <c r="AL95" s="156"/>
+      <c r="AM95" s="156"/>
+      <c r="AN95" s="156"/>
+      <c r="AO95" s="156"/>
+      <c r="AP95" s="156"/>
+      <c r="AQ95" s="156"/>
+      <c r="AR95" s="156"/>
+      <c r="AS95" s="156"/>
+      <c r="AT95" s="156"/>
       <c r="AU95" s="8"/>
     </row>
     <row r="96" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
-      <c r="B96" s="159" t="s">
+      <c r="B96" s="156" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="159"/>
-      <c r="D96" s="159"/>
-      <c r="E96" s="159"/>
-      <c r="F96" s="159"/>
-      <c r="G96" s="159"/>
-      <c r="H96" s="159"/>
-      <c r="I96" s="159"/>
-      <c r="J96" s="159"/>
-      <c r="K96" s="159"/>
-      <c r="L96" s="159"/>
-      <c r="M96" s="159"/>
-      <c r="N96" s="159"/>
-      <c r="O96" s="159"/>
-      <c r="P96" s="159"/>
-      <c r="Q96" s="159"/>
-      <c r="R96" s="159"/>
-      <c r="S96" s="159"/>
-      <c r="T96" s="159"/>
-      <c r="U96" s="159"/>
-      <c r="V96" s="159"/>
-      <c r="W96" s="159"/>
-      <c r="X96" s="159"/>
-      <c r="Y96" s="159"/>
-      <c r="Z96" s="159"/>
-      <c r="AA96" s="159"/>
-      <c r="AB96" s="159"/>
-      <c r="AC96" s="159"/>
-      <c r="AD96" s="159"/>
-      <c r="AE96" s="159"/>
-      <c r="AF96" s="159"/>
-      <c r="AG96" s="159"/>
-      <c r="AH96" s="159"/>
-      <c r="AI96" s="159"/>
-      <c r="AJ96" s="159"/>
-      <c r="AK96" s="159"/>
-      <c r="AL96" s="159"/>
-      <c r="AM96" s="159"/>
-      <c r="AN96" s="159"/>
-      <c r="AO96" s="159"/>
-      <c r="AP96" s="159"/>
-      <c r="AQ96" s="159"/>
-      <c r="AR96" s="159"/>
-      <c r="AS96" s="159"/>
-      <c r="AT96" s="159"/>
+      <c r="C96" s="156"/>
+      <c r="D96" s="156"/>
+      <c r="E96" s="156"/>
+      <c r="F96" s="156"/>
+      <c r="G96" s="156"/>
+      <c r="H96" s="156"/>
+      <c r="I96" s="156"/>
+      <c r="J96" s="156"/>
+      <c r="K96" s="156"/>
+      <c r="L96" s="156"/>
+      <c r="M96" s="156"/>
+      <c r="N96" s="156"/>
+      <c r="O96" s="156"/>
+      <c r="P96" s="156"/>
+      <c r="Q96" s="156"/>
+      <c r="R96" s="156"/>
+      <c r="S96" s="156"/>
+      <c r="T96" s="156"/>
+      <c r="U96" s="156"/>
+      <c r="V96" s="156"/>
+      <c r="W96" s="156"/>
+      <c r="X96" s="156"/>
+      <c r="Y96" s="156"/>
+      <c r="Z96" s="156"/>
+      <c r="AA96" s="156"/>
+      <c r="AB96" s="156"/>
+      <c r="AC96" s="156"/>
+      <c r="AD96" s="156"/>
+      <c r="AE96" s="156"/>
+      <c r="AF96" s="156"/>
+      <c r="AG96" s="156"/>
+      <c r="AH96" s="156"/>
+      <c r="AI96" s="156"/>
+      <c r="AJ96" s="156"/>
+      <c r="AK96" s="156"/>
+      <c r="AL96" s="156"/>
+      <c r="AM96" s="156"/>
+      <c r="AN96" s="156"/>
+      <c r="AO96" s="156"/>
+      <c r="AP96" s="156"/>
+      <c r="AQ96" s="156"/>
+      <c r="AR96" s="156"/>
+      <c r="AS96" s="156"/>
+      <c r="AT96" s="156"/>
       <c r="AU96" s="8"/>
     </row>
     <row r="97" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="152" t="s">
+      <c r="C97" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="152"/>
-      <c r="E97" s="152"/>
-      <c r="F97" s="152"/>
-      <c r="G97" s="152"/>
-      <c r="H97" s="152"/>
-      <c r="I97" s="152"/>
-      <c r="J97" s="152"/>
-      <c r="K97" s="152"/>
-      <c r="L97" s="152"/>
-      <c r="M97" s="152"/>
-      <c r="N97" s="152"/>
-      <c r="O97" s="152"/>
-      <c r="P97" s="152"/>
-      <c r="Q97" s="152"/>
-      <c r="R97" s="152"/>
-      <c r="S97" s="152"/>
-      <c r="T97" s="152"/>
-      <c r="U97" s="152"/>
-      <c r="V97" s="152"/>
-      <c r="W97" s="152"/>
-      <c r="X97" s="152"/>
-      <c r="Y97" s="152"/>
-      <c r="Z97" s="152"/>
-      <c r="AA97" s="152"/>
-      <c r="AB97" s="152"/>
-      <c r="AC97" s="152"/>
-      <c r="AD97" s="152"/>
-      <c r="AE97" s="152"/>
-      <c r="AF97" s="152"/>
-      <c r="AG97" s="152"/>
-      <c r="AH97" s="152"/>
-      <c r="AI97" s="152"/>
-      <c r="AJ97" s="152"/>
-      <c r="AK97" s="152"/>
-      <c r="AL97" s="152"/>
-      <c r="AM97" s="152"/>
-      <c r="AN97" s="152"/>
-      <c r="AO97" s="152"/>
-      <c r="AP97" s="152"/>
-      <c r="AQ97" s="152"/>
-      <c r="AR97" s="152"/>
-      <c r="AS97" s="152"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="110"/>
+      <c r="F97" s="110"/>
+      <c r="G97" s="110"/>
+      <c r="H97" s="110"/>
+      <c r="I97" s="110"/>
+      <c r="J97" s="110"/>
+      <c r="K97" s="110"/>
+      <c r="L97" s="110"/>
+      <c r="M97" s="110"/>
+      <c r="N97" s="110"/>
+      <c r="O97" s="110"/>
+      <c r="P97" s="110"/>
+      <c r="Q97" s="110"/>
+      <c r="R97" s="110"/>
+      <c r="S97" s="110"/>
+      <c r="T97" s="110"/>
+      <c r="U97" s="110"/>
+      <c r="V97" s="110"/>
+      <c r="W97" s="110"/>
+      <c r="X97" s="110"/>
+      <c r="Y97" s="110"/>
+      <c r="Z97" s="110"/>
+      <c r="AA97" s="110"/>
+      <c r="AB97" s="110"/>
+      <c r="AC97" s="110"/>
+      <c r="AD97" s="110"/>
+      <c r="AE97" s="110"/>
+      <c r="AF97" s="110"/>
+      <c r="AG97" s="110"/>
+      <c r="AH97" s="110"/>
+      <c r="AI97" s="110"/>
+      <c r="AJ97" s="110"/>
+      <c r="AK97" s="110"/>
+      <c r="AL97" s="110"/>
+      <c r="AM97" s="110"/>
+      <c r="AN97" s="110"/>
+      <c r="AO97" s="110"/>
+      <c r="AP97" s="110"/>
+      <c r="AQ97" s="110"/>
+      <c r="AR97" s="110"/>
+      <c r="AS97" s="110"/>
       <c r="AT97" s="18"/>
       <c r="AU97" s="8"/>
     </row>
@@ -7207,53 +7243,53 @@
     </row>
     <row r="99" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
-      <c r="B99" s="125" t="s">
+      <c r="B99" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="C99" s="126"/>
-      <c r="D99" s="126"/>
-      <c r="E99" s="126"/>
-      <c r="F99" s="126"/>
-      <c r="G99" s="126"/>
-      <c r="H99" s="126"/>
-      <c r="I99" s="126"/>
-      <c r="J99" s="126"/>
-      <c r="K99" s="126"/>
-      <c r="L99" s="126"/>
-      <c r="M99" s="126"/>
-      <c r="N99" s="126"/>
-      <c r="O99" s="126"/>
-      <c r="P99" s="126"/>
-      <c r="Q99" s="126"/>
-      <c r="R99" s="126"/>
-      <c r="S99" s="126"/>
-      <c r="T99" s="126"/>
-      <c r="U99" s="126"/>
-      <c r="V99" s="126"/>
-      <c r="W99" s="126"/>
-      <c r="X99" s="126"/>
-      <c r="Y99" s="126"/>
-      <c r="Z99" s="126"/>
-      <c r="AA99" s="126"/>
-      <c r="AB99" s="126"/>
-      <c r="AC99" s="126"/>
-      <c r="AD99" s="126"/>
-      <c r="AE99" s="126"/>
-      <c r="AF99" s="126"/>
-      <c r="AG99" s="126"/>
-      <c r="AH99" s="126"/>
-      <c r="AI99" s="126"/>
-      <c r="AJ99" s="126"/>
-      <c r="AK99" s="126"/>
-      <c r="AL99" s="126"/>
-      <c r="AM99" s="126"/>
-      <c r="AN99" s="126"/>
-      <c r="AO99" s="126"/>
-      <c r="AP99" s="126"/>
-      <c r="AQ99" s="126"/>
-      <c r="AR99" s="126"/>
-      <c r="AS99" s="126"/>
-      <c r="AT99" s="127"/>
+      <c r="C99" s="150"/>
+      <c r="D99" s="150"/>
+      <c r="E99" s="150"/>
+      <c r="F99" s="150"/>
+      <c r="G99" s="150"/>
+      <c r="H99" s="150"/>
+      <c r="I99" s="150"/>
+      <c r="J99" s="150"/>
+      <c r="K99" s="150"/>
+      <c r="L99" s="150"/>
+      <c r="M99" s="150"/>
+      <c r="N99" s="150"/>
+      <c r="O99" s="150"/>
+      <c r="P99" s="150"/>
+      <c r="Q99" s="150"/>
+      <c r="R99" s="150"/>
+      <c r="S99" s="150"/>
+      <c r="T99" s="150"/>
+      <c r="U99" s="150"/>
+      <c r="V99" s="150"/>
+      <c r="W99" s="150"/>
+      <c r="X99" s="150"/>
+      <c r="Y99" s="150"/>
+      <c r="Z99" s="150"/>
+      <c r="AA99" s="150"/>
+      <c r="AB99" s="150"/>
+      <c r="AC99" s="150"/>
+      <c r="AD99" s="150"/>
+      <c r="AE99" s="150"/>
+      <c r="AF99" s="150"/>
+      <c r="AG99" s="150"/>
+      <c r="AH99" s="150"/>
+      <c r="AI99" s="150"/>
+      <c r="AJ99" s="150"/>
+      <c r="AK99" s="150"/>
+      <c r="AL99" s="150"/>
+      <c r="AM99" s="150"/>
+      <c r="AN99" s="150"/>
+      <c r="AO99" s="150"/>
+      <c r="AP99" s="150"/>
+      <c r="AQ99" s="150"/>
+      <c r="AR99" s="150"/>
+      <c r="AS99" s="150"/>
+      <c r="AT99" s="151"/>
       <c r="AU99" s="8"/>
     </row>
     <row r="100" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7307,361 +7343,361 @@
     </row>
     <row r="101" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
-      <c r="B101" s="123" t="s">
+      <c r="B101" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="103"/>
-      <c r="D101" s="103"/>
-      <c r="E101" s="103"/>
-      <c r="F101" s="103"/>
-      <c r="G101" s="103" t="s">
+      <c r="C101" s="153"/>
+      <c r="D101" s="153"/>
+      <c r="E101" s="153"/>
+      <c r="F101" s="153"/>
+      <c r="G101" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="H101" s="103"/>
-      <c r="I101" s="103"/>
-      <c r="J101" s="103"/>
-      <c r="K101" s="103"/>
-      <c r="L101" s="103"/>
-      <c r="M101" s="103"/>
-      <c r="N101" s="103"/>
-      <c r="O101" s="103"/>
-      <c r="P101" s="103"/>
-      <c r="Q101" s="103"/>
-      <c r="R101" s="104" t="s">
+      <c r="H101" s="153"/>
+      <c r="I101" s="153"/>
+      <c r="J101" s="153"/>
+      <c r="K101" s="153"/>
+      <c r="L101" s="153"/>
+      <c r="M101" s="153"/>
+      <c r="N101" s="153"/>
+      <c r="O101" s="153"/>
+      <c r="P101" s="153"/>
+      <c r="Q101" s="153"/>
+      <c r="R101" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="S101" s="104"/>
-      <c r="T101" s="104"/>
-      <c r="U101" s="104"/>
-      <c r="V101" s="104" t="s">
+      <c r="S101" s="154"/>
+      <c r="T101" s="154"/>
+      <c r="U101" s="154"/>
+      <c r="V101" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="W101" s="104"/>
-      <c r="X101" s="105"/>
+      <c r="W101" s="154"/>
+      <c r="X101" s="155"/>
       <c r="Y101" s="13"/>
-      <c r="Z101" s="123" t="s">
+      <c r="Z101" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="AA101" s="103"/>
-      <c r="AB101" s="103"/>
-      <c r="AC101" s="103"/>
-      <c r="AD101" s="103" t="s">
+      <c r="AA101" s="153"/>
+      <c r="AB101" s="153"/>
+      <c r="AC101" s="153"/>
+      <c r="AD101" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="AE101" s="103"/>
-      <c r="AF101" s="103"/>
-      <c r="AG101" s="103"/>
-      <c r="AH101" s="103"/>
-      <c r="AI101" s="103"/>
-      <c r="AJ101" s="103"/>
-      <c r="AK101" s="103"/>
-      <c r="AL101" s="103"/>
-      <c r="AM101" s="103"/>
-      <c r="AN101" s="104" t="s">
+      <c r="AE101" s="153"/>
+      <c r="AF101" s="153"/>
+      <c r="AG101" s="153"/>
+      <c r="AH101" s="153"/>
+      <c r="AI101" s="153"/>
+      <c r="AJ101" s="153"/>
+      <c r="AK101" s="153"/>
+      <c r="AL101" s="153"/>
+      <c r="AM101" s="153"/>
+      <c r="AN101" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="AO101" s="104"/>
-      <c r="AP101" s="104"/>
-      <c r="AQ101" s="104"/>
-      <c r="AR101" s="104" t="s">
+      <c r="AO101" s="154"/>
+      <c r="AP101" s="154"/>
+      <c r="AQ101" s="154"/>
+      <c r="AR101" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="AS101" s="104"/>
-      <c r="AT101" s="105"/>
+      <c r="AS101" s="154"/>
+      <c r="AT101" s="155"/>
       <c r="AU101" s="8"/>
     </row>
     <row r="102" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
-      <c r="B102" s="106"/>
-      <c r="C102" s="107"/>
-      <c r="D102" s="107"/>
-      <c r="E102" s="107"/>
-      <c r="F102" s="107"/>
-      <c r="G102" s="107"/>
-      <c r="H102" s="107"/>
-      <c r="I102" s="107"/>
-      <c r="J102" s="107"/>
-      <c r="K102" s="107"/>
-      <c r="L102" s="107"/>
-      <c r="M102" s="107"/>
-      <c r="N102" s="107"/>
-      <c r="O102" s="107"/>
-      <c r="P102" s="107"/>
-      <c r="Q102" s="107"/>
-      <c r="R102" s="108"/>
-      <c r="S102" s="108"/>
-      <c r="T102" s="108"/>
-      <c r="U102" s="108"/>
-      <c r="V102" s="124"/>
-      <c r="W102" s="108"/>
-      <c r="X102" s="109"/>
+      <c r="B102" s="142"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
+      <c r="G102" s="113"/>
+      <c r="H102" s="113"/>
+      <c r="I102" s="113"/>
+      <c r="J102" s="113"/>
+      <c r="K102" s="113"/>
+      <c r="L102" s="113"/>
+      <c r="M102" s="113"/>
+      <c r="N102" s="113"/>
+      <c r="O102" s="113"/>
+      <c r="P102" s="113"/>
+      <c r="Q102" s="113"/>
+      <c r="R102" s="175"/>
+      <c r="S102" s="175"/>
+      <c r="T102" s="175"/>
+      <c r="U102" s="175"/>
+      <c r="V102" s="179"/>
+      <c r="W102" s="175"/>
+      <c r="X102" s="176"/>
       <c r="Y102" s="51"/>
-      <c r="Z102" s="106"/>
-      <c r="AA102" s="107"/>
-      <c r="AB102" s="107"/>
-      <c r="AC102" s="107"/>
-      <c r="AD102" s="107"/>
-      <c r="AE102" s="107"/>
-      <c r="AF102" s="107"/>
-      <c r="AG102" s="107"/>
-      <c r="AH102" s="107"/>
-      <c r="AI102" s="107"/>
-      <c r="AJ102" s="107"/>
-      <c r="AK102" s="107"/>
-      <c r="AL102" s="107"/>
-      <c r="AM102" s="107"/>
-      <c r="AN102" s="108"/>
-      <c r="AO102" s="108"/>
-      <c r="AP102" s="108"/>
-      <c r="AQ102" s="108"/>
-      <c r="AR102" s="108"/>
-      <c r="AS102" s="108"/>
-      <c r="AT102" s="109"/>
+      <c r="Z102" s="142"/>
+      <c r="AA102" s="113"/>
+      <c r="AB102" s="113"/>
+      <c r="AC102" s="113"/>
+      <c r="AD102" s="113"/>
+      <c r="AE102" s="113"/>
+      <c r="AF102" s="113"/>
+      <c r="AG102" s="113"/>
+      <c r="AH102" s="113"/>
+      <c r="AI102" s="113"/>
+      <c r="AJ102" s="113"/>
+      <c r="AK102" s="113"/>
+      <c r="AL102" s="113"/>
+      <c r="AM102" s="113"/>
+      <c r="AN102" s="175"/>
+      <c r="AO102" s="175"/>
+      <c r="AP102" s="175"/>
+      <c r="AQ102" s="175"/>
+      <c r="AR102" s="175"/>
+      <c r="AS102" s="175"/>
+      <c r="AT102" s="176"/>
       <c r="AU102" s="8"/>
     </row>
     <row r="103" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
-      <c r="B103" s="106"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="107"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="107"/>
-      <c r="G103" s="107"/>
-      <c r="H103" s="107"/>
-      <c r="I103" s="107"/>
-      <c r="J103" s="107"/>
-      <c r="K103" s="107"/>
-      <c r="L103" s="107"/>
-      <c r="M103" s="107"/>
-      <c r="N103" s="107"/>
-      <c r="O103" s="107"/>
-      <c r="P103" s="107"/>
-      <c r="Q103" s="107"/>
-      <c r="R103" s="108"/>
-      <c r="S103" s="108"/>
-      <c r="T103" s="108"/>
-      <c r="U103" s="108"/>
-      <c r="V103" s="108"/>
-      <c r="W103" s="108"/>
-      <c r="X103" s="109"/>
+      <c r="B103" s="142"/>
+      <c r="C103" s="113"/>
+      <c r="D103" s="113"/>
+      <c r="E103" s="113"/>
+      <c r="F103" s="113"/>
+      <c r="G103" s="113"/>
+      <c r="H103" s="113"/>
+      <c r="I103" s="113"/>
+      <c r="J103" s="113"/>
+      <c r="K103" s="113"/>
+      <c r="L103" s="113"/>
+      <c r="M103" s="113"/>
+      <c r="N103" s="113"/>
+      <c r="O103" s="113"/>
+      <c r="P103" s="113"/>
+      <c r="Q103" s="113"/>
+      <c r="R103" s="175"/>
+      <c r="S103" s="175"/>
+      <c r="T103" s="175"/>
+      <c r="U103" s="175"/>
+      <c r="V103" s="175"/>
+      <c r="W103" s="175"/>
+      <c r="X103" s="176"/>
       <c r="Y103" s="51"/>
-      <c r="Z103" s="106"/>
-      <c r="AA103" s="107"/>
-      <c r="AB103" s="107"/>
-      <c r="AC103" s="107"/>
-      <c r="AD103" s="107"/>
-      <c r="AE103" s="107"/>
-      <c r="AF103" s="107"/>
-      <c r="AG103" s="107"/>
-      <c r="AH103" s="107"/>
-      <c r="AI103" s="107"/>
-      <c r="AJ103" s="107"/>
-      <c r="AK103" s="107"/>
-      <c r="AL103" s="107"/>
-      <c r="AM103" s="107"/>
-      <c r="AN103" s="108"/>
-      <c r="AO103" s="108"/>
-      <c r="AP103" s="108"/>
-      <c r="AQ103" s="108"/>
-      <c r="AR103" s="108"/>
-      <c r="AS103" s="108"/>
-      <c r="AT103" s="109"/>
+      <c r="Z103" s="142"/>
+      <c r="AA103" s="113"/>
+      <c r="AB103" s="113"/>
+      <c r="AC103" s="113"/>
+      <c r="AD103" s="113"/>
+      <c r="AE103" s="113"/>
+      <c r="AF103" s="113"/>
+      <c r="AG103" s="113"/>
+      <c r="AH103" s="113"/>
+      <c r="AI103" s="113"/>
+      <c r="AJ103" s="113"/>
+      <c r="AK103" s="113"/>
+      <c r="AL103" s="113"/>
+      <c r="AM103" s="113"/>
+      <c r="AN103" s="175"/>
+      <c r="AO103" s="175"/>
+      <c r="AP103" s="175"/>
+      <c r="AQ103" s="175"/>
+      <c r="AR103" s="175"/>
+      <c r="AS103" s="175"/>
+      <c r="AT103" s="176"/>
       <c r="AU103" s="8"/>
     </row>
     <row r="104" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
-      <c r="B104" s="106"/>
-      <c r="C104" s="107"/>
-      <c r="D104" s="107"/>
-      <c r="E104" s="107"/>
-      <c r="F104" s="107"/>
-      <c r="G104" s="107"/>
-      <c r="H104" s="107"/>
-      <c r="I104" s="107"/>
-      <c r="J104" s="107"/>
-      <c r="K104" s="107"/>
-      <c r="L104" s="107"/>
-      <c r="M104" s="107"/>
-      <c r="N104" s="107"/>
-      <c r="O104" s="107"/>
-      <c r="P104" s="107"/>
-      <c r="Q104" s="107"/>
-      <c r="R104" s="108"/>
-      <c r="S104" s="108"/>
-      <c r="T104" s="108"/>
-      <c r="U104" s="108"/>
-      <c r="V104" s="108"/>
-      <c r="W104" s="108"/>
-      <c r="X104" s="109"/>
+      <c r="B104" s="142"/>
+      <c r="C104" s="113"/>
+      <c r="D104" s="113"/>
+      <c r="E104" s="113"/>
+      <c r="F104" s="113"/>
+      <c r="G104" s="113"/>
+      <c r="H104" s="113"/>
+      <c r="I104" s="113"/>
+      <c r="J104" s="113"/>
+      <c r="K104" s="113"/>
+      <c r="L104" s="113"/>
+      <c r="M104" s="113"/>
+      <c r="N104" s="113"/>
+      <c r="O104" s="113"/>
+      <c r="P104" s="113"/>
+      <c r="Q104" s="113"/>
+      <c r="R104" s="175"/>
+      <c r="S104" s="175"/>
+      <c r="T104" s="175"/>
+      <c r="U104" s="175"/>
+      <c r="V104" s="175"/>
+      <c r="W104" s="175"/>
+      <c r="X104" s="176"/>
       <c r="Y104" s="51"/>
-      <c r="Z104" s="106"/>
-      <c r="AA104" s="107"/>
-      <c r="AB104" s="107"/>
-      <c r="AC104" s="107"/>
-      <c r="AD104" s="107"/>
-      <c r="AE104" s="107"/>
-      <c r="AF104" s="107"/>
-      <c r="AG104" s="107"/>
-      <c r="AH104" s="107"/>
-      <c r="AI104" s="107"/>
-      <c r="AJ104" s="107"/>
-      <c r="AK104" s="107"/>
-      <c r="AL104" s="107"/>
-      <c r="AM104" s="107"/>
-      <c r="AN104" s="108"/>
-      <c r="AO104" s="108"/>
-      <c r="AP104" s="108"/>
-      <c r="AQ104" s="108"/>
-      <c r="AR104" s="108"/>
-      <c r="AS104" s="108"/>
-      <c r="AT104" s="109"/>
+      <c r="Z104" s="142"/>
+      <c r="AA104" s="113"/>
+      <c r="AB104" s="113"/>
+      <c r="AC104" s="113"/>
+      <c r="AD104" s="113"/>
+      <c r="AE104" s="113"/>
+      <c r="AF104" s="113"/>
+      <c r="AG104" s="113"/>
+      <c r="AH104" s="113"/>
+      <c r="AI104" s="113"/>
+      <c r="AJ104" s="113"/>
+      <c r="AK104" s="113"/>
+      <c r="AL104" s="113"/>
+      <c r="AM104" s="113"/>
+      <c r="AN104" s="175"/>
+      <c r="AO104" s="175"/>
+      <c r="AP104" s="175"/>
+      <c r="AQ104" s="175"/>
+      <c r="AR104" s="175"/>
+      <c r="AS104" s="175"/>
+      <c r="AT104" s="176"/>
       <c r="AU104" s="8"/>
     </row>
     <row r="105" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
-      <c r="B105" s="106"/>
-      <c r="C105" s="107"/>
-      <c r="D105" s="107"/>
-      <c r="E105" s="107"/>
-      <c r="F105" s="107"/>
-      <c r="G105" s="107"/>
-      <c r="H105" s="107"/>
-      <c r="I105" s="107"/>
-      <c r="J105" s="107"/>
-      <c r="K105" s="107"/>
-      <c r="L105" s="107"/>
-      <c r="M105" s="107"/>
-      <c r="N105" s="107"/>
-      <c r="O105" s="107"/>
-      <c r="P105" s="107"/>
-      <c r="Q105" s="107"/>
-      <c r="R105" s="108"/>
-      <c r="S105" s="108"/>
-      <c r="T105" s="108"/>
-      <c r="U105" s="108"/>
-      <c r="V105" s="108"/>
-      <c r="W105" s="108"/>
-      <c r="X105" s="109"/>
+      <c r="B105" s="142"/>
+      <c r="C105" s="113"/>
+      <c r="D105" s="113"/>
+      <c r="E105" s="113"/>
+      <c r="F105" s="113"/>
+      <c r="G105" s="113"/>
+      <c r="H105" s="113"/>
+      <c r="I105" s="113"/>
+      <c r="J105" s="113"/>
+      <c r="K105" s="113"/>
+      <c r="L105" s="113"/>
+      <c r="M105" s="113"/>
+      <c r="N105" s="113"/>
+      <c r="O105" s="113"/>
+      <c r="P105" s="113"/>
+      <c r="Q105" s="113"/>
+      <c r="R105" s="175"/>
+      <c r="S105" s="175"/>
+      <c r="T105" s="175"/>
+      <c r="U105" s="175"/>
+      <c r="V105" s="175"/>
+      <c r="W105" s="175"/>
+      <c r="X105" s="176"/>
       <c r="Y105" s="51"/>
-      <c r="Z105" s="106"/>
-      <c r="AA105" s="107"/>
-      <c r="AB105" s="107"/>
-      <c r="AC105" s="107"/>
-      <c r="AD105" s="107"/>
-      <c r="AE105" s="107"/>
-      <c r="AF105" s="107"/>
-      <c r="AG105" s="107"/>
-      <c r="AH105" s="107"/>
-      <c r="AI105" s="107"/>
-      <c r="AJ105" s="107"/>
-      <c r="AK105" s="107"/>
-      <c r="AL105" s="107"/>
-      <c r="AM105" s="107"/>
-      <c r="AN105" s="108"/>
-      <c r="AO105" s="108"/>
-      <c r="AP105" s="108"/>
-      <c r="AQ105" s="108"/>
-      <c r="AR105" s="108"/>
-      <c r="AS105" s="108"/>
-      <c r="AT105" s="109"/>
+      <c r="Z105" s="142"/>
+      <c r="AA105" s="113"/>
+      <c r="AB105" s="113"/>
+      <c r="AC105" s="113"/>
+      <c r="AD105" s="113"/>
+      <c r="AE105" s="113"/>
+      <c r="AF105" s="113"/>
+      <c r="AG105" s="113"/>
+      <c r="AH105" s="113"/>
+      <c r="AI105" s="113"/>
+      <c r="AJ105" s="113"/>
+      <c r="AK105" s="113"/>
+      <c r="AL105" s="113"/>
+      <c r="AM105" s="113"/>
+      <c r="AN105" s="175"/>
+      <c r="AO105" s="175"/>
+      <c r="AP105" s="175"/>
+      <c r="AQ105" s="175"/>
+      <c r="AR105" s="175"/>
+      <c r="AS105" s="175"/>
+      <c r="AT105" s="176"/>
       <c r="AU105" s="8"/>
     </row>
     <row r="106" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
-      <c r="B106" s="106"/>
-      <c r="C106" s="107"/>
-      <c r="D106" s="107"/>
-      <c r="E106" s="107"/>
-      <c r="F106" s="107"/>
-      <c r="G106" s="107"/>
-      <c r="H106" s="107"/>
-      <c r="I106" s="107"/>
-      <c r="J106" s="107"/>
-      <c r="K106" s="107"/>
-      <c r="L106" s="107"/>
-      <c r="M106" s="107"/>
-      <c r="N106" s="107"/>
-      <c r="O106" s="107"/>
-      <c r="P106" s="107"/>
-      <c r="Q106" s="107"/>
-      <c r="R106" s="108"/>
-      <c r="S106" s="108"/>
-      <c r="T106" s="108"/>
-      <c r="U106" s="108"/>
-      <c r="V106" s="108"/>
-      <c r="W106" s="108"/>
-      <c r="X106" s="109"/>
+      <c r="B106" s="142"/>
+      <c r="C106" s="113"/>
+      <c r="D106" s="113"/>
+      <c r="E106" s="113"/>
+      <c r="F106" s="113"/>
+      <c r="G106" s="113"/>
+      <c r="H106" s="113"/>
+      <c r="I106" s="113"/>
+      <c r="J106" s="113"/>
+      <c r="K106" s="113"/>
+      <c r="L106" s="113"/>
+      <c r="M106" s="113"/>
+      <c r="N106" s="113"/>
+      <c r="O106" s="113"/>
+      <c r="P106" s="113"/>
+      <c r="Q106" s="113"/>
+      <c r="R106" s="175"/>
+      <c r="S106" s="175"/>
+      <c r="T106" s="175"/>
+      <c r="U106" s="175"/>
+      <c r="V106" s="175"/>
+      <c r="W106" s="175"/>
+      <c r="X106" s="176"/>
       <c r="Y106" s="51"/>
-      <c r="Z106" s="106"/>
-      <c r="AA106" s="107"/>
-      <c r="AB106" s="107"/>
-      <c r="AC106" s="107"/>
-      <c r="AD106" s="107"/>
-      <c r="AE106" s="107"/>
-      <c r="AF106" s="107"/>
-      <c r="AG106" s="107"/>
-      <c r="AH106" s="107"/>
-      <c r="AI106" s="107"/>
-      <c r="AJ106" s="107"/>
-      <c r="AK106" s="107"/>
-      <c r="AL106" s="107"/>
-      <c r="AM106" s="107"/>
-      <c r="AN106" s="108"/>
-      <c r="AO106" s="108"/>
-      <c r="AP106" s="108"/>
-      <c r="AQ106" s="108"/>
-      <c r="AR106" s="108"/>
-      <c r="AS106" s="108"/>
-      <c r="AT106" s="109"/>
+      <c r="Z106" s="142"/>
+      <c r="AA106" s="113"/>
+      <c r="AB106" s="113"/>
+      <c r="AC106" s="113"/>
+      <c r="AD106" s="113"/>
+      <c r="AE106" s="113"/>
+      <c r="AF106" s="113"/>
+      <c r="AG106" s="113"/>
+      <c r="AH106" s="113"/>
+      <c r="AI106" s="113"/>
+      <c r="AJ106" s="113"/>
+      <c r="AK106" s="113"/>
+      <c r="AL106" s="113"/>
+      <c r="AM106" s="113"/>
+      <c r="AN106" s="175"/>
+      <c r="AO106" s="175"/>
+      <c r="AP106" s="175"/>
+      <c r="AQ106" s="175"/>
+      <c r="AR106" s="175"/>
+      <c r="AS106" s="175"/>
+      <c r="AT106" s="176"/>
       <c r="AU106" s="8"/>
     </row>
     <row r="107" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
-      <c r="B107" s="119"/>
-      <c r="C107" s="120"/>
-      <c r="D107" s="120"/>
-      <c r="E107" s="120"/>
-      <c r="F107" s="120"/>
-      <c r="G107" s="120"/>
-      <c r="H107" s="120"/>
-      <c r="I107" s="120"/>
-      <c r="J107" s="120"/>
-      <c r="K107" s="120"/>
-      <c r="L107" s="120"/>
-      <c r="M107" s="120"/>
-      <c r="N107" s="120"/>
-      <c r="O107" s="120"/>
-      <c r="P107" s="120"/>
-      <c r="Q107" s="120"/>
-      <c r="R107" s="121"/>
-      <c r="S107" s="121"/>
-      <c r="T107" s="121"/>
-      <c r="U107" s="121"/>
-      <c r="V107" s="121"/>
-      <c r="W107" s="121"/>
-      <c r="X107" s="122"/>
+      <c r="B107" s="116"/>
+      <c r="C107" s="117"/>
+      <c r="D107" s="117"/>
+      <c r="E107" s="117"/>
+      <c r="F107" s="117"/>
+      <c r="G107" s="117"/>
+      <c r="H107" s="117"/>
+      <c r="I107" s="117"/>
+      <c r="J107" s="117"/>
+      <c r="K107" s="117"/>
+      <c r="L107" s="117"/>
+      <c r="M107" s="117"/>
+      <c r="N107" s="117"/>
+      <c r="O107" s="117"/>
+      <c r="P107" s="117"/>
+      <c r="Q107" s="117"/>
+      <c r="R107" s="177"/>
+      <c r="S107" s="177"/>
+      <c r="T107" s="177"/>
+      <c r="U107" s="177"/>
+      <c r="V107" s="177"/>
+      <c r="W107" s="177"/>
+      <c r="X107" s="178"/>
       <c r="Y107" s="51"/>
-      <c r="Z107" s="119"/>
-      <c r="AA107" s="120"/>
-      <c r="AB107" s="120"/>
-      <c r="AC107" s="120"/>
-      <c r="AD107" s="120"/>
-      <c r="AE107" s="120"/>
-      <c r="AF107" s="120"/>
-      <c r="AG107" s="120"/>
-      <c r="AH107" s="120"/>
-      <c r="AI107" s="120"/>
-      <c r="AJ107" s="120"/>
-      <c r="AK107" s="120"/>
-      <c r="AL107" s="120"/>
-      <c r="AM107" s="120"/>
-      <c r="AN107" s="121"/>
-      <c r="AO107" s="121"/>
-      <c r="AP107" s="121"/>
-      <c r="AQ107" s="121"/>
-      <c r="AR107" s="121"/>
-      <c r="AS107" s="121"/>
-      <c r="AT107" s="122"/>
+      <c r="Z107" s="116"/>
+      <c r="AA107" s="117"/>
+      <c r="AB107" s="117"/>
+      <c r="AC107" s="117"/>
+      <c r="AD107" s="117"/>
+      <c r="AE107" s="117"/>
+      <c r="AF107" s="117"/>
+      <c r="AG107" s="117"/>
+      <c r="AH107" s="117"/>
+      <c r="AI107" s="117"/>
+      <c r="AJ107" s="117"/>
+      <c r="AK107" s="117"/>
+      <c r="AL107" s="117"/>
+      <c r="AM107" s="117"/>
+      <c r="AN107" s="177"/>
+      <c r="AO107" s="177"/>
+      <c r="AP107" s="177"/>
+      <c r="AQ107" s="177"/>
+      <c r="AR107" s="177"/>
+      <c r="AS107" s="177"/>
+      <c r="AT107" s="178"/>
       <c r="AU107" s="8"/>
     </row>
     <row r="108" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7715,53 +7751,53 @@
     </row>
     <row r="109" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
-      <c r="B109" s="125" t="s">
+      <c r="B109" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="126"/>
-      <c r="D109" s="126"/>
-      <c r="E109" s="126"/>
-      <c r="F109" s="126"/>
-      <c r="G109" s="126"/>
-      <c r="H109" s="126"/>
-      <c r="I109" s="126"/>
-      <c r="J109" s="126"/>
-      <c r="K109" s="126"/>
-      <c r="L109" s="126"/>
-      <c r="M109" s="126"/>
-      <c r="N109" s="126"/>
-      <c r="O109" s="126"/>
-      <c r="P109" s="126"/>
-      <c r="Q109" s="126"/>
-      <c r="R109" s="126"/>
-      <c r="S109" s="126"/>
-      <c r="T109" s="126"/>
-      <c r="U109" s="126"/>
-      <c r="V109" s="126"/>
-      <c r="W109" s="126"/>
-      <c r="X109" s="126"/>
-      <c r="Y109" s="126"/>
-      <c r="Z109" s="126"/>
-      <c r="AA109" s="126"/>
-      <c r="AB109" s="126"/>
-      <c r="AC109" s="126"/>
-      <c r="AD109" s="126"/>
-      <c r="AE109" s="126"/>
-      <c r="AF109" s="126"/>
-      <c r="AG109" s="126"/>
-      <c r="AH109" s="126"/>
-      <c r="AI109" s="126"/>
-      <c r="AJ109" s="126"/>
-      <c r="AK109" s="126"/>
-      <c r="AL109" s="126"/>
-      <c r="AM109" s="126"/>
-      <c r="AN109" s="126"/>
-      <c r="AO109" s="126"/>
-      <c r="AP109" s="126"/>
-      <c r="AQ109" s="126"/>
-      <c r="AR109" s="126"/>
-      <c r="AS109" s="126"/>
-      <c r="AT109" s="127"/>
+      <c r="C109" s="150"/>
+      <c r="D109" s="150"/>
+      <c r="E109" s="150"/>
+      <c r="F109" s="150"/>
+      <c r="G109" s="150"/>
+      <c r="H109" s="150"/>
+      <c r="I109" s="150"/>
+      <c r="J109" s="150"/>
+      <c r="K109" s="150"/>
+      <c r="L109" s="150"/>
+      <c r="M109" s="150"/>
+      <c r="N109" s="150"/>
+      <c r="O109" s="150"/>
+      <c r="P109" s="150"/>
+      <c r="Q109" s="150"/>
+      <c r="R109" s="150"/>
+      <c r="S109" s="150"/>
+      <c r="T109" s="150"/>
+      <c r="U109" s="150"/>
+      <c r="V109" s="150"/>
+      <c r="W109" s="150"/>
+      <c r="X109" s="150"/>
+      <c r="Y109" s="150"/>
+      <c r="Z109" s="150"/>
+      <c r="AA109" s="150"/>
+      <c r="AB109" s="150"/>
+      <c r="AC109" s="150"/>
+      <c r="AD109" s="150"/>
+      <c r="AE109" s="150"/>
+      <c r="AF109" s="150"/>
+      <c r="AG109" s="150"/>
+      <c r="AH109" s="150"/>
+      <c r="AI109" s="150"/>
+      <c r="AJ109" s="150"/>
+      <c r="AK109" s="150"/>
+      <c r="AL109" s="150"/>
+      <c r="AM109" s="150"/>
+      <c r="AN109" s="150"/>
+      <c r="AO109" s="150"/>
+      <c r="AP109" s="150"/>
+      <c r="AQ109" s="150"/>
+      <c r="AR109" s="150"/>
+      <c r="AS109" s="150"/>
+      <c r="AT109" s="151"/>
       <c r="AU109" s="8"/>
     </row>
     <row r="110" spans="1:47" s="3" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7815,557 +7851,557 @@
     </row>
     <row r="111" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
-      <c r="B111" s="123" t="s">
+      <c r="B111" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="103"/>
-      <c r="D111" s="103"/>
-      <c r="E111" s="103"/>
-      <c r="F111" s="103"/>
-      <c r="G111" s="103" t="s">
+      <c r="C111" s="153"/>
+      <c r="D111" s="153"/>
+      <c r="E111" s="153"/>
+      <c r="F111" s="153"/>
+      <c r="G111" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="H111" s="103"/>
-      <c r="I111" s="103"/>
-      <c r="J111" s="103"/>
-      <c r="K111" s="103"/>
-      <c r="L111" s="103"/>
-      <c r="M111" s="103"/>
-      <c r="N111" s="103"/>
-      <c r="O111" s="103"/>
-      <c r="P111" s="103"/>
-      <c r="Q111" s="103"/>
-      <c r="R111" s="104" t="s">
+      <c r="H111" s="153"/>
+      <c r="I111" s="153"/>
+      <c r="J111" s="153"/>
+      <c r="K111" s="153"/>
+      <c r="L111" s="153"/>
+      <c r="M111" s="153"/>
+      <c r="N111" s="153"/>
+      <c r="O111" s="153"/>
+      <c r="P111" s="153"/>
+      <c r="Q111" s="153"/>
+      <c r="R111" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="S111" s="104"/>
-      <c r="T111" s="104"/>
-      <c r="U111" s="104"/>
-      <c r="V111" s="104" t="s">
+      <c r="S111" s="154"/>
+      <c r="T111" s="154"/>
+      <c r="U111" s="154"/>
+      <c r="V111" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="W111" s="104"/>
-      <c r="X111" s="105"/>
+      <c r="W111" s="154"/>
+      <c r="X111" s="155"/>
       <c r="Y111" s="13"/>
-      <c r="Z111" s="123" t="s">
+      <c r="Z111" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="AA111" s="103"/>
-      <c r="AB111" s="103"/>
-      <c r="AC111" s="103"/>
-      <c r="AD111" s="103" t="s">
+      <c r="AA111" s="153"/>
+      <c r="AB111" s="153"/>
+      <c r="AC111" s="153"/>
+      <c r="AD111" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="AE111" s="103"/>
-      <c r="AF111" s="103"/>
-      <c r="AG111" s="103"/>
-      <c r="AH111" s="103"/>
-      <c r="AI111" s="103"/>
-      <c r="AJ111" s="103"/>
-      <c r="AK111" s="103"/>
-      <c r="AL111" s="103"/>
-      <c r="AM111" s="103"/>
-      <c r="AN111" s="104" t="s">
+      <c r="AE111" s="153"/>
+      <c r="AF111" s="153"/>
+      <c r="AG111" s="153"/>
+      <c r="AH111" s="153"/>
+      <c r="AI111" s="153"/>
+      <c r="AJ111" s="153"/>
+      <c r="AK111" s="153"/>
+      <c r="AL111" s="153"/>
+      <c r="AM111" s="153"/>
+      <c r="AN111" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="AO111" s="104"/>
-      <c r="AP111" s="104"/>
-      <c r="AQ111" s="104"/>
-      <c r="AR111" s="104" t="s">
+      <c r="AO111" s="154"/>
+      <c r="AP111" s="154"/>
+      <c r="AQ111" s="154"/>
+      <c r="AR111" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="AS111" s="104"/>
-      <c r="AT111" s="105"/>
+      <c r="AS111" s="154"/>
+      <c r="AT111" s="155"/>
       <c r="AU111" s="8"/>
     </row>
     <row r="112" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
-      <c r="B112" s="106"/>
-      <c r="C112" s="107"/>
-      <c r="D112" s="107"/>
-      <c r="E112" s="107"/>
-      <c r="F112" s="107"/>
-      <c r="G112" s="107"/>
-      <c r="H112" s="107"/>
-      <c r="I112" s="107"/>
-      <c r="J112" s="107"/>
-      <c r="K112" s="107"/>
-      <c r="L112" s="107"/>
-      <c r="M112" s="107"/>
-      <c r="N112" s="107"/>
-      <c r="O112" s="107"/>
-      <c r="P112" s="107"/>
-      <c r="Q112" s="107"/>
-      <c r="R112" s="108"/>
-      <c r="S112" s="108"/>
-      <c r="T112" s="108"/>
-      <c r="U112" s="108"/>
-      <c r="V112" s="108"/>
-      <c r="W112" s="108"/>
-      <c r="X112" s="109"/>
+      <c r="B112" s="142"/>
+      <c r="C112" s="113"/>
+      <c r="D112" s="113"/>
+      <c r="E112" s="113"/>
+      <c r="F112" s="113"/>
+      <c r="G112" s="113"/>
+      <c r="H112" s="113"/>
+      <c r="I112" s="113"/>
+      <c r="J112" s="113"/>
+      <c r="K112" s="113"/>
+      <c r="L112" s="113"/>
+      <c r="M112" s="113"/>
+      <c r="N112" s="113"/>
+      <c r="O112" s="113"/>
+      <c r="P112" s="113"/>
+      <c r="Q112" s="113"/>
+      <c r="R112" s="175"/>
+      <c r="S112" s="175"/>
+      <c r="T112" s="175"/>
+      <c r="U112" s="175"/>
+      <c r="V112" s="175"/>
+      <c r="W112" s="175"/>
+      <c r="X112" s="176"/>
       <c r="Y112" s="51"/>
-      <c r="Z112" s="106"/>
-      <c r="AA112" s="107"/>
-      <c r="AB112" s="107"/>
-      <c r="AC112" s="107"/>
-      <c r="AD112" s="107"/>
-      <c r="AE112" s="107"/>
-      <c r="AF112" s="107"/>
-      <c r="AG112" s="107"/>
-      <c r="AH112" s="107"/>
-      <c r="AI112" s="107"/>
-      <c r="AJ112" s="107"/>
-      <c r="AK112" s="107"/>
-      <c r="AL112" s="107"/>
-      <c r="AM112" s="107"/>
-      <c r="AN112" s="108"/>
-      <c r="AO112" s="108"/>
-      <c r="AP112" s="108"/>
-      <c r="AQ112" s="108"/>
-      <c r="AR112" s="108"/>
-      <c r="AS112" s="108"/>
-      <c r="AT112" s="109"/>
+      <c r="Z112" s="142"/>
+      <c r="AA112" s="113"/>
+      <c r="AB112" s="113"/>
+      <c r="AC112" s="113"/>
+      <c r="AD112" s="113"/>
+      <c r="AE112" s="113"/>
+      <c r="AF112" s="113"/>
+      <c r="AG112" s="113"/>
+      <c r="AH112" s="113"/>
+      <c r="AI112" s="113"/>
+      <c r="AJ112" s="113"/>
+      <c r="AK112" s="113"/>
+      <c r="AL112" s="113"/>
+      <c r="AM112" s="113"/>
+      <c r="AN112" s="175"/>
+      <c r="AO112" s="175"/>
+      <c r="AP112" s="175"/>
+      <c r="AQ112" s="175"/>
+      <c r="AR112" s="175"/>
+      <c r="AS112" s="175"/>
+      <c r="AT112" s="176"/>
       <c r="AU112" s="8"/>
     </row>
     <row r="113" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
-      <c r="B113" s="106"/>
-      <c r="C113" s="107"/>
-      <c r="D113" s="107"/>
-      <c r="E113" s="107"/>
-      <c r="F113" s="107"/>
-      <c r="G113" s="107"/>
-      <c r="H113" s="107"/>
-      <c r="I113" s="107"/>
-      <c r="J113" s="107"/>
-      <c r="K113" s="107"/>
-      <c r="L113" s="107"/>
-      <c r="M113" s="107"/>
-      <c r="N113" s="107"/>
-      <c r="O113" s="107"/>
-      <c r="P113" s="107"/>
-      <c r="Q113" s="107"/>
-      <c r="R113" s="108"/>
-      <c r="S113" s="108"/>
-      <c r="T113" s="108"/>
-      <c r="U113" s="108"/>
-      <c r="V113" s="108"/>
-      <c r="W113" s="108"/>
-      <c r="X113" s="109"/>
+      <c r="B113" s="142"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
+      <c r="G113" s="113"/>
+      <c r="H113" s="113"/>
+      <c r="I113" s="113"/>
+      <c r="J113" s="113"/>
+      <c r="K113" s="113"/>
+      <c r="L113" s="113"/>
+      <c r="M113" s="113"/>
+      <c r="N113" s="113"/>
+      <c r="O113" s="113"/>
+      <c r="P113" s="113"/>
+      <c r="Q113" s="113"/>
+      <c r="R113" s="175"/>
+      <c r="S113" s="175"/>
+      <c r="T113" s="175"/>
+      <c r="U113" s="175"/>
+      <c r="V113" s="175"/>
+      <c r="W113" s="175"/>
+      <c r="X113" s="176"/>
       <c r="Y113" s="51"/>
-      <c r="Z113" s="106"/>
-      <c r="AA113" s="107"/>
-      <c r="AB113" s="107"/>
-      <c r="AC113" s="107"/>
-      <c r="AD113" s="107"/>
-      <c r="AE113" s="107"/>
-      <c r="AF113" s="107"/>
-      <c r="AG113" s="107"/>
-      <c r="AH113" s="107"/>
-      <c r="AI113" s="107"/>
-      <c r="AJ113" s="107"/>
-      <c r="AK113" s="107"/>
-      <c r="AL113" s="107"/>
-      <c r="AM113" s="107"/>
-      <c r="AN113" s="108"/>
-      <c r="AO113" s="108"/>
-      <c r="AP113" s="108"/>
-      <c r="AQ113" s="108"/>
-      <c r="AR113" s="108"/>
-      <c r="AS113" s="108"/>
-      <c r="AT113" s="109"/>
+      <c r="Z113" s="142"/>
+      <c r="AA113" s="113"/>
+      <c r="AB113" s="113"/>
+      <c r="AC113" s="113"/>
+      <c r="AD113" s="113"/>
+      <c r="AE113" s="113"/>
+      <c r="AF113" s="113"/>
+      <c r="AG113" s="113"/>
+      <c r="AH113" s="113"/>
+      <c r="AI113" s="113"/>
+      <c r="AJ113" s="113"/>
+      <c r="AK113" s="113"/>
+      <c r="AL113" s="113"/>
+      <c r="AM113" s="113"/>
+      <c r="AN113" s="175"/>
+      <c r="AO113" s="175"/>
+      <c r="AP113" s="175"/>
+      <c r="AQ113" s="175"/>
+      <c r="AR113" s="175"/>
+      <c r="AS113" s="175"/>
+      <c r="AT113" s="176"/>
       <c r="AU113" s="8"/>
     </row>
     <row r="114" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
-      <c r="B114" s="106"/>
-      <c r="C114" s="107"/>
-      <c r="D114" s="107"/>
-      <c r="E114" s="107"/>
-      <c r="F114" s="107"/>
-      <c r="G114" s="107"/>
-      <c r="H114" s="107"/>
-      <c r="I114" s="107"/>
-      <c r="J114" s="107"/>
-      <c r="K114" s="107"/>
-      <c r="L114" s="107"/>
-      <c r="M114" s="107"/>
-      <c r="N114" s="107"/>
-      <c r="O114" s="107"/>
-      <c r="P114" s="107"/>
-      <c r="Q114" s="107"/>
-      <c r="R114" s="108"/>
-      <c r="S114" s="108"/>
-      <c r="T114" s="108"/>
-      <c r="U114" s="108"/>
-      <c r="V114" s="108"/>
-      <c r="W114" s="108"/>
-      <c r="X114" s="109"/>
+      <c r="B114" s="142"/>
+      <c r="C114" s="113"/>
+      <c r="D114" s="113"/>
+      <c r="E114" s="113"/>
+      <c r="F114" s="113"/>
+      <c r="G114" s="113"/>
+      <c r="H114" s="113"/>
+      <c r="I114" s="113"/>
+      <c r="J114" s="113"/>
+      <c r="K114" s="113"/>
+      <c r="L114" s="113"/>
+      <c r="M114" s="113"/>
+      <c r="N114" s="113"/>
+      <c r="O114" s="113"/>
+      <c r="P114" s="113"/>
+      <c r="Q114" s="113"/>
+      <c r="R114" s="175"/>
+      <c r="S114" s="175"/>
+      <c r="T114" s="175"/>
+      <c r="U114" s="175"/>
+      <c r="V114" s="175"/>
+      <c r="W114" s="175"/>
+      <c r="X114" s="176"/>
       <c r="Y114" s="51"/>
-      <c r="Z114" s="106"/>
-      <c r="AA114" s="107"/>
-      <c r="AB114" s="107"/>
-      <c r="AC114" s="107"/>
-      <c r="AD114" s="107"/>
-      <c r="AE114" s="107"/>
-      <c r="AF114" s="107"/>
-      <c r="AG114" s="107"/>
-      <c r="AH114" s="107"/>
-      <c r="AI114" s="107"/>
-      <c r="AJ114" s="107"/>
-      <c r="AK114" s="107"/>
-      <c r="AL114" s="107"/>
-      <c r="AM114" s="107"/>
-      <c r="AN114" s="108"/>
-      <c r="AO114" s="108"/>
-      <c r="AP114" s="108"/>
-      <c r="AQ114" s="108"/>
-      <c r="AR114" s="108"/>
-      <c r="AS114" s="108"/>
-      <c r="AT114" s="109"/>
+      <c r="Z114" s="142"/>
+      <c r="AA114" s="113"/>
+      <c r="AB114" s="113"/>
+      <c r="AC114" s="113"/>
+      <c r="AD114" s="113"/>
+      <c r="AE114" s="113"/>
+      <c r="AF114" s="113"/>
+      <c r="AG114" s="113"/>
+      <c r="AH114" s="113"/>
+      <c r="AI114" s="113"/>
+      <c r="AJ114" s="113"/>
+      <c r="AK114" s="113"/>
+      <c r="AL114" s="113"/>
+      <c r="AM114" s="113"/>
+      <c r="AN114" s="175"/>
+      <c r="AO114" s="175"/>
+      <c r="AP114" s="175"/>
+      <c r="AQ114" s="175"/>
+      <c r="AR114" s="175"/>
+      <c r="AS114" s="175"/>
+      <c r="AT114" s="176"/>
       <c r="AU114" s="8"/>
     </row>
     <row r="115" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
-      <c r="B115" s="106"/>
-      <c r="C115" s="107"/>
-      <c r="D115" s="107"/>
-      <c r="E115" s="107"/>
-      <c r="F115" s="107"/>
-      <c r="G115" s="107"/>
-      <c r="H115" s="107"/>
-      <c r="I115" s="107"/>
-      <c r="J115" s="107"/>
-      <c r="K115" s="107"/>
-      <c r="L115" s="107"/>
-      <c r="M115" s="107"/>
-      <c r="N115" s="107"/>
-      <c r="O115" s="107"/>
-      <c r="P115" s="107"/>
-      <c r="Q115" s="107"/>
-      <c r="R115" s="108"/>
-      <c r="S115" s="108"/>
-      <c r="T115" s="108"/>
-      <c r="U115" s="108"/>
-      <c r="V115" s="108"/>
-      <c r="W115" s="108"/>
-      <c r="X115" s="109"/>
+      <c r="B115" s="142"/>
+      <c r="C115" s="113"/>
+      <c r="D115" s="113"/>
+      <c r="E115" s="113"/>
+      <c r="F115" s="113"/>
+      <c r="G115" s="113"/>
+      <c r="H115" s="113"/>
+      <c r="I115" s="113"/>
+      <c r="J115" s="113"/>
+      <c r="K115" s="113"/>
+      <c r="L115" s="113"/>
+      <c r="M115" s="113"/>
+      <c r="N115" s="113"/>
+      <c r="O115" s="113"/>
+      <c r="P115" s="113"/>
+      <c r="Q115" s="113"/>
+      <c r="R115" s="175"/>
+      <c r="S115" s="175"/>
+      <c r="T115" s="175"/>
+      <c r="U115" s="175"/>
+      <c r="V115" s="175"/>
+      <c r="W115" s="175"/>
+      <c r="X115" s="176"/>
       <c r="Y115" s="51"/>
-      <c r="Z115" s="106"/>
-      <c r="AA115" s="107"/>
-      <c r="AB115" s="107"/>
-      <c r="AC115" s="107"/>
-      <c r="AD115" s="107"/>
-      <c r="AE115" s="107"/>
-      <c r="AF115" s="107"/>
-      <c r="AG115" s="107"/>
-      <c r="AH115" s="107"/>
-      <c r="AI115" s="107"/>
-      <c r="AJ115" s="107"/>
-      <c r="AK115" s="107"/>
-      <c r="AL115" s="107"/>
-      <c r="AM115" s="107"/>
-      <c r="AN115" s="108"/>
-      <c r="AO115" s="108"/>
-      <c r="AP115" s="108"/>
-      <c r="AQ115" s="108"/>
-      <c r="AR115" s="108"/>
-      <c r="AS115" s="108"/>
-      <c r="AT115" s="109"/>
+      <c r="Z115" s="142"/>
+      <c r="AA115" s="113"/>
+      <c r="AB115" s="113"/>
+      <c r="AC115" s="113"/>
+      <c r="AD115" s="113"/>
+      <c r="AE115" s="113"/>
+      <c r="AF115" s="113"/>
+      <c r="AG115" s="113"/>
+      <c r="AH115" s="113"/>
+      <c r="AI115" s="113"/>
+      <c r="AJ115" s="113"/>
+      <c r="AK115" s="113"/>
+      <c r="AL115" s="113"/>
+      <c r="AM115" s="113"/>
+      <c r="AN115" s="175"/>
+      <c r="AO115" s="175"/>
+      <c r="AP115" s="175"/>
+      <c r="AQ115" s="175"/>
+      <c r="AR115" s="175"/>
+      <c r="AS115" s="175"/>
+      <c r="AT115" s="176"/>
       <c r="AU115" s="8"/>
     </row>
     <row r="116" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
-      <c r="B116" s="106"/>
-      <c r="C116" s="107"/>
-      <c r="D116" s="107"/>
-      <c r="E116" s="107"/>
-      <c r="F116" s="107"/>
-      <c r="G116" s="107"/>
-      <c r="H116" s="107"/>
-      <c r="I116" s="107"/>
-      <c r="J116" s="107"/>
-      <c r="K116" s="107"/>
-      <c r="L116" s="107"/>
-      <c r="M116" s="107"/>
-      <c r="N116" s="107"/>
-      <c r="O116" s="107"/>
-      <c r="P116" s="107"/>
-      <c r="Q116" s="107"/>
-      <c r="R116" s="108"/>
-      <c r="S116" s="108"/>
-      <c r="T116" s="108"/>
-      <c r="U116" s="108"/>
-      <c r="V116" s="108"/>
-      <c r="W116" s="108"/>
-      <c r="X116" s="109"/>
+      <c r="B116" s="142"/>
+      <c r="C116" s="113"/>
+      <c r="D116" s="113"/>
+      <c r="E116" s="113"/>
+      <c r="F116" s="113"/>
+      <c r="G116" s="113"/>
+      <c r="H116" s="113"/>
+      <c r="I116" s="113"/>
+      <c r="J116" s="113"/>
+      <c r="K116" s="113"/>
+      <c r="L116" s="113"/>
+      <c r="M116" s="113"/>
+      <c r="N116" s="113"/>
+      <c r="O116" s="113"/>
+      <c r="P116" s="113"/>
+      <c r="Q116" s="113"/>
+      <c r="R116" s="175"/>
+      <c r="S116" s="175"/>
+      <c r="T116" s="175"/>
+      <c r="U116" s="175"/>
+      <c r="V116" s="175"/>
+      <c r="W116" s="175"/>
+      <c r="X116" s="176"/>
       <c r="Y116" s="51"/>
-      <c r="Z116" s="106"/>
-      <c r="AA116" s="107"/>
-      <c r="AB116" s="107"/>
-      <c r="AC116" s="107"/>
-      <c r="AD116" s="107"/>
-      <c r="AE116" s="107"/>
-      <c r="AF116" s="107"/>
-      <c r="AG116" s="107"/>
-      <c r="AH116" s="107"/>
-      <c r="AI116" s="107"/>
-      <c r="AJ116" s="107"/>
-      <c r="AK116" s="107"/>
-      <c r="AL116" s="107"/>
-      <c r="AM116" s="107"/>
-      <c r="AN116" s="108"/>
-      <c r="AO116" s="108"/>
-      <c r="AP116" s="108"/>
-      <c r="AQ116" s="108"/>
-      <c r="AR116" s="108"/>
-      <c r="AS116" s="108"/>
-      <c r="AT116" s="109"/>
+      <c r="Z116" s="142"/>
+      <c r="AA116" s="113"/>
+      <c r="AB116" s="113"/>
+      <c r="AC116" s="113"/>
+      <c r="AD116" s="113"/>
+      <c r="AE116" s="113"/>
+      <c r="AF116" s="113"/>
+      <c r="AG116" s="113"/>
+      <c r="AH116" s="113"/>
+      <c r="AI116" s="113"/>
+      <c r="AJ116" s="113"/>
+      <c r="AK116" s="113"/>
+      <c r="AL116" s="113"/>
+      <c r="AM116" s="113"/>
+      <c r="AN116" s="175"/>
+      <c r="AO116" s="175"/>
+      <c r="AP116" s="175"/>
+      <c r="AQ116" s="175"/>
+      <c r="AR116" s="175"/>
+      <c r="AS116" s="175"/>
+      <c r="AT116" s="176"/>
       <c r="AU116" s="8"/>
     </row>
     <row r="117" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
-      <c r="B117" s="106"/>
-      <c r="C117" s="107"/>
-      <c r="D117" s="107"/>
-      <c r="E117" s="107"/>
-      <c r="F117" s="107"/>
-      <c r="G117" s="107"/>
-      <c r="H117" s="107"/>
-      <c r="I117" s="107"/>
-      <c r="J117" s="107"/>
-      <c r="K117" s="107"/>
-      <c r="L117" s="107"/>
-      <c r="M117" s="107"/>
-      <c r="N117" s="107"/>
-      <c r="O117" s="107"/>
-      <c r="P117" s="107"/>
-      <c r="Q117" s="107"/>
-      <c r="R117" s="108"/>
-      <c r="S117" s="108"/>
-      <c r="T117" s="108"/>
-      <c r="U117" s="108"/>
-      <c r="V117" s="108"/>
-      <c r="W117" s="108"/>
-      <c r="X117" s="109"/>
+      <c r="B117" s="142"/>
+      <c r="C117" s="113"/>
+      <c r="D117" s="113"/>
+      <c r="E117" s="113"/>
+      <c r="F117" s="113"/>
+      <c r="G117" s="113"/>
+      <c r="H117" s="113"/>
+      <c r="I117" s="113"/>
+      <c r="J117" s="113"/>
+      <c r="K117" s="113"/>
+      <c r="L117" s="113"/>
+      <c r="M117" s="113"/>
+      <c r="N117" s="113"/>
+      <c r="O117" s="113"/>
+      <c r="P117" s="113"/>
+      <c r="Q117" s="113"/>
+      <c r="R117" s="175"/>
+      <c r="S117" s="175"/>
+      <c r="T117" s="175"/>
+      <c r="U117" s="175"/>
+      <c r="V117" s="175"/>
+      <c r="W117" s="175"/>
+      <c r="X117" s="176"/>
       <c r="Y117" s="51"/>
-      <c r="Z117" s="106"/>
-      <c r="AA117" s="107"/>
-      <c r="AB117" s="107"/>
-      <c r="AC117" s="107"/>
-      <c r="AD117" s="107"/>
-      <c r="AE117" s="107"/>
-      <c r="AF117" s="107"/>
-      <c r="AG117" s="107"/>
-      <c r="AH117" s="107"/>
-      <c r="AI117" s="107"/>
-      <c r="AJ117" s="107"/>
-      <c r="AK117" s="107"/>
-      <c r="AL117" s="107"/>
-      <c r="AM117" s="107"/>
-      <c r="AN117" s="108"/>
-      <c r="AO117" s="108"/>
-      <c r="AP117" s="108"/>
-      <c r="AQ117" s="108"/>
-      <c r="AR117" s="108"/>
-      <c r="AS117" s="108"/>
-      <c r="AT117" s="109"/>
+      <c r="Z117" s="142"/>
+      <c r="AA117" s="113"/>
+      <c r="AB117" s="113"/>
+      <c r="AC117" s="113"/>
+      <c r="AD117" s="113"/>
+      <c r="AE117" s="113"/>
+      <c r="AF117" s="113"/>
+      <c r="AG117" s="113"/>
+      <c r="AH117" s="113"/>
+      <c r="AI117" s="113"/>
+      <c r="AJ117" s="113"/>
+      <c r="AK117" s="113"/>
+      <c r="AL117" s="113"/>
+      <c r="AM117" s="113"/>
+      <c r="AN117" s="175"/>
+      <c r="AO117" s="175"/>
+      <c r="AP117" s="175"/>
+      <c r="AQ117" s="175"/>
+      <c r="AR117" s="175"/>
+      <c r="AS117" s="175"/>
+      <c r="AT117" s="176"/>
       <c r="AU117" s="8"/>
     </row>
     <row r="118" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
-      <c r="B118" s="106"/>
-      <c r="C118" s="107"/>
-      <c r="D118" s="107"/>
-      <c r="E118" s="107"/>
-      <c r="F118" s="107"/>
-      <c r="G118" s="107"/>
-      <c r="H118" s="107"/>
-      <c r="I118" s="107"/>
-      <c r="J118" s="107"/>
-      <c r="K118" s="107"/>
-      <c r="L118" s="107"/>
-      <c r="M118" s="107"/>
-      <c r="N118" s="107"/>
-      <c r="O118" s="107"/>
-      <c r="P118" s="107"/>
-      <c r="Q118" s="107"/>
-      <c r="R118" s="108"/>
-      <c r="S118" s="108"/>
-      <c r="T118" s="108"/>
-      <c r="U118" s="108"/>
-      <c r="V118" s="108"/>
-      <c r="W118" s="108"/>
-      <c r="X118" s="109"/>
+      <c r="B118" s="142"/>
+      <c r="C118" s="113"/>
+      <c r="D118" s="113"/>
+      <c r="E118" s="113"/>
+      <c r="F118" s="113"/>
+      <c r="G118" s="113"/>
+      <c r="H118" s="113"/>
+      <c r="I118" s="113"/>
+      <c r="J118" s="113"/>
+      <c r="K118" s="113"/>
+      <c r="L118" s="113"/>
+      <c r="M118" s="113"/>
+      <c r="N118" s="113"/>
+      <c r="O118" s="113"/>
+      <c r="P118" s="113"/>
+      <c r="Q118" s="113"/>
+      <c r="R118" s="175"/>
+      <c r="S118" s="175"/>
+      <c r="T118" s="175"/>
+      <c r="U118" s="175"/>
+      <c r="V118" s="175"/>
+      <c r="W118" s="175"/>
+      <c r="X118" s="176"/>
       <c r="Y118" s="51"/>
-      <c r="Z118" s="106"/>
-      <c r="AA118" s="107"/>
-      <c r="AB118" s="107"/>
-      <c r="AC118" s="107"/>
-      <c r="AD118" s="107"/>
-      <c r="AE118" s="107"/>
-      <c r="AF118" s="107"/>
-      <c r="AG118" s="107"/>
-      <c r="AH118" s="107"/>
-      <c r="AI118" s="107"/>
-      <c r="AJ118" s="107"/>
-      <c r="AK118" s="107"/>
-      <c r="AL118" s="107"/>
-      <c r="AM118" s="107"/>
-      <c r="AN118" s="108"/>
-      <c r="AO118" s="108"/>
-      <c r="AP118" s="108"/>
-      <c r="AQ118" s="108"/>
-      <c r="AR118" s="108"/>
-      <c r="AS118" s="108"/>
-      <c r="AT118" s="109"/>
+      <c r="Z118" s="142"/>
+      <c r="AA118" s="113"/>
+      <c r="AB118" s="113"/>
+      <c r="AC118" s="113"/>
+      <c r="AD118" s="113"/>
+      <c r="AE118" s="113"/>
+      <c r="AF118" s="113"/>
+      <c r="AG118" s="113"/>
+      <c r="AH118" s="113"/>
+      <c r="AI118" s="113"/>
+      <c r="AJ118" s="113"/>
+      <c r="AK118" s="113"/>
+      <c r="AL118" s="113"/>
+      <c r="AM118" s="113"/>
+      <c r="AN118" s="175"/>
+      <c r="AO118" s="175"/>
+      <c r="AP118" s="175"/>
+      <c r="AQ118" s="175"/>
+      <c r="AR118" s="175"/>
+      <c r="AS118" s="175"/>
+      <c r="AT118" s="176"/>
       <c r="AU118" s="8"/>
     </row>
     <row r="119" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
-      <c r="B119" s="106"/>
-      <c r="C119" s="107"/>
-      <c r="D119" s="107"/>
-      <c r="E119" s="107"/>
-      <c r="F119" s="107"/>
-      <c r="G119" s="107"/>
-      <c r="H119" s="107"/>
-      <c r="I119" s="107"/>
-      <c r="J119" s="107"/>
-      <c r="K119" s="107"/>
-      <c r="L119" s="107"/>
-      <c r="M119" s="107"/>
-      <c r="N119" s="107"/>
-      <c r="O119" s="107"/>
-      <c r="P119" s="107"/>
-      <c r="Q119" s="107"/>
-      <c r="R119" s="108"/>
-      <c r="S119" s="108"/>
-      <c r="T119" s="108"/>
-      <c r="U119" s="108"/>
-      <c r="V119" s="108"/>
-      <c r="W119" s="108"/>
-      <c r="X119" s="109"/>
+      <c r="B119" s="142"/>
+      <c r="C119" s="113"/>
+      <c r="D119" s="113"/>
+      <c r="E119" s="113"/>
+      <c r="F119" s="113"/>
+      <c r="G119" s="113"/>
+      <c r="H119" s="113"/>
+      <c r="I119" s="113"/>
+      <c r="J119" s="113"/>
+      <c r="K119" s="113"/>
+      <c r="L119" s="113"/>
+      <c r="M119" s="113"/>
+      <c r="N119" s="113"/>
+      <c r="O119" s="113"/>
+      <c r="P119" s="113"/>
+      <c r="Q119" s="113"/>
+      <c r="R119" s="175"/>
+      <c r="S119" s="175"/>
+      <c r="T119" s="175"/>
+      <c r="U119" s="175"/>
+      <c r="V119" s="175"/>
+      <c r="W119" s="175"/>
+      <c r="X119" s="176"/>
       <c r="Y119" s="51"/>
-      <c r="Z119" s="106"/>
-      <c r="AA119" s="107"/>
-      <c r="AB119" s="107"/>
-      <c r="AC119" s="107"/>
-      <c r="AD119" s="107"/>
-      <c r="AE119" s="107"/>
-      <c r="AF119" s="107"/>
-      <c r="AG119" s="107"/>
-      <c r="AH119" s="107"/>
-      <c r="AI119" s="107"/>
-      <c r="AJ119" s="107"/>
-      <c r="AK119" s="107"/>
-      <c r="AL119" s="107"/>
-      <c r="AM119" s="107"/>
-      <c r="AN119" s="108"/>
-      <c r="AO119" s="108"/>
-      <c r="AP119" s="108"/>
-      <c r="AQ119" s="108"/>
-      <c r="AR119" s="108"/>
-      <c r="AS119" s="108"/>
-      <c r="AT119" s="109"/>
+      <c r="Z119" s="142"/>
+      <c r="AA119" s="113"/>
+      <c r="AB119" s="113"/>
+      <c r="AC119" s="113"/>
+      <c r="AD119" s="113"/>
+      <c r="AE119" s="113"/>
+      <c r="AF119" s="113"/>
+      <c r="AG119" s="113"/>
+      <c r="AH119" s="113"/>
+      <c r="AI119" s="113"/>
+      <c r="AJ119" s="113"/>
+      <c r="AK119" s="113"/>
+      <c r="AL119" s="113"/>
+      <c r="AM119" s="113"/>
+      <c r="AN119" s="175"/>
+      <c r="AO119" s="175"/>
+      <c r="AP119" s="175"/>
+      <c r="AQ119" s="175"/>
+      <c r="AR119" s="175"/>
+      <c r="AS119" s="175"/>
+      <c r="AT119" s="176"/>
       <c r="AU119" s="8"/>
     </row>
     <row r="120" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
-      <c r="B120" s="106"/>
-      <c r="C120" s="107"/>
-      <c r="D120" s="107"/>
-      <c r="E120" s="107"/>
-      <c r="F120" s="107"/>
-      <c r="G120" s="107"/>
-      <c r="H120" s="107"/>
-      <c r="I120" s="107"/>
-      <c r="J120" s="107"/>
-      <c r="K120" s="107"/>
-      <c r="L120" s="107"/>
-      <c r="M120" s="107"/>
-      <c r="N120" s="107"/>
-      <c r="O120" s="107"/>
-      <c r="P120" s="107"/>
-      <c r="Q120" s="107"/>
-      <c r="R120" s="108"/>
-      <c r="S120" s="108"/>
-      <c r="T120" s="108"/>
-      <c r="U120" s="108"/>
-      <c r="V120" s="108"/>
-      <c r="W120" s="108"/>
-      <c r="X120" s="109"/>
+      <c r="B120" s="142"/>
+      <c r="C120" s="113"/>
+      <c r="D120" s="113"/>
+      <c r="E120" s="113"/>
+      <c r="F120" s="113"/>
+      <c r="G120" s="113"/>
+      <c r="H120" s="113"/>
+      <c r="I120" s="113"/>
+      <c r="J120" s="113"/>
+      <c r="K120" s="113"/>
+      <c r="L120" s="113"/>
+      <c r="M120" s="113"/>
+      <c r="N120" s="113"/>
+      <c r="O120" s="113"/>
+      <c r="P120" s="113"/>
+      <c r="Q120" s="113"/>
+      <c r="R120" s="175"/>
+      <c r="S120" s="175"/>
+      <c r="T120" s="175"/>
+      <c r="U120" s="175"/>
+      <c r="V120" s="175"/>
+      <c r="W120" s="175"/>
+      <c r="X120" s="176"/>
       <c r="Y120" s="51"/>
-      <c r="Z120" s="106"/>
-      <c r="AA120" s="107"/>
-      <c r="AB120" s="107"/>
-      <c r="AC120" s="107"/>
-      <c r="AD120" s="107"/>
-      <c r="AE120" s="107"/>
-      <c r="AF120" s="107"/>
-      <c r="AG120" s="107"/>
-      <c r="AH120" s="107"/>
-      <c r="AI120" s="107"/>
-      <c r="AJ120" s="107"/>
-      <c r="AK120" s="107"/>
-      <c r="AL120" s="107"/>
-      <c r="AM120" s="107"/>
-      <c r="AN120" s="108"/>
-      <c r="AO120" s="108"/>
-      <c r="AP120" s="108"/>
-      <c r="AQ120" s="108"/>
-      <c r="AR120" s="108"/>
-      <c r="AS120" s="108"/>
-      <c r="AT120" s="109"/>
+      <c r="Z120" s="142"/>
+      <c r="AA120" s="113"/>
+      <c r="AB120" s="113"/>
+      <c r="AC120" s="113"/>
+      <c r="AD120" s="113"/>
+      <c r="AE120" s="113"/>
+      <c r="AF120" s="113"/>
+      <c r="AG120" s="113"/>
+      <c r="AH120" s="113"/>
+      <c r="AI120" s="113"/>
+      <c r="AJ120" s="113"/>
+      <c r="AK120" s="113"/>
+      <c r="AL120" s="113"/>
+      <c r="AM120" s="113"/>
+      <c r="AN120" s="175"/>
+      <c r="AO120" s="175"/>
+      <c r="AP120" s="175"/>
+      <c r="AQ120" s="175"/>
+      <c r="AR120" s="175"/>
+      <c r="AS120" s="175"/>
+      <c r="AT120" s="176"/>
       <c r="AU120" s="8"/>
     </row>
     <row r="121" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
-      <c r="B121" s="119"/>
-      <c r="C121" s="120"/>
-      <c r="D121" s="120"/>
-      <c r="E121" s="120"/>
-      <c r="F121" s="120"/>
-      <c r="G121" s="120"/>
-      <c r="H121" s="120"/>
-      <c r="I121" s="120"/>
-      <c r="J121" s="120"/>
-      <c r="K121" s="120"/>
-      <c r="L121" s="120"/>
-      <c r="M121" s="120"/>
-      <c r="N121" s="120"/>
-      <c r="O121" s="120"/>
-      <c r="P121" s="120"/>
-      <c r="Q121" s="120"/>
-      <c r="R121" s="121"/>
-      <c r="S121" s="121"/>
-      <c r="T121" s="121"/>
-      <c r="U121" s="121"/>
-      <c r="V121" s="121"/>
-      <c r="W121" s="121"/>
-      <c r="X121" s="122"/>
+      <c r="B121" s="116"/>
+      <c r="C121" s="117"/>
+      <c r="D121" s="117"/>
+      <c r="E121" s="117"/>
+      <c r="F121" s="117"/>
+      <c r="G121" s="117"/>
+      <c r="H121" s="117"/>
+      <c r="I121" s="117"/>
+      <c r="J121" s="117"/>
+      <c r="K121" s="117"/>
+      <c r="L121" s="117"/>
+      <c r="M121" s="117"/>
+      <c r="N121" s="117"/>
+      <c r="O121" s="117"/>
+      <c r="P121" s="117"/>
+      <c r="Q121" s="117"/>
+      <c r="R121" s="177"/>
+      <c r="S121" s="177"/>
+      <c r="T121" s="177"/>
+      <c r="U121" s="177"/>
+      <c r="V121" s="177"/>
+      <c r="W121" s="177"/>
+      <c r="X121" s="178"/>
       <c r="Y121" s="51"/>
-      <c r="Z121" s="119"/>
-      <c r="AA121" s="120"/>
-      <c r="AB121" s="120"/>
-      <c r="AC121" s="120"/>
-      <c r="AD121" s="120"/>
-      <c r="AE121" s="120"/>
-      <c r="AF121" s="120"/>
-      <c r="AG121" s="120"/>
-      <c r="AH121" s="120"/>
-      <c r="AI121" s="120"/>
-      <c r="AJ121" s="120"/>
-      <c r="AK121" s="120"/>
-      <c r="AL121" s="120"/>
-      <c r="AM121" s="120"/>
-      <c r="AN121" s="121"/>
-      <c r="AO121" s="121"/>
-      <c r="AP121" s="121"/>
-      <c r="AQ121" s="121"/>
-      <c r="AR121" s="121"/>
-      <c r="AS121" s="121"/>
-      <c r="AT121" s="122"/>
+      <c r="Z121" s="116"/>
+      <c r="AA121" s="117"/>
+      <c r="AB121" s="117"/>
+      <c r="AC121" s="117"/>
+      <c r="AD121" s="117"/>
+      <c r="AE121" s="117"/>
+      <c r="AF121" s="117"/>
+      <c r="AG121" s="117"/>
+      <c r="AH121" s="117"/>
+      <c r="AI121" s="117"/>
+      <c r="AJ121" s="117"/>
+      <c r="AK121" s="117"/>
+      <c r="AL121" s="117"/>
+      <c r="AM121" s="117"/>
+      <c r="AN121" s="177"/>
+      <c r="AO121" s="177"/>
+      <c r="AP121" s="177"/>
+      <c r="AQ121" s="177"/>
+      <c r="AR121" s="177"/>
+      <c r="AS121" s="177"/>
+      <c r="AT121" s="178"/>
       <c r="AU121" s="8"/>
     </row>
     <row r="122" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8419,53 +8455,53 @@
     </row>
     <row r="123" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
-      <c r="B123" s="125" t="s">
+      <c r="B123" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="126"/>
-      <c r="D123" s="126"/>
-      <c r="E123" s="126"/>
-      <c r="F123" s="126"/>
-      <c r="G123" s="126"/>
-      <c r="H123" s="126"/>
-      <c r="I123" s="126"/>
-      <c r="J123" s="126"/>
-      <c r="K123" s="126"/>
-      <c r="L123" s="126"/>
-      <c r="M123" s="126"/>
-      <c r="N123" s="126"/>
-      <c r="O123" s="126"/>
-      <c r="P123" s="126"/>
-      <c r="Q123" s="126"/>
-      <c r="R123" s="126"/>
-      <c r="S123" s="126"/>
-      <c r="T123" s="126"/>
-      <c r="U123" s="126"/>
-      <c r="V123" s="126"/>
-      <c r="W123" s="126"/>
-      <c r="X123" s="126"/>
-      <c r="Y123" s="126"/>
-      <c r="Z123" s="126"/>
-      <c r="AA123" s="126"/>
-      <c r="AB123" s="126"/>
-      <c r="AC123" s="126"/>
-      <c r="AD123" s="126"/>
-      <c r="AE123" s="126"/>
-      <c r="AF123" s="126"/>
-      <c r="AG123" s="126"/>
-      <c r="AH123" s="126"/>
-      <c r="AI123" s="126"/>
-      <c r="AJ123" s="126"/>
-      <c r="AK123" s="126"/>
-      <c r="AL123" s="126"/>
-      <c r="AM123" s="126"/>
-      <c r="AN123" s="126"/>
-      <c r="AO123" s="126"/>
-      <c r="AP123" s="126"/>
-      <c r="AQ123" s="126"/>
-      <c r="AR123" s="126"/>
-      <c r="AS123" s="126"/>
-      <c r="AT123" s="127"/>
+      <c r="C123" s="150"/>
+      <c r="D123" s="150"/>
+      <c r="E123" s="150"/>
+      <c r="F123" s="150"/>
+      <c r="G123" s="150"/>
+      <c r="H123" s="150"/>
+      <c r="I123" s="150"/>
+      <c r="J123" s="150"/>
+      <c r="K123" s="150"/>
+      <c r="L123" s="150"/>
+      <c r="M123" s="150"/>
+      <c r="N123" s="150"/>
+      <c r="O123" s="150"/>
+      <c r="P123" s="150"/>
+      <c r="Q123" s="150"/>
+      <c r="R123" s="150"/>
+      <c r="S123" s="150"/>
+      <c r="T123" s="150"/>
+      <c r="U123" s="150"/>
+      <c r="V123" s="150"/>
+      <c r="W123" s="150"/>
+      <c r="X123" s="150"/>
+      <c r="Y123" s="150"/>
+      <c r="Z123" s="150"/>
+      <c r="AA123" s="150"/>
+      <c r="AB123" s="150"/>
+      <c r="AC123" s="150"/>
+      <c r="AD123" s="150"/>
+      <c r="AE123" s="150"/>
+      <c r="AF123" s="150"/>
+      <c r="AG123" s="150"/>
+      <c r="AH123" s="150"/>
+      <c r="AI123" s="150"/>
+      <c r="AJ123" s="150"/>
+      <c r="AK123" s="150"/>
+      <c r="AL123" s="150"/>
+      <c r="AM123" s="150"/>
+      <c r="AN123" s="150"/>
+      <c r="AO123" s="150"/>
+      <c r="AP123" s="150"/>
+      <c r="AQ123" s="150"/>
+      <c r="AR123" s="150"/>
+      <c r="AS123" s="150"/>
+      <c r="AT123" s="151"/>
       <c r="AU123" s="8"/>
     </row>
     <row r="124" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8519,361 +8555,361 @@
     </row>
     <row r="125" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
-      <c r="B125" s="123" t="s">
+      <c r="B125" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="103"/>
-      <c r="D125" s="103"/>
-      <c r="E125" s="103"/>
-      <c r="F125" s="103"/>
-      <c r="G125" s="103" t="s">
+      <c r="C125" s="153"/>
+      <c r="D125" s="153"/>
+      <c r="E125" s="153"/>
+      <c r="F125" s="153"/>
+      <c r="G125" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="H125" s="103"/>
-      <c r="I125" s="103"/>
-      <c r="J125" s="103"/>
-      <c r="K125" s="103"/>
-      <c r="L125" s="103"/>
-      <c r="M125" s="103"/>
-      <c r="N125" s="103"/>
-      <c r="O125" s="103"/>
-      <c r="P125" s="103"/>
-      <c r="Q125" s="103"/>
-      <c r="R125" s="104" t="s">
+      <c r="H125" s="153"/>
+      <c r="I125" s="153"/>
+      <c r="J125" s="153"/>
+      <c r="K125" s="153"/>
+      <c r="L125" s="153"/>
+      <c r="M125" s="153"/>
+      <c r="N125" s="153"/>
+      <c r="O125" s="153"/>
+      <c r="P125" s="153"/>
+      <c r="Q125" s="153"/>
+      <c r="R125" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="S125" s="104"/>
-      <c r="T125" s="104"/>
-      <c r="U125" s="104"/>
-      <c r="V125" s="104" t="s">
+      <c r="S125" s="154"/>
+      <c r="T125" s="154"/>
+      <c r="U125" s="154"/>
+      <c r="V125" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="W125" s="104"/>
-      <c r="X125" s="105"/>
+      <c r="W125" s="154"/>
+      <c r="X125" s="155"/>
       <c r="Y125" s="13"/>
-      <c r="Z125" s="123" t="s">
+      <c r="Z125" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="AA125" s="103"/>
-      <c r="AB125" s="103"/>
-      <c r="AC125" s="103"/>
-      <c r="AD125" s="103" t="s">
+      <c r="AA125" s="153"/>
+      <c r="AB125" s="153"/>
+      <c r="AC125" s="153"/>
+      <c r="AD125" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="AE125" s="103"/>
-      <c r="AF125" s="103"/>
-      <c r="AG125" s="103"/>
-      <c r="AH125" s="103"/>
-      <c r="AI125" s="103"/>
-      <c r="AJ125" s="103"/>
-      <c r="AK125" s="103"/>
-      <c r="AL125" s="103"/>
-      <c r="AM125" s="103"/>
-      <c r="AN125" s="104" t="s">
+      <c r="AE125" s="153"/>
+      <c r="AF125" s="153"/>
+      <c r="AG125" s="153"/>
+      <c r="AH125" s="153"/>
+      <c r="AI125" s="153"/>
+      <c r="AJ125" s="153"/>
+      <c r="AK125" s="153"/>
+      <c r="AL125" s="153"/>
+      <c r="AM125" s="153"/>
+      <c r="AN125" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="AO125" s="104"/>
-      <c r="AP125" s="104"/>
-      <c r="AQ125" s="104"/>
-      <c r="AR125" s="104" t="s">
+      <c r="AO125" s="154"/>
+      <c r="AP125" s="154"/>
+      <c r="AQ125" s="154"/>
+      <c r="AR125" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="AS125" s="104"/>
-      <c r="AT125" s="105"/>
+      <c r="AS125" s="154"/>
+      <c r="AT125" s="155"/>
       <c r="AU125" s="8"/>
     </row>
     <row r="126" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
-      <c r="B126" s="106"/>
-      <c r="C126" s="107"/>
-      <c r="D126" s="107"/>
-      <c r="E126" s="107"/>
-      <c r="F126" s="107"/>
-      <c r="G126" s="107"/>
-      <c r="H126" s="107"/>
-      <c r="I126" s="107"/>
-      <c r="J126" s="107"/>
-      <c r="K126" s="107"/>
-      <c r="L126" s="107"/>
-      <c r="M126" s="107"/>
-      <c r="N126" s="107"/>
-      <c r="O126" s="107"/>
-      <c r="P126" s="107"/>
-      <c r="Q126" s="107"/>
-      <c r="R126" s="108"/>
-      <c r="S126" s="108"/>
-      <c r="T126" s="108"/>
-      <c r="U126" s="108"/>
-      <c r="V126" s="108"/>
-      <c r="W126" s="108"/>
-      <c r="X126" s="109"/>
+      <c r="B126" s="142"/>
+      <c r="C126" s="113"/>
+      <c r="D126" s="113"/>
+      <c r="E126" s="113"/>
+      <c r="F126" s="113"/>
+      <c r="G126" s="113"/>
+      <c r="H126" s="113"/>
+      <c r="I126" s="113"/>
+      <c r="J126" s="113"/>
+      <c r="K126" s="113"/>
+      <c r="L126" s="113"/>
+      <c r="M126" s="113"/>
+      <c r="N126" s="113"/>
+      <c r="O126" s="113"/>
+      <c r="P126" s="113"/>
+      <c r="Q126" s="113"/>
+      <c r="R126" s="175"/>
+      <c r="S126" s="175"/>
+      <c r="T126" s="175"/>
+      <c r="U126" s="175"/>
+      <c r="V126" s="175"/>
+      <c r="W126" s="175"/>
+      <c r="X126" s="176"/>
       <c r="Y126" s="51"/>
-      <c r="Z126" s="106"/>
-      <c r="AA126" s="107"/>
-      <c r="AB126" s="107"/>
-      <c r="AC126" s="107"/>
-      <c r="AD126" s="107"/>
-      <c r="AE126" s="107"/>
-      <c r="AF126" s="107"/>
-      <c r="AG126" s="107"/>
-      <c r="AH126" s="107"/>
-      <c r="AI126" s="107"/>
-      <c r="AJ126" s="107"/>
-      <c r="AK126" s="107"/>
-      <c r="AL126" s="107"/>
-      <c r="AM126" s="107"/>
-      <c r="AN126" s="108"/>
-      <c r="AO126" s="108"/>
-      <c r="AP126" s="108"/>
-      <c r="AQ126" s="108"/>
-      <c r="AR126" s="108"/>
-      <c r="AS126" s="108"/>
-      <c r="AT126" s="109"/>
+      <c r="Z126" s="142"/>
+      <c r="AA126" s="113"/>
+      <c r="AB126" s="113"/>
+      <c r="AC126" s="113"/>
+      <c r="AD126" s="113"/>
+      <c r="AE126" s="113"/>
+      <c r="AF126" s="113"/>
+      <c r="AG126" s="113"/>
+      <c r="AH126" s="113"/>
+      <c r="AI126" s="113"/>
+      <c r="AJ126" s="113"/>
+      <c r="AK126" s="113"/>
+      <c r="AL126" s="113"/>
+      <c r="AM126" s="113"/>
+      <c r="AN126" s="175"/>
+      <c r="AO126" s="175"/>
+      <c r="AP126" s="175"/>
+      <c r="AQ126" s="175"/>
+      <c r="AR126" s="175"/>
+      <c r="AS126" s="175"/>
+      <c r="AT126" s="176"/>
       <c r="AU126" s="8"/>
     </row>
     <row r="127" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
-      <c r="B127" s="106"/>
-      <c r="C127" s="107"/>
-      <c r="D127" s="107"/>
-      <c r="E127" s="107"/>
-      <c r="F127" s="107"/>
-      <c r="G127" s="107"/>
-      <c r="H127" s="107"/>
-      <c r="I127" s="107"/>
-      <c r="J127" s="107"/>
-      <c r="K127" s="107"/>
-      <c r="L127" s="107"/>
-      <c r="M127" s="107"/>
-      <c r="N127" s="107"/>
-      <c r="O127" s="107"/>
-      <c r="P127" s="107"/>
-      <c r="Q127" s="107"/>
-      <c r="R127" s="108"/>
-      <c r="S127" s="108"/>
-      <c r="T127" s="108"/>
-      <c r="U127" s="108"/>
-      <c r="V127" s="108"/>
-      <c r="W127" s="108"/>
-      <c r="X127" s="109"/>
+      <c r="B127" s="142"/>
+      <c r="C127" s="113"/>
+      <c r="D127" s="113"/>
+      <c r="E127" s="113"/>
+      <c r="F127" s="113"/>
+      <c r="G127" s="113"/>
+      <c r="H127" s="113"/>
+      <c r="I127" s="113"/>
+      <c r="J127" s="113"/>
+      <c r="K127" s="113"/>
+      <c r="L127" s="113"/>
+      <c r="M127" s="113"/>
+      <c r="N127" s="113"/>
+      <c r="O127" s="113"/>
+      <c r="P127" s="113"/>
+      <c r="Q127" s="113"/>
+      <c r="R127" s="175"/>
+      <c r="S127" s="175"/>
+      <c r="T127" s="175"/>
+      <c r="U127" s="175"/>
+      <c r="V127" s="175"/>
+      <c r="W127" s="175"/>
+      <c r="X127" s="176"/>
       <c r="Y127" s="51"/>
-      <c r="Z127" s="106"/>
-      <c r="AA127" s="107"/>
-      <c r="AB127" s="107"/>
-      <c r="AC127" s="107"/>
-      <c r="AD127" s="107"/>
-      <c r="AE127" s="107"/>
-      <c r="AF127" s="107"/>
-      <c r="AG127" s="107"/>
-      <c r="AH127" s="107"/>
-      <c r="AI127" s="107"/>
-      <c r="AJ127" s="107"/>
-      <c r="AK127" s="107"/>
-      <c r="AL127" s="107"/>
-      <c r="AM127" s="107"/>
-      <c r="AN127" s="108"/>
-      <c r="AO127" s="108"/>
-      <c r="AP127" s="108"/>
-      <c r="AQ127" s="108"/>
-      <c r="AR127" s="108"/>
-      <c r="AS127" s="108"/>
-      <c r="AT127" s="109"/>
+      <c r="Z127" s="142"/>
+      <c r="AA127" s="113"/>
+      <c r="AB127" s="113"/>
+      <c r="AC127" s="113"/>
+      <c r="AD127" s="113"/>
+      <c r="AE127" s="113"/>
+      <c r="AF127" s="113"/>
+      <c r="AG127" s="113"/>
+      <c r="AH127" s="113"/>
+      <c r="AI127" s="113"/>
+      <c r="AJ127" s="113"/>
+      <c r="AK127" s="113"/>
+      <c r="AL127" s="113"/>
+      <c r="AM127" s="113"/>
+      <c r="AN127" s="175"/>
+      <c r="AO127" s="175"/>
+      <c r="AP127" s="175"/>
+      <c r="AQ127" s="175"/>
+      <c r="AR127" s="175"/>
+      <c r="AS127" s="175"/>
+      <c r="AT127" s="176"/>
       <c r="AU127" s="8"/>
     </row>
     <row r="128" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
-      <c r="B128" s="106"/>
-      <c r="C128" s="107"/>
-      <c r="D128" s="107"/>
-      <c r="E128" s="107"/>
-      <c r="F128" s="107"/>
-      <c r="G128" s="107"/>
-      <c r="H128" s="107"/>
-      <c r="I128" s="107"/>
-      <c r="J128" s="107"/>
-      <c r="K128" s="107"/>
-      <c r="L128" s="107"/>
-      <c r="M128" s="107"/>
-      <c r="N128" s="107"/>
-      <c r="O128" s="107"/>
-      <c r="P128" s="107"/>
-      <c r="Q128" s="107"/>
-      <c r="R128" s="108"/>
-      <c r="S128" s="108"/>
-      <c r="T128" s="108"/>
-      <c r="U128" s="108"/>
-      <c r="V128" s="108"/>
-      <c r="W128" s="108"/>
-      <c r="X128" s="109"/>
+      <c r="B128" s="142"/>
+      <c r="C128" s="113"/>
+      <c r="D128" s="113"/>
+      <c r="E128" s="113"/>
+      <c r="F128" s="113"/>
+      <c r="G128" s="113"/>
+      <c r="H128" s="113"/>
+      <c r="I128" s="113"/>
+      <c r="J128" s="113"/>
+      <c r="K128" s="113"/>
+      <c r="L128" s="113"/>
+      <c r="M128" s="113"/>
+      <c r="N128" s="113"/>
+      <c r="O128" s="113"/>
+      <c r="P128" s="113"/>
+      <c r="Q128" s="113"/>
+      <c r="R128" s="175"/>
+      <c r="S128" s="175"/>
+      <c r="T128" s="175"/>
+      <c r="U128" s="175"/>
+      <c r="V128" s="175"/>
+      <c r="W128" s="175"/>
+      <c r="X128" s="176"/>
       <c r="Y128" s="51"/>
-      <c r="Z128" s="106"/>
-      <c r="AA128" s="107"/>
-      <c r="AB128" s="107"/>
-      <c r="AC128" s="107"/>
-      <c r="AD128" s="107"/>
-      <c r="AE128" s="107"/>
-      <c r="AF128" s="107"/>
-      <c r="AG128" s="107"/>
-      <c r="AH128" s="107"/>
-      <c r="AI128" s="107"/>
-      <c r="AJ128" s="107"/>
-      <c r="AK128" s="107"/>
-      <c r="AL128" s="107"/>
-      <c r="AM128" s="107"/>
-      <c r="AN128" s="108"/>
-      <c r="AO128" s="108"/>
-      <c r="AP128" s="108"/>
-      <c r="AQ128" s="108"/>
-      <c r="AR128" s="108"/>
-      <c r="AS128" s="108"/>
-      <c r="AT128" s="109"/>
+      <c r="Z128" s="142"/>
+      <c r="AA128" s="113"/>
+      <c r="AB128" s="113"/>
+      <c r="AC128" s="113"/>
+      <c r="AD128" s="113"/>
+      <c r="AE128" s="113"/>
+      <c r="AF128" s="113"/>
+      <c r="AG128" s="113"/>
+      <c r="AH128" s="113"/>
+      <c r="AI128" s="113"/>
+      <c r="AJ128" s="113"/>
+      <c r="AK128" s="113"/>
+      <c r="AL128" s="113"/>
+      <c r="AM128" s="113"/>
+      <c r="AN128" s="175"/>
+      <c r="AO128" s="175"/>
+      <c r="AP128" s="175"/>
+      <c r="AQ128" s="175"/>
+      <c r="AR128" s="175"/>
+      <c r="AS128" s="175"/>
+      <c r="AT128" s="176"/>
       <c r="AU128" s="8"/>
     </row>
     <row r="129" spans="1:56" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
-      <c r="B129" s="106"/>
-      <c r="C129" s="107"/>
-      <c r="D129" s="107"/>
-      <c r="E129" s="107"/>
-      <c r="F129" s="107"/>
-      <c r="G129" s="107"/>
-      <c r="H129" s="107"/>
-      <c r="I129" s="107"/>
-      <c r="J129" s="107"/>
-      <c r="K129" s="107"/>
-      <c r="L129" s="107"/>
-      <c r="M129" s="107"/>
-      <c r="N129" s="107"/>
-      <c r="O129" s="107"/>
-      <c r="P129" s="107"/>
-      <c r="Q129" s="107"/>
-      <c r="R129" s="108"/>
-      <c r="S129" s="108"/>
-      <c r="T129" s="108"/>
-      <c r="U129" s="108"/>
-      <c r="V129" s="108"/>
-      <c r="W129" s="108"/>
-      <c r="X129" s="109"/>
+      <c r="B129" s="142"/>
+      <c r="C129" s="113"/>
+      <c r="D129" s="113"/>
+      <c r="E129" s="113"/>
+      <c r="F129" s="113"/>
+      <c r="G129" s="113"/>
+      <c r="H129" s="113"/>
+      <c r="I129" s="113"/>
+      <c r="J129" s="113"/>
+      <c r="K129" s="113"/>
+      <c r="L129" s="113"/>
+      <c r="M129" s="113"/>
+      <c r="N129" s="113"/>
+      <c r="O129" s="113"/>
+      <c r="P129" s="113"/>
+      <c r="Q129" s="113"/>
+      <c r="R129" s="175"/>
+      <c r="S129" s="175"/>
+      <c r="T129" s="175"/>
+      <c r="U129" s="175"/>
+      <c r="V129" s="175"/>
+      <c r="W129" s="175"/>
+      <c r="X129" s="176"/>
       <c r="Y129" s="51"/>
-      <c r="Z129" s="106"/>
-      <c r="AA129" s="107"/>
-      <c r="AB129" s="107"/>
-      <c r="AC129" s="107"/>
-      <c r="AD129" s="107"/>
-      <c r="AE129" s="107"/>
-      <c r="AF129" s="107"/>
-      <c r="AG129" s="107"/>
-      <c r="AH129" s="107"/>
-      <c r="AI129" s="107"/>
-      <c r="AJ129" s="107"/>
-      <c r="AK129" s="107"/>
-      <c r="AL129" s="107"/>
-      <c r="AM129" s="107"/>
-      <c r="AN129" s="108"/>
-      <c r="AO129" s="108"/>
-      <c r="AP129" s="108"/>
-      <c r="AQ129" s="108"/>
-      <c r="AR129" s="108"/>
-      <c r="AS129" s="108"/>
-      <c r="AT129" s="109"/>
+      <c r="Z129" s="142"/>
+      <c r="AA129" s="113"/>
+      <c r="AB129" s="113"/>
+      <c r="AC129" s="113"/>
+      <c r="AD129" s="113"/>
+      <c r="AE129" s="113"/>
+      <c r="AF129" s="113"/>
+      <c r="AG129" s="113"/>
+      <c r="AH129" s="113"/>
+      <c r="AI129" s="113"/>
+      <c r="AJ129" s="113"/>
+      <c r="AK129" s="113"/>
+      <c r="AL129" s="113"/>
+      <c r="AM129" s="113"/>
+      <c r="AN129" s="175"/>
+      <c r="AO129" s="175"/>
+      <c r="AP129" s="175"/>
+      <c r="AQ129" s="175"/>
+      <c r="AR129" s="175"/>
+      <c r="AS129" s="175"/>
+      <c r="AT129" s="176"/>
       <c r="AU129" s="8"/>
     </row>
     <row r="130" spans="1:56" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
-      <c r="B130" s="106"/>
-      <c r="C130" s="107"/>
-      <c r="D130" s="107"/>
-      <c r="E130" s="107"/>
-      <c r="F130" s="107"/>
-      <c r="G130" s="107"/>
-      <c r="H130" s="107"/>
-      <c r="I130" s="107"/>
-      <c r="J130" s="107"/>
-      <c r="K130" s="107"/>
-      <c r="L130" s="107"/>
-      <c r="M130" s="107"/>
-      <c r="N130" s="107"/>
-      <c r="O130" s="107"/>
-      <c r="P130" s="107"/>
-      <c r="Q130" s="107"/>
-      <c r="R130" s="108"/>
-      <c r="S130" s="108"/>
-      <c r="T130" s="108"/>
-      <c r="U130" s="108"/>
-      <c r="V130" s="108"/>
-      <c r="W130" s="108"/>
-      <c r="X130" s="109"/>
+      <c r="B130" s="142"/>
+      <c r="C130" s="113"/>
+      <c r="D130" s="113"/>
+      <c r="E130" s="113"/>
+      <c r="F130" s="113"/>
+      <c r="G130" s="113"/>
+      <c r="H130" s="113"/>
+      <c r="I130" s="113"/>
+      <c r="J130" s="113"/>
+      <c r="K130" s="113"/>
+      <c r="L130" s="113"/>
+      <c r="M130" s="113"/>
+      <c r="N130" s="113"/>
+      <c r="O130" s="113"/>
+      <c r="P130" s="113"/>
+      <c r="Q130" s="113"/>
+      <c r="R130" s="175"/>
+      <c r="S130" s="175"/>
+      <c r="T130" s="175"/>
+      <c r="U130" s="175"/>
+      <c r="V130" s="175"/>
+      <c r="W130" s="175"/>
+      <c r="X130" s="176"/>
       <c r="Y130" s="51"/>
-      <c r="Z130" s="106"/>
-      <c r="AA130" s="107"/>
-      <c r="AB130" s="107"/>
-      <c r="AC130" s="107"/>
-      <c r="AD130" s="107"/>
-      <c r="AE130" s="107"/>
-      <c r="AF130" s="107"/>
-      <c r="AG130" s="107"/>
-      <c r="AH130" s="107"/>
-      <c r="AI130" s="107"/>
-      <c r="AJ130" s="107"/>
-      <c r="AK130" s="107"/>
-      <c r="AL130" s="107"/>
-      <c r="AM130" s="107"/>
-      <c r="AN130" s="108"/>
-      <c r="AO130" s="108"/>
-      <c r="AP130" s="108"/>
-      <c r="AQ130" s="108"/>
-      <c r="AR130" s="108"/>
-      <c r="AS130" s="108"/>
-      <c r="AT130" s="109"/>
+      <c r="Z130" s="142"/>
+      <c r="AA130" s="113"/>
+      <c r="AB130" s="113"/>
+      <c r="AC130" s="113"/>
+      <c r="AD130" s="113"/>
+      <c r="AE130" s="113"/>
+      <c r="AF130" s="113"/>
+      <c r="AG130" s="113"/>
+      <c r="AH130" s="113"/>
+      <c r="AI130" s="113"/>
+      <c r="AJ130" s="113"/>
+      <c r="AK130" s="113"/>
+      <c r="AL130" s="113"/>
+      <c r="AM130" s="113"/>
+      <c r="AN130" s="175"/>
+      <c r="AO130" s="175"/>
+      <c r="AP130" s="175"/>
+      <c r="AQ130" s="175"/>
+      <c r="AR130" s="175"/>
+      <c r="AS130" s="175"/>
+      <c r="AT130" s="176"/>
       <c r="AU130" s="8"/>
     </row>
     <row r="131" spans="1:56" s="28" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
-      <c r="B131" s="119"/>
-      <c r="C131" s="120"/>
-      <c r="D131" s="120"/>
-      <c r="E131" s="120"/>
-      <c r="F131" s="120"/>
-      <c r="G131" s="120"/>
-      <c r="H131" s="120"/>
-      <c r="I131" s="120"/>
-      <c r="J131" s="120"/>
-      <c r="K131" s="120"/>
-      <c r="L131" s="120"/>
-      <c r="M131" s="120"/>
-      <c r="N131" s="120"/>
-      <c r="O131" s="120"/>
-      <c r="P131" s="120"/>
-      <c r="Q131" s="120"/>
-      <c r="R131" s="121"/>
-      <c r="S131" s="121"/>
-      <c r="T131" s="121"/>
-      <c r="U131" s="121"/>
-      <c r="V131" s="121"/>
-      <c r="W131" s="121"/>
-      <c r="X131" s="122"/>
+      <c r="B131" s="116"/>
+      <c r="C131" s="117"/>
+      <c r="D131" s="117"/>
+      <c r="E131" s="117"/>
+      <c r="F131" s="117"/>
+      <c r="G131" s="117"/>
+      <c r="H131" s="117"/>
+      <c r="I131" s="117"/>
+      <c r="J131" s="117"/>
+      <c r="K131" s="117"/>
+      <c r="L131" s="117"/>
+      <c r="M131" s="117"/>
+      <c r="N131" s="117"/>
+      <c r="O131" s="117"/>
+      <c r="P131" s="117"/>
+      <c r="Q131" s="117"/>
+      <c r="R131" s="177"/>
+      <c r="S131" s="177"/>
+      <c r="T131" s="177"/>
+      <c r="U131" s="177"/>
+      <c r="V131" s="177"/>
+      <c r="W131" s="177"/>
+      <c r="X131" s="178"/>
       <c r="Y131" s="51"/>
-      <c r="Z131" s="119"/>
-      <c r="AA131" s="120"/>
-      <c r="AB131" s="120"/>
-      <c r="AC131" s="120"/>
-      <c r="AD131" s="120"/>
-      <c r="AE131" s="120"/>
-      <c r="AF131" s="120"/>
-      <c r="AG131" s="120"/>
-      <c r="AH131" s="120"/>
-      <c r="AI131" s="120"/>
-      <c r="AJ131" s="120"/>
-      <c r="AK131" s="120"/>
-      <c r="AL131" s="120"/>
-      <c r="AM131" s="120"/>
-      <c r="AN131" s="121"/>
-      <c r="AO131" s="121"/>
-      <c r="AP131" s="121"/>
-      <c r="AQ131" s="121"/>
-      <c r="AR131" s="121"/>
-      <c r="AS131" s="121"/>
-      <c r="AT131" s="122"/>
+      <c r="Z131" s="116"/>
+      <c r="AA131" s="117"/>
+      <c r="AB131" s="117"/>
+      <c r="AC131" s="117"/>
+      <c r="AD131" s="117"/>
+      <c r="AE131" s="117"/>
+      <c r="AF131" s="117"/>
+      <c r="AG131" s="117"/>
+      <c r="AH131" s="117"/>
+      <c r="AI131" s="117"/>
+      <c r="AJ131" s="117"/>
+      <c r="AK131" s="117"/>
+      <c r="AL131" s="117"/>
+      <c r="AM131" s="117"/>
+      <c r="AN131" s="177"/>
+      <c r="AO131" s="177"/>
+      <c r="AP131" s="177"/>
+      <c r="AQ131" s="177"/>
+      <c r="AR131" s="177"/>
+      <c r="AS131" s="177"/>
+      <c r="AT131" s="178"/>
       <c r="AU131" s="8"/>
     </row>
     <row r="132" spans="1:56" s="20" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8883,51 +8919,51 @@
     <row r="133" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="152" t="s">
+      <c r="C133" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="D133" s="152"/>
-      <c r="E133" s="152"/>
-      <c r="F133" s="152"/>
-      <c r="G133" s="152"/>
-      <c r="H133" s="152"/>
-      <c r="I133" s="152"/>
-      <c r="J133" s="152"/>
-      <c r="K133" s="152"/>
-      <c r="L133" s="152"/>
-      <c r="M133" s="152"/>
-      <c r="N133" s="152"/>
-      <c r="O133" s="152"/>
-      <c r="P133" s="152"/>
-      <c r="Q133" s="152"/>
-      <c r="R133" s="152"/>
-      <c r="S133" s="152"/>
-      <c r="T133" s="152"/>
-      <c r="U133" s="152"/>
-      <c r="V133" s="152"/>
-      <c r="W133" s="152"/>
-      <c r="X133" s="152"/>
-      <c r="Y133" s="152"/>
-      <c r="Z133" s="152"/>
-      <c r="AA133" s="152"/>
-      <c r="AB133" s="152"/>
-      <c r="AC133" s="152"/>
-      <c r="AD133" s="152"/>
-      <c r="AE133" s="152"/>
-      <c r="AF133" s="152"/>
-      <c r="AG133" s="152"/>
-      <c r="AH133" s="152"/>
-      <c r="AI133" s="152"/>
-      <c r="AJ133" s="152"/>
-      <c r="AK133" s="152"/>
-      <c r="AL133" s="152"/>
-      <c r="AM133" s="152"/>
-      <c r="AN133" s="152"/>
-      <c r="AO133" s="152"/>
-      <c r="AP133" s="152"/>
-      <c r="AQ133" s="152"/>
-      <c r="AR133" s="152"/>
-      <c r="AS133" s="152"/>
+      <c r="D133" s="110"/>
+      <c r="E133" s="110"/>
+      <c r="F133" s="110"/>
+      <c r="G133" s="110"/>
+      <c r="H133" s="110"/>
+      <c r="I133" s="110"/>
+      <c r="J133" s="110"/>
+      <c r="K133" s="110"/>
+      <c r="L133" s="110"/>
+      <c r="M133" s="110"/>
+      <c r="N133" s="110"/>
+      <c r="O133" s="110"/>
+      <c r="P133" s="110"/>
+      <c r="Q133" s="110"/>
+      <c r="R133" s="110"/>
+      <c r="S133" s="110"/>
+      <c r="T133" s="110"/>
+      <c r="U133" s="110"/>
+      <c r="V133" s="110"/>
+      <c r="W133" s="110"/>
+      <c r="X133" s="110"/>
+      <c r="Y133" s="110"/>
+      <c r="Z133" s="110"/>
+      <c r="AA133" s="110"/>
+      <c r="AB133" s="110"/>
+      <c r="AC133" s="110"/>
+      <c r="AD133" s="110"/>
+      <c r="AE133" s="110"/>
+      <c r="AF133" s="110"/>
+      <c r="AG133" s="110"/>
+      <c r="AH133" s="110"/>
+      <c r="AI133" s="110"/>
+      <c r="AJ133" s="110"/>
+      <c r="AK133" s="110"/>
+      <c r="AL133" s="110"/>
+      <c r="AM133" s="110"/>
+      <c r="AN133" s="110"/>
+      <c r="AO133" s="110"/>
+      <c r="AP133" s="110"/>
+      <c r="AQ133" s="110"/>
+      <c r="AR133" s="110"/>
+      <c r="AS133" s="110"/>
       <c r="AT133" s="18"/>
       <c r="AU133" s="8"/>
     </row>
@@ -9025,15 +9061,15 @@
       <c r="AM135" s="29"/>
       <c r="AN135" s="29"/>
       <c r="AO135" s="29"/>
-      <c r="AP135" s="153" t="s">
+      <c r="AP135" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="AQ135" s="153"/>
+      <c r="AQ135" s="167"/>
       <c r="AR135" s="27"/>
-      <c r="AS135" s="153" t="s">
+      <c r="AS135" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="AT135" s="153"/>
+      <c r="AT135" s="167"/>
       <c r="AU135" s="8"/>
       <c r="AV135" s="23"/>
     </row>
@@ -9086,16 +9122,16 @@
       </c>
       <c r="M137" s="21"/>
       <c r="N137" s="49"/>
-      <c r="P137" s="158"/>
-      <c r="Q137" s="158"/>
-      <c r="R137" s="158"/>
-      <c r="S137" s="158"/>
-      <c r="T137" s="158"/>
-      <c r="U137" s="158"/>
-      <c r="V137" s="158"/>
-      <c r="W137" s="158"/>
-      <c r="X137" s="158"/>
-      <c r="Y137" s="158"/>
+      <c r="P137" s="148"/>
+      <c r="Q137" s="148"/>
+      <c r="R137" s="148"/>
+      <c r="S137" s="148"/>
+      <c r="T137" s="148"/>
+      <c r="U137" s="148"/>
+      <c r="V137" s="148"/>
+      <c r="W137" s="148"/>
+      <c r="X137" s="148"/>
+      <c r="Y137" s="148"/>
       <c r="Z137" s="31" t="s">
         <v>129</v>
       </c>
@@ -9113,11 +9149,11 @@
       <c r="AM137" s="8"/>
       <c r="AN137" s="8"/>
       <c r="AO137" s="8"/>
-      <c r="AP137" s="156"/>
-      <c r="AQ137" s="156"/>
+      <c r="AP137" s="109"/>
+      <c r="AQ137" s="109"/>
       <c r="AR137" s="8"/>
-      <c r="AS137" s="156"/>
-      <c r="AT137" s="156"/>
+      <c r="AS137" s="109"/>
+      <c r="AT137" s="109"/>
       <c r="AU137" s="8"/>
     </row>
     <row r="138" spans="1:56" s="20" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2">
@@ -9180,16 +9216,16 @@
       </c>
       <c r="M139" s="21"/>
       <c r="N139" s="49"/>
-      <c r="P139" s="158"/>
-      <c r="Q139" s="158"/>
-      <c r="R139" s="158"/>
-      <c r="S139" s="158"/>
-      <c r="T139" s="158"/>
-      <c r="U139" s="158"/>
-      <c r="V139" s="158"/>
-      <c r="W139" s="158"/>
-      <c r="X139" s="158"/>
-      <c r="Y139" s="158"/>
+      <c r="P139" s="148"/>
+      <c r="Q139" s="148"/>
+      <c r="R139" s="148"/>
+      <c r="S139" s="148"/>
+      <c r="T139" s="148"/>
+      <c r="U139" s="148"/>
+      <c r="V139" s="148"/>
+      <c r="W139" s="148"/>
+      <c r="X139" s="148"/>
+      <c r="Y139" s="148"/>
       <c r="Z139" s="31" t="s">
         <v>131</v>
       </c>
@@ -9201,17 +9237,17 @@
       <c r="AG139" s="6"/>
       <c r="AH139" s="6"/>
       <c r="AI139" s="6"/>
-      <c r="AJ139" s="157"/>
-      <c r="AK139" s="157"/>
-      <c r="AL139" s="157"/>
-      <c r="AM139" s="157"/>
-      <c r="AN139" s="157"/>
-      <c r="AO139" s="157"/>
-      <c r="AP139" s="157"/>
-      <c r="AQ139" s="157"/>
-      <c r="AR139" s="157"/>
-      <c r="AS139" s="157"/>
-      <c r="AT139" s="157"/>
+      <c r="AJ139" s="147"/>
+      <c r="AK139" s="147"/>
+      <c r="AL139" s="147"/>
+      <c r="AM139" s="147"/>
+      <c r="AN139" s="147"/>
+      <c r="AO139" s="147"/>
+      <c r="AP139" s="147"/>
+      <c r="AQ139" s="147"/>
+      <c r="AR139" s="147"/>
+      <c r="AS139" s="147"/>
+      <c r="AT139" s="147"/>
       <c r="AU139" s="8"/>
     </row>
     <row r="140" spans="1:56" s="20" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2">
@@ -9341,44 +9377,44 @@
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
       <c r="O143" s="18"/>
-      <c r="P143" s="110" t="s">
+      <c r="P143" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="Q143" s="110"/>
-      <c r="R143" s="110"/>
-      <c r="S143" s="110"/>
-      <c r="T143" s="110"/>
-      <c r="U143" s="110"/>
-      <c r="V143" s="110"/>
-      <c r="W143" s="110"/>
-      <c r="X143" s="110"/>
-      <c r="Y143" s="110"/>
-      <c r="Z143" s="110"/>
-      <c r="AA143" s="110"/>
-      <c r="AB143" s="110"/>
-      <c r="AC143" s="110"/>
-      <c r="AD143" s="110"/>
-      <c r="AE143" s="110"/>
-      <c r="AF143" s="110"/>
-      <c r="AG143" s="110"/>
-      <c r="AH143" s="110"/>
-      <c r="AI143" s="110"/>
+      <c r="Q143" s="137"/>
+      <c r="R143" s="137"/>
+      <c r="S143" s="137"/>
+      <c r="T143" s="137"/>
+      <c r="U143" s="137"/>
+      <c r="V143" s="137"/>
+      <c r="W143" s="137"/>
+      <c r="X143" s="137"/>
+      <c r="Y143" s="137"/>
+      <c r="Z143" s="137"/>
+      <c r="AA143" s="137"/>
+      <c r="AB143" s="137"/>
+      <c r="AC143" s="137"/>
+      <c r="AD143" s="137"/>
+      <c r="AE143" s="137"/>
+      <c r="AF143" s="137"/>
+      <c r="AG143" s="137"/>
+      <c r="AH143" s="137"/>
+      <c r="AI143" s="137"/>
       <c r="AJ143" s="18"/>
-      <c r="AK143" s="111" t="s">
+      <c r="AK143" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="AL143" s="112"/>
-      <c r="AM143" s="112"/>
-      <c r="AN143" s="145" t="str">
+      <c r="AL143" s="129"/>
+      <c r="AM143" s="129"/>
+      <c r="AN143" s="143" t="str">
         <f>AN2</f>
         <v>SJI-YY-NNN-M</v>
       </c>
-      <c r="AO143" s="145"/>
-      <c r="AP143" s="145"/>
-      <c r="AQ143" s="145"/>
-      <c r="AR143" s="145"/>
-      <c r="AS143" s="145"/>
-      <c r="AT143" s="146"/>
+      <c r="AO143" s="143"/>
+      <c r="AP143" s="143"/>
+      <c r="AQ143" s="143"/>
+      <c r="AR143" s="143"/>
+      <c r="AS143" s="143"/>
+      <c r="AT143" s="144"/>
       <c r="AU143" s="1"/>
       <c r="AV143" s="20"/>
       <c r="AW143" s="20"/>
@@ -9405,39 +9441,39 @@
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
       <c r="O144" s="18"/>
-      <c r="P144" s="110" t="s">
+      <c r="P144" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="Q144" s="110"/>
-      <c r="R144" s="110"/>
-      <c r="S144" s="110"/>
-      <c r="T144" s="110"/>
-      <c r="U144" s="110"/>
-      <c r="V144" s="110"/>
-      <c r="W144" s="110"/>
-      <c r="X144" s="110"/>
-      <c r="Y144" s="110"/>
-      <c r="Z144" s="110"/>
-      <c r="AA144" s="110"/>
-      <c r="AB144" s="110"/>
-      <c r="AC144" s="110"/>
-      <c r="AD144" s="110"/>
-      <c r="AE144" s="110"/>
-      <c r="AF144" s="110"/>
-      <c r="AG144" s="110"/>
-      <c r="AH144" s="110"/>
-      <c r="AI144" s="110"/>
+      <c r="Q144" s="137"/>
+      <c r="R144" s="137"/>
+      <c r="S144" s="137"/>
+      <c r="T144" s="137"/>
+      <c r="U144" s="137"/>
+      <c r="V144" s="137"/>
+      <c r="W144" s="137"/>
+      <c r="X144" s="137"/>
+      <c r="Y144" s="137"/>
+      <c r="Z144" s="137"/>
+      <c r="AA144" s="137"/>
+      <c r="AB144" s="137"/>
+      <c r="AC144" s="137"/>
+      <c r="AD144" s="137"/>
+      <c r="AE144" s="137"/>
+      <c r="AF144" s="137"/>
+      <c r="AG144" s="137"/>
+      <c r="AH144" s="137"/>
+      <c r="AI144" s="137"/>
       <c r="AJ144" s="18"/>
-      <c r="AK144" s="113"/>
-      <c r="AL144" s="114"/>
-      <c r="AM144" s="114"/>
-      <c r="AN144" s="147"/>
-      <c r="AO144" s="147"/>
-      <c r="AP144" s="147"/>
-      <c r="AQ144" s="147"/>
-      <c r="AR144" s="147"/>
-      <c r="AS144" s="147"/>
-      <c r="AT144" s="148"/>
+      <c r="AK144" s="130"/>
+      <c r="AL144" s="131"/>
+      <c r="AM144" s="131"/>
+      <c r="AN144" s="145"/>
+      <c r="AO144" s="145"/>
+      <c r="AP144" s="145"/>
+      <c r="AQ144" s="145"/>
+      <c r="AR144" s="145"/>
+      <c r="AS144" s="145"/>
+      <c r="AT144" s="146"/>
       <c r="AU144" s="1"/>
       <c r="AV144" s="20"/>
       <c r="AW144" s="20"/>
@@ -9467,51 +9503,51 @@
     <row r="146" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="152" t="s">
+      <c r="C146" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="D146" s="152"/>
-      <c r="E146" s="152"/>
-      <c r="F146" s="152"/>
-      <c r="G146" s="152"/>
-      <c r="H146" s="152"/>
-      <c r="I146" s="152"/>
-      <c r="J146" s="152"/>
-      <c r="K146" s="152"/>
-      <c r="L146" s="152"/>
-      <c r="M146" s="152"/>
-      <c r="N146" s="152"/>
-      <c r="O146" s="152"/>
-      <c r="P146" s="152"/>
-      <c r="Q146" s="152"/>
-      <c r="R146" s="152"/>
-      <c r="S146" s="152"/>
-      <c r="T146" s="152"/>
-      <c r="U146" s="152"/>
-      <c r="V146" s="152"/>
-      <c r="W146" s="152"/>
-      <c r="X146" s="152"/>
-      <c r="Y146" s="152"/>
-      <c r="Z146" s="152"/>
-      <c r="AA146" s="152"/>
-      <c r="AB146" s="152"/>
-      <c r="AC146" s="152"/>
-      <c r="AD146" s="152"/>
-      <c r="AE146" s="152"/>
-      <c r="AF146" s="152"/>
-      <c r="AG146" s="152"/>
-      <c r="AH146" s="152"/>
-      <c r="AI146" s="152"/>
-      <c r="AJ146" s="152"/>
-      <c r="AK146" s="152"/>
-      <c r="AL146" s="152"/>
-      <c r="AM146" s="152"/>
-      <c r="AN146" s="152"/>
-      <c r="AO146" s="152"/>
-      <c r="AP146" s="152"/>
-      <c r="AQ146" s="152"/>
-      <c r="AR146" s="152"/>
-      <c r="AS146" s="152"/>
+      <c r="D146" s="110"/>
+      <c r="E146" s="110"/>
+      <c r="F146" s="110"/>
+      <c r="G146" s="110"/>
+      <c r="H146" s="110"/>
+      <c r="I146" s="110"/>
+      <c r="J146" s="110"/>
+      <c r="K146" s="110"/>
+      <c r="L146" s="110"/>
+      <c r="M146" s="110"/>
+      <c r="N146" s="110"/>
+      <c r="O146" s="110"/>
+      <c r="P146" s="110"/>
+      <c r="Q146" s="110"/>
+      <c r="R146" s="110"/>
+      <c r="S146" s="110"/>
+      <c r="T146" s="110"/>
+      <c r="U146" s="110"/>
+      <c r="V146" s="110"/>
+      <c r="W146" s="110"/>
+      <c r="X146" s="110"/>
+      <c r="Y146" s="110"/>
+      <c r="Z146" s="110"/>
+      <c r="AA146" s="110"/>
+      <c r="AB146" s="110"/>
+      <c r="AC146" s="110"/>
+      <c r="AD146" s="110"/>
+      <c r="AE146" s="110"/>
+      <c r="AF146" s="110"/>
+      <c r="AG146" s="110"/>
+      <c r="AH146" s="110"/>
+      <c r="AI146" s="110"/>
+      <c r="AJ146" s="110"/>
+      <c r="AK146" s="110"/>
+      <c r="AL146" s="110"/>
+      <c r="AM146" s="110"/>
+      <c r="AN146" s="110"/>
+      <c r="AO146" s="110"/>
+      <c r="AP146" s="110"/>
+      <c r="AQ146" s="110"/>
+      <c r="AR146" s="110"/>
+      <c r="AS146" s="110"/>
       <c r="AT146" s="18"/>
       <c r="AU146" s="1"/>
       <c r="AV146" s="20"/>
@@ -12784,44 +12820,44 @@
       <c r="M213" s="18"/>
       <c r="N213" s="18"/>
       <c r="O213" s="18"/>
-      <c r="P213" s="110" t="s">
+      <c r="P213" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="Q213" s="110"/>
-      <c r="R213" s="110"/>
-      <c r="S213" s="110"/>
-      <c r="T213" s="110"/>
-      <c r="U213" s="110"/>
-      <c r="V213" s="110"/>
-      <c r="W213" s="110"/>
-      <c r="X213" s="110"/>
-      <c r="Y213" s="110"/>
-      <c r="Z213" s="110"/>
-      <c r="AA213" s="110"/>
-      <c r="AB213" s="110"/>
-      <c r="AC213" s="110"/>
-      <c r="AD213" s="110"/>
-      <c r="AE213" s="110"/>
-      <c r="AF213" s="110"/>
-      <c r="AG213" s="110"/>
-      <c r="AH213" s="110"/>
-      <c r="AI213" s="110"/>
+      <c r="Q213" s="137"/>
+      <c r="R213" s="137"/>
+      <c r="S213" s="137"/>
+      <c r="T213" s="137"/>
+      <c r="U213" s="137"/>
+      <c r="V213" s="137"/>
+      <c r="W213" s="137"/>
+      <c r="X213" s="137"/>
+      <c r="Y213" s="137"/>
+      <c r="Z213" s="137"/>
+      <c r="AA213" s="137"/>
+      <c r="AB213" s="137"/>
+      <c r="AC213" s="137"/>
+      <c r="AD213" s="137"/>
+      <c r="AE213" s="137"/>
+      <c r="AF213" s="137"/>
+      <c r="AG213" s="137"/>
+      <c r="AH213" s="137"/>
+      <c r="AI213" s="137"/>
       <c r="AJ213" s="18"/>
-      <c r="AK213" s="111" t="s">
+      <c r="AK213" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="AL213" s="112"/>
-      <c r="AM213" s="112"/>
-      <c r="AN213" s="145" t="str">
+      <c r="AL213" s="129"/>
+      <c r="AM213" s="129"/>
+      <c r="AN213" s="143" t="str">
         <f>AN2</f>
         <v>SJI-YY-NNN-M</v>
       </c>
-      <c r="AO213" s="145"/>
-      <c r="AP213" s="145"/>
-      <c r="AQ213" s="145"/>
-      <c r="AR213" s="145"/>
-      <c r="AS213" s="145"/>
-      <c r="AT213" s="146"/>
+      <c r="AO213" s="143"/>
+      <c r="AP213" s="143"/>
+      <c r="AQ213" s="143"/>
+      <c r="AR213" s="143"/>
+      <c r="AS213" s="143"/>
+      <c r="AT213" s="144"/>
       <c r="AU213" s="1"/>
       <c r="AV213" s="20"/>
       <c r="AW213" s="20"/>
@@ -12848,39 +12884,39 @@
       <c r="M214" s="18"/>
       <c r="N214" s="18"/>
       <c r="O214" s="18"/>
-      <c r="P214" s="110" t="s">
+      <c r="P214" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="Q214" s="110"/>
-      <c r="R214" s="110"/>
-      <c r="S214" s="110"/>
-      <c r="T214" s="110"/>
-      <c r="U214" s="110"/>
-      <c r="V214" s="110"/>
-      <c r="W214" s="110"/>
-      <c r="X214" s="110"/>
-      <c r="Y214" s="110"/>
-      <c r="Z214" s="110"/>
-      <c r="AA214" s="110"/>
-      <c r="AB214" s="110"/>
-      <c r="AC214" s="110"/>
-      <c r="AD214" s="110"/>
-      <c r="AE214" s="110"/>
-      <c r="AF214" s="110"/>
-      <c r="AG214" s="110"/>
-      <c r="AH214" s="110"/>
-      <c r="AI214" s="110"/>
+      <c r="Q214" s="137"/>
+      <c r="R214" s="137"/>
+      <c r="S214" s="137"/>
+      <c r="T214" s="137"/>
+      <c r="U214" s="137"/>
+      <c r="V214" s="137"/>
+      <c r="W214" s="137"/>
+      <c r="X214" s="137"/>
+      <c r="Y214" s="137"/>
+      <c r="Z214" s="137"/>
+      <c r="AA214" s="137"/>
+      <c r="AB214" s="137"/>
+      <c r="AC214" s="137"/>
+      <c r="AD214" s="137"/>
+      <c r="AE214" s="137"/>
+      <c r="AF214" s="137"/>
+      <c r="AG214" s="137"/>
+      <c r="AH214" s="137"/>
+      <c r="AI214" s="137"/>
       <c r="AJ214" s="18"/>
-      <c r="AK214" s="113"/>
-      <c r="AL214" s="114"/>
-      <c r="AM214" s="114"/>
-      <c r="AN214" s="147"/>
-      <c r="AO214" s="147"/>
-      <c r="AP214" s="147"/>
-      <c r="AQ214" s="147"/>
-      <c r="AR214" s="147"/>
-      <c r="AS214" s="147"/>
-      <c r="AT214" s="148"/>
+      <c r="AK214" s="130"/>
+      <c r="AL214" s="131"/>
+      <c r="AM214" s="131"/>
+      <c r="AN214" s="145"/>
+      <c r="AO214" s="145"/>
+      <c r="AP214" s="145"/>
+      <c r="AQ214" s="145"/>
+      <c r="AR214" s="145"/>
+      <c r="AS214" s="145"/>
+      <c r="AT214" s="146"/>
       <c r="AU214" s="1"/>
       <c r="AV214" s="20"/>
       <c r="AW214" s="20"/>
@@ -12910,51 +12946,51 @@
     <row r="216" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
-      <c r="C216" s="152" t="s">
+      <c r="C216" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="D216" s="152"/>
-      <c r="E216" s="152"/>
-      <c r="F216" s="152"/>
-      <c r="G216" s="152"/>
-      <c r="H216" s="152"/>
-      <c r="I216" s="152"/>
-      <c r="J216" s="152"/>
-      <c r="K216" s="152"/>
-      <c r="L216" s="152"/>
-      <c r="M216" s="152"/>
-      <c r="N216" s="152"/>
-      <c r="O216" s="152"/>
-      <c r="P216" s="152"/>
-      <c r="Q216" s="152"/>
-      <c r="R216" s="152"/>
-      <c r="S216" s="152"/>
-      <c r="T216" s="152"/>
-      <c r="U216" s="152"/>
-      <c r="V216" s="152"/>
-      <c r="W216" s="152"/>
-      <c r="X216" s="152"/>
-      <c r="Y216" s="152"/>
-      <c r="Z216" s="152"/>
-      <c r="AA216" s="152"/>
-      <c r="AB216" s="152"/>
-      <c r="AC216" s="152"/>
-      <c r="AD216" s="152"/>
-      <c r="AE216" s="152"/>
-      <c r="AF216" s="152"/>
-      <c r="AG216" s="152"/>
-      <c r="AH216" s="152"/>
-      <c r="AI216" s="152"/>
-      <c r="AJ216" s="152"/>
-      <c r="AK216" s="152"/>
-      <c r="AL216" s="152"/>
-      <c r="AM216" s="152"/>
-      <c r="AN216" s="152"/>
-      <c r="AO216" s="152"/>
-      <c r="AP216" s="152"/>
-      <c r="AQ216" s="152"/>
-      <c r="AR216" s="152"/>
-      <c r="AS216" s="152"/>
+      <c r="D216" s="110"/>
+      <c r="E216" s="110"/>
+      <c r="F216" s="110"/>
+      <c r="G216" s="110"/>
+      <c r="H216" s="110"/>
+      <c r="I216" s="110"/>
+      <c r="J216" s="110"/>
+      <c r="K216" s="110"/>
+      <c r="L216" s="110"/>
+      <c r="M216" s="110"/>
+      <c r="N216" s="110"/>
+      <c r="O216" s="110"/>
+      <c r="P216" s="110"/>
+      <c r="Q216" s="110"/>
+      <c r="R216" s="110"/>
+      <c r="S216" s="110"/>
+      <c r="T216" s="110"/>
+      <c r="U216" s="110"/>
+      <c r="V216" s="110"/>
+      <c r="W216" s="110"/>
+      <c r="X216" s="110"/>
+      <c r="Y216" s="110"/>
+      <c r="Z216" s="110"/>
+      <c r="AA216" s="110"/>
+      <c r="AB216" s="110"/>
+      <c r="AC216" s="110"/>
+      <c r="AD216" s="110"/>
+      <c r="AE216" s="110"/>
+      <c r="AF216" s="110"/>
+      <c r="AG216" s="110"/>
+      <c r="AH216" s="110"/>
+      <c r="AI216" s="110"/>
+      <c r="AJ216" s="110"/>
+      <c r="AK216" s="110"/>
+      <c r="AL216" s="110"/>
+      <c r="AM216" s="110"/>
+      <c r="AN216" s="110"/>
+      <c r="AO216" s="110"/>
+      <c r="AP216" s="110"/>
+      <c r="AQ216" s="110"/>
+      <c r="AR216" s="110"/>
+      <c r="AS216" s="110"/>
       <c r="AT216" s="18"/>
       <c r="AU216" s="1"/>
       <c r="AV216" s="20"/>
@@ -15965,6 +16001,338 @@
   </protectedRanges>
   <dataConsolidate/>
   <mergeCells count="356">
+    <mergeCell ref="AD111:AM111"/>
+    <mergeCell ref="AN111:AQ111"/>
+    <mergeCell ref="AR111:AT111"/>
+    <mergeCell ref="Z112:AC112"/>
+    <mergeCell ref="AD112:AM112"/>
+    <mergeCell ref="AN112:AQ112"/>
+    <mergeCell ref="AR112:AT112"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="G118:Q118"/>
+    <mergeCell ref="R118:U118"/>
+    <mergeCell ref="Z118:AC118"/>
+    <mergeCell ref="AD118:AM118"/>
+    <mergeCell ref="AN118:AQ118"/>
+    <mergeCell ref="AR118:AT118"/>
+    <mergeCell ref="V118:X118"/>
+    <mergeCell ref="AD113:AM113"/>
+    <mergeCell ref="AN113:AQ113"/>
+    <mergeCell ref="AR113:AT113"/>
+    <mergeCell ref="Z114:AC114"/>
+    <mergeCell ref="AD114:AM114"/>
+    <mergeCell ref="AN114:AQ114"/>
+    <mergeCell ref="AR114:AT114"/>
+    <mergeCell ref="R115:U115"/>
+    <mergeCell ref="V115:X115"/>
+    <mergeCell ref="P74:AI74"/>
+    <mergeCell ref="AK74:AM75"/>
+    <mergeCell ref="AN74:AT75"/>
+    <mergeCell ref="P75:AI75"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="G107:Q107"/>
+    <mergeCell ref="R107:U107"/>
+    <mergeCell ref="V107:X107"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="G106:Q106"/>
+    <mergeCell ref="Z107:AC107"/>
+    <mergeCell ref="AD107:AM107"/>
+    <mergeCell ref="AN107:AQ107"/>
+    <mergeCell ref="AR107:AT107"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:Q101"/>
+    <mergeCell ref="R101:U101"/>
+    <mergeCell ref="V101:X101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:Q102"/>
+    <mergeCell ref="R106:U106"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="R102:U102"/>
+    <mergeCell ref="V102:X102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:X103"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="V104:X104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:Q105"/>
+    <mergeCell ref="R105:U105"/>
+    <mergeCell ref="AD121:AM121"/>
+    <mergeCell ref="AN121:AQ121"/>
+    <mergeCell ref="AR121:AT121"/>
+    <mergeCell ref="Z101:AC101"/>
+    <mergeCell ref="AD101:AM101"/>
+    <mergeCell ref="AN101:AQ101"/>
+    <mergeCell ref="AR101:AT101"/>
+    <mergeCell ref="Z102:AC102"/>
+    <mergeCell ref="AD102:AM102"/>
+    <mergeCell ref="AN102:AQ102"/>
+    <mergeCell ref="AR102:AT102"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AM103"/>
+    <mergeCell ref="AN103:AQ103"/>
+    <mergeCell ref="AR103:AT103"/>
+    <mergeCell ref="Z104:AC104"/>
+    <mergeCell ref="AD120:AM120"/>
+    <mergeCell ref="AN120:AQ120"/>
+    <mergeCell ref="AR120:AT120"/>
+    <mergeCell ref="AD117:AM117"/>
+    <mergeCell ref="AN117:AQ117"/>
+    <mergeCell ref="AR117:AT117"/>
+    <mergeCell ref="Z119:AC119"/>
+    <mergeCell ref="AD119:AM119"/>
+    <mergeCell ref="AN119:AQ119"/>
+    <mergeCell ref="AR119:AT119"/>
+    <mergeCell ref="AD115:AM115"/>
+    <mergeCell ref="AN115:AQ115"/>
+    <mergeCell ref="AR115:AT115"/>
+    <mergeCell ref="Z116:AC116"/>
+    <mergeCell ref="AD116:AM116"/>
+    <mergeCell ref="AN116:AQ116"/>
+    <mergeCell ref="AR116:AT116"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="G121:Q121"/>
+    <mergeCell ref="R121:U121"/>
+    <mergeCell ref="V121:X121"/>
+    <mergeCell ref="Z111:AC111"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="Z115:AC115"/>
+    <mergeCell ref="Z117:AC117"/>
+    <mergeCell ref="Z120:AC120"/>
+    <mergeCell ref="Z121:AC121"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="G120:Q120"/>
+    <mergeCell ref="R120:U120"/>
+    <mergeCell ref="V120:X120"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="G117:Q117"/>
+    <mergeCell ref="R117:U117"/>
+    <mergeCell ref="V117:X117"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="G119:Q119"/>
+    <mergeCell ref="R119:U119"/>
+    <mergeCell ref="V119:X119"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="G115:Q115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="G116:Q116"/>
+    <mergeCell ref="R116:U116"/>
+    <mergeCell ref="V116:X116"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="G113:Q113"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="V113:X113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="G114:Q114"/>
+    <mergeCell ref="R114:U114"/>
+    <mergeCell ref="V114:X114"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="G111:Q111"/>
+    <mergeCell ref="R111:U111"/>
+    <mergeCell ref="V111:X111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="G112:Q112"/>
+    <mergeCell ref="R112:U112"/>
+    <mergeCell ref="V112:X112"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="G131:Q131"/>
+    <mergeCell ref="R131:U131"/>
+    <mergeCell ref="V131:X131"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="G130:Q130"/>
+    <mergeCell ref="R130:U130"/>
+    <mergeCell ref="V130:X130"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="G128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:X128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="G129:Q129"/>
+    <mergeCell ref="R129:U129"/>
+    <mergeCell ref="V129:X129"/>
+    <mergeCell ref="Z131:AC131"/>
+    <mergeCell ref="AD131:AM131"/>
+    <mergeCell ref="AN131:AQ131"/>
+    <mergeCell ref="AR131:AT131"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="G125:Q125"/>
+    <mergeCell ref="R125:U125"/>
+    <mergeCell ref="V125:X125"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="G126:Q126"/>
+    <mergeCell ref="R126:U126"/>
+    <mergeCell ref="V126:X126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="G127:Q127"/>
+    <mergeCell ref="R127:U127"/>
+    <mergeCell ref="V127:X127"/>
+    <mergeCell ref="Z129:AC129"/>
+    <mergeCell ref="AD129:AM129"/>
+    <mergeCell ref="AN129:AQ129"/>
+    <mergeCell ref="AR129:AT129"/>
+    <mergeCell ref="Z130:AC130"/>
+    <mergeCell ref="AD130:AM130"/>
+    <mergeCell ref="AN130:AQ130"/>
+    <mergeCell ref="AR130:AT130"/>
+    <mergeCell ref="Z127:AC127"/>
+    <mergeCell ref="AD127:AM127"/>
+    <mergeCell ref="AN127:AQ127"/>
+    <mergeCell ref="AR127:AT127"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AM128"/>
+    <mergeCell ref="AN128:AQ128"/>
+    <mergeCell ref="AR128:AT128"/>
+    <mergeCell ref="Z126:AC126"/>
+    <mergeCell ref="AD126:AM126"/>
+    <mergeCell ref="AN126:AQ126"/>
+    <mergeCell ref="AR126:AT126"/>
+    <mergeCell ref="B109:AT109"/>
+    <mergeCell ref="AD104:AM104"/>
+    <mergeCell ref="AN104:AQ104"/>
+    <mergeCell ref="AR104:AT104"/>
+    <mergeCell ref="Z105:AC105"/>
+    <mergeCell ref="AD105:AM105"/>
+    <mergeCell ref="AN105:AQ105"/>
+    <mergeCell ref="AR105:AT105"/>
+    <mergeCell ref="Z106:AC106"/>
+    <mergeCell ref="AD106:AM106"/>
+    <mergeCell ref="AN106:AQ106"/>
+    <mergeCell ref="AR106:AT106"/>
+    <mergeCell ref="X88:AI88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="X89:AI89"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="O88:W88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="O89:W89"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="X86:AI86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="X87:AI87"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="O86:W86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="O87:W87"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="X84:AI84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="X85:AI85"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="AJ79:AJ84"/>
+    <mergeCell ref="AK79:AK84"/>
+    <mergeCell ref="AL79:AL84"/>
+    <mergeCell ref="O84:W84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="O85:W85"/>
+    <mergeCell ref="AM79:AM84"/>
+    <mergeCell ref="AN79:AN84"/>
+    <mergeCell ref="AO79:AO84"/>
+    <mergeCell ref="AP79:AP84"/>
+    <mergeCell ref="AQ79:AQ84"/>
+    <mergeCell ref="AR79:AR84"/>
+    <mergeCell ref="AS79:AS84"/>
+    <mergeCell ref="AT79:AT84"/>
+    <mergeCell ref="P143:AI143"/>
+    <mergeCell ref="AK143:AM144"/>
+    <mergeCell ref="AN143:AT144"/>
+    <mergeCell ref="P144:AI144"/>
+    <mergeCell ref="X90:AI90"/>
+    <mergeCell ref="X91:AI91"/>
+    <mergeCell ref="X92:AI92"/>
+    <mergeCell ref="C133:AS133"/>
+    <mergeCell ref="AP135:AQ135"/>
+    <mergeCell ref="AS135:AT135"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="O93:W93"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="C216:AS216"/>
+    <mergeCell ref="C146:AS146"/>
+    <mergeCell ref="P213:AI213"/>
+    <mergeCell ref="AK213:AM214"/>
+    <mergeCell ref="AN213:AT214"/>
+    <mergeCell ref="P214:AI214"/>
+    <mergeCell ref="AS137:AT137"/>
+    <mergeCell ref="AJ139:AT139"/>
+    <mergeCell ref="P137:Y137"/>
+    <mergeCell ref="P139:Y139"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="O92:W92"/>
+    <mergeCell ref="B123:AT123"/>
+    <mergeCell ref="Z125:AC125"/>
+    <mergeCell ref="AD125:AM125"/>
+    <mergeCell ref="AN125:AQ125"/>
+    <mergeCell ref="AR125:AT125"/>
+    <mergeCell ref="B95:AT95"/>
+    <mergeCell ref="B96:AT96"/>
+    <mergeCell ref="C97:AS97"/>
+    <mergeCell ref="B99:AT99"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AT3"/>
+    <mergeCell ref="AL9:AT9"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="H13:AT13"/>
+    <mergeCell ref="P2:AI2"/>
+    <mergeCell ref="P3:AI3"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="H7:Q7"/>
+    <mergeCell ref="X9:AF9"/>
+    <mergeCell ref="X7:AF7"/>
+    <mergeCell ref="H11:AF11"/>
+    <mergeCell ref="AL11:AT11"/>
+    <mergeCell ref="C5:AS5"/>
+    <mergeCell ref="I50:W50"/>
+    <mergeCell ref="AB50:AH50"/>
+    <mergeCell ref="AP26:AT26"/>
+    <mergeCell ref="AP18:AT18"/>
+    <mergeCell ref="AP24:AT24"/>
+    <mergeCell ref="AJ16:AT16"/>
+    <mergeCell ref="AP46:AT46"/>
+    <mergeCell ref="AP44:AT44"/>
+    <mergeCell ref="AP20:AT20"/>
+    <mergeCell ref="AP22:AT22"/>
+    <mergeCell ref="AP30:AT30"/>
+    <mergeCell ref="AP36:AT36"/>
+    <mergeCell ref="AP34:AT34"/>
+    <mergeCell ref="AP42:AT42"/>
+    <mergeCell ref="AP28:AT28"/>
+    <mergeCell ref="AP38:AT38"/>
+    <mergeCell ref="AP32:AT32"/>
+    <mergeCell ref="B17:AH25"/>
+    <mergeCell ref="B26:AH33"/>
+    <mergeCell ref="B34:AH47"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="AD69:AH69"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="AD59:AH59"/>
+    <mergeCell ref="AD61:AH61"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="AD65:AH65"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="S61:U61"/>
     <mergeCell ref="AO55:AR55"/>
     <mergeCell ref="AO57:AR57"/>
     <mergeCell ref="AO59:AR59"/>
@@ -15989,338 +16357,6 @@
     <mergeCell ref="X93:AI93"/>
     <mergeCell ref="G93:I93"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="AD69:AH69"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="AD59:AH59"/>
-    <mergeCell ref="AD61:AH61"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="AD65:AH65"/>
-    <mergeCell ref="AD67:AH67"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="I50:W50"/>
-    <mergeCell ref="AB50:AH50"/>
-    <mergeCell ref="AP26:AT26"/>
-    <mergeCell ref="AP18:AT18"/>
-    <mergeCell ref="AP24:AT24"/>
-    <mergeCell ref="AJ16:AT16"/>
-    <mergeCell ref="AP46:AT46"/>
-    <mergeCell ref="AP44:AT44"/>
-    <mergeCell ref="AP20:AT20"/>
-    <mergeCell ref="AP22:AT22"/>
-    <mergeCell ref="AP30:AT30"/>
-    <mergeCell ref="AP36:AT36"/>
-    <mergeCell ref="AP34:AT34"/>
-    <mergeCell ref="AP42:AT42"/>
-    <mergeCell ref="AP28:AT28"/>
-    <mergeCell ref="AP38:AT38"/>
-    <mergeCell ref="AP32:AT32"/>
-    <mergeCell ref="B17:AH25"/>
-    <mergeCell ref="B26:AH33"/>
-    <mergeCell ref="B34:AH47"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AT3"/>
-    <mergeCell ref="AL9:AT9"/>
-    <mergeCell ref="AL7:AT7"/>
-    <mergeCell ref="H13:AT13"/>
-    <mergeCell ref="P2:AI2"/>
-    <mergeCell ref="P3:AI3"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="H7:Q7"/>
-    <mergeCell ref="X9:AF9"/>
-    <mergeCell ref="X7:AF7"/>
-    <mergeCell ref="H11:AF11"/>
-    <mergeCell ref="AL11:AT11"/>
-    <mergeCell ref="C5:AS5"/>
-    <mergeCell ref="O93:W93"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="C216:AS216"/>
-    <mergeCell ref="C146:AS146"/>
-    <mergeCell ref="P213:AI213"/>
-    <mergeCell ref="AK213:AM214"/>
-    <mergeCell ref="AN213:AT214"/>
-    <mergeCell ref="P214:AI214"/>
-    <mergeCell ref="AS137:AT137"/>
-    <mergeCell ref="AJ139:AT139"/>
-    <mergeCell ref="P137:Y137"/>
-    <mergeCell ref="P139:Y139"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="O92:W92"/>
-    <mergeCell ref="B123:AT123"/>
-    <mergeCell ref="Z125:AC125"/>
-    <mergeCell ref="AD125:AM125"/>
-    <mergeCell ref="AN125:AQ125"/>
-    <mergeCell ref="AR125:AT125"/>
-    <mergeCell ref="B95:AT95"/>
-    <mergeCell ref="B96:AT96"/>
-    <mergeCell ref="C97:AS97"/>
-    <mergeCell ref="B99:AT99"/>
-    <mergeCell ref="AM79:AM84"/>
-    <mergeCell ref="AN79:AN84"/>
-    <mergeCell ref="AO79:AO84"/>
-    <mergeCell ref="AP79:AP84"/>
-    <mergeCell ref="AQ79:AQ84"/>
-    <mergeCell ref="AR79:AR84"/>
-    <mergeCell ref="AS79:AS84"/>
-    <mergeCell ref="AT79:AT84"/>
-    <mergeCell ref="P143:AI143"/>
-    <mergeCell ref="AK143:AM144"/>
-    <mergeCell ref="AN143:AT144"/>
-    <mergeCell ref="P144:AI144"/>
-    <mergeCell ref="X90:AI90"/>
-    <mergeCell ref="X91:AI91"/>
-    <mergeCell ref="X92:AI92"/>
-    <mergeCell ref="C133:AS133"/>
-    <mergeCell ref="AP135:AQ135"/>
-    <mergeCell ref="AS135:AT135"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:W91"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="X84:AI84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="X85:AI85"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="AJ79:AJ84"/>
-    <mergeCell ref="AK79:AK84"/>
-    <mergeCell ref="AL79:AL84"/>
-    <mergeCell ref="O84:W84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="O85:W85"/>
-    <mergeCell ref="X86:AI86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="X87:AI87"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="O86:W86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="O87:W87"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="X88:AI88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="X89:AI89"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="O88:W88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="O89:W89"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B109:AT109"/>
-    <mergeCell ref="AD104:AM104"/>
-    <mergeCell ref="AN104:AQ104"/>
-    <mergeCell ref="AR104:AT104"/>
-    <mergeCell ref="Z105:AC105"/>
-    <mergeCell ref="AD105:AM105"/>
-    <mergeCell ref="AN105:AQ105"/>
-    <mergeCell ref="AR105:AT105"/>
-    <mergeCell ref="Z106:AC106"/>
-    <mergeCell ref="AD106:AM106"/>
-    <mergeCell ref="AN106:AQ106"/>
-    <mergeCell ref="AR106:AT106"/>
-    <mergeCell ref="Z127:AC127"/>
-    <mergeCell ref="AD127:AM127"/>
-    <mergeCell ref="AN127:AQ127"/>
-    <mergeCell ref="AR127:AT127"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AM128"/>
-    <mergeCell ref="AN128:AQ128"/>
-    <mergeCell ref="AR128:AT128"/>
-    <mergeCell ref="Z126:AC126"/>
-    <mergeCell ref="AD126:AM126"/>
-    <mergeCell ref="AN126:AQ126"/>
-    <mergeCell ref="AR126:AT126"/>
-    <mergeCell ref="Z131:AC131"/>
-    <mergeCell ref="AD131:AM131"/>
-    <mergeCell ref="AN131:AQ131"/>
-    <mergeCell ref="AR131:AT131"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="G125:Q125"/>
-    <mergeCell ref="R125:U125"/>
-    <mergeCell ref="V125:X125"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="G126:Q126"/>
-    <mergeCell ref="R126:U126"/>
-    <mergeCell ref="V126:X126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="G127:Q127"/>
-    <mergeCell ref="R127:U127"/>
-    <mergeCell ref="V127:X127"/>
-    <mergeCell ref="Z129:AC129"/>
-    <mergeCell ref="AD129:AM129"/>
-    <mergeCell ref="AN129:AQ129"/>
-    <mergeCell ref="AR129:AT129"/>
-    <mergeCell ref="Z130:AC130"/>
-    <mergeCell ref="AD130:AM130"/>
-    <mergeCell ref="AN130:AQ130"/>
-    <mergeCell ref="AR130:AT130"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="G111:Q111"/>
-    <mergeCell ref="R111:U111"/>
-    <mergeCell ref="V111:X111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="G112:Q112"/>
-    <mergeCell ref="R112:U112"/>
-    <mergeCell ref="V112:X112"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="G131:Q131"/>
-    <mergeCell ref="R131:U131"/>
-    <mergeCell ref="V131:X131"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="G130:Q130"/>
-    <mergeCell ref="R130:U130"/>
-    <mergeCell ref="V130:X130"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="G128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:X128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="G129:Q129"/>
-    <mergeCell ref="R129:U129"/>
-    <mergeCell ref="V129:X129"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="G116:Q116"/>
-    <mergeCell ref="R116:U116"/>
-    <mergeCell ref="V116:X116"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="G113:Q113"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="V113:X113"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="G114:Q114"/>
-    <mergeCell ref="R114:U114"/>
-    <mergeCell ref="V114:X114"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="G121:Q121"/>
-    <mergeCell ref="R121:U121"/>
-    <mergeCell ref="V121:X121"/>
-    <mergeCell ref="Z111:AC111"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="Z115:AC115"/>
-    <mergeCell ref="Z117:AC117"/>
-    <mergeCell ref="Z120:AC120"/>
-    <mergeCell ref="Z121:AC121"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="G120:Q120"/>
-    <mergeCell ref="R120:U120"/>
-    <mergeCell ref="V120:X120"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="G117:Q117"/>
-    <mergeCell ref="R117:U117"/>
-    <mergeCell ref="V117:X117"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="G119:Q119"/>
-    <mergeCell ref="R119:U119"/>
-    <mergeCell ref="V119:X119"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="G115:Q115"/>
-    <mergeCell ref="AN119:AQ119"/>
-    <mergeCell ref="AR119:AT119"/>
-    <mergeCell ref="AD115:AM115"/>
-    <mergeCell ref="AN115:AQ115"/>
-    <mergeCell ref="AR115:AT115"/>
-    <mergeCell ref="Z116:AC116"/>
-    <mergeCell ref="AD116:AM116"/>
-    <mergeCell ref="AN116:AQ116"/>
-    <mergeCell ref="AR116:AT116"/>
-    <mergeCell ref="AD121:AM121"/>
-    <mergeCell ref="AN121:AQ121"/>
-    <mergeCell ref="AR121:AT121"/>
-    <mergeCell ref="Z101:AC101"/>
-    <mergeCell ref="AD101:AM101"/>
-    <mergeCell ref="AN101:AQ101"/>
-    <mergeCell ref="AR101:AT101"/>
-    <mergeCell ref="Z102:AC102"/>
-    <mergeCell ref="AD102:AM102"/>
-    <mergeCell ref="AN102:AQ102"/>
-    <mergeCell ref="AR102:AT102"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AM103"/>
-    <mergeCell ref="AN103:AQ103"/>
-    <mergeCell ref="AR103:AT103"/>
-    <mergeCell ref="Z104:AC104"/>
-    <mergeCell ref="AD120:AM120"/>
-    <mergeCell ref="AN120:AQ120"/>
-    <mergeCell ref="AR120:AT120"/>
-    <mergeCell ref="AD117:AM117"/>
-    <mergeCell ref="AN117:AQ117"/>
-    <mergeCell ref="AR117:AT117"/>
-    <mergeCell ref="Z119:AC119"/>
-    <mergeCell ref="AD119:AM119"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="G103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:X103"/>
-    <mergeCell ref="V106:X106"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="V104:X104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:Q105"/>
-    <mergeCell ref="R105:U105"/>
-    <mergeCell ref="P74:AI74"/>
-    <mergeCell ref="AK74:AM75"/>
-    <mergeCell ref="AN74:AT75"/>
-    <mergeCell ref="P75:AI75"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="G107:Q107"/>
-    <mergeCell ref="R107:U107"/>
-    <mergeCell ref="V107:X107"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="G106:Q106"/>
-    <mergeCell ref="Z107:AC107"/>
-    <mergeCell ref="AD107:AM107"/>
-    <mergeCell ref="AN107:AQ107"/>
-    <mergeCell ref="AR107:AT107"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:Q101"/>
-    <mergeCell ref="R101:U101"/>
-    <mergeCell ref="V101:X101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:Q102"/>
-    <mergeCell ref="R106:U106"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="R102:U102"/>
-    <mergeCell ref="V102:X102"/>
-    <mergeCell ref="AD111:AM111"/>
-    <mergeCell ref="AN111:AQ111"/>
-    <mergeCell ref="AR111:AT111"/>
-    <mergeCell ref="Z112:AC112"/>
-    <mergeCell ref="AD112:AM112"/>
-    <mergeCell ref="AN112:AQ112"/>
-    <mergeCell ref="AR112:AT112"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="G118:Q118"/>
-    <mergeCell ref="R118:U118"/>
-    <mergeCell ref="Z118:AC118"/>
-    <mergeCell ref="AD118:AM118"/>
-    <mergeCell ref="AN118:AQ118"/>
-    <mergeCell ref="AR118:AT118"/>
-    <mergeCell ref="V118:X118"/>
-    <mergeCell ref="AD113:AM113"/>
-    <mergeCell ref="AN113:AQ113"/>
-    <mergeCell ref="AR113:AT113"/>
-    <mergeCell ref="Z114:AC114"/>
-    <mergeCell ref="AD114:AM114"/>
-    <mergeCell ref="AN114:AQ114"/>
-    <mergeCell ref="AR114:AT114"/>
-    <mergeCell ref="R115:U115"/>
-    <mergeCell ref="V115:X115"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.22053571428571428" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16342,27 +16378,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="180" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="174"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="182"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
@@ -16459,12 +16495,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" thickBottom="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.5" thickBottom="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="33"/>
     <col min="2" max="2" width="25.7109375" style="33" bestFit="1" customWidth="1"/>

--- a/Flex_SGM/obj/Release/Package/PackageTmp/Templates/TemplatePCR.xlsx
+++ b/Flex_SGM/obj/Release/Package/PackageTmp/Templates/TemplatePCR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcamacho\source\repos\flexngate\Bitacora\Bitacora\Flex_SGM\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4152D807-D6F9-43E7-86FD-D58336545869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FFA94A-65B3-4702-81A3-74AB15F371EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="825" windowWidth="12120" windowHeight="7320" tabRatio="284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,7 +708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -813,6 +813,17 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1307,7 +1318,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1572,77 +1583,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1672,49 +1635,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1724,33 +1661,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1764,20 +1674,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1794,26 +1698,129 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1824,6 +1831,19 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2471,8 +2491,8 @@
   </sheetPr>
   <dimension ref="A1:BD277"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AN74" sqref="AN74:AT75"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="S55" activeCellId="1" sqref="J55:L69 S55:U69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2563,43 +2583,43 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
       <c r="AJ2" s="18"/>
-      <c r="AK2" s="128" t="s">
+      <c r="AK2" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="132" t="s">
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="AO2" s="132"/>
-      <c r="AP2" s="132"/>
-      <c r="AQ2" s="132"/>
-      <c r="AR2" s="132"/>
-      <c r="AS2" s="132"/>
-      <c r="AT2" s="133"/>
+      <c r="AO2" s="120"/>
+      <c r="AP2" s="120"/>
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="120"/>
+      <c r="AS2" s="120"/>
+      <c r="AT2" s="121"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="20"/>
       <c r="AW2" s="20"/>
@@ -2624,39 +2644,39 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
-      <c r="P3" s="137" t="s">
+      <c r="P3" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="137"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115"/>
       <c r="AJ3" s="18"/>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="131"/>
-      <c r="AM3" s="131"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134"/>
-      <c r="AT3" s="135"/>
+      <c r="AK3" s="118"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="122"/>
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="122"/>
+      <c r="AQ3" s="122"/>
+      <c r="AR3" s="122"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="123"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="20"/>
       <c r="AW3" s="20"/>
@@ -2682,51 +2702,51 @@
     <row r="5" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="110"/>
-      <c r="AS5" s="110"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="157"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="157"/>
+      <c r="W5" s="157"/>
+      <c r="X5" s="157"/>
+      <c r="Y5" s="157"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
+      <c r="AB5" s="157"/>
+      <c r="AC5" s="157"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="157"/>
+      <c r="AF5" s="157"/>
+      <c r="AG5" s="157"/>
+      <c r="AH5" s="157"/>
+      <c r="AI5" s="157"/>
+      <c r="AJ5" s="157"/>
+      <c r="AK5" s="157"/>
+      <c r="AL5" s="157"/>
+      <c r="AM5" s="157"/>
+      <c r="AN5" s="157"/>
+      <c r="AO5" s="157"/>
+      <c r="AP5" s="157"/>
+      <c r="AQ5" s="157"/>
+      <c r="AR5" s="157"/>
+      <c r="AS5" s="157"/>
       <c r="AT5" s="18"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="20"/>
@@ -2798,18 +2818,18 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="138" t="s">
+      <c r="H7" s="167" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
       <c r="R7" s="6"/>
       <c r="S7" s="15" t="s">
         <v>29</v>
@@ -2818,34 +2838,34 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="138" t="s">
+      <c r="X7" s="167" t="s">
         <v>163</v>
       </c>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
-      <c r="AE7" s="138"/>
-      <c r="AF7" s="138"/>
+      <c r="Y7" s="167"/>
+      <c r="Z7" s="167"/>
+      <c r="AA7" s="167"/>
+      <c r="AB7" s="167"/>
+      <c r="AC7" s="167"/>
+      <c r="AD7" s="167"/>
+      <c r="AE7" s="167"/>
+      <c r="AF7" s="167"/>
       <c r="AH7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-      <c r="AL7" s="126" t="s">
+      <c r="AL7" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="AM7" s="126"/>
-      <c r="AN7" s="126"/>
-      <c r="AO7" s="126"/>
-      <c r="AP7" s="126"/>
-      <c r="AQ7" s="126"/>
-      <c r="AR7" s="126"/>
-      <c r="AS7" s="126"/>
-      <c r="AT7" s="126"/>
+      <c r="AM7" s="165"/>
+      <c r="AN7" s="165"/>
+      <c r="AO7" s="165"/>
+      <c r="AP7" s="165"/>
+      <c r="AQ7" s="165"/>
+      <c r="AR7" s="165"/>
+      <c r="AS7" s="165"/>
+      <c r="AT7" s="165"/>
       <c r="AU7" s="8"/>
     </row>
     <row r="8" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2905,18 +2925,18 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="138" t="s">
+      <c r="H9" s="167" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="138"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
       <c r="R9" s="6"/>
       <c r="S9" s="15" t="s">
         <v>30</v>
@@ -2925,34 +2945,34 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="138" t="s">
+      <c r="X9" s="167" t="s">
         <v>166</v>
       </c>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="138"/>
-      <c r="AA9" s="138"/>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="138"/>
-      <c r="AE9" s="138"/>
-      <c r="AF9" s="138"/>
+      <c r="Y9" s="167"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="167"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="167"/>
       <c r="AH9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AL9" s="126" t="s">
+      <c r="AL9" s="165" t="s">
         <v>167</v>
       </c>
-      <c r="AM9" s="126"/>
-      <c r="AN9" s="126"/>
-      <c r="AO9" s="126"/>
-      <c r="AP9" s="126"/>
-      <c r="AQ9" s="126"/>
-      <c r="AR9" s="126"/>
-      <c r="AS9" s="126"/>
-      <c r="AT9" s="126"/>
+      <c r="AM9" s="165"/>
+      <c r="AN9" s="165"/>
+      <c r="AO9" s="165"/>
+      <c r="AP9" s="165"/>
+      <c r="AQ9" s="165"/>
+      <c r="AR9" s="165"/>
+      <c r="AS9" s="165"/>
+      <c r="AT9" s="165"/>
       <c r="AU9" s="8"/>
     </row>
     <row r="10" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3012,50 +3032,50 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="138" t="s">
+      <c r="H11" s="167" t="s">
         <v>168</v>
       </c>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="138"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="138"/>
-      <c r="AE11" s="138"/>
-      <c r="AF11" s="138"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="167"/>
+      <c r="S11" s="167"/>
+      <c r="T11" s="167"/>
+      <c r="U11" s="167"/>
+      <c r="V11" s="167"/>
+      <c r="W11" s="167"/>
+      <c r="X11" s="167"/>
+      <c r="Y11" s="167"/>
+      <c r="Z11" s="167"/>
+      <c r="AA11" s="167"/>
+      <c r="AB11" s="167"/>
+      <c r="AC11" s="167"/>
+      <c r="AD11" s="167"/>
+      <c r="AE11" s="167"/>
+      <c r="AF11" s="167"/>
       <c r="AH11" s="53" t="s">
         <v>25</v>
       </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-      <c r="AL11" s="139" t="s">
+      <c r="AL11" s="168" t="s">
         <v>169</v>
       </c>
-      <c r="AM11" s="139"/>
-      <c r="AN11" s="139"/>
-      <c r="AO11" s="139"/>
-      <c r="AP11" s="139"/>
-      <c r="AQ11" s="139"/>
-      <c r="AR11" s="139"/>
-      <c r="AS11" s="139"/>
-      <c r="AT11" s="139"/>
+      <c r="AM11" s="168"/>
+      <c r="AN11" s="168"/>
+      <c r="AO11" s="168"/>
+      <c r="AP11" s="168"/>
+      <c r="AQ11" s="168"/>
+      <c r="AR11" s="168"/>
+      <c r="AS11" s="168"/>
+      <c r="AT11" s="168"/>
       <c r="AU11" s="8"/>
     </row>
     <row r="12" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3115,47 +3135,47 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="136" t="s">
+      <c r="H13" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="136"/>
-      <c r="W13" s="136"/>
-      <c r="X13" s="136"/>
-      <c r="Y13" s="136"/>
-      <c r="Z13" s="136"/>
-      <c r="AA13" s="136"/>
-      <c r="AB13" s="136"/>
-      <c r="AC13" s="136"/>
-      <c r="AD13" s="136"/>
-      <c r="AE13" s="136"/>
-      <c r="AF13" s="136"/>
-      <c r="AG13" s="136"/>
-      <c r="AH13" s="136"/>
-      <c r="AI13" s="136"/>
-      <c r="AJ13" s="136"/>
-      <c r="AK13" s="136"/>
-      <c r="AL13" s="136"/>
-      <c r="AM13" s="136"/>
-      <c r="AN13" s="136"/>
-      <c r="AO13" s="136"/>
-      <c r="AP13" s="136"/>
-      <c r="AQ13" s="136"/>
-      <c r="AR13" s="136"/>
-      <c r="AS13" s="136"/>
-      <c r="AT13" s="136"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="166"/>
+      <c r="T13" s="166"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="166"/>
+      <c r="W13" s="166"/>
+      <c r="X13" s="166"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
+      <c r="AA13" s="166"/>
+      <c r="AB13" s="166"/>
+      <c r="AC13" s="166"/>
+      <c r="AD13" s="166"/>
+      <c r="AE13" s="166"/>
+      <c r="AF13" s="166"/>
+      <c r="AG13" s="166"/>
+      <c r="AH13" s="166"/>
+      <c r="AI13" s="166"/>
+      <c r="AJ13" s="166"/>
+      <c r="AK13" s="166"/>
+      <c r="AL13" s="166"/>
+      <c r="AM13" s="166"/>
+      <c r="AN13" s="166"/>
+      <c r="AO13" s="166"/>
+      <c r="AP13" s="166"/>
+      <c r="AQ13" s="166"/>
+      <c r="AR13" s="166"/>
+      <c r="AS13" s="166"/>
+      <c r="AT13" s="166"/>
       <c r="AU13" s="8"/>
     </row>
     <row r="14" spans="1:56" s="20" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3293,58 +3313,58 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
-      <c r="AJ16" s="125" t="s">
+      <c r="AJ16" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="AK16" s="125"/>
-      <c r="AL16" s="125"/>
-      <c r="AM16" s="125"/>
-      <c r="AN16" s="125"/>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125"/>
-      <c r="AQ16" s="125"/>
-      <c r="AR16" s="125"/>
-      <c r="AS16" s="125"/>
-      <c r="AT16" s="125"/>
+      <c r="AK16" s="172"/>
+      <c r="AL16" s="172"/>
+      <c r="AM16" s="172"/>
+      <c r="AN16" s="172"/>
+      <c r="AO16" s="172"/>
+      <c r="AP16" s="172"/>
+      <c r="AQ16" s="172"/>
+      <c r="AR16" s="172"/>
+      <c r="AS16" s="172"/>
+      <c r="AT16" s="172"/>
       <c r="AU16" s="8"/>
     </row>
     <row r="17" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="127"/>
-      <c r="AG17" s="127"/>
-      <c r="AH17" s="127"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="173"/>
+      <c r="S17" s="173"/>
+      <c r="T17" s="173"/>
+      <c r="U17" s="173"/>
+      <c r="V17" s="173"/>
+      <c r="W17" s="173"/>
+      <c r="X17" s="173"/>
+      <c r="Y17" s="173"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
@@ -3361,39 +3381,39 @@
     </row>
     <row r="18" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
-      <c r="Y18" s="127"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="127"/>
-      <c r="AF18" s="127"/>
-      <c r="AG18" s="127"/>
-      <c r="AH18" s="127"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="173"/>
+      <c r="S18" s="173"/>
+      <c r="T18" s="173"/>
+      <c r="U18" s="173"/>
+      <c r="V18" s="173"/>
+      <c r="W18" s="173"/>
+      <c r="X18" s="173"/>
+      <c r="Y18" s="173"/>
+      <c r="Z18" s="173"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="8" t="s">
         <v>47</v>
@@ -3405,50 +3425,50 @@
       <c r="AO18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP18" s="124" t="s">
+      <c r="AP18" s="171" t="s">
         <v>174</v>
       </c>
-      <c r="AQ18" s="124"/>
-      <c r="AR18" s="124"/>
-      <c r="AS18" s="124"/>
-      <c r="AT18" s="124"/>
+      <c r="AQ18" s="171"/>
+      <c r="AR18" s="171"/>
+      <c r="AS18" s="171"/>
+      <c r="AT18" s="171"/>
       <c r="AU18" s="8"/>
     </row>
     <row r="19" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="127"/>
-      <c r="U19" s="127"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="127"/>
-      <c r="AG19" s="127"/>
-      <c r="AH19" s="127"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="173"/>
+      <c r="S19" s="173"/>
+      <c r="T19" s="173"/>
+      <c r="U19" s="173"/>
+      <c r="V19" s="173"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="173"/>
+      <c r="Y19" s="173"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="11"/>
       <c r="AK19" s="7"/>
@@ -3465,39 +3485,39 @@
     </row>
     <row r="20" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="173"/>
+      <c r="S20" s="173"/>
+      <c r="T20" s="173"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="173"/>
+      <c r="W20" s="173"/>
+      <c r="X20" s="173"/>
+      <c r="Y20" s="173"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8" t="s">
         <v>41</v>
@@ -3509,50 +3529,50 @@
       <c r="AO20" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP20" s="124" t="s">
+      <c r="AP20" s="171" t="s">
         <v>175</v>
       </c>
-      <c r="AQ20" s="124"/>
-      <c r="AR20" s="124"/>
-      <c r="AS20" s="124"/>
-      <c r="AT20" s="124"/>
+      <c r="AQ20" s="171"/>
+      <c r="AR20" s="171"/>
+      <c r="AS20" s="171"/>
+      <c r="AT20" s="171"/>
       <c r="AU20" s="8"/>
     </row>
     <row r="21" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
-      <c r="U21" s="127"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="127"/>
-      <c r="AF21" s="127"/>
-      <c r="AG21" s="127"/>
-      <c r="AH21" s="127"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="173"/>
+      <c r="U21" s="173"/>
+      <c r="V21" s="173"/>
+      <c r="W21" s="173"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="173"/>
+      <c r="Z21" s="173"/>
+      <c r="AA21" s="173"/>
+      <c r="AB21" s="173"/>
+      <c r="AC21" s="173"/>
+      <c r="AD21" s="173"/>
+      <c r="AE21" s="173"/>
+      <c r="AF21" s="173"/>
+      <c r="AG21" s="173"/>
+      <c r="AH21" s="173"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="7"/>
@@ -3569,39 +3589,39 @@
     </row>
     <row r="22" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="127"/>
-      <c r="AF22" s="127"/>
-      <c r="AG22" s="127"/>
-      <c r="AH22" s="127"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="173"/>
+      <c r="S22" s="173"/>
+      <c r="T22" s="173"/>
+      <c r="U22" s="173"/>
+      <c r="V22" s="173"/>
+      <c r="W22" s="173"/>
+      <c r="X22" s="173"/>
+      <c r="Y22" s="173"/>
+      <c r="Z22" s="173"/>
+      <c r="AA22" s="173"/>
+      <c r="AB22" s="173"/>
+      <c r="AC22" s="173"/>
+      <c r="AD22" s="173"/>
+      <c r="AE22" s="173"/>
+      <c r="AF22" s="173"/>
+      <c r="AG22" s="173"/>
+      <c r="AH22" s="173"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8" t="s">
         <v>39</v>
@@ -3613,50 +3633,50 @@
       <c r="AO22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP22" s="124" t="s">
+      <c r="AP22" s="171" t="s">
         <v>176</v>
       </c>
-      <c r="AQ22" s="124"/>
-      <c r="AR22" s="124"/>
-      <c r="AS22" s="124"/>
-      <c r="AT22" s="124"/>
+      <c r="AQ22" s="171"/>
+      <c r="AR22" s="171"/>
+      <c r="AS22" s="171"/>
+      <c r="AT22" s="171"/>
       <c r="AU22" s="8"/>
     </row>
     <row r="23" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="127"/>
-      <c r="AE23" s="127"/>
-      <c r="AF23" s="127"/>
-      <c r="AG23" s="127"/>
-      <c r="AH23" s="127"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="173"/>
+      <c r="P23" s="173"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="173"/>
+      <c r="T23" s="173"/>
+      <c r="U23" s="173"/>
+      <c r="V23" s="173"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="173"/>
+      <c r="Z23" s="173"/>
+      <c r="AA23" s="173"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="173"/>
+      <c r="AD23" s="173"/>
+      <c r="AE23" s="173"/>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="173"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
@@ -3673,39 +3693,39 @@
     </row>
     <row r="24" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="127"/>
-      <c r="AG24" s="127"/>
-      <c r="AH24" s="127"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="173"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="173"/>
+      <c r="U24" s="173"/>
+      <c r="V24" s="173"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="173"/>
+      <c r="Y24" s="173"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="173"/>
+      <c r="AD24" s="173"/>
+      <c r="AE24" s="173"/>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8" t="s">
         <v>42</v>
@@ -3717,50 +3737,50 @@
       <c r="AO24" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP24" s="124" t="s">
+      <c r="AP24" s="171" t="s">
         <v>177</v>
       </c>
-      <c r="AQ24" s="124"/>
-      <c r="AR24" s="124"/>
-      <c r="AS24" s="124"/>
-      <c r="AT24" s="124"/>
+      <c r="AQ24" s="171"/>
+      <c r="AR24" s="171"/>
+      <c r="AS24" s="171"/>
+      <c r="AT24" s="171"/>
       <c r="AU24" s="8"/>
     </row>
     <row r="25" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="127"/>
-      <c r="W25" s="127"/>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
-      <c r="AC25" s="127"/>
-      <c r="AD25" s="127"/>
-      <c r="AE25" s="127"/>
-      <c r="AF25" s="127"/>
-      <c r="AG25" s="127"/>
-      <c r="AH25" s="127"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="173"/>
+      <c r="L25" s="173"/>
+      <c r="M25" s="173"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="173"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="173"/>
+      <c r="S25" s="173"/>
+      <c r="T25" s="173"/>
+      <c r="U25" s="173"/>
+      <c r="V25" s="173"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
+      <c r="Y25" s="173"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="11"/>
@@ -3777,41 +3797,41 @@
     </row>
     <row r="26" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="127"/>
-      <c r="AH26" s="127"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="173"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="173"/>
+      <c r="S26" s="173"/>
+      <c r="T26" s="173"/>
+      <c r="U26" s="173"/>
+      <c r="V26" s="173"/>
+      <c r="W26" s="173"/>
+      <c r="X26" s="173"/>
+      <c r="Y26" s="173"/>
+      <c r="Z26" s="173"/>
+      <c r="AA26" s="173"/>
+      <c r="AB26" s="173"/>
+      <c r="AC26" s="173"/>
+      <c r="AD26" s="173"/>
+      <c r="AE26" s="173"/>
+      <c r="AF26" s="173"/>
+      <c r="AG26" s="173"/>
+      <c r="AH26" s="173"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8" t="s">
         <v>19</v>
@@ -3823,50 +3843,50 @@
       <c r="AO26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP26" s="124" t="s">
+      <c r="AP26" s="171" t="s">
         <v>178</v>
       </c>
-      <c r="AQ26" s="124"/>
-      <c r="AR26" s="124"/>
-      <c r="AS26" s="124"/>
-      <c r="AT26" s="124"/>
+      <c r="AQ26" s="171"/>
+      <c r="AR26" s="171"/>
+      <c r="AS26" s="171"/>
+      <c r="AT26" s="171"/>
       <c r="AU26" s="8"/>
     </row>
     <row r="27" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="127"/>
-      <c r="AF27" s="127"/>
-      <c r="AG27" s="127"/>
-      <c r="AH27" s="127"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="173"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="173"/>
+      <c r="P27" s="173"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="173"/>
+      <c r="S27" s="173"/>
+      <c r="T27" s="173"/>
+      <c r="U27" s="173"/>
+      <c r="V27" s="173"/>
+      <c r="W27" s="173"/>
+      <c r="X27" s="173"/>
+      <c r="Y27" s="173"/>
+      <c r="Z27" s="173"/>
+      <c r="AA27" s="173"/>
+      <c r="AB27" s="173"/>
+      <c r="AC27" s="173"/>
+      <c r="AD27" s="173"/>
+      <c r="AE27" s="173"/>
+      <c r="AF27" s="173"/>
+      <c r="AG27" s="173"/>
+      <c r="AH27" s="173"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
@@ -3883,39 +3903,39 @@
     </row>
     <row r="28" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="127"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-      <c r="Y28" s="127"/>
-      <c r="Z28" s="127"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="127"/>
-      <c r="AC28" s="127"/>
-      <c r="AD28" s="127"/>
-      <c r="AE28" s="127"/>
-      <c r="AF28" s="127"/>
-      <c r="AG28" s="127"/>
-      <c r="AH28" s="127"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="173"/>
+      <c r="S28" s="173"/>
+      <c r="T28" s="173"/>
+      <c r="U28" s="173"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="173"/>
+      <c r="AD28" s="173"/>
+      <c r="AE28" s="173"/>
+      <c r="AF28" s="173"/>
+      <c r="AG28" s="173"/>
+      <c r="AH28" s="173"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8" t="s">
         <v>43</v>
@@ -3927,50 +3947,50 @@
       <c r="AO28" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP28" s="124" t="s">
+      <c r="AP28" s="171" t="s">
         <v>179</v>
       </c>
-      <c r="AQ28" s="124"/>
-      <c r="AR28" s="124"/>
-      <c r="AS28" s="124"/>
-      <c r="AT28" s="124"/>
+      <c r="AQ28" s="171"/>
+      <c r="AR28" s="171"/>
+      <c r="AS28" s="171"/>
+      <c r="AT28" s="171"/>
       <c r="AU28" s="8"/>
     </row>
     <row r="29" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
-      <c r="AC29" s="127"/>
-      <c r="AD29" s="127"/>
-      <c r="AE29" s="127"/>
-      <c r="AF29" s="127"/>
-      <c r="AG29" s="127"/>
-      <c r="AH29" s="127"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="173"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="173"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="173"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="173"/>
+      <c r="T29" s="173"/>
+      <c r="U29" s="173"/>
+      <c r="V29" s="173"/>
+      <c r="W29" s="173"/>
+      <c r="X29" s="173"/>
+      <c r="Y29" s="173"/>
+      <c r="Z29" s="173"/>
+      <c r="AA29" s="173"/>
+      <c r="AB29" s="173"/>
+      <c r="AC29" s="173"/>
+      <c r="AD29" s="173"/>
+      <c r="AE29" s="173"/>
+      <c r="AF29" s="173"/>
+      <c r="AG29" s="173"/>
+      <c r="AH29" s="173"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
@@ -3987,39 +4007,39 @@
     </row>
     <row r="30" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="127"/>
-      <c r="AE30" s="127"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="127"/>
-      <c r="AH30" s="127"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="173"/>
+      <c r="O30" s="173"/>
+      <c r="P30" s="173"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="173"/>
+      <c r="S30" s="173"/>
+      <c r="T30" s="173"/>
+      <c r="U30" s="173"/>
+      <c r="V30" s="173"/>
+      <c r="W30" s="173"/>
+      <c r="X30" s="173"/>
+      <c r="Y30" s="173"/>
+      <c r="Z30" s="173"/>
+      <c r="AA30" s="173"/>
+      <c r="AB30" s="173"/>
+      <c r="AC30" s="173"/>
+      <c r="AD30" s="173"/>
+      <c r="AE30" s="173"/>
+      <c r="AF30" s="173"/>
+      <c r="AG30" s="173"/>
+      <c r="AH30" s="173"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8" t="s">
         <v>45</v>
@@ -4031,50 +4051,50 @@
       <c r="AO30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP30" s="124" t="s">
+      <c r="AP30" s="171" t="s">
         <v>180</v>
       </c>
-      <c r="AQ30" s="124"/>
-      <c r="AR30" s="124"/>
-      <c r="AS30" s="124"/>
-      <c r="AT30" s="124"/>
+      <c r="AQ30" s="171"/>
+      <c r="AR30" s="171"/>
+      <c r="AS30" s="171"/>
+      <c r="AT30" s="171"/>
       <c r="AU30" s="8"/>
     </row>
     <row r="31" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="127"/>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="127"/>
-      <c r="AH31" s="127"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="173"/>
+      <c r="L31" s="173"/>
+      <c r="M31" s="173"/>
+      <c r="N31" s="173"/>
+      <c r="O31" s="173"/>
+      <c r="P31" s="173"/>
+      <c r="Q31" s="173"/>
+      <c r="R31" s="173"/>
+      <c r="S31" s="173"/>
+      <c r="T31" s="173"/>
+      <c r="U31" s="173"/>
+      <c r="V31" s="173"/>
+      <c r="W31" s="173"/>
+      <c r="X31" s="173"/>
+      <c r="Y31" s="173"/>
+      <c r="Z31" s="173"/>
+      <c r="AA31" s="173"/>
+      <c r="AB31" s="173"/>
+      <c r="AC31" s="173"/>
+      <c r="AD31" s="173"/>
+      <c r="AE31" s="173"/>
+      <c r="AF31" s="173"/>
+      <c r="AG31" s="173"/>
+      <c r="AH31" s="173"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
@@ -4091,39 +4111,39 @@
     </row>
     <row r="32" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="127"/>
-      <c r="AG32" s="127"/>
-      <c r="AH32" s="127"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="173"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="173"/>
+      <c r="S32" s="173"/>
+      <c r="T32" s="173"/>
+      <c r="U32" s="173"/>
+      <c r="V32" s="173"/>
+      <c r="W32" s="173"/>
+      <c r="X32" s="173"/>
+      <c r="Y32" s="173"/>
+      <c r="Z32" s="173"/>
+      <c r="AA32" s="173"/>
+      <c r="AB32" s="173"/>
+      <c r="AC32" s="173"/>
+      <c r="AD32" s="173"/>
+      <c r="AE32" s="173"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="173"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8" t="s">
         <v>46</v>
@@ -4135,50 +4155,50 @@
       <c r="AO32" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP32" s="124" t="s">
+      <c r="AP32" s="171" t="s">
         <v>181</v>
       </c>
-      <c r="AQ32" s="124"/>
-      <c r="AR32" s="124"/>
-      <c r="AS32" s="124"/>
-      <c r="AT32" s="124"/>
+      <c r="AQ32" s="171"/>
+      <c r="AR32" s="171"/>
+      <c r="AS32" s="171"/>
+      <c r="AT32" s="171"/>
       <c r="AU32" s="8"/>
     </row>
     <row r="33" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="127"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="127"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="127"/>
-      <c r="AE33" s="127"/>
-      <c r="AF33" s="127"/>
-      <c r="AG33" s="127"/>
-      <c r="AH33" s="127"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="173"/>
+      <c r="O33" s="173"/>
+      <c r="P33" s="173"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="173"/>
+      <c r="S33" s="173"/>
+      <c r="T33" s="173"/>
+      <c r="U33" s="173"/>
+      <c r="V33" s="173"/>
+      <c r="W33" s="173"/>
+      <c r="X33" s="173"/>
+      <c r="Y33" s="173"/>
+      <c r="Z33" s="173"/>
+      <c r="AA33" s="173"/>
+      <c r="AB33" s="173"/>
+      <c r="AC33" s="173"/>
+      <c r="AD33" s="173"/>
+      <c r="AE33" s="173"/>
+      <c r="AF33" s="173"/>
+      <c r="AG33" s="173"/>
+      <c r="AH33" s="173"/>
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8"/>
@@ -4195,41 +4215,41 @@
     </row>
     <row r="34" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="173" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="127"/>
-      <c r="L34" s="127"/>
-      <c r="M34" s="127"/>
-      <c r="N34" s="127"/>
-      <c r="O34" s="127"/>
-      <c r="P34" s="127"/>
-      <c r="Q34" s="127"/>
-      <c r="R34" s="127"/>
-      <c r="S34" s="127"/>
-      <c r="T34" s="127"/>
-      <c r="U34" s="127"/>
-      <c r="V34" s="127"/>
-      <c r="W34" s="127"/>
-      <c r="X34" s="127"/>
-      <c r="Y34" s="127"/>
-      <c r="Z34" s="127"/>
-      <c r="AA34" s="127"/>
-      <c r="AB34" s="127"/>
-      <c r="AC34" s="127"/>
-      <c r="AD34" s="127"/>
-      <c r="AE34" s="127"/>
-      <c r="AF34" s="127"/>
-      <c r="AG34" s="127"/>
-      <c r="AH34" s="127"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="173"/>
+      <c r="P34" s="173"/>
+      <c r="Q34" s="173"/>
+      <c r="R34" s="173"/>
+      <c r="S34" s="173"/>
+      <c r="T34" s="173"/>
+      <c r="U34" s="173"/>
+      <c r="V34" s="173"/>
+      <c r="W34" s="173"/>
+      <c r="X34" s="173"/>
+      <c r="Y34" s="173"/>
+      <c r="Z34" s="173"/>
+      <c r="AA34" s="173"/>
+      <c r="AB34" s="173"/>
+      <c r="AC34" s="173"/>
+      <c r="AD34" s="173"/>
+      <c r="AE34" s="173"/>
+      <c r="AF34" s="173"/>
+      <c r="AG34" s="173"/>
+      <c r="AH34" s="173"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8" t="s">
         <v>50</v>
@@ -4241,50 +4261,50 @@
       <c r="AO34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP34" s="124" t="s">
+      <c r="AP34" s="171" t="s">
         <v>182</v>
       </c>
-      <c r="AQ34" s="124"/>
-      <c r="AR34" s="124"/>
-      <c r="AS34" s="124"/>
-      <c r="AT34" s="124"/>
+      <c r="AQ34" s="171"/>
+      <c r="AR34" s="171"/>
+      <c r="AS34" s="171"/>
+      <c r="AT34" s="171"/>
       <c r="AU34" s="8"/>
     </row>
     <row r="35" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
-      <c r="P35" s="127"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="127"/>
-      <c r="T35" s="127"/>
-      <c r="U35" s="127"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
-      <c r="Y35" s="127"/>
-      <c r="Z35" s="127"/>
-      <c r="AA35" s="127"/>
-      <c r="AB35" s="127"/>
-      <c r="AC35" s="127"/>
-      <c r="AD35" s="127"/>
-      <c r="AE35" s="127"/>
-      <c r="AF35" s="127"/>
-      <c r="AG35" s="127"/>
-      <c r="AH35" s="127"/>
+      <c r="B35" s="173"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="173"/>
+      <c r="K35" s="173"/>
+      <c r="L35" s="173"/>
+      <c r="M35" s="173"/>
+      <c r="N35" s="173"/>
+      <c r="O35" s="173"/>
+      <c r="P35" s="173"/>
+      <c r="Q35" s="173"/>
+      <c r="R35" s="173"/>
+      <c r="S35" s="173"/>
+      <c r="T35" s="173"/>
+      <c r="U35" s="173"/>
+      <c r="V35" s="173"/>
+      <c r="W35" s="173"/>
+      <c r="X35" s="173"/>
+      <c r="Y35" s="173"/>
+      <c r="Z35" s="173"/>
+      <c r="AA35" s="173"/>
+      <c r="AB35" s="173"/>
+      <c r="AC35" s="173"/>
+      <c r="AD35" s="173"/>
+      <c r="AE35" s="173"/>
+      <c r="AF35" s="173"/>
+      <c r="AG35" s="173"/>
+      <c r="AH35" s="173"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
@@ -4301,39 +4321,39 @@
     </row>
     <row r="36" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="127"/>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="127"/>
-      <c r="T36" s="127"/>
-      <c r="U36" s="127"/>
-      <c r="V36" s="127"/>
-      <c r="W36" s="127"/>
-      <c r="X36" s="127"/>
-      <c r="Y36" s="127"/>
-      <c r="Z36" s="127"/>
-      <c r="AA36" s="127"/>
-      <c r="AB36" s="127"/>
-      <c r="AC36" s="127"/>
-      <c r="AD36" s="127"/>
-      <c r="AE36" s="127"/>
-      <c r="AF36" s="127"/>
-      <c r="AG36" s="127"/>
-      <c r="AH36" s="127"/>
+      <c r="B36" s="173"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="173"/>
+      <c r="L36" s="173"/>
+      <c r="M36" s="173"/>
+      <c r="N36" s="173"/>
+      <c r="O36" s="173"/>
+      <c r="P36" s="173"/>
+      <c r="Q36" s="173"/>
+      <c r="R36" s="173"/>
+      <c r="S36" s="173"/>
+      <c r="T36" s="173"/>
+      <c r="U36" s="173"/>
+      <c r="V36" s="173"/>
+      <c r="W36" s="173"/>
+      <c r="X36" s="173"/>
+      <c r="Y36" s="173"/>
+      <c r="Z36" s="173"/>
+      <c r="AA36" s="173"/>
+      <c r="AB36" s="173"/>
+      <c r="AC36" s="173"/>
+      <c r="AD36" s="173"/>
+      <c r="AE36" s="173"/>
+      <c r="AF36" s="173"/>
+      <c r="AG36" s="173"/>
+      <c r="AH36" s="173"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8" t="s">
         <v>49</v>
@@ -4345,50 +4365,50 @@
       <c r="AO36" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP36" s="124" t="s">
+      <c r="AP36" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="AQ36" s="124"/>
-      <c r="AR36" s="124"/>
-      <c r="AS36" s="124"/>
-      <c r="AT36" s="124"/>
+      <c r="AQ36" s="171"/>
+      <c r="AR36" s="171"/>
+      <c r="AS36" s="171"/>
+      <c r="AT36" s="171"/>
       <c r="AU36" s="8"/>
     </row>
     <row r="37" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="127"/>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="127"/>
-      <c r="U37" s="127"/>
-      <c r="V37" s="127"/>
-      <c r="W37" s="127"/>
-      <c r="X37" s="127"/>
-      <c r="Y37" s="127"/>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="127"/>
-      <c r="AB37" s="127"/>
-      <c r="AC37" s="127"/>
-      <c r="AD37" s="127"/>
-      <c r="AE37" s="127"/>
-      <c r="AF37" s="127"/>
-      <c r="AG37" s="127"/>
-      <c r="AH37" s="127"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="173"/>
+      <c r="L37" s="173"/>
+      <c r="M37" s="173"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="173"/>
+      <c r="P37" s="173"/>
+      <c r="Q37" s="173"/>
+      <c r="R37" s="173"/>
+      <c r="S37" s="173"/>
+      <c r="T37" s="173"/>
+      <c r="U37" s="173"/>
+      <c r="V37" s="173"/>
+      <c r="W37" s="173"/>
+      <c r="X37" s="173"/>
+      <c r="Y37" s="173"/>
+      <c r="Z37" s="173"/>
+      <c r="AA37" s="173"/>
+      <c r="AB37" s="173"/>
+      <c r="AC37" s="173"/>
+      <c r="AD37" s="173"/>
+      <c r="AE37" s="173"/>
+      <c r="AF37" s="173"/>
+      <c r="AG37" s="173"/>
+      <c r="AH37" s="173"/>
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
@@ -4405,39 +4425,39 @@
     </row>
     <row r="38" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="127"/>
-      <c r="L38" s="127"/>
-      <c r="M38" s="127"/>
-      <c r="N38" s="127"/>
-      <c r="O38" s="127"/>
-      <c r="P38" s="127"/>
-      <c r="Q38" s="127"/>
-      <c r="R38" s="127"/>
-      <c r="S38" s="127"/>
-      <c r="T38" s="127"/>
-      <c r="U38" s="127"/>
-      <c r="V38" s="127"/>
-      <c r="W38" s="127"/>
-      <c r="X38" s="127"/>
-      <c r="Y38" s="127"/>
-      <c r="Z38" s="127"/>
-      <c r="AA38" s="127"/>
-      <c r="AB38" s="127"/>
-      <c r="AC38" s="127"/>
-      <c r="AD38" s="127"/>
-      <c r="AE38" s="127"/>
-      <c r="AF38" s="127"/>
-      <c r="AG38" s="127"/>
-      <c r="AH38" s="127"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="173"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="173"/>
+      <c r="P38" s="173"/>
+      <c r="Q38" s="173"/>
+      <c r="R38" s="173"/>
+      <c r="S38" s="173"/>
+      <c r="T38" s="173"/>
+      <c r="U38" s="173"/>
+      <c r="V38" s="173"/>
+      <c r="W38" s="173"/>
+      <c r="X38" s="173"/>
+      <c r="Y38" s="173"/>
+      <c r="Z38" s="173"/>
+      <c r="AA38" s="173"/>
+      <c r="AB38" s="173"/>
+      <c r="AC38" s="173"/>
+      <c r="AD38" s="173"/>
+      <c r="AE38" s="173"/>
+      <c r="AF38" s="173"/>
+      <c r="AG38" s="173"/>
+      <c r="AH38" s="173"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8" t="s">
         <v>48</v>
@@ -4449,50 +4469,50 @@
       <c r="AO38" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP38" s="124" t="s">
+      <c r="AP38" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="AQ38" s="124"/>
-      <c r="AR38" s="124"/>
-      <c r="AS38" s="124"/>
-      <c r="AT38" s="124"/>
+      <c r="AQ38" s="171"/>
+      <c r="AR38" s="171"/>
+      <c r="AS38" s="171"/>
+      <c r="AT38" s="171"/>
       <c r="AU38" s="8"/>
     </row>
     <row r="39" spans="1:47" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="127"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="127"/>
-      <c r="U39" s="127"/>
-      <c r="V39" s="127"/>
-      <c r="W39" s="127"/>
-      <c r="X39" s="127"/>
-      <c r="Y39" s="127"/>
-      <c r="Z39" s="127"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="127"/>
-      <c r="AC39" s="127"/>
-      <c r="AD39" s="127"/>
-      <c r="AE39" s="127"/>
-      <c r="AF39" s="127"/>
-      <c r="AG39" s="127"/>
-      <c r="AH39" s="127"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="173"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
+      <c r="Q39" s="173"/>
+      <c r="R39" s="173"/>
+      <c r="S39" s="173"/>
+      <c r="T39" s="173"/>
+      <c r="U39" s="173"/>
+      <c r="V39" s="173"/>
+      <c r="W39" s="173"/>
+      <c r="X39" s="173"/>
+      <c r="Y39" s="173"/>
+      <c r="Z39" s="173"/>
+      <c r="AA39" s="173"/>
+      <c r="AB39" s="173"/>
+      <c r="AC39" s="173"/>
+      <c r="AD39" s="173"/>
+      <c r="AE39" s="173"/>
+      <c r="AF39" s="173"/>
+      <c r="AG39" s="173"/>
+      <c r="AH39" s="173"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
@@ -4509,39 +4529,39 @@
     </row>
     <row r="40" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127"/>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="127"/>
-      <c r="T40" s="127"/>
-      <c r="U40" s="127"/>
-      <c r="V40" s="127"/>
-      <c r="W40" s="127"/>
-      <c r="X40" s="127"/>
-      <c r="Y40" s="127"/>
-      <c r="Z40" s="127"/>
-      <c r="AA40" s="127"/>
-      <c r="AB40" s="127"/>
-      <c r="AC40" s="127"/>
-      <c r="AD40" s="127"/>
-      <c r="AE40" s="127"/>
-      <c r="AF40" s="127"/>
-      <c r="AG40" s="127"/>
-      <c r="AH40" s="127"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="173"/>
+      <c r="L40" s="173"/>
+      <c r="M40" s="173"/>
+      <c r="N40" s="173"/>
+      <c r="O40" s="173"/>
+      <c r="P40" s="173"/>
+      <c r="Q40" s="173"/>
+      <c r="R40" s="173"/>
+      <c r="S40" s="173"/>
+      <c r="T40" s="173"/>
+      <c r="U40" s="173"/>
+      <c r="V40" s="173"/>
+      <c r="W40" s="173"/>
+      <c r="X40" s="173"/>
+      <c r="Y40" s="173"/>
+      <c r="Z40" s="173"/>
+      <c r="AA40" s="173"/>
+      <c r="AB40" s="173"/>
+      <c r="AC40" s="173"/>
+      <c r="AD40" s="173"/>
+      <c r="AE40" s="173"/>
+      <c r="AF40" s="173"/>
+      <c r="AG40" s="173"/>
+      <c r="AH40" s="173"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="15" t="s">
         <v>17</v>
@@ -4560,39 +4580,39 @@
     </row>
     <row r="41" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="127"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="127"/>
-      <c r="U41" s="127"/>
-      <c r="V41" s="127"/>
-      <c r="W41" s="127"/>
-      <c r="X41" s="127"/>
-      <c r="Y41" s="127"/>
-      <c r="Z41" s="127"/>
-      <c r="AA41" s="127"/>
-      <c r="AB41" s="127"/>
-      <c r="AC41" s="127"/>
-      <c r="AD41" s="127"/>
-      <c r="AE41" s="127"/>
-      <c r="AF41" s="127"/>
-      <c r="AG41" s="127"/>
-      <c r="AH41" s="127"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="173"/>
+      <c r="S41" s="173"/>
+      <c r="T41" s="173"/>
+      <c r="U41" s="173"/>
+      <c r="V41" s="173"/>
+      <c r="W41" s="173"/>
+      <c r="X41" s="173"/>
+      <c r="Y41" s="173"/>
+      <c r="Z41" s="173"/>
+      <c r="AA41" s="173"/>
+      <c r="AB41" s="173"/>
+      <c r="AC41" s="173"/>
+      <c r="AD41" s="173"/>
+      <c r="AE41" s="173"/>
+      <c r="AF41" s="173"/>
+      <c r="AG41" s="173"/>
+      <c r="AH41" s="173"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
@@ -4609,39 +4629,39 @@
     </row>
     <row r="42" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="127"/>
-      <c r="N42" s="127"/>
-      <c r="O42" s="127"/>
-      <c r="P42" s="127"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="127"/>
-      <c r="U42" s="127"/>
-      <c r="V42" s="127"/>
-      <c r="W42" s="127"/>
-      <c r="X42" s="127"/>
-      <c r="Y42" s="127"/>
-      <c r="Z42" s="127"/>
-      <c r="AA42" s="127"/>
-      <c r="AB42" s="127"/>
-      <c r="AC42" s="127"/>
-      <c r="AD42" s="127"/>
-      <c r="AE42" s="127"/>
-      <c r="AF42" s="127"/>
-      <c r="AG42" s="127"/>
-      <c r="AH42" s="127"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="173"/>
+      <c r="Q42" s="173"/>
+      <c r="R42" s="173"/>
+      <c r="S42" s="173"/>
+      <c r="T42" s="173"/>
+      <c r="U42" s="173"/>
+      <c r="V42" s="173"/>
+      <c r="W42" s="173"/>
+      <c r="X42" s="173"/>
+      <c r="Y42" s="173"/>
+      <c r="Z42" s="173"/>
+      <c r="AA42" s="173"/>
+      <c r="AB42" s="173"/>
+      <c r="AC42" s="173"/>
+      <c r="AD42" s="173"/>
+      <c r="AE42" s="173"/>
+      <c r="AF42" s="173"/>
+      <c r="AG42" s="173"/>
+      <c r="AH42" s="173"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8" t="s">
         <v>99</v>
@@ -4651,50 +4671,50 @@
       <c r="AM42" s="8"/>
       <c r="AN42" s="8"/>
       <c r="AO42" s="8"/>
-      <c r="AP42" s="126" t="s">
+      <c r="AP42" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="AQ42" s="126"/>
-      <c r="AR42" s="126"/>
-      <c r="AS42" s="126"/>
-      <c r="AT42" s="126"/>
+      <c r="AQ42" s="165"/>
+      <c r="AR42" s="165"/>
+      <c r="AS42" s="165"/>
+      <c r="AT42" s="165"/>
       <c r="AU42" s="14"/>
     </row>
     <row r="43" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="127"/>
-      <c r="N43" s="127"/>
-      <c r="O43" s="127"/>
-      <c r="P43" s="127"/>
-      <c r="Q43" s="127"/>
-      <c r="R43" s="127"/>
-      <c r="S43" s="127"/>
-      <c r="T43" s="127"/>
-      <c r="U43" s="127"/>
-      <c r="V43" s="127"/>
-      <c r="W43" s="127"/>
-      <c r="X43" s="127"/>
-      <c r="Y43" s="127"/>
-      <c r="Z43" s="127"/>
-      <c r="AA43" s="127"/>
-      <c r="AB43" s="127"/>
-      <c r="AC43" s="127"/>
-      <c r="AD43" s="127"/>
-      <c r="AE43" s="127"/>
-      <c r="AF43" s="127"/>
-      <c r="AG43" s="127"/>
-      <c r="AH43" s="127"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="173"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="173"/>
+      <c r="N43" s="173"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="173"/>
+      <c r="Q43" s="173"/>
+      <c r="R43" s="173"/>
+      <c r="S43" s="173"/>
+      <c r="T43" s="173"/>
+      <c r="U43" s="173"/>
+      <c r="V43" s="173"/>
+      <c r="W43" s="173"/>
+      <c r="X43" s="173"/>
+      <c r="Y43" s="173"/>
+      <c r="Z43" s="173"/>
+      <c r="AA43" s="173"/>
+      <c r="AB43" s="173"/>
+      <c r="AC43" s="173"/>
+      <c r="AD43" s="173"/>
+      <c r="AE43" s="173"/>
+      <c r="AF43" s="173"/>
+      <c r="AG43" s="173"/>
+      <c r="AH43" s="173"/>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
@@ -4711,39 +4731,39 @@
     </row>
     <row r="44" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="127"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="127"/>
-      <c r="N44" s="127"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="127"/>
-      <c r="Q44" s="127"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="127"/>
-      <c r="T44" s="127"/>
-      <c r="U44" s="127"/>
-      <c r="V44" s="127"/>
-      <c r="W44" s="127"/>
-      <c r="X44" s="127"/>
-      <c r="Y44" s="127"/>
-      <c r="Z44" s="127"/>
-      <c r="AA44" s="127"/>
-      <c r="AB44" s="127"/>
-      <c r="AC44" s="127"/>
-      <c r="AD44" s="127"/>
-      <c r="AE44" s="127"/>
-      <c r="AF44" s="127"/>
-      <c r="AG44" s="127"/>
-      <c r="AH44" s="127"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="173"/>
+      <c r="L44" s="173"/>
+      <c r="M44" s="173"/>
+      <c r="N44" s="173"/>
+      <c r="O44" s="173"/>
+      <c r="P44" s="173"/>
+      <c r="Q44" s="173"/>
+      <c r="R44" s="173"/>
+      <c r="S44" s="173"/>
+      <c r="T44" s="173"/>
+      <c r="U44" s="173"/>
+      <c r="V44" s="173"/>
+      <c r="W44" s="173"/>
+      <c r="X44" s="173"/>
+      <c r="Y44" s="173"/>
+      <c r="Z44" s="173"/>
+      <c r="AA44" s="173"/>
+      <c r="AB44" s="173"/>
+      <c r="AC44" s="173"/>
+      <c r="AD44" s="173"/>
+      <c r="AE44" s="173"/>
+      <c r="AF44" s="173"/>
+      <c r="AG44" s="173"/>
+      <c r="AH44" s="173"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8" t="s">
         <v>97</v>
@@ -4753,88 +4773,88 @@
       <c r="AM44" s="8"/>
       <c r="AN44" s="22"/>
       <c r="AO44" s="22"/>
-      <c r="AP44" s="126" t="s">
+      <c r="AP44" s="165" t="s">
         <v>186</v>
       </c>
-      <c r="AQ44" s="126"/>
-      <c r="AR44" s="126"/>
-      <c r="AS44" s="126"/>
-      <c r="AT44" s="126"/>
+      <c r="AQ44" s="165"/>
+      <c r="AR44" s="165"/>
+      <c r="AS44" s="165"/>
+      <c r="AT44" s="165"/>
       <c r="AU44" s="14"/>
     </row>
     <row r="45" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="127"/>
-      <c r="N45" s="127"/>
-      <c r="O45" s="127"/>
-      <c r="P45" s="127"/>
-      <c r="Q45" s="127"/>
-      <c r="R45" s="127"/>
-      <c r="S45" s="127"/>
-      <c r="T45" s="127"/>
-      <c r="U45" s="127"/>
-      <c r="V45" s="127"/>
-      <c r="W45" s="127"/>
-      <c r="X45" s="127"/>
-      <c r="Y45" s="127"/>
-      <c r="Z45" s="127"/>
-      <c r="AA45" s="127"/>
-      <c r="AB45" s="127"/>
-      <c r="AC45" s="127"/>
-      <c r="AD45" s="127"/>
-      <c r="AE45" s="127"/>
-      <c r="AF45" s="127"/>
-      <c r="AG45" s="127"/>
-      <c r="AH45" s="127"/>
+      <c r="B45" s="173"/>
+      <c r="C45" s="173"/>
+      <c r="D45" s="173"/>
+      <c r="E45" s="173"/>
+      <c r="F45" s="173"/>
+      <c r="G45" s="173"/>
+      <c r="H45" s="173"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="173"/>
+      <c r="K45" s="173"/>
+      <c r="L45" s="173"/>
+      <c r="M45" s="173"/>
+      <c r="N45" s="173"/>
+      <c r="O45" s="173"/>
+      <c r="P45" s="173"/>
+      <c r="Q45" s="173"/>
+      <c r="R45" s="173"/>
+      <c r="S45" s="173"/>
+      <c r="T45" s="173"/>
+      <c r="U45" s="173"/>
+      <c r="V45" s="173"/>
+      <c r="W45" s="173"/>
+      <c r="X45" s="173"/>
+      <c r="Y45" s="173"/>
+      <c r="Z45" s="173"/>
+      <c r="AA45" s="173"/>
+      <c r="AB45" s="173"/>
+      <c r="AC45" s="173"/>
+      <c r="AD45" s="173"/>
+      <c r="AE45" s="173"/>
+      <c r="AF45" s="173"/>
+      <c r="AG45" s="173"/>
+      <c r="AH45" s="173"/>
       <c r="AI45" s="8"/>
       <c r="AU45" s="14"/>
     </row>
     <row r="46" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="127"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="127"/>
-      <c r="N46" s="127"/>
-      <c r="O46" s="127"/>
-      <c r="P46" s="127"/>
-      <c r="Q46" s="127"/>
-      <c r="R46" s="127"/>
-      <c r="S46" s="127"/>
-      <c r="T46" s="127"/>
-      <c r="U46" s="127"/>
-      <c r="V46" s="127"/>
-      <c r="W46" s="127"/>
-      <c r="X46" s="127"/>
-      <c r="Y46" s="127"/>
-      <c r="Z46" s="127"/>
-      <c r="AA46" s="127"/>
-      <c r="AB46" s="127"/>
-      <c r="AC46" s="127"/>
-      <c r="AD46" s="127"/>
-      <c r="AE46" s="127"/>
-      <c r="AF46" s="127"/>
-      <c r="AG46" s="127"/>
-      <c r="AH46" s="127"/>
+      <c r="B46" s="173"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="173"/>
+      <c r="E46" s="173"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="173"/>
+      <c r="H46" s="173"/>
+      <c r="I46" s="173"/>
+      <c r="J46" s="173"/>
+      <c r="K46" s="173"/>
+      <c r="L46" s="173"/>
+      <c r="M46" s="173"/>
+      <c r="N46" s="173"/>
+      <c r="O46" s="173"/>
+      <c r="P46" s="173"/>
+      <c r="Q46" s="173"/>
+      <c r="R46" s="173"/>
+      <c r="S46" s="173"/>
+      <c r="T46" s="173"/>
+      <c r="U46" s="173"/>
+      <c r="V46" s="173"/>
+      <c r="W46" s="173"/>
+      <c r="X46" s="173"/>
+      <c r="Y46" s="173"/>
+      <c r="Z46" s="173"/>
+      <c r="AA46" s="173"/>
+      <c r="AB46" s="173"/>
+      <c r="AC46" s="173"/>
+      <c r="AD46" s="173"/>
+      <c r="AE46" s="173"/>
+      <c r="AF46" s="173"/>
+      <c r="AG46" s="173"/>
+      <c r="AH46" s="173"/>
       <c r="AJ46" s="8" t="s">
         <v>98</v>
       </c>
@@ -4843,50 +4863,50 @@
       <c r="AM46" s="8"/>
       <c r="AN46" s="8"/>
       <c r="AO46" s="8"/>
-      <c r="AP46" s="126" t="s">
+      <c r="AP46" s="165" t="s">
         <v>187</v>
       </c>
-      <c r="AQ46" s="126"/>
-      <c r="AR46" s="126"/>
-      <c r="AS46" s="126"/>
-      <c r="AT46" s="126"/>
+      <c r="AQ46" s="165"/>
+      <c r="AR46" s="165"/>
+      <c r="AS46" s="165"/>
+      <c r="AT46" s="165"/>
       <c r="AU46" s="14"/>
     </row>
     <row r="47" spans="1:47" s="20" customFormat="1" ht="8.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="127"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="127"/>
-      <c r="K47" s="127"/>
-      <c r="L47" s="127"/>
-      <c r="M47" s="127"/>
-      <c r="N47" s="127"/>
-      <c r="O47" s="127"/>
-      <c r="P47" s="127"/>
-      <c r="Q47" s="127"/>
-      <c r="R47" s="127"/>
-      <c r="S47" s="127"/>
-      <c r="T47" s="127"/>
-      <c r="U47" s="127"/>
-      <c r="V47" s="127"/>
-      <c r="W47" s="127"/>
-      <c r="X47" s="127"/>
-      <c r="Y47" s="127"/>
-      <c r="Z47" s="127"/>
-      <c r="AA47" s="127"/>
-      <c r="AB47" s="127"/>
-      <c r="AC47" s="127"/>
-      <c r="AD47" s="127"/>
-      <c r="AE47" s="127"/>
-      <c r="AF47" s="127"/>
-      <c r="AG47" s="127"/>
-      <c r="AH47" s="127"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="173"/>
+      <c r="E47" s="173"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="173"/>
+      <c r="H47" s="173"/>
+      <c r="I47" s="173"/>
+      <c r="J47" s="173"/>
+      <c r="K47" s="173"/>
+      <c r="L47" s="173"/>
+      <c r="M47" s="173"/>
+      <c r="N47" s="173"/>
+      <c r="O47" s="173"/>
+      <c r="P47" s="173"/>
+      <c r="Q47" s="173"/>
+      <c r="R47" s="173"/>
+      <c r="S47" s="173"/>
+      <c r="T47" s="173"/>
+      <c r="U47" s="173"/>
+      <c r="V47" s="173"/>
+      <c r="W47" s="173"/>
+      <c r="X47" s="173"/>
+      <c r="Y47" s="173"/>
+      <c r="Z47" s="173"/>
+      <c r="AA47" s="173"/>
+      <c r="AB47" s="173"/>
+      <c r="AC47" s="173"/>
+      <c r="AD47" s="173"/>
+      <c r="AE47" s="173"/>
+      <c r="AF47" s="173"/>
+      <c r="AG47" s="173"/>
+      <c r="AH47" s="173"/>
       <c r="AI47" s="8"/>
       <c r="AU47" s="14"/>
     </row>
@@ -4976,38 +4996,38 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="122" t="s">
+      <c r="I50" s="169" t="s">
         <v>188</v>
       </c>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="122"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="122"/>
-      <c r="W50" s="122"/>
+      <c r="J50" s="169"/>
+      <c r="K50" s="169"/>
+      <c r="L50" s="169"/>
+      <c r="M50" s="169"/>
+      <c r="N50" s="169"/>
+      <c r="O50" s="169"/>
+      <c r="P50" s="169"/>
+      <c r="Q50" s="169"/>
+      <c r="R50" s="169"/>
+      <c r="S50" s="169"/>
+      <c r="T50" s="169"/>
+      <c r="U50" s="169"/>
+      <c r="V50" s="169"/>
+      <c r="W50" s="169"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="15" t="s">
         <v>24</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
-      <c r="AB50" s="123" t="s">
+      <c r="AB50" s="170" t="s">
         <v>189</v>
       </c>
-      <c r="AC50" s="123"/>
-      <c r="AD50" s="123"/>
-      <c r="AE50" s="123"/>
-      <c r="AF50" s="123"/>
-      <c r="AG50" s="123"/>
-      <c r="AH50" s="123"/>
+      <c r="AC50" s="170"/>
+      <c r="AD50" s="170"/>
+      <c r="AE50" s="170"/>
+      <c r="AF50" s="170"/>
+      <c r="AG50" s="170"/>
+      <c r="AH50" s="170"/>
       <c r="AU50" s="14"/>
     </row>
     <row r="51" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5109,7 +5129,7 @@
       <c r="AT54" s="14"/>
       <c r="AU54" s="8"/>
     </row>
-    <row r="55" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -5117,21 +5137,21 @@
         <v>6</v>
       </c>
       <c r="I55" s="54"/>
-      <c r="J55" s="111" t="s">
+      <c r="J55" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="K55" s="111"/>
-      <c r="L55" s="111"/>
+      <c r="K55" s="182"/>
+      <c r="L55" s="182"/>
       <c r="N55" s="13"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S55" s="111" t="s">
+      <c r="S55" s="182" t="s">
         <v>198</v>
       </c>
-      <c r="T55" s="111"/>
-      <c r="U55" s="111"/>
+      <c r="T55" s="182"/>
+      <c r="U55" s="182"/>
       <c r="W55" s="8" t="s">
         <v>92</v>
       </c>
@@ -5141,13 +5161,13 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
-      <c r="AD55" s="121" t="s">
+      <c r="AD55" s="174" t="s">
         <v>206</v>
       </c>
-      <c r="AE55" s="121"/>
-      <c r="AF55" s="121"/>
-      <c r="AG55" s="121"/>
-      <c r="AH55" s="121"/>
+      <c r="AE55" s="174"/>
+      <c r="AF55" s="174"/>
+      <c r="AG55" s="174"/>
+      <c r="AH55" s="174"/>
       <c r="AI55" s="8"/>
       <c r="AJ55" s="8" t="s">
         <v>42</v>
@@ -5156,32 +5176,33 @@
       <c r="AL55" s="8"/>
       <c r="AM55" s="8"/>
       <c r="AN55" s="12"/>
-      <c r="AO55" s="108" t="s">
+      <c r="AO55" s="175" t="s">
         <v>214</v>
       </c>
-      <c r="AP55" s="108"/>
-      <c r="AQ55" s="108"/>
-      <c r="AR55" s="108"/>
+      <c r="AP55" s="175"/>
+      <c r="AQ55" s="175"/>
+      <c r="AR55" s="175"/>
       <c r="AS55" s="98" t="s">
         <v>55</v>
       </c>
       <c r="AT55" s="81"/>
       <c r="AU55" s="8"/>
     </row>
-    <row r="56" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="21"/>
       <c r="I56" s="55"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
+      <c r="J56" s="183"/>
+      <c r="K56" s="183"/>
+      <c r="L56" s="183"/>
       <c r="N56" s="13"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="21"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
+      <c r="S56" s="184"/>
+      <c r="T56" s="184"/>
+      <c r="U56" s="185"/>
       <c r="W56" s="8"/>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
@@ -5208,7 +5229,7 @@
       <c r="AT56" s="14"/>
       <c r="AU56" s="8"/>
     </row>
-    <row r="57" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="F57" s="56"/>
       <c r="G57" s="56"/>
@@ -5216,21 +5237,21 @@
         <v>7</v>
       </c>
       <c r="I57" s="54"/>
-      <c r="J57" s="111" t="s">
+      <c r="J57" s="182" t="s">
         <v>191</v>
       </c>
-      <c r="K57" s="111"/>
-      <c r="L57" s="111"/>
+      <c r="K57" s="182"/>
+      <c r="L57" s="182"/>
       <c r="N57" s="56"/>
       <c r="P57" s="56"/>
       <c r="Q57" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S57" s="111" t="s">
+      <c r="S57" s="182" t="s">
         <v>199</v>
       </c>
-      <c r="T57" s="111"/>
-      <c r="U57" s="111"/>
+      <c r="T57" s="182"/>
+      <c r="U57" s="182"/>
       <c r="W57" s="8" t="s">
         <v>93</v>
       </c>
@@ -5240,13 +5261,13 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
-      <c r="AD57" s="121" t="s">
+      <c r="AD57" s="174" t="s">
         <v>207</v>
       </c>
-      <c r="AE57" s="121"/>
-      <c r="AF57" s="121"/>
-      <c r="AG57" s="121"/>
-      <c r="AH57" s="121"/>
+      <c r="AE57" s="174"/>
+      <c r="AF57" s="174"/>
+      <c r="AG57" s="174"/>
+      <c r="AH57" s="174"/>
       <c r="AI57" s="8"/>
       <c r="AJ57" s="8" t="s">
         <v>39</v>
@@ -5255,32 +5276,33 @@
       <c r="AL57" s="8"/>
       <c r="AM57" s="8"/>
       <c r="AN57" s="12"/>
-      <c r="AO57" s="108" t="s">
+      <c r="AO57" s="175" t="s">
         <v>215</v>
       </c>
-      <c r="AP57" s="108"/>
-      <c r="AQ57" s="108"/>
-      <c r="AR57" s="108"/>
+      <c r="AP57" s="175"/>
+      <c r="AQ57" s="175"/>
+      <c r="AR57" s="175"/>
       <c r="AS57" s="98" t="s">
         <v>55</v>
       </c>
       <c r="AT57" s="81"/>
       <c r="AU57" s="8"/>
     </row>
-    <row r="58" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
       <c r="H58" s="21"/>
       <c r="I58" s="55"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
+      <c r="J58" s="183"/>
+      <c r="K58" s="183"/>
+      <c r="L58" s="183"/>
       <c r="N58" s="13"/>
       <c r="P58" s="13"/>
       <c r="Q58" s="21"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
+      <c r="S58" s="184"/>
+      <c r="T58" s="184"/>
+      <c r="U58" s="185"/>
       <c r="W58" s="8"/>
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
@@ -5307,7 +5329,7 @@
       <c r="AT58" s="14"/>
       <c r="AU58" s="8"/>
     </row>
-    <row r="59" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
@@ -5315,21 +5337,21 @@
         <v>18</v>
       </c>
       <c r="I59" s="54"/>
-      <c r="J59" s="111" t="s">
+      <c r="J59" s="182" t="s">
         <v>192</v>
       </c>
-      <c r="K59" s="111"/>
-      <c r="L59" s="111"/>
+      <c r="K59" s="182"/>
+      <c r="L59" s="182"/>
       <c r="N59" s="13"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S59" s="111" t="s">
+      <c r="S59" s="182" t="s">
         <v>200</v>
       </c>
-      <c r="T59" s="111"/>
-      <c r="U59" s="111"/>
+      <c r="T59" s="182"/>
+      <c r="U59" s="182"/>
       <c r="W59" s="8" t="s">
         <v>91</v>
       </c>
@@ -5339,13 +5361,13 @@
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
-      <c r="AD59" s="121" t="s">
+      <c r="AD59" s="174" t="s">
         <v>208</v>
       </c>
-      <c r="AE59" s="121"/>
-      <c r="AF59" s="121"/>
-      <c r="AG59" s="121"/>
-      <c r="AH59" s="121"/>
+      <c r="AE59" s="174"/>
+      <c r="AF59" s="174"/>
+      <c r="AG59" s="174"/>
+      <c r="AH59" s="174"/>
       <c r="AI59" s="8"/>
       <c r="AJ59" s="8" t="s">
         <v>40</v>
@@ -5354,32 +5376,33 @@
       <c r="AL59" s="8"/>
       <c r="AM59" s="8"/>
       <c r="AN59" s="12"/>
-      <c r="AO59" s="108" t="s">
+      <c r="AO59" s="175" t="s">
         <v>216</v>
       </c>
-      <c r="AP59" s="108"/>
-      <c r="AQ59" s="108"/>
-      <c r="AR59" s="108"/>
+      <c r="AP59" s="175"/>
+      <c r="AQ59" s="175"/>
+      <c r="AR59" s="175"/>
       <c r="AS59" s="98" t="s">
         <v>55</v>
       </c>
       <c r="AT59" s="81"/>
       <c r="AU59" s="8"/>
     </row>
-    <row r="60" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="21"/>
       <c r="I60" s="55"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
+      <c r="J60" s="183"/>
+      <c r="K60" s="183"/>
+      <c r="L60" s="183"/>
       <c r="N60" s="13"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="21"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
+      <c r="S60" s="184"/>
+      <c r="T60" s="184"/>
+      <c r="U60" s="185"/>
       <c r="W60" s="8"/>
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
@@ -5406,7 +5429,7 @@
       <c r="AT60" s="14"/>
       <c r="AU60" s="8"/>
     </row>
-    <row r="61" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
@@ -5414,21 +5437,21 @@
         <v>8</v>
       </c>
       <c r="I61" s="54"/>
-      <c r="J61" s="111" t="s">
+      <c r="J61" s="182" t="s">
         <v>193</v>
       </c>
-      <c r="K61" s="111"/>
-      <c r="L61" s="111"/>
+      <c r="K61" s="182"/>
+      <c r="L61" s="182"/>
       <c r="N61" s="13"/>
       <c r="P61" s="13"/>
       <c r="Q61" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S61" s="111" t="s">
+      <c r="S61" s="182" t="s">
         <v>201</v>
       </c>
-      <c r="T61" s="111"/>
-      <c r="U61" s="111"/>
+      <c r="T61" s="182"/>
+      <c r="U61" s="182"/>
       <c r="W61" s="8" t="s">
         <v>96</v>
       </c>
@@ -5438,13 +5461,13 @@
       <c r="AA61" s="8"/>
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
-      <c r="AD61" s="121" t="s">
+      <c r="AD61" s="174" t="s">
         <v>209</v>
       </c>
-      <c r="AE61" s="121"/>
-      <c r="AF61" s="121"/>
-      <c r="AG61" s="121"/>
-      <c r="AH61" s="121"/>
+      <c r="AE61" s="174"/>
+      <c r="AF61" s="174"/>
+      <c r="AG61" s="174"/>
+      <c r="AH61" s="174"/>
       <c r="AI61" s="8"/>
       <c r="AJ61" s="8" t="s">
         <v>41</v>
@@ -5453,32 +5476,33 @@
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
       <c r="AN61" s="12"/>
-      <c r="AO61" s="108" t="s">
+      <c r="AO61" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="AP61" s="108"/>
-      <c r="AQ61" s="108"/>
-      <c r="AR61" s="108"/>
+      <c r="AP61" s="175"/>
+      <c r="AQ61" s="175"/>
+      <c r="AR61" s="175"/>
       <c r="AS61" s="98" t="s">
         <v>55</v>
       </c>
       <c r="AT61" s="81"/>
       <c r="AU61" s="8"/>
     </row>
-    <row r="62" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
       <c r="H62" s="21"/>
       <c r="I62" s="55"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
+      <c r="J62" s="183"/>
+      <c r="K62" s="183"/>
+      <c r="L62" s="183"/>
       <c r="N62" s="13"/>
       <c r="P62" s="13"/>
       <c r="Q62" s="21"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="24"/>
+      <c r="S62" s="184"/>
+      <c r="T62" s="184"/>
+      <c r="U62" s="185"/>
       <c r="W62" s="8"/>
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
@@ -5505,7 +5529,7 @@
       <c r="AT62" s="14"/>
       <c r="AU62" s="8"/>
     </row>
-    <row r="63" spans="1:47" s="28" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:47" s="28" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
@@ -5513,21 +5537,21 @@
         <v>9</v>
       </c>
       <c r="I63" s="54"/>
-      <c r="J63" s="111" t="s">
+      <c r="J63" s="182" t="s">
         <v>194</v>
       </c>
-      <c r="K63" s="111"/>
-      <c r="L63" s="111"/>
+      <c r="K63" s="182"/>
+      <c r="L63" s="182"/>
       <c r="N63" s="13"/>
       <c r="P63" s="13"/>
       <c r="Q63" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="S63" s="111" t="s">
+      <c r="S63" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="T63" s="111"/>
-      <c r="U63" s="111"/>
+      <c r="T63" s="182"/>
+      <c r="U63" s="182"/>
       <c r="W63" s="8" t="s">
         <v>16</v>
       </c>
@@ -5537,13 +5561,13 @@
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
-      <c r="AD63" s="121" t="s">
+      <c r="AD63" s="174" t="s">
         <v>210</v>
       </c>
-      <c r="AE63" s="121"/>
-      <c r="AF63" s="121"/>
-      <c r="AG63" s="121"/>
-      <c r="AH63" s="121"/>
+      <c r="AE63" s="174"/>
+      <c r="AF63" s="174"/>
+      <c r="AG63" s="174"/>
+      <c r="AH63" s="174"/>
       <c r="AI63" s="8"/>
       <c r="AJ63" s="8" t="s">
         <v>52</v>
@@ -5552,32 +5576,33 @@
       <c r="AL63" s="8"/>
       <c r="AM63" s="8"/>
       <c r="AN63" s="11"/>
-      <c r="AO63" s="108" t="s">
+      <c r="AO63" s="175" t="s">
         <v>218</v>
       </c>
-      <c r="AP63" s="108"/>
-      <c r="AQ63" s="108"/>
-      <c r="AR63" s="108"/>
+      <c r="AP63" s="175"/>
+      <c r="AQ63" s="175"/>
+      <c r="AR63" s="175"/>
       <c r="AS63" s="98" t="s">
         <v>55</v>
       </c>
       <c r="AT63" s="81"/>
       <c r="AU63" s="8"/>
     </row>
-    <row r="64" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
       <c r="H64" s="21"/>
       <c r="I64" s="55"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
+      <c r="J64" s="183"/>
+      <c r="K64" s="183"/>
+      <c r="L64" s="183"/>
       <c r="N64" s="13"/>
       <c r="P64" s="13"/>
       <c r="Q64" s="21"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
+      <c r="S64" s="184"/>
+      <c r="T64" s="184"/>
+      <c r="U64" s="185"/>
       <c r="W64" s="8"/>
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
@@ -5604,7 +5629,7 @@
       <c r="AT64" s="14"/>
       <c r="AU64" s="8"/>
     </row>
-    <row r="65" spans="1:48" s="28" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:48" s="28" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
@@ -5612,21 +5637,21 @@
         <v>88</v>
       </c>
       <c r="I65" s="54"/>
-      <c r="J65" s="111" t="s">
+      <c r="J65" s="182" t="s">
         <v>195</v>
       </c>
-      <c r="K65" s="111"/>
-      <c r="L65" s="111"/>
+      <c r="K65" s="182"/>
+      <c r="L65" s="182"/>
       <c r="N65" s="13"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="S65" s="111" t="s">
+      <c r="S65" s="182" t="s">
         <v>203</v>
       </c>
-      <c r="T65" s="111"/>
-      <c r="U65" s="111"/>
+      <c r="T65" s="182"/>
+      <c r="U65" s="182"/>
       <c r="W65" s="8" t="s">
         <v>94</v>
       </c>
@@ -5636,13 +5661,13 @@
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
-      <c r="AD65" s="121" t="s">
+      <c r="AD65" s="174" t="s">
         <v>211</v>
       </c>
-      <c r="AE65" s="121"/>
-      <c r="AF65" s="121"/>
-      <c r="AG65" s="121"/>
-      <c r="AH65" s="121"/>
+      <c r="AE65" s="174"/>
+      <c r="AF65" s="174"/>
+      <c r="AG65" s="174"/>
+      <c r="AH65" s="174"/>
       <c r="AI65" s="8"/>
       <c r="AJ65" s="8" t="s">
         <v>54</v>
@@ -5651,32 +5676,33 @@
       <c r="AL65" s="8"/>
       <c r="AM65" s="8"/>
       <c r="AN65" s="8"/>
-      <c r="AO65" s="108" t="s">
+      <c r="AO65" s="175" t="s">
         <v>219</v>
       </c>
-      <c r="AP65" s="108"/>
-      <c r="AQ65" s="108"/>
-      <c r="AR65" s="108"/>
+      <c r="AP65" s="175"/>
+      <c r="AQ65" s="175"/>
+      <c r="AR65" s="175"/>
       <c r="AS65" s="98" t="s">
         <v>55</v>
       </c>
       <c r="AT65" s="81"/>
       <c r="AU65" s="8"/>
     </row>
-    <row r="66" spans="1:48" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:48" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="21"/>
       <c r="I66" s="55"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
+      <c r="J66" s="183"/>
+      <c r="K66" s="183"/>
+      <c r="L66" s="183"/>
       <c r="N66" s="13"/>
       <c r="P66" s="13"/>
       <c r="Q66" s="21"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
+      <c r="S66" s="186"/>
+      <c r="T66" s="186"/>
+      <c r="U66" s="185"/>
       <c r="W66" s="8"/>
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
@@ -5703,7 +5729,7 @@
       <c r="AT66" s="22"/>
       <c r="AU66" s="8"/>
     </row>
-    <row r="67" spans="1:48" s="28" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:48" s="28" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
@@ -5711,21 +5737,21 @@
         <v>89</v>
       </c>
       <c r="I67" s="54"/>
-      <c r="J67" s="111" t="s">
+      <c r="J67" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="K67" s="111"/>
-      <c r="L67" s="111"/>
+      <c r="K67" s="182"/>
+      <c r="L67" s="182"/>
       <c r="N67" s="13"/>
       <c r="P67" s="13"/>
       <c r="Q67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="S67" s="111" t="s">
+      <c r="S67" s="182" t="s">
         <v>204</v>
       </c>
-      <c r="T67" s="111"/>
-      <c r="U67" s="111"/>
+      <c r="T67" s="182"/>
+      <c r="U67" s="182"/>
       <c r="W67" s="8" t="s">
         <v>95</v>
       </c>
@@ -5735,13 +5761,13 @@
       <c r="AA67" s="8"/>
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
-      <c r="AD67" s="121" t="s">
+      <c r="AD67" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="AE67" s="121"/>
-      <c r="AF67" s="121"/>
-      <c r="AG67" s="121"/>
-      <c r="AH67" s="121"/>
+      <c r="AE67" s="174"/>
+      <c r="AF67" s="174"/>
+      <c r="AG67" s="174"/>
+      <c r="AH67" s="174"/>
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8" t="s">
         <v>53</v>
@@ -5750,32 +5776,33 @@
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
       <c r="AN67" s="8"/>
-      <c r="AO67" s="108" t="s">
+      <c r="AO67" s="175" t="s">
         <v>220</v>
       </c>
-      <c r="AP67" s="108"/>
-      <c r="AQ67" s="108"/>
-      <c r="AR67" s="108"/>
+      <c r="AP67" s="175"/>
+      <c r="AQ67" s="175"/>
+      <c r="AR67" s="175"/>
       <c r="AS67" s="98" t="s">
         <v>55</v>
       </c>
       <c r="AT67" s="81"/>
       <c r="AU67" s="8"/>
     </row>
-    <row r="68" spans="1:48" s="28" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:48" s="28" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
       <c r="H68" s="21"/>
       <c r="I68" s="55"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
+      <c r="J68" s="183"/>
+      <c r="K68" s="183"/>
+      <c r="L68" s="183"/>
       <c r="N68" s="13"/>
       <c r="P68" s="13"/>
       <c r="Q68" s="21"/>
-      <c r="S68" s="24"/>
-      <c r="T68" s="24"/>
+      <c r="S68" s="184"/>
+      <c r="T68" s="184"/>
+      <c r="U68" s="187"/>
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
       <c r="AA68" s="8"/>
@@ -5800,7 +5827,7 @@
       <c r="AT68" s="8"/>
       <c r="AU68" s="8"/>
     </row>
-    <row r="69" spans="1:48" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:48" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
@@ -5808,21 +5835,21 @@
         <v>3</v>
       </c>
       <c r="I69" s="54"/>
-      <c r="J69" s="111" t="s">
+      <c r="J69" s="182" t="s">
         <v>197</v>
       </c>
-      <c r="K69" s="111"/>
-      <c r="L69" s="111"/>
+      <c r="K69" s="182"/>
+      <c r="L69" s="182"/>
       <c r="N69" s="13"/>
       <c r="P69" s="13"/>
       <c r="Q69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="111" t="s">
+      <c r="S69" s="182" t="s">
         <v>205</v>
       </c>
-      <c r="T69" s="111"/>
-      <c r="U69" s="111"/>
+      <c r="T69" s="182"/>
+      <c r="U69" s="182"/>
       <c r="W69" s="20" t="s">
         <v>160</v>
       </c>
@@ -5831,13 +5858,13 @@
       <c r="AA69" s="8"/>
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
-      <c r="AD69" s="121" t="s">
+      <c r="AD69" s="174" t="s">
         <v>213</v>
       </c>
-      <c r="AE69" s="121"/>
-      <c r="AF69" s="121"/>
-      <c r="AG69" s="121"/>
-      <c r="AH69" s="121"/>
+      <c r="AE69" s="174"/>
+      <c r="AF69" s="174"/>
+      <c r="AG69" s="174"/>
+      <c r="AH69" s="174"/>
       <c r="AI69" s="8"/>
       <c r="AJ69" s="8" t="s">
         <v>57</v>
@@ -5846,12 +5873,12 @@
       <c r="AL69" s="8"/>
       <c r="AM69" s="21"/>
       <c r="AN69" s="8"/>
-      <c r="AO69" s="108" t="s">
+      <c r="AO69" s="175" t="s">
         <v>221</v>
       </c>
-      <c r="AP69" s="108"/>
-      <c r="AQ69" s="108"/>
-      <c r="AR69" s="108"/>
+      <c r="AP69" s="175"/>
+      <c r="AQ69" s="175"/>
+      <c r="AR69" s="175"/>
       <c r="AS69" s="98" t="s">
         <v>55</v>
       </c>
@@ -5956,44 +5983,44 @@
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
       <c r="O74" s="18"/>
-      <c r="P74" s="137" t="s">
+      <c r="P74" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="Q74" s="137"/>
-      <c r="R74" s="137"/>
-      <c r="S74" s="137"/>
-      <c r="T74" s="137"/>
-      <c r="U74" s="137"/>
-      <c r="V74" s="137"/>
-      <c r="W74" s="137"/>
-      <c r="X74" s="137"/>
-      <c r="Y74" s="137"/>
-      <c r="Z74" s="137"/>
-      <c r="AA74" s="137"/>
-      <c r="AB74" s="137"/>
-      <c r="AC74" s="137"/>
-      <c r="AD74" s="137"/>
-      <c r="AE74" s="137"/>
-      <c r="AF74" s="137"/>
-      <c r="AG74" s="137"/>
-      <c r="AH74" s="137"/>
-      <c r="AI74" s="137"/>
+      <c r="Q74" s="115"/>
+      <c r="R74" s="115"/>
+      <c r="S74" s="115"/>
+      <c r="T74" s="115"/>
+      <c r="U74" s="115"/>
+      <c r="V74" s="115"/>
+      <c r="W74" s="115"/>
+      <c r="X74" s="115"/>
+      <c r="Y74" s="115"/>
+      <c r="Z74" s="115"/>
+      <c r="AA74" s="115"/>
+      <c r="AB74" s="115"/>
+      <c r="AC74" s="115"/>
+      <c r="AD74" s="115"/>
+      <c r="AE74" s="115"/>
+      <c r="AF74" s="115"/>
+      <c r="AG74" s="115"/>
+      <c r="AH74" s="115"/>
+      <c r="AI74" s="115"/>
       <c r="AJ74" s="18"/>
-      <c r="AK74" s="128" t="s">
+      <c r="AK74" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="AL74" s="129"/>
-      <c r="AM74" s="129"/>
-      <c r="AN74" s="132" t="str">
+      <c r="AL74" s="117"/>
+      <c r="AM74" s="117"/>
+      <c r="AN74" s="120" t="str">
         <f>AN2</f>
         <v>SJI-YY-NNN-M</v>
       </c>
-      <c r="AO74" s="132"/>
-      <c r="AP74" s="132"/>
-      <c r="AQ74" s="132"/>
-      <c r="AR74" s="132"/>
-      <c r="AS74" s="132"/>
-      <c r="AT74" s="133"/>
+      <c r="AO74" s="120"/>
+      <c r="AP74" s="120"/>
+      <c r="AQ74" s="120"/>
+      <c r="AR74" s="120"/>
+      <c r="AS74" s="120"/>
+      <c r="AT74" s="121"/>
       <c r="AU74" s="1"/>
     </row>
     <row r="75" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6012,39 +6039,39 @@
       <c r="M75" s="18"/>
       <c r="N75" s="18"/>
       <c r="O75" s="18"/>
-      <c r="P75" s="137" t="s">
+      <c r="P75" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="Q75" s="137"/>
-      <c r="R75" s="137"/>
-      <c r="S75" s="137"/>
-      <c r="T75" s="137"/>
-      <c r="U75" s="137"/>
-      <c r="V75" s="137"/>
-      <c r="W75" s="137"/>
-      <c r="X75" s="137"/>
-      <c r="Y75" s="137"/>
-      <c r="Z75" s="137"/>
-      <c r="AA75" s="137"/>
-      <c r="AB75" s="137"/>
-      <c r="AC75" s="137"/>
-      <c r="AD75" s="137"/>
-      <c r="AE75" s="137"/>
-      <c r="AF75" s="137"/>
-      <c r="AG75" s="137"/>
-      <c r="AH75" s="137"/>
-      <c r="AI75" s="137"/>
+      <c r="Q75" s="115"/>
+      <c r="R75" s="115"/>
+      <c r="S75" s="115"/>
+      <c r="T75" s="115"/>
+      <c r="U75" s="115"/>
+      <c r="V75" s="115"/>
+      <c r="W75" s="115"/>
+      <c r="X75" s="115"/>
+      <c r="Y75" s="115"/>
+      <c r="Z75" s="115"/>
+      <c r="AA75" s="115"/>
+      <c r="AB75" s="115"/>
+      <c r="AC75" s="115"/>
+      <c r="AD75" s="115"/>
+      <c r="AE75" s="115"/>
+      <c r="AF75" s="115"/>
+      <c r="AG75" s="115"/>
+      <c r="AH75" s="115"/>
+      <c r="AI75" s="115"/>
       <c r="AJ75" s="18"/>
-      <c r="AK75" s="130"/>
-      <c r="AL75" s="131"/>
-      <c r="AM75" s="131"/>
-      <c r="AN75" s="134"/>
-      <c r="AO75" s="134"/>
-      <c r="AP75" s="134"/>
-      <c r="AQ75" s="134"/>
-      <c r="AR75" s="134"/>
-      <c r="AS75" s="134"/>
-      <c r="AT75" s="135"/>
+      <c r="AK75" s="118"/>
+      <c r="AL75" s="119"/>
+      <c r="AM75" s="119"/>
+      <c r="AN75" s="122"/>
+      <c r="AO75" s="122"/>
+      <c r="AP75" s="122"/>
+      <c r="AQ75" s="122"/>
+      <c r="AR75" s="122"/>
+      <c r="AS75" s="122"/>
+      <c r="AT75" s="123"/>
       <c r="AU75" s="1"/>
     </row>
     <row r="76" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6098,51 +6125,51 @@
     </row>
     <row r="77" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
-      <c r="B77" s="110" t="s">
+      <c r="B77" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="110"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="110"/>
-      <c r="F77" s="110"/>
-      <c r="G77" s="110"/>
-      <c r="H77" s="110"/>
-      <c r="I77" s="110"/>
-      <c r="J77" s="110"/>
-      <c r="K77" s="110"/>
-      <c r="L77" s="110"/>
-      <c r="M77" s="110"/>
-      <c r="N77" s="110"/>
-      <c r="O77" s="110"/>
-      <c r="P77" s="110"/>
-      <c r="Q77" s="110"/>
-      <c r="R77" s="110"/>
-      <c r="S77" s="110"/>
-      <c r="T77" s="110"/>
-      <c r="U77" s="110"/>
-      <c r="V77" s="110"/>
-      <c r="W77" s="110"/>
-      <c r="X77" s="110"/>
-      <c r="Y77" s="110"/>
-      <c r="Z77" s="110"/>
-      <c r="AA77" s="110"/>
-      <c r="AB77" s="110"/>
-      <c r="AC77" s="110"/>
-      <c r="AD77" s="110"/>
-      <c r="AE77" s="110"/>
-      <c r="AF77" s="110"/>
-      <c r="AG77" s="110"/>
-      <c r="AH77" s="110"/>
-      <c r="AI77" s="110"/>
-      <c r="AJ77" s="110"/>
-      <c r="AK77" s="110"/>
-      <c r="AL77" s="110"/>
-      <c r="AM77" s="110"/>
-      <c r="AN77" s="110"/>
-      <c r="AO77" s="110"/>
-      <c r="AP77" s="110"/>
-      <c r="AQ77" s="110"/>
-      <c r="AR77" s="110"/>
+      <c r="C77" s="157"/>
+      <c r="D77" s="157"/>
+      <c r="E77" s="157"/>
+      <c r="F77" s="157"/>
+      <c r="G77" s="157"/>
+      <c r="H77" s="157"/>
+      <c r="I77" s="157"/>
+      <c r="J77" s="157"/>
+      <c r="K77" s="157"/>
+      <c r="L77" s="157"/>
+      <c r="M77" s="157"/>
+      <c r="N77" s="157"/>
+      <c r="O77" s="157"/>
+      <c r="P77" s="157"/>
+      <c r="Q77" s="157"/>
+      <c r="R77" s="157"/>
+      <c r="S77" s="157"/>
+      <c r="T77" s="157"/>
+      <c r="U77" s="157"/>
+      <c r="V77" s="157"/>
+      <c r="W77" s="157"/>
+      <c r="X77" s="157"/>
+      <c r="Y77" s="157"/>
+      <c r="Z77" s="157"/>
+      <c r="AA77" s="157"/>
+      <c r="AB77" s="157"/>
+      <c r="AC77" s="157"/>
+      <c r="AD77" s="157"/>
+      <c r="AE77" s="157"/>
+      <c r="AF77" s="157"/>
+      <c r="AG77" s="157"/>
+      <c r="AH77" s="157"/>
+      <c r="AI77" s="157"/>
+      <c r="AJ77" s="157"/>
+      <c r="AK77" s="157"/>
+      <c r="AL77" s="157"/>
+      <c r="AM77" s="157"/>
+      <c r="AN77" s="157"/>
+      <c r="AO77" s="157"/>
+      <c r="AP77" s="157"/>
+      <c r="AQ77" s="157"/>
+      <c r="AR77" s="157"/>
       <c r="AS77" s="48"/>
       <c r="AT77" s="8"/>
       <c r="AU77" s="8"/>
@@ -6212,33 +6239,33 @@
       <c r="AG79" s="59"/>
       <c r="AH79" s="59"/>
       <c r="AI79" s="59"/>
-      <c r="AJ79" s="171" t="s">
+      <c r="AJ79" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="AK79" s="157" t="s">
+      <c r="AK79" s="144" t="s">
         <v>138</v>
       </c>
-      <c r="AL79" s="157" t="s">
+      <c r="AL79" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="AM79" s="157" t="s">
+      <c r="AM79" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="AN79" s="157" t="s">
+      <c r="AN79" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="AO79" s="157" t="s">
+      <c r="AO79" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="AP79" s="157" t="s">
+      <c r="AP79" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="AQ79" s="157" t="s">
+      <c r="AQ79" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="AR79" s="157"/>
-      <c r="AS79" s="157"/>
-      <c r="AT79" s="159"/>
+      <c r="AR79" s="144"/>
+      <c r="AS79" s="144"/>
+      <c r="AT79" s="148"/>
       <c r="AU79" s="8"/>
     </row>
     <row r="80" spans="1:48" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6279,17 +6306,17 @@
       <c r="AG80" s="62"/>
       <c r="AH80" s="62"/>
       <c r="AI80" s="62"/>
-      <c r="AJ80" s="172"/>
-      <c r="AK80" s="158"/>
-      <c r="AL80" s="158"/>
-      <c r="AM80" s="158"/>
-      <c r="AN80" s="158"/>
-      <c r="AO80" s="158"/>
-      <c r="AP80" s="158"/>
-      <c r="AQ80" s="158"/>
-      <c r="AR80" s="158"/>
-      <c r="AS80" s="158"/>
-      <c r="AT80" s="160"/>
+      <c r="AJ80" s="143"/>
+      <c r="AK80" s="145"/>
+      <c r="AL80" s="145"/>
+      <c r="AM80" s="145"/>
+      <c r="AN80" s="145"/>
+      <c r="AO80" s="145"/>
+      <c r="AP80" s="145"/>
+      <c r="AQ80" s="145"/>
+      <c r="AR80" s="145"/>
+      <c r="AS80" s="145"/>
+      <c r="AT80" s="149"/>
       <c r="AU80" s="8"/>
     </row>
     <row r="81" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6330,17 +6357,17 @@
       <c r="AG81" s="62"/>
       <c r="AH81" s="62"/>
       <c r="AI81" s="62"/>
-      <c r="AJ81" s="172"/>
-      <c r="AK81" s="158"/>
-      <c r="AL81" s="158"/>
-      <c r="AM81" s="158"/>
-      <c r="AN81" s="158"/>
-      <c r="AO81" s="158"/>
-      <c r="AP81" s="158"/>
-      <c r="AQ81" s="158"/>
-      <c r="AR81" s="158"/>
-      <c r="AS81" s="158"/>
-      <c r="AT81" s="160"/>
+      <c r="AJ81" s="143"/>
+      <c r="AK81" s="145"/>
+      <c r="AL81" s="145"/>
+      <c r="AM81" s="145"/>
+      <c r="AN81" s="145"/>
+      <c r="AO81" s="145"/>
+      <c r="AP81" s="145"/>
+      <c r="AQ81" s="145"/>
+      <c r="AR81" s="145"/>
+      <c r="AS81" s="145"/>
+      <c r="AT81" s="149"/>
       <c r="AU81" s="8"/>
     </row>
     <row r="82" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6381,17 +6408,17 @@
       <c r="AG82" s="62"/>
       <c r="AH82" s="62"/>
       <c r="AI82" s="62"/>
-      <c r="AJ82" s="172"/>
-      <c r="AK82" s="158"/>
-      <c r="AL82" s="158"/>
-      <c r="AM82" s="158"/>
-      <c r="AN82" s="158"/>
-      <c r="AO82" s="158"/>
-      <c r="AP82" s="158"/>
-      <c r="AQ82" s="158"/>
-      <c r="AR82" s="158"/>
-      <c r="AS82" s="158"/>
-      <c r="AT82" s="160"/>
+      <c r="AJ82" s="143"/>
+      <c r="AK82" s="145"/>
+      <c r="AL82" s="145"/>
+      <c r="AM82" s="145"/>
+      <c r="AN82" s="145"/>
+      <c r="AO82" s="145"/>
+      <c r="AP82" s="145"/>
+      <c r="AQ82" s="145"/>
+      <c r="AR82" s="145"/>
+      <c r="AS82" s="145"/>
+      <c r="AT82" s="149"/>
       <c r="AU82" s="8"/>
     </row>
     <row r="83" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6432,114 +6459,114 @@
       <c r="AG83" s="65"/>
       <c r="AH83" s="65"/>
       <c r="AI83" s="65"/>
-      <c r="AJ83" s="172"/>
-      <c r="AK83" s="158"/>
-      <c r="AL83" s="158"/>
-      <c r="AM83" s="158"/>
-      <c r="AN83" s="158"/>
-      <c r="AO83" s="158"/>
-      <c r="AP83" s="158"/>
-      <c r="AQ83" s="158"/>
-      <c r="AR83" s="158"/>
-      <c r="AS83" s="158"/>
-      <c r="AT83" s="160"/>
+      <c r="AJ83" s="143"/>
+      <c r="AK83" s="145"/>
+      <c r="AL83" s="145"/>
+      <c r="AM83" s="145"/>
+      <c r="AN83" s="145"/>
+      <c r="AO83" s="145"/>
+      <c r="AP83" s="145"/>
+      <c r="AQ83" s="145"/>
+      <c r="AR83" s="145"/>
+      <c r="AS83" s="145"/>
+      <c r="AT83" s="149"/>
       <c r="AU83" s="8"/>
     </row>
     <row r="84" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
-      <c r="B84" s="152" t="s">
+      <c r="B84" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="153"/>
-      <c r="D84" s="153"/>
-      <c r="E84" s="153"/>
-      <c r="F84" s="153"/>
-      <c r="G84" s="153" t="s">
+      <c r="C84" s="108"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="H84" s="153"/>
-      <c r="I84" s="153"/>
-      <c r="J84" s="153" t="s">
+      <c r="H84" s="108"/>
+      <c r="I84" s="108"/>
+      <c r="J84" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="K84" s="153"/>
-      <c r="L84" s="153"/>
-      <c r="M84" s="153"/>
-      <c r="N84" s="153"/>
-      <c r="O84" s="173" t="s">
+      <c r="K84" s="108"/>
+      <c r="L84" s="108"/>
+      <c r="M84" s="108"/>
+      <c r="N84" s="108"/>
+      <c r="O84" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="P84" s="173"/>
-      <c r="Q84" s="173"/>
-      <c r="R84" s="173"/>
-      <c r="S84" s="173"/>
-      <c r="T84" s="173"/>
-      <c r="U84" s="173"/>
-      <c r="V84" s="173"/>
-      <c r="W84" s="174"/>
-      <c r="X84" s="168" t="s">
+      <c r="P84" s="146"/>
+      <c r="Q84" s="146"/>
+      <c r="R84" s="146"/>
+      <c r="S84" s="146"/>
+      <c r="T84" s="146"/>
+      <c r="U84" s="146"/>
+      <c r="V84" s="146"/>
+      <c r="W84" s="147"/>
+      <c r="X84" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="Y84" s="169"/>
-      <c r="Z84" s="169"/>
-      <c r="AA84" s="169"/>
-      <c r="AB84" s="169"/>
-      <c r="AC84" s="169"/>
-      <c r="AD84" s="169"/>
-      <c r="AE84" s="169"/>
-      <c r="AF84" s="169"/>
-      <c r="AG84" s="169"/>
-      <c r="AH84" s="169"/>
-      <c r="AI84" s="170"/>
-      <c r="AJ84" s="172"/>
-      <c r="AK84" s="158"/>
-      <c r="AL84" s="158"/>
-      <c r="AM84" s="158"/>
-      <c r="AN84" s="158"/>
-      <c r="AO84" s="158"/>
-      <c r="AP84" s="158"/>
-      <c r="AQ84" s="158"/>
-      <c r="AR84" s="158"/>
-      <c r="AS84" s="158"/>
-      <c r="AT84" s="160"/>
+      <c r="Y84" s="140"/>
+      <c r="Z84" s="140"/>
+      <c r="AA84" s="140"/>
+      <c r="AB84" s="140"/>
+      <c r="AC84" s="140"/>
+      <c r="AD84" s="140"/>
+      <c r="AE84" s="140"/>
+      <c r="AF84" s="140"/>
+      <c r="AG84" s="140"/>
+      <c r="AH84" s="140"/>
+      <c r="AI84" s="141"/>
+      <c r="AJ84" s="143"/>
+      <c r="AK84" s="145"/>
+      <c r="AL84" s="145"/>
+      <c r="AM84" s="145"/>
+      <c r="AN84" s="145"/>
+      <c r="AO84" s="145"/>
+      <c r="AP84" s="145"/>
+      <c r="AQ84" s="145"/>
+      <c r="AR84" s="145"/>
+      <c r="AS84" s="145"/>
+      <c r="AT84" s="149"/>
       <c r="AU84" s="8"/>
     </row>
     <row r="85" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
-      <c r="B85" s="142"/>
-      <c r="C85" s="113"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="113"/>
-      <c r="F85" s="113"/>
-      <c r="G85" s="113"/>
-      <c r="H85" s="113"/>
-      <c r="I85" s="113"/>
-      <c r="J85" s="112"/>
-      <c r="K85" s="113"/>
-      <c r="L85" s="113"/>
-      <c r="M85" s="113"/>
-      <c r="N85" s="113"/>
-      <c r="O85" s="114"/>
-      <c r="P85" s="114"/>
-      <c r="Q85" s="114"/>
-      <c r="R85" s="114"/>
-      <c r="S85" s="114"/>
-      <c r="T85" s="114"/>
-      <c r="U85" s="114"/>
-      <c r="V85" s="114"/>
-      <c r="W85" s="115"/>
-      <c r="X85" s="161"/>
-      <c r="Y85" s="162"/>
-      <c r="Z85" s="162"/>
-      <c r="AA85" s="162"/>
-      <c r="AB85" s="162"/>
-      <c r="AC85" s="162"/>
-      <c r="AD85" s="162"/>
-      <c r="AE85" s="162"/>
-      <c r="AF85" s="162"/>
-      <c r="AG85" s="162"/>
-      <c r="AH85" s="162"/>
-      <c r="AI85" s="163"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="112"/>
+      <c r="E85" s="112"/>
+      <c r="F85" s="112"/>
+      <c r="G85" s="112"/>
+      <c r="H85" s="112"/>
+      <c r="I85" s="112"/>
+      <c r="J85" s="136"/>
+      <c r="K85" s="112"/>
+      <c r="L85" s="112"/>
+      <c r="M85" s="112"/>
+      <c r="N85" s="112"/>
+      <c r="O85" s="137"/>
+      <c r="P85" s="137"/>
+      <c r="Q85" s="137"/>
+      <c r="R85" s="137"/>
+      <c r="S85" s="137"/>
+      <c r="T85" s="137"/>
+      <c r="U85" s="137"/>
+      <c r="V85" s="137"/>
+      <c r="W85" s="138"/>
+      <c r="X85" s="133"/>
+      <c r="Y85" s="134"/>
+      <c r="Z85" s="134"/>
+      <c r="AA85" s="134"/>
+      <c r="AB85" s="134"/>
+      <c r="AC85" s="134"/>
+      <c r="AD85" s="134"/>
+      <c r="AE85" s="134"/>
+      <c r="AF85" s="134"/>
+      <c r="AG85" s="134"/>
+      <c r="AH85" s="134"/>
+      <c r="AI85" s="135"/>
       <c r="AJ85" s="69"/>
       <c r="AK85" s="70"/>
       <c r="AL85" s="71"/>
@@ -6555,40 +6582,40 @@
     </row>
     <row r="86" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
-      <c r="B86" s="142"/>
-      <c r="C86" s="113"/>
-      <c r="D86" s="113"/>
-      <c r="E86" s="113"/>
-      <c r="F86" s="113"/>
-      <c r="G86" s="113"/>
-      <c r="H86" s="113"/>
-      <c r="I86" s="113"/>
-      <c r="J86" s="112"/>
-      <c r="K86" s="113"/>
-      <c r="L86" s="113"/>
-      <c r="M86" s="113"/>
-      <c r="N86" s="113"/>
-      <c r="O86" s="114"/>
-      <c r="P86" s="114"/>
-      <c r="Q86" s="114"/>
-      <c r="R86" s="114"/>
-      <c r="S86" s="114"/>
-      <c r="T86" s="114"/>
-      <c r="U86" s="114"/>
-      <c r="V86" s="114"/>
-      <c r="W86" s="115"/>
-      <c r="X86" s="161"/>
-      <c r="Y86" s="162"/>
-      <c r="Z86" s="162"/>
-      <c r="AA86" s="162"/>
-      <c r="AB86" s="162"/>
-      <c r="AC86" s="162"/>
-      <c r="AD86" s="162"/>
-      <c r="AE86" s="162"/>
-      <c r="AF86" s="162"/>
-      <c r="AG86" s="162"/>
-      <c r="AH86" s="162"/>
-      <c r="AI86" s="163"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="112"/>
+      <c r="G86" s="112"/>
+      <c r="H86" s="112"/>
+      <c r="I86" s="112"/>
+      <c r="J86" s="136"/>
+      <c r="K86" s="112"/>
+      <c r="L86" s="112"/>
+      <c r="M86" s="112"/>
+      <c r="N86" s="112"/>
+      <c r="O86" s="137"/>
+      <c r="P86" s="137"/>
+      <c r="Q86" s="137"/>
+      <c r="R86" s="137"/>
+      <c r="S86" s="137"/>
+      <c r="T86" s="137"/>
+      <c r="U86" s="137"/>
+      <c r="V86" s="137"/>
+      <c r="W86" s="138"/>
+      <c r="X86" s="133"/>
+      <c r="Y86" s="134"/>
+      <c r="Z86" s="134"/>
+      <c r="AA86" s="134"/>
+      <c r="AB86" s="134"/>
+      <c r="AC86" s="134"/>
+      <c r="AD86" s="134"/>
+      <c r="AE86" s="134"/>
+      <c r="AF86" s="134"/>
+      <c r="AG86" s="134"/>
+      <c r="AH86" s="134"/>
+      <c r="AI86" s="135"/>
       <c r="AJ86" s="66"/>
       <c r="AK86" s="67"/>
       <c r="AL86" s="67"/>
@@ -6604,40 +6631,40 @@
     </row>
     <row r="87" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
-      <c r="B87" s="142"/>
-      <c r="C87" s="113"/>
-      <c r="D87" s="113"/>
-      <c r="E87" s="113"/>
-      <c r="F87" s="113"/>
-      <c r="G87" s="113"/>
-      <c r="H87" s="113"/>
-      <c r="I87" s="113"/>
-      <c r="J87" s="112"/>
-      <c r="K87" s="113"/>
-      <c r="L87" s="113"/>
-      <c r="M87" s="113"/>
-      <c r="N87" s="113"/>
-      <c r="O87" s="114"/>
-      <c r="P87" s="114"/>
-      <c r="Q87" s="114"/>
-      <c r="R87" s="114"/>
-      <c r="S87" s="114"/>
-      <c r="T87" s="114"/>
-      <c r="U87" s="114"/>
-      <c r="V87" s="114"/>
-      <c r="W87" s="115"/>
-      <c r="X87" s="161"/>
-      <c r="Y87" s="162"/>
-      <c r="Z87" s="162"/>
-      <c r="AA87" s="162"/>
-      <c r="AB87" s="162"/>
-      <c r="AC87" s="162"/>
-      <c r="AD87" s="162"/>
-      <c r="AE87" s="162"/>
-      <c r="AF87" s="162"/>
-      <c r="AG87" s="162"/>
-      <c r="AH87" s="162"/>
-      <c r="AI87" s="163"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="136"/>
+      <c r="K87" s="112"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="112"/>
+      <c r="N87" s="112"/>
+      <c r="O87" s="137"/>
+      <c r="P87" s="137"/>
+      <c r="Q87" s="137"/>
+      <c r="R87" s="137"/>
+      <c r="S87" s="137"/>
+      <c r="T87" s="137"/>
+      <c r="U87" s="137"/>
+      <c r="V87" s="137"/>
+      <c r="W87" s="138"/>
+      <c r="X87" s="133"/>
+      <c r="Y87" s="134"/>
+      <c r="Z87" s="134"/>
+      <c r="AA87" s="134"/>
+      <c r="AB87" s="134"/>
+      <c r="AC87" s="134"/>
+      <c r="AD87" s="134"/>
+      <c r="AE87" s="134"/>
+      <c r="AF87" s="134"/>
+      <c r="AG87" s="134"/>
+      <c r="AH87" s="134"/>
+      <c r="AI87" s="135"/>
       <c r="AJ87" s="69"/>
       <c r="AK87" s="70"/>
       <c r="AL87" s="71"/>
@@ -6653,40 +6680,40 @@
     </row>
     <row r="88" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="142"/>
-      <c r="C88" s="113"/>
-      <c r="D88" s="113"/>
-      <c r="E88" s="113"/>
-      <c r="F88" s="113"/>
-      <c r="G88" s="113"/>
-      <c r="H88" s="113"/>
-      <c r="I88" s="113"/>
-      <c r="J88" s="112"/>
-      <c r="K88" s="113"/>
-      <c r="L88" s="113"/>
-      <c r="M88" s="113"/>
-      <c r="N88" s="113"/>
-      <c r="O88" s="114"/>
-      <c r="P88" s="114"/>
-      <c r="Q88" s="114"/>
-      <c r="R88" s="114"/>
-      <c r="S88" s="114"/>
-      <c r="T88" s="114"/>
-      <c r="U88" s="114"/>
-      <c r="V88" s="114"/>
-      <c r="W88" s="115"/>
-      <c r="X88" s="161"/>
-      <c r="Y88" s="162"/>
-      <c r="Z88" s="162"/>
-      <c r="AA88" s="162"/>
-      <c r="AB88" s="162"/>
-      <c r="AC88" s="162"/>
-      <c r="AD88" s="162"/>
-      <c r="AE88" s="162"/>
-      <c r="AF88" s="162"/>
-      <c r="AG88" s="162"/>
-      <c r="AH88" s="162"/>
-      <c r="AI88" s="163"/>
+      <c r="B88" s="111"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
+      <c r="G88" s="112"/>
+      <c r="H88" s="112"/>
+      <c r="I88" s="112"/>
+      <c r="J88" s="136"/>
+      <c r="K88" s="112"/>
+      <c r="L88" s="112"/>
+      <c r="M88" s="112"/>
+      <c r="N88" s="112"/>
+      <c r="O88" s="137"/>
+      <c r="P88" s="137"/>
+      <c r="Q88" s="137"/>
+      <c r="R88" s="137"/>
+      <c r="S88" s="137"/>
+      <c r="T88" s="137"/>
+      <c r="U88" s="137"/>
+      <c r="V88" s="137"/>
+      <c r="W88" s="138"/>
+      <c r="X88" s="133"/>
+      <c r="Y88" s="134"/>
+      <c r="Z88" s="134"/>
+      <c r="AA88" s="134"/>
+      <c r="AB88" s="134"/>
+      <c r="AC88" s="134"/>
+      <c r="AD88" s="134"/>
+      <c r="AE88" s="134"/>
+      <c r="AF88" s="134"/>
+      <c r="AG88" s="134"/>
+      <c r="AH88" s="134"/>
+      <c r="AI88" s="135"/>
       <c r="AJ88" s="69"/>
       <c r="AK88" s="70"/>
       <c r="AL88" s="71"/>
@@ -6711,40 +6738,40 @@
     </row>
     <row r="89" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="142"/>
-      <c r="C89" s="113"/>
-      <c r="D89" s="113"/>
-      <c r="E89" s="113"/>
-      <c r="F89" s="113"/>
-      <c r="G89" s="113"/>
-      <c r="H89" s="113"/>
-      <c r="I89" s="113"/>
-      <c r="J89" s="112"/>
-      <c r="K89" s="113"/>
-      <c r="L89" s="113"/>
-      <c r="M89" s="113"/>
-      <c r="N89" s="113"/>
-      <c r="O89" s="114"/>
-      <c r="P89" s="114"/>
-      <c r="Q89" s="114"/>
-      <c r="R89" s="114"/>
-      <c r="S89" s="114"/>
-      <c r="T89" s="114"/>
-      <c r="U89" s="114"/>
-      <c r="V89" s="114"/>
-      <c r="W89" s="115"/>
-      <c r="X89" s="161"/>
-      <c r="Y89" s="162"/>
-      <c r="Z89" s="162"/>
-      <c r="AA89" s="162"/>
-      <c r="AB89" s="162"/>
-      <c r="AC89" s="162"/>
-      <c r="AD89" s="162"/>
-      <c r="AE89" s="162"/>
-      <c r="AF89" s="162"/>
-      <c r="AG89" s="162"/>
-      <c r="AH89" s="162"/>
-      <c r="AI89" s="163"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="112"/>
+      <c r="D89" s="112"/>
+      <c r="E89" s="112"/>
+      <c r="F89" s="112"/>
+      <c r="G89" s="112"/>
+      <c r="H89" s="112"/>
+      <c r="I89" s="112"/>
+      <c r="J89" s="136"/>
+      <c r="K89" s="112"/>
+      <c r="L89" s="112"/>
+      <c r="M89" s="112"/>
+      <c r="N89" s="112"/>
+      <c r="O89" s="137"/>
+      <c r="P89" s="137"/>
+      <c r="Q89" s="137"/>
+      <c r="R89" s="137"/>
+      <c r="S89" s="137"/>
+      <c r="T89" s="137"/>
+      <c r="U89" s="137"/>
+      <c r="V89" s="137"/>
+      <c r="W89" s="138"/>
+      <c r="X89" s="133"/>
+      <c r="Y89" s="134"/>
+      <c r="Z89" s="134"/>
+      <c r="AA89" s="134"/>
+      <c r="AB89" s="134"/>
+      <c r="AC89" s="134"/>
+      <c r="AD89" s="134"/>
+      <c r="AE89" s="134"/>
+      <c r="AF89" s="134"/>
+      <c r="AG89" s="134"/>
+      <c r="AH89" s="134"/>
+      <c r="AI89" s="135"/>
       <c r="AJ89" s="69"/>
       <c r="AK89" s="70"/>
       <c r="AL89" s="71"/>
@@ -6769,40 +6796,40 @@
     </row>
     <row r="90" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="142"/>
-      <c r="C90" s="113"/>
-      <c r="D90" s="113"/>
-      <c r="E90" s="113"/>
-      <c r="F90" s="113"/>
-      <c r="G90" s="113"/>
-      <c r="H90" s="113"/>
-      <c r="I90" s="113"/>
-      <c r="J90" s="112"/>
-      <c r="K90" s="113"/>
-      <c r="L90" s="113"/>
-      <c r="M90" s="113"/>
-      <c r="N90" s="113"/>
-      <c r="O90" s="114"/>
-      <c r="P90" s="114"/>
-      <c r="Q90" s="114"/>
-      <c r="R90" s="114"/>
-      <c r="S90" s="114"/>
-      <c r="T90" s="114"/>
-      <c r="U90" s="114"/>
-      <c r="V90" s="114"/>
-      <c r="W90" s="115"/>
-      <c r="X90" s="161"/>
-      <c r="Y90" s="162"/>
-      <c r="Z90" s="162"/>
-      <c r="AA90" s="162"/>
-      <c r="AB90" s="162"/>
-      <c r="AC90" s="162"/>
-      <c r="AD90" s="162"/>
-      <c r="AE90" s="162"/>
-      <c r="AF90" s="162"/>
-      <c r="AG90" s="162"/>
-      <c r="AH90" s="162"/>
-      <c r="AI90" s="163"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="112"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="136"/>
+      <c r="K90" s="112"/>
+      <c r="L90" s="112"/>
+      <c r="M90" s="112"/>
+      <c r="N90" s="112"/>
+      <c r="O90" s="137"/>
+      <c r="P90" s="137"/>
+      <c r="Q90" s="137"/>
+      <c r="R90" s="137"/>
+      <c r="S90" s="137"/>
+      <c r="T90" s="137"/>
+      <c r="U90" s="137"/>
+      <c r="V90" s="137"/>
+      <c r="W90" s="138"/>
+      <c r="X90" s="133"/>
+      <c r="Y90" s="134"/>
+      <c r="Z90" s="134"/>
+      <c r="AA90" s="134"/>
+      <c r="AB90" s="134"/>
+      <c r="AC90" s="134"/>
+      <c r="AD90" s="134"/>
+      <c r="AE90" s="134"/>
+      <c r="AF90" s="134"/>
+      <c r="AG90" s="134"/>
+      <c r="AH90" s="134"/>
+      <c r="AI90" s="135"/>
       <c r="AJ90" s="69"/>
       <c r="AK90" s="70"/>
       <c r="AL90" s="71"/>
@@ -6827,40 +6854,40 @@
     </row>
     <row r="91" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="142"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
-      <c r="G91" s="113"/>
-      <c r="H91" s="113"/>
-      <c r="I91" s="113"/>
-      <c r="J91" s="113"/>
-      <c r="K91" s="113"/>
-      <c r="L91" s="113"/>
-      <c r="M91" s="113"/>
-      <c r="N91" s="113"/>
-      <c r="O91" s="114"/>
-      <c r="P91" s="114"/>
-      <c r="Q91" s="114"/>
-      <c r="R91" s="114"/>
-      <c r="S91" s="114"/>
-      <c r="T91" s="114"/>
-      <c r="U91" s="114"/>
-      <c r="V91" s="114"/>
-      <c r="W91" s="115"/>
-      <c r="X91" s="164"/>
-      <c r="Y91" s="165"/>
-      <c r="Z91" s="165"/>
-      <c r="AA91" s="165"/>
-      <c r="AB91" s="165"/>
-      <c r="AC91" s="165"/>
-      <c r="AD91" s="165"/>
-      <c r="AE91" s="165"/>
-      <c r="AF91" s="165"/>
-      <c r="AG91" s="165"/>
-      <c r="AH91" s="165"/>
-      <c r="AI91" s="166"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="112"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="112"/>
+      <c r="G91" s="112"/>
+      <c r="H91" s="112"/>
+      <c r="I91" s="112"/>
+      <c r="J91" s="112"/>
+      <c r="K91" s="112"/>
+      <c r="L91" s="112"/>
+      <c r="M91" s="112"/>
+      <c r="N91" s="112"/>
+      <c r="O91" s="137"/>
+      <c r="P91" s="137"/>
+      <c r="Q91" s="137"/>
+      <c r="R91" s="137"/>
+      <c r="S91" s="137"/>
+      <c r="T91" s="137"/>
+      <c r="U91" s="137"/>
+      <c r="V91" s="137"/>
+      <c r="W91" s="138"/>
+      <c r="X91" s="154"/>
+      <c r="Y91" s="155"/>
+      <c r="Z91" s="155"/>
+      <c r="AA91" s="155"/>
+      <c r="AB91" s="155"/>
+      <c r="AC91" s="155"/>
+      <c r="AD91" s="155"/>
+      <c r="AE91" s="155"/>
+      <c r="AF91" s="155"/>
+      <c r="AG91" s="155"/>
+      <c r="AH91" s="155"/>
+      <c r="AI91" s="156"/>
       <c r="AJ91" s="69"/>
       <c r="AK91" s="70"/>
       <c r="AL91" s="71"/>
@@ -6885,40 +6912,40 @@
     </row>
     <row r="92" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="142"/>
-      <c r="C92" s="113"/>
-      <c r="D92" s="113"/>
-      <c r="E92" s="113"/>
-      <c r="F92" s="113"/>
-      <c r="G92" s="113"/>
-      <c r="H92" s="113"/>
-      <c r="I92" s="113"/>
-      <c r="J92" s="113"/>
-      <c r="K92" s="113"/>
-      <c r="L92" s="113"/>
-      <c r="M92" s="113"/>
-      <c r="N92" s="113"/>
-      <c r="O92" s="114"/>
-      <c r="P92" s="114"/>
-      <c r="Q92" s="114"/>
-      <c r="R92" s="114"/>
-      <c r="S92" s="114"/>
-      <c r="T92" s="114"/>
-      <c r="U92" s="114"/>
-      <c r="V92" s="114"/>
-      <c r="W92" s="115"/>
-      <c r="X92" s="164"/>
-      <c r="Y92" s="165"/>
-      <c r="Z92" s="165"/>
-      <c r="AA92" s="165"/>
-      <c r="AB92" s="165"/>
-      <c r="AC92" s="165"/>
-      <c r="AD92" s="165"/>
-      <c r="AE92" s="165"/>
-      <c r="AF92" s="165"/>
-      <c r="AG92" s="165"/>
-      <c r="AH92" s="165"/>
-      <c r="AI92" s="166"/>
+      <c r="B92" s="111"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="112"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="112"/>
+      <c r="G92" s="112"/>
+      <c r="H92" s="112"/>
+      <c r="I92" s="112"/>
+      <c r="J92" s="112"/>
+      <c r="K92" s="112"/>
+      <c r="L92" s="112"/>
+      <c r="M92" s="112"/>
+      <c r="N92" s="112"/>
+      <c r="O92" s="137"/>
+      <c r="P92" s="137"/>
+      <c r="Q92" s="137"/>
+      <c r="R92" s="137"/>
+      <c r="S92" s="137"/>
+      <c r="T92" s="137"/>
+      <c r="U92" s="137"/>
+      <c r="V92" s="137"/>
+      <c r="W92" s="138"/>
+      <c r="X92" s="154"/>
+      <c r="Y92" s="155"/>
+      <c r="Z92" s="155"/>
+      <c r="AA92" s="155"/>
+      <c r="AB92" s="155"/>
+      <c r="AC92" s="155"/>
+      <c r="AD92" s="155"/>
+      <c r="AE92" s="155"/>
+      <c r="AF92" s="155"/>
+      <c r="AG92" s="155"/>
+      <c r="AH92" s="155"/>
+      <c r="AI92" s="156"/>
       <c r="AJ92" s="69"/>
       <c r="AK92" s="70"/>
       <c r="AL92" s="71"/>
@@ -6943,40 +6970,40 @@
     </row>
     <row r="93" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
-      <c r="B93" s="116"/>
-      <c r="C93" s="117"/>
-      <c r="D93" s="117"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="117"/>
-      <c r="G93" s="117"/>
-      <c r="H93" s="117"/>
-      <c r="I93" s="117"/>
-      <c r="J93" s="117"/>
-      <c r="K93" s="117"/>
-      <c r="L93" s="117"/>
-      <c r="M93" s="117"/>
-      <c r="N93" s="117"/>
-      <c r="O93" s="140"/>
-      <c r="P93" s="140"/>
-      <c r="Q93" s="140"/>
-      <c r="R93" s="140"/>
-      <c r="S93" s="140"/>
-      <c r="T93" s="140"/>
-      <c r="U93" s="140"/>
-      <c r="V93" s="140"/>
-      <c r="W93" s="141"/>
-      <c r="X93" s="118"/>
-      <c r="Y93" s="119"/>
-      <c r="Z93" s="119"/>
-      <c r="AA93" s="119"/>
-      <c r="AB93" s="119"/>
-      <c r="AC93" s="119"/>
-      <c r="AD93" s="119"/>
-      <c r="AE93" s="119"/>
-      <c r="AF93" s="119"/>
-      <c r="AG93" s="119"/>
-      <c r="AH93" s="119"/>
-      <c r="AI93" s="120"/>
+      <c r="B93" s="124"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="125"/>
+      <c r="E93" s="125"/>
+      <c r="F93" s="125"/>
+      <c r="G93" s="125"/>
+      <c r="H93" s="125"/>
+      <c r="I93" s="125"/>
+      <c r="J93" s="125"/>
+      <c r="K93" s="125"/>
+      <c r="L93" s="125"/>
+      <c r="M93" s="125"/>
+      <c r="N93" s="125"/>
+      <c r="O93" s="159"/>
+      <c r="P93" s="159"/>
+      <c r="Q93" s="159"/>
+      <c r="R93" s="159"/>
+      <c r="S93" s="159"/>
+      <c r="T93" s="159"/>
+      <c r="U93" s="159"/>
+      <c r="V93" s="159"/>
+      <c r="W93" s="160"/>
+      <c r="X93" s="176"/>
+      <c r="Y93" s="177"/>
+      <c r="Z93" s="177"/>
+      <c r="AA93" s="177"/>
+      <c r="AB93" s="177"/>
+      <c r="AC93" s="177"/>
+      <c r="AD93" s="177"/>
+      <c r="AE93" s="177"/>
+      <c r="AF93" s="177"/>
+      <c r="AG93" s="177"/>
+      <c r="AH93" s="177"/>
+      <c r="AI93" s="178"/>
       <c r="AJ93" s="72"/>
       <c r="AK93" s="73"/>
       <c r="AL93" s="74"/>
@@ -7041,154 +7068,154 @@
     </row>
     <row r="95" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
-      <c r="B95" s="156" t="s">
+      <c r="B95" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="156"/>
-      <c r="D95" s="156"/>
-      <c r="E95" s="156"/>
-      <c r="F95" s="156"/>
-      <c r="G95" s="156"/>
-      <c r="H95" s="156"/>
-      <c r="I95" s="156"/>
-      <c r="J95" s="156"/>
-      <c r="K95" s="156"/>
-      <c r="L95" s="156"/>
-      <c r="M95" s="156"/>
-      <c r="N95" s="156"/>
-      <c r="O95" s="156"/>
-      <c r="P95" s="156"/>
-      <c r="Q95" s="156"/>
-      <c r="R95" s="156"/>
-      <c r="S95" s="156"/>
-      <c r="T95" s="156"/>
-      <c r="U95" s="156"/>
-      <c r="V95" s="156"/>
-      <c r="W95" s="156"/>
-      <c r="X95" s="156"/>
-      <c r="Y95" s="156"/>
-      <c r="Z95" s="156"/>
-      <c r="AA95" s="156"/>
-      <c r="AB95" s="156"/>
-      <c r="AC95" s="156"/>
-      <c r="AD95" s="156"/>
-      <c r="AE95" s="156"/>
-      <c r="AF95" s="156"/>
-      <c r="AG95" s="156"/>
-      <c r="AH95" s="156"/>
-      <c r="AI95" s="156"/>
-      <c r="AJ95" s="156"/>
-      <c r="AK95" s="156"/>
-      <c r="AL95" s="156"/>
-      <c r="AM95" s="156"/>
-      <c r="AN95" s="156"/>
-      <c r="AO95" s="156"/>
-      <c r="AP95" s="156"/>
-      <c r="AQ95" s="156"/>
-      <c r="AR95" s="156"/>
-      <c r="AS95" s="156"/>
-      <c r="AT95" s="156"/>
+      <c r="C95" s="164"/>
+      <c r="D95" s="164"/>
+      <c r="E95" s="164"/>
+      <c r="F95" s="164"/>
+      <c r="G95" s="164"/>
+      <c r="H95" s="164"/>
+      <c r="I95" s="164"/>
+      <c r="J95" s="164"/>
+      <c r="K95" s="164"/>
+      <c r="L95" s="164"/>
+      <c r="M95" s="164"/>
+      <c r="N95" s="164"/>
+      <c r="O95" s="164"/>
+      <c r="P95" s="164"/>
+      <c r="Q95" s="164"/>
+      <c r="R95" s="164"/>
+      <c r="S95" s="164"/>
+      <c r="T95" s="164"/>
+      <c r="U95" s="164"/>
+      <c r="V95" s="164"/>
+      <c r="W95" s="164"/>
+      <c r="X95" s="164"/>
+      <c r="Y95" s="164"/>
+      <c r="Z95" s="164"/>
+      <c r="AA95" s="164"/>
+      <c r="AB95" s="164"/>
+      <c r="AC95" s="164"/>
+      <c r="AD95" s="164"/>
+      <c r="AE95" s="164"/>
+      <c r="AF95" s="164"/>
+      <c r="AG95" s="164"/>
+      <c r="AH95" s="164"/>
+      <c r="AI95" s="164"/>
+      <c r="AJ95" s="164"/>
+      <c r="AK95" s="164"/>
+      <c r="AL95" s="164"/>
+      <c r="AM95" s="164"/>
+      <c r="AN95" s="164"/>
+      <c r="AO95" s="164"/>
+      <c r="AP95" s="164"/>
+      <c r="AQ95" s="164"/>
+      <c r="AR95" s="164"/>
+      <c r="AS95" s="164"/>
+      <c r="AT95" s="164"/>
       <c r="AU95" s="8"/>
     </row>
     <row r="96" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
-      <c r="B96" s="156" t="s">
+      <c r="B96" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="156"/>
-      <c r="D96" s="156"/>
-      <c r="E96" s="156"/>
-      <c r="F96" s="156"/>
-      <c r="G96" s="156"/>
-      <c r="H96" s="156"/>
-      <c r="I96" s="156"/>
-      <c r="J96" s="156"/>
-      <c r="K96" s="156"/>
-      <c r="L96" s="156"/>
-      <c r="M96" s="156"/>
-      <c r="N96" s="156"/>
-      <c r="O96" s="156"/>
-      <c r="P96" s="156"/>
-      <c r="Q96" s="156"/>
-      <c r="R96" s="156"/>
-      <c r="S96" s="156"/>
-      <c r="T96" s="156"/>
-      <c r="U96" s="156"/>
-      <c r="V96" s="156"/>
-      <c r="W96" s="156"/>
-      <c r="X96" s="156"/>
-      <c r="Y96" s="156"/>
-      <c r="Z96" s="156"/>
-      <c r="AA96" s="156"/>
-      <c r="AB96" s="156"/>
-      <c r="AC96" s="156"/>
-      <c r="AD96" s="156"/>
-      <c r="AE96" s="156"/>
-      <c r="AF96" s="156"/>
-      <c r="AG96" s="156"/>
-      <c r="AH96" s="156"/>
-      <c r="AI96" s="156"/>
-      <c r="AJ96" s="156"/>
-      <c r="AK96" s="156"/>
-      <c r="AL96" s="156"/>
-      <c r="AM96" s="156"/>
-      <c r="AN96" s="156"/>
-      <c r="AO96" s="156"/>
-      <c r="AP96" s="156"/>
-      <c r="AQ96" s="156"/>
-      <c r="AR96" s="156"/>
-      <c r="AS96" s="156"/>
-      <c r="AT96" s="156"/>
+      <c r="C96" s="164"/>
+      <c r="D96" s="164"/>
+      <c r="E96" s="164"/>
+      <c r="F96" s="164"/>
+      <c r="G96" s="164"/>
+      <c r="H96" s="164"/>
+      <c r="I96" s="164"/>
+      <c r="J96" s="164"/>
+      <c r="K96" s="164"/>
+      <c r="L96" s="164"/>
+      <c r="M96" s="164"/>
+      <c r="N96" s="164"/>
+      <c r="O96" s="164"/>
+      <c r="P96" s="164"/>
+      <c r="Q96" s="164"/>
+      <c r="R96" s="164"/>
+      <c r="S96" s="164"/>
+      <c r="T96" s="164"/>
+      <c r="U96" s="164"/>
+      <c r="V96" s="164"/>
+      <c r="W96" s="164"/>
+      <c r="X96" s="164"/>
+      <c r="Y96" s="164"/>
+      <c r="Z96" s="164"/>
+      <c r="AA96" s="164"/>
+      <c r="AB96" s="164"/>
+      <c r="AC96" s="164"/>
+      <c r="AD96" s="164"/>
+      <c r="AE96" s="164"/>
+      <c r="AF96" s="164"/>
+      <c r="AG96" s="164"/>
+      <c r="AH96" s="164"/>
+      <c r="AI96" s="164"/>
+      <c r="AJ96" s="164"/>
+      <c r="AK96" s="164"/>
+      <c r="AL96" s="164"/>
+      <c r="AM96" s="164"/>
+      <c r="AN96" s="164"/>
+      <c r="AO96" s="164"/>
+      <c r="AP96" s="164"/>
+      <c r="AQ96" s="164"/>
+      <c r="AR96" s="164"/>
+      <c r="AS96" s="164"/>
+      <c r="AT96" s="164"/>
       <c r="AU96" s="8"/>
     </row>
     <row r="97" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="110" t="s">
+      <c r="C97" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="110"/>
-      <c r="E97" s="110"/>
-      <c r="F97" s="110"/>
-      <c r="G97" s="110"/>
-      <c r="H97" s="110"/>
-      <c r="I97" s="110"/>
-      <c r="J97" s="110"/>
-      <c r="K97" s="110"/>
-      <c r="L97" s="110"/>
-      <c r="M97" s="110"/>
-      <c r="N97" s="110"/>
-      <c r="O97" s="110"/>
-      <c r="P97" s="110"/>
-      <c r="Q97" s="110"/>
-      <c r="R97" s="110"/>
-      <c r="S97" s="110"/>
-      <c r="T97" s="110"/>
-      <c r="U97" s="110"/>
-      <c r="V97" s="110"/>
-      <c r="W97" s="110"/>
-      <c r="X97" s="110"/>
-      <c r="Y97" s="110"/>
-      <c r="Z97" s="110"/>
-      <c r="AA97" s="110"/>
-      <c r="AB97" s="110"/>
-      <c r="AC97" s="110"/>
-      <c r="AD97" s="110"/>
-      <c r="AE97" s="110"/>
-      <c r="AF97" s="110"/>
-      <c r="AG97" s="110"/>
-      <c r="AH97" s="110"/>
-      <c r="AI97" s="110"/>
-      <c r="AJ97" s="110"/>
-      <c r="AK97" s="110"/>
-      <c r="AL97" s="110"/>
-      <c r="AM97" s="110"/>
-      <c r="AN97" s="110"/>
-      <c r="AO97" s="110"/>
-      <c r="AP97" s="110"/>
-      <c r="AQ97" s="110"/>
-      <c r="AR97" s="110"/>
-      <c r="AS97" s="110"/>
+      <c r="D97" s="157"/>
+      <c r="E97" s="157"/>
+      <c r="F97" s="157"/>
+      <c r="G97" s="157"/>
+      <c r="H97" s="157"/>
+      <c r="I97" s="157"/>
+      <c r="J97" s="157"/>
+      <c r="K97" s="157"/>
+      <c r="L97" s="157"/>
+      <c r="M97" s="157"/>
+      <c r="N97" s="157"/>
+      <c r="O97" s="157"/>
+      <c r="P97" s="157"/>
+      <c r="Q97" s="157"/>
+      <c r="R97" s="157"/>
+      <c r="S97" s="157"/>
+      <c r="T97" s="157"/>
+      <c r="U97" s="157"/>
+      <c r="V97" s="157"/>
+      <c r="W97" s="157"/>
+      <c r="X97" s="157"/>
+      <c r="Y97" s="157"/>
+      <c r="Z97" s="157"/>
+      <c r="AA97" s="157"/>
+      <c r="AB97" s="157"/>
+      <c r="AC97" s="157"/>
+      <c r="AD97" s="157"/>
+      <c r="AE97" s="157"/>
+      <c r="AF97" s="157"/>
+      <c r="AG97" s="157"/>
+      <c r="AH97" s="157"/>
+      <c r="AI97" s="157"/>
+      <c r="AJ97" s="157"/>
+      <c r="AK97" s="157"/>
+      <c r="AL97" s="157"/>
+      <c r="AM97" s="157"/>
+      <c r="AN97" s="157"/>
+      <c r="AO97" s="157"/>
+      <c r="AP97" s="157"/>
+      <c r="AQ97" s="157"/>
+      <c r="AR97" s="157"/>
+      <c r="AS97" s="157"/>
       <c r="AT97" s="18"/>
       <c r="AU97" s="8"/>
     </row>
@@ -7243,53 +7270,53 @@
     </row>
     <row r="99" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
-      <c r="B99" s="149" t="s">
+      <c r="B99" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="C99" s="150"/>
-      <c r="D99" s="150"/>
-      <c r="E99" s="150"/>
-      <c r="F99" s="150"/>
-      <c r="G99" s="150"/>
-      <c r="H99" s="150"/>
-      <c r="I99" s="150"/>
-      <c r="J99" s="150"/>
-      <c r="K99" s="150"/>
-      <c r="L99" s="150"/>
-      <c r="M99" s="150"/>
-      <c r="N99" s="150"/>
-      <c r="O99" s="150"/>
-      <c r="P99" s="150"/>
-      <c r="Q99" s="150"/>
-      <c r="R99" s="150"/>
-      <c r="S99" s="150"/>
-      <c r="T99" s="150"/>
-      <c r="U99" s="150"/>
-      <c r="V99" s="150"/>
-      <c r="W99" s="150"/>
-      <c r="X99" s="150"/>
-      <c r="Y99" s="150"/>
-      <c r="Z99" s="150"/>
-      <c r="AA99" s="150"/>
-      <c r="AB99" s="150"/>
-      <c r="AC99" s="150"/>
-      <c r="AD99" s="150"/>
-      <c r="AE99" s="150"/>
-      <c r="AF99" s="150"/>
-      <c r="AG99" s="150"/>
-      <c r="AH99" s="150"/>
-      <c r="AI99" s="150"/>
-      <c r="AJ99" s="150"/>
-      <c r="AK99" s="150"/>
-      <c r="AL99" s="150"/>
-      <c r="AM99" s="150"/>
-      <c r="AN99" s="150"/>
-      <c r="AO99" s="150"/>
-      <c r="AP99" s="150"/>
-      <c r="AQ99" s="150"/>
-      <c r="AR99" s="150"/>
-      <c r="AS99" s="150"/>
-      <c r="AT99" s="151"/>
+      <c r="C99" s="131"/>
+      <c r="D99" s="131"/>
+      <c r="E99" s="131"/>
+      <c r="F99" s="131"/>
+      <c r="G99" s="131"/>
+      <c r="H99" s="131"/>
+      <c r="I99" s="131"/>
+      <c r="J99" s="131"/>
+      <c r="K99" s="131"/>
+      <c r="L99" s="131"/>
+      <c r="M99" s="131"/>
+      <c r="N99" s="131"/>
+      <c r="O99" s="131"/>
+      <c r="P99" s="131"/>
+      <c r="Q99" s="131"/>
+      <c r="R99" s="131"/>
+      <c r="S99" s="131"/>
+      <c r="T99" s="131"/>
+      <c r="U99" s="131"/>
+      <c r="V99" s="131"/>
+      <c r="W99" s="131"/>
+      <c r="X99" s="131"/>
+      <c r="Y99" s="131"/>
+      <c r="Z99" s="131"/>
+      <c r="AA99" s="131"/>
+      <c r="AB99" s="131"/>
+      <c r="AC99" s="131"/>
+      <c r="AD99" s="131"/>
+      <c r="AE99" s="131"/>
+      <c r="AF99" s="131"/>
+      <c r="AG99" s="131"/>
+      <c r="AH99" s="131"/>
+      <c r="AI99" s="131"/>
+      <c r="AJ99" s="131"/>
+      <c r="AK99" s="131"/>
+      <c r="AL99" s="131"/>
+      <c r="AM99" s="131"/>
+      <c r="AN99" s="131"/>
+      <c r="AO99" s="131"/>
+      <c r="AP99" s="131"/>
+      <c r="AQ99" s="131"/>
+      <c r="AR99" s="131"/>
+      <c r="AS99" s="131"/>
+      <c r="AT99" s="132"/>
       <c r="AU99" s="8"/>
     </row>
     <row r="100" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7343,361 +7370,361 @@
     </row>
     <row r="101" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
-      <c r="B101" s="152" t="s">
+      <c r="B101" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="153"/>
-      <c r="D101" s="153"/>
-      <c r="E101" s="153"/>
-      <c r="F101" s="153"/>
-      <c r="G101" s="153" t="s">
+      <c r="C101" s="108"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="108"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="H101" s="153"/>
-      <c r="I101" s="153"/>
-      <c r="J101" s="153"/>
-      <c r="K101" s="153"/>
-      <c r="L101" s="153"/>
-      <c r="M101" s="153"/>
-      <c r="N101" s="153"/>
-      <c r="O101" s="153"/>
-      <c r="P101" s="153"/>
-      <c r="Q101" s="153"/>
-      <c r="R101" s="154" t="s">
+      <c r="H101" s="108"/>
+      <c r="I101" s="108"/>
+      <c r="J101" s="108"/>
+      <c r="K101" s="108"/>
+      <c r="L101" s="108"/>
+      <c r="M101" s="108"/>
+      <c r="N101" s="108"/>
+      <c r="O101" s="108"/>
+      <c r="P101" s="108"/>
+      <c r="Q101" s="108"/>
+      <c r="R101" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="S101" s="154"/>
-      <c r="T101" s="154"/>
-      <c r="U101" s="154"/>
-      <c r="V101" s="154" t="s">
+      <c r="S101" s="109"/>
+      <c r="T101" s="109"/>
+      <c r="U101" s="109"/>
+      <c r="V101" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="W101" s="154"/>
-      <c r="X101" s="155"/>
+      <c r="W101" s="109"/>
+      <c r="X101" s="110"/>
       <c r="Y101" s="13"/>
-      <c r="Z101" s="152" t="s">
+      <c r="Z101" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="AA101" s="153"/>
-      <c r="AB101" s="153"/>
-      <c r="AC101" s="153"/>
-      <c r="AD101" s="153" t="s">
+      <c r="AA101" s="108"/>
+      <c r="AB101" s="108"/>
+      <c r="AC101" s="108"/>
+      <c r="AD101" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="AE101" s="153"/>
-      <c r="AF101" s="153"/>
-      <c r="AG101" s="153"/>
-      <c r="AH101" s="153"/>
-      <c r="AI101" s="153"/>
-      <c r="AJ101" s="153"/>
-      <c r="AK101" s="153"/>
-      <c r="AL101" s="153"/>
-      <c r="AM101" s="153"/>
-      <c r="AN101" s="154" t="s">
+      <c r="AE101" s="108"/>
+      <c r="AF101" s="108"/>
+      <c r="AG101" s="108"/>
+      <c r="AH101" s="108"/>
+      <c r="AI101" s="108"/>
+      <c r="AJ101" s="108"/>
+      <c r="AK101" s="108"/>
+      <c r="AL101" s="108"/>
+      <c r="AM101" s="108"/>
+      <c r="AN101" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="AO101" s="154"/>
-      <c r="AP101" s="154"/>
-      <c r="AQ101" s="154"/>
-      <c r="AR101" s="154" t="s">
+      <c r="AO101" s="109"/>
+      <c r="AP101" s="109"/>
+      <c r="AQ101" s="109"/>
+      <c r="AR101" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="AS101" s="154"/>
-      <c r="AT101" s="155"/>
+      <c r="AS101" s="109"/>
+      <c r="AT101" s="110"/>
       <c r="AU101" s="8"/>
     </row>
     <row r="102" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
-      <c r="B102" s="142"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
-      <c r="G102" s="113"/>
-      <c r="H102" s="113"/>
-      <c r="I102" s="113"/>
-      <c r="J102" s="113"/>
-      <c r="K102" s="113"/>
-      <c r="L102" s="113"/>
-      <c r="M102" s="113"/>
-      <c r="N102" s="113"/>
-      <c r="O102" s="113"/>
-      <c r="P102" s="113"/>
-      <c r="Q102" s="113"/>
-      <c r="R102" s="175"/>
-      <c r="S102" s="175"/>
-      <c r="T102" s="175"/>
-      <c r="U102" s="175"/>
-      <c r="V102" s="179"/>
-      <c r="W102" s="175"/>
-      <c r="X102" s="176"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="112"/>
+      <c r="D102" s="112"/>
+      <c r="E102" s="112"/>
+      <c r="F102" s="112"/>
+      <c r="G102" s="112"/>
+      <c r="H102" s="112"/>
+      <c r="I102" s="112"/>
+      <c r="J102" s="112"/>
+      <c r="K102" s="112"/>
+      <c r="L102" s="112"/>
+      <c r="M102" s="112"/>
+      <c r="N102" s="112"/>
+      <c r="O102" s="112"/>
+      <c r="P102" s="112"/>
+      <c r="Q102" s="112"/>
+      <c r="R102" s="113"/>
+      <c r="S102" s="113"/>
+      <c r="T102" s="113"/>
+      <c r="U102" s="113"/>
+      <c r="V102" s="129"/>
+      <c r="W102" s="113"/>
+      <c r="X102" s="114"/>
       <c r="Y102" s="51"/>
-      <c r="Z102" s="142"/>
-      <c r="AA102" s="113"/>
-      <c r="AB102" s="113"/>
-      <c r="AC102" s="113"/>
-      <c r="AD102" s="113"/>
-      <c r="AE102" s="113"/>
-      <c r="AF102" s="113"/>
-      <c r="AG102" s="113"/>
-      <c r="AH102" s="113"/>
-      <c r="AI102" s="113"/>
-      <c r="AJ102" s="113"/>
-      <c r="AK102" s="113"/>
-      <c r="AL102" s="113"/>
-      <c r="AM102" s="113"/>
-      <c r="AN102" s="175"/>
-      <c r="AO102" s="175"/>
-      <c r="AP102" s="175"/>
-      <c r="AQ102" s="175"/>
-      <c r="AR102" s="175"/>
-      <c r="AS102" s="175"/>
-      <c r="AT102" s="176"/>
+      <c r="Z102" s="111"/>
+      <c r="AA102" s="112"/>
+      <c r="AB102" s="112"/>
+      <c r="AC102" s="112"/>
+      <c r="AD102" s="112"/>
+      <c r="AE102" s="112"/>
+      <c r="AF102" s="112"/>
+      <c r="AG102" s="112"/>
+      <c r="AH102" s="112"/>
+      <c r="AI102" s="112"/>
+      <c r="AJ102" s="112"/>
+      <c r="AK102" s="112"/>
+      <c r="AL102" s="112"/>
+      <c r="AM102" s="112"/>
+      <c r="AN102" s="113"/>
+      <c r="AO102" s="113"/>
+      <c r="AP102" s="113"/>
+      <c r="AQ102" s="113"/>
+      <c r="AR102" s="113"/>
+      <c r="AS102" s="113"/>
+      <c r="AT102" s="114"/>
       <c r="AU102" s="8"/>
     </row>
     <row r="103" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
-      <c r="B103" s="142"/>
-      <c r="C103" s="113"/>
-      <c r="D103" s="113"/>
-      <c r="E103" s="113"/>
-      <c r="F103" s="113"/>
-      <c r="G103" s="113"/>
-      <c r="H103" s="113"/>
-      <c r="I103" s="113"/>
-      <c r="J103" s="113"/>
-      <c r="K103" s="113"/>
-      <c r="L103" s="113"/>
-      <c r="M103" s="113"/>
-      <c r="N103" s="113"/>
-      <c r="O103" s="113"/>
-      <c r="P103" s="113"/>
-      <c r="Q103" s="113"/>
-      <c r="R103" s="175"/>
-      <c r="S103" s="175"/>
-      <c r="T103" s="175"/>
-      <c r="U103" s="175"/>
-      <c r="V103" s="175"/>
-      <c r="W103" s="175"/>
-      <c r="X103" s="176"/>
+      <c r="B103" s="111"/>
+      <c r="C103" s="112"/>
+      <c r="D103" s="112"/>
+      <c r="E103" s="112"/>
+      <c r="F103" s="112"/>
+      <c r="G103" s="112"/>
+      <c r="H103" s="112"/>
+      <c r="I103" s="112"/>
+      <c r="J103" s="112"/>
+      <c r="K103" s="112"/>
+      <c r="L103" s="112"/>
+      <c r="M103" s="112"/>
+      <c r="N103" s="112"/>
+      <c r="O103" s="112"/>
+      <c r="P103" s="112"/>
+      <c r="Q103" s="112"/>
+      <c r="R103" s="113"/>
+      <c r="S103" s="113"/>
+      <c r="T103" s="113"/>
+      <c r="U103" s="113"/>
+      <c r="V103" s="113"/>
+      <c r="W103" s="113"/>
+      <c r="X103" s="114"/>
       <c r="Y103" s="51"/>
-      <c r="Z103" s="142"/>
-      <c r="AA103" s="113"/>
-      <c r="AB103" s="113"/>
-      <c r="AC103" s="113"/>
-      <c r="AD103" s="113"/>
-      <c r="AE103" s="113"/>
-      <c r="AF103" s="113"/>
-      <c r="AG103" s="113"/>
-      <c r="AH103" s="113"/>
-      <c r="AI103" s="113"/>
-      <c r="AJ103" s="113"/>
-      <c r="AK103" s="113"/>
-      <c r="AL103" s="113"/>
-      <c r="AM103" s="113"/>
-      <c r="AN103" s="175"/>
-      <c r="AO103" s="175"/>
-      <c r="AP103" s="175"/>
-      <c r="AQ103" s="175"/>
-      <c r="AR103" s="175"/>
-      <c r="AS103" s="175"/>
-      <c r="AT103" s="176"/>
+      <c r="Z103" s="111"/>
+      <c r="AA103" s="112"/>
+      <c r="AB103" s="112"/>
+      <c r="AC103" s="112"/>
+      <c r="AD103" s="112"/>
+      <c r="AE103" s="112"/>
+      <c r="AF103" s="112"/>
+      <c r="AG103" s="112"/>
+      <c r="AH103" s="112"/>
+      <c r="AI103" s="112"/>
+      <c r="AJ103" s="112"/>
+      <c r="AK103" s="112"/>
+      <c r="AL103" s="112"/>
+      <c r="AM103" s="112"/>
+      <c r="AN103" s="113"/>
+      <c r="AO103" s="113"/>
+      <c r="AP103" s="113"/>
+      <c r="AQ103" s="113"/>
+      <c r="AR103" s="113"/>
+      <c r="AS103" s="113"/>
+      <c r="AT103" s="114"/>
       <c r="AU103" s="8"/>
     </row>
     <row r="104" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
-      <c r="B104" s="142"/>
-      <c r="C104" s="113"/>
-      <c r="D104" s="113"/>
-      <c r="E104" s="113"/>
-      <c r="F104" s="113"/>
-      <c r="G104" s="113"/>
-      <c r="H104" s="113"/>
-      <c r="I104" s="113"/>
-      <c r="J104" s="113"/>
-      <c r="K104" s="113"/>
-      <c r="L104" s="113"/>
-      <c r="M104" s="113"/>
-      <c r="N104" s="113"/>
-      <c r="O104" s="113"/>
-      <c r="P104" s="113"/>
-      <c r="Q104" s="113"/>
-      <c r="R104" s="175"/>
-      <c r="S104" s="175"/>
-      <c r="T104" s="175"/>
-      <c r="U104" s="175"/>
-      <c r="V104" s="175"/>
-      <c r="W104" s="175"/>
-      <c r="X104" s="176"/>
+      <c r="B104" s="111"/>
+      <c r="C104" s="112"/>
+      <c r="D104" s="112"/>
+      <c r="E104" s="112"/>
+      <c r="F104" s="112"/>
+      <c r="G104" s="112"/>
+      <c r="H104" s="112"/>
+      <c r="I104" s="112"/>
+      <c r="J104" s="112"/>
+      <c r="K104" s="112"/>
+      <c r="L104" s="112"/>
+      <c r="M104" s="112"/>
+      <c r="N104" s="112"/>
+      <c r="O104" s="112"/>
+      <c r="P104" s="112"/>
+      <c r="Q104" s="112"/>
+      <c r="R104" s="113"/>
+      <c r="S104" s="113"/>
+      <c r="T104" s="113"/>
+      <c r="U104" s="113"/>
+      <c r="V104" s="113"/>
+      <c r="W104" s="113"/>
+      <c r="X104" s="114"/>
       <c r="Y104" s="51"/>
-      <c r="Z104" s="142"/>
-      <c r="AA104" s="113"/>
-      <c r="AB104" s="113"/>
-      <c r="AC104" s="113"/>
-      <c r="AD104" s="113"/>
-      <c r="AE104" s="113"/>
-      <c r="AF104" s="113"/>
-      <c r="AG104" s="113"/>
-      <c r="AH104" s="113"/>
-      <c r="AI104" s="113"/>
-      <c r="AJ104" s="113"/>
-      <c r="AK104" s="113"/>
-      <c r="AL104" s="113"/>
-      <c r="AM104" s="113"/>
-      <c r="AN104" s="175"/>
-      <c r="AO104" s="175"/>
-      <c r="AP104" s="175"/>
-      <c r="AQ104" s="175"/>
-      <c r="AR104" s="175"/>
-      <c r="AS104" s="175"/>
-      <c r="AT104" s="176"/>
+      <c r="Z104" s="111"/>
+      <c r="AA104" s="112"/>
+      <c r="AB104" s="112"/>
+      <c r="AC104" s="112"/>
+      <c r="AD104" s="112"/>
+      <c r="AE104" s="112"/>
+      <c r="AF104" s="112"/>
+      <c r="AG104" s="112"/>
+      <c r="AH104" s="112"/>
+      <c r="AI104" s="112"/>
+      <c r="AJ104" s="112"/>
+      <c r="AK104" s="112"/>
+      <c r="AL104" s="112"/>
+      <c r="AM104" s="112"/>
+      <c r="AN104" s="113"/>
+      <c r="AO104" s="113"/>
+      <c r="AP104" s="113"/>
+      <c r="AQ104" s="113"/>
+      <c r="AR104" s="113"/>
+      <c r="AS104" s="113"/>
+      <c r="AT104" s="114"/>
       <c r="AU104" s="8"/>
     </row>
     <row r="105" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
-      <c r="B105" s="142"/>
-      <c r="C105" s="113"/>
-      <c r="D105" s="113"/>
-      <c r="E105" s="113"/>
-      <c r="F105" s="113"/>
-      <c r="G105" s="113"/>
-      <c r="H105" s="113"/>
-      <c r="I105" s="113"/>
-      <c r="J105" s="113"/>
-      <c r="K105" s="113"/>
-      <c r="L105" s="113"/>
-      <c r="M105" s="113"/>
-      <c r="N105" s="113"/>
-      <c r="O105" s="113"/>
-      <c r="P105" s="113"/>
-      <c r="Q105" s="113"/>
-      <c r="R105" s="175"/>
-      <c r="S105" s="175"/>
-      <c r="T105" s="175"/>
-      <c r="U105" s="175"/>
-      <c r="V105" s="175"/>
-      <c r="W105" s="175"/>
-      <c r="X105" s="176"/>
+      <c r="B105" s="111"/>
+      <c r="C105" s="112"/>
+      <c r="D105" s="112"/>
+      <c r="E105" s="112"/>
+      <c r="F105" s="112"/>
+      <c r="G105" s="112"/>
+      <c r="H105" s="112"/>
+      <c r="I105" s="112"/>
+      <c r="J105" s="112"/>
+      <c r="K105" s="112"/>
+      <c r="L105" s="112"/>
+      <c r="M105" s="112"/>
+      <c r="N105" s="112"/>
+      <c r="O105" s="112"/>
+      <c r="P105" s="112"/>
+      <c r="Q105" s="112"/>
+      <c r="R105" s="113"/>
+      <c r="S105" s="113"/>
+      <c r="T105" s="113"/>
+      <c r="U105" s="113"/>
+      <c r="V105" s="113"/>
+      <c r="W105" s="113"/>
+      <c r="X105" s="114"/>
       <c r="Y105" s="51"/>
-      <c r="Z105" s="142"/>
-      <c r="AA105" s="113"/>
-      <c r="AB105" s="113"/>
-      <c r="AC105" s="113"/>
-      <c r="AD105" s="113"/>
-      <c r="AE105" s="113"/>
-      <c r="AF105" s="113"/>
-      <c r="AG105" s="113"/>
-      <c r="AH105" s="113"/>
-      <c r="AI105" s="113"/>
-      <c r="AJ105" s="113"/>
-      <c r="AK105" s="113"/>
-      <c r="AL105" s="113"/>
-      <c r="AM105" s="113"/>
-      <c r="AN105" s="175"/>
-      <c r="AO105" s="175"/>
-      <c r="AP105" s="175"/>
-      <c r="AQ105" s="175"/>
-      <c r="AR105" s="175"/>
-      <c r="AS105" s="175"/>
-      <c r="AT105" s="176"/>
+      <c r="Z105" s="111"/>
+      <c r="AA105" s="112"/>
+      <c r="AB105" s="112"/>
+      <c r="AC105" s="112"/>
+      <c r="AD105" s="112"/>
+      <c r="AE105" s="112"/>
+      <c r="AF105" s="112"/>
+      <c r="AG105" s="112"/>
+      <c r="AH105" s="112"/>
+      <c r="AI105" s="112"/>
+      <c r="AJ105" s="112"/>
+      <c r="AK105" s="112"/>
+      <c r="AL105" s="112"/>
+      <c r="AM105" s="112"/>
+      <c r="AN105" s="113"/>
+      <c r="AO105" s="113"/>
+      <c r="AP105" s="113"/>
+      <c r="AQ105" s="113"/>
+      <c r="AR105" s="113"/>
+      <c r="AS105" s="113"/>
+      <c r="AT105" s="114"/>
       <c r="AU105" s="8"/>
     </row>
     <row r="106" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
-      <c r="B106" s="142"/>
-      <c r="C106" s="113"/>
-      <c r="D106" s="113"/>
-      <c r="E106" s="113"/>
-      <c r="F106" s="113"/>
-      <c r="G106" s="113"/>
-      <c r="H106" s="113"/>
-      <c r="I106" s="113"/>
-      <c r="J106" s="113"/>
-      <c r="K106" s="113"/>
-      <c r="L106" s="113"/>
-      <c r="M106" s="113"/>
-      <c r="N106" s="113"/>
-      <c r="O106" s="113"/>
-      <c r="P106" s="113"/>
-      <c r="Q106" s="113"/>
-      <c r="R106" s="175"/>
-      <c r="S106" s="175"/>
-      <c r="T106" s="175"/>
-      <c r="U106" s="175"/>
-      <c r="V106" s="175"/>
-      <c r="W106" s="175"/>
-      <c r="X106" s="176"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="112"/>
+      <c r="E106" s="112"/>
+      <c r="F106" s="112"/>
+      <c r="G106" s="112"/>
+      <c r="H106" s="112"/>
+      <c r="I106" s="112"/>
+      <c r="J106" s="112"/>
+      <c r="K106" s="112"/>
+      <c r="L106" s="112"/>
+      <c r="M106" s="112"/>
+      <c r="N106" s="112"/>
+      <c r="O106" s="112"/>
+      <c r="P106" s="112"/>
+      <c r="Q106" s="112"/>
+      <c r="R106" s="113"/>
+      <c r="S106" s="113"/>
+      <c r="T106" s="113"/>
+      <c r="U106" s="113"/>
+      <c r="V106" s="113"/>
+      <c r="W106" s="113"/>
+      <c r="X106" s="114"/>
       <c r="Y106" s="51"/>
-      <c r="Z106" s="142"/>
-      <c r="AA106" s="113"/>
-      <c r="AB106" s="113"/>
-      <c r="AC106" s="113"/>
-      <c r="AD106" s="113"/>
-      <c r="AE106" s="113"/>
-      <c r="AF106" s="113"/>
-      <c r="AG106" s="113"/>
-      <c r="AH106" s="113"/>
-      <c r="AI106" s="113"/>
-      <c r="AJ106" s="113"/>
-      <c r="AK106" s="113"/>
-      <c r="AL106" s="113"/>
-      <c r="AM106" s="113"/>
-      <c r="AN106" s="175"/>
-      <c r="AO106" s="175"/>
-      <c r="AP106" s="175"/>
-      <c r="AQ106" s="175"/>
-      <c r="AR106" s="175"/>
-      <c r="AS106" s="175"/>
-      <c r="AT106" s="176"/>
+      <c r="Z106" s="111"/>
+      <c r="AA106" s="112"/>
+      <c r="AB106" s="112"/>
+      <c r="AC106" s="112"/>
+      <c r="AD106" s="112"/>
+      <c r="AE106" s="112"/>
+      <c r="AF106" s="112"/>
+      <c r="AG106" s="112"/>
+      <c r="AH106" s="112"/>
+      <c r="AI106" s="112"/>
+      <c r="AJ106" s="112"/>
+      <c r="AK106" s="112"/>
+      <c r="AL106" s="112"/>
+      <c r="AM106" s="112"/>
+      <c r="AN106" s="113"/>
+      <c r="AO106" s="113"/>
+      <c r="AP106" s="113"/>
+      <c r="AQ106" s="113"/>
+      <c r="AR106" s="113"/>
+      <c r="AS106" s="113"/>
+      <c r="AT106" s="114"/>
       <c r="AU106" s="8"/>
     </row>
     <row r="107" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
-      <c r="B107" s="116"/>
-      <c r="C107" s="117"/>
-      <c r="D107" s="117"/>
-      <c r="E107" s="117"/>
-      <c r="F107" s="117"/>
-      <c r="G107" s="117"/>
-      <c r="H107" s="117"/>
-      <c r="I107" s="117"/>
-      <c r="J107" s="117"/>
-      <c r="K107" s="117"/>
-      <c r="L107" s="117"/>
-      <c r="M107" s="117"/>
-      <c r="N107" s="117"/>
-      <c r="O107" s="117"/>
-      <c r="P107" s="117"/>
-      <c r="Q107" s="117"/>
-      <c r="R107" s="177"/>
-      <c r="S107" s="177"/>
-      <c r="T107" s="177"/>
-      <c r="U107" s="177"/>
-      <c r="V107" s="177"/>
-      <c r="W107" s="177"/>
-      <c r="X107" s="178"/>
+      <c r="B107" s="124"/>
+      <c r="C107" s="125"/>
+      <c r="D107" s="125"/>
+      <c r="E107" s="125"/>
+      <c r="F107" s="125"/>
+      <c r="G107" s="125"/>
+      <c r="H107" s="125"/>
+      <c r="I107" s="125"/>
+      <c r="J107" s="125"/>
+      <c r="K107" s="125"/>
+      <c r="L107" s="125"/>
+      <c r="M107" s="125"/>
+      <c r="N107" s="125"/>
+      <c r="O107" s="125"/>
+      <c r="P107" s="125"/>
+      <c r="Q107" s="125"/>
+      <c r="R107" s="126"/>
+      <c r="S107" s="126"/>
+      <c r="T107" s="126"/>
+      <c r="U107" s="126"/>
+      <c r="V107" s="126"/>
+      <c r="W107" s="126"/>
+      <c r="X107" s="127"/>
       <c r="Y107" s="51"/>
-      <c r="Z107" s="116"/>
-      <c r="AA107" s="117"/>
-      <c r="AB107" s="117"/>
-      <c r="AC107" s="117"/>
-      <c r="AD107" s="117"/>
-      <c r="AE107" s="117"/>
-      <c r="AF107" s="117"/>
-      <c r="AG107" s="117"/>
-      <c r="AH107" s="117"/>
-      <c r="AI107" s="117"/>
-      <c r="AJ107" s="117"/>
-      <c r="AK107" s="117"/>
-      <c r="AL107" s="117"/>
-      <c r="AM107" s="117"/>
-      <c r="AN107" s="177"/>
-      <c r="AO107" s="177"/>
-      <c r="AP107" s="177"/>
-      <c r="AQ107" s="177"/>
-      <c r="AR107" s="177"/>
-      <c r="AS107" s="177"/>
-      <c r="AT107" s="178"/>
+      <c r="Z107" s="124"/>
+      <c r="AA107" s="125"/>
+      <c r="AB107" s="125"/>
+      <c r="AC107" s="125"/>
+      <c r="AD107" s="125"/>
+      <c r="AE107" s="125"/>
+      <c r="AF107" s="125"/>
+      <c r="AG107" s="125"/>
+      <c r="AH107" s="125"/>
+      <c r="AI107" s="125"/>
+      <c r="AJ107" s="125"/>
+      <c r="AK107" s="125"/>
+      <c r="AL107" s="125"/>
+      <c r="AM107" s="125"/>
+      <c r="AN107" s="126"/>
+      <c r="AO107" s="126"/>
+      <c r="AP107" s="126"/>
+      <c r="AQ107" s="126"/>
+      <c r="AR107" s="126"/>
+      <c r="AS107" s="126"/>
+      <c r="AT107" s="127"/>
       <c r="AU107" s="8"/>
     </row>
     <row r="108" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7751,53 +7778,53 @@
     </row>
     <row r="109" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
-      <c r="B109" s="149" t="s">
+      <c r="B109" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="150"/>
-      <c r="D109" s="150"/>
-      <c r="E109" s="150"/>
-      <c r="F109" s="150"/>
-      <c r="G109" s="150"/>
-      <c r="H109" s="150"/>
-      <c r="I109" s="150"/>
-      <c r="J109" s="150"/>
-      <c r="K109" s="150"/>
-      <c r="L109" s="150"/>
-      <c r="M109" s="150"/>
-      <c r="N109" s="150"/>
-      <c r="O109" s="150"/>
-      <c r="P109" s="150"/>
-      <c r="Q109" s="150"/>
-      <c r="R109" s="150"/>
-      <c r="S109" s="150"/>
-      <c r="T109" s="150"/>
-      <c r="U109" s="150"/>
-      <c r="V109" s="150"/>
-      <c r="W109" s="150"/>
-      <c r="X109" s="150"/>
-      <c r="Y109" s="150"/>
-      <c r="Z109" s="150"/>
-      <c r="AA109" s="150"/>
-      <c r="AB109" s="150"/>
-      <c r="AC109" s="150"/>
-      <c r="AD109" s="150"/>
-      <c r="AE109" s="150"/>
-      <c r="AF109" s="150"/>
-      <c r="AG109" s="150"/>
-      <c r="AH109" s="150"/>
-      <c r="AI109" s="150"/>
-      <c r="AJ109" s="150"/>
-      <c r="AK109" s="150"/>
-      <c r="AL109" s="150"/>
-      <c r="AM109" s="150"/>
-      <c r="AN109" s="150"/>
-      <c r="AO109" s="150"/>
-      <c r="AP109" s="150"/>
-      <c r="AQ109" s="150"/>
-      <c r="AR109" s="150"/>
-      <c r="AS109" s="150"/>
-      <c r="AT109" s="151"/>
+      <c r="C109" s="131"/>
+      <c r="D109" s="131"/>
+      <c r="E109" s="131"/>
+      <c r="F109" s="131"/>
+      <c r="G109" s="131"/>
+      <c r="H109" s="131"/>
+      <c r="I109" s="131"/>
+      <c r="J109" s="131"/>
+      <c r="K109" s="131"/>
+      <c r="L109" s="131"/>
+      <c r="M109" s="131"/>
+      <c r="N109" s="131"/>
+      <c r="O109" s="131"/>
+      <c r="P109" s="131"/>
+      <c r="Q109" s="131"/>
+      <c r="R109" s="131"/>
+      <c r="S109" s="131"/>
+      <c r="T109" s="131"/>
+      <c r="U109" s="131"/>
+      <c r="V109" s="131"/>
+      <c r="W109" s="131"/>
+      <c r="X109" s="131"/>
+      <c r="Y109" s="131"/>
+      <c r="Z109" s="131"/>
+      <c r="AA109" s="131"/>
+      <c r="AB109" s="131"/>
+      <c r="AC109" s="131"/>
+      <c r="AD109" s="131"/>
+      <c r="AE109" s="131"/>
+      <c r="AF109" s="131"/>
+      <c r="AG109" s="131"/>
+      <c r="AH109" s="131"/>
+      <c r="AI109" s="131"/>
+      <c r="AJ109" s="131"/>
+      <c r="AK109" s="131"/>
+      <c r="AL109" s="131"/>
+      <c r="AM109" s="131"/>
+      <c r="AN109" s="131"/>
+      <c r="AO109" s="131"/>
+      <c r="AP109" s="131"/>
+      <c r="AQ109" s="131"/>
+      <c r="AR109" s="131"/>
+      <c r="AS109" s="131"/>
+      <c r="AT109" s="132"/>
       <c r="AU109" s="8"/>
     </row>
     <row r="110" spans="1:47" s="3" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7851,557 +7878,557 @@
     </row>
     <row r="111" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
-      <c r="B111" s="152" t="s">
+      <c r="B111" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="153"/>
-      <c r="D111" s="153"/>
-      <c r="E111" s="153"/>
-      <c r="F111" s="153"/>
-      <c r="G111" s="153" t="s">
+      <c r="C111" s="108"/>
+      <c r="D111" s="108"/>
+      <c r="E111" s="108"/>
+      <c r="F111" s="108"/>
+      <c r="G111" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="H111" s="153"/>
-      <c r="I111" s="153"/>
-      <c r="J111" s="153"/>
-      <c r="K111" s="153"/>
-      <c r="L111" s="153"/>
-      <c r="M111" s="153"/>
-      <c r="N111" s="153"/>
-      <c r="O111" s="153"/>
-      <c r="P111" s="153"/>
-      <c r="Q111" s="153"/>
-      <c r="R111" s="154" t="s">
+      <c r="H111" s="108"/>
+      <c r="I111" s="108"/>
+      <c r="J111" s="108"/>
+      <c r="K111" s="108"/>
+      <c r="L111" s="108"/>
+      <c r="M111" s="108"/>
+      <c r="N111" s="108"/>
+      <c r="O111" s="108"/>
+      <c r="P111" s="108"/>
+      <c r="Q111" s="108"/>
+      <c r="R111" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="S111" s="154"/>
-      <c r="T111" s="154"/>
-      <c r="U111" s="154"/>
-      <c r="V111" s="154" t="s">
+      <c r="S111" s="109"/>
+      <c r="T111" s="109"/>
+      <c r="U111" s="109"/>
+      <c r="V111" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="W111" s="154"/>
-      <c r="X111" s="155"/>
+      <c r="W111" s="109"/>
+      <c r="X111" s="110"/>
       <c r="Y111" s="13"/>
-      <c r="Z111" s="152" t="s">
+      <c r="Z111" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="AA111" s="153"/>
-      <c r="AB111" s="153"/>
-      <c r="AC111" s="153"/>
-      <c r="AD111" s="153" t="s">
+      <c r="AA111" s="108"/>
+      <c r="AB111" s="108"/>
+      <c r="AC111" s="108"/>
+      <c r="AD111" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="AE111" s="153"/>
-      <c r="AF111" s="153"/>
-      <c r="AG111" s="153"/>
-      <c r="AH111" s="153"/>
-      <c r="AI111" s="153"/>
-      <c r="AJ111" s="153"/>
-      <c r="AK111" s="153"/>
-      <c r="AL111" s="153"/>
-      <c r="AM111" s="153"/>
-      <c r="AN111" s="154" t="s">
+      <c r="AE111" s="108"/>
+      <c r="AF111" s="108"/>
+      <c r="AG111" s="108"/>
+      <c r="AH111" s="108"/>
+      <c r="AI111" s="108"/>
+      <c r="AJ111" s="108"/>
+      <c r="AK111" s="108"/>
+      <c r="AL111" s="108"/>
+      <c r="AM111" s="108"/>
+      <c r="AN111" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="AO111" s="154"/>
-      <c r="AP111" s="154"/>
-      <c r="AQ111" s="154"/>
-      <c r="AR111" s="154" t="s">
+      <c r="AO111" s="109"/>
+      <c r="AP111" s="109"/>
+      <c r="AQ111" s="109"/>
+      <c r="AR111" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="AS111" s="154"/>
-      <c r="AT111" s="155"/>
+      <c r="AS111" s="109"/>
+      <c r="AT111" s="110"/>
       <c r="AU111" s="8"/>
     </row>
     <row r="112" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
-      <c r="B112" s="142"/>
-      <c r="C112" s="113"/>
-      <c r="D112" s="113"/>
-      <c r="E112" s="113"/>
-      <c r="F112" s="113"/>
-      <c r="G112" s="113"/>
-      <c r="H112" s="113"/>
-      <c r="I112" s="113"/>
-      <c r="J112" s="113"/>
-      <c r="K112" s="113"/>
-      <c r="L112" s="113"/>
-      <c r="M112" s="113"/>
-      <c r="N112" s="113"/>
-      <c r="O112" s="113"/>
-      <c r="P112" s="113"/>
-      <c r="Q112" s="113"/>
-      <c r="R112" s="175"/>
-      <c r="S112" s="175"/>
-      <c r="T112" s="175"/>
-      <c r="U112" s="175"/>
-      <c r="V112" s="175"/>
-      <c r="W112" s="175"/>
-      <c r="X112" s="176"/>
+      <c r="B112" s="111"/>
+      <c r="C112" s="112"/>
+      <c r="D112" s="112"/>
+      <c r="E112" s="112"/>
+      <c r="F112" s="112"/>
+      <c r="G112" s="112"/>
+      <c r="H112" s="112"/>
+      <c r="I112" s="112"/>
+      <c r="J112" s="112"/>
+      <c r="K112" s="112"/>
+      <c r="L112" s="112"/>
+      <c r="M112" s="112"/>
+      <c r="N112" s="112"/>
+      <c r="O112" s="112"/>
+      <c r="P112" s="112"/>
+      <c r="Q112" s="112"/>
+      <c r="R112" s="113"/>
+      <c r="S112" s="113"/>
+      <c r="T112" s="113"/>
+      <c r="U112" s="113"/>
+      <c r="V112" s="113"/>
+      <c r="W112" s="113"/>
+      <c r="X112" s="114"/>
       <c r="Y112" s="51"/>
-      <c r="Z112" s="142"/>
-      <c r="AA112" s="113"/>
-      <c r="AB112" s="113"/>
-      <c r="AC112" s="113"/>
-      <c r="AD112" s="113"/>
-      <c r="AE112" s="113"/>
-      <c r="AF112" s="113"/>
-      <c r="AG112" s="113"/>
-      <c r="AH112" s="113"/>
-      <c r="AI112" s="113"/>
-      <c r="AJ112" s="113"/>
-      <c r="AK112" s="113"/>
-      <c r="AL112" s="113"/>
-      <c r="AM112" s="113"/>
-      <c r="AN112" s="175"/>
-      <c r="AO112" s="175"/>
-      <c r="AP112" s="175"/>
-      <c r="AQ112" s="175"/>
-      <c r="AR112" s="175"/>
-      <c r="AS112" s="175"/>
-      <c r="AT112" s="176"/>
+      <c r="Z112" s="111"/>
+      <c r="AA112" s="112"/>
+      <c r="AB112" s="112"/>
+      <c r="AC112" s="112"/>
+      <c r="AD112" s="112"/>
+      <c r="AE112" s="112"/>
+      <c r="AF112" s="112"/>
+      <c r="AG112" s="112"/>
+      <c r="AH112" s="112"/>
+      <c r="AI112" s="112"/>
+      <c r="AJ112" s="112"/>
+      <c r="AK112" s="112"/>
+      <c r="AL112" s="112"/>
+      <c r="AM112" s="112"/>
+      <c r="AN112" s="113"/>
+      <c r="AO112" s="113"/>
+      <c r="AP112" s="113"/>
+      <c r="AQ112" s="113"/>
+      <c r="AR112" s="113"/>
+      <c r="AS112" s="113"/>
+      <c r="AT112" s="114"/>
       <c r="AU112" s="8"/>
     </row>
     <row r="113" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
-      <c r="B113" s="142"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
-      <c r="G113" s="113"/>
-      <c r="H113" s="113"/>
-      <c r="I113" s="113"/>
-      <c r="J113" s="113"/>
-      <c r="K113" s="113"/>
-      <c r="L113" s="113"/>
-      <c r="M113" s="113"/>
-      <c r="N113" s="113"/>
-      <c r="O113" s="113"/>
-      <c r="P113" s="113"/>
-      <c r="Q113" s="113"/>
-      <c r="R113" s="175"/>
-      <c r="S113" s="175"/>
-      <c r="T113" s="175"/>
-      <c r="U113" s="175"/>
-      <c r="V113" s="175"/>
-      <c r="W113" s="175"/>
-      <c r="X113" s="176"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="112"/>
+      <c r="D113" s="112"/>
+      <c r="E113" s="112"/>
+      <c r="F113" s="112"/>
+      <c r="G113" s="112"/>
+      <c r="H113" s="112"/>
+      <c r="I113" s="112"/>
+      <c r="J113" s="112"/>
+      <c r="K113" s="112"/>
+      <c r="L113" s="112"/>
+      <c r="M113" s="112"/>
+      <c r="N113" s="112"/>
+      <c r="O113" s="112"/>
+      <c r="P113" s="112"/>
+      <c r="Q113" s="112"/>
+      <c r="R113" s="113"/>
+      <c r="S113" s="113"/>
+      <c r="T113" s="113"/>
+      <c r="U113" s="113"/>
+      <c r="V113" s="113"/>
+      <c r="W113" s="113"/>
+      <c r="X113" s="114"/>
       <c r="Y113" s="51"/>
-      <c r="Z113" s="142"/>
-      <c r="AA113" s="113"/>
-      <c r="AB113" s="113"/>
-      <c r="AC113" s="113"/>
-      <c r="AD113" s="113"/>
-      <c r="AE113" s="113"/>
-      <c r="AF113" s="113"/>
-      <c r="AG113" s="113"/>
-      <c r="AH113" s="113"/>
-      <c r="AI113" s="113"/>
-      <c r="AJ113" s="113"/>
-      <c r="AK113" s="113"/>
-      <c r="AL113" s="113"/>
-      <c r="AM113" s="113"/>
-      <c r="AN113" s="175"/>
-      <c r="AO113" s="175"/>
-      <c r="AP113" s="175"/>
-      <c r="AQ113" s="175"/>
-      <c r="AR113" s="175"/>
-      <c r="AS113" s="175"/>
-      <c r="AT113" s="176"/>
+      <c r="Z113" s="111"/>
+      <c r="AA113" s="112"/>
+      <c r="AB113" s="112"/>
+      <c r="AC113" s="112"/>
+      <c r="AD113" s="112"/>
+      <c r="AE113" s="112"/>
+      <c r="AF113" s="112"/>
+      <c r="AG113" s="112"/>
+      <c r="AH113" s="112"/>
+      <c r="AI113" s="112"/>
+      <c r="AJ113" s="112"/>
+      <c r="AK113" s="112"/>
+      <c r="AL113" s="112"/>
+      <c r="AM113" s="112"/>
+      <c r="AN113" s="113"/>
+      <c r="AO113" s="113"/>
+      <c r="AP113" s="113"/>
+      <c r="AQ113" s="113"/>
+      <c r="AR113" s="113"/>
+      <c r="AS113" s="113"/>
+      <c r="AT113" s="114"/>
       <c r="AU113" s="8"/>
     </row>
     <row r="114" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
-      <c r="B114" s="142"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="113"/>
-      <c r="E114" s="113"/>
-      <c r="F114" s="113"/>
-      <c r="G114" s="113"/>
-      <c r="H114" s="113"/>
-      <c r="I114" s="113"/>
-      <c r="J114" s="113"/>
-      <c r="K114" s="113"/>
-      <c r="L114" s="113"/>
-      <c r="M114" s="113"/>
-      <c r="N114" s="113"/>
-      <c r="O114" s="113"/>
-      <c r="P114" s="113"/>
-      <c r="Q114" s="113"/>
-      <c r="R114" s="175"/>
-      <c r="S114" s="175"/>
-      <c r="T114" s="175"/>
-      <c r="U114" s="175"/>
-      <c r="V114" s="175"/>
-      <c r="W114" s="175"/>
-      <c r="X114" s="176"/>
+      <c r="B114" s="111"/>
+      <c r="C114" s="112"/>
+      <c r="D114" s="112"/>
+      <c r="E114" s="112"/>
+      <c r="F114" s="112"/>
+      <c r="G114" s="112"/>
+      <c r="H114" s="112"/>
+      <c r="I114" s="112"/>
+      <c r="J114" s="112"/>
+      <c r="K114" s="112"/>
+      <c r="L114" s="112"/>
+      <c r="M114" s="112"/>
+      <c r="N114" s="112"/>
+      <c r="O114" s="112"/>
+      <c r="P114" s="112"/>
+      <c r="Q114" s="112"/>
+      <c r="R114" s="113"/>
+      <c r="S114" s="113"/>
+      <c r="T114" s="113"/>
+      <c r="U114" s="113"/>
+      <c r="V114" s="113"/>
+      <c r="W114" s="113"/>
+      <c r="X114" s="114"/>
       <c r="Y114" s="51"/>
-      <c r="Z114" s="142"/>
-      <c r="AA114" s="113"/>
-      <c r="AB114" s="113"/>
-      <c r="AC114" s="113"/>
-      <c r="AD114" s="113"/>
-      <c r="AE114" s="113"/>
-      <c r="AF114" s="113"/>
-      <c r="AG114" s="113"/>
-      <c r="AH114" s="113"/>
-      <c r="AI114" s="113"/>
-      <c r="AJ114" s="113"/>
-      <c r="AK114" s="113"/>
-      <c r="AL114" s="113"/>
-      <c r="AM114" s="113"/>
-      <c r="AN114" s="175"/>
-      <c r="AO114" s="175"/>
-      <c r="AP114" s="175"/>
-      <c r="AQ114" s="175"/>
-      <c r="AR114" s="175"/>
-      <c r="AS114" s="175"/>
-      <c r="AT114" s="176"/>
+      <c r="Z114" s="111"/>
+      <c r="AA114" s="112"/>
+      <c r="AB114" s="112"/>
+      <c r="AC114" s="112"/>
+      <c r="AD114" s="112"/>
+      <c r="AE114" s="112"/>
+      <c r="AF114" s="112"/>
+      <c r="AG114" s="112"/>
+      <c r="AH114" s="112"/>
+      <c r="AI114" s="112"/>
+      <c r="AJ114" s="112"/>
+      <c r="AK114" s="112"/>
+      <c r="AL114" s="112"/>
+      <c r="AM114" s="112"/>
+      <c r="AN114" s="113"/>
+      <c r="AO114" s="113"/>
+      <c r="AP114" s="113"/>
+      <c r="AQ114" s="113"/>
+      <c r="AR114" s="113"/>
+      <c r="AS114" s="113"/>
+      <c r="AT114" s="114"/>
       <c r="AU114" s="8"/>
     </row>
     <row r="115" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
-      <c r="B115" s="142"/>
-      <c r="C115" s="113"/>
-      <c r="D115" s="113"/>
-      <c r="E115" s="113"/>
-      <c r="F115" s="113"/>
-      <c r="G115" s="113"/>
-      <c r="H115" s="113"/>
-      <c r="I115" s="113"/>
-      <c r="J115" s="113"/>
-      <c r="K115" s="113"/>
-      <c r="L115" s="113"/>
-      <c r="M115" s="113"/>
-      <c r="N115" s="113"/>
-      <c r="O115" s="113"/>
-      <c r="P115" s="113"/>
-      <c r="Q115" s="113"/>
-      <c r="R115" s="175"/>
-      <c r="S115" s="175"/>
-      <c r="T115" s="175"/>
-      <c r="U115" s="175"/>
-      <c r="V115" s="175"/>
-      <c r="W115" s="175"/>
-      <c r="X115" s="176"/>
+      <c r="B115" s="111"/>
+      <c r="C115" s="112"/>
+      <c r="D115" s="112"/>
+      <c r="E115" s="112"/>
+      <c r="F115" s="112"/>
+      <c r="G115" s="112"/>
+      <c r="H115" s="112"/>
+      <c r="I115" s="112"/>
+      <c r="J115" s="112"/>
+      <c r="K115" s="112"/>
+      <c r="L115" s="112"/>
+      <c r="M115" s="112"/>
+      <c r="N115" s="112"/>
+      <c r="O115" s="112"/>
+      <c r="P115" s="112"/>
+      <c r="Q115" s="112"/>
+      <c r="R115" s="113"/>
+      <c r="S115" s="113"/>
+      <c r="T115" s="113"/>
+      <c r="U115" s="113"/>
+      <c r="V115" s="113"/>
+      <c r="W115" s="113"/>
+      <c r="X115" s="114"/>
       <c r="Y115" s="51"/>
-      <c r="Z115" s="142"/>
-      <c r="AA115" s="113"/>
-      <c r="AB115" s="113"/>
-      <c r="AC115" s="113"/>
-      <c r="AD115" s="113"/>
-      <c r="AE115" s="113"/>
-      <c r="AF115" s="113"/>
-      <c r="AG115" s="113"/>
-      <c r="AH115" s="113"/>
-      <c r="AI115" s="113"/>
-      <c r="AJ115" s="113"/>
-      <c r="AK115" s="113"/>
-      <c r="AL115" s="113"/>
-      <c r="AM115" s="113"/>
-      <c r="AN115" s="175"/>
-      <c r="AO115" s="175"/>
-      <c r="AP115" s="175"/>
-      <c r="AQ115" s="175"/>
-      <c r="AR115" s="175"/>
-      <c r="AS115" s="175"/>
-      <c r="AT115" s="176"/>
+      <c r="Z115" s="111"/>
+      <c r="AA115" s="112"/>
+      <c r="AB115" s="112"/>
+      <c r="AC115" s="112"/>
+      <c r="AD115" s="112"/>
+      <c r="AE115" s="112"/>
+      <c r="AF115" s="112"/>
+      <c r="AG115" s="112"/>
+      <c r="AH115" s="112"/>
+      <c r="AI115" s="112"/>
+      <c r="AJ115" s="112"/>
+      <c r="AK115" s="112"/>
+      <c r="AL115" s="112"/>
+      <c r="AM115" s="112"/>
+      <c r="AN115" s="113"/>
+      <c r="AO115" s="113"/>
+      <c r="AP115" s="113"/>
+      <c r="AQ115" s="113"/>
+      <c r="AR115" s="113"/>
+      <c r="AS115" s="113"/>
+      <c r="AT115" s="114"/>
       <c r="AU115" s="8"/>
     </row>
     <row r="116" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
-      <c r="B116" s="142"/>
-      <c r="C116" s="113"/>
-      <c r="D116" s="113"/>
-      <c r="E116" s="113"/>
-      <c r="F116" s="113"/>
-      <c r="G116" s="113"/>
-      <c r="H116" s="113"/>
-      <c r="I116" s="113"/>
-      <c r="J116" s="113"/>
-      <c r="K116" s="113"/>
-      <c r="L116" s="113"/>
-      <c r="M116" s="113"/>
-      <c r="N116" s="113"/>
-      <c r="O116" s="113"/>
-      <c r="P116" s="113"/>
-      <c r="Q116" s="113"/>
-      <c r="R116" s="175"/>
-      <c r="S116" s="175"/>
-      <c r="T116" s="175"/>
-      <c r="U116" s="175"/>
-      <c r="V116" s="175"/>
-      <c r="W116" s="175"/>
-      <c r="X116" s="176"/>
+      <c r="B116" s="111"/>
+      <c r="C116" s="112"/>
+      <c r="D116" s="112"/>
+      <c r="E116" s="112"/>
+      <c r="F116" s="112"/>
+      <c r="G116" s="112"/>
+      <c r="H116" s="112"/>
+      <c r="I116" s="112"/>
+      <c r="J116" s="112"/>
+      <c r="K116" s="112"/>
+      <c r="L116" s="112"/>
+      <c r="M116" s="112"/>
+      <c r="N116" s="112"/>
+      <c r="O116" s="112"/>
+      <c r="P116" s="112"/>
+      <c r="Q116" s="112"/>
+      <c r="R116" s="113"/>
+      <c r="S116" s="113"/>
+      <c r="T116" s="113"/>
+      <c r="U116" s="113"/>
+      <c r="V116" s="113"/>
+      <c r="W116" s="113"/>
+      <c r="X116" s="114"/>
       <c r="Y116" s="51"/>
-      <c r="Z116" s="142"/>
-      <c r="AA116" s="113"/>
-      <c r="AB116" s="113"/>
-      <c r="AC116" s="113"/>
-      <c r="AD116" s="113"/>
-      <c r="AE116" s="113"/>
-      <c r="AF116" s="113"/>
-      <c r="AG116" s="113"/>
-      <c r="AH116" s="113"/>
-      <c r="AI116" s="113"/>
-      <c r="AJ116" s="113"/>
-      <c r="AK116" s="113"/>
-      <c r="AL116" s="113"/>
-      <c r="AM116" s="113"/>
-      <c r="AN116" s="175"/>
-      <c r="AO116" s="175"/>
-      <c r="AP116" s="175"/>
-      <c r="AQ116" s="175"/>
-      <c r="AR116" s="175"/>
-      <c r="AS116" s="175"/>
-      <c r="AT116" s="176"/>
+      <c r="Z116" s="111"/>
+      <c r="AA116" s="112"/>
+      <c r="AB116" s="112"/>
+      <c r="AC116" s="112"/>
+      <c r="AD116" s="112"/>
+      <c r="AE116" s="112"/>
+      <c r="AF116" s="112"/>
+      <c r="AG116" s="112"/>
+      <c r="AH116" s="112"/>
+      <c r="AI116" s="112"/>
+      <c r="AJ116" s="112"/>
+      <c r="AK116" s="112"/>
+      <c r="AL116" s="112"/>
+      <c r="AM116" s="112"/>
+      <c r="AN116" s="113"/>
+      <c r="AO116" s="113"/>
+      <c r="AP116" s="113"/>
+      <c r="AQ116" s="113"/>
+      <c r="AR116" s="113"/>
+      <c r="AS116" s="113"/>
+      <c r="AT116" s="114"/>
       <c r="AU116" s="8"/>
     </row>
     <row r="117" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
-      <c r="B117" s="142"/>
-      <c r="C117" s="113"/>
-      <c r="D117" s="113"/>
-      <c r="E117" s="113"/>
-      <c r="F117" s="113"/>
-      <c r="G117" s="113"/>
-      <c r="H117" s="113"/>
-      <c r="I117" s="113"/>
-      <c r="J117" s="113"/>
-      <c r="K117" s="113"/>
-      <c r="L117" s="113"/>
-      <c r="M117" s="113"/>
-      <c r="N117" s="113"/>
-      <c r="O117" s="113"/>
-      <c r="P117" s="113"/>
-      <c r="Q117" s="113"/>
-      <c r="R117" s="175"/>
-      <c r="S117" s="175"/>
-      <c r="T117" s="175"/>
-      <c r="U117" s="175"/>
-      <c r="V117" s="175"/>
-      <c r="W117" s="175"/>
-      <c r="X117" s="176"/>
+      <c r="B117" s="111"/>
+      <c r="C117" s="112"/>
+      <c r="D117" s="112"/>
+      <c r="E117" s="112"/>
+      <c r="F117" s="112"/>
+      <c r="G117" s="112"/>
+      <c r="H117" s="112"/>
+      <c r="I117" s="112"/>
+      <c r="J117" s="112"/>
+      <c r="K117" s="112"/>
+      <c r="L117" s="112"/>
+      <c r="M117" s="112"/>
+      <c r="N117" s="112"/>
+      <c r="O117" s="112"/>
+      <c r="P117" s="112"/>
+      <c r="Q117" s="112"/>
+      <c r="R117" s="113"/>
+      <c r="S117" s="113"/>
+      <c r="T117" s="113"/>
+      <c r="U117" s="113"/>
+      <c r="V117" s="113"/>
+      <c r="W117" s="113"/>
+      <c r="X117" s="114"/>
       <c r="Y117" s="51"/>
-      <c r="Z117" s="142"/>
-      <c r="AA117" s="113"/>
-      <c r="AB117" s="113"/>
-      <c r="AC117" s="113"/>
-      <c r="AD117" s="113"/>
-      <c r="AE117" s="113"/>
-      <c r="AF117" s="113"/>
-      <c r="AG117" s="113"/>
-      <c r="AH117" s="113"/>
-      <c r="AI117" s="113"/>
-      <c r="AJ117" s="113"/>
-      <c r="AK117" s="113"/>
-      <c r="AL117" s="113"/>
-      <c r="AM117" s="113"/>
-      <c r="AN117" s="175"/>
-      <c r="AO117" s="175"/>
-      <c r="AP117" s="175"/>
-      <c r="AQ117" s="175"/>
-      <c r="AR117" s="175"/>
-      <c r="AS117" s="175"/>
-      <c r="AT117" s="176"/>
+      <c r="Z117" s="111"/>
+      <c r="AA117" s="112"/>
+      <c r="AB117" s="112"/>
+      <c r="AC117" s="112"/>
+      <c r="AD117" s="112"/>
+      <c r="AE117" s="112"/>
+      <c r="AF117" s="112"/>
+      <c r="AG117" s="112"/>
+      <c r="AH117" s="112"/>
+      <c r="AI117" s="112"/>
+      <c r="AJ117" s="112"/>
+      <c r="AK117" s="112"/>
+      <c r="AL117" s="112"/>
+      <c r="AM117" s="112"/>
+      <c r="AN117" s="113"/>
+      <c r="AO117" s="113"/>
+      <c r="AP117" s="113"/>
+      <c r="AQ117" s="113"/>
+      <c r="AR117" s="113"/>
+      <c r="AS117" s="113"/>
+      <c r="AT117" s="114"/>
       <c r="AU117" s="8"/>
     </row>
     <row r="118" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
-      <c r="B118" s="142"/>
-      <c r="C118" s="113"/>
-      <c r="D118" s="113"/>
-      <c r="E118" s="113"/>
-      <c r="F118" s="113"/>
-      <c r="G118" s="113"/>
-      <c r="H118" s="113"/>
-      <c r="I118" s="113"/>
-      <c r="J118" s="113"/>
-      <c r="K118" s="113"/>
-      <c r="L118" s="113"/>
-      <c r="M118" s="113"/>
-      <c r="N118" s="113"/>
-      <c r="O118" s="113"/>
-      <c r="P118" s="113"/>
-      <c r="Q118" s="113"/>
-      <c r="R118" s="175"/>
-      <c r="S118" s="175"/>
-      <c r="T118" s="175"/>
-      <c r="U118" s="175"/>
-      <c r="V118" s="175"/>
-      <c r="W118" s="175"/>
-      <c r="X118" s="176"/>
+      <c r="B118" s="111"/>
+      <c r="C118" s="112"/>
+      <c r="D118" s="112"/>
+      <c r="E118" s="112"/>
+      <c r="F118" s="112"/>
+      <c r="G118" s="112"/>
+      <c r="H118" s="112"/>
+      <c r="I118" s="112"/>
+      <c r="J118" s="112"/>
+      <c r="K118" s="112"/>
+      <c r="L118" s="112"/>
+      <c r="M118" s="112"/>
+      <c r="N118" s="112"/>
+      <c r="O118" s="112"/>
+      <c r="P118" s="112"/>
+      <c r="Q118" s="112"/>
+      <c r="R118" s="113"/>
+      <c r="S118" s="113"/>
+      <c r="T118" s="113"/>
+      <c r="U118" s="113"/>
+      <c r="V118" s="113"/>
+      <c r="W118" s="113"/>
+      <c r="X118" s="114"/>
       <c r="Y118" s="51"/>
-      <c r="Z118" s="142"/>
-      <c r="AA118" s="113"/>
-      <c r="AB118" s="113"/>
-      <c r="AC118" s="113"/>
-      <c r="AD118" s="113"/>
-      <c r="AE118" s="113"/>
-      <c r="AF118" s="113"/>
-      <c r="AG118" s="113"/>
-      <c r="AH118" s="113"/>
-      <c r="AI118" s="113"/>
-      <c r="AJ118" s="113"/>
-      <c r="AK118" s="113"/>
-      <c r="AL118" s="113"/>
-      <c r="AM118" s="113"/>
-      <c r="AN118" s="175"/>
-      <c r="AO118" s="175"/>
-      <c r="AP118" s="175"/>
-      <c r="AQ118" s="175"/>
-      <c r="AR118" s="175"/>
-      <c r="AS118" s="175"/>
-      <c r="AT118" s="176"/>
+      <c r="Z118" s="111"/>
+      <c r="AA118" s="112"/>
+      <c r="AB118" s="112"/>
+      <c r="AC118" s="112"/>
+      <c r="AD118" s="112"/>
+      <c r="AE118" s="112"/>
+      <c r="AF118" s="112"/>
+      <c r="AG118" s="112"/>
+      <c r="AH118" s="112"/>
+      <c r="AI118" s="112"/>
+      <c r="AJ118" s="112"/>
+      <c r="AK118" s="112"/>
+      <c r="AL118" s="112"/>
+      <c r="AM118" s="112"/>
+      <c r="AN118" s="113"/>
+      <c r="AO118" s="113"/>
+      <c r="AP118" s="113"/>
+      <c r="AQ118" s="113"/>
+      <c r="AR118" s="113"/>
+      <c r="AS118" s="113"/>
+      <c r="AT118" s="114"/>
       <c r="AU118" s="8"/>
     </row>
     <row r="119" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
-      <c r="B119" s="142"/>
-      <c r="C119" s="113"/>
-      <c r="D119" s="113"/>
-      <c r="E119" s="113"/>
-      <c r="F119" s="113"/>
-      <c r="G119" s="113"/>
-      <c r="H119" s="113"/>
-      <c r="I119" s="113"/>
-      <c r="J119" s="113"/>
-      <c r="K119" s="113"/>
-      <c r="L119" s="113"/>
-      <c r="M119" s="113"/>
-      <c r="N119" s="113"/>
-      <c r="O119" s="113"/>
-      <c r="P119" s="113"/>
-      <c r="Q119" s="113"/>
-      <c r="R119" s="175"/>
-      <c r="S119" s="175"/>
-      <c r="T119" s="175"/>
-      <c r="U119" s="175"/>
-      <c r="V119" s="175"/>
-      <c r="W119" s="175"/>
-      <c r="X119" s="176"/>
+      <c r="B119" s="111"/>
+      <c r="C119" s="112"/>
+      <c r="D119" s="112"/>
+      <c r="E119" s="112"/>
+      <c r="F119" s="112"/>
+      <c r="G119" s="112"/>
+      <c r="H119" s="112"/>
+      <c r="I119" s="112"/>
+      <c r="J119" s="112"/>
+      <c r="K119" s="112"/>
+      <c r="L119" s="112"/>
+      <c r="M119" s="112"/>
+      <c r="N119" s="112"/>
+      <c r="O119" s="112"/>
+      <c r="P119" s="112"/>
+      <c r="Q119" s="112"/>
+      <c r="R119" s="113"/>
+      <c r="S119" s="113"/>
+      <c r="T119" s="113"/>
+      <c r="U119" s="113"/>
+      <c r="V119" s="113"/>
+      <c r="W119" s="113"/>
+      <c r="X119" s="114"/>
       <c r="Y119" s="51"/>
-      <c r="Z119" s="142"/>
-      <c r="AA119" s="113"/>
-      <c r="AB119" s="113"/>
-      <c r="AC119" s="113"/>
-      <c r="AD119" s="113"/>
-      <c r="AE119" s="113"/>
-      <c r="AF119" s="113"/>
-      <c r="AG119" s="113"/>
-      <c r="AH119" s="113"/>
-      <c r="AI119" s="113"/>
-      <c r="AJ119" s="113"/>
-      <c r="AK119" s="113"/>
-      <c r="AL119" s="113"/>
-      <c r="AM119" s="113"/>
-      <c r="AN119" s="175"/>
-      <c r="AO119" s="175"/>
-      <c r="AP119" s="175"/>
-      <c r="AQ119" s="175"/>
-      <c r="AR119" s="175"/>
-      <c r="AS119" s="175"/>
-      <c r="AT119" s="176"/>
+      <c r="Z119" s="111"/>
+      <c r="AA119" s="112"/>
+      <c r="AB119" s="112"/>
+      <c r="AC119" s="112"/>
+      <c r="AD119" s="112"/>
+      <c r="AE119" s="112"/>
+      <c r="AF119" s="112"/>
+      <c r="AG119" s="112"/>
+      <c r="AH119" s="112"/>
+      <c r="AI119" s="112"/>
+      <c r="AJ119" s="112"/>
+      <c r="AK119" s="112"/>
+      <c r="AL119" s="112"/>
+      <c r="AM119" s="112"/>
+      <c r="AN119" s="113"/>
+      <c r="AO119" s="113"/>
+      <c r="AP119" s="113"/>
+      <c r="AQ119" s="113"/>
+      <c r="AR119" s="113"/>
+      <c r="AS119" s="113"/>
+      <c r="AT119" s="114"/>
       <c r="AU119" s="8"/>
     </row>
     <row r="120" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
-      <c r="B120" s="142"/>
-      <c r="C120" s="113"/>
-      <c r="D120" s="113"/>
-      <c r="E120" s="113"/>
-      <c r="F120" s="113"/>
-      <c r="G120" s="113"/>
-      <c r="H120" s="113"/>
-      <c r="I120" s="113"/>
-      <c r="J120" s="113"/>
-      <c r="K120" s="113"/>
-      <c r="L120" s="113"/>
-      <c r="M120" s="113"/>
-      <c r="N120" s="113"/>
-      <c r="O120" s="113"/>
-      <c r="P120" s="113"/>
-      <c r="Q120" s="113"/>
-      <c r="R120" s="175"/>
-      <c r="S120" s="175"/>
-      <c r="T120" s="175"/>
-      <c r="U120" s="175"/>
-      <c r="V120" s="175"/>
-      <c r="W120" s="175"/>
-      <c r="X120" s="176"/>
+      <c r="B120" s="111"/>
+      <c r="C120" s="112"/>
+      <c r="D120" s="112"/>
+      <c r="E120" s="112"/>
+      <c r="F120" s="112"/>
+      <c r="G120" s="112"/>
+      <c r="H120" s="112"/>
+      <c r="I120" s="112"/>
+      <c r="J120" s="112"/>
+      <c r="K120" s="112"/>
+      <c r="L120" s="112"/>
+      <c r="M120" s="112"/>
+      <c r="N120" s="112"/>
+      <c r="O120" s="112"/>
+      <c r="P120" s="112"/>
+      <c r="Q120" s="112"/>
+      <c r="R120" s="113"/>
+      <c r="S120" s="113"/>
+      <c r="T120" s="113"/>
+      <c r="U120" s="113"/>
+      <c r="V120" s="113"/>
+      <c r="W120" s="113"/>
+      <c r="X120" s="114"/>
       <c r="Y120" s="51"/>
-      <c r="Z120" s="142"/>
-      <c r="AA120" s="113"/>
-      <c r="AB120" s="113"/>
-      <c r="AC120" s="113"/>
-      <c r="AD120" s="113"/>
-      <c r="AE120" s="113"/>
-      <c r="AF120" s="113"/>
-      <c r="AG120" s="113"/>
-      <c r="AH120" s="113"/>
-      <c r="AI120" s="113"/>
-      <c r="AJ120" s="113"/>
-      <c r="AK120" s="113"/>
-      <c r="AL120" s="113"/>
-      <c r="AM120" s="113"/>
-      <c r="AN120" s="175"/>
-      <c r="AO120" s="175"/>
-      <c r="AP120" s="175"/>
-      <c r="AQ120" s="175"/>
-      <c r="AR120" s="175"/>
-      <c r="AS120" s="175"/>
-      <c r="AT120" s="176"/>
+      <c r="Z120" s="111"/>
+      <c r="AA120" s="112"/>
+      <c r="AB120" s="112"/>
+      <c r="AC120" s="112"/>
+      <c r="AD120" s="112"/>
+      <c r="AE120" s="112"/>
+      <c r="AF120" s="112"/>
+      <c r="AG120" s="112"/>
+      <c r="AH120" s="112"/>
+      <c r="AI120" s="112"/>
+      <c r="AJ120" s="112"/>
+      <c r="AK120" s="112"/>
+      <c r="AL120" s="112"/>
+      <c r="AM120" s="112"/>
+      <c r="AN120" s="113"/>
+      <c r="AO120" s="113"/>
+      <c r="AP120" s="113"/>
+      <c r="AQ120" s="113"/>
+      <c r="AR120" s="113"/>
+      <c r="AS120" s="113"/>
+      <c r="AT120" s="114"/>
       <c r="AU120" s="8"/>
     </row>
     <row r="121" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
-      <c r="B121" s="116"/>
-      <c r="C121" s="117"/>
-      <c r="D121" s="117"/>
-      <c r="E121" s="117"/>
-      <c r="F121" s="117"/>
-      <c r="G121" s="117"/>
-      <c r="H121" s="117"/>
-      <c r="I121" s="117"/>
-      <c r="J121" s="117"/>
-      <c r="K121" s="117"/>
-      <c r="L121" s="117"/>
-      <c r="M121" s="117"/>
-      <c r="N121" s="117"/>
-      <c r="O121" s="117"/>
-      <c r="P121" s="117"/>
-      <c r="Q121" s="117"/>
-      <c r="R121" s="177"/>
-      <c r="S121" s="177"/>
-      <c r="T121" s="177"/>
-      <c r="U121" s="177"/>
-      <c r="V121" s="177"/>
-      <c r="W121" s="177"/>
-      <c r="X121" s="178"/>
+      <c r="B121" s="124"/>
+      <c r="C121" s="125"/>
+      <c r="D121" s="125"/>
+      <c r="E121" s="125"/>
+      <c r="F121" s="125"/>
+      <c r="G121" s="125"/>
+      <c r="H121" s="125"/>
+      <c r="I121" s="125"/>
+      <c r="J121" s="125"/>
+      <c r="K121" s="125"/>
+      <c r="L121" s="125"/>
+      <c r="M121" s="125"/>
+      <c r="N121" s="125"/>
+      <c r="O121" s="125"/>
+      <c r="P121" s="125"/>
+      <c r="Q121" s="125"/>
+      <c r="R121" s="126"/>
+      <c r="S121" s="126"/>
+      <c r="T121" s="126"/>
+      <c r="U121" s="126"/>
+      <c r="V121" s="126"/>
+      <c r="W121" s="126"/>
+      <c r="X121" s="127"/>
       <c r="Y121" s="51"/>
-      <c r="Z121" s="116"/>
-      <c r="AA121" s="117"/>
-      <c r="AB121" s="117"/>
-      <c r="AC121" s="117"/>
-      <c r="AD121" s="117"/>
-      <c r="AE121" s="117"/>
-      <c r="AF121" s="117"/>
-      <c r="AG121" s="117"/>
-      <c r="AH121" s="117"/>
-      <c r="AI121" s="117"/>
-      <c r="AJ121" s="117"/>
-      <c r="AK121" s="117"/>
-      <c r="AL121" s="117"/>
-      <c r="AM121" s="117"/>
-      <c r="AN121" s="177"/>
-      <c r="AO121" s="177"/>
-      <c r="AP121" s="177"/>
-      <c r="AQ121" s="177"/>
-      <c r="AR121" s="177"/>
-      <c r="AS121" s="177"/>
-      <c r="AT121" s="178"/>
+      <c r="Z121" s="124"/>
+      <c r="AA121" s="125"/>
+      <c r="AB121" s="125"/>
+      <c r="AC121" s="125"/>
+      <c r="AD121" s="125"/>
+      <c r="AE121" s="125"/>
+      <c r="AF121" s="125"/>
+      <c r="AG121" s="125"/>
+      <c r="AH121" s="125"/>
+      <c r="AI121" s="125"/>
+      <c r="AJ121" s="125"/>
+      <c r="AK121" s="125"/>
+      <c r="AL121" s="125"/>
+      <c r="AM121" s="125"/>
+      <c r="AN121" s="126"/>
+      <c r="AO121" s="126"/>
+      <c r="AP121" s="126"/>
+      <c r="AQ121" s="126"/>
+      <c r="AR121" s="126"/>
+      <c r="AS121" s="126"/>
+      <c r="AT121" s="127"/>
       <c r="AU121" s="8"/>
     </row>
     <row r="122" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8455,53 +8482,53 @@
     </row>
     <row r="123" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
-      <c r="B123" s="149" t="s">
+      <c r="B123" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="150"/>
-      <c r="D123" s="150"/>
-      <c r="E123" s="150"/>
-      <c r="F123" s="150"/>
-      <c r="G123" s="150"/>
-      <c r="H123" s="150"/>
-      <c r="I123" s="150"/>
-      <c r="J123" s="150"/>
-      <c r="K123" s="150"/>
-      <c r="L123" s="150"/>
-      <c r="M123" s="150"/>
-      <c r="N123" s="150"/>
-      <c r="O123" s="150"/>
-      <c r="P123" s="150"/>
-      <c r="Q123" s="150"/>
-      <c r="R123" s="150"/>
-      <c r="S123" s="150"/>
-      <c r="T123" s="150"/>
-      <c r="U123" s="150"/>
-      <c r="V123" s="150"/>
-      <c r="W123" s="150"/>
-      <c r="X123" s="150"/>
-      <c r="Y123" s="150"/>
-      <c r="Z123" s="150"/>
-      <c r="AA123" s="150"/>
-      <c r="AB123" s="150"/>
-      <c r="AC123" s="150"/>
-      <c r="AD123" s="150"/>
-      <c r="AE123" s="150"/>
-      <c r="AF123" s="150"/>
-      <c r="AG123" s="150"/>
-      <c r="AH123" s="150"/>
-      <c r="AI123" s="150"/>
-      <c r="AJ123" s="150"/>
-      <c r="AK123" s="150"/>
-      <c r="AL123" s="150"/>
-      <c r="AM123" s="150"/>
-      <c r="AN123" s="150"/>
-      <c r="AO123" s="150"/>
-      <c r="AP123" s="150"/>
-      <c r="AQ123" s="150"/>
-      <c r="AR123" s="150"/>
-      <c r="AS123" s="150"/>
-      <c r="AT123" s="151"/>
+      <c r="C123" s="131"/>
+      <c r="D123" s="131"/>
+      <c r="E123" s="131"/>
+      <c r="F123" s="131"/>
+      <c r="G123" s="131"/>
+      <c r="H123" s="131"/>
+      <c r="I123" s="131"/>
+      <c r="J123" s="131"/>
+      <c r="K123" s="131"/>
+      <c r="L123" s="131"/>
+      <c r="M123" s="131"/>
+      <c r="N123" s="131"/>
+      <c r="O123" s="131"/>
+      <c r="P123" s="131"/>
+      <c r="Q123" s="131"/>
+      <c r="R123" s="131"/>
+      <c r="S123" s="131"/>
+      <c r="T123" s="131"/>
+      <c r="U123" s="131"/>
+      <c r="V123" s="131"/>
+      <c r="W123" s="131"/>
+      <c r="X123" s="131"/>
+      <c r="Y123" s="131"/>
+      <c r="Z123" s="131"/>
+      <c r="AA123" s="131"/>
+      <c r="AB123" s="131"/>
+      <c r="AC123" s="131"/>
+      <c r="AD123" s="131"/>
+      <c r="AE123" s="131"/>
+      <c r="AF123" s="131"/>
+      <c r="AG123" s="131"/>
+      <c r="AH123" s="131"/>
+      <c r="AI123" s="131"/>
+      <c r="AJ123" s="131"/>
+      <c r="AK123" s="131"/>
+      <c r="AL123" s="131"/>
+      <c r="AM123" s="131"/>
+      <c r="AN123" s="131"/>
+      <c r="AO123" s="131"/>
+      <c r="AP123" s="131"/>
+      <c r="AQ123" s="131"/>
+      <c r="AR123" s="131"/>
+      <c r="AS123" s="131"/>
+      <c r="AT123" s="132"/>
       <c r="AU123" s="8"/>
     </row>
     <row r="124" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8555,361 +8582,361 @@
     </row>
     <row r="125" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
-      <c r="B125" s="152" t="s">
+      <c r="B125" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="153"/>
-      <c r="D125" s="153"/>
-      <c r="E125" s="153"/>
-      <c r="F125" s="153"/>
-      <c r="G125" s="153" t="s">
+      <c r="C125" s="108"/>
+      <c r="D125" s="108"/>
+      <c r="E125" s="108"/>
+      <c r="F125" s="108"/>
+      <c r="G125" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="H125" s="153"/>
-      <c r="I125" s="153"/>
-      <c r="J125" s="153"/>
-      <c r="K125" s="153"/>
-      <c r="L125" s="153"/>
-      <c r="M125" s="153"/>
-      <c r="N125" s="153"/>
-      <c r="O125" s="153"/>
-      <c r="P125" s="153"/>
-      <c r="Q125" s="153"/>
-      <c r="R125" s="154" t="s">
+      <c r="H125" s="108"/>
+      <c r="I125" s="108"/>
+      <c r="J125" s="108"/>
+      <c r="K125" s="108"/>
+      <c r="L125" s="108"/>
+      <c r="M125" s="108"/>
+      <c r="N125" s="108"/>
+      <c r="O125" s="108"/>
+      <c r="P125" s="108"/>
+      <c r="Q125" s="108"/>
+      <c r="R125" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="S125" s="154"/>
-      <c r="T125" s="154"/>
-      <c r="U125" s="154"/>
-      <c r="V125" s="154" t="s">
+      <c r="S125" s="109"/>
+      <c r="T125" s="109"/>
+      <c r="U125" s="109"/>
+      <c r="V125" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="W125" s="154"/>
-      <c r="X125" s="155"/>
+      <c r="W125" s="109"/>
+      <c r="X125" s="110"/>
       <c r="Y125" s="13"/>
-      <c r="Z125" s="152" t="s">
+      <c r="Z125" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="AA125" s="153"/>
-      <c r="AB125" s="153"/>
-      <c r="AC125" s="153"/>
-      <c r="AD125" s="153" t="s">
+      <c r="AA125" s="108"/>
+      <c r="AB125" s="108"/>
+      <c r="AC125" s="108"/>
+      <c r="AD125" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="AE125" s="153"/>
-      <c r="AF125" s="153"/>
-      <c r="AG125" s="153"/>
-      <c r="AH125" s="153"/>
-      <c r="AI125" s="153"/>
-      <c r="AJ125" s="153"/>
-      <c r="AK125" s="153"/>
-      <c r="AL125" s="153"/>
-      <c r="AM125" s="153"/>
-      <c r="AN125" s="154" t="s">
+      <c r="AE125" s="108"/>
+      <c r="AF125" s="108"/>
+      <c r="AG125" s="108"/>
+      <c r="AH125" s="108"/>
+      <c r="AI125" s="108"/>
+      <c r="AJ125" s="108"/>
+      <c r="AK125" s="108"/>
+      <c r="AL125" s="108"/>
+      <c r="AM125" s="108"/>
+      <c r="AN125" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="AO125" s="154"/>
-      <c r="AP125" s="154"/>
-      <c r="AQ125" s="154"/>
-      <c r="AR125" s="154" t="s">
+      <c r="AO125" s="109"/>
+      <c r="AP125" s="109"/>
+      <c r="AQ125" s="109"/>
+      <c r="AR125" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="AS125" s="154"/>
-      <c r="AT125" s="155"/>
+      <c r="AS125" s="109"/>
+      <c r="AT125" s="110"/>
       <c r="AU125" s="8"/>
     </row>
     <row r="126" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
-      <c r="B126" s="142"/>
-      <c r="C126" s="113"/>
-      <c r="D126" s="113"/>
-      <c r="E126" s="113"/>
-      <c r="F126" s="113"/>
-      <c r="G126" s="113"/>
-      <c r="H126" s="113"/>
-      <c r="I126" s="113"/>
-      <c r="J126" s="113"/>
-      <c r="K126" s="113"/>
-      <c r="L126" s="113"/>
-      <c r="M126" s="113"/>
-      <c r="N126" s="113"/>
-      <c r="O126" s="113"/>
-      <c r="P126" s="113"/>
-      <c r="Q126" s="113"/>
-      <c r="R126" s="175"/>
-      <c r="S126" s="175"/>
-      <c r="T126" s="175"/>
-      <c r="U126" s="175"/>
-      <c r="V126" s="175"/>
-      <c r="W126" s="175"/>
-      <c r="X126" s="176"/>
+      <c r="B126" s="111"/>
+      <c r="C126" s="112"/>
+      <c r="D126" s="112"/>
+      <c r="E126" s="112"/>
+      <c r="F126" s="112"/>
+      <c r="G126" s="112"/>
+      <c r="H126" s="112"/>
+      <c r="I126" s="112"/>
+      <c r="J126" s="112"/>
+      <c r="K126" s="112"/>
+      <c r="L126" s="112"/>
+      <c r="M126" s="112"/>
+      <c r="N126" s="112"/>
+      <c r="O126" s="112"/>
+      <c r="P126" s="112"/>
+      <c r="Q126" s="112"/>
+      <c r="R126" s="113"/>
+      <c r="S126" s="113"/>
+      <c r="T126" s="113"/>
+      <c r="U126" s="113"/>
+      <c r="V126" s="113"/>
+      <c r="W126" s="113"/>
+      <c r="X126" s="114"/>
       <c r="Y126" s="51"/>
-      <c r="Z126" s="142"/>
-      <c r="AA126" s="113"/>
-      <c r="AB126" s="113"/>
-      <c r="AC126" s="113"/>
-      <c r="AD126" s="113"/>
-      <c r="AE126" s="113"/>
-      <c r="AF126" s="113"/>
-      <c r="AG126" s="113"/>
-      <c r="AH126" s="113"/>
-      <c r="AI126" s="113"/>
-      <c r="AJ126" s="113"/>
-      <c r="AK126" s="113"/>
-      <c r="AL126" s="113"/>
-      <c r="AM126" s="113"/>
-      <c r="AN126" s="175"/>
-      <c r="AO126" s="175"/>
-      <c r="AP126" s="175"/>
-      <c r="AQ126" s="175"/>
-      <c r="AR126" s="175"/>
-      <c r="AS126" s="175"/>
-      <c r="AT126" s="176"/>
+      <c r="Z126" s="111"/>
+      <c r="AA126" s="112"/>
+      <c r="AB126" s="112"/>
+      <c r="AC126" s="112"/>
+      <c r="AD126" s="112"/>
+      <c r="AE126" s="112"/>
+      <c r="AF126" s="112"/>
+      <c r="AG126" s="112"/>
+      <c r="AH126" s="112"/>
+      <c r="AI126" s="112"/>
+      <c r="AJ126" s="112"/>
+      <c r="AK126" s="112"/>
+      <c r="AL126" s="112"/>
+      <c r="AM126" s="112"/>
+      <c r="AN126" s="113"/>
+      <c r="AO126" s="113"/>
+      <c r="AP126" s="113"/>
+      <c r="AQ126" s="113"/>
+      <c r="AR126" s="113"/>
+      <c r="AS126" s="113"/>
+      <c r="AT126" s="114"/>
       <c r="AU126" s="8"/>
     </row>
     <row r="127" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
-      <c r="B127" s="142"/>
-      <c r="C127" s="113"/>
-      <c r="D127" s="113"/>
-      <c r="E127" s="113"/>
-      <c r="F127" s="113"/>
-      <c r="G127" s="113"/>
-      <c r="H127" s="113"/>
-      <c r="I127" s="113"/>
-      <c r="J127" s="113"/>
-      <c r="K127" s="113"/>
-      <c r="L127" s="113"/>
-      <c r="M127" s="113"/>
-      <c r="N127" s="113"/>
-      <c r="O127" s="113"/>
-      <c r="P127" s="113"/>
-      <c r="Q127" s="113"/>
-      <c r="R127" s="175"/>
-      <c r="S127" s="175"/>
-      <c r="T127" s="175"/>
-      <c r="U127" s="175"/>
-      <c r="V127" s="175"/>
-      <c r="W127" s="175"/>
-      <c r="X127" s="176"/>
+      <c r="B127" s="111"/>
+      <c r="C127" s="112"/>
+      <c r="D127" s="112"/>
+      <c r="E127" s="112"/>
+      <c r="F127" s="112"/>
+      <c r="G127" s="112"/>
+      <c r="H127" s="112"/>
+      <c r="I127" s="112"/>
+      <c r="J127" s="112"/>
+      <c r="K127" s="112"/>
+      <c r="L127" s="112"/>
+      <c r="M127" s="112"/>
+      <c r="N127" s="112"/>
+      <c r="O127" s="112"/>
+      <c r="P127" s="112"/>
+      <c r="Q127" s="112"/>
+      <c r="R127" s="113"/>
+      <c r="S127" s="113"/>
+      <c r="T127" s="113"/>
+      <c r="U127" s="113"/>
+      <c r="V127" s="113"/>
+      <c r="W127" s="113"/>
+      <c r="X127" s="114"/>
       <c r="Y127" s="51"/>
-      <c r="Z127" s="142"/>
-      <c r="AA127" s="113"/>
-      <c r="AB127" s="113"/>
-      <c r="AC127" s="113"/>
-      <c r="AD127" s="113"/>
-      <c r="AE127" s="113"/>
-      <c r="AF127" s="113"/>
-      <c r="AG127" s="113"/>
-      <c r="AH127" s="113"/>
-      <c r="AI127" s="113"/>
-      <c r="AJ127" s="113"/>
-      <c r="AK127" s="113"/>
-      <c r="AL127" s="113"/>
-      <c r="AM127" s="113"/>
-      <c r="AN127" s="175"/>
-      <c r="AO127" s="175"/>
-      <c r="AP127" s="175"/>
-      <c r="AQ127" s="175"/>
-      <c r="AR127" s="175"/>
-      <c r="AS127" s="175"/>
-      <c r="AT127" s="176"/>
+      <c r="Z127" s="111"/>
+      <c r="AA127" s="112"/>
+      <c r="AB127" s="112"/>
+      <c r="AC127" s="112"/>
+      <c r="AD127" s="112"/>
+      <c r="AE127" s="112"/>
+      <c r="AF127" s="112"/>
+      <c r="AG127" s="112"/>
+      <c r="AH127" s="112"/>
+      <c r="AI127" s="112"/>
+      <c r="AJ127" s="112"/>
+      <c r="AK127" s="112"/>
+      <c r="AL127" s="112"/>
+      <c r="AM127" s="112"/>
+      <c r="AN127" s="113"/>
+      <c r="AO127" s="113"/>
+      <c r="AP127" s="113"/>
+      <c r="AQ127" s="113"/>
+      <c r="AR127" s="113"/>
+      <c r="AS127" s="113"/>
+      <c r="AT127" s="114"/>
       <c r="AU127" s="8"/>
     </row>
     <row r="128" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
-      <c r="B128" s="142"/>
-      <c r="C128" s="113"/>
-      <c r="D128" s="113"/>
-      <c r="E128" s="113"/>
-      <c r="F128" s="113"/>
-      <c r="G128" s="113"/>
-      <c r="H128" s="113"/>
-      <c r="I128" s="113"/>
-      <c r="J128" s="113"/>
-      <c r="K128" s="113"/>
-      <c r="L128" s="113"/>
-      <c r="M128" s="113"/>
-      <c r="N128" s="113"/>
-      <c r="O128" s="113"/>
-      <c r="P128" s="113"/>
-      <c r="Q128" s="113"/>
-      <c r="R128" s="175"/>
-      <c r="S128" s="175"/>
-      <c r="T128" s="175"/>
-      <c r="U128" s="175"/>
-      <c r="V128" s="175"/>
-      <c r="W128" s="175"/>
-      <c r="X128" s="176"/>
+      <c r="B128" s="111"/>
+      <c r="C128" s="112"/>
+      <c r="D128" s="112"/>
+      <c r="E128" s="112"/>
+      <c r="F128" s="112"/>
+      <c r="G128" s="112"/>
+      <c r="H128" s="112"/>
+      <c r="I128" s="112"/>
+      <c r="J128" s="112"/>
+      <c r="K128" s="112"/>
+      <c r="L128" s="112"/>
+      <c r="M128" s="112"/>
+      <c r="N128" s="112"/>
+      <c r="O128" s="112"/>
+      <c r="P128" s="112"/>
+      <c r="Q128" s="112"/>
+      <c r="R128" s="113"/>
+      <c r="S128" s="113"/>
+      <c r="T128" s="113"/>
+      <c r="U128" s="113"/>
+      <c r="V128" s="113"/>
+      <c r="W128" s="113"/>
+      <c r="X128" s="114"/>
       <c r="Y128" s="51"/>
-      <c r="Z128" s="142"/>
-      <c r="AA128" s="113"/>
-      <c r="AB128" s="113"/>
-      <c r="AC128" s="113"/>
-      <c r="AD128" s="113"/>
-      <c r="AE128" s="113"/>
-      <c r="AF128" s="113"/>
-      <c r="AG128" s="113"/>
-      <c r="AH128" s="113"/>
-      <c r="AI128" s="113"/>
-      <c r="AJ128" s="113"/>
-      <c r="AK128" s="113"/>
-      <c r="AL128" s="113"/>
-      <c r="AM128" s="113"/>
-      <c r="AN128" s="175"/>
-      <c r="AO128" s="175"/>
-      <c r="AP128" s="175"/>
-      <c r="AQ128" s="175"/>
-      <c r="AR128" s="175"/>
-      <c r="AS128" s="175"/>
-      <c r="AT128" s="176"/>
+      <c r="Z128" s="111"/>
+      <c r="AA128" s="112"/>
+      <c r="AB128" s="112"/>
+      <c r="AC128" s="112"/>
+      <c r="AD128" s="112"/>
+      <c r="AE128" s="112"/>
+      <c r="AF128" s="112"/>
+      <c r="AG128" s="112"/>
+      <c r="AH128" s="112"/>
+      <c r="AI128" s="112"/>
+      <c r="AJ128" s="112"/>
+      <c r="AK128" s="112"/>
+      <c r="AL128" s="112"/>
+      <c r="AM128" s="112"/>
+      <c r="AN128" s="113"/>
+      <c r="AO128" s="113"/>
+      <c r="AP128" s="113"/>
+      <c r="AQ128" s="113"/>
+      <c r="AR128" s="113"/>
+      <c r="AS128" s="113"/>
+      <c r="AT128" s="114"/>
       <c r="AU128" s="8"/>
     </row>
     <row r="129" spans="1:56" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
-      <c r="B129" s="142"/>
-      <c r="C129" s="113"/>
-      <c r="D129" s="113"/>
-      <c r="E129" s="113"/>
-      <c r="F129" s="113"/>
-      <c r="G129" s="113"/>
-      <c r="H129" s="113"/>
-      <c r="I129" s="113"/>
-      <c r="J129" s="113"/>
-      <c r="K129" s="113"/>
-      <c r="L129" s="113"/>
-      <c r="M129" s="113"/>
-      <c r="N129" s="113"/>
-      <c r="O129" s="113"/>
-      <c r="P129" s="113"/>
-      <c r="Q129" s="113"/>
-      <c r="R129" s="175"/>
-      <c r="S129" s="175"/>
-      <c r="T129" s="175"/>
-      <c r="U129" s="175"/>
-      <c r="V129" s="175"/>
-      <c r="W129" s="175"/>
-      <c r="X129" s="176"/>
+      <c r="B129" s="111"/>
+      <c r="C129" s="112"/>
+      <c r="D129" s="112"/>
+      <c r="E129" s="112"/>
+      <c r="F129" s="112"/>
+      <c r="G129" s="112"/>
+      <c r="H129" s="112"/>
+      <c r="I129" s="112"/>
+      <c r="J129" s="112"/>
+      <c r="K129" s="112"/>
+      <c r="L129" s="112"/>
+      <c r="M129" s="112"/>
+      <c r="N129" s="112"/>
+      <c r="O129" s="112"/>
+      <c r="P129" s="112"/>
+      <c r="Q129" s="112"/>
+      <c r="R129" s="113"/>
+      <c r="S129" s="113"/>
+      <c r="T129" s="113"/>
+      <c r="U129" s="113"/>
+      <c r="V129" s="113"/>
+      <c r="W129" s="113"/>
+      <c r="X129" s="114"/>
       <c r="Y129" s="51"/>
-      <c r="Z129" s="142"/>
-      <c r="AA129" s="113"/>
-      <c r="AB129" s="113"/>
-      <c r="AC129" s="113"/>
-      <c r="AD129" s="113"/>
-      <c r="AE129" s="113"/>
-      <c r="AF129" s="113"/>
-      <c r="AG129" s="113"/>
-      <c r="AH129" s="113"/>
-      <c r="AI129" s="113"/>
-      <c r="AJ129" s="113"/>
-      <c r="AK129" s="113"/>
-      <c r="AL129" s="113"/>
-      <c r="AM129" s="113"/>
-      <c r="AN129" s="175"/>
-      <c r="AO129" s="175"/>
-      <c r="AP129" s="175"/>
-      <c r="AQ129" s="175"/>
-      <c r="AR129" s="175"/>
-      <c r="AS129" s="175"/>
-      <c r="AT129" s="176"/>
+      <c r="Z129" s="111"/>
+      <c r="AA129" s="112"/>
+      <c r="AB129" s="112"/>
+      <c r="AC129" s="112"/>
+      <c r="AD129" s="112"/>
+      <c r="AE129" s="112"/>
+      <c r="AF129" s="112"/>
+      <c r="AG129" s="112"/>
+      <c r="AH129" s="112"/>
+      <c r="AI129" s="112"/>
+      <c r="AJ129" s="112"/>
+      <c r="AK129" s="112"/>
+      <c r="AL129" s="112"/>
+      <c r="AM129" s="112"/>
+      <c r="AN129" s="113"/>
+      <c r="AO129" s="113"/>
+      <c r="AP129" s="113"/>
+      <c r="AQ129" s="113"/>
+      <c r="AR129" s="113"/>
+      <c r="AS129" s="113"/>
+      <c r="AT129" s="114"/>
       <c r="AU129" s="8"/>
     </row>
     <row r="130" spans="1:56" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
-      <c r="B130" s="142"/>
-      <c r="C130" s="113"/>
-      <c r="D130" s="113"/>
-      <c r="E130" s="113"/>
-      <c r="F130" s="113"/>
-      <c r="G130" s="113"/>
-      <c r="H130" s="113"/>
-      <c r="I130" s="113"/>
-      <c r="J130" s="113"/>
-      <c r="K130" s="113"/>
-      <c r="L130" s="113"/>
-      <c r="M130" s="113"/>
-      <c r="N130" s="113"/>
-      <c r="O130" s="113"/>
-      <c r="P130" s="113"/>
-      <c r="Q130" s="113"/>
-      <c r="R130" s="175"/>
-      <c r="S130" s="175"/>
-      <c r="T130" s="175"/>
-      <c r="U130" s="175"/>
-      <c r="V130" s="175"/>
-      <c r="W130" s="175"/>
-      <c r="X130" s="176"/>
+      <c r="B130" s="111"/>
+      <c r="C130" s="112"/>
+      <c r="D130" s="112"/>
+      <c r="E130" s="112"/>
+      <c r="F130" s="112"/>
+      <c r="G130" s="112"/>
+      <c r="H130" s="112"/>
+      <c r="I130" s="112"/>
+      <c r="J130" s="112"/>
+      <c r="K130" s="112"/>
+      <c r="L130" s="112"/>
+      <c r="M130" s="112"/>
+      <c r="N130" s="112"/>
+      <c r="O130" s="112"/>
+      <c r="P130" s="112"/>
+      <c r="Q130" s="112"/>
+      <c r="R130" s="113"/>
+      <c r="S130" s="113"/>
+      <c r="T130" s="113"/>
+      <c r="U130" s="113"/>
+      <c r="V130" s="113"/>
+      <c r="W130" s="113"/>
+      <c r="X130" s="114"/>
       <c r="Y130" s="51"/>
-      <c r="Z130" s="142"/>
-      <c r="AA130" s="113"/>
-      <c r="AB130" s="113"/>
-      <c r="AC130" s="113"/>
-      <c r="AD130" s="113"/>
-      <c r="AE130" s="113"/>
-      <c r="AF130" s="113"/>
-      <c r="AG130" s="113"/>
-      <c r="AH130" s="113"/>
-      <c r="AI130" s="113"/>
-      <c r="AJ130" s="113"/>
-      <c r="AK130" s="113"/>
-      <c r="AL130" s="113"/>
-      <c r="AM130" s="113"/>
-      <c r="AN130" s="175"/>
-      <c r="AO130" s="175"/>
-      <c r="AP130" s="175"/>
-      <c r="AQ130" s="175"/>
-      <c r="AR130" s="175"/>
-      <c r="AS130" s="175"/>
-      <c r="AT130" s="176"/>
+      <c r="Z130" s="111"/>
+      <c r="AA130" s="112"/>
+      <c r="AB130" s="112"/>
+      <c r="AC130" s="112"/>
+      <c r="AD130" s="112"/>
+      <c r="AE130" s="112"/>
+      <c r="AF130" s="112"/>
+      <c r="AG130" s="112"/>
+      <c r="AH130" s="112"/>
+      <c r="AI130" s="112"/>
+      <c r="AJ130" s="112"/>
+      <c r="AK130" s="112"/>
+      <c r="AL130" s="112"/>
+      <c r="AM130" s="112"/>
+      <c r="AN130" s="113"/>
+      <c r="AO130" s="113"/>
+      <c r="AP130" s="113"/>
+      <c r="AQ130" s="113"/>
+      <c r="AR130" s="113"/>
+      <c r="AS130" s="113"/>
+      <c r="AT130" s="114"/>
       <c r="AU130" s="8"/>
     </row>
     <row r="131" spans="1:56" s="28" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
-      <c r="B131" s="116"/>
-      <c r="C131" s="117"/>
-      <c r="D131" s="117"/>
-      <c r="E131" s="117"/>
-      <c r="F131" s="117"/>
-      <c r="G131" s="117"/>
-      <c r="H131" s="117"/>
-      <c r="I131" s="117"/>
-      <c r="J131" s="117"/>
-      <c r="K131" s="117"/>
-      <c r="L131" s="117"/>
-      <c r="M131" s="117"/>
-      <c r="N131" s="117"/>
-      <c r="O131" s="117"/>
-      <c r="P131" s="117"/>
-      <c r="Q131" s="117"/>
-      <c r="R131" s="177"/>
-      <c r="S131" s="177"/>
-      <c r="T131" s="177"/>
-      <c r="U131" s="177"/>
-      <c r="V131" s="177"/>
-      <c r="W131" s="177"/>
-      <c r="X131" s="178"/>
+      <c r="B131" s="124"/>
+      <c r="C131" s="125"/>
+      <c r="D131" s="125"/>
+      <c r="E131" s="125"/>
+      <c r="F131" s="125"/>
+      <c r="G131" s="125"/>
+      <c r="H131" s="125"/>
+      <c r="I131" s="125"/>
+      <c r="J131" s="125"/>
+      <c r="K131" s="125"/>
+      <c r="L131" s="125"/>
+      <c r="M131" s="125"/>
+      <c r="N131" s="125"/>
+      <c r="O131" s="125"/>
+      <c r="P131" s="125"/>
+      <c r="Q131" s="125"/>
+      <c r="R131" s="126"/>
+      <c r="S131" s="126"/>
+      <c r="T131" s="126"/>
+      <c r="U131" s="126"/>
+      <c r="V131" s="126"/>
+      <c r="W131" s="126"/>
+      <c r="X131" s="127"/>
       <c r="Y131" s="51"/>
-      <c r="Z131" s="116"/>
-      <c r="AA131" s="117"/>
-      <c r="AB131" s="117"/>
-      <c r="AC131" s="117"/>
-      <c r="AD131" s="117"/>
-      <c r="AE131" s="117"/>
-      <c r="AF131" s="117"/>
-      <c r="AG131" s="117"/>
-      <c r="AH131" s="117"/>
-      <c r="AI131" s="117"/>
-      <c r="AJ131" s="117"/>
-      <c r="AK131" s="117"/>
-      <c r="AL131" s="117"/>
-      <c r="AM131" s="117"/>
-      <c r="AN131" s="177"/>
-      <c r="AO131" s="177"/>
-      <c r="AP131" s="177"/>
-      <c r="AQ131" s="177"/>
-      <c r="AR131" s="177"/>
-      <c r="AS131" s="177"/>
-      <c r="AT131" s="178"/>
+      <c r="Z131" s="124"/>
+      <c r="AA131" s="125"/>
+      <c r="AB131" s="125"/>
+      <c r="AC131" s="125"/>
+      <c r="AD131" s="125"/>
+      <c r="AE131" s="125"/>
+      <c r="AF131" s="125"/>
+      <c r="AG131" s="125"/>
+      <c r="AH131" s="125"/>
+      <c r="AI131" s="125"/>
+      <c r="AJ131" s="125"/>
+      <c r="AK131" s="125"/>
+      <c r="AL131" s="125"/>
+      <c r="AM131" s="125"/>
+      <c r="AN131" s="126"/>
+      <c r="AO131" s="126"/>
+      <c r="AP131" s="126"/>
+      <c r="AQ131" s="126"/>
+      <c r="AR131" s="126"/>
+      <c r="AS131" s="126"/>
+      <c r="AT131" s="127"/>
       <c r="AU131" s="8"/>
     </row>
     <row r="132" spans="1:56" s="20" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8919,51 +8946,51 @@
     <row r="133" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="110" t="s">
+      <c r="C133" s="157" t="s">
         <v>128</v>
       </c>
-      <c r="D133" s="110"/>
-      <c r="E133" s="110"/>
-      <c r="F133" s="110"/>
-      <c r="G133" s="110"/>
-      <c r="H133" s="110"/>
-      <c r="I133" s="110"/>
-      <c r="J133" s="110"/>
-      <c r="K133" s="110"/>
-      <c r="L133" s="110"/>
-      <c r="M133" s="110"/>
-      <c r="N133" s="110"/>
-      <c r="O133" s="110"/>
-      <c r="P133" s="110"/>
-      <c r="Q133" s="110"/>
-      <c r="R133" s="110"/>
-      <c r="S133" s="110"/>
-      <c r="T133" s="110"/>
-      <c r="U133" s="110"/>
-      <c r="V133" s="110"/>
-      <c r="W133" s="110"/>
-      <c r="X133" s="110"/>
-      <c r="Y133" s="110"/>
-      <c r="Z133" s="110"/>
-      <c r="AA133" s="110"/>
-      <c r="AB133" s="110"/>
-      <c r="AC133" s="110"/>
-      <c r="AD133" s="110"/>
-      <c r="AE133" s="110"/>
-      <c r="AF133" s="110"/>
-      <c r="AG133" s="110"/>
-      <c r="AH133" s="110"/>
-      <c r="AI133" s="110"/>
-      <c r="AJ133" s="110"/>
-      <c r="AK133" s="110"/>
-      <c r="AL133" s="110"/>
-      <c r="AM133" s="110"/>
-      <c r="AN133" s="110"/>
-      <c r="AO133" s="110"/>
-      <c r="AP133" s="110"/>
-      <c r="AQ133" s="110"/>
-      <c r="AR133" s="110"/>
-      <c r="AS133" s="110"/>
+      <c r="D133" s="157"/>
+      <c r="E133" s="157"/>
+      <c r="F133" s="157"/>
+      <c r="G133" s="157"/>
+      <c r="H133" s="157"/>
+      <c r="I133" s="157"/>
+      <c r="J133" s="157"/>
+      <c r="K133" s="157"/>
+      <c r="L133" s="157"/>
+      <c r="M133" s="157"/>
+      <c r="N133" s="157"/>
+      <c r="O133" s="157"/>
+      <c r="P133" s="157"/>
+      <c r="Q133" s="157"/>
+      <c r="R133" s="157"/>
+      <c r="S133" s="157"/>
+      <c r="T133" s="157"/>
+      <c r="U133" s="157"/>
+      <c r="V133" s="157"/>
+      <c r="W133" s="157"/>
+      <c r="X133" s="157"/>
+      <c r="Y133" s="157"/>
+      <c r="Z133" s="157"/>
+      <c r="AA133" s="157"/>
+      <c r="AB133" s="157"/>
+      <c r="AC133" s="157"/>
+      <c r="AD133" s="157"/>
+      <c r="AE133" s="157"/>
+      <c r="AF133" s="157"/>
+      <c r="AG133" s="157"/>
+      <c r="AH133" s="157"/>
+      <c r="AI133" s="157"/>
+      <c r="AJ133" s="157"/>
+      <c r="AK133" s="157"/>
+      <c r="AL133" s="157"/>
+      <c r="AM133" s="157"/>
+      <c r="AN133" s="157"/>
+      <c r="AO133" s="157"/>
+      <c r="AP133" s="157"/>
+      <c r="AQ133" s="157"/>
+      <c r="AR133" s="157"/>
+      <c r="AS133" s="157"/>
       <c r="AT133" s="18"/>
       <c r="AU133" s="8"/>
     </row>
@@ -9061,15 +9088,15 @@
       <c r="AM135" s="29"/>
       <c r="AN135" s="29"/>
       <c r="AO135" s="29"/>
-      <c r="AP135" s="167" t="s">
+      <c r="AP135" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AQ135" s="167"/>
+      <c r="AQ135" s="158"/>
       <c r="AR135" s="27"/>
-      <c r="AS135" s="167" t="s">
+      <c r="AS135" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AT135" s="167"/>
+      <c r="AT135" s="158"/>
       <c r="AU135" s="8"/>
       <c r="AV135" s="23"/>
     </row>
@@ -9122,16 +9149,16 @@
       </c>
       <c r="M137" s="21"/>
       <c r="N137" s="49"/>
-      <c r="P137" s="148"/>
-      <c r="Q137" s="148"/>
-      <c r="R137" s="148"/>
-      <c r="S137" s="148"/>
-      <c r="T137" s="148"/>
-      <c r="U137" s="148"/>
-      <c r="V137" s="148"/>
-      <c r="W137" s="148"/>
-      <c r="X137" s="148"/>
-      <c r="Y137" s="148"/>
+      <c r="P137" s="163"/>
+      <c r="Q137" s="163"/>
+      <c r="R137" s="163"/>
+      <c r="S137" s="163"/>
+      <c r="T137" s="163"/>
+      <c r="U137" s="163"/>
+      <c r="V137" s="163"/>
+      <c r="W137" s="163"/>
+      <c r="X137" s="163"/>
+      <c r="Y137" s="163"/>
       <c r="Z137" s="31" t="s">
         <v>129</v>
       </c>
@@ -9149,11 +9176,11 @@
       <c r="AM137" s="8"/>
       <c r="AN137" s="8"/>
       <c r="AO137" s="8"/>
-      <c r="AP137" s="109"/>
-      <c r="AQ137" s="109"/>
+      <c r="AP137" s="161"/>
+      <c r="AQ137" s="161"/>
       <c r="AR137" s="8"/>
-      <c r="AS137" s="109"/>
-      <c r="AT137" s="109"/>
+      <c r="AS137" s="161"/>
+      <c r="AT137" s="161"/>
       <c r="AU137" s="8"/>
     </row>
     <row r="138" spans="1:56" s="20" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2">
@@ -9216,16 +9243,16 @@
       </c>
       <c r="M139" s="21"/>
       <c r="N139" s="49"/>
-      <c r="P139" s="148"/>
-      <c r="Q139" s="148"/>
-      <c r="R139" s="148"/>
-      <c r="S139" s="148"/>
-      <c r="T139" s="148"/>
-      <c r="U139" s="148"/>
-      <c r="V139" s="148"/>
-      <c r="W139" s="148"/>
-      <c r="X139" s="148"/>
-      <c r="Y139" s="148"/>
+      <c r="P139" s="163"/>
+      <c r="Q139" s="163"/>
+      <c r="R139" s="163"/>
+      <c r="S139" s="163"/>
+      <c r="T139" s="163"/>
+      <c r="U139" s="163"/>
+      <c r="V139" s="163"/>
+      <c r="W139" s="163"/>
+      <c r="X139" s="163"/>
+      <c r="Y139" s="163"/>
       <c r="Z139" s="31" t="s">
         <v>131</v>
       </c>
@@ -9237,17 +9264,17 @@
       <c r="AG139" s="6"/>
       <c r="AH139" s="6"/>
       <c r="AI139" s="6"/>
-      <c r="AJ139" s="147"/>
-      <c r="AK139" s="147"/>
-      <c r="AL139" s="147"/>
-      <c r="AM139" s="147"/>
-      <c r="AN139" s="147"/>
-      <c r="AO139" s="147"/>
-      <c r="AP139" s="147"/>
-      <c r="AQ139" s="147"/>
-      <c r="AR139" s="147"/>
-      <c r="AS139" s="147"/>
-      <c r="AT139" s="147"/>
+      <c r="AJ139" s="162"/>
+      <c r="AK139" s="162"/>
+      <c r="AL139" s="162"/>
+      <c r="AM139" s="162"/>
+      <c r="AN139" s="162"/>
+      <c r="AO139" s="162"/>
+      <c r="AP139" s="162"/>
+      <c r="AQ139" s="162"/>
+      <c r="AR139" s="162"/>
+      <c r="AS139" s="162"/>
+      <c r="AT139" s="162"/>
       <c r="AU139" s="8"/>
     </row>
     <row r="140" spans="1:56" s="20" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2">
@@ -9377,44 +9404,44 @@
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
       <c r="O143" s="18"/>
-      <c r="P143" s="137" t="s">
+      <c r="P143" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="Q143" s="137"/>
-      <c r="R143" s="137"/>
-      <c r="S143" s="137"/>
-      <c r="T143" s="137"/>
-      <c r="U143" s="137"/>
-      <c r="V143" s="137"/>
-      <c r="W143" s="137"/>
-      <c r="X143" s="137"/>
-      <c r="Y143" s="137"/>
-      <c r="Z143" s="137"/>
-      <c r="AA143" s="137"/>
-      <c r="AB143" s="137"/>
-      <c r="AC143" s="137"/>
-      <c r="AD143" s="137"/>
-      <c r="AE143" s="137"/>
-      <c r="AF143" s="137"/>
-      <c r="AG143" s="137"/>
-      <c r="AH143" s="137"/>
-      <c r="AI143" s="137"/>
+      <c r="Q143" s="115"/>
+      <c r="R143" s="115"/>
+      <c r="S143" s="115"/>
+      <c r="T143" s="115"/>
+      <c r="U143" s="115"/>
+      <c r="V143" s="115"/>
+      <c r="W143" s="115"/>
+      <c r="X143" s="115"/>
+      <c r="Y143" s="115"/>
+      <c r="Z143" s="115"/>
+      <c r="AA143" s="115"/>
+      <c r="AB143" s="115"/>
+      <c r="AC143" s="115"/>
+      <c r="AD143" s="115"/>
+      <c r="AE143" s="115"/>
+      <c r="AF143" s="115"/>
+      <c r="AG143" s="115"/>
+      <c r="AH143" s="115"/>
+      <c r="AI143" s="115"/>
       <c r="AJ143" s="18"/>
-      <c r="AK143" s="128" t="s">
+      <c r="AK143" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="AL143" s="129"/>
-      <c r="AM143" s="129"/>
-      <c r="AN143" s="143" t="str">
+      <c r="AL143" s="117"/>
+      <c r="AM143" s="117"/>
+      <c r="AN143" s="150" t="str">
         <f>AN2</f>
         <v>SJI-YY-NNN-M</v>
       </c>
-      <c r="AO143" s="143"/>
-      <c r="AP143" s="143"/>
-      <c r="AQ143" s="143"/>
-      <c r="AR143" s="143"/>
-      <c r="AS143" s="143"/>
-      <c r="AT143" s="144"/>
+      <c r="AO143" s="150"/>
+      <c r="AP143" s="150"/>
+      <c r="AQ143" s="150"/>
+      <c r="AR143" s="150"/>
+      <c r="AS143" s="150"/>
+      <c r="AT143" s="151"/>
       <c r="AU143" s="1"/>
       <c r="AV143" s="20"/>
       <c r="AW143" s="20"/>
@@ -9441,39 +9468,39 @@
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
       <c r="O144" s="18"/>
-      <c r="P144" s="137" t="s">
+      <c r="P144" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="Q144" s="137"/>
-      <c r="R144" s="137"/>
-      <c r="S144" s="137"/>
-      <c r="T144" s="137"/>
-      <c r="U144" s="137"/>
-      <c r="V144" s="137"/>
-      <c r="W144" s="137"/>
-      <c r="X144" s="137"/>
-      <c r="Y144" s="137"/>
-      <c r="Z144" s="137"/>
-      <c r="AA144" s="137"/>
-      <c r="AB144" s="137"/>
-      <c r="AC144" s="137"/>
-      <c r="AD144" s="137"/>
-      <c r="AE144" s="137"/>
-      <c r="AF144" s="137"/>
-      <c r="AG144" s="137"/>
-      <c r="AH144" s="137"/>
-      <c r="AI144" s="137"/>
+      <c r="Q144" s="115"/>
+      <c r="R144" s="115"/>
+      <c r="S144" s="115"/>
+      <c r="T144" s="115"/>
+      <c r="U144" s="115"/>
+      <c r="V144" s="115"/>
+      <c r="W144" s="115"/>
+      <c r="X144" s="115"/>
+      <c r="Y144" s="115"/>
+      <c r="Z144" s="115"/>
+      <c r="AA144" s="115"/>
+      <c r="AB144" s="115"/>
+      <c r="AC144" s="115"/>
+      <c r="AD144" s="115"/>
+      <c r="AE144" s="115"/>
+      <c r="AF144" s="115"/>
+      <c r="AG144" s="115"/>
+      <c r="AH144" s="115"/>
+      <c r="AI144" s="115"/>
       <c r="AJ144" s="18"/>
-      <c r="AK144" s="130"/>
-      <c r="AL144" s="131"/>
-      <c r="AM144" s="131"/>
-      <c r="AN144" s="145"/>
-      <c r="AO144" s="145"/>
-      <c r="AP144" s="145"/>
-      <c r="AQ144" s="145"/>
-      <c r="AR144" s="145"/>
-      <c r="AS144" s="145"/>
-      <c r="AT144" s="146"/>
+      <c r="AK144" s="118"/>
+      <c r="AL144" s="119"/>
+      <c r="AM144" s="119"/>
+      <c r="AN144" s="152"/>
+      <c r="AO144" s="152"/>
+      <c r="AP144" s="152"/>
+      <c r="AQ144" s="152"/>
+      <c r="AR144" s="152"/>
+      <c r="AS144" s="152"/>
+      <c r="AT144" s="153"/>
       <c r="AU144" s="1"/>
       <c r="AV144" s="20"/>
       <c r="AW144" s="20"/>
@@ -9503,51 +9530,51 @@
     <row r="146" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="110" t="s">
+      <c r="C146" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="D146" s="110"/>
-      <c r="E146" s="110"/>
-      <c r="F146" s="110"/>
-      <c r="G146" s="110"/>
-      <c r="H146" s="110"/>
-      <c r="I146" s="110"/>
-      <c r="J146" s="110"/>
-      <c r="K146" s="110"/>
-      <c r="L146" s="110"/>
-      <c r="M146" s="110"/>
-      <c r="N146" s="110"/>
-      <c r="O146" s="110"/>
-      <c r="P146" s="110"/>
-      <c r="Q146" s="110"/>
-      <c r="R146" s="110"/>
-      <c r="S146" s="110"/>
-      <c r="T146" s="110"/>
-      <c r="U146" s="110"/>
-      <c r="V146" s="110"/>
-      <c r="W146" s="110"/>
-      <c r="X146" s="110"/>
-      <c r="Y146" s="110"/>
-      <c r="Z146" s="110"/>
-      <c r="AA146" s="110"/>
-      <c r="AB146" s="110"/>
-      <c r="AC146" s="110"/>
-      <c r="AD146" s="110"/>
-      <c r="AE146" s="110"/>
-      <c r="AF146" s="110"/>
-      <c r="AG146" s="110"/>
-      <c r="AH146" s="110"/>
-      <c r="AI146" s="110"/>
-      <c r="AJ146" s="110"/>
-      <c r="AK146" s="110"/>
-      <c r="AL146" s="110"/>
-      <c r="AM146" s="110"/>
-      <c r="AN146" s="110"/>
-      <c r="AO146" s="110"/>
-      <c r="AP146" s="110"/>
-      <c r="AQ146" s="110"/>
-      <c r="AR146" s="110"/>
-      <c r="AS146" s="110"/>
+      <c r="D146" s="157"/>
+      <c r="E146" s="157"/>
+      <c r="F146" s="157"/>
+      <c r="G146" s="157"/>
+      <c r="H146" s="157"/>
+      <c r="I146" s="157"/>
+      <c r="J146" s="157"/>
+      <c r="K146" s="157"/>
+      <c r="L146" s="157"/>
+      <c r="M146" s="157"/>
+      <c r="N146" s="157"/>
+      <c r="O146" s="157"/>
+      <c r="P146" s="157"/>
+      <c r="Q146" s="157"/>
+      <c r="R146" s="157"/>
+      <c r="S146" s="157"/>
+      <c r="T146" s="157"/>
+      <c r="U146" s="157"/>
+      <c r="V146" s="157"/>
+      <c r="W146" s="157"/>
+      <c r="X146" s="157"/>
+      <c r="Y146" s="157"/>
+      <c r="Z146" s="157"/>
+      <c r="AA146" s="157"/>
+      <c r="AB146" s="157"/>
+      <c r="AC146" s="157"/>
+      <c r="AD146" s="157"/>
+      <c r="AE146" s="157"/>
+      <c r="AF146" s="157"/>
+      <c r="AG146" s="157"/>
+      <c r="AH146" s="157"/>
+      <c r="AI146" s="157"/>
+      <c r="AJ146" s="157"/>
+      <c r="AK146" s="157"/>
+      <c r="AL146" s="157"/>
+      <c r="AM146" s="157"/>
+      <c r="AN146" s="157"/>
+      <c r="AO146" s="157"/>
+      <c r="AP146" s="157"/>
+      <c r="AQ146" s="157"/>
+      <c r="AR146" s="157"/>
+      <c r="AS146" s="157"/>
       <c r="AT146" s="18"/>
       <c r="AU146" s="1"/>
       <c r="AV146" s="20"/>
@@ -12820,44 +12847,44 @@
       <c r="M213" s="18"/>
       <c r="N213" s="18"/>
       <c r="O213" s="18"/>
-      <c r="P213" s="137" t="s">
+      <c r="P213" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="Q213" s="137"/>
-      <c r="R213" s="137"/>
-      <c r="S213" s="137"/>
-      <c r="T213" s="137"/>
-      <c r="U213" s="137"/>
-      <c r="V213" s="137"/>
-      <c r="W213" s="137"/>
-      <c r="X213" s="137"/>
-      <c r="Y213" s="137"/>
-      <c r="Z213" s="137"/>
-      <c r="AA213" s="137"/>
-      <c r="AB213" s="137"/>
-      <c r="AC213" s="137"/>
-      <c r="AD213" s="137"/>
-      <c r="AE213" s="137"/>
-      <c r="AF213" s="137"/>
-      <c r="AG213" s="137"/>
-      <c r="AH213" s="137"/>
-      <c r="AI213" s="137"/>
+      <c r="Q213" s="115"/>
+      <c r="R213" s="115"/>
+      <c r="S213" s="115"/>
+      <c r="T213" s="115"/>
+      <c r="U213" s="115"/>
+      <c r="V213" s="115"/>
+      <c r="W213" s="115"/>
+      <c r="X213" s="115"/>
+      <c r="Y213" s="115"/>
+      <c r="Z213" s="115"/>
+      <c r="AA213" s="115"/>
+      <c r="AB213" s="115"/>
+      <c r="AC213" s="115"/>
+      <c r="AD213" s="115"/>
+      <c r="AE213" s="115"/>
+      <c r="AF213" s="115"/>
+      <c r="AG213" s="115"/>
+      <c r="AH213" s="115"/>
+      <c r="AI213" s="115"/>
       <c r="AJ213" s="18"/>
-      <c r="AK213" s="128" t="s">
+      <c r="AK213" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="AL213" s="129"/>
-      <c r="AM213" s="129"/>
-      <c r="AN213" s="143" t="str">
+      <c r="AL213" s="117"/>
+      <c r="AM213" s="117"/>
+      <c r="AN213" s="150" t="str">
         <f>AN2</f>
         <v>SJI-YY-NNN-M</v>
       </c>
-      <c r="AO213" s="143"/>
-      <c r="AP213" s="143"/>
-      <c r="AQ213" s="143"/>
-      <c r="AR213" s="143"/>
-      <c r="AS213" s="143"/>
-      <c r="AT213" s="144"/>
+      <c r="AO213" s="150"/>
+      <c r="AP213" s="150"/>
+      <c r="AQ213" s="150"/>
+      <c r="AR213" s="150"/>
+      <c r="AS213" s="150"/>
+      <c r="AT213" s="151"/>
       <c r="AU213" s="1"/>
       <c r="AV213" s="20"/>
       <c r="AW213" s="20"/>
@@ -12884,39 +12911,39 @@
       <c r="M214" s="18"/>
       <c r="N214" s="18"/>
       <c r="O214" s="18"/>
-      <c r="P214" s="137" t="s">
+      <c r="P214" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="Q214" s="137"/>
-      <c r="R214" s="137"/>
-      <c r="S214" s="137"/>
-      <c r="T214" s="137"/>
-      <c r="U214" s="137"/>
-      <c r="V214" s="137"/>
-      <c r="W214" s="137"/>
-      <c r="X214" s="137"/>
-      <c r="Y214" s="137"/>
-      <c r="Z214" s="137"/>
-      <c r="AA214" s="137"/>
-      <c r="AB214" s="137"/>
-      <c r="AC214" s="137"/>
-      <c r="AD214" s="137"/>
-      <c r="AE214" s="137"/>
-      <c r="AF214" s="137"/>
-      <c r="AG214" s="137"/>
-      <c r="AH214" s="137"/>
-      <c r="AI214" s="137"/>
+      <c r="Q214" s="115"/>
+      <c r="R214" s="115"/>
+      <c r="S214" s="115"/>
+      <c r="T214" s="115"/>
+      <c r="U214" s="115"/>
+      <c r="V214" s="115"/>
+      <c r="W214" s="115"/>
+      <c r="X214" s="115"/>
+      <c r="Y214" s="115"/>
+      <c r="Z214" s="115"/>
+      <c r="AA214" s="115"/>
+      <c r="AB214" s="115"/>
+      <c r="AC214" s="115"/>
+      <c r="AD214" s="115"/>
+      <c r="AE214" s="115"/>
+      <c r="AF214" s="115"/>
+      <c r="AG214" s="115"/>
+      <c r="AH214" s="115"/>
+      <c r="AI214" s="115"/>
       <c r="AJ214" s="18"/>
-      <c r="AK214" s="130"/>
-      <c r="AL214" s="131"/>
-      <c r="AM214" s="131"/>
-      <c r="AN214" s="145"/>
-      <c r="AO214" s="145"/>
-      <c r="AP214" s="145"/>
-      <c r="AQ214" s="145"/>
-      <c r="AR214" s="145"/>
-      <c r="AS214" s="145"/>
-      <c r="AT214" s="146"/>
+      <c r="AK214" s="118"/>
+      <c r="AL214" s="119"/>
+      <c r="AM214" s="119"/>
+      <c r="AN214" s="152"/>
+      <c r="AO214" s="152"/>
+      <c r="AP214" s="152"/>
+      <c r="AQ214" s="152"/>
+      <c r="AR214" s="152"/>
+      <c r="AS214" s="152"/>
+      <c r="AT214" s="153"/>
       <c r="AU214" s="1"/>
       <c r="AV214" s="20"/>
       <c r="AW214" s="20"/>
@@ -12946,51 +12973,51 @@
     <row r="216" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
-      <c r="C216" s="110" t="s">
+      <c r="C216" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="D216" s="110"/>
-      <c r="E216" s="110"/>
-      <c r="F216" s="110"/>
-      <c r="G216" s="110"/>
-      <c r="H216" s="110"/>
-      <c r="I216" s="110"/>
-      <c r="J216" s="110"/>
-      <c r="K216" s="110"/>
-      <c r="L216" s="110"/>
-      <c r="M216" s="110"/>
-      <c r="N216" s="110"/>
-      <c r="O216" s="110"/>
-      <c r="P216" s="110"/>
-      <c r="Q216" s="110"/>
-      <c r="R216" s="110"/>
-      <c r="S216" s="110"/>
-      <c r="T216" s="110"/>
-      <c r="U216" s="110"/>
-      <c r="V216" s="110"/>
-      <c r="W216" s="110"/>
-      <c r="X216" s="110"/>
-      <c r="Y216" s="110"/>
-      <c r="Z216" s="110"/>
-      <c r="AA216" s="110"/>
-      <c r="AB216" s="110"/>
-      <c r="AC216" s="110"/>
-      <c r="AD216" s="110"/>
-      <c r="AE216" s="110"/>
-      <c r="AF216" s="110"/>
-      <c r="AG216" s="110"/>
-      <c r="AH216" s="110"/>
-      <c r="AI216" s="110"/>
-      <c r="AJ216" s="110"/>
-      <c r="AK216" s="110"/>
-      <c r="AL216" s="110"/>
-      <c r="AM216" s="110"/>
-      <c r="AN216" s="110"/>
-      <c r="AO216" s="110"/>
-      <c r="AP216" s="110"/>
-      <c r="AQ216" s="110"/>
-      <c r="AR216" s="110"/>
-      <c r="AS216" s="110"/>
+      <c r="D216" s="157"/>
+      <c r="E216" s="157"/>
+      <c r="F216" s="157"/>
+      <c r="G216" s="157"/>
+      <c r="H216" s="157"/>
+      <c r="I216" s="157"/>
+      <c r="J216" s="157"/>
+      <c r="K216" s="157"/>
+      <c r="L216" s="157"/>
+      <c r="M216" s="157"/>
+      <c r="N216" s="157"/>
+      <c r="O216" s="157"/>
+      <c r="P216" s="157"/>
+      <c r="Q216" s="157"/>
+      <c r="R216" s="157"/>
+      <c r="S216" s="157"/>
+      <c r="T216" s="157"/>
+      <c r="U216" s="157"/>
+      <c r="V216" s="157"/>
+      <c r="W216" s="157"/>
+      <c r="X216" s="157"/>
+      <c r="Y216" s="157"/>
+      <c r="Z216" s="157"/>
+      <c r="AA216" s="157"/>
+      <c r="AB216" s="157"/>
+      <c r="AC216" s="157"/>
+      <c r="AD216" s="157"/>
+      <c r="AE216" s="157"/>
+      <c r="AF216" s="157"/>
+      <c r="AG216" s="157"/>
+      <c r="AH216" s="157"/>
+      <c r="AI216" s="157"/>
+      <c r="AJ216" s="157"/>
+      <c r="AK216" s="157"/>
+      <c r="AL216" s="157"/>
+      <c r="AM216" s="157"/>
+      <c r="AN216" s="157"/>
+      <c r="AO216" s="157"/>
+      <c r="AP216" s="157"/>
+      <c r="AQ216" s="157"/>
+      <c r="AR216" s="157"/>
+      <c r="AS216" s="157"/>
       <c r="AT216" s="18"/>
       <c r="AU216" s="1"/>
       <c r="AV216" s="20"/>
@@ -16001,6 +16028,338 @@
   </protectedRanges>
   <dataConsolidate/>
   <mergeCells count="356">
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO57:AR57"/>
+    <mergeCell ref="AO59:AR59"/>
+    <mergeCell ref="AO61:AR61"/>
+    <mergeCell ref="AO63:AR63"/>
+    <mergeCell ref="AO65:AR65"/>
+    <mergeCell ref="AO67:AR67"/>
+    <mergeCell ref="AO69:AR69"/>
+    <mergeCell ref="AP137:AQ137"/>
+    <mergeCell ref="B77:AR77"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="O90:W90"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="X93:AI93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="AD69:AH69"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="AD59:AH59"/>
+    <mergeCell ref="AD61:AH61"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="AD65:AH65"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="I50:W50"/>
+    <mergeCell ref="AB50:AH50"/>
+    <mergeCell ref="AP26:AT26"/>
+    <mergeCell ref="AP18:AT18"/>
+    <mergeCell ref="AP24:AT24"/>
+    <mergeCell ref="AJ16:AT16"/>
+    <mergeCell ref="AP46:AT46"/>
+    <mergeCell ref="AP44:AT44"/>
+    <mergeCell ref="AP20:AT20"/>
+    <mergeCell ref="AP22:AT22"/>
+    <mergeCell ref="AP30:AT30"/>
+    <mergeCell ref="AP36:AT36"/>
+    <mergeCell ref="AP34:AT34"/>
+    <mergeCell ref="AP42:AT42"/>
+    <mergeCell ref="AP28:AT28"/>
+    <mergeCell ref="AP38:AT38"/>
+    <mergeCell ref="AP32:AT32"/>
+    <mergeCell ref="B17:AH25"/>
+    <mergeCell ref="B26:AH33"/>
+    <mergeCell ref="B34:AH47"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AT3"/>
+    <mergeCell ref="AL9:AT9"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="H13:AT13"/>
+    <mergeCell ref="P2:AI2"/>
+    <mergeCell ref="P3:AI3"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="H7:Q7"/>
+    <mergeCell ref="X9:AF9"/>
+    <mergeCell ref="X7:AF7"/>
+    <mergeCell ref="H11:AF11"/>
+    <mergeCell ref="AL11:AT11"/>
+    <mergeCell ref="C5:AS5"/>
+    <mergeCell ref="O93:W93"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="C216:AS216"/>
+    <mergeCell ref="C146:AS146"/>
+    <mergeCell ref="P213:AI213"/>
+    <mergeCell ref="AK213:AM214"/>
+    <mergeCell ref="AN213:AT214"/>
+    <mergeCell ref="P214:AI214"/>
+    <mergeCell ref="AS137:AT137"/>
+    <mergeCell ref="AJ139:AT139"/>
+    <mergeCell ref="P137:Y137"/>
+    <mergeCell ref="P139:Y139"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="O92:W92"/>
+    <mergeCell ref="B123:AT123"/>
+    <mergeCell ref="Z125:AC125"/>
+    <mergeCell ref="AD125:AM125"/>
+    <mergeCell ref="AN125:AQ125"/>
+    <mergeCell ref="AR125:AT125"/>
+    <mergeCell ref="B95:AT95"/>
+    <mergeCell ref="B96:AT96"/>
+    <mergeCell ref="C97:AS97"/>
+    <mergeCell ref="B99:AT99"/>
+    <mergeCell ref="AM79:AM84"/>
+    <mergeCell ref="AN79:AN84"/>
+    <mergeCell ref="AO79:AO84"/>
+    <mergeCell ref="AP79:AP84"/>
+    <mergeCell ref="AQ79:AQ84"/>
+    <mergeCell ref="AR79:AR84"/>
+    <mergeCell ref="AS79:AS84"/>
+    <mergeCell ref="AT79:AT84"/>
+    <mergeCell ref="P143:AI143"/>
+    <mergeCell ref="AK143:AM144"/>
+    <mergeCell ref="AN143:AT144"/>
+    <mergeCell ref="P144:AI144"/>
+    <mergeCell ref="X90:AI90"/>
+    <mergeCell ref="X91:AI91"/>
+    <mergeCell ref="X92:AI92"/>
+    <mergeCell ref="C133:AS133"/>
+    <mergeCell ref="AP135:AQ135"/>
+    <mergeCell ref="AS135:AT135"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="X84:AI84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="X85:AI85"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="AJ79:AJ84"/>
+    <mergeCell ref="AK79:AK84"/>
+    <mergeCell ref="AL79:AL84"/>
+    <mergeCell ref="O84:W84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="O85:W85"/>
+    <mergeCell ref="X86:AI86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="X87:AI87"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="O86:W86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="O87:W87"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="X88:AI88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="X89:AI89"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="O88:W88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="O89:W89"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B109:AT109"/>
+    <mergeCell ref="AD104:AM104"/>
+    <mergeCell ref="AN104:AQ104"/>
+    <mergeCell ref="AR104:AT104"/>
+    <mergeCell ref="Z105:AC105"/>
+    <mergeCell ref="AD105:AM105"/>
+    <mergeCell ref="AN105:AQ105"/>
+    <mergeCell ref="AR105:AT105"/>
+    <mergeCell ref="Z106:AC106"/>
+    <mergeCell ref="AD106:AM106"/>
+    <mergeCell ref="AN106:AQ106"/>
+    <mergeCell ref="AR106:AT106"/>
+    <mergeCell ref="Z127:AC127"/>
+    <mergeCell ref="AD127:AM127"/>
+    <mergeCell ref="AN127:AQ127"/>
+    <mergeCell ref="AR127:AT127"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AM128"/>
+    <mergeCell ref="AN128:AQ128"/>
+    <mergeCell ref="AR128:AT128"/>
+    <mergeCell ref="Z126:AC126"/>
+    <mergeCell ref="AD126:AM126"/>
+    <mergeCell ref="AN126:AQ126"/>
+    <mergeCell ref="AR126:AT126"/>
+    <mergeCell ref="Z131:AC131"/>
+    <mergeCell ref="AD131:AM131"/>
+    <mergeCell ref="AN131:AQ131"/>
+    <mergeCell ref="AR131:AT131"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="G125:Q125"/>
+    <mergeCell ref="R125:U125"/>
+    <mergeCell ref="V125:X125"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="G126:Q126"/>
+    <mergeCell ref="R126:U126"/>
+    <mergeCell ref="V126:X126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="G127:Q127"/>
+    <mergeCell ref="R127:U127"/>
+    <mergeCell ref="V127:X127"/>
+    <mergeCell ref="Z129:AC129"/>
+    <mergeCell ref="AD129:AM129"/>
+    <mergeCell ref="AN129:AQ129"/>
+    <mergeCell ref="AR129:AT129"/>
+    <mergeCell ref="Z130:AC130"/>
+    <mergeCell ref="AD130:AM130"/>
+    <mergeCell ref="AN130:AQ130"/>
+    <mergeCell ref="AR130:AT130"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="G111:Q111"/>
+    <mergeCell ref="R111:U111"/>
+    <mergeCell ref="V111:X111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="G112:Q112"/>
+    <mergeCell ref="R112:U112"/>
+    <mergeCell ref="V112:X112"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="G131:Q131"/>
+    <mergeCell ref="R131:U131"/>
+    <mergeCell ref="V131:X131"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="G130:Q130"/>
+    <mergeCell ref="R130:U130"/>
+    <mergeCell ref="V130:X130"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="G128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:X128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="G129:Q129"/>
+    <mergeCell ref="R129:U129"/>
+    <mergeCell ref="V129:X129"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="G116:Q116"/>
+    <mergeCell ref="R116:U116"/>
+    <mergeCell ref="V116:X116"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="G113:Q113"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="V113:X113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="G114:Q114"/>
+    <mergeCell ref="R114:U114"/>
+    <mergeCell ref="V114:X114"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="G121:Q121"/>
+    <mergeCell ref="R121:U121"/>
+    <mergeCell ref="V121:X121"/>
+    <mergeCell ref="Z111:AC111"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="Z115:AC115"/>
+    <mergeCell ref="Z117:AC117"/>
+    <mergeCell ref="Z120:AC120"/>
+    <mergeCell ref="Z121:AC121"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="G120:Q120"/>
+    <mergeCell ref="R120:U120"/>
+    <mergeCell ref="V120:X120"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="G117:Q117"/>
+    <mergeCell ref="R117:U117"/>
+    <mergeCell ref="V117:X117"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="G119:Q119"/>
+    <mergeCell ref="R119:U119"/>
+    <mergeCell ref="V119:X119"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="G115:Q115"/>
+    <mergeCell ref="AN119:AQ119"/>
+    <mergeCell ref="AR119:AT119"/>
+    <mergeCell ref="AD115:AM115"/>
+    <mergeCell ref="AN115:AQ115"/>
+    <mergeCell ref="AR115:AT115"/>
+    <mergeCell ref="Z116:AC116"/>
+    <mergeCell ref="AD116:AM116"/>
+    <mergeCell ref="AN116:AQ116"/>
+    <mergeCell ref="AR116:AT116"/>
+    <mergeCell ref="AD121:AM121"/>
+    <mergeCell ref="AN121:AQ121"/>
+    <mergeCell ref="AR121:AT121"/>
+    <mergeCell ref="Z101:AC101"/>
+    <mergeCell ref="AD101:AM101"/>
+    <mergeCell ref="AN101:AQ101"/>
+    <mergeCell ref="AR101:AT101"/>
+    <mergeCell ref="Z102:AC102"/>
+    <mergeCell ref="AD102:AM102"/>
+    <mergeCell ref="AN102:AQ102"/>
+    <mergeCell ref="AR102:AT102"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AM103"/>
+    <mergeCell ref="AN103:AQ103"/>
+    <mergeCell ref="AR103:AT103"/>
+    <mergeCell ref="Z104:AC104"/>
+    <mergeCell ref="AD120:AM120"/>
+    <mergeCell ref="AN120:AQ120"/>
+    <mergeCell ref="AR120:AT120"/>
+    <mergeCell ref="AD117:AM117"/>
+    <mergeCell ref="AN117:AQ117"/>
+    <mergeCell ref="AR117:AT117"/>
+    <mergeCell ref="Z119:AC119"/>
+    <mergeCell ref="AD119:AM119"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:X103"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="V104:X104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:Q105"/>
+    <mergeCell ref="R105:U105"/>
+    <mergeCell ref="P74:AI74"/>
+    <mergeCell ref="AK74:AM75"/>
+    <mergeCell ref="AN74:AT75"/>
+    <mergeCell ref="P75:AI75"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="G107:Q107"/>
+    <mergeCell ref="R107:U107"/>
+    <mergeCell ref="V107:X107"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="G106:Q106"/>
+    <mergeCell ref="Z107:AC107"/>
+    <mergeCell ref="AD107:AM107"/>
+    <mergeCell ref="AN107:AQ107"/>
+    <mergeCell ref="AR107:AT107"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:Q101"/>
+    <mergeCell ref="R101:U101"/>
+    <mergeCell ref="V101:X101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:Q102"/>
+    <mergeCell ref="R106:U106"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="R102:U102"/>
+    <mergeCell ref="V102:X102"/>
     <mergeCell ref="AD111:AM111"/>
     <mergeCell ref="AN111:AQ111"/>
     <mergeCell ref="AR111:AT111"/>
@@ -16025,338 +16384,6 @@
     <mergeCell ref="AR114:AT114"/>
     <mergeCell ref="R115:U115"/>
     <mergeCell ref="V115:X115"/>
-    <mergeCell ref="P74:AI74"/>
-    <mergeCell ref="AK74:AM75"/>
-    <mergeCell ref="AN74:AT75"/>
-    <mergeCell ref="P75:AI75"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="G107:Q107"/>
-    <mergeCell ref="R107:U107"/>
-    <mergeCell ref="V107:X107"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="G106:Q106"/>
-    <mergeCell ref="Z107:AC107"/>
-    <mergeCell ref="AD107:AM107"/>
-    <mergeCell ref="AN107:AQ107"/>
-    <mergeCell ref="AR107:AT107"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:Q101"/>
-    <mergeCell ref="R101:U101"/>
-    <mergeCell ref="V101:X101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:Q102"/>
-    <mergeCell ref="R106:U106"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="R102:U102"/>
-    <mergeCell ref="V102:X102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="G103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:X103"/>
-    <mergeCell ref="V106:X106"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="V104:X104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:Q105"/>
-    <mergeCell ref="R105:U105"/>
-    <mergeCell ref="AD121:AM121"/>
-    <mergeCell ref="AN121:AQ121"/>
-    <mergeCell ref="AR121:AT121"/>
-    <mergeCell ref="Z101:AC101"/>
-    <mergeCell ref="AD101:AM101"/>
-    <mergeCell ref="AN101:AQ101"/>
-    <mergeCell ref="AR101:AT101"/>
-    <mergeCell ref="Z102:AC102"/>
-    <mergeCell ref="AD102:AM102"/>
-    <mergeCell ref="AN102:AQ102"/>
-    <mergeCell ref="AR102:AT102"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AM103"/>
-    <mergeCell ref="AN103:AQ103"/>
-    <mergeCell ref="AR103:AT103"/>
-    <mergeCell ref="Z104:AC104"/>
-    <mergeCell ref="AD120:AM120"/>
-    <mergeCell ref="AN120:AQ120"/>
-    <mergeCell ref="AR120:AT120"/>
-    <mergeCell ref="AD117:AM117"/>
-    <mergeCell ref="AN117:AQ117"/>
-    <mergeCell ref="AR117:AT117"/>
-    <mergeCell ref="Z119:AC119"/>
-    <mergeCell ref="AD119:AM119"/>
-    <mergeCell ref="AN119:AQ119"/>
-    <mergeCell ref="AR119:AT119"/>
-    <mergeCell ref="AD115:AM115"/>
-    <mergeCell ref="AN115:AQ115"/>
-    <mergeCell ref="AR115:AT115"/>
-    <mergeCell ref="Z116:AC116"/>
-    <mergeCell ref="AD116:AM116"/>
-    <mergeCell ref="AN116:AQ116"/>
-    <mergeCell ref="AR116:AT116"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="G121:Q121"/>
-    <mergeCell ref="R121:U121"/>
-    <mergeCell ref="V121:X121"/>
-    <mergeCell ref="Z111:AC111"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="Z115:AC115"/>
-    <mergeCell ref="Z117:AC117"/>
-    <mergeCell ref="Z120:AC120"/>
-    <mergeCell ref="Z121:AC121"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="G120:Q120"/>
-    <mergeCell ref="R120:U120"/>
-    <mergeCell ref="V120:X120"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="G117:Q117"/>
-    <mergeCell ref="R117:U117"/>
-    <mergeCell ref="V117:X117"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="G119:Q119"/>
-    <mergeCell ref="R119:U119"/>
-    <mergeCell ref="V119:X119"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="G115:Q115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="G116:Q116"/>
-    <mergeCell ref="R116:U116"/>
-    <mergeCell ref="V116:X116"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="G113:Q113"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="V113:X113"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="G114:Q114"/>
-    <mergeCell ref="R114:U114"/>
-    <mergeCell ref="V114:X114"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="G111:Q111"/>
-    <mergeCell ref="R111:U111"/>
-    <mergeCell ref="V111:X111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="G112:Q112"/>
-    <mergeCell ref="R112:U112"/>
-    <mergeCell ref="V112:X112"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="G131:Q131"/>
-    <mergeCell ref="R131:U131"/>
-    <mergeCell ref="V131:X131"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="G130:Q130"/>
-    <mergeCell ref="R130:U130"/>
-    <mergeCell ref="V130:X130"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="G128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:X128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="G129:Q129"/>
-    <mergeCell ref="R129:U129"/>
-    <mergeCell ref="V129:X129"/>
-    <mergeCell ref="Z131:AC131"/>
-    <mergeCell ref="AD131:AM131"/>
-    <mergeCell ref="AN131:AQ131"/>
-    <mergeCell ref="AR131:AT131"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="G125:Q125"/>
-    <mergeCell ref="R125:U125"/>
-    <mergeCell ref="V125:X125"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="G126:Q126"/>
-    <mergeCell ref="R126:U126"/>
-    <mergeCell ref="V126:X126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="G127:Q127"/>
-    <mergeCell ref="R127:U127"/>
-    <mergeCell ref="V127:X127"/>
-    <mergeCell ref="Z129:AC129"/>
-    <mergeCell ref="AD129:AM129"/>
-    <mergeCell ref="AN129:AQ129"/>
-    <mergeCell ref="AR129:AT129"/>
-    <mergeCell ref="Z130:AC130"/>
-    <mergeCell ref="AD130:AM130"/>
-    <mergeCell ref="AN130:AQ130"/>
-    <mergeCell ref="AR130:AT130"/>
-    <mergeCell ref="Z127:AC127"/>
-    <mergeCell ref="AD127:AM127"/>
-    <mergeCell ref="AN127:AQ127"/>
-    <mergeCell ref="AR127:AT127"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AM128"/>
-    <mergeCell ref="AN128:AQ128"/>
-    <mergeCell ref="AR128:AT128"/>
-    <mergeCell ref="Z126:AC126"/>
-    <mergeCell ref="AD126:AM126"/>
-    <mergeCell ref="AN126:AQ126"/>
-    <mergeCell ref="AR126:AT126"/>
-    <mergeCell ref="B109:AT109"/>
-    <mergeCell ref="AD104:AM104"/>
-    <mergeCell ref="AN104:AQ104"/>
-    <mergeCell ref="AR104:AT104"/>
-    <mergeCell ref="Z105:AC105"/>
-    <mergeCell ref="AD105:AM105"/>
-    <mergeCell ref="AN105:AQ105"/>
-    <mergeCell ref="AR105:AT105"/>
-    <mergeCell ref="Z106:AC106"/>
-    <mergeCell ref="AD106:AM106"/>
-    <mergeCell ref="AN106:AQ106"/>
-    <mergeCell ref="AR106:AT106"/>
-    <mergeCell ref="X88:AI88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="X89:AI89"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="O88:W88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="O89:W89"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="X86:AI86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="X87:AI87"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="O86:W86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="O87:W87"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="X84:AI84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="X85:AI85"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="AJ79:AJ84"/>
-    <mergeCell ref="AK79:AK84"/>
-    <mergeCell ref="AL79:AL84"/>
-    <mergeCell ref="O84:W84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="O85:W85"/>
-    <mergeCell ref="AM79:AM84"/>
-    <mergeCell ref="AN79:AN84"/>
-    <mergeCell ref="AO79:AO84"/>
-    <mergeCell ref="AP79:AP84"/>
-    <mergeCell ref="AQ79:AQ84"/>
-    <mergeCell ref="AR79:AR84"/>
-    <mergeCell ref="AS79:AS84"/>
-    <mergeCell ref="AT79:AT84"/>
-    <mergeCell ref="P143:AI143"/>
-    <mergeCell ref="AK143:AM144"/>
-    <mergeCell ref="AN143:AT144"/>
-    <mergeCell ref="P144:AI144"/>
-    <mergeCell ref="X90:AI90"/>
-    <mergeCell ref="X91:AI91"/>
-    <mergeCell ref="X92:AI92"/>
-    <mergeCell ref="C133:AS133"/>
-    <mergeCell ref="AP135:AQ135"/>
-    <mergeCell ref="AS135:AT135"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:W91"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="O93:W93"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="C216:AS216"/>
-    <mergeCell ref="C146:AS146"/>
-    <mergeCell ref="P213:AI213"/>
-    <mergeCell ref="AK213:AM214"/>
-    <mergeCell ref="AN213:AT214"/>
-    <mergeCell ref="P214:AI214"/>
-    <mergeCell ref="AS137:AT137"/>
-    <mergeCell ref="AJ139:AT139"/>
-    <mergeCell ref="P137:Y137"/>
-    <mergeCell ref="P139:Y139"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="O92:W92"/>
-    <mergeCell ref="B123:AT123"/>
-    <mergeCell ref="Z125:AC125"/>
-    <mergeCell ref="AD125:AM125"/>
-    <mergeCell ref="AN125:AQ125"/>
-    <mergeCell ref="AR125:AT125"/>
-    <mergeCell ref="B95:AT95"/>
-    <mergeCell ref="B96:AT96"/>
-    <mergeCell ref="C97:AS97"/>
-    <mergeCell ref="B99:AT99"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AT3"/>
-    <mergeCell ref="AL9:AT9"/>
-    <mergeCell ref="AL7:AT7"/>
-    <mergeCell ref="H13:AT13"/>
-    <mergeCell ref="P2:AI2"/>
-    <mergeCell ref="P3:AI3"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="H7:Q7"/>
-    <mergeCell ref="X9:AF9"/>
-    <mergeCell ref="X7:AF7"/>
-    <mergeCell ref="H11:AF11"/>
-    <mergeCell ref="AL11:AT11"/>
-    <mergeCell ref="C5:AS5"/>
-    <mergeCell ref="I50:W50"/>
-    <mergeCell ref="AB50:AH50"/>
-    <mergeCell ref="AP26:AT26"/>
-    <mergeCell ref="AP18:AT18"/>
-    <mergeCell ref="AP24:AT24"/>
-    <mergeCell ref="AJ16:AT16"/>
-    <mergeCell ref="AP46:AT46"/>
-    <mergeCell ref="AP44:AT44"/>
-    <mergeCell ref="AP20:AT20"/>
-    <mergeCell ref="AP22:AT22"/>
-    <mergeCell ref="AP30:AT30"/>
-    <mergeCell ref="AP36:AT36"/>
-    <mergeCell ref="AP34:AT34"/>
-    <mergeCell ref="AP42:AT42"/>
-    <mergeCell ref="AP28:AT28"/>
-    <mergeCell ref="AP38:AT38"/>
-    <mergeCell ref="AP32:AT32"/>
-    <mergeCell ref="B17:AH25"/>
-    <mergeCell ref="B26:AH33"/>
-    <mergeCell ref="B34:AH47"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="AD69:AH69"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="AD59:AH59"/>
-    <mergeCell ref="AD61:AH61"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="AD65:AH65"/>
-    <mergeCell ref="AD67:AH67"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO57:AR57"/>
-    <mergeCell ref="AO59:AR59"/>
-    <mergeCell ref="AO61:AR61"/>
-    <mergeCell ref="AO63:AR63"/>
-    <mergeCell ref="AO65:AR65"/>
-    <mergeCell ref="AO67:AR67"/>
-    <mergeCell ref="AO69:AR69"/>
-    <mergeCell ref="AP137:AQ137"/>
-    <mergeCell ref="B77:AR77"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="O90:W90"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="X93:AI93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="J93:N93"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.22053571428571428" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16392,13 +16419,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="182"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="181"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">

--- a/Flex_SGM/obj/Release/Package/PackageTmp/Templates/TemplatePCR.xlsx
+++ b/Flex_SGM/obj/Release/Package/PackageTmp/Templates/TemplatePCR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcamacho\source\repos\flexngate\Bitacora\Bitacora\Flex_SGM\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FFA94A-65B3-4702-81A3-74AB15F371EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586C120-6A8A-4F3D-9542-69EF3DAB359E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="825" windowWidth="12120" windowHeight="7320" tabRatio="284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,54 +605,6 @@
     <t>{{Reviewedby_date}}</t>
   </si>
   <si>
-    <t>{{support_purchasing}}</t>
-  </si>
-  <si>
-    <t>{{support_materials}}</t>
-  </si>
-  <si>
-    <t>{{support_maintenance}}</t>
-  </si>
-  <si>
-    <t>{{support_automation}}</t>
-  </si>
-  <si>
-    <t>{{support_quality}}</t>
-  </si>
-  <si>
-    <t>{{support_safety}}</t>
-  </si>
-  <si>
-    <t>{{support_environmental}}</t>
-  </si>
-  <si>
-    <t>{{support_tooling}}</t>
-  </si>
-  <si>
-    <t>{{support_stamping}}</t>
-  </si>
-  <si>
-    <t>{{support_welding}}</t>
-  </si>
-  <si>
-    <t>{{support_chrome}}</t>
-  </si>
-  <si>
-    <t>{{support_ecoat}}</t>
-  </si>
-  <si>
-    <t>{{support_topcoat}}</t>
-  </si>
-  <si>
-    <t>{{support_backcoat}}</t>
-  </si>
-  <si>
-    <t>{{support_assembly}}</t>
-  </si>
-  <si>
-    <t>{{support_finance}}</t>
-  </si>
-  <si>
     <t>{{Keymilestones_buildmrd1}}</t>
   </si>
   <si>
@@ -699,6 +651,54 @@
   </si>
   <si>
     <t>{{leadtime_totallt}}</t>
+  </si>
+  <si>
+    <t>{{support_Compras}}</t>
+  </si>
+  <si>
+    <t>{{support_Materiales}}</t>
+  </si>
+  <si>
+    <t>{{support_Estampado}}</t>
+  </si>
+  <si>
+    <t>{{support_Soldadura}}</t>
+  </si>
+  <si>
+    <t>{{support_Mantenimiento}}</t>
+  </si>
+  <si>
+    <t>{{support_Automatizacion}}</t>
+  </si>
+  <si>
+    <t>{{support_Chromo}}</t>
+  </si>
+  <si>
+    <t>{{support_Ecoat}}</t>
+  </si>
+  <si>
+    <t>{{support_Topcoat}}</t>
+  </si>
+  <si>
+    <t>{{support_Backcoat}}</t>
+  </si>
+  <si>
+    <t>{{support_Calidad}}</t>
+  </si>
+  <si>
+    <t>{{support_Seguridad}}</t>
+  </si>
+  <si>
+    <t>{{support_Ambiental}}</t>
+  </si>
+  <si>
+    <t>{{support_Tooling}}</t>
+  </si>
+  <si>
+    <t>{{support_Ensamble}}</t>
+  </si>
+  <si>
+    <t>{{support_Finanzas}}</t>
   </si>
 </sst>
 </file>
@@ -1583,29 +1583,86 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1635,23 +1692,49 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1661,6 +1744,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1674,14 +1784,20 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1698,129 +1814,26 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1831,19 +1844,6 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2491,8 +2491,8 @@
   </sheetPr>
   <dimension ref="A1:BD277"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="S55" activeCellId="1" sqref="J55:L69 S55:U69"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="S70" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2583,43 +2583,43 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
-      <c r="P2" s="115" t="s">
+      <c r="P2" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="18"/>
-      <c r="AK2" s="116" t="s">
+      <c r="AK2" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="117"/>
-      <c r="AM2" s="117"/>
-      <c r="AN2" s="120" t="s">
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="AO2" s="120"/>
-      <c r="AP2" s="120"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="120"/>
-      <c r="AS2" s="120"/>
-      <c r="AT2" s="121"/>
+      <c r="AO2" s="137"/>
+      <c r="AP2" s="137"/>
+      <c r="AQ2" s="137"/>
+      <c r="AR2" s="137"/>
+      <c r="AS2" s="137"/>
+      <c r="AT2" s="138"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="20"/>
       <c r="AW2" s="20"/>
@@ -2644,39 +2644,39 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
-      <c r="P3" s="115" t="s">
+      <c r="P3" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
       <c r="AJ3" s="18"/>
-      <c r="AK3" s="118"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="122"/>
-      <c r="AO3" s="122"/>
-      <c r="AP3" s="122"/>
-      <c r="AQ3" s="122"/>
-      <c r="AR3" s="122"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="123"/>
+      <c r="AK3" s="135"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="139"/>
+      <c r="AO3" s="139"/>
+      <c r="AP3" s="139"/>
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139"/>
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="140"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="20"/>
       <c r="AW3" s="20"/>
@@ -2702,51 +2702,51 @@
     <row r="5" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="157"/>
-      <c r="R5" s="157"/>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="157"/>
-      <c r="X5" s="157"/>
-      <c r="Y5" s="157"/>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="157"/>
-      <c r="AC5" s="157"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="157"/>
-      <c r="AF5" s="157"/>
-      <c r="AG5" s="157"/>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="157"/>
-      <c r="AM5" s="157"/>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="157"/>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
-      <c r="AS5" s="157"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="115"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="115"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="115"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="115"/>
+      <c r="AM5" s="115"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
       <c r="AT5" s="18"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="20"/>
@@ -2818,18 +2818,18 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="167" t="s">
+      <c r="H7" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
       <c r="R7" s="6"/>
       <c r="S7" s="15" t="s">
         <v>29</v>
@@ -2838,34 +2838,34 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="167" t="s">
+      <c r="X7" s="143" t="s">
         <v>163</v>
       </c>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="167"/>
-      <c r="AF7" s="167"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="143"/>
       <c r="AH7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-      <c r="AL7" s="165" t="s">
+      <c r="AL7" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="AM7" s="165"/>
-      <c r="AN7" s="165"/>
-      <c r="AO7" s="165"/>
-      <c r="AP7" s="165"/>
-      <c r="AQ7" s="165"/>
-      <c r="AR7" s="165"/>
-      <c r="AS7" s="165"/>
-      <c r="AT7" s="165"/>
+      <c r="AM7" s="131"/>
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="131"/>
+      <c r="AP7" s="131"/>
+      <c r="AQ7" s="131"/>
+      <c r="AR7" s="131"/>
+      <c r="AS7" s="131"/>
+      <c r="AT7" s="131"/>
       <c r="AU7" s="8"/>
     </row>
     <row r="8" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2925,18 +2925,18 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="143" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="167"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="143"/>
       <c r="R9" s="6"/>
       <c r="S9" s="15" t="s">
         <v>30</v>
@@ -2945,34 +2945,34 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="167" t="s">
+      <c r="X9" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="Y9" s="167"/>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="167"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="143"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="143"/>
+      <c r="AF9" s="143"/>
       <c r="AH9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AL9" s="165" t="s">
+      <c r="AL9" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="AM9" s="165"/>
-      <c r="AN9" s="165"/>
-      <c r="AO9" s="165"/>
-      <c r="AP9" s="165"/>
-      <c r="AQ9" s="165"/>
-      <c r="AR9" s="165"/>
-      <c r="AS9" s="165"/>
-      <c r="AT9" s="165"/>
+      <c r="AM9" s="131"/>
+      <c r="AN9" s="131"/>
+      <c r="AO9" s="131"/>
+      <c r="AP9" s="131"/>
+      <c r="AQ9" s="131"/>
+      <c r="AR9" s="131"/>
+      <c r="AS9" s="131"/>
+      <c r="AT9" s="131"/>
       <c r="AU9" s="8"/>
     </row>
     <row r="10" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3032,50 +3032,50 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="167" t="s">
+      <c r="H11" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="167"/>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="167"/>
-      <c r="S11" s="167"/>
-      <c r="T11" s="167"/>
-      <c r="U11" s="167"/>
-      <c r="V11" s="167"/>
-      <c r="W11" s="167"/>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="167"/>
-      <c r="Z11" s="167"/>
-      <c r="AA11" s="167"/>
-      <c r="AB11" s="167"/>
-      <c r="AC11" s="167"/>
-      <c r="AD11" s="167"/>
-      <c r="AE11" s="167"/>
-      <c r="AF11" s="167"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="143"/>
+      <c r="Y11" s="143"/>
+      <c r="Z11" s="143"/>
+      <c r="AA11" s="143"/>
+      <c r="AB11" s="143"/>
+      <c r="AC11" s="143"/>
+      <c r="AD11" s="143"/>
+      <c r="AE11" s="143"/>
+      <c r="AF11" s="143"/>
       <c r="AH11" s="53" t="s">
         <v>25</v>
       </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-      <c r="AL11" s="168" t="s">
+      <c r="AL11" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="AM11" s="168"/>
-      <c r="AN11" s="168"/>
-      <c r="AO11" s="168"/>
-      <c r="AP11" s="168"/>
-      <c r="AQ11" s="168"/>
-      <c r="AR11" s="168"/>
-      <c r="AS11" s="168"/>
-      <c r="AT11" s="168"/>
+      <c r="AM11" s="144"/>
+      <c r="AN11" s="144"/>
+      <c r="AO11" s="144"/>
+      <c r="AP11" s="144"/>
+      <c r="AQ11" s="144"/>
+      <c r="AR11" s="144"/>
+      <c r="AS11" s="144"/>
+      <c r="AT11" s="144"/>
       <c r="AU11" s="8"/>
     </row>
     <row r="12" spans="1:56" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3135,47 +3135,47 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="166" t="s">
+      <c r="H13" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="166"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="166"/>
-      <c r="AF13" s="166"/>
-      <c r="AG13" s="166"/>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="166"/>
-      <c r="AJ13" s="166"/>
-      <c r="AK13" s="166"/>
-      <c r="AL13" s="166"/>
-      <c r="AM13" s="166"/>
-      <c r="AN13" s="166"/>
-      <c r="AO13" s="166"/>
-      <c r="AP13" s="166"/>
-      <c r="AQ13" s="166"/>
-      <c r="AR13" s="166"/>
-      <c r="AS13" s="166"/>
-      <c r="AT13" s="166"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="141"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="141"/>
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="141"/>
+      <c r="AG13" s="141"/>
+      <c r="AH13" s="141"/>
+      <c r="AI13" s="141"/>
+      <c r="AJ13" s="141"/>
+      <c r="AK13" s="141"/>
+      <c r="AL13" s="141"/>
+      <c r="AM13" s="141"/>
+      <c r="AN13" s="141"/>
+      <c r="AO13" s="141"/>
+      <c r="AP13" s="141"/>
+      <c r="AQ13" s="141"/>
+      <c r="AR13" s="141"/>
+      <c r="AS13" s="141"/>
+      <c r="AT13" s="141"/>
       <c r="AU13" s="8"/>
     </row>
     <row r="14" spans="1:56" s="20" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3313,58 +3313,58 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
-      <c r="AJ16" s="172" t="s">
+      <c r="AJ16" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="AK16" s="172"/>
-      <c r="AL16" s="172"/>
-      <c r="AM16" s="172"/>
-      <c r="AN16" s="172"/>
-      <c r="AO16" s="172"/>
-      <c r="AP16" s="172"/>
-      <c r="AQ16" s="172"/>
-      <c r="AR16" s="172"/>
-      <c r="AS16" s="172"/>
-      <c r="AT16" s="172"/>
+      <c r="AK16" s="130"/>
+      <c r="AL16" s="130"/>
+      <c r="AM16" s="130"/>
+      <c r="AN16" s="130"/>
+      <c r="AO16" s="130"/>
+      <c r="AP16" s="130"/>
+      <c r="AQ16" s="130"/>
+      <c r="AR16" s="130"/>
+      <c r="AS16" s="130"/>
+      <c r="AT16" s="130"/>
       <c r="AU16" s="8"/>
     </row>
     <row r="17" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="173"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="173"/>
-      <c r="U17" s="173"/>
-      <c r="V17" s="173"/>
-      <c r="W17" s="173"/>
-      <c r="X17" s="173"/>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="173"/>
-      <c r="AA17" s="173"/>
-      <c r="AB17" s="173"/>
-      <c r="AC17" s="173"/>
-      <c r="AD17" s="173"/>
-      <c r="AE17" s="173"/>
-      <c r="AF17" s="173"/>
-      <c r="AG17" s="173"/>
-      <c r="AH17" s="173"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="132"/>
+      <c r="AE17" s="132"/>
+      <c r="AF17" s="132"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
@@ -3381,39 +3381,39 @@
     </row>
     <row r="18" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="173"/>
-      <c r="S18" s="173"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="173"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="173"/>
-      <c r="AD18" s="173"/>
-      <c r="AE18" s="173"/>
-      <c r="AF18" s="173"/>
-      <c r="AG18" s="173"/>
-      <c r="AH18" s="173"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="132"/>
+      <c r="AD18" s="132"/>
+      <c r="AE18" s="132"/>
+      <c r="AF18" s="132"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="8" t="s">
         <v>47</v>
@@ -3425,50 +3425,50 @@
       <c r="AO18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP18" s="171" t="s">
+      <c r="AP18" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="AQ18" s="171"/>
-      <c r="AR18" s="171"/>
-      <c r="AS18" s="171"/>
-      <c r="AT18" s="171"/>
+      <c r="AQ18" s="129"/>
+      <c r="AR18" s="129"/>
+      <c r="AS18" s="129"/>
+      <c r="AT18" s="129"/>
       <c r="AU18" s="8"/>
     </row>
     <row r="19" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="173"/>
-      <c r="S19" s="173"/>
-      <c r="T19" s="173"/>
-      <c r="U19" s="173"/>
-      <c r="V19" s="173"/>
-      <c r="W19" s="173"/>
-      <c r="X19" s="173"/>
-      <c r="Y19" s="173"/>
-      <c r="Z19" s="173"/>
-      <c r="AA19" s="173"/>
-      <c r="AB19" s="173"/>
-      <c r="AC19" s="173"/>
-      <c r="AD19" s="173"/>
-      <c r="AE19" s="173"/>
-      <c r="AF19" s="173"/>
-      <c r="AG19" s="173"/>
-      <c r="AH19" s="173"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+      <c r="AB19" s="132"/>
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="132"/>
+      <c r="AE19" s="132"/>
+      <c r="AF19" s="132"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="11"/>
       <c r="AK19" s="7"/>
@@ -3485,39 +3485,39 @@
     </row>
     <row r="20" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="173"/>
-      <c r="P20" s="173"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="173"/>
-      <c r="S20" s="173"/>
-      <c r="T20" s="173"/>
-      <c r="U20" s="173"/>
-      <c r="V20" s="173"/>
-      <c r="W20" s="173"/>
-      <c r="X20" s="173"/>
-      <c r="Y20" s="173"/>
-      <c r="Z20" s="173"/>
-      <c r="AA20" s="173"/>
-      <c r="AB20" s="173"/>
-      <c r="AC20" s="173"/>
-      <c r="AD20" s="173"/>
-      <c r="AE20" s="173"/>
-      <c r="AF20" s="173"/>
-      <c r="AG20" s="173"/>
-      <c r="AH20" s="173"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="132"/>
+      <c r="AE20" s="132"/>
+      <c r="AF20" s="132"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8" t="s">
         <v>41</v>
@@ -3529,50 +3529,50 @@
       <c r="AO20" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP20" s="171" t="s">
+      <c r="AP20" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="AQ20" s="171"/>
-      <c r="AR20" s="171"/>
-      <c r="AS20" s="171"/>
-      <c r="AT20" s="171"/>
+      <c r="AQ20" s="129"/>
+      <c r="AR20" s="129"/>
+      <c r="AS20" s="129"/>
+      <c r="AT20" s="129"/>
       <c r="AU20" s="8"/>
     </row>
     <row r="21" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="173"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="173"/>
-      <c r="U21" s="173"/>
-      <c r="V21" s="173"/>
-      <c r="W21" s="173"/>
-      <c r="X21" s="173"/>
-      <c r="Y21" s="173"/>
-      <c r="Z21" s="173"/>
-      <c r="AA21" s="173"/>
-      <c r="AB21" s="173"/>
-      <c r="AC21" s="173"/>
-      <c r="AD21" s="173"/>
-      <c r="AE21" s="173"/>
-      <c r="AF21" s="173"/>
-      <c r="AG21" s="173"/>
-      <c r="AH21" s="173"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="132"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="132"/>
+      <c r="AE21" s="132"/>
+      <c r="AF21" s="132"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="7"/>
@@ -3589,39 +3589,39 @@
     </row>
     <row r="22" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="173"/>
-      <c r="L22" s="173"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="173"/>
-      <c r="O22" s="173"/>
-      <c r="P22" s="173"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="173"/>
-      <c r="S22" s="173"/>
-      <c r="T22" s="173"/>
-      <c r="U22" s="173"/>
-      <c r="V22" s="173"/>
-      <c r="W22" s="173"/>
-      <c r="X22" s="173"/>
-      <c r="Y22" s="173"/>
-      <c r="Z22" s="173"/>
-      <c r="AA22" s="173"/>
-      <c r="AB22" s="173"/>
-      <c r="AC22" s="173"/>
-      <c r="AD22" s="173"/>
-      <c r="AE22" s="173"/>
-      <c r="AF22" s="173"/>
-      <c r="AG22" s="173"/>
-      <c r="AH22" s="173"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="132"/>
+      <c r="AE22" s="132"/>
+      <c r="AF22" s="132"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8" t="s">
         <v>39</v>
@@ -3633,50 +3633,50 @@
       <c r="AO22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP22" s="171" t="s">
+      <c r="AP22" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="AQ22" s="171"/>
-      <c r="AR22" s="171"/>
-      <c r="AS22" s="171"/>
-      <c r="AT22" s="171"/>
+      <c r="AQ22" s="129"/>
+      <c r="AR22" s="129"/>
+      <c r="AS22" s="129"/>
+      <c r="AT22" s="129"/>
       <c r="AU22" s="8"/>
     </row>
     <row r="23" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="173"/>
-      <c r="S23" s="173"/>
-      <c r="T23" s="173"/>
-      <c r="U23" s="173"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="173"/>
-      <c r="Y23" s="173"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="173"/>
-      <c r="AB23" s="173"/>
-      <c r="AC23" s="173"/>
-      <c r="AD23" s="173"/>
-      <c r="AE23" s="173"/>
-      <c r="AF23" s="173"/>
-      <c r="AG23" s="173"/>
-      <c r="AH23" s="173"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="132"/>
+      <c r="AD23" s="132"/>
+      <c r="AE23" s="132"/>
+      <c r="AF23" s="132"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
@@ -3693,39 +3693,39 @@
     </row>
     <row r="24" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="173"/>
-      <c r="P24" s="173"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="173"/>
-      <c r="S24" s="173"/>
-      <c r="T24" s="173"/>
-      <c r="U24" s="173"/>
-      <c r="V24" s="173"/>
-      <c r="W24" s="173"/>
-      <c r="X24" s="173"/>
-      <c r="Y24" s="173"/>
-      <c r="Z24" s="173"/>
-      <c r="AA24" s="173"/>
-      <c r="AB24" s="173"/>
-      <c r="AC24" s="173"/>
-      <c r="AD24" s="173"/>
-      <c r="AE24" s="173"/>
-      <c r="AF24" s="173"/>
-      <c r="AG24" s="173"/>
-      <c r="AH24" s="173"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="132"/>
+      <c r="AE24" s="132"/>
+      <c r="AF24" s="132"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8" t="s">
         <v>42</v>
@@ -3737,50 +3737,50 @@
       <c r="AO24" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP24" s="171" t="s">
+      <c r="AP24" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="AQ24" s="171"/>
-      <c r="AR24" s="171"/>
-      <c r="AS24" s="171"/>
-      <c r="AT24" s="171"/>
+      <c r="AQ24" s="129"/>
+      <c r="AR24" s="129"/>
+      <c r="AS24" s="129"/>
+      <c r="AT24" s="129"/>
       <c r="AU24" s="8"/>
     </row>
     <row r="25" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="173"/>
-      <c r="M25" s="173"/>
-      <c r="N25" s="173"/>
-      <c r="O25" s="173"/>
-      <c r="P25" s="173"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="173"/>
-      <c r="S25" s="173"/>
-      <c r="T25" s="173"/>
-      <c r="U25" s="173"/>
-      <c r="V25" s="173"/>
-      <c r="W25" s="173"/>
-      <c r="X25" s="173"/>
-      <c r="Y25" s="173"/>
-      <c r="Z25" s="173"/>
-      <c r="AA25" s="173"/>
-      <c r="AB25" s="173"/>
-      <c r="AC25" s="173"/>
-      <c r="AD25" s="173"/>
-      <c r="AE25" s="173"/>
-      <c r="AF25" s="173"/>
-      <c r="AG25" s="173"/>
-      <c r="AH25" s="173"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="132"/>
+      <c r="AE25" s="132"/>
+      <c r="AF25" s="132"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="11"/>
@@ -3797,41 +3797,41 @@
     </row>
     <row r="26" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="173"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="173"/>
-      <c r="O26" s="173"/>
-      <c r="P26" s="173"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="173"/>
-      <c r="S26" s="173"/>
-      <c r="T26" s="173"/>
-      <c r="U26" s="173"/>
-      <c r="V26" s="173"/>
-      <c r="W26" s="173"/>
-      <c r="X26" s="173"/>
-      <c r="Y26" s="173"/>
-      <c r="Z26" s="173"/>
-      <c r="AA26" s="173"/>
-      <c r="AB26" s="173"/>
-      <c r="AC26" s="173"/>
-      <c r="AD26" s="173"/>
-      <c r="AE26" s="173"/>
-      <c r="AF26" s="173"/>
-      <c r="AG26" s="173"/>
-      <c r="AH26" s="173"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="132"/>
+      <c r="AF26" s="132"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8" t="s">
         <v>19</v>
@@ -3843,50 +3843,50 @@
       <c r="AO26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP26" s="171" t="s">
+      <c r="AP26" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="AQ26" s="171"/>
-      <c r="AR26" s="171"/>
-      <c r="AS26" s="171"/>
-      <c r="AT26" s="171"/>
+      <c r="AQ26" s="129"/>
+      <c r="AR26" s="129"/>
+      <c r="AS26" s="129"/>
+      <c r="AT26" s="129"/>
       <c r="AU26" s="8"/>
     </row>
     <row r="27" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="173"/>
-      <c r="O27" s="173"/>
-      <c r="P27" s="173"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="173"/>
-      <c r="S27" s="173"/>
-      <c r="T27" s="173"/>
-      <c r="U27" s="173"/>
-      <c r="V27" s="173"/>
-      <c r="W27" s="173"/>
-      <c r="X27" s="173"/>
-      <c r="Y27" s="173"/>
-      <c r="Z27" s="173"/>
-      <c r="AA27" s="173"/>
-      <c r="AB27" s="173"/>
-      <c r="AC27" s="173"/>
-      <c r="AD27" s="173"/>
-      <c r="AE27" s="173"/>
-      <c r="AF27" s="173"/>
-      <c r="AG27" s="173"/>
-      <c r="AH27" s="173"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="132"/>
+      <c r="AE27" s="132"/>
+      <c r="AF27" s="132"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
@@ -3903,39 +3903,39 @@
     </row>
     <row r="28" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="173"/>
-      <c r="S28" s="173"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="173"/>
-      <c r="W28" s="173"/>
-      <c r="X28" s="173"/>
-      <c r="Y28" s="173"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="173"/>
-      <c r="AF28" s="173"/>
-      <c r="AG28" s="173"/>
-      <c r="AH28" s="173"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
+      <c r="X28" s="132"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="132"/>
+      <c r="AD28" s="132"/>
+      <c r="AE28" s="132"/>
+      <c r="AF28" s="132"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8" t="s">
         <v>43</v>
@@ -3947,50 +3947,50 @@
       <c r="AO28" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP28" s="171" t="s">
+      <c r="AP28" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="AQ28" s="171"/>
-      <c r="AR28" s="171"/>
-      <c r="AS28" s="171"/>
-      <c r="AT28" s="171"/>
+      <c r="AQ28" s="129"/>
+      <c r="AR28" s="129"/>
+      <c r="AS28" s="129"/>
+      <c r="AT28" s="129"/>
       <c r="AU28" s="8"/>
     </row>
     <row r="29" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="173"/>
-      <c r="N29" s="173"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="173"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="173"/>
-      <c r="U29" s="173"/>
-      <c r="V29" s="173"/>
-      <c r="W29" s="173"/>
-      <c r="X29" s="173"/>
-      <c r="Y29" s="173"/>
-      <c r="Z29" s="173"/>
-      <c r="AA29" s="173"/>
-      <c r="AB29" s="173"/>
-      <c r="AC29" s="173"/>
-      <c r="AD29" s="173"/>
-      <c r="AE29" s="173"/>
-      <c r="AF29" s="173"/>
-      <c r="AG29" s="173"/>
-      <c r="AH29" s="173"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="132"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="132"/>
+      <c r="AF29" s="132"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
@@ -4007,39 +4007,39 @@
     </row>
     <row r="30" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="173"/>
-      <c r="L30" s="173"/>
-      <c r="M30" s="173"/>
-      <c r="N30" s="173"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="173"/>
-      <c r="S30" s="173"/>
-      <c r="T30" s="173"/>
-      <c r="U30" s="173"/>
-      <c r="V30" s="173"/>
-      <c r="W30" s="173"/>
-      <c r="X30" s="173"/>
-      <c r="Y30" s="173"/>
-      <c r="Z30" s="173"/>
-      <c r="AA30" s="173"/>
-      <c r="AB30" s="173"/>
-      <c r="AC30" s="173"/>
-      <c r="AD30" s="173"/>
-      <c r="AE30" s="173"/>
-      <c r="AF30" s="173"/>
-      <c r="AG30" s="173"/>
-      <c r="AH30" s="173"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="132"/>
+      <c r="AD30" s="132"/>
+      <c r="AE30" s="132"/>
+      <c r="AF30" s="132"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8" t="s">
         <v>45</v>
@@ -4051,50 +4051,50 @@
       <c r="AO30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP30" s="171" t="s">
+      <c r="AP30" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="AQ30" s="171"/>
-      <c r="AR30" s="171"/>
-      <c r="AS30" s="171"/>
-      <c r="AT30" s="171"/>
+      <c r="AQ30" s="129"/>
+      <c r="AR30" s="129"/>
+      <c r="AS30" s="129"/>
+      <c r="AT30" s="129"/>
       <c r="AU30" s="8"/>
     </row>
     <row r="31" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="173"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="173"/>
-      <c r="S31" s="173"/>
-      <c r="T31" s="173"/>
-      <c r="U31" s="173"/>
-      <c r="V31" s="173"/>
-      <c r="W31" s="173"/>
-      <c r="X31" s="173"/>
-      <c r="Y31" s="173"/>
-      <c r="Z31" s="173"/>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="173"/>
-      <c r="AC31" s="173"/>
-      <c r="AD31" s="173"/>
-      <c r="AE31" s="173"/>
-      <c r="AF31" s="173"/>
-      <c r="AG31" s="173"/>
-      <c r="AH31" s="173"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="132"/>
+      <c r="AD31" s="132"/>
+      <c r="AE31" s="132"/>
+      <c r="AF31" s="132"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
@@ -4111,39 +4111,39 @@
     </row>
     <row r="32" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="173"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="173"/>
-      <c r="S32" s="173"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="173"/>
-      <c r="V32" s="173"/>
-      <c r="W32" s="173"/>
-      <c r="X32" s="173"/>
-      <c r="Y32" s="173"/>
-      <c r="Z32" s="173"/>
-      <c r="AA32" s="173"/>
-      <c r="AB32" s="173"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="173"/>
-      <c r="AE32" s="173"/>
-      <c r="AF32" s="173"/>
-      <c r="AG32" s="173"/>
-      <c r="AH32" s="173"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="132"/>
+      <c r="AF32" s="132"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8" t="s">
         <v>46</v>
@@ -4155,50 +4155,50 @@
       <c r="AO32" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP32" s="171" t="s">
+      <c r="AP32" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="AQ32" s="171"/>
-      <c r="AR32" s="171"/>
-      <c r="AS32" s="171"/>
-      <c r="AT32" s="171"/>
+      <c r="AQ32" s="129"/>
+      <c r="AR32" s="129"/>
+      <c r="AS32" s="129"/>
+      <c r="AT32" s="129"/>
       <c r="AU32" s="8"/>
     </row>
     <row r="33" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="173"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="173"/>
-      <c r="N33" s="173"/>
-      <c r="O33" s="173"/>
-      <c r="P33" s="173"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="173"/>
-      <c r="S33" s="173"/>
-      <c r="T33" s="173"/>
-      <c r="U33" s="173"/>
-      <c r="V33" s="173"/>
-      <c r="W33" s="173"/>
-      <c r="X33" s="173"/>
-      <c r="Y33" s="173"/>
-      <c r="Z33" s="173"/>
-      <c r="AA33" s="173"/>
-      <c r="AB33" s="173"/>
-      <c r="AC33" s="173"/>
-      <c r="AD33" s="173"/>
-      <c r="AE33" s="173"/>
-      <c r="AF33" s="173"/>
-      <c r="AG33" s="173"/>
-      <c r="AH33" s="173"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="132"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="132"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="132"/>
+      <c r="AE33" s="132"/>
+      <c r="AF33" s="132"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8"/>
@@ -4215,41 +4215,41 @@
     </row>
     <row r="34" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
-      <c r="B34" s="173" t="s">
+      <c r="B34" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="173"/>
-      <c r="L34" s="173"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="173"/>
-      <c r="P34" s="173"/>
-      <c r="Q34" s="173"/>
-      <c r="R34" s="173"/>
-      <c r="S34" s="173"/>
-      <c r="T34" s="173"/>
-      <c r="U34" s="173"/>
-      <c r="V34" s="173"/>
-      <c r="W34" s="173"/>
-      <c r="X34" s="173"/>
-      <c r="Y34" s="173"/>
-      <c r="Z34" s="173"/>
-      <c r="AA34" s="173"/>
-      <c r="AB34" s="173"/>
-      <c r="AC34" s="173"/>
-      <c r="AD34" s="173"/>
-      <c r="AE34" s="173"/>
-      <c r="AF34" s="173"/>
-      <c r="AG34" s="173"/>
-      <c r="AH34" s="173"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="132"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="132"/>
+      <c r="R34" s="132"/>
+      <c r="S34" s="132"/>
+      <c r="T34" s="132"/>
+      <c r="U34" s="132"/>
+      <c r="V34" s="132"/>
+      <c r="W34" s="132"/>
+      <c r="X34" s="132"/>
+      <c r="Y34" s="132"/>
+      <c r="Z34" s="132"/>
+      <c r="AA34" s="132"/>
+      <c r="AB34" s="132"/>
+      <c r="AC34" s="132"/>
+      <c r="AD34" s="132"/>
+      <c r="AE34" s="132"/>
+      <c r="AF34" s="132"/>
+      <c r="AG34" s="132"/>
+      <c r="AH34" s="132"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8" t="s">
         <v>50</v>
@@ -4261,50 +4261,50 @@
       <c r="AO34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP34" s="171" t="s">
+      <c r="AP34" s="129" t="s">
         <v>182</v>
       </c>
-      <c r="AQ34" s="171"/>
-      <c r="AR34" s="171"/>
-      <c r="AS34" s="171"/>
-      <c r="AT34" s="171"/>
+      <c r="AQ34" s="129"/>
+      <c r="AR34" s="129"/>
+      <c r="AS34" s="129"/>
+      <c r="AT34" s="129"/>
       <c r="AU34" s="8"/>
     </row>
     <row r="35" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="173"/>
-      <c r="C35" s="173"/>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="173"/>
-      <c r="M35" s="173"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
-      <c r="Q35" s="173"/>
-      <c r="R35" s="173"/>
-      <c r="S35" s="173"/>
-      <c r="T35" s="173"/>
-      <c r="U35" s="173"/>
-      <c r="V35" s="173"/>
-      <c r="W35" s="173"/>
-      <c r="X35" s="173"/>
-      <c r="Y35" s="173"/>
-      <c r="Z35" s="173"/>
-      <c r="AA35" s="173"/>
-      <c r="AB35" s="173"/>
-      <c r="AC35" s="173"/>
-      <c r="AD35" s="173"/>
-      <c r="AE35" s="173"/>
-      <c r="AF35" s="173"/>
-      <c r="AG35" s="173"/>
-      <c r="AH35" s="173"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="132"/>
+      <c r="P35" s="132"/>
+      <c r="Q35" s="132"/>
+      <c r="R35" s="132"/>
+      <c r="S35" s="132"/>
+      <c r="T35" s="132"/>
+      <c r="U35" s="132"/>
+      <c r="V35" s="132"/>
+      <c r="W35" s="132"/>
+      <c r="X35" s="132"/>
+      <c r="Y35" s="132"/>
+      <c r="Z35" s="132"/>
+      <c r="AA35" s="132"/>
+      <c r="AB35" s="132"/>
+      <c r="AC35" s="132"/>
+      <c r="AD35" s="132"/>
+      <c r="AE35" s="132"/>
+      <c r="AF35" s="132"/>
+      <c r="AG35" s="132"/>
+      <c r="AH35" s="132"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
@@ -4321,39 +4321,39 @@
     </row>
     <row r="36" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="173"/>
-      <c r="P36" s="173"/>
-      <c r="Q36" s="173"/>
-      <c r="R36" s="173"/>
-      <c r="S36" s="173"/>
-      <c r="T36" s="173"/>
-      <c r="U36" s="173"/>
-      <c r="V36" s="173"/>
-      <c r="W36" s="173"/>
-      <c r="X36" s="173"/>
-      <c r="Y36" s="173"/>
-      <c r="Z36" s="173"/>
-      <c r="AA36" s="173"/>
-      <c r="AB36" s="173"/>
-      <c r="AC36" s="173"/>
-      <c r="AD36" s="173"/>
-      <c r="AE36" s="173"/>
-      <c r="AF36" s="173"/>
-      <c r="AG36" s="173"/>
-      <c r="AH36" s="173"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="132"/>
+      <c r="P36" s="132"/>
+      <c r="Q36" s="132"/>
+      <c r="R36" s="132"/>
+      <c r="S36" s="132"/>
+      <c r="T36" s="132"/>
+      <c r="U36" s="132"/>
+      <c r="V36" s="132"/>
+      <c r="W36" s="132"/>
+      <c r="X36" s="132"/>
+      <c r="Y36" s="132"/>
+      <c r="Z36" s="132"/>
+      <c r="AA36" s="132"/>
+      <c r="AB36" s="132"/>
+      <c r="AC36" s="132"/>
+      <c r="AD36" s="132"/>
+      <c r="AE36" s="132"/>
+      <c r="AF36" s="132"/>
+      <c r="AG36" s="132"/>
+      <c r="AH36" s="132"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8" t="s">
         <v>49</v>
@@ -4365,50 +4365,50 @@
       <c r="AO36" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP36" s="171" t="s">
+      <c r="AP36" s="129" t="s">
         <v>183</v>
       </c>
-      <c r="AQ36" s="171"/>
-      <c r="AR36" s="171"/>
-      <c r="AS36" s="171"/>
-      <c r="AT36" s="171"/>
+      <c r="AQ36" s="129"/>
+      <c r="AR36" s="129"/>
+      <c r="AS36" s="129"/>
+      <c r="AT36" s="129"/>
       <c r="AU36" s="8"/>
     </row>
     <row r="37" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="173"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="173"/>
-      <c r="K37" s="173"/>
-      <c r="L37" s="173"/>
-      <c r="M37" s="173"/>
-      <c r="N37" s="173"/>
-      <c r="O37" s="173"/>
-      <c r="P37" s="173"/>
-      <c r="Q37" s="173"/>
-      <c r="R37" s="173"/>
-      <c r="S37" s="173"/>
-      <c r="T37" s="173"/>
-      <c r="U37" s="173"/>
-      <c r="V37" s="173"/>
-      <c r="W37" s="173"/>
-      <c r="X37" s="173"/>
-      <c r="Y37" s="173"/>
-      <c r="Z37" s="173"/>
-      <c r="AA37" s="173"/>
-      <c r="AB37" s="173"/>
-      <c r="AC37" s="173"/>
-      <c r="AD37" s="173"/>
-      <c r="AE37" s="173"/>
-      <c r="AF37" s="173"/>
-      <c r="AG37" s="173"/>
-      <c r="AH37" s="173"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="132"/>
+      <c r="P37" s="132"/>
+      <c r="Q37" s="132"/>
+      <c r="R37" s="132"/>
+      <c r="S37" s="132"/>
+      <c r="T37" s="132"/>
+      <c r="U37" s="132"/>
+      <c r="V37" s="132"/>
+      <c r="W37" s="132"/>
+      <c r="X37" s="132"/>
+      <c r="Y37" s="132"/>
+      <c r="Z37" s="132"/>
+      <c r="AA37" s="132"/>
+      <c r="AB37" s="132"/>
+      <c r="AC37" s="132"/>
+      <c r="AD37" s="132"/>
+      <c r="AE37" s="132"/>
+      <c r="AF37" s="132"/>
+      <c r="AG37" s="132"/>
+      <c r="AH37" s="132"/>
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
@@ -4425,39 +4425,39 @@
     </row>
     <row r="38" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
-      <c r="B38" s="173"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="173"/>
-      <c r="K38" s="173"/>
-      <c r="L38" s="173"/>
-      <c r="M38" s="173"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="173"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
-      <c r="R38" s="173"/>
-      <c r="S38" s="173"/>
-      <c r="T38" s="173"/>
-      <c r="U38" s="173"/>
-      <c r="V38" s="173"/>
-      <c r="W38" s="173"/>
-      <c r="X38" s="173"/>
-      <c r="Y38" s="173"/>
-      <c r="Z38" s="173"/>
-      <c r="AA38" s="173"/>
-      <c r="AB38" s="173"/>
-      <c r="AC38" s="173"/>
-      <c r="AD38" s="173"/>
-      <c r="AE38" s="173"/>
-      <c r="AF38" s="173"/>
-      <c r="AG38" s="173"/>
-      <c r="AH38" s="173"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="132"/>
+      <c r="R38" s="132"/>
+      <c r="S38" s="132"/>
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+      <c r="V38" s="132"/>
+      <c r="W38" s="132"/>
+      <c r="X38" s="132"/>
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="132"/>
+      <c r="AA38" s="132"/>
+      <c r="AB38" s="132"/>
+      <c r="AC38" s="132"/>
+      <c r="AD38" s="132"/>
+      <c r="AE38" s="132"/>
+      <c r="AF38" s="132"/>
+      <c r="AG38" s="132"/>
+      <c r="AH38" s="132"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8" t="s">
         <v>48</v>
@@ -4469,50 +4469,50 @@
       <c r="AO38" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AP38" s="171" t="s">
+      <c r="AP38" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="AQ38" s="171"/>
-      <c r="AR38" s="171"/>
-      <c r="AS38" s="171"/>
-      <c r="AT38" s="171"/>
+      <c r="AQ38" s="129"/>
+      <c r="AR38" s="129"/>
+      <c r="AS38" s="129"/>
+      <c r="AT38" s="129"/>
       <c r="AU38" s="8"/>
     </row>
     <row r="39" spans="1:47" s="3" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
-      <c r="B39" s="173"/>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="173"/>
-      <c r="K39" s="173"/>
-      <c r="L39" s="173"/>
-      <c r="M39" s="173"/>
-      <c r="N39" s="173"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="173"/>
-      <c r="R39" s="173"/>
-      <c r="S39" s="173"/>
-      <c r="T39" s="173"/>
-      <c r="U39" s="173"/>
-      <c r="V39" s="173"/>
-      <c r="W39" s="173"/>
-      <c r="X39" s="173"/>
-      <c r="Y39" s="173"/>
-      <c r="Z39" s="173"/>
-      <c r="AA39" s="173"/>
-      <c r="AB39" s="173"/>
-      <c r="AC39" s="173"/>
-      <c r="AD39" s="173"/>
-      <c r="AE39" s="173"/>
-      <c r="AF39" s="173"/>
-      <c r="AG39" s="173"/>
-      <c r="AH39" s="173"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="132"/>
+      <c r="P39" s="132"/>
+      <c r="Q39" s="132"/>
+      <c r="R39" s="132"/>
+      <c r="S39" s="132"/>
+      <c r="T39" s="132"/>
+      <c r="U39" s="132"/>
+      <c r="V39" s="132"/>
+      <c r="W39" s="132"/>
+      <c r="X39" s="132"/>
+      <c r="Y39" s="132"/>
+      <c r="Z39" s="132"/>
+      <c r="AA39" s="132"/>
+      <c r="AB39" s="132"/>
+      <c r="AC39" s="132"/>
+      <c r="AD39" s="132"/>
+      <c r="AE39" s="132"/>
+      <c r="AF39" s="132"/>
+      <c r="AG39" s="132"/>
+      <c r="AH39" s="132"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
@@ -4529,39 +4529,39 @@
     </row>
     <row r="40" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
-      <c r="B40" s="173"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="173"/>
-      <c r="K40" s="173"/>
-      <c r="L40" s="173"/>
-      <c r="M40" s="173"/>
-      <c r="N40" s="173"/>
-      <c r="O40" s="173"/>
-      <c r="P40" s="173"/>
-      <c r="Q40" s="173"/>
-      <c r="R40" s="173"/>
-      <c r="S40" s="173"/>
-      <c r="T40" s="173"/>
-      <c r="U40" s="173"/>
-      <c r="V40" s="173"/>
-      <c r="W40" s="173"/>
-      <c r="X40" s="173"/>
-      <c r="Y40" s="173"/>
-      <c r="Z40" s="173"/>
-      <c r="AA40" s="173"/>
-      <c r="AB40" s="173"/>
-      <c r="AC40" s="173"/>
-      <c r="AD40" s="173"/>
-      <c r="AE40" s="173"/>
-      <c r="AF40" s="173"/>
-      <c r="AG40" s="173"/>
-      <c r="AH40" s="173"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="132"/>
+      <c r="Q40" s="132"/>
+      <c r="R40" s="132"/>
+      <c r="S40" s="132"/>
+      <c r="T40" s="132"/>
+      <c r="U40" s="132"/>
+      <c r="V40" s="132"/>
+      <c r="W40" s="132"/>
+      <c r="X40" s="132"/>
+      <c r="Y40" s="132"/>
+      <c r="Z40" s="132"/>
+      <c r="AA40" s="132"/>
+      <c r="AB40" s="132"/>
+      <c r="AC40" s="132"/>
+      <c r="AD40" s="132"/>
+      <c r="AE40" s="132"/>
+      <c r="AF40" s="132"/>
+      <c r="AG40" s="132"/>
+      <c r="AH40" s="132"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="15" t="s">
         <v>17</v>
@@ -4580,39 +4580,39 @@
     </row>
     <row r="41" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" s="173"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="173"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="173"/>
-      <c r="L41" s="173"/>
-      <c r="M41" s="173"/>
-      <c r="N41" s="173"/>
-      <c r="O41" s="173"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="173"/>
-      <c r="R41" s="173"/>
-      <c r="S41" s="173"/>
-      <c r="T41" s="173"/>
-      <c r="U41" s="173"/>
-      <c r="V41" s="173"/>
-      <c r="W41" s="173"/>
-      <c r="X41" s="173"/>
-      <c r="Y41" s="173"/>
-      <c r="Z41" s="173"/>
-      <c r="AA41" s="173"/>
-      <c r="AB41" s="173"/>
-      <c r="AC41" s="173"/>
-      <c r="AD41" s="173"/>
-      <c r="AE41" s="173"/>
-      <c r="AF41" s="173"/>
-      <c r="AG41" s="173"/>
-      <c r="AH41" s="173"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
+      <c r="P41" s="132"/>
+      <c r="Q41" s="132"/>
+      <c r="R41" s="132"/>
+      <c r="S41" s="132"/>
+      <c r="T41" s="132"/>
+      <c r="U41" s="132"/>
+      <c r="V41" s="132"/>
+      <c r="W41" s="132"/>
+      <c r="X41" s="132"/>
+      <c r="Y41" s="132"/>
+      <c r="Z41" s="132"/>
+      <c r="AA41" s="132"/>
+      <c r="AB41" s="132"/>
+      <c r="AC41" s="132"/>
+      <c r="AD41" s="132"/>
+      <c r="AE41" s="132"/>
+      <c r="AF41" s="132"/>
+      <c r="AG41" s="132"/>
+      <c r="AH41" s="132"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
@@ -4629,39 +4629,39 @@
     </row>
     <row r="42" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
-      <c r="B42" s="173"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="173"/>
-      <c r="K42" s="173"/>
-      <c r="L42" s="173"/>
-      <c r="M42" s="173"/>
-      <c r="N42" s="173"/>
-      <c r="O42" s="173"/>
-      <c r="P42" s="173"/>
-      <c r="Q42" s="173"/>
-      <c r="R42" s="173"/>
-      <c r="S42" s="173"/>
-      <c r="T42" s="173"/>
-      <c r="U42" s="173"/>
-      <c r="V42" s="173"/>
-      <c r="W42" s="173"/>
-      <c r="X42" s="173"/>
-      <c r="Y42" s="173"/>
-      <c r="Z42" s="173"/>
-      <c r="AA42" s="173"/>
-      <c r="AB42" s="173"/>
-      <c r="AC42" s="173"/>
-      <c r="AD42" s="173"/>
-      <c r="AE42" s="173"/>
-      <c r="AF42" s="173"/>
-      <c r="AG42" s="173"/>
-      <c r="AH42" s="173"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="132"/>
+      <c r="P42" s="132"/>
+      <c r="Q42" s="132"/>
+      <c r="R42" s="132"/>
+      <c r="S42" s="132"/>
+      <c r="T42" s="132"/>
+      <c r="U42" s="132"/>
+      <c r="V42" s="132"/>
+      <c r="W42" s="132"/>
+      <c r="X42" s="132"/>
+      <c r="Y42" s="132"/>
+      <c r="Z42" s="132"/>
+      <c r="AA42" s="132"/>
+      <c r="AB42" s="132"/>
+      <c r="AC42" s="132"/>
+      <c r="AD42" s="132"/>
+      <c r="AE42" s="132"/>
+      <c r="AF42" s="132"/>
+      <c r="AG42" s="132"/>
+      <c r="AH42" s="132"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8" t="s">
         <v>99</v>
@@ -4671,50 +4671,50 @@
       <c r="AM42" s="8"/>
       <c r="AN42" s="8"/>
       <c r="AO42" s="8"/>
-      <c r="AP42" s="165" t="s">
+      <c r="AP42" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="AQ42" s="165"/>
-      <c r="AR42" s="165"/>
-      <c r="AS42" s="165"/>
-      <c r="AT42" s="165"/>
+      <c r="AQ42" s="131"/>
+      <c r="AR42" s="131"/>
+      <c r="AS42" s="131"/>
+      <c r="AT42" s="131"/>
       <c r="AU42" s="14"/>
     </row>
     <row r="43" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="173"/>
-      <c r="C43" s="173"/>
-      <c r="D43" s="173"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="173"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="173"/>
-      <c r="N43" s="173"/>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
-      <c r="Q43" s="173"/>
-      <c r="R43" s="173"/>
-      <c r="S43" s="173"/>
-      <c r="T43" s="173"/>
-      <c r="U43" s="173"/>
-      <c r="V43" s="173"/>
-      <c r="W43" s="173"/>
-      <c r="X43" s="173"/>
-      <c r="Y43" s="173"/>
-      <c r="Z43" s="173"/>
-      <c r="AA43" s="173"/>
-      <c r="AB43" s="173"/>
-      <c r="AC43" s="173"/>
-      <c r="AD43" s="173"/>
-      <c r="AE43" s="173"/>
-      <c r="AF43" s="173"/>
-      <c r="AG43" s="173"/>
-      <c r="AH43" s="173"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="132"/>
+      <c r="Q43" s="132"/>
+      <c r="R43" s="132"/>
+      <c r="S43" s="132"/>
+      <c r="T43" s="132"/>
+      <c r="U43" s="132"/>
+      <c r="V43" s="132"/>
+      <c r="W43" s="132"/>
+      <c r="X43" s="132"/>
+      <c r="Y43" s="132"/>
+      <c r="Z43" s="132"/>
+      <c r="AA43" s="132"/>
+      <c r="AB43" s="132"/>
+      <c r="AC43" s="132"/>
+      <c r="AD43" s="132"/>
+      <c r="AE43" s="132"/>
+      <c r="AF43" s="132"/>
+      <c r="AG43" s="132"/>
+      <c r="AH43" s="132"/>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
@@ -4731,39 +4731,39 @@
     </row>
     <row r="44" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="173"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="173"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="173"/>
-      <c r="K44" s="173"/>
-      <c r="L44" s="173"/>
-      <c r="M44" s="173"/>
-      <c r="N44" s="173"/>
-      <c r="O44" s="173"/>
-      <c r="P44" s="173"/>
-      <c r="Q44" s="173"/>
-      <c r="R44" s="173"/>
-      <c r="S44" s="173"/>
-      <c r="T44" s="173"/>
-      <c r="U44" s="173"/>
-      <c r="V44" s="173"/>
-      <c r="W44" s="173"/>
-      <c r="X44" s="173"/>
-      <c r="Y44" s="173"/>
-      <c r="Z44" s="173"/>
-      <c r="AA44" s="173"/>
-      <c r="AB44" s="173"/>
-      <c r="AC44" s="173"/>
-      <c r="AD44" s="173"/>
-      <c r="AE44" s="173"/>
-      <c r="AF44" s="173"/>
-      <c r="AG44" s="173"/>
-      <c r="AH44" s="173"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="132"/>
+      <c r="P44" s="132"/>
+      <c r="Q44" s="132"/>
+      <c r="R44" s="132"/>
+      <c r="S44" s="132"/>
+      <c r="T44" s="132"/>
+      <c r="U44" s="132"/>
+      <c r="V44" s="132"/>
+      <c r="W44" s="132"/>
+      <c r="X44" s="132"/>
+      <c r="Y44" s="132"/>
+      <c r="Z44" s="132"/>
+      <c r="AA44" s="132"/>
+      <c r="AB44" s="132"/>
+      <c r="AC44" s="132"/>
+      <c r="AD44" s="132"/>
+      <c r="AE44" s="132"/>
+      <c r="AF44" s="132"/>
+      <c r="AG44" s="132"/>
+      <c r="AH44" s="132"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8" t="s">
         <v>97</v>
@@ -4773,88 +4773,88 @@
       <c r="AM44" s="8"/>
       <c r="AN44" s="22"/>
       <c r="AO44" s="22"/>
-      <c r="AP44" s="165" t="s">
+      <c r="AP44" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="AQ44" s="165"/>
-      <c r="AR44" s="165"/>
-      <c r="AS44" s="165"/>
-      <c r="AT44" s="165"/>
+      <c r="AQ44" s="131"/>
+      <c r="AR44" s="131"/>
+      <c r="AS44" s="131"/>
+      <c r="AT44" s="131"/>
       <c r="AU44" s="14"/>
     </row>
     <row r="45" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="173"/>
-      <c r="C45" s="173"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="173"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="173"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="173"/>
-      <c r="K45" s="173"/>
-      <c r="L45" s="173"/>
-      <c r="M45" s="173"/>
-      <c r="N45" s="173"/>
-      <c r="O45" s="173"/>
-      <c r="P45" s="173"/>
-      <c r="Q45" s="173"/>
-      <c r="R45" s="173"/>
-      <c r="S45" s="173"/>
-      <c r="T45" s="173"/>
-      <c r="U45" s="173"/>
-      <c r="V45" s="173"/>
-      <c r="W45" s="173"/>
-      <c r="X45" s="173"/>
-      <c r="Y45" s="173"/>
-      <c r="Z45" s="173"/>
-      <c r="AA45" s="173"/>
-      <c r="AB45" s="173"/>
-      <c r="AC45" s="173"/>
-      <c r="AD45" s="173"/>
-      <c r="AE45" s="173"/>
-      <c r="AF45" s="173"/>
-      <c r="AG45" s="173"/>
-      <c r="AH45" s="173"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="132"/>
+      <c r="P45" s="132"/>
+      <c r="Q45" s="132"/>
+      <c r="R45" s="132"/>
+      <c r="S45" s="132"/>
+      <c r="T45" s="132"/>
+      <c r="U45" s="132"/>
+      <c r="V45" s="132"/>
+      <c r="W45" s="132"/>
+      <c r="X45" s="132"/>
+      <c r="Y45" s="132"/>
+      <c r="Z45" s="132"/>
+      <c r="AA45" s="132"/>
+      <c r="AB45" s="132"/>
+      <c r="AC45" s="132"/>
+      <c r="AD45" s="132"/>
+      <c r="AE45" s="132"/>
+      <c r="AF45" s="132"/>
+      <c r="AG45" s="132"/>
+      <c r="AH45" s="132"/>
       <c r="AI45" s="8"/>
       <c r="AU45" s="14"/>
     </row>
     <row r="46" spans="1:47" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
-      <c r="B46" s="173"/>
-      <c r="C46" s="173"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="173"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="173"/>
-      <c r="H46" s="173"/>
-      <c r="I46" s="173"/>
-      <c r="J46" s="173"/>
-      <c r="K46" s="173"/>
-      <c r="L46" s="173"/>
-      <c r="M46" s="173"/>
-      <c r="N46" s="173"/>
-      <c r="O46" s="173"/>
-      <c r="P46" s="173"/>
-      <c r="Q46" s="173"/>
-      <c r="R46" s="173"/>
-      <c r="S46" s="173"/>
-      <c r="T46" s="173"/>
-      <c r="U46" s="173"/>
-      <c r="V46" s="173"/>
-      <c r="W46" s="173"/>
-      <c r="X46" s="173"/>
-      <c r="Y46" s="173"/>
-      <c r="Z46" s="173"/>
-      <c r="AA46" s="173"/>
-      <c r="AB46" s="173"/>
-      <c r="AC46" s="173"/>
-      <c r="AD46" s="173"/>
-      <c r="AE46" s="173"/>
-      <c r="AF46" s="173"/>
-      <c r="AG46" s="173"/>
-      <c r="AH46" s="173"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="132"/>
+      <c r="P46" s="132"/>
+      <c r="Q46" s="132"/>
+      <c r="R46" s="132"/>
+      <c r="S46" s="132"/>
+      <c r="T46" s="132"/>
+      <c r="U46" s="132"/>
+      <c r="V46" s="132"/>
+      <c r="W46" s="132"/>
+      <c r="X46" s="132"/>
+      <c r="Y46" s="132"/>
+      <c r="Z46" s="132"/>
+      <c r="AA46" s="132"/>
+      <c r="AB46" s="132"/>
+      <c r="AC46" s="132"/>
+      <c r="AD46" s="132"/>
+      <c r="AE46" s="132"/>
+      <c r="AF46" s="132"/>
+      <c r="AG46" s="132"/>
+      <c r="AH46" s="132"/>
       <c r="AJ46" s="8" t="s">
         <v>98</v>
       </c>
@@ -4863,50 +4863,50 @@
       <c r="AM46" s="8"/>
       <c r="AN46" s="8"/>
       <c r="AO46" s="8"/>
-      <c r="AP46" s="165" t="s">
+      <c r="AP46" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="AQ46" s="165"/>
-      <c r="AR46" s="165"/>
-      <c r="AS46" s="165"/>
-      <c r="AT46" s="165"/>
+      <c r="AQ46" s="131"/>
+      <c r="AR46" s="131"/>
+      <c r="AS46" s="131"/>
+      <c r="AT46" s="131"/>
       <c r="AU46" s="14"/>
     </row>
     <row r="47" spans="1:47" s="20" customFormat="1" ht="8.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="173"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="173"/>
-      <c r="E47" s="173"/>
-      <c r="F47" s="173"/>
-      <c r="G47" s="173"/>
-      <c r="H47" s="173"/>
-      <c r="I47" s="173"/>
-      <c r="J47" s="173"/>
-      <c r="K47" s="173"/>
-      <c r="L47" s="173"/>
-      <c r="M47" s="173"/>
-      <c r="N47" s="173"/>
-      <c r="O47" s="173"/>
-      <c r="P47" s="173"/>
-      <c r="Q47" s="173"/>
-      <c r="R47" s="173"/>
-      <c r="S47" s="173"/>
-      <c r="T47" s="173"/>
-      <c r="U47" s="173"/>
-      <c r="V47" s="173"/>
-      <c r="W47" s="173"/>
-      <c r="X47" s="173"/>
-      <c r="Y47" s="173"/>
-      <c r="Z47" s="173"/>
-      <c r="AA47" s="173"/>
-      <c r="AB47" s="173"/>
-      <c r="AC47" s="173"/>
-      <c r="AD47" s="173"/>
-      <c r="AE47" s="173"/>
-      <c r="AF47" s="173"/>
-      <c r="AG47" s="173"/>
-      <c r="AH47" s="173"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="132"/>
+      <c r="Q47" s="132"/>
+      <c r="R47" s="132"/>
+      <c r="S47" s="132"/>
+      <c r="T47" s="132"/>
+      <c r="U47" s="132"/>
+      <c r="V47" s="132"/>
+      <c r="W47" s="132"/>
+      <c r="X47" s="132"/>
+      <c r="Y47" s="132"/>
+      <c r="Z47" s="132"/>
+      <c r="AA47" s="132"/>
+      <c r="AB47" s="132"/>
+      <c r="AC47" s="132"/>
+      <c r="AD47" s="132"/>
+      <c r="AE47" s="132"/>
+      <c r="AF47" s="132"/>
+      <c r="AG47" s="132"/>
+      <c r="AH47" s="132"/>
       <c r="AI47" s="8"/>
       <c r="AU47" s="14"/>
     </row>
@@ -4996,38 +4996,38 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="169" t="s">
+      <c r="I50" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="J50" s="169"/>
-      <c r="K50" s="169"/>
-      <c r="L50" s="169"/>
-      <c r="M50" s="169"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="169"/>
-      <c r="P50" s="169"/>
-      <c r="Q50" s="169"/>
-      <c r="R50" s="169"/>
-      <c r="S50" s="169"/>
-      <c r="T50" s="169"/>
-      <c r="U50" s="169"/>
-      <c r="V50" s="169"/>
-      <c r="W50" s="169"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="127"/>
+      <c r="N50" s="127"/>
+      <c r="O50" s="127"/>
+      <c r="P50" s="127"/>
+      <c r="Q50" s="127"/>
+      <c r="R50" s="127"/>
+      <c r="S50" s="127"/>
+      <c r="T50" s="127"/>
+      <c r="U50" s="127"/>
+      <c r="V50" s="127"/>
+      <c r="W50" s="127"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="15" t="s">
         <v>24</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
-      <c r="AB50" s="170" t="s">
+      <c r="AB50" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="AC50" s="170"/>
-      <c r="AD50" s="170"/>
-      <c r="AE50" s="170"/>
-      <c r="AF50" s="170"/>
-      <c r="AG50" s="170"/>
-      <c r="AH50" s="170"/>
+      <c r="AC50" s="128"/>
+      <c r="AD50" s="128"/>
+      <c r="AE50" s="128"/>
+      <c r="AF50" s="128"/>
+      <c r="AG50" s="128"/>
+      <c r="AH50" s="128"/>
       <c r="AU50" s="14"/>
     </row>
     <row r="51" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5137,21 +5137,21 @@
         <v>6</v>
       </c>
       <c r="I55" s="54"/>
-      <c r="J55" s="182" t="s">
-        <v>190</v>
-      </c>
-      <c r="K55" s="182"/>
-      <c r="L55" s="182"/>
+      <c r="J55" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
       <c r="N55" s="13"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S55" s="182" t="s">
-        <v>198</v>
-      </c>
-      <c r="T55" s="182"/>
-      <c r="U55" s="182"/>
+      <c r="S55" s="116" t="s">
+        <v>208</v>
+      </c>
+      <c r="T55" s="116"/>
+      <c r="U55" s="116"/>
       <c r="W55" s="8" t="s">
         <v>92</v>
       </c>
@@ -5161,13 +5161,13 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
-      <c r="AD55" s="174" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE55" s="174"/>
-      <c r="AF55" s="174"/>
-      <c r="AG55" s="174"/>
-      <c r="AH55" s="174"/>
+      <c r="AD55" s="126" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE55" s="126"/>
+      <c r="AF55" s="126"/>
+      <c r="AG55" s="126"/>
+      <c r="AH55" s="126"/>
       <c r="AI55" s="8"/>
       <c r="AJ55" s="8" t="s">
         <v>42</v>
@@ -5176,12 +5176,12 @@
       <c r="AL55" s="8"/>
       <c r="AM55" s="8"/>
       <c r="AN55" s="12"/>
-      <c r="AO55" s="175" t="s">
-        <v>214</v>
-      </c>
-      <c r="AP55" s="175"/>
-      <c r="AQ55" s="175"/>
-      <c r="AR55" s="175"/>
+      <c r="AO55" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP55" s="113"/>
+      <c r="AQ55" s="113"/>
+      <c r="AR55" s="113"/>
       <c r="AS55" s="98" t="s">
         <v>55</v>
       </c>
@@ -5194,15 +5194,15 @@
       <c r="G56" s="13"/>
       <c r="H56" s="21"/>
       <c r="I56" s="55"/>
-      <c r="J56" s="183"/>
-      <c r="K56" s="183"/>
-      <c r="L56" s="183"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
       <c r="N56" s="13"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="21"/>
-      <c r="S56" s="184"/>
-      <c r="T56" s="184"/>
-      <c r="U56" s="185"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="109"/>
+      <c r="U56" s="110"/>
       <c r="W56" s="8"/>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
@@ -5237,21 +5237,21 @@
         <v>7</v>
       </c>
       <c r="I57" s="54"/>
-      <c r="J57" s="182" t="s">
-        <v>191</v>
-      </c>
-      <c r="K57" s="182"/>
-      <c r="L57" s="182"/>
+      <c r="J57" s="116" t="s">
+        <v>207</v>
+      </c>
+      <c r="K57" s="116"/>
+      <c r="L57" s="116"/>
       <c r="N57" s="56"/>
       <c r="P57" s="56"/>
       <c r="Q57" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S57" s="182" t="s">
-        <v>199</v>
-      </c>
-      <c r="T57" s="182"/>
-      <c r="U57" s="182"/>
+      <c r="S57" s="116" t="s">
+        <v>209</v>
+      </c>
+      <c r="T57" s="116"/>
+      <c r="U57" s="116"/>
       <c r="W57" s="8" t="s">
         <v>93</v>
       </c>
@@ -5261,13 +5261,13 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
-      <c r="AD57" s="174" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE57" s="174"/>
-      <c r="AF57" s="174"/>
-      <c r="AG57" s="174"/>
-      <c r="AH57" s="174"/>
+      <c r="AD57" s="126" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE57" s="126"/>
+      <c r="AF57" s="126"/>
+      <c r="AG57" s="126"/>
+      <c r="AH57" s="126"/>
       <c r="AI57" s="8"/>
       <c r="AJ57" s="8" t="s">
         <v>39</v>
@@ -5276,12 +5276,12 @@
       <c r="AL57" s="8"/>
       <c r="AM57" s="8"/>
       <c r="AN57" s="12"/>
-      <c r="AO57" s="175" t="s">
-        <v>215</v>
-      </c>
-      <c r="AP57" s="175"/>
-      <c r="AQ57" s="175"/>
-      <c r="AR57" s="175"/>
+      <c r="AO57" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP57" s="113"/>
+      <c r="AQ57" s="113"/>
+      <c r="AR57" s="113"/>
       <c r="AS57" s="98" t="s">
         <v>55</v>
       </c>
@@ -5294,15 +5294,15 @@
       <c r="G58" s="13"/>
       <c r="H58" s="21"/>
       <c r="I58" s="55"/>
-      <c r="J58" s="183"/>
-      <c r="K58" s="183"/>
-      <c r="L58" s="183"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="108"/>
+      <c r="L58" s="108"/>
       <c r="N58" s="13"/>
       <c r="P58" s="13"/>
       <c r="Q58" s="21"/>
-      <c r="S58" s="184"/>
-      <c r="T58" s="184"/>
-      <c r="U58" s="185"/>
+      <c r="S58" s="109"/>
+      <c r="T58" s="109"/>
+      <c r="U58" s="110"/>
       <c r="W58" s="8"/>
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
@@ -5337,21 +5337,21 @@
         <v>18</v>
       </c>
       <c r="I59" s="54"/>
-      <c r="J59" s="182" t="s">
-        <v>192</v>
-      </c>
-      <c r="K59" s="182"/>
-      <c r="L59" s="182"/>
+      <c r="J59" s="116" t="s">
+        <v>210</v>
+      </c>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
       <c r="N59" s="13"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S59" s="182" t="s">
-        <v>200</v>
-      </c>
-      <c r="T59" s="182"/>
-      <c r="U59" s="182"/>
+      <c r="S59" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="T59" s="116"/>
+      <c r="U59" s="116"/>
       <c r="W59" s="8" t="s">
         <v>91</v>
       </c>
@@ -5361,13 +5361,13 @@
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
-      <c r="AD59" s="174" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE59" s="174"/>
-      <c r="AF59" s="174"/>
-      <c r="AG59" s="174"/>
-      <c r="AH59" s="174"/>
+      <c r="AD59" s="126" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE59" s="126"/>
+      <c r="AF59" s="126"/>
+      <c r="AG59" s="126"/>
+      <c r="AH59" s="126"/>
       <c r="AI59" s="8"/>
       <c r="AJ59" s="8" t="s">
         <v>40</v>
@@ -5376,12 +5376,12 @@
       <c r="AL59" s="8"/>
       <c r="AM59" s="8"/>
       <c r="AN59" s="12"/>
-      <c r="AO59" s="175" t="s">
-        <v>216</v>
-      </c>
-      <c r="AP59" s="175"/>
-      <c r="AQ59" s="175"/>
-      <c r="AR59" s="175"/>
+      <c r="AO59" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP59" s="113"/>
+      <c r="AQ59" s="113"/>
+      <c r="AR59" s="113"/>
       <c r="AS59" s="98" t="s">
         <v>55</v>
       </c>
@@ -5394,15 +5394,15 @@
       <c r="G60" s="13"/>
       <c r="H60" s="21"/>
       <c r="I60" s="55"/>
-      <c r="J60" s="183"/>
-      <c r="K60" s="183"/>
-      <c r="L60" s="183"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
       <c r="N60" s="13"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="21"/>
-      <c r="S60" s="184"/>
-      <c r="T60" s="184"/>
-      <c r="U60" s="185"/>
+      <c r="S60" s="109"/>
+      <c r="T60" s="109"/>
+      <c r="U60" s="110"/>
       <c r="W60" s="8"/>
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
@@ -5437,21 +5437,21 @@
         <v>8</v>
       </c>
       <c r="I61" s="54"/>
-      <c r="J61" s="182" t="s">
-        <v>193</v>
-      </c>
-      <c r="K61" s="182"/>
-      <c r="L61" s="182"/>
+      <c r="J61" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="K61" s="116"/>
+      <c r="L61" s="116"/>
       <c r="N61" s="13"/>
       <c r="P61" s="13"/>
       <c r="Q61" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S61" s="182" t="s">
-        <v>201</v>
-      </c>
-      <c r="T61" s="182"/>
-      <c r="U61" s="182"/>
+      <c r="S61" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="T61" s="116"/>
+      <c r="U61" s="116"/>
       <c r="W61" s="8" t="s">
         <v>96</v>
       </c>
@@ -5461,13 +5461,13 @@
       <c r="AA61" s="8"/>
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
-      <c r="AD61" s="174" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE61" s="174"/>
-      <c r="AF61" s="174"/>
-      <c r="AG61" s="174"/>
-      <c r="AH61" s="174"/>
+      <c r="AD61" s="126" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE61" s="126"/>
+      <c r="AF61" s="126"/>
+      <c r="AG61" s="126"/>
+      <c r="AH61" s="126"/>
       <c r="AI61" s="8"/>
       <c r="AJ61" s="8" t="s">
         <v>41</v>
@@ -5476,12 +5476,12 @@
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
       <c r="AN61" s="12"/>
-      <c r="AO61" s="175" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP61" s="175"/>
-      <c r="AQ61" s="175"/>
-      <c r="AR61" s="175"/>
+      <c r="AO61" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP61" s="113"/>
+      <c r="AQ61" s="113"/>
+      <c r="AR61" s="113"/>
       <c r="AS61" s="98" t="s">
         <v>55</v>
       </c>
@@ -5494,15 +5494,15 @@
       <c r="G62" s="13"/>
       <c r="H62" s="21"/>
       <c r="I62" s="55"/>
-      <c r="J62" s="183"/>
-      <c r="K62" s="183"/>
-      <c r="L62" s="183"/>
+      <c r="J62" s="108"/>
+      <c r="K62" s="108"/>
+      <c r="L62" s="108"/>
       <c r="N62" s="13"/>
       <c r="P62" s="13"/>
       <c r="Q62" s="21"/>
-      <c r="S62" s="184"/>
-      <c r="T62" s="184"/>
-      <c r="U62" s="185"/>
+      <c r="S62" s="109"/>
+      <c r="T62" s="109"/>
+      <c r="U62" s="110"/>
       <c r="W62" s="8"/>
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
@@ -5537,21 +5537,21 @@
         <v>9</v>
       </c>
       <c r="I63" s="54"/>
-      <c r="J63" s="182" t="s">
-        <v>194</v>
-      </c>
-      <c r="K63" s="182"/>
-      <c r="L63" s="182"/>
+      <c r="J63" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
       <c r="N63" s="13"/>
       <c r="P63" s="13"/>
       <c r="Q63" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="S63" s="182" t="s">
-        <v>202</v>
-      </c>
-      <c r="T63" s="182"/>
-      <c r="U63" s="182"/>
+      <c r="S63" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="T63" s="116"/>
+      <c r="U63" s="116"/>
       <c r="W63" s="8" t="s">
         <v>16</v>
       </c>
@@ -5561,13 +5561,13 @@
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
-      <c r="AD63" s="174" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE63" s="174"/>
-      <c r="AF63" s="174"/>
-      <c r="AG63" s="174"/>
-      <c r="AH63" s="174"/>
+      <c r="AD63" s="126" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE63" s="126"/>
+      <c r="AF63" s="126"/>
+      <c r="AG63" s="126"/>
+      <c r="AH63" s="126"/>
       <c r="AI63" s="8"/>
       <c r="AJ63" s="8" t="s">
         <v>52</v>
@@ -5576,12 +5576,12 @@
       <c r="AL63" s="8"/>
       <c r="AM63" s="8"/>
       <c r="AN63" s="11"/>
-      <c r="AO63" s="175" t="s">
-        <v>218</v>
-      </c>
-      <c r="AP63" s="175"/>
-      <c r="AQ63" s="175"/>
-      <c r="AR63" s="175"/>
+      <c r="AO63" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP63" s="113"/>
+      <c r="AQ63" s="113"/>
+      <c r="AR63" s="113"/>
       <c r="AS63" s="98" t="s">
         <v>55</v>
       </c>
@@ -5594,15 +5594,15 @@
       <c r="G64" s="13"/>
       <c r="H64" s="21"/>
       <c r="I64" s="55"/>
-      <c r="J64" s="183"/>
-      <c r="K64" s="183"/>
-      <c r="L64" s="183"/>
+      <c r="J64" s="108"/>
+      <c r="K64" s="108"/>
+      <c r="L64" s="108"/>
       <c r="N64" s="13"/>
       <c r="P64" s="13"/>
       <c r="Q64" s="21"/>
-      <c r="S64" s="184"/>
-      <c r="T64" s="184"/>
-      <c r="U64" s="185"/>
+      <c r="S64" s="109"/>
+      <c r="T64" s="109"/>
+      <c r="U64" s="110"/>
       <c r="W64" s="8"/>
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
@@ -5637,21 +5637,21 @@
         <v>88</v>
       </c>
       <c r="I65" s="54"/>
-      <c r="J65" s="182" t="s">
-        <v>195</v>
-      </c>
-      <c r="K65" s="182"/>
-      <c r="L65" s="182"/>
+      <c r="J65" s="116" t="s">
+        <v>217</v>
+      </c>
+      <c r="K65" s="116"/>
+      <c r="L65" s="116"/>
       <c r="N65" s="13"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="S65" s="182" t="s">
-        <v>203</v>
-      </c>
-      <c r="T65" s="182"/>
-      <c r="U65" s="182"/>
+      <c r="S65" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="T65" s="116"/>
+      <c r="U65" s="116"/>
       <c r="W65" s="8" t="s">
         <v>94</v>
       </c>
@@ -5661,13 +5661,13 @@
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
-      <c r="AD65" s="174" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE65" s="174"/>
-      <c r="AF65" s="174"/>
-      <c r="AG65" s="174"/>
-      <c r="AH65" s="174"/>
+      <c r="AD65" s="126" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE65" s="126"/>
+      <c r="AF65" s="126"/>
+      <c r="AG65" s="126"/>
+      <c r="AH65" s="126"/>
       <c r="AI65" s="8"/>
       <c r="AJ65" s="8" t="s">
         <v>54</v>
@@ -5676,12 +5676,12 @@
       <c r="AL65" s="8"/>
       <c r="AM65" s="8"/>
       <c r="AN65" s="8"/>
-      <c r="AO65" s="175" t="s">
-        <v>219</v>
-      </c>
-      <c r="AP65" s="175"/>
-      <c r="AQ65" s="175"/>
-      <c r="AR65" s="175"/>
+      <c r="AO65" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP65" s="113"/>
+      <c r="AQ65" s="113"/>
+      <c r="AR65" s="113"/>
       <c r="AS65" s="98" t="s">
         <v>55</v>
       </c>
@@ -5694,15 +5694,15 @@
       <c r="G66" s="13"/>
       <c r="H66" s="21"/>
       <c r="I66" s="55"/>
-      <c r="J66" s="183"/>
-      <c r="K66" s="183"/>
-      <c r="L66" s="183"/>
+      <c r="J66" s="108"/>
+      <c r="K66" s="108"/>
+      <c r="L66" s="108"/>
       <c r="N66" s="13"/>
       <c r="P66" s="13"/>
       <c r="Q66" s="21"/>
-      <c r="S66" s="186"/>
-      <c r="T66" s="186"/>
-      <c r="U66" s="185"/>
+      <c r="S66" s="111"/>
+      <c r="T66" s="111"/>
+      <c r="U66" s="110"/>
       <c r="W66" s="8"/>
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
@@ -5737,21 +5737,21 @@
         <v>89</v>
       </c>
       <c r="I67" s="54"/>
-      <c r="J67" s="182" t="s">
-        <v>196</v>
-      </c>
-      <c r="K67" s="182"/>
-      <c r="L67" s="182"/>
+      <c r="J67" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="K67" s="116"/>
+      <c r="L67" s="116"/>
       <c r="N67" s="13"/>
       <c r="P67" s="13"/>
       <c r="Q67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="S67" s="182" t="s">
-        <v>204</v>
-      </c>
-      <c r="T67" s="182"/>
-      <c r="U67" s="182"/>
+      <c r="S67" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="T67" s="116"/>
+      <c r="U67" s="116"/>
       <c r="W67" s="8" t="s">
         <v>95</v>
       </c>
@@ -5761,13 +5761,13 @@
       <c r="AA67" s="8"/>
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
-      <c r="AD67" s="174" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE67" s="174"/>
-      <c r="AF67" s="174"/>
-      <c r="AG67" s="174"/>
-      <c r="AH67" s="174"/>
+      <c r="AD67" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE67" s="126"/>
+      <c r="AF67" s="126"/>
+      <c r="AG67" s="126"/>
+      <c r="AH67" s="126"/>
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8" t="s">
         <v>53</v>
@@ -5776,12 +5776,12 @@
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
       <c r="AN67" s="8"/>
-      <c r="AO67" s="175" t="s">
-        <v>220</v>
-      </c>
-      <c r="AP67" s="175"/>
-      <c r="AQ67" s="175"/>
-      <c r="AR67" s="175"/>
+      <c r="AO67" s="113" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP67" s="113"/>
+      <c r="AQ67" s="113"/>
+      <c r="AR67" s="113"/>
       <c r="AS67" s="98" t="s">
         <v>55</v>
       </c>
@@ -5794,15 +5794,15 @@
       <c r="G68" s="13"/>
       <c r="H68" s="21"/>
       <c r="I68" s="55"/>
-      <c r="J68" s="183"/>
-      <c r="K68" s="183"/>
-      <c r="L68" s="183"/>
+      <c r="J68" s="108"/>
+      <c r="K68" s="108"/>
+      <c r="L68" s="108"/>
       <c r="N68" s="13"/>
       <c r="P68" s="13"/>
       <c r="Q68" s="21"/>
-      <c r="S68" s="184"/>
-      <c r="T68" s="184"/>
-      <c r="U68" s="187"/>
+      <c r="S68" s="109"/>
+      <c r="T68" s="109"/>
+      <c r="U68" s="112"/>
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
       <c r="AA68" s="8"/>
@@ -5835,21 +5835,21 @@
         <v>3</v>
       </c>
       <c r="I69" s="54"/>
-      <c r="J69" s="182" t="s">
-        <v>197</v>
-      </c>
-      <c r="K69" s="182"/>
-      <c r="L69" s="182"/>
+      <c r="J69" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="K69" s="116"/>
+      <c r="L69" s="116"/>
       <c r="N69" s="13"/>
       <c r="P69" s="13"/>
       <c r="Q69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="182" t="s">
-        <v>205</v>
-      </c>
-      <c r="T69" s="182"/>
-      <c r="U69" s="182"/>
+      <c r="S69" s="116" t="s">
+        <v>221</v>
+      </c>
+      <c r="T69" s="116"/>
+      <c r="U69" s="116"/>
       <c r="W69" s="20" t="s">
         <v>160</v>
       </c>
@@ -5858,13 +5858,13 @@
       <c r="AA69" s="8"/>
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
-      <c r="AD69" s="174" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE69" s="174"/>
-      <c r="AF69" s="174"/>
-      <c r="AG69" s="174"/>
-      <c r="AH69" s="174"/>
+      <c r="AD69" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE69" s="126"/>
+      <c r="AF69" s="126"/>
+      <c r="AG69" s="126"/>
+      <c r="AH69" s="126"/>
       <c r="AI69" s="8"/>
       <c r="AJ69" s="8" t="s">
         <v>57</v>
@@ -5873,12 +5873,12 @@
       <c r="AL69" s="8"/>
       <c r="AM69" s="21"/>
       <c r="AN69" s="8"/>
-      <c r="AO69" s="175" t="s">
-        <v>221</v>
-      </c>
-      <c r="AP69" s="175"/>
-      <c r="AQ69" s="175"/>
-      <c r="AR69" s="175"/>
+      <c r="AO69" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP69" s="113"/>
+      <c r="AQ69" s="113"/>
+      <c r="AR69" s="113"/>
       <c r="AS69" s="98" t="s">
         <v>55</v>
       </c>
@@ -5983,44 +5983,44 @@
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
       <c r="O74" s="18"/>
-      <c r="P74" s="115" t="s">
+      <c r="P74" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="Q74" s="115"/>
-      <c r="R74" s="115"/>
-      <c r="S74" s="115"/>
-      <c r="T74" s="115"/>
-      <c r="U74" s="115"/>
-      <c r="V74" s="115"/>
-      <c r="W74" s="115"/>
-      <c r="X74" s="115"/>
-      <c r="Y74" s="115"/>
-      <c r="Z74" s="115"/>
-      <c r="AA74" s="115"/>
-      <c r="AB74" s="115"/>
-      <c r="AC74" s="115"/>
-      <c r="AD74" s="115"/>
-      <c r="AE74" s="115"/>
-      <c r="AF74" s="115"/>
-      <c r="AG74" s="115"/>
-      <c r="AH74" s="115"/>
-      <c r="AI74" s="115"/>
+      <c r="Q74" s="142"/>
+      <c r="R74" s="142"/>
+      <c r="S74" s="142"/>
+      <c r="T74" s="142"/>
+      <c r="U74" s="142"/>
+      <c r="V74" s="142"/>
+      <c r="W74" s="142"/>
+      <c r="X74" s="142"/>
+      <c r="Y74" s="142"/>
+      <c r="Z74" s="142"/>
+      <c r="AA74" s="142"/>
+      <c r="AB74" s="142"/>
+      <c r="AC74" s="142"/>
+      <c r="AD74" s="142"/>
+      <c r="AE74" s="142"/>
+      <c r="AF74" s="142"/>
+      <c r="AG74" s="142"/>
+      <c r="AH74" s="142"/>
+      <c r="AI74" s="142"/>
       <c r="AJ74" s="18"/>
-      <c r="AK74" s="116" t="s">
+      <c r="AK74" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="AL74" s="117"/>
-      <c r="AM74" s="117"/>
-      <c r="AN74" s="120" t="str">
+      <c r="AL74" s="134"/>
+      <c r="AM74" s="134"/>
+      <c r="AN74" s="137" t="str">
         <f>AN2</f>
         <v>SJI-YY-NNN-M</v>
       </c>
-      <c r="AO74" s="120"/>
-      <c r="AP74" s="120"/>
-      <c r="AQ74" s="120"/>
-      <c r="AR74" s="120"/>
-      <c r="AS74" s="120"/>
-      <c r="AT74" s="121"/>
+      <c r="AO74" s="137"/>
+      <c r="AP74" s="137"/>
+      <c r="AQ74" s="137"/>
+      <c r="AR74" s="137"/>
+      <c r="AS74" s="137"/>
+      <c r="AT74" s="138"/>
       <c r="AU74" s="1"/>
     </row>
     <row r="75" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6039,39 +6039,39 @@
       <c r="M75" s="18"/>
       <c r="N75" s="18"/>
       <c r="O75" s="18"/>
-      <c r="P75" s="115" t="s">
+      <c r="P75" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="Q75" s="115"/>
-      <c r="R75" s="115"/>
-      <c r="S75" s="115"/>
-      <c r="T75" s="115"/>
-      <c r="U75" s="115"/>
-      <c r="V75" s="115"/>
-      <c r="W75" s="115"/>
-      <c r="X75" s="115"/>
-      <c r="Y75" s="115"/>
-      <c r="Z75" s="115"/>
-      <c r="AA75" s="115"/>
-      <c r="AB75" s="115"/>
-      <c r="AC75" s="115"/>
-      <c r="AD75" s="115"/>
-      <c r="AE75" s="115"/>
-      <c r="AF75" s="115"/>
-      <c r="AG75" s="115"/>
-      <c r="AH75" s="115"/>
-      <c r="AI75" s="115"/>
+      <c r="Q75" s="142"/>
+      <c r="R75" s="142"/>
+      <c r="S75" s="142"/>
+      <c r="T75" s="142"/>
+      <c r="U75" s="142"/>
+      <c r="V75" s="142"/>
+      <c r="W75" s="142"/>
+      <c r="X75" s="142"/>
+      <c r="Y75" s="142"/>
+      <c r="Z75" s="142"/>
+      <c r="AA75" s="142"/>
+      <c r="AB75" s="142"/>
+      <c r="AC75" s="142"/>
+      <c r="AD75" s="142"/>
+      <c r="AE75" s="142"/>
+      <c r="AF75" s="142"/>
+      <c r="AG75" s="142"/>
+      <c r="AH75" s="142"/>
+      <c r="AI75" s="142"/>
       <c r="AJ75" s="18"/>
-      <c r="AK75" s="118"/>
-      <c r="AL75" s="119"/>
-      <c r="AM75" s="119"/>
-      <c r="AN75" s="122"/>
-      <c r="AO75" s="122"/>
-      <c r="AP75" s="122"/>
-      <c r="AQ75" s="122"/>
-      <c r="AR75" s="122"/>
-      <c r="AS75" s="122"/>
-      <c r="AT75" s="123"/>
+      <c r="AK75" s="135"/>
+      <c r="AL75" s="136"/>
+      <c r="AM75" s="136"/>
+      <c r="AN75" s="139"/>
+      <c r="AO75" s="139"/>
+      <c r="AP75" s="139"/>
+      <c r="AQ75" s="139"/>
+      <c r="AR75" s="139"/>
+      <c r="AS75" s="139"/>
+      <c r="AT75" s="140"/>
       <c r="AU75" s="1"/>
     </row>
     <row r="76" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6125,51 +6125,51 @@
     </row>
     <row r="77" spans="1:48" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
-      <c r="B77" s="157" t="s">
+      <c r="B77" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="157"/>
-      <c r="D77" s="157"/>
-      <c r="E77" s="157"/>
-      <c r="F77" s="157"/>
-      <c r="G77" s="157"/>
-      <c r="H77" s="157"/>
-      <c r="I77" s="157"/>
-      <c r="J77" s="157"/>
-      <c r="K77" s="157"/>
-      <c r="L77" s="157"/>
-      <c r="M77" s="157"/>
-      <c r="N77" s="157"/>
-      <c r="O77" s="157"/>
-      <c r="P77" s="157"/>
-      <c r="Q77" s="157"/>
-      <c r="R77" s="157"/>
-      <c r="S77" s="157"/>
-      <c r="T77" s="157"/>
-      <c r="U77" s="157"/>
-      <c r="V77" s="157"/>
-      <c r="W77" s="157"/>
-      <c r="X77" s="157"/>
-      <c r="Y77" s="157"/>
-      <c r="Z77" s="157"/>
-      <c r="AA77" s="157"/>
-      <c r="AB77" s="157"/>
-      <c r="AC77" s="157"/>
-      <c r="AD77" s="157"/>
-      <c r="AE77" s="157"/>
-      <c r="AF77" s="157"/>
-      <c r="AG77" s="157"/>
-      <c r="AH77" s="157"/>
-      <c r="AI77" s="157"/>
-      <c r="AJ77" s="157"/>
-      <c r="AK77" s="157"/>
-      <c r="AL77" s="157"/>
-      <c r="AM77" s="157"/>
-      <c r="AN77" s="157"/>
-      <c r="AO77" s="157"/>
-      <c r="AP77" s="157"/>
-      <c r="AQ77" s="157"/>
-      <c r="AR77" s="157"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="115"/>
+      <c r="G77" s="115"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="115"/>
+      <c r="L77" s="115"/>
+      <c r="M77" s="115"/>
+      <c r="N77" s="115"/>
+      <c r="O77" s="115"/>
+      <c r="P77" s="115"/>
+      <c r="Q77" s="115"/>
+      <c r="R77" s="115"/>
+      <c r="S77" s="115"/>
+      <c r="T77" s="115"/>
+      <c r="U77" s="115"/>
+      <c r="V77" s="115"/>
+      <c r="W77" s="115"/>
+      <c r="X77" s="115"/>
+      <c r="Y77" s="115"/>
+      <c r="Z77" s="115"/>
+      <c r="AA77" s="115"/>
+      <c r="AB77" s="115"/>
+      <c r="AC77" s="115"/>
+      <c r="AD77" s="115"/>
+      <c r="AE77" s="115"/>
+      <c r="AF77" s="115"/>
+      <c r="AG77" s="115"/>
+      <c r="AH77" s="115"/>
+      <c r="AI77" s="115"/>
+      <c r="AJ77" s="115"/>
+      <c r="AK77" s="115"/>
+      <c r="AL77" s="115"/>
+      <c r="AM77" s="115"/>
+      <c r="AN77" s="115"/>
+      <c r="AO77" s="115"/>
+      <c r="AP77" s="115"/>
+      <c r="AQ77" s="115"/>
+      <c r="AR77" s="115"/>
       <c r="AS77" s="48"/>
       <c r="AT77" s="8"/>
       <c r="AU77" s="8"/>
@@ -6239,33 +6239,33 @@
       <c r="AG79" s="59"/>
       <c r="AH79" s="59"/>
       <c r="AI79" s="59"/>
-      <c r="AJ79" s="142" t="s">
+      <c r="AJ79" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="AK79" s="144" t="s">
+      <c r="AK79" s="162" t="s">
         <v>138</v>
       </c>
-      <c r="AL79" s="144" t="s">
+      <c r="AL79" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="AM79" s="144" t="s">
+      <c r="AM79" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="AN79" s="144" t="s">
+      <c r="AN79" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="AO79" s="144" t="s">
+      <c r="AO79" s="162" t="s">
         <v>145</v>
       </c>
-      <c r="AP79" s="144" t="s">
+      <c r="AP79" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="AQ79" s="144" t="s">
+      <c r="AQ79" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="AR79" s="144"/>
-      <c r="AS79" s="144"/>
-      <c r="AT79" s="148"/>
+      <c r="AR79" s="162"/>
+      <c r="AS79" s="162"/>
+      <c r="AT79" s="164"/>
       <c r="AU79" s="8"/>
     </row>
     <row r="80" spans="1:48" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6306,17 +6306,17 @@
       <c r="AG80" s="62"/>
       <c r="AH80" s="62"/>
       <c r="AI80" s="62"/>
-      <c r="AJ80" s="143"/>
-      <c r="AK80" s="145"/>
-      <c r="AL80" s="145"/>
-      <c r="AM80" s="145"/>
-      <c r="AN80" s="145"/>
-      <c r="AO80" s="145"/>
-      <c r="AP80" s="145"/>
-      <c r="AQ80" s="145"/>
-      <c r="AR80" s="145"/>
-      <c r="AS80" s="145"/>
-      <c r="AT80" s="149"/>
+      <c r="AJ80" s="177"/>
+      <c r="AK80" s="163"/>
+      <c r="AL80" s="163"/>
+      <c r="AM80" s="163"/>
+      <c r="AN80" s="163"/>
+      <c r="AO80" s="163"/>
+      <c r="AP80" s="163"/>
+      <c r="AQ80" s="163"/>
+      <c r="AR80" s="163"/>
+      <c r="AS80" s="163"/>
+      <c r="AT80" s="165"/>
       <c r="AU80" s="8"/>
     </row>
     <row r="81" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6357,17 +6357,17 @@
       <c r="AG81" s="62"/>
       <c r="AH81" s="62"/>
       <c r="AI81" s="62"/>
-      <c r="AJ81" s="143"/>
-      <c r="AK81" s="145"/>
-      <c r="AL81" s="145"/>
-      <c r="AM81" s="145"/>
-      <c r="AN81" s="145"/>
-      <c r="AO81" s="145"/>
-      <c r="AP81" s="145"/>
-      <c r="AQ81" s="145"/>
-      <c r="AR81" s="145"/>
-      <c r="AS81" s="145"/>
-      <c r="AT81" s="149"/>
+      <c r="AJ81" s="177"/>
+      <c r="AK81" s="163"/>
+      <c r="AL81" s="163"/>
+      <c r="AM81" s="163"/>
+      <c r="AN81" s="163"/>
+      <c r="AO81" s="163"/>
+      <c r="AP81" s="163"/>
+      <c r="AQ81" s="163"/>
+      <c r="AR81" s="163"/>
+      <c r="AS81" s="163"/>
+      <c r="AT81" s="165"/>
       <c r="AU81" s="8"/>
     </row>
     <row r="82" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6408,17 +6408,17 @@
       <c r="AG82" s="62"/>
       <c r="AH82" s="62"/>
       <c r="AI82" s="62"/>
-      <c r="AJ82" s="143"/>
-      <c r="AK82" s="145"/>
-      <c r="AL82" s="145"/>
-      <c r="AM82" s="145"/>
-      <c r="AN82" s="145"/>
-      <c r="AO82" s="145"/>
-      <c r="AP82" s="145"/>
-      <c r="AQ82" s="145"/>
-      <c r="AR82" s="145"/>
-      <c r="AS82" s="145"/>
-      <c r="AT82" s="149"/>
+      <c r="AJ82" s="177"/>
+      <c r="AK82" s="163"/>
+      <c r="AL82" s="163"/>
+      <c r="AM82" s="163"/>
+      <c r="AN82" s="163"/>
+      <c r="AO82" s="163"/>
+      <c r="AP82" s="163"/>
+      <c r="AQ82" s="163"/>
+      <c r="AR82" s="163"/>
+      <c r="AS82" s="163"/>
+      <c r="AT82" s="165"/>
       <c r="AU82" s="8"/>
     </row>
     <row r="83" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6459,114 +6459,114 @@
       <c r="AG83" s="65"/>
       <c r="AH83" s="65"/>
       <c r="AI83" s="65"/>
-      <c r="AJ83" s="143"/>
-      <c r="AK83" s="145"/>
-      <c r="AL83" s="145"/>
-      <c r="AM83" s="145"/>
-      <c r="AN83" s="145"/>
-      <c r="AO83" s="145"/>
-      <c r="AP83" s="145"/>
-      <c r="AQ83" s="145"/>
-      <c r="AR83" s="145"/>
-      <c r="AS83" s="145"/>
-      <c r="AT83" s="149"/>
+      <c r="AJ83" s="177"/>
+      <c r="AK83" s="163"/>
+      <c r="AL83" s="163"/>
+      <c r="AM83" s="163"/>
+      <c r="AN83" s="163"/>
+      <c r="AO83" s="163"/>
+      <c r="AP83" s="163"/>
+      <c r="AQ83" s="163"/>
+      <c r="AR83" s="163"/>
+      <c r="AS83" s="163"/>
+      <c r="AT83" s="165"/>
       <c r="AU83" s="8"/>
     </row>
     <row r="84" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
-      <c r="B84" s="128" t="s">
+      <c r="B84" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="108"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="108" t="s">
+      <c r="C84" s="158"/>
+      <c r="D84" s="158"/>
+      <c r="E84" s="158"/>
+      <c r="F84" s="158"/>
+      <c r="G84" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="H84" s="108"/>
-      <c r="I84" s="108"/>
-      <c r="J84" s="108" t="s">
+      <c r="H84" s="158"/>
+      <c r="I84" s="158"/>
+      <c r="J84" s="158" t="s">
         <v>140</v>
       </c>
-      <c r="K84" s="108"/>
-      <c r="L84" s="108"/>
-      <c r="M84" s="108"/>
-      <c r="N84" s="108"/>
-      <c r="O84" s="146" t="s">
+      <c r="K84" s="158"/>
+      <c r="L84" s="158"/>
+      <c r="M84" s="158"/>
+      <c r="N84" s="158"/>
+      <c r="O84" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="P84" s="146"/>
-      <c r="Q84" s="146"/>
-      <c r="R84" s="146"/>
-      <c r="S84" s="146"/>
-      <c r="T84" s="146"/>
-      <c r="U84" s="146"/>
-      <c r="V84" s="146"/>
-      <c r="W84" s="147"/>
-      <c r="X84" s="139" t="s">
+      <c r="P84" s="178"/>
+      <c r="Q84" s="178"/>
+      <c r="R84" s="178"/>
+      <c r="S84" s="178"/>
+      <c r="T84" s="178"/>
+      <c r="U84" s="178"/>
+      <c r="V84" s="178"/>
+      <c r="W84" s="179"/>
+      <c r="X84" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="Y84" s="140"/>
-      <c r="Z84" s="140"/>
-      <c r="AA84" s="140"/>
-      <c r="AB84" s="140"/>
-      <c r="AC84" s="140"/>
-      <c r="AD84" s="140"/>
-      <c r="AE84" s="140"/>
-      <c r="AF84" s="140"/>
-      <c r="AG84" s="140"/>
-      <c r="AH84" s="140"/>
-      <c r="AI84" s="141"/>
-      <c r="AJ84" s="143"/>
-      <c r="AK84" s="145"/>
-      <c r="AL84" s="145"/>
-      <c r="AM84" s="145"/>
-      <c r="AN84" s="145"/>
-      <c r="AO84" s="145"/>
-      <c r="AP84" s="145"/>
-      <c r="AQ84" s="145"/>
-      <c r="AR84" s="145"/>
-      <c r="AS84" s="145"/>
-      <c r="AT84" s="149"/>
+      <c r="Y84" s="174"/>
+      <c r="Z84" s="174"/>
+      <c r="AA84" s="174"/>
+      <c r="AB84" s="174"/>
+      <c r="AC84" s="174"/>
+      <c r="AD84" s="174"/>
+      <c r="AE84" s="174"/>
+      <c r="AF84" s="174"/>
+      <c r="AG84" s="174"/>
+      <c r="AH84" s="174"/>
+      <c r="AI84" s="175"/>
+      <c r="AJ84" s="177"/>
+      <c r="AK84" s="163"/>
+      <c r="AL84" s="163"/>
+      <c r="AM84" s="163"/>
+      <c r="AN84" s="163"/>
+      <c r="AO84" s="163"/>
+      <c r="AP84" s="163"/>
+      <c r="AQ84" s="163"/>
+      <c r="AR84" s="163"/>
+      <c r="AS84" s="163"/>
+      <c r="AT84" s="165"/>
       <c r="AU84" s="8"/>
     </row>
     <row r="85" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
-      <c r="B85" s="111"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="112"/>
-      <c r="E85" s="112"/>
-      <c r="F85" s="112"/>
-      <c r="G85" s="112"/>
-      <c r="H85" s="112"/>
-      <c r="I85" s="112"/>
-      <c r="J85" s="136"/>
-      <c r="K85" s="112"/>
-      <c r="L85" s="112"/>
-      <c r="M85" s="112"/>
-      <c r="N85" s="112"/>
-      <c r="O85" s="137"/>
-      <c r="P85" s="137"/>
-      <c r="Q85" s="137"/>
-      <c r="R85" s="137"/>
-      <c r="S85" s="137"/>
-      <c r="T85" s="137"/>
-      <c r="U85" s="137"/>
-      <c r="V85" s="137"/>
-      <c r="W85" s="138"/>
-      <c r="X85" s="133"/>
-      <c r="Y85" s="134"/>
-      <c r="Z85" s="134"/>
-      <c r="AA85" s="134"/>
-      <c r="AB85" s="134"/>
-      <c r="AC85" s="134"/>
-      <c r="AD85" s="134"/>
-      <c r="AE85" s="134"/>
-      <c r="AF85" s="134"/>
-      <c r="AG85" s="134"/>
-      <c r="AH85" s="134"/>
-      <c r="AI85" s="135"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="118"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="118"/>
+      <c r="G85" s="118"/>
+      <c r="H85" s="118"/>
+      <c r="I85" s="118"/>
+      <c r="J85" s="117"/>
+      <c r="K85" s="118"/>
+      <c r="L85" s="118"/>
+      <c r="M85" s="118"/>
+      <c r="N85" s="118"/>
+      <c r="O85" s="119"/>
+      <c r="P85" s="119"/>
+      <c r="Q85" s="119"/>
+      <c r="R85" s="119"/>
+      <c r="S85" s="119"/>
+      <c r="T85" s="119"/>
+      <c r="U85" s="119"/>
+      <c r="V85" s="119"/>
+      <c r="W85" s="120"/>
+      <c r="X85" s="166"/>
+      <c r="Y85" s="167"/>
+      <c r="Z85" s="167"/>
+      <c r="AA85" s="167"/>
+      <c r="AB85" s="167"/>
+      <c r="AC85" s="167"/>
+      <c r="AD85" s="167"/>
+      <c r="AE85" s="167"/>
+      <c r="AF85" s="167"/>
+      <c r="AG85" s="167"/>
+      <c r="AH85" s="167"/>
+      <c r="AI85" s="168"/>
       <c r="AJ85" s="69"/>
       <c r="AK85" s="70"/>
       <c r="AL85" s="71"/>
@@ -6582,40 +6582,40 @@
     </row>
     <row r="86" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
-      <c r="B86" s="111"/>
-      <c r="C86" s="112"/>
-      <c r="D86" s="112"/>
-      <c r="E86" s="112"/>
-      <c r="F86" s="112"/>
-      <c r="G86" s="112"/>
-      <c r="H86" s="112"/>
-      <c r="I86" s="112"/>
-      <c r="J86" s="136"/>
-      <c r="K86" s="112"/>
-      <c r="L86" s="112"/>
-      <c r="M86" s="112"/>
-      <c r="N86" s="112"/>
-      <c r="O86" s="137"/>
-      <c r="P86" s="137"/>
-      <c r="Q86" s="137"/>
-      <c r="R86" s="137"/>
-      <c r="S86" s="137"/>
-      <c r="T86" s="137"/>
-      <c r="U86" s="137"/>
-      <c r="V86" s="137"/>
-      <c r="W86" s="138"/>
-      <c r="X86" s="133"/>
-      <c r="Y86" s="134"/>
-      <c r="Z86" s="134"/>
-      <c r="AA86" s="134"/>
-      <c r="AB86" s="134"/>
-      <c r="AC86" s="134"/>
-      <c r="AD86" s="134"/>
-      <c r="AE86" s="134"/>
-      <c r="AF86" s="134"/>
-      <c r="AG86" s="134"/>
-      <c r="AH86" s="134"/>
-      <c r="AI86" s="135"/>
+      <c r="B86" s="147"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="118"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="118"/>
+      <c r="J86" s="117"/>
+      <c r="K86" s="118"/>
+      <c r="L86" s="118"/>
+      <c r="M86" s="118"/>
+      <c r="N86" s="118"/>
+      <c r="O86" s="119"/>
+      <c r="P86" s="119"/>
+      <c r="Q86" s="119"/>
+      <c r="R86" s="119"/>
+      <c r="S86" s="119"/>
+      <c r="T86" s="119"/>
+      <c r="U86" s="119"/>
+      <c r="V86" s="119"/>
+      <c r="W86" s="120"/>
+      <c r="X86" s="166"/>
+      <c r="Y86" s="167"/>
+      <c r="Z86" s="167"/>
+      <c r="AA86" s="167"/>
+      <c r="AB86" s="167"/>
+      <c r="AC86" s="167"/>
+      <c r="AD86" s="167"/>
+      <c r="AE86" s="167"/>
+      <c r="AF86" s="167"/>
+      <c r="AG86" s="167"/>
+      <c r="AH86" s="167"/>
+      <c r="AI86" s="168"/>
       <c r="AJ86" s="66"/>
       <c r="AK86" s="67"/>
       <c r="AL86" s="67"/>
@@ -6631,40 +6631,40 @@
     </row>
     <row r="87" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
-      <c r="B87" s="111"/>
-      <c r="C87" s="112"/>
-      <c r="D87" s="112"/>
-      <c r="E87" s="112"/>
-      <c r="F87" s="112"/>
-      <c r="G87" s="112"/>
-      <c r="H87" s="112"/>
-      <c r="I87" s="112"/>
-      <c r="J87" s="136"/>
-      <c r="K87" s="112"/>
-      <c r="L87" s="112"/>
-      <c r="M87" s="112"/>
-      <c r="N87" s="112"/>
-      <c r="O87" s="137"/>
-      <c r="P87" s="137"/>
-      <c r="Q87" s="137"/>
-      <c r="R87" s="137"/>
-      <c r="S87" s="137"/>
-      <c r="T87" s="137"/>
-      <c r="U87" s="137"/>
-      <c r="V87" s="137"/>
-      <c r="W87" s="138"/>
-      <c r="X87" s="133"/>
-      <c r="Y87" s="134"/>
-      <c r="Z87" s="134"/>
-      <c r="AA87" s="134"/>
-      <c r="AB87" s="134"/>
-      <c r="AC87" s="134"/>
-      <c r="AD87" s="134"/>
-      <c r="AE87" s="134"/>
-      <c r="AF87" s="134"/>
-      <c r="AG87" s="134"/>
-      <c r="AH87" s="134"/>
-      <c r="AI87" s="135"/>
+      <c r="B87" s="147"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
+      <c r="F87" s="118"/>
+      <c r="G87" s="118"/>
+      <c r="H87" s="118"/>
+      <c r="I87" s="118"/>
+      <c r="J87" s="117"/>
+      <c r="K87" s="118"/>
+      <c r="L87" s="118"/>
+      <c r="M87" s="118"/>
+      <c r="N87" s="118"/>
+      <c r="O87" s="119"/>
+      <c r="P87" s="119"/>
+      <c r="Q87" s="119"/>
+      <c r="R87" s="119"/>
+      <c r="S87" s="119"/>
+      <c r="T87" s="119"/>
+      <c r="U87" s="119"/>
+      <c r="V87" s="119"/>
+      <c r="W87" s="120"/>
+      <c r="X87" s="166"/>
+      <c r="Y87" s="167"/>
+      <c r="Z87" s="167"/>
+      <c r="AA87" s="167"/>
+      <c r="AB87" s="167"/>
+      <c r="AC87" s="167"/>
+      <c r="AD87" s="167"/>
+      <c r="AE87" s="167"/>
+      <c r="AF87" s="167"/>
+      <c r="AG87" s="167"/>
+      <c r="AH87" s="167"/>
+      <c r="AI87" s="168"/>
       <c r="AJ87" s="69"/>
       <c r="AK87" s="70"/>
       <c r="AL87" s="71"/>
@@ -6680,40 +6680,40 @@
     </row>
     <row r="88" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="111"/>
-      <c r="C88" s="112"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="112"/>
-      <c r="F88" s="112"/>
-      <c r="G88" s="112"/>
-      <c r="H88" s="112"/>
-      <c r="I88" s="112"/>
-      <c r="J88" s="136"/>
-      <c r="K88" s="112"/>
-      <c r="L88" s="112"/>
-      <c r="M88" s="112"/>
-      <c r="N88" s="112"/>
-      <c r="O88" s="137"/>
-      <c r="P88" s="137"/>
-      <c r="Q88" s="137"/>
-      <c r="R88" s="137"/>
-      <c r="S88" s="137"/>
-      <c r="T88" s="137"/>
-      <c r="U88" s="137"/>
-      <c r="V88" s="137"/>
-      <c r="W88" s="138"/>
-      <c r="X88" s="133"/>
-      <c r="Y88" s="134"/>
-      <c r="Z88" s="134"/>
-      <c r="AA88" s="134"/>
-      <c r="AB88" s="134"/>
-      <c r="AC88" s="134"/>
-      <c r="AD88" s="134"/>
-      <c r="AE88" s="134"/>
-      <c r="AF88" s="134"/>
-      <c r="AG88" s="134"/>
-      <c r="AH88" s="134"/>
-      <c r="AI88" s="135"/>
+      <c r="B88" s="147"/>
+      <c r="C88" s="118"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="118"/>
+      <c r="H88" s="118"/>
+      <c r="I88" s="118"/>
+      <c r="J88" s="117"/>
+      <c r="K88" s="118"/>
+      <c r="L88" s="118"/>
+      <c r="M88" s="118"/>
+      <c r="N88" s="118"/>
+      <c r="O88" s="119"/>
+      <c r="P88" s="119"/>
+      <c r="Q88" s="119"/>
+      <c r="R88" s="119"/>
+      <c r="S88" s="119"/>
+      <c r="T88" s="119"/>
+      <c r="U88" s="119"/>
+      <c r="V88" s="119"/>
+      <c r="W88" s="120"/>
+      <c r="X88" s="166"/>
+      <c r="Y88" s="167"/>
+      <c r="Z88" s="167"/>
+      <c r="AA88" s="167"/>
+      <c r="AB88" s="167"/>
+      <c r="AC88" s="167"/>
+      <c r="AD88" s="167"/>
+      <c r="AE88" s="167"/>
+      <c r="AF88" s="167"/>
+      <c r="AG88" s="167"/>
+      <c r="AH88" s="167"/>
+      <c r="AI88" s="168"/>
       <c r="AJ88" s="69"/>
       <c r="AK88" s="70"/>
       <c r="AL88" s="71"/>
@@ -6738,40 +6738,40 @@
     </row>
     <row r="89" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="111"/>
-      <c r="C89" s="112"/>
-      <c r="D89" s="112"/>
-      <c r="E89" s="112"/>
-      <c r="F89" s="112"/>
-      <c r="G89" s="112"/>
-      <c r="H89" s="112"/>
-      <c r="I89" s="112"/>
-      <c r="J89" s="136"/>
-      <c r="K89" s="112"/>
-      <c r="L89" s="112"/>
-      <c r="M89" s="112"/>
-      <c r="N89" s="112"/>
-      <c r="O89" s="137"/>
-      <c r="P89" s="137"/>
-      <c r="Q89" s="137"/>
-      <c r="R89" s="137"/>
-      <c r="S89" s="137"/>
-      <c r="T89" s="137"/>
-      <c r="U89" s="137"/>
-      <c r="V89" s="137"/>
-      <c r="W89" s="138"/>
-      <c r="X89" s="133"/>
-      <c r="Y89" s="134"/>
-      <c r="Z89" s="134"/>
-      <c r="AA89" s="134"/>
-      <c r="AB89" s="134"/>
-      <c r="AC89" s="134"/>
-      <c r="AD89" s="134"/>
-      <c r="AE89" s="134"/>
-      <c r="AF89" s="134"/>
-      <c r="AG89" s="134"/>
-      <c r="AH89" s="134"/>
-      <c r="AI89" s="135"/>
+      <c r="B89" s="147"/>
+      <c r="C89" s="118"/>
+      <c r="D89" s="118"/>
+      <c r="E89" s="118"/>
+      <c r="F89" s="118"/>
+      <c r="G89" s="118"/>
+      <c r="H89" s="118"/>
+      <c r="I89" s="118"/>
+      <c r="J89" s="117"/>
+      <c r="K89" s="118"/>
+      <c r="L89" s="118"/>
+      <c r="M89" s="118"/>
+      <c r="N89" s="118"/>
+      <c r="O89" s="119"/>
+      <c r="P89" s="119"/>
+      <c r="Q89" s="119"/>
+      <c r="R89" s="119"/>
+      <c r="S89" s="119"/>
+      <c r="T89" s="119"/>
+      <c r="U89" s="119"/>
+      <c r="V89" s="119"/>
+      <c r="W89" s="120"/>
+      <c r="X89" s="166"/>
+      <c r="Y89" s="167"/>
+      <c r="Z89" s="167"/>
+      <c r="AA89" s="167"/>
+      <c r="AB89" s="167"/>
+      <c r="AC89" s="167"/>
+      <c r="AD89" s="167"/>
+      <c r="AE89" s="167"/>
+      <c r="AF89" s="167"/>
+      <c r="AG89" s="167"/>
+      <c r="AH89" s="167"/>
+      <c r="AI89" s="168"/>
       <c r="AJ89" s="69"/>
       <c r="AK89" s="70"/>
       <c r="AL89" s="71"/>
@@ -6796,40 +6796,40 @@
     </row>
     <row r="90" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="111"/>
-      <c r="C90" s="112"/>
-      <c r="D90" s="112"/>
-      <c r="E90" s="112"/>
-      <c r="F90" s="112"/>
-      <c r="G90" s="112"/>
-      <c r="H90" s="112"/>
-      <c r="I90" s="112"/>
-      <c r="J90" s="136"/>
-      <c r="K90" s="112"/>
-      <c r="L90" s="112"/>
-      <c r="M90" s="112"/>
-      <c r="N90" s="112"/>
-      <c r="O90" s="137"/>
-      <c r="P90" s="137"/>
-      <c r="Q90" s="137"/>
-      <c r="R90" s="137"/>
-      <c r="S90" s="137"/>
-      <c r="T90" s="137"/>
-      <c r="U90" s="137"/>
-      <c r="V90" s="137"/>
-      <c r="W90" s="138"/>
-      <c r="X90" s="133"/>
-      <c r="Y90" s="134"/>
-      <c r="Z90" s="134"/>
-      <c r="AA90" s="134"/>
-      <c r="AB90" s="134"/>
-      <c r="AC90" s="134"/>
-      <c r="AD90" s="134"/>
-      <c r="AE90" s="134"/>
-      <c r="AF90" s="134"/>
-      <c r="AG90" s="134"/>
-      <c r="AH90" s="134"/>
-      <c r="AI90" s="135"/>
+      <c r="B90" s="147"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
+      <c r="E90" s="118"/>
+      <c r="F90" s="118"/>
+      <c r="G90" s="118"/>
+      <c r="H90" s="118"/>
+      <c r="I90" s="118"/>
+      <c r="J90" s="117"/>
+      <c r="K90" s="118"/>
+      <c r="L90" s="118"/>
+      <c r="M90" s="118"/>
+      <c r="N90" s="118"/>
+      <c r="O90" s="119"/>
+      <c r="P90" s="119"/>
+      <c r="Q90" s="119"/>
+      <c r="R90" s="119"/>
+      <c r="S90" s="119"/>
+      <c r="T90" s="119"/>
+      <c r="U90" s="119"/>
+      <c r="V90" s="119"/>
+      <c r="W90" s="120"/>
+      <c r="X90" s="166"/>
+      <c r="Y90" s="167"/>
+      <c r="Z90" s="167"/>
+      <c r="AA90" s="167"/>
+      <c r="AB90" s="167"/>
+      <c r="AC90" s="167"/>
+      <c r="AD90" s="167"/>
+      <c r="AE90" s="167"/>
+      <c r="AF90" s="167"/>
+      <c r="AG90" s="167"/>
+      <c r="AH90" s="167"/>
+      <c r="AI90" s="168"/>
       <c r="AJ90" s="69"/>
       <c r="AK90" s="70"/>
       <c r="AL90" s="71"/>
@@ -6854,40 +6854,40 @@
     </row>
     <row r="91" spans="1:56" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="111"/>
-      <c r="C91" s="112"/>
-      <c r="D91" s="112"/>
-      <c r="E91" s="112"/>
-      <c r="F91" s="112"/>
-      <c r="G91" s="112"/>
-      <c r="H91" s="112"/>
-      <c r="I91" s="112"/>
-      <c r="J91" s="112"/>
-      <c r="K91" s="112"/>
-      <c r="L91" s="112"/>
-      <c r="M91" s="112"/>
-      <c r="N91" s="112"/>
-      <c r="O91" s="137"/>
-      <c r="P91" s="137"/>
-      <c r="Q91" s="137"/>
-      <c r="R91" s="137"/>
-      <c r="S91" s="137"/>
-      <c r="T91" s="137"/>
-      <c r="U91" s="137"/>
-      <c r="V91" s="137"/>
-      <c r="W91" s="138"/>
-      <c r="X91" s="154"/>
-      <c r="Y91" s="155"/>
-      <c r="Z91" s="155"/>
-      <c r="AA91" s="155"/>
-      <c r="AB91" s="155"/>
-      <c r="AC91" s="155"/>
-      <c r="AD91" s="155"/>
-      <c r="AE91" s="155"/>
-      <c r="AF91" s="155"/>
-      <c r="AG91" s="155"/>
-      <c r="AH91" s="155"/>
-      <c r="AI91" s="156"/>
+      <c r="B91" s="147"/>
+      <c r="C91" s="118"/>
+      <c r="D91" s="118"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="118"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="118"/>
+      <c r="I91" s="118"/>
+      <c r="J91" s="118"/>
+      <c r="K91" s="118"/>
+      <c r="L91" s="118"/>
+      <c r="M91" s="118"/>
+      <c r="N91" s="118"/>
+      <c r="O91" s="119"/>
+      <c r="P91" s="119"/>
+      <c r="Q91" s="119"/>
+      <c r="R91" s="119"/>
+      <c r="S91" s="119"/>
+      <c r="T91" s="119"/>
+      <c r="U91" s="119"/>
+      <c r="V91" s="119"/>
+      <c r="W91" s="120"/>
+      <c r="X91" s="169"/>
+      <c r="Y91" s="170"/>
+      <c r="Z91" s="170"/>
+      <c r="AA91" s="170"/>
+      <c r="AB91" s="170"/>
+      <c r="AC91" s="170"/>
+      <c r="AD91" s="170"/>
+      <c r="AE91" s="170"/>
+      <c r="AF91" s="170"/>
+      <c r="AG91" s="170"/>
+      <c r="AH91" s="170"/>
+      <c r="AI91" s="171"/>
       <c r="AJ91" s="69"/>
       <c r="AK91" s="70"/>
       <c r="AL91" s="71"/>
@@ -6912,40 +6912,40 @@
     </row>
     <row r="92" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="111"/>
-      <c r="C92" s="112"/>
-      <c r="D92" s="112"/>
-      <c r="E92" s="112"/>
-      <c r="F92" s="112"/>
-      <c r="G92" s="112"/>
-      <c r="H92" s="112"/>
-      <c r="I92" s="112"/>
-      <c r="J92" s="112"/>
-      <c r="K92" s="112"/>
-      <c r="L92" s="112"/>
-      <c r="M92" s="112"/>
-      <c r="N92" s="112"/>
-      <c r="O92" s="137"/>
-      <c r="P92" s="137"/>
-      <c r="Q92" s="137"/>
-      <c r="R92" s="137"/>
-      <c r="S92" s="137"/>
-      <c r="T92" s="137"/>
-      <c r="U92" s="137"/>
-      <c r="V92" s="137"/>
-      <c r="W92" s="138"/>
-      <c r="X92" s="154"/>
-      <c r="Y92" s="155"/>
-      <c r="Z92" s="155"/>
-      <c r="AA92" s="155"/>
-      <c r="AB92" s="155"/>
-      <c r="AC92" s="155"/>
-      <c r="AD92" s="155"/>
-      <c r="AE92" s="155"/>
-      <c r="AF92" s="155"/>
-      <c r="AG92" s="155"/>
-      <c r="AH92" s="155"/>
-      <c r="AI92" s="156"/>
+      <c r="B92" s="147"/>
+      <c r="C92" s="118"/>
+      <c r="D92" s="118"/>
+      <c r="E92" s="118"/>
+      <c r="F92" s="118"/>
+      <c r="G92" s="118"/>
+      <c r="H92" s="118"/>
+      <c r="I92" s="118"/>
+      <c r="J92" s="118"/>
+      <c r="K92" s="118"/>
+      <c r="L92" s="118"/>
+      <c r="M92" s="118"/>
+      <c r="N92" s="118"/>
+      <c r="O92" s="119"/>
+      <c r="P92" s="119"/>
+      <c r="Q92" s="119"/>
+      <c r="R92" s="119"/>
+      <c r="S92" s="119"/>
+      <c r="T92" s="119"/>
+      <c r="U92" s="119"/>
+      <c r="V92" s="119"/>
+      <c r="W92" s="120"/>
+      <c r="X92" s="169"/>
+      <c r="Y92" s="170"/>
+      <c r="Z92" s="170"/>
+      <c r="AA92" s="170"/>
+      <c r="AB92" s="170"/>
+      <c r="AC92" s="170"/>
+      <c r="AD92" s="170"/>
+      <c r="AE92" s="170"/>
+      <c r="AF92" s="170"/>
+      <c r="AG92" s="170"/>
+      <c r="AH92" s="170"/>
+      <c r="AI92" s="171"/>
       <c r="AJ92" s="69"/>
       <c r="AK92" s="70"/>
       <c r="AL92" s="71"/>
@@ -6970,40 +6970,40 @@
     </row>
     <row r="93" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
-      <c r="B93" s="124"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="125"/>
-      <c r="E93" s="125"/>
-      <c r="F93" s="125"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="125"/>
-      <c r="J93" s="125"/>
-      <c r="K93" s="125"/>
-      <c r="L93" s="125"/>
-      <c r="M93" s="125"/>
-      <c r="N93" s="125"/>
-      <c r="O93" s="159"/>
-      <c r="P93" s="159"/>
-      <c r="Q93" s="159"/>
-      <c r="R93" s="159"/>
-      <c r="S93" s="159"/>
-      <c r="T93" s="159"/>
-      <c r="U93" s="159"/>
-      <c r="V93" s="159"/>
-      <c r="W93" s="160"/>
-      <c r="X93" s="176"/>
-      <c r="Y93" s="177"/>
-      <c r="Z93" s="177"/>
-      <c r="AA93" s="177"/>
-      <c r="AB93" s="177"/>
-      <c r="AC93" s="177"/>
-      <c r="AD93" s="177"/>
-      <c r="AE93" s="177"/>
-      <c r="AF93" s="177"/>
-      <c r="AG93" s="177"/>
-      <c r="AH93" s="177"/>
-      <c r="AI93" s="178"/>
+      <c r="B93" s="121"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="122"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="122"/>
+      <c r="G93" s="122"/>
+      <c r="H93" s="122"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="122"/>
+      <c r="K93" s="122"/>
+      <c r="L93" s="122"/>
+      <c r="M93" s="122"/>
+      <c r="N93" s="122"/>
+      <c r="O93" s="145"/>
+      <c r="P93" s="145"/>
+      <c r="Q93" s="145"/>
+      <c r="R93" s="145"/>
+      <c r="S93" s="145"/>
+      <c r="T93" s="145"/>
+      <c r="U93" s="145"/>
+      <c r="V93" s="145"/>
+      <c r="W93" s="146"/>
+      <c r="X93" s="123"/>
+      <c r="Y93" s="124"/>
+      <c r="Z93" s="124"/>
+      <c r="AA93" s="124"/>
+      <c r="AB93" s="124"/>
+      <c r="AC93" s="124"/>
+      <c r="AD93" s="124"/>
+      <c r="AE93" s="124"/>
+      <c r="AF93" s="124"/>
+      <c r="AG93" s="124"/>
+      <c r="AH93" s="124"/>
+      <c r="AI93" s="125"/>
       <c r="AJ93" s="72"/>
       <c r="AK93" s="73"/>
       <c r="AL93" s="74"/>
@@ -7068,154 +7068,154 @@
     </row>
     <row r="95" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
-      <c r="B95" s="164" t="s">
+      <c r="B95" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="164"/>
-      <c r="D95" s="164"/>
-      <c r="E95" s="164"/>
-      <c r="F95" s="164"/>
-      <c r="G95" s="164"/>
-      <c r="H95" s="164"/>
-      <c r="I95" s="164"/>
-      <c r="J95" s="164"/>
-      <c r="K95" s="164"/>
-      <c r="L95" s="164"/>
-      <c r="M95" s="164"/>
-      <c r="N95" s="164"/>
-      <c r="O95" s="164"/>
-      <c r="P95" s="164"/>
-      <c r="Q95" s="164"/>
-      <c r="R95" s="164"/>
-      <c r="S95" s="164"/>
-      <c r="T95" s="164"/>
-      <c r="U95" s="164"/>
-      <c r="V95" s="164"/>
-      <c r="W95" s="164"/>
-      <c r="X95" s="164"/>
-      <c r="Y95" s="164"/>
-      <c r="Z95" s="164"/>
-      <c r="AA95" s="164"/>
-      <c r="AB95" s="164"/>
-      <c r="AC95" s="164"/>
-      <c r="AD95" s="164"/>
-      <c r="AE95" s="164"/>
-      <c r="AF95" s="164"/>
-      <c r="AG95" s="164"/>
-      <c r="AH95" s="164"/>
-      <c r="AI95" s="164"/>
-      <c r="AJ95" s="164"/>
-      <c r="AK95" s="164"/>
-      <c r="AL95" s="164"/>
-      <c r="AM95" s="164"/>
-      <c r="AN95" s="164"/>
-      <c r="AO95" s="164"/>
-      <c r="AP95" s="164"/>
-      <c r="AQ95" s="164"/>
-      <c r="AR95" s="164"/>
-      <c r="AS95" s="164"/>
-      <c r="AT95" s="164"/>
+      <c r="C95" s="161"/>
+      <c r="D95" s="161"/>
+      <c r="E95" s="161"/>
+      <c r="F95" s="161"/>
+      <c r="G95" s="161"/>
+      <c r="H95" s="161"/>
+      <c r="I95" s="161"/>
+      <c r="J95" s="161"/>
+      <c r="K95" s="161"/>
+      <c r="L95" s="161"/>
+      <c r="M95" s="161"/>
+      <c r="N95" s="161"/>
+      <c r="O95" s="161"/>
+      <c r="P95" s="161"/>
+      <c r="Q95" s="161"/>
+      <c r="R95" s="161"/>
+      <c r="S95" s="161"/>
+      <c r="T95" s="161"/>
+      <c r="U95" s="161"/>
+      <c r="V95" s="161"/>
+      <c r="W95" s="161"/>
+      <c r="X95" s="161"/>
+      <c r="Y95" s="161"/>
+      <c r="Z95" s="161"/>
+      <c r="AA95" s="161"/>
+      <c r="AB95" s="161"/>
+      <c r="AC95" s="161"/>
+      <c r="AD95" s="161"/>
+      <c r="AE95" s="161"/>
+      <c r="AF95" s="161"/>
+      <c r="AG95" s="161"/>
+      <c r="AH95" s="161"/>
+      <c r="AI95" s="161"/>
+      <c r="AJ95" s="161"/>
+      <c r="AK95" s="161"/>
+      <c r="AL95" s="161"/>
+      <c r="AM95" s="161"/>
+      <c r="AN95" s="161"/>
+      <c r="AO95" s="161"/>
+      <c r="AP95" s="161"/>
+      <c r="AQ95" s="161"/>
+      <c r="AR95" s="161"/>
+      <c r="AS95" s="161"/>
+      <c r="AT95" s="161"/>
       <c r="AU95" s="8"/>
     </row>
     <row r="96" spans="1:56" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
-      <c r="B96" s="164" t="s">
+      <c r="B96" s="161" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="164"/>
-      <c r="D96" s="164"/>
-      <c r="E96" s="164"/>
-      <c r="F96" s="164"/>
-      <c r="G96" s="164"/>
-      <c r="H96" s="164"/>
-      <c r="I96" s="164"/>
-      <c r="J96" s="164"/>
-      <c r="K96" s="164"/>
-      <c r="L96" s="164"/>
-      <c r="M96" s="164"/>
-      <c r="N96" s="164"/>
-      <c r="O96" s="164"/>
-      <c r="P96" s="164"/>
-      <c r="Q96" s="164"/>
-      <c r="R96" s="164"/>
-      <c r="S96" s="164"/>
-      <c r="T96" s="164"/>
-      <c r="U96" s="164"/>
-      <c r="V96" s="164"/>
-      <c r="W96" s="164"/>
-      <c r="X96" s="164"/>
-      <c r="Y96" s="164"/>
-      <c r="Z96" s="164"/>
-      <c r="AA96" s="164"/>
-      <c r="AB96" s="164"/>
-      <c r="AC96" s="164"/>
-      <c r="AD96" s="164"/>
-      <c r="AE96" s="164"/>
-      <c r="AF96" s="164"/>
-      <c r="AG96" s="164"/>
-      <c r="AH96" s="164"/>
-      <c r="AI96" s="164"/>
-      <c r="AJ96" s="164"/>
-      <c r="AK96" s="164"/>
-      <c r="AL96" s="164"/>
-      <c r="AM96" s="164"/>
-      <c r="AN96" s="164"/>
-      <c r="AO96" s="164"/>
-      <c r="AP96" s="164"/>
-      <c r="AQ96" s="164"/>
-      <c r="AR96" s="164"/>
-      <c r="AS96" s="164"/>
-      <c r="AT96" s="164"/>
+      <c r="C96" s="161"/>
+      <c r="D96" s="161"/>
+      <c r="E96" s="161"/>
+      <c r="F96" s="161"/>
+      <c r="G96" s="161"/>
+      <c r="H96" s="161"/>
+      <c r="I96" s="161"/>
+      <c r="J96" s="161"/>
+      <c r="K96" s="161"/>
+      <c r="L96" s="161"/>
+      <c r="M96" s="161"/>
+      <c r="N96" s="161"/>
+      <c r="O96" s="161"/>
+      <c r="P96" s="161"/>
+      <c r="Q96" s="161"/>
+      <c r="R96" s="161"/>
+      <c r="S96" s="161"/>
+      <c r="T96" s="161"/>
+      <c r="U96" s="161"/>
+      <c r="V96" s="161"/>
+      <c r="W96" s="161"/>
+      <c r="X96" s="161"/>
+      <c r="Y96" s="161"/>
+      <c r="Z96" s="161"/>
+      <c r="AA96" s="161"/>
+      <c r="AB96" s="161"/>
+      <c r="AC96" s="161"/>
+      <c r="AD96" s="161"/>
+      <c r="AE96" s="161"/>
+      <c r="AF96" s="161"/>
+      <c r="AG96" s="161"/>
+      <c r="AH96" s="161"/>
+      <c r="AI96" s="161"/>
+      <c r="AJ96" s="161"/>
+      <c r="AK96" s="161"/>
+      <c r="AL96" s="161"/>
+      <c r="AM96" s="161"/>
+      <c r="AN96" s="161"/>
+      <c r="AO96" s="161"/>
+      <c r="AP96" s="161"/>
+      <c r="AQ96" s="161"/>
+      <c r="AR96" s="161"/>
+      <c r="AS96" s="161"/>
+      <c r="AT96" s="161"/>
       <c r="AU96" s="8"/>
     </row>
     <row r="97" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="157" t="s">
+      <c r="C97" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="157"/>
-      <c r="E97" s="157"/>
-      <c r="F97" s="157"/>
-      <c r="G97" s="157"/>
-      <c r="H97" s="157"/>
-      <c r="I97" s="157"/>
-      <c r="J97" s="157"/>
-      <c r="K97" s="157"/>
-      <c r="L97" s="157"/>
-      <c r="M97" s="157"/>
-      <c r="N97" s="157"/>
-      <c r="O97" s="157"/>
-      <c r="P97" s="157"/>
-      <c r="Q97" s="157"/>
-      <c r="R97" s="157"/>
-      <c r="S97" s="157"/>
-      <c r="T97" s="157"/>
-      <c r="U97" s="157"/>
-      <c r="V97" s="157"/>
-      <c r="W97" s="157"/>
-      <c r="X97" s="157"/>
-      <c r="Y97" s="157"/>
-      <c r="Z97" s="157"/>
-      <c r="AA97" s="157"/>
-      <c r="AB97" s="157"/>
-      <c r="AC97" s="157"/>
-      <c r="AD97" s="157"/>
-      <c r="AE97" s="157"/>
-      <c r="AF97" s="157"/>
-      <c r="AG97" s="157"/>
-      <c r="AH97" s="157"/>
-      <c r="AI97" s="157"/>
-      <c r="AJ97" s="157"/>
-      <c r="AK97" s="157"/>
-      <c r="AL97" s="157"/>
-      <c r="AM97" s="157"/>
-      <c r="AN97" s="157"/>
-      <c r="AO97" s="157"/>
-      <c r="AP97" s="157"/>
-      <c r="AQ97" s="157"/>
-      <c r="AR97" s="157"/>
-      <c r="AS97" s="157"/>
+      <c r="D97" s="115"/>
+      <c r="E97" s="115"/>
+      <c r="F97" s="115"/>
+      <c r="G97" s="115"/>
+      <c r="H97" s="115"/>
+      <c r="I97" s="115"/>
+      <c r="J97" s="115"/>
+      <c r="K97" s="115"/>
+      <c r="L97" s="115"/>
+      <c r="M97" s="115"/>
+      <c r="N97" s="115"/>
+      <c r="O97" s="115"/>
+      <c r="P97" s="115"/>
+      <c r="Q97" s="115"/>
+      <c r="R97" s="115"/>
+      <c r="S97" s="115"/>
+      <c r="T97" s="115"/>
+      <c r="U97" s="115"/>
+      <c r="V97" s="115"/>
+      <c r="W97" s="115"/>
+      <c r="X97" s="115"/>
+      <c r="Y97" s="115"/>
+      <c r="Z97" s="115"/>
+      <c r="AA97" s="115"/>
+      <c r="AB97" s="115"/>
+      <c r="AC97" s="115"/>
+      <c r="AD97" s="115"/>
+      <c r="AE97" s="115"/>
+      <c r="AF97" s="115"/>
+      <c r="AG97" s="115"/>
+      <c r="AH97" s="115"/>
+      <c r="AI97" s="115"/>
+      <c r="AJ97" s="115"/>
+      <c r="AK97" s="115"/>
+      <c r="AL97" s="115"/>
+      <c r="AM97" s="115"/>
+      <c r="AN97" s="115"/>
+      <c r="AO97" s="115"/>
+      <c r="AP97" s="115"/>
+      <c r="AQ97" s="115"/>
+      <c r="AR97" s="115"/>
+      <c r="AS97" s="115"/>
       <c r="AT97" s="18"/>
       <c r="AU97" s="8"/>
     </row>
@@ -7270,53 +7270,53 @@
     </row>
     <row r="99" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
-      <c r="B99" s="130" t="s">
+      <c r="B99" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="C99" s="131"/>
-      <c r="D99" s="131"/>
-      <c r="E99" s="131"/>
-      <c r="F99" s="131"/>
-      <c r="G99" s="131"/>
-      <c r="H99" s="131"/>
-      <c r="I99" s="131"/>
-      <c r="J99" s="131"/>
-      <c r="K99" s="131"/>
-      <c r="L99" s="131"/>
-      <c r="M99" s="131"/>
-      <c r="N99" s="131"/>
-      <c r="O99" s="131"/>
-      <c r="P99" s="131"/>
-      <c r="Q99" s="131"/>
-      <c r="R99" s="131"/>
-      <c r="S99" s="131"/>
-      <c r="T99" s="131"/>
-      <c r="U99" s="131"/>
-      <c r="V99" s="131"/>
-      <c r="W99" s="131"/>
-      <c r="X99" s="131"/>
-      <c r="Y99" s="131"/>
-      <c r="Z99" s="131"/>
-      <c r="AA99" s="131"/>
-      <c r="AB99" s="131"/>
-      <c r="AC99" s="131"/>
-      <c r="AD99" s="131"/>
-      <c r="AE99" s="131"/>
-      <c r="AF99" s="131"/>
-      <c r="AG99" s="131"/>
-      <c r="AH99" s="131"/>
-      <c r="AI99" s="131"/>
-      <c r="AJ99" s="131"/>
-      <c r="AK99" s="131"/>
-      <c r="AL99" s="131"/>
-      <c r="AM99" s="131"/>
-      <c r="AN99" s="131"/>
-      <c r="AO99" s="131"/>
-      <c r="AP99" s="131"/>
-      <c r="AQ99" s="131"/>
-      <c r="AR99" s="131"/>
-      <c r="AS99" s="131"/>
-      <c r="AT99" s="132"/>
+      <c r="C99" s="155"/>
+      <c r="D99" s="155"/>
+      <c r="E99" s="155"/>
+      <c r="F99" s="155"/>
+      <c r="G99" s="155"/>
+      <c r="H99" s="155"/>
+      <c r="I99" s="155"/>
+      <c r="J99" s="155"/>
+      <c r="K99" s="155"/>
+      <c r="L99" s="155"/>
+      <c r="M99" s="155"/>
+      <c r="N99" s="155"/>
+      <c r="O99" s="155"/>
+      <c r="P99" s="155"/>
+      <c r="Q99" s="155"/>
+      <c r="R99" s="155"/>
+      <c r="S99" s="155"/>
+      <c r="T99" s="155"/>
+      <c r="U99" s="155"/>
+      <c r="V99" s="155"/>
+      <c r="W99" s="155"/>
+      <c r="X99" s="155"/>
+      <c r="Y99" s="155"/>
+      <c r="Z99" s="155"/>
+      <c r="AA99" s="155"/>
+      <c r="AB99" s="155"/>
+      <c r="AC99" s="155"/>
+      <c r="AD99" s="155"/>
+      <c r="AE99" s="155"/>
+      <c r="AF99" s="155"/>
+      <c r="AG99" s="155"/>
+      <c r="AH99" s="155"/>
+      <c r="AI99" s="155"/>
+      <c r="AJ99" s="155"/>
+      <c r="AK99" s="155"/>
+      <c r="AL99" s="155"/>
+      <c r="AM99" s="155"/>
+      <c r="AN99" s="155"/>
+      <c r="AO99" s="155"/>
+      <c r="AP99" s="155"/>
+      <c r="AQ99" s="155"/>
+      <c r="AR99" s="155"/>
+      <c r="AS99" s="155"/>
+      <c r="AT99" s="156"/>
       <c r="AU99" s="8"/>
     </row>
     <row r="100" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7370,361 +7370,361 @@
     </row>
     <row r="101" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
-      <c r="B101" s="128" t="s">
+      <c r="B101" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="108"/>
-      <c r="D101" s="108"/>
-      <c r="E101" s="108"/>
-      <c r="F101" s="108"/>
-      <c r="G101" s="108" t="s">
+      <c r="C101" s="158"/>
+      <c r="D101" s="158"/>
+      <c r="E101" s="158"/>
+      <c r="F101" s="158"/>
+      <c r="G101" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="H101" s="108"/>
-      <c r="I101" s="108"/>
-      <c r="J101" s="108"/>
-      <c r="K101" s="108"/>
-      <c r="L101" s="108"/>
-      <c r="M101" s="108"/>
-      <c r="N101" s="108"/>
-      <c r="O101" s="108"/>
-      <c r="P101" s="108"/>
-      <c r="Q101" s="108"/>
-      <c r="R101" s="109" t="s">
+      <c r="H101" s="158"/>
+      <c r="I101" s="158"/>
+      <c r="J101" s="158"/>
+      <c r="K101" s="158"/>
+      <c r="L101" s="158"/>
+      <c r="M101" s="158"/>
+      <c r="N101" s="158"/>
+      <c r="O101" s="158"/>
+      <c r="P101" s="158"/>
+      <c r="Q101" s="158"/>
+      <c r="R101" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="S101" s="109"/>
-      <c r="T101" s="109"/>
-      <c r="U101" s="109"/>
-      <c r="V101" s="109" t="s">
+      <c r="S101" s="159"/>
+      <c r="T101" s="159"/>
+      <c r="U101" s="159"/>
+      <c r="V101" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="W101" s="109"/>
-      <c r="X101" s="110"/>
+      <c r="W101" s="159"/>
+      <c r="X101" s="160"/>
       <c r="Y101" s="13"/>
-      <c r="Z101" s="128" t="s">
+      <c r="Z101" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="AA101" s="108"/>
-      <c r="AB101" s="108"/>
-      <c r="AC101" s="108"/>
-      <c r="AD101" s="108" t="s">
+      <c r="AA101" s="158"/>
+      <c r="AB101" s="158"/>
+      <c r="AC101" s="158"/>
+      <c r="AD101" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="AE101" s="108"/>
-      <c r="AF101" s="108"/>
-      <c r="AG101" s="108"/>
-      <c r="AH101" s="108"/>
-      <c r="AI101" s="108"/>
-      <c r="AJ101" s="108"/>
-      <c r="AK101" s="108"/>
-      <c r="AL101" s="108"/>
-      <c r="AM101" s="108"/>
-      <c r="AN101" s="109" t="s">
+      <c r="AE101" s="158"/>
+      <c r="AF101" s="158"/>
+      <c r="AG101" s="158"/>
+      <c r="AH101" s="158"/>
+      <c r="AI101" s="158"/>
+      <c r="AJ101" s="158"/>
+      <c r="AK101" s="158"/>
+      <c r="AL101" s="158"/>
+      <c r="AM101" s="158"/>
+      <c r="AN101" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="AO101" s="109"/>
-      <c r="AP101" s="109"/>
-      <c r="AQ101" s="109"/>
-      <c r="AR101" s="109" t="s">
+      <c r="AO101" s="159"/>
+      <c r="AP101" s="159"/>
+      <c r="AQ101" s="159"/>
+      <c r="AR101" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="AS101" s="109"/>
-      <c r="AT101" s="110"/>
+      <c r="AS101" s="159"/>
+      <c r="AT101" s="160"/>
       <c r="AU101" s="8"/>
     </row>
     <row r="102" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
-      <c r="B102" s="111"/>
-      <c r="C102" s="112"/>
-      <c r="D102" s="112"/>
-      <c r="E102" s="112"/>
-      <c r="F102" s="112"/>
-      <c r="G102" s="112"/>
-      <c r="H102" s="112"/>
-      <c r="I102" s="112"/>
-      <c r="J102" s="112"/>
-      <c r="K102" s="112"/>
-      <c r="L102" s="112"/>
-      <c r="M102" s="112"/>
-      <c r="N102" s="112"/>
-      <c r="O102" s="112"/>
-      <c r="P102" s="112"/>
-      <c r="Q102" s="112"/>
-      <c r="R102" s="113"/>
-      <c r="S102" s="113"/>
-      <c r="T102" s="113"/>
-      <c r="U102" s="113"/>
-      <c r="V102" s="129"/>
-      <c r="W102" s="113"/>
-      <c r="X102" s="114"/>
+      <c r="B102" s="147"/>
+      <c r="C102" s="118"/>
+      <c r="D102" s="118"/>
+      <c r="E102" s="118"/>
+      <c r="F102" s="118"/>
+      <c r="G102" s="118"/>
+      <c r="H102" s="118"/>
+      <c r="I102" s="118"/>
+      <c r="J102" s="118"/>
+      <c r="K102" s="118"/>
+      <c r="L102" s="118"/>
+      <c r="M102" s="118"/>
+      <c r="N102" s="118"/>
+      <c r="O102" s="118"/>
+      <c r="P102" s="118"/>
+      <c r="Q102" s="118"/>
+      <c r="R102" s="180"/>
+      <c r="S102" s="180"/>
+      <c r="T102" s="180"/>
+      <c r="U102" s="180"/>
+      <c r="V102" s="184"/>
+      <c r="W102" s="180"/>
+      <c r="X102" s="181"/>
       <c r="Y102" s="51"/>
-      <c r="Z102" s="111"/>
-      <c r="AA102" s="112"/>
-      <c r="AB102" s="112"/>
-      <c r="AC102" s="112"/>
-      <c r="AD102" s="112"/>
-      <c r="AE102" s="112"/>
-      <c r="AF102" s="112"/>
-      <c r="AG102" s="112"/>
-      <c r="AH102" s="112"/>
-      <c r="AI102" s="112"/>
-      <c r="AJ102" s="112"/>
-      <c r="AK102" s="112"/>
-      <c r="AL102" s="112"/>
-      <c r="AM102" s="112"/>
-      <c r="AN102" s="113"/>
-      <c r="AO102" s="113"/>
-      <c r="AP102" s="113"/>
-      <c r="AQ102" s="113"/>
-      <c r="AR102" s="113"/>
-      <c r="AS102" s="113"/>
-      <c r="AT102" s="114"/>
+      <c r="Z102" s="147"/>
+      <c r="AA102" s="118"/>
+      <c r="AB102" s="118"/>
+      <c r="AC102" s="118"/>
+      <c r="AD102" s="118"/>
+      <c r="AE102" s="118"/>
+      <c r="AF102" s="118"/>
+      <c r="AG102" s="118"/>
+      <c r="AH102" s="118"/>
+      <c r="AI102" s="118"/>
+      <c r="AJ102" s="118"/>
+      <c r="AK102" s="118"/>
+      <c r="AL102" s="118"/>
+      <c r="AM102" s="118"/>
+      <c r="AN102" s="180"/>
+      <c r="AO102" s="180"/>
+      <c r="AP102" s="180"/>
+      <c r="AQ102" s="180"/>
+      <c r="AR102" s="180"/>
+      <c r="AS102" s="180"/>
+      <c r="AT102" s="181"/>
       <c r="AU102" s="8"/>
     </row>
     <row r="103" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
-      <c r="B103" s="111"/>
-      <c r="C103" s="112"/>
-      <c r="D103" s="112"/>
-      <c r="E103" s="112"/>
-      <c r="F103" s="112"/>
-      <c r="G103" s="112"/>
-      <c r="H103" s="112"/>
-      <c r="I103" s="112"/>
-      <c r="J103" s="112"/>
-      <c r="K103" s="112"/>
-      <c r="L103" s="112"/>
-      <c r="M103" s="112"/>
-      <c r="N103" s="112"/>
-      <c r="O103" s="112"/>
-      <c r="P103" s="112"/>
-      <c r="Q103" s="112"/>
-      <c r="R103" s="113"/>
-      <c r="S103" s="113"/>
-      <c r="T103" s="113"/>
-      <c r="U103" s="113"/>
-      <c r="V103" s="113"/>
-      <c r="W103" s="113"/>
-      <c r="X103" s="114"/>
+      <c r="B103" s="147"/>
+      <c r="C103" s="118"/>
+      <c r="D103" s="118"/>
+      <c r="E103" s="118"/>
+      <c r="F103" s="118"/>
+      <c r="G103" s="118"/>
+      <c r="H103" s="118"/>
+      <c r="I103" s="118"/>
+      <c r="J103" s="118"/>
+      <c r="K103" s="118"/>
+      <c r="L103" s="118"/>
+      <c r="M103" s="118"/>
+      <c r="N103" s="118"/>
+      <c r="O103" s="118"/>
+      <c r="P103" s="118"/>
+      <c r="Q103" s="118"/>
+      <c r="R103" s="180"/>
+      <c r="S103" s="180"/>
+      <c r="T103" s="180"/>
+      <c r="U103" s="180"/>
+      <c r="V103" s="180"/>
+      <c r="W103" s="180"/>
+      <c r="X103" s="181"/>
       <c r="Y103" s="51"/>
-      <c r="Z103" s="111"/>
-      <c r="AA103" s="112"/>
-      <c r="AB103" s="112"/>
-      <c r="AC103" s="112"/>
-      <c r="AD103" s="112"/>
-      <c r="AE103" s="112"/>
-      <c r="AF103" s="112"/>
-      <c r="AG103" s="112"/>
-      <c r="AH103" s="112"/>
-      <c r="AI103" s="112"/>
-      <c r="AJ103" s="112"/>
-      <c r="AK103" s="112"/>
-      <c r="AL103" s="112"/>
-      <c r="AM103" s="112"/>
-      <c r="AN103" s="113"/>
-      <c r="AO103" s="113"/>
-      <c r="AP103" s="113"/>
-      <c r="AQ103" s="113"/>
-      <c r="AR103" s="113"/>
-      <c r="AS103" s="113"/>
-      <c r="AT103" s="114"/>
+      <c r="Z103" s="147"/>
+      <c r="AA103" s="118"/>
+      <c r="AB103" s="118"/>
+      <c r="AC103" s="118"/>
+      <c r="AD103" s="118"/>
+      <c r="AE103" s="118"/>
+      <c r="AF103" s="118"/>
+      <c r="AG103" s="118"/>
+      <c r="AH103" s="118"/>
+      <c r="AI103" s="118"/>
+      <c r="AJ103" s="118"/>
+      <c r="AK103" s="118"/>
+      <c r="AL103" s="118"/>
+      <c r="AM103" s="118"/>
+      <c r="AN103" s="180"/>
+      <c r="AO103" s="180"/>
+      <c r="AP103" s="180"/>
+      <c r="AQ103" s="180"/>
+      <c r="AR103" s="180"/>
+      <c r="AS103" s="180"/>
+      <c r="AT103" s="181"/>
       <c r="AU103" s="8"/>
     </row>
     <row r="104" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
-      <c r="B104" s="111"/>
-      <c r="C104" s="112"/>
-      <c r="D104" s="112"/>
-      <c r="E104" s="112"/>
-      <c r="F104" s="112"/>
-      <c r="G104" s="112"/>
-      <c r="H104" s="112"/>
-      <c r="I104" s="112"/>
-      <c r="J104" s="112"/>
-      <c r="K104" s="112"/>
-      <c r="L104" s="112"/>
-      <c r="M104" s="112"/>
-      <c r="N104" s="112"/>
-      <c r="O104" s="112"/>
-      <c r="P104" s="112"/>
-      <c r="Q104" s="112"/>
-      <c r="R104" s="113"/>
-      <c r="S104" s="113"/>
-      <c r="T104" s="113"/>
-      <c r="U104" s="113"/>
-      <c r="V104" s="113"/>
-      <c r="W104" s="113"/>
-      <c r="X104" s="114"/>
+      <c r="B104" s="147"/>
+      <c r="C104" s="118"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="118"/>
+      <c r="F104" s="118"/>
+      <c r="G104" s="118"/>
+      <c r="H104" s="118"/>
+      <c r="I104" s="118"/>
+      <c r="J104" s="118"/>
+      <c r="K104" s="118"/>
+      <c r="L104" s="118"/>
+      <c r="M104" s="118"/>
+      <c r="N104" s="118"/>
+      <c r="O104" s="118"/>
+      <c r="P104" s="118"/>
+      <c r="Q104" s="118"/>
+      <c r="R104" s="180"/>
+      <c r="S104" s="180"/>
+      <c r="T104" s="180"/>
+      <c r="U104" s="180"/>
+      <c r="V104" s="180"/>
+      <c r="W104" s="180"/>
+      <c r="X104" s="181"/>
       <c r="Y104" s="51"/>
-      <c r="Z104" s="111"/>
-      <c r="AA104" s="112"/>
-      <c r="AB104" s="112"/>
-      <c r="AC104" s="112"/>
-      <c r="AD104" s="112"/>
-      <c r="AE104" s="112"/>
-      <c r="AF104" s="112"/>
-      <c r="AG104" s="112"/>
-      <c r="AH104" s="112"/>
-      <c r="AI104" s="112"/>
-      <c r="AJ104" s="112"/>
-      <c r="AK104" s="112"/>
-      <c r="AL104" s="112"/>
-      <c r="AM104" s="112"/>
-      <c r="AN104" s="113"/>
-      <c r="AO104" s="113"/>
-      <c r="AP104" s="113"/>
-      <c r="AQ104" s="113"/>
-      <c r="AR104" s="113"/>
-      <c r="AS104" s="113"/>
-      <c r="AT104" s="114"/>
+      <c r="Z104" s="147"/>
+      <c r="AA104" s="118"/>
+      <c r="AB104" s="118"/>
+      <c r="AC104" s="118"/>
+      <c r="AD104" s="118"/>
+      <c r="AE104" s="118"/>
+      <c r="AF104" s="118"/>
+      <c r="AG104" s="118"/>
+      <c r="AH104" s="118"/>
+      <c r="AI104" s="118"/>
+      <c r="AJ104" s="118"/>
+      <c r="AK104" s="118"/>
+      <c r="AL104" s="118"/>
+      <c r="AM104" s="118"/>
+      <c r="AN104" s="180"/>
+      <c r="AO104" s="180"/>
+      <c r="AP104" s="180"/>
+      <c r="AQ104" s="180"/>
+      <c r="AR104" s="180"/>
+      <c r="AS104" s="180"/>
+      <c r="AT104" s="181"/>
       <c r="AU104" s="8"/>
     </row>
     <row r="105" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
-      <c r="B105" s="111"/>
-      <c r="C105" s="112"/>
-      <c r="D105" s="112"/>
-      <c r="E105" s="112"/>
-      <c r="F105" s="112"/>
-      <c r="G105" s="112"/>
-      <c r="H105" s="112"/>
-      <c r="I105" s="112"/>
-      <c r="J105" s="112"/>
-      <c r="K105" s="112"/>
-      <c r="L105" s="112"/>
-      <c r="M105" s="112"/>
-      <c r="N105" s="112"/>
-      <c r="O105" s="112"/>
-      <c r="P105" s="112"/>
-      <c r="Q105" s="112"/>
-      <c r="R105" s="113"/>
-      <c r="S105" s="113"/>
-      <c r="T105" s="113"/>
-      <c r="U105" s="113"/>
-      <c r="V105" s="113"/>
-      <c r="W105" s="113"/>
-      <c r="X105" s="114"/>
+      <c r="B105" s="147"/>
+      <c r="C105" s="118"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="118"/>
+      <c r="F105" s="118"/>
+      <c r="G105" s="118"/>
+      <c r="H105" s="118"/>
+      <c r="I105" s="118"/>
+      <c r="J105" s="118"/>
+      <c r="K105" s="118"/>
+      <c r="L105" s="118"/>
+      <c r="M105" s="118"/>
+      <c r="N105" s="118"/>
+      <c r="O105" s="118"/>
+      <c r="P105" s="118"/>
+      <c r="Q105" s="118"/>
+      <c r="R105" s="180"/>
+      <c r="S105" s="180"/>
+      <c r="T105" s="180"/>
+      <c r="U105" s="180"/>
+      <c r="V105" s="180"/>
+      <c r="W105" s="180"/>
+      <c r="X105" s="181"/>
       <c r="Y105" s="51"/>
-      <c r="Z105" s="111"/>
-      <c r="AA105" s="112"/>
-      <c r="AB105" s="112"/>
-      <c r="AC105" s="112"/>
-      <c r="AD105" s="112"/>
-      <c r="AE105" s="112"/>
-      <c r="AF105" s="112"/>
-      <c r="AG105" s="112"/>
-      <c r="AH105" s="112"/>
-      <c r="AI105" s="112"/>
-      <c r="AJ105" s="112"/>
-      <c r="AK105" s="112"/>
-      <c r="AL105" s="112"/>
-      <c r="AM105" s="112"/>
-      <c r="AN105" s="113"/>
-      <c r="AO105" s="113"/>
-      <c r="AP105" s="113"/>
-      <c r="AQ105" s="113"/>
-      <c r="AR105" s="113"/>
-      <c r="AS105" s="113"/>
-      <c r="AT105" s="114"/>
+      <c r="Z105" s="147"/>
+      <c r="AA105" s="118"/>
+      <c r="AB105" s="118"/>
+      <c r="AC105" s="118"/>
+      <c r="AD105" s="118"/>
+      <c r="AE105" s="118"/>
+      <c r="AF105" s="118"/>
+      <c r="AG105" s="118"/>
+      <c r="AH105" s="118"/>
+      <c r="AI105" s="118"/>
+      <c r="AJ105" s="118"/>
+      <c r="AK105" s="118"/>
+      <c r="AL105" s="118"/>
+      <c r="AM105" s="118"/>
+      <c r="AN105" s="180"/>
+      <c r="AO105" s="180"/>
+      <c r="AP105" s="180"/>
+      <c r="AQ105" s="180"/>
+      <c r="AR105" s="180"/>
+      <c r="AS105" s="180"/>
+      <c r="AT105" s="181"/>
       <c r="AU105" s="8"/>
     </row>
     <row r="106" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
-      <c r="B106" s="111"/>
-      <c r="C106" s="112"/>
-      <c r="D106" s="112"/>
-      <c r="E106" s="112"/>
-      <c r="F106" s="112"/>
-      <c r="G106" s="112"/>
-      <c r="H106" s="112"/>
-      <c r="I106" s="112"/>
-      <c r="J106" s="112"/>
-      <c r="K106" s="112"/>
-      <c r="L106" s="112"/>
-      <c r="M106" s="112"/>
-      <c r="N106" s="112"/>
-      <c r="O106" s="112"/>
-      <c r="P106" s="112"/>
-      <c r="Q106" s="112"/>
-      <c r="R106" s="113"/>
-      <c r="S106" s="113"/>
-      <c r="T106" s="113"/>
-      <c r="U106" s="113"/>
-      <c r="V106" s="113"/>
-      <c r="W106" s="113"/>
-      <c r="X106" s="114"/>
+      <c r="B106" s="147"/>
+      <c r="C106" s="118"/>
+      <c r="D106" s="118"/>
+      <c r="E106" s="118"/>
+      <c r="F106" s="118"/>
+      <c r="G106" s="118"/>
+      <c r="H106" s="118"/>
+      <c r="I106" s="118"/>
+      <c r="J106" s="118"/>
+      <c r="K106" s="118"/>
+      <c r="L106" s="118"/>
+      <c r="M106" s="118"/>
+      <c r="N106" s="118"/>
+      <c r="O106" s="118"/>
+      <c r="P106" s="118"/>
+      <c r="Q106" s="118"/>
+      <c r="R106" s="180"/>
+      <c r="S106" s="180"/>
+      <c r="T106" s="180"/>
+      <c r="U106" s="180"/>
+      <c r="V106" s="180"/>
+      <c r="W106" s="180"/>
+      <c r="X106" s="181"/>
       <c r="Y106" s="51"/>
-      <c r="Z106" s="111"/>
-      <c r="AA106" s="112"/>
-      <c r="AB106" s="112"/>
-      <c r="AC106" s="112"/>
-      <c r="AD106" s="112"/>
-      <c r="AE106" s="112"/>
-      <c r="AF106" s="112"/>
-      <c r="AG106" s="112"/>
-      <c r="AH106" s="112"/>
-      <c r="AI106" s="112"/>
-      <c r="AJ106" s="112"/>
-      <c r="AK106" s="112"/>
-      <c r="AL106" s="112"/>
-      <c r="AM106" s="112"/>
-      <c r="AN106" s="113"/>
-      <c r="AO106" s="113"/>
-      <c r="AP106" s="113"/>
-      <c r="AQ106" s="113"/>
-      <c r="AR106" s="113"/>
-      <c r="AS106" s="113"/>
-      <c r="AT106" s="114"/>
+      <c r="Z106" s="147"/>
+      <c r="AA106" s="118"/>
+      <c r="AB106" s="118"/>
+      <c r="AC106" s="118"/>
+      <c r="AD106" s="118"/>
+      <c r="AE106" s="118"/>
+      <c r="AF106" s="118"/>
+      <c r="AG106" s="118"/>
+      <c r="AH106" s="118"/>
+      <c r="AI106" s="118"/>
+      <c r="AJ106" s="118"/>
+      <c r="AK106" s="118"/>
+      <c r="AL106" s="118"/>
+      <c r="AM106" s="118"/>
+      <c r="AN106" s="180"/>
+      <c r="AO106" s="180"/>
+      <c r="AP106" s="180"/>
+      <c r="AQ106" s="180"/>
+      <c r="AR106" s="180"/>
+      <c r="AS106" s="180"/>
+      <c r="AT106" s="181"/>
       <c r="AU106" s="8"/>
     </row>
     <row r="107" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
-      <c r="B107" s="124"/>
-      <c r="C107" s="125"/>
-      <c r="D107" s="125"/>
-      <c r="E107" s="125"/>
-      <c r="F107" s="125"/>
-      <c r="G107" s="125"/>
-      <c r="H107" s="125"/>
-      <c r="I107" s="125"/>
-      <c r="J107" s="125"/>
-      <c r="K107" s="125"/>
-      <c r="L107" s="125"/>
-      <c r="M107" s="125"/>
-      <c r="N107" s="125"/>
-      <c r="O107" s="125"/>
-      <c r="P107" s="125"/>
-      <c r="Q107" s="125"/>
-      <c r="R107" s="126"/>
-      <c r="S107" s="126"/>
-      <c r="T107" s="126"/>
-      <c r="U107" s="126"/>
-      <c r="V107" s="126"/>
-      <c r="W107" s="126"/>
-      <c r="X107" s="127"/>
+      <c r="B107" s="121"/>
+      <c r="C107" s="122"/>
+      <c r="D107" s="122"/>
+      <c r="E107" s="122"/>
+      <c r="F107" s="122"/>
+      <c r="G107" s="122"/>
+      <c r="H107" s="122"/>
+      <c r="I107" s="122"/>
+      <c r="J107" s="122"/>
+      <c r="K107" s="122"/>
+      <c r="L107" s="122"/>
+      <c r="M107" s="122"/>
+      <c r="N107" s="122"/>
+      <c r="O107" s="122"/>
+      <c r="P107" s="122"/>
+      <c r="Q107" s="122"/>
+      <c r="R107" s="182"/>
+      <c r="S107" s="182"/>
+      <c r="T107" s="182"/>
+      <c r="U107" s="182"/>
+      <c r="V107" s="182"/>
+      <c r="W107" s="182"/>
+      <c r="X107" s="183"/>
       <c r="Y107" s="51"/>
-      <c r="Z107" s="124"/>
-      <c r="AA107" s="125"/>
-      <c r="AB107" s="125"/>
-      <c r="AC107" s="125"/>
-      <c r="AD107" s="125"/>
-      <c r="AE107" s="125"/>
-      <c r="AF107" s="125"/>
-      <c r="AG107" s="125"/>
-      <c r="AH107" s="125"/>
-      <c r="AI107" s="125"/>
-      <c r="AJ107" s="125"/>
-      <c r="AK107" s="125"/>
-      <c r="AL107" s="125"/>
-      <c r="AM107" s="125"/>
-      <c r="AN107" s="126"/>
-      <c r="AO107" s="126"/>
-      <c r="AP107" s="126"/>
-      <c r="AQ107" s="126"/>
-      <c r="AR107" s="126"/>
-      <c r="AS107" s="126"/>
-      <c r="AT107" s="127"/>
+      <c r="Z107" s="121"/>
+      <c r="AA107" s="122"/>
+      <c r="AB107" s="122"/>
+      <c r="AC107" s="122"/>
+      <c r="AD107" s="122"/>
+      <c r="AE107" s="122"/>
+      <c r="AF107" s="122"/>
+      <c r="AG107" s="122"/>
+      <c r="AH107" s="122"/>
+      <c r="AI107" s="122"/>
+      <c r="AJ107" s="122"/>
+      <c r="AK107" s="122"/>
+      <c r="AL107" s="122"/>
+      <c r="AM107" s="122"/>
+      <c r="AN107" s="182"/>
+      <c r="AO107" s="182"/>
+      <c r="AP107" s="182"/>
+      <c r="AQ107" s="182"/>
+      <c r="AR107" s="182"/>
+      <c r="AS107" s="182"/>
+      <c r="AT107" s="183"/>
       <c r="AU107" s="8"/>
     </row>
     <row r="108" spans="1:47" s="3" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7778,53 +7778,53 @@
     </row>
     <row r="109" spans="1:47" s="20" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
-      <c r="B109" s="130" t="s">
+      <c r="B109" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="131"/>
-      <c r="D109" s="131"/>
-      <c r="E109" s="131"/>
-      <c r="F109" s="131"/>
-      <c r="G109" s="131"/>
-      <c r="H109" s="131"/>
-      <c r="I109" s="131"/>
-      <c r="J109" s="131"/>
-      <c r="K109" s="131"/>
-      <c r="L109" s="131"/>
-      <c r="M109" s="131"/>
-      <c r="N109" s="131"/>
-      <c r="O109" s="131"/>
-      <c r="P109" s="131"/>
-      <c r="Q109" s="131"/>
-      <c r="R109" s="131"/>
-      <c r="S109" s="131"/>
-      <c r="T109" s="131"/>
-      <c r="U109" s="131"/>
-      <c r="V109" s="131"/>
-      <c r="W109" s="131"/>
-      <c r="X109" s="131"/>
-      <c r="Y109" s="131"/>
-      <c r="Z109" s="131"/>
-      <c r="AA109" s="131"/>
-      <c r="AB109" s="131"/>
-      <c r="AC109" s="131"/>
-      <c r="AD109" s="131"/>
-      <c r="AE109" s="131"/>
-      <c r="AF109" s="131"/>
-      <c r="AG109" s="131"/>
-      <c r="AH109" s="131"/>
-      <c r="AI109" s="131"/>
-      <c r="AJ109" s="131"/>
-      <c r="AK109" s="131"/>
-      <c r="AL109" s="131"/>
-      <c r="AM109" s="131"/>
-      <c r="AN109" s="131"/>
-      <c r="AO109" s="131"/>
-      <c r="AP109" s="131"/>
-      <c r="AQ109" s="131"/>
-      <c r="AR109" s="131"/>
-      <c r="AS109" s="131"/>
-      <c r="AT109" s="132"/>
+      <c r="C109" s="155"/>
+      <c r="D109" s="155"/>
+      <c r="E109" s="155"/>
+      <c r="F109" s="155"/>
+      <c r="G109" s="155"/>
+      <c r="H109" s="155"/>
+      <c r="I109" s="155"/>
+      <c r="J109" s="155"/>
+      <c r="K109" s="155"/>
+      <c r="L109" s="155"/>
+      <c r="M109" s="155"/>
+      <c r="N109" s="155"/>
+      <c r="O109" s="155"/>
+      <c r="P109" s="155"/>
+      <c r="Q109" s="155"/>
+      <c r="R109" s="155"/>
+      <c r="S109" s="155"/>
+      <c r="T109" s="155"/>
+      <c r="U109" s="155"/>
+      <c r="V109" s="155"/>
+      <c r="W109" s="155"/>
+      <c r="X109" s="155"/>
+      <c r="Y109" s="155"/>
+      <c r="Z109" s="155"/>
+      <c r="AA109" s="155"/>
+      <c r="AB109" s="155"/>
+      <c r="AC109" s="155"/>
+      <c r="AD109" s="155"/>
+      <c r="AE109" s="155"/>
+      <c r="AF109" s="155"/>
+      <c r="AG109" s="155"/>
+      <c r="AH109" s="155"/>
+      <c r="AI109" s="155"/>
+      <c r="AJ109" s="155"/>
+      <c r="AK109" s="155"/>
+      <c r="AL109" s="155"/>
+      <c r="AM109" s="155"/>
+      <c r="AN109" s="155"/>
+      <c r="AO109" s="155"/>
+      <c r="AP109" s="155"/>
+      <c r="AQ109" s="155"/>
+      <c r="AR109" s="155"/>
+      <c r="AS109" s="155"/>
+      <c r="AT109" s="156"/>
       <c r="AU109" s="8"/>
     </row>
     <row r="110" spans="1:47" s="3" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7878,557 +7878,557 @@
     </row>
     <row r="111" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
-      <c r="B111" s="128" t="s">
+      <c r="B111" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="108"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="108"/>
-      <c r="F111" s="108"/>
-      <c r="G111" s="108" t="s">
+      <c r="C111" s="158"/>
+      <c r="D111" s="158"/>
+      <c r="E111" s="158"/>
+      <c r="F111" s="158"/>
+      <c r="G111" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="H111" s="108"/>
-      <c r="I111" s="108"/>
-      <c r="J111" s="108"/>
-      <c r="K111" s="108"/>
-      <c r="L111" s="108"/>
-      <c r="M111" s="108"/>
-      <c r="N111" s="108"/>
-      <c r="O111" s="108"/>
-      <c r="P111" s="108"/>
-      <c r="Q111" s="108"/>
-      <c r="R111" s="109" t="s">
+      <c r="H111" s="158"/>
+      <c r="I111" s="158"/>
+      <c r="J111" s="158"/>
+      <c r="K111" s="158"/>
+      <c r="L111" s="158"/>
+      <c r="M111" s="158"/>
+      <c r="N111" s="158"/>
+      <c r="O111" s="158"/>
+      <c r="P111" s="158"/>
+      <c r="Q111" s="158"/>
+      <c r="R111" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="S111" s="109"/>
-      <c r="T111" s="109"/>
-      <c r="U111" s="109"/>
-      <c r="V111" s="109" t="s">
+      <c r="S111" s="159"/>
+      <c r="T111" s="159"/>
+      <c r="U111" s="159"/>
+      <c r="V111" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="W111" s="109"/>
-      <c r="X111" s="110"/>
+      <c r="W111" s="159"/>
+      <c r="X111" s="160"/>
       <c r="Y111" s="13"/>
-      <c r="Z111" s="128" t="s">
+      <c r="Z111" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="AA111" s="108"/>
-      <c r="AB111" s="108"/>
-      <c r="AC111" s="108"/>
-      <c r="AD111" s="108" t="s">
+      <c r="AA111" s="158"/>
+      <c r="AB111" s="158"/>
+      <c r="AC111" s="158"/>
+      <c r="AD111" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="AE111" s="108"/>
-      <c r="AF111" s="108"/>
-      <c r="AG111" s="108"/>
-      <c r="AH111" s="108"/>
-      <c r="AI111" s="108"/>
-      <c r="AJ111" s="108"/>
-      <c r="AK111" s="108"/>
-      <c r="AL111" s="108"/>
-      <c r="AM111" s="108"/>
-      <c r="AN111" s="109" t="s">
+      <c r="AE111" s="158"/>
+      <c r="AF111" s="158"/>
+      <c r="AG111" s="158"/>
+      <c r="AH111" s="158"/>
+      <c r="AI111" s="158"/>
+      <c r="AJ111" s="158"/>
+      <c r="AK111" s="158"/>
+      <c r="AL111" s="158"/>
+      <c r="AM111" s="158"/>
+      <c r="AN111" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="AO111" s="109"/>
-      <c r="AP111" s="109"/>
-      <c r="AQ111" s="109"/>
-      <c r="AR111" s="109" t="s">
+      <c r="AO111" s="159"/>
+      <c r="AP111" s="159"/>
+      <c r="AQ111" s="159"/>
+      <c r="AR111" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="AS111" s="109"/>
-      <c r="AT111" s="110"/>
+      <c r="AS111" s="159"/>
+      <c r="AT111" s="160"/>
       <c r="AU111" s="8"/>
     </row>
     <row r="112" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
-      <c r="B112" s="111"/>
-      <c r="C112" s="112"/>
-      <c r="D112" s="112"/>
-      <c r="E112" s="112"/>
-      <c r="F112" s="112"/>
-      <c r="G112" s="112"/>
-      <c r="H112" s="112"/>
-      <c r="I112" s="112"/>
-      <c r="J112" s="112"/>
-      <c r="K112" s="112"/>
-      <c r="L112" s="112"/>
-      <c r="M112" s="112"/>
-      <c r="N112" s="112"/>
-      <c r="O112" s="112"/>
-      <c r="P112" s="112"/>
-      <c r="Q112" s="112"/>
-      <c r="R112" s="113"/>
-      <c r="S112" s="113"/>
-      <c r="T112" s="113"/>
-      <c r="U112" s="113"/>
-      <c r="V112" s="113"/>
-      <c r="W112" s="113"/>
-      <c r="X112" s="114"/>
+      <c r="B112" s="147"/>
+      <c r="C112" s="118"/>
+      <c r="D112" s="118"/>
+      <c r="E112" s="118"/>
+      <c r="F112" s="118"/>
+      <c r="G112" s="118"/>
+      <c r="H112" s="118"/>
+      <c r="I112" s="118"/>
+      <c r="J112" s="118"/>
+      <c r="K112" s="118"/>
+      <c r="L112" s="118"/>
+      <c r="M112" s="118"/>
+      <c r="N112" s="118"/>
+      <c r="O112" s="118"/>
+      <c r="P112" s="118"/>
+      <c r="Q112" s="118"/>
+      <c r="R112" s="180"/>
+      <c r="S112" s="180"/>
+      <c r="T112" s="180"/>
+      <c r="U112" s="180"/>
+      <c r="V112" s="180"/>
+      <c r="W112" s="180"/>
+      <c r="X112" s="181"/>
       <c r="Y112" s="51"/>
-      <c r="Z112" s="111"/>
-      <c r="AA112" s="112"/>
-      <c r="AB112" s="112"/>
-      <c r="AC112" s="112"/>
-      <c r="AD112" s="112"/>
-      <c r="AE112" s="112"/>
-      <c r="AF112" s="112"/>
-      <c r="AG112" s="112"/>
-      <c r="AH112" s="112"/>
-      <c r="AI112" s="112"/>
-      <c r="AJ112" s="112"/>
-      <c r="AK112" s="112"/>
-      <c r="AL112" s="112"/>
-      <c r="AM112" s="112"/>
-      <c r="AN112" s="113"/>
-      <c r="AO112" s="113"/>
-      <c r="AP112" s="113"/>
-      <c r="AQ112" s="113"/>
-      <c r="AR112" s="113"/>
-      <c r="AS112" s="113"/>
-      <c r="AT112" s="114"/>
+      <c r="Z112" s="147"/>
+      <c r="AA112" s="118"/>
+      <c r="AB112" s="118"/>
+      <c r="AC112" s="118"/>
+      <c r="AD112" s="118"/>
+      <c r="AE112" s="118"/>
+      <c r="AF112" s="118"/>
+      <c r="AG112" s="118"/>
+      <c r="AH112" s="118"/>
+      <c r="AI112" s="118"/>
+      <c r="AJ112" s="118"/>
+      <c r="AK112" s="118"/>
+      <c r="AL112" s="118"/>
+      <c r="AM112" s="118"/>
+      <c r="AN112" s="180"/>
+      <c r="AO112" s="180"/>
+      <c r="AP112" s="180"/>
+      <c r="AQ112" s="180"/>
+      <c r="AR112" s="180"/>
+      <c r="AS112" s="180"/>
+      <c r="AT112" s="181"/>
       <c r="AU112" s="8"/>
     </row>
     <row r="113" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
-      <c r="B113" s="111"/>
-      <c r="C113" s="112"/>
-      <c r="D113" s="112"/>
-      <c r="E113" s="112"/>
-      <c r="F113" s="112"/>
-      <c r="G113" s="112"/>
-      <c r="H113" s="112"/>
-      <c r="I113" s="112"/>
-      <c r="J113" s="112"/>
-      <c r="K113" s="112"/>
-      <c r="L113" s="112"/>
-      <c r="M113" s="112"/>
-      <c r="N113" s="112"/>
-      <c r="O113" s="112"/>
-      <c r="P113" s="112"/>
-      <c r="Q113" s="112"/>
-      <c r="R113" s="113"/>
-      <c r="S113" s="113"/>
-      <c r="T113" s="113"/>
-      <c r="U113" s="113"/>
-      <c r="V113" s="113"/>
-      <c r="W113" s="113"/>
-      <c r="X113" s="114"/>
+      <c r="B113" s="147"/>
+      <c r="C113" s="118"/>
+      <c r="D113" s="118"/>
+      <c r="E113" s="118"/>
+      <c r="F113" s="118"/>
+      <c r="G113" s="118"/>
+      <c r="H113" s="118"/>
+      <c r="I113" s="118"/>
+      <c r="J113" s="118"/>
+      <c r="K113" s="118"/>
+      <c r="L113" s="118"/>
+      <c r="M113" s="118"/>
+      <c r="N113" s="118"/>
+      <c r="O113" s="118"/>
+      <c r="P113" s="118"/>
+      <c r="Q113" s="118"/>
+      <c r="R113" s="180"/>
+      <c r="S113" s="180"/>
+      <c r="T113" s="180"/>
+      <c r="U113" s="180"/>
+      <c r="V113" s="180"/>
+      <c r="W113" s="180"/>
+      <c r="X113" s="181"/>
       <c r="Y113" s="51"/>
-      <c r="Z113" s="111"/>
-      <c r="AA113" s="112"/>
-      <c r="AB113" s="112"/>
-      <c r="AC113" s="112"/>
-      <c r="AD113" s="112"/>
-      <c r="AE113" s="112"/>
-      <c r="AF113" s="112"/>
-      <c r="AG113" s="112"/>
-      <c r="AH113" s="112"/>
-      <c r="AI113" s="112"/>
-      <c r="AJ113" s="112"/>
-      <c r="AK113" s="112"/>
-      <c r="AL113" s="112"/>
-      <c r="AM113" s="112"/>
-      <c r="AN113" s="113"/>
-      <c r="AO113" s="113"/>
-      <c r="AP113" s="113"/>
-      <c r="AQ113" s="113"/>
-      <c r="AR113" s="113"/>
-      <c r="AS113" s="113"/>
-      <c r="AT113" s="114"/>
+      <c r="Z113" s="147"/>
+      <c r="AA113" s="118"/>
+      <c r="AB113" s="118"/>
+      <c r="AC113" s="118"/>
+      <c r="AD113" s="118"/>
+      <c r="AE113" s="118"/>
+      <c r="AF113" s="118"/>
+      <c r="AG113" s="118"/>
+      <c r="AH113" s="118"/>
+      <c r="AI113" s="118"/>
+      <c r="AJ113" s="118"/>
+      <c r="AK113" s="118"/>
+      <c r="AL113" s="118"/>
+      <c r="AM113" s="118"/>
+      <c r="AN113" s="180"/>
+      <c r="AO113" s="180"/>
+      <c r="AP113" s="180"/>
+      <c r="AQ113" s="180"/>
+      <c r="AR113" s="180"/>
+      <c r="AS113" s="180"/>
+      <c r="AT113" s="181"/>
       <c r="AU113" s="8"/>
     </row>
     <row r="114" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
-      <c r="B114" s="111"/>
-      <c r="C114" s="112"/>
-      <c r="D114" s="112"/>
-      <c r="E114" s="112"/>
-      <c r="F114" s="112"/>
-      <c r="G114" s="112"/>
-      <c r="H114" s="112"/>
-      <c r="I114" s="112"/>
-      <c r="J114" s="112"/>
-      <c r="K114" s="112"/>
-      <c r="L114" s="112"/>
-      <c r="M114" s="112"/>
-      <c r="N114" s="112"/>
-      <c r="O114" s="112"/>
-      <c r="P114" s="112"/>
-      <c r="Q114" s="112"/>
-      <c r="R114" s="113"/>
-      <c r="S114" s="113"/>
-      <c r="T114" s="113"/>
-      <c r="U114" s="113"/>
-      <c r="V114" s="113"/>
-      <c r="W114" s="113"/>
-      <c r="X114" s="114"/>
+      <c r="B114" s="147"/>
+      <c r="C114" s="118"/>
+      <c r="D114" s="118"/>
+      <c r="E114" s="118"/>
+      <c r="F114" s="118"/>
+      <c r="G114" s="118"/>
+      <c r="H114" s="118"/>
+      <c r="I114" s="118"/>
+      <c r="J114" s="118"/>
+      <c r="K114" s="118"/>
+      <c r="L114" s="118"/>
+      <c r="M114" s="118"/>
+      <c r="N114" s="118"/>
+      <c r="O114" s="118"/>
+      <c r="P114" s="118"/>
+      <c r="Q114" s="118"/>
+      <c r="R114" s="180"/>
+      <c r="S114" s="180"/>
+      <c r="T114" s="180"/>
+      <c r="U114" s="180"/>
+      <c r="V114" s="180"/>
+      <c r="W114" s="180"/>
+      <c r="X114" s="181"/>
       <c r="Y114" s="51"/>
-      <c r="Z114" s="111"/>
-      <c r="AA114" s="112"/>
-      <c r="AB114" s="112"/>
-      <c r="AC114" s="112"/>
-      <c r="AD114" s="112"/>
-      <c r="AE114" s="112"/>
-      <c r="AF114" s="112"/>
-      <c r="AG114" s="112"/>
-      <c r="AH114" s="112"/>
-      <c r="AI114" s="112"/>
-      <c r="AJ114" s="112"/>
-      <c r="AK114" s="112"/>
-      <c r="AL114" s="112"/>
-      <c r="AM114" s="112"/>
-      <c r="AN114" s="113"/>
-      <c r="AO114" s="113"/>
-      <c r="AP114" s="113"/>
-      <c r="AQ114" s="113"/>
-      <c r="AR114" s="113"/>
-      <c r="AS114" s="113"/>
-      <c r="AT114" s="114"/>
+      <c r="Z114" s="147"/>
+      <c r="AA114" s="118"/>
+      <c r="AB114" s="118"/>
+      <c r="AC114" s="118"/>
+      <c r="AD114" s="118"/>
+      <c r="AE114" s="118"/>
+      <c r="AF114" s="118"/>
+      <c r="AG114" s="118"/>
+      <c r="AH114" s="118"/>
+      <c r="AI114" s="118"/>
+      <c r="AJ114" s="118"/>
+      <c r="AK114" s="118"/>
+      <c r="AL114" s="118"/>
+      <c r="AM114" s="118"/>
+      <c r="AN114" s="180"/>
+      <c r="AO114" s="180"/>
+      <c r="AP114" s="180"/>
+      <c r="AQ114" s="180"/>
+      <c r="AR114" s="180"/>
+      <c r="AS114" s="180"/>
+      <c r="AT114" s="181"/>
       <c r="AU114" s="8"/>
     </row>
     <row r="115" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
-      <c r="B115" s="111"/>
-      <c r="C115" s="112"/>
-      <c r="D115" s="112"/>
-      <c r="E115" s="112"/>
-      <c r="F115" s="112"/>
-      <c r="G115" s="112"/>
-      <c r="H115" s="112"/>
-      <c r="I115" s="112"/>
-      <c r="J115" s="112"/>
-      <c r="K115" s="112"/>
-      <c r="L115" s="112"/>
-      <c r="M115" s="112"/>
-      <c r="N115" s="112"/>
-      <c r="O115" s="112"/>
-      <c r="P115" s="112"/>
-      <c r="Q115" s="112"/>
-      <c r="R115" s="113"/>
-      <c r="S115" s="113"/>
-      <c r="T115" s="113"/>
-      <c r="U115" s="113"/>
-      <c r="V115" s="113"/>
-      <c r="W115" s="113"/>
-      <c r="X115" s="114"/>
+      <c r="B115" s="147"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="118"/>
+      <c r="E115" s="118"/>
+      <c r="F115" s="118"/>
+      <c r="G115" s="118"/>
+      <c r="H115" s="118"/>
+      <c r="I115" s="118"/>
+      <c r="J115" s="118"/>
+      <c r="K115" s="118"/>
+      <c r="L115" s="118"/>
+      <c r="M115" s="118"/>
+      <c r="N115" s="118"/>
+      <c r="O115" s="118"/>
+      <c r="P115" s="118"/>
+      <c r="Q115" s="118"/>
+      <c r="R115" s="180"/>
+      <c r="S115" s="180"/>
+      <c r="T115" s="180"/>
+      <c r="U115" s="180"/>
+      <c r="V115" s="180"/>
+      <c r="W115" s="180"/>
+      <c r="X115" s="181"/>
       <c r="Y115" s="51"/>
-      <c r="Z115" s="111"/>
-      <c r="AA115" s="112"/>
-      <c r="AB115" s="112"/>
-      <c r="AC115" s="112"/>
-      <c r="AD115" s="112"/>
-      <c r="AE115" s="112"/>
-      <c r="AF115" s="112"/>
-      <c r="AG115" s="112"/>
-      <c r="AH115" s="112"/>
-      <c r="AI115" s="112"/>
-      <c r="AJ115" s="112"/>
-      <c r="AK115" s="112"/>
-      <c r="AL115" s="112"/>
-      <c r="AM115" s="112"/>
-      <c r="AN115" s="113"/>
-      <c r="AO115" s="113"/>
-      <c r="AP115" s="113"/>
-      <c r="AQ115" s="113"/>
-      <c r="AR115" s="113"/>
-      <c r="AS115" s="113"/>
-      <c r="AT115" s="114"/>
+      <c r="Z115" s="147"/>
+      <c r="AA115" s="118"/>
+      <c r="AB115" s="118"/>
+      <c r="AC115" s="118"/>
+      <c r="AD115" s="118"/>
+      <c r="AE115" s="118"/>
+      <c r="AF115" s="118"/>
+      <c r="AG115" s="118"/>
+      <c r="AH115" s="118"/>
+      <c r="AI115" s="118"/>
+      <c r="AJ115" s="118"/>
+      <c r="AK115" s="118"/>
+      <c r="AL115" s="118"/>
+      <c r="AM115" s="118"/>
+      <c r="AN115" s="180"/>
+      <c r="AO115" s="180"/>
+      <c r="AP115" s="180"/>
+      <c r="AQ115" s="180"/>
+      <c r="AR115" s="180"/>
+      <c r="AS115" s="180"/>
+      <c r="AT115" s="181"/>
       <c r="AU115" s="8"/>
     </row>
     <row r="116" spans="1:47" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
-      <c r="B116" s="111"/>
-      <c r="C116" s="112"/>
-      <c r="D116" s="112"/>
-      <c r="E116" s="112"/>
-      <c r="F116" s="112"/>
-      <c r="G116" s="112"/>
-      <c r="H116" s="112"/>
-      <c r="I116" s="112"/>
-      <c r="J116" s="112"/>
-      <c r="K116" s="112"/>
-      <c r="L116" s="112"/>
-      <c r="M116" s="112"/>
-      <c r="N116" s="112"/>
-      <c r="O116" s="112"/>
-      <c r="P116" s="112"/>
-      <c r="Q116" s="112"/>
-      <c r="R116" s="113"/>
-      <c r="S116" s="113"/>
-      <c r="T116" s="113"/>
-      <c r="U116" s="113"/>
-      <c r="V116" s="113"/>
-      <c r="W116" s="113"/>
-      <c r="X116" s="114"/>
+      <c r="B116" s="147"/>
+      <c r="C116" s="118"/>
+      <c r="D116" s="118"/>
+      <c r="E116" s="118"/>
+      <c r="F116" s="118"/>
+      <c r="G116" s="118"/>
+      <c r="H116" s="118"/>
+      <c r="I116" s="118"/>
+      <c r="J116" s="118"/>
+      <c r="K116" s="118"/>
+      <c r="L116" s="118"/>
+      <c r="M116" s="118"/>
+      <c r="N116" s="118"/>
+      <c r="O116" s="118"/>
+      <c r="P116" s="118"/>
+      <c r="Q116" s="118"/>
+      <c r="R116" s="180"/>
+      <c r="S116" s="180"/>
+      <c r="T116" s="180"/>
+      <c r="U116" s="180"/>
+      <c r="V116" s="180"/>
+      <c r="W116" s="180"/>
+      <c r="X116" s="181"/>
       <c r="Y116" s="51"/>
-      <c r="Z116" s="111"/>
-      <c r="AA116" s="112"/>
-      <c r="AB116" s="112"/>
-      <c r="AC116" s="112"/>
-      <c r="AD116" s="112"/>
-      <c r="AE116" s="112"/>
-      <c r="AF116" s="112"/>
-      <c r="AG116" s="112"/>
-      <c r="AH116" s="112"/>
-      <c r="AI116" s="112"/>
-      <c r="AJ116" s="112"/>
-      <c r="AK116" s="112"/>
-      <c r="AL116" s="112"/>
-      <c r="AM116" s="112"/>
-      <c r="AN116" s="113"/>
-      <c r="AO116" s="113"/>
-      <c r="AP116" s="113"/>
-      <c r="AQ116" s="113"/>
-      <c r="AR116" s="113"/>
-      <c r="AS116" s="113"/>
-      <c r="AT116" s="114"/>
+      <c r="Z116" s="147"/>
+      <c r="AA116" s="118"/>
+      <c r="AB116" s="118"/>
+      <c r="AC116" s="118"/>
+      <c r="AD116" s="118"/>
+      <c r="AE116" s="118"/>
+      <c r="AF116" s="118"/>
+      <c r="AG116" s="118"/>
+      <c r="AH116" s="118"/>
+      <c r="AI116" s="118"/>
+      <c r="AJ116" s="118"/>
+      <c r="AK116" s="118"/>
+      <c r="AL116" s="118"/>
+      <c r="AM116" s="118"/>
+      <c r="AN116" s="180"/>
+      <c r="AO116" s="180"/>
+      <c r="AP116" s="180"/>
+      <c r="AQ116" s="180"/>
+      <c r="AR116" s="180"/>
+      <c r="AS116" s="180"/>
+      <c r="AT116" s="181"/>
       <c r="AU116" s="8"/>
     </row>
     <row r="117" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
-      <c r="B117" s="111"/>
-      <c r="C117" s="112"/>
-      <c r="D117" s="112"/>
-      <c r="E117" s="112"/>
-      <c r="F117" s="112"/>
-      <c r="G117" s="112"/>
-      <c r="H117" s="112"/>
-      <c r="I117" s="112"/>
-      <c r="J117" s="112"/>
-      <c r="K117" s="112"/>
-      <c r="L117" s="112"/>
-      <c r="M117" s="112"/>
-      <c r="N117" s="112"/>
-      <c r="O117" s="112"/>
-      <c r="P117" s="112"/>
-      <c r="Q117" s="112"/>
-      <c r="R117" s="113"/>
-      <c r="S117" s="113"/>
-      <c r="T117" s="113"/>
-      <c r="U117" s="113"/>
-      <c r="V117" s="113"/>
-      <c r="W117" s="113"/>
-      <c r="X117" s="114"/>
+      <c r="B117" s="147"/>
+      <c r="C117" s="118"/>
+      <c r="D117" s="118"/>
+      <c r="E117" s="118"/>
+      <c r="F117" s="118"/>
+      <c r="G117" s="118"/>
+      <c r="H117" s="118"/>
+      <c r="I117" s="118"/>
+      <c r="J117" s="118"/>
+      <c r="K117" s="118"/>
+      <c r="L117" s="118"/>
+      <c r="M117" s="118"/>
+      <c r="N117" s="118"/>
+      <c r="O117" s="118"/>
+      <c r="P117" s="118"/>
+      <c r="Q117" s="118"/>
+      <c r="R117" s="180"/>
+      <c r="S117" s="180"/>
+      <c r="T117" s="180"/>
+      <c r="U117" s="180"/>
+      <c r="V117" s="180"/>
+      <c r="W117" s="180"/>
+      <c r="X117" s="181"/>
       <c r="Y117" s="51"/>
-      <c r="Z117" s="111"/>
-      <c r="AA117" s="112"/>
-      <c r="AB117" s="112"/>
-      <c r="AC117" s="112"/>
-      <c r="AD117" s="112"/>
-      <c r="AE117" s="112"/>
-      <c r="AF117" s="112"/>
-      <c r="AG117" s="112"/>
-      <c r="AH117" s="112"/>
-      <c r="AI117" s="112"/>
-      <c r="AJ117" s="112"/>
-      <c r="AK117" s="112"/>
-      <c r="AL117" s="112"/>
-      <c r="AM117" s="112"/>
-      <c r="AN117" s="113"/>
-      <c r="AO117" s="113"/>
-      <c r="AP117" s="113"/>
-      <c r="AQ117" s="113"/>
-      <c r="AR117" s="113"/>
-      <c r="AS117" s="113"/>
-      <c r="AT117" s="114"/>
+      <c r="Z117" s="147"/>
+      <c r="AA117" s="118"/>
+      <c r="AB117" s="118"/>
+      <c r="AC117" s="118"/>
+      <c r="AD117" s="118"/>
+      <c r="AE117" s="118"/>
+      <c r="AF117" s="118"/>
+      <c r="AG117" s="118"/>
+      <c r="AH117" s="118"/>
+      <c r="AI117" s="118"/>
+      <c r="AJ117" s="118"/>
+      <c r="AK117" s="118"/>
+      <c r="AL117" s="118"/>
+      <c r="AM117" s="118"/>
+      <c r="AN117" s="180"/>
+      <c r="AO117" s="180"/>
+      <c r="AP117" s="180"/>
+      <c r="AQ117" s="180"/>
+      <c r="AR117" s="180"/>
+      <c r="AS117" s="180"/>
+      <c r="AT117" s="181"/>
       <c r="AU117" s="8"/>
     </row>
     <row r="118" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
-      <c r="B118" s="111"/>
-      <c r="C118" s="112"/>
-      <c r="D118" s="112"/>
-      <c r="E118" s="112"/>
-      <c r="F118" s="112"/>
-      <c r="G118" s="112"/>
-      <c r="H118" s="112"/>
-      <c r="I118" s="112"/>
-      <c r="J118" s="112"/>
-      <c r="K118" s="112"/>
-      <c r="L118" s="112"/>
-      <c r="M118" s="112"/>
-      <c r="N118" s="112"/>
-      <c r="O118" s="112"/>
-      <c r="P118" s="112"/>
-      <c r="Q118" s="112"/>
-      <c r="R118" s="113"/>
-      <c r="S118" s="113"/>
-      <c r="T118" s="113"/>
-      <c r="U118" s="113"/>
-      <c r="V118" s="113"/>
-      <c r="W118" s="113"/>
-      <c r="X118" s="114"/>
+      <c r="B118" s="147"/>
+      <c r="C118" s="118"/>
+      <c r="D118" s="118"/>
+      <c r="E118" s="118"/>
+      <c r="F118" s="118"/>
+      <c r="G118" s="118"/>
+      <c r="H118" s="118"/>
+      <c r="I118" s="118"/>
+      <c r="J118" s="118"/>
+      <c r="K118" s="118"/>
+      <c r="L118" s="118"/>
+      <c r="M118" s="118"/>
+      <c r="N118" s="118"/>
+      <c r="O118" s="118"/>
+      <c r="P118" s="118"/>
+      <c r="Q118" s="118"/>
+      <c r="R118" s="180"/>
+      <c r="S118" s="180"/>
+      <c r="T118" s="180"/>
+      <c r="U118" s="180"/>
+      <c r="V118" s="180"/>
+      <c r="W118" s="180"/>
+      <c r="X118" s="181"/>
       <c r="Y118" s="51"/>
-      <c r="Z118" s="111"/>
-      <c r="AA118" s="112"/>
-      <c r="AB118" s="112"/>
-      <c r="AC118" s="112"/>
-      <c r="AD118" s="112"/>
-      <c r="AE118" s="112"/>
-      <c r="AF118" s="112"/>
-      <c r="AG118" s="112"/>
-      <c r="AH118" s="112"/>
-      <c r="AI118" s="112"/>
-      <c r="AJ118" s="112"/>
-      <c r="AK118" s="112"/>
-      <c r="AL118" s="112"/>
-      <c r="AM118" s="112"/>
-      <c r="AN118" s="113"/>
-      <c r="AO118" s="113"/>
-      <c r="AP118" s="113"/>
-      <c r="AQ118" s="113"/>
-      <c r="AR118" s="113"/>
-      <c r="AS118" s="113"/>
-      <c r="AT118" s="114"/>
+      <c r="Z118" s="147"/>
+      <c r="AA118" s="118"/>
+      <c r="AB118" s="118"/>
+      <c r="AC118" s="118"/>
+      <c r="AD118" s="118"/>
+      <c r="AE118" s="118"/>
+      <c r="AF118" s="118"/>
+      <c r="AG118" s="118"/>
+      <c r="AH118" s="118"/>
+      <c r="AI118" s="118"/>
+      <c r="AJ118" s="118"/>
+      <c r="AK118" s="118"/>
+      <c r="AL118" s="118"/>
+      <c r="AM118" s="118"/>
+      <c r="AN118" s="180"/>
+      <c r="AO118" s="180"/>
+      <c r="AP118" s="180"/>
+      <c r="AQ118" s="180"/>
+      <c r="AR118" s="180"/>
+      <c r="AS118" s="180"/>
+      <c r="AT118" s="181"/>
       <c r="AU118" s="8"/>
     </row>
     <row r="119" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
-      <c r="B119" s="111"/>
-      <c r="C119" s="112"/>
-      <c r="D119" s="112"/>
-      <c r="E119" s="112"/>
-      <c r="F119" s="112"/>
-      <c r="G119" s="112"/>
-      <c r="H119" s="112"/>
-      <c r="I119" s="112"/>
-      <c r="J119" s="112"/>
-      <c r="K119" s="112"/>
-      <c r="L119" s="112"/>
-      <c r="M119" s="112"/>
-      <c r="N119" s="112"/>
-      <c r="O119" s="112"/>
-      <c r="P119" s="112"/>
-      <c r="Q119" s="112"/>
-      <c r="R119" s="113"/>
-      <c r="S119" s="113"/>
-      <c r="T119" s="113"/>
-      <c r="U119" s="113"/>
-      <c r="V119" s="113"/>
-      <c r="W119" s="113"/>
-      <c r="X119" s="114"/>
+      <c r="B119" s="147"/>
+      <c r="C119" s="118"/>
+      <c r="D119" s="118"/>
+      <c r="E119" s="118"/>
+      <c r="F119" s="118"/>
+      <c r="G119" s="118"/>
+      <c r="H119" s="118"/>
+      <c r="I119" s="118"/>
+      <c r="J119" s="118"/>
+      <c r="K119" s="118"/>
+      <c r="L119" s="118"/>
+      <c r="M119" s="118"/>
+      <c r="N119" s="118"/>
+      <c r="O119" s="118"/>
+      <c r="P119" s="118"/>
+      <c r="Q119" s="118"/>
+      <c r="R119" s="180"/>
+      <c r="S119" s="180"/>
+      <c r="T119" s="180"/>
+      <c r="U119" s="180"/>
+      <c r="V119" s="180"/>
+      <c r="W119" s="180"/>
+      <c r="X119" s="181"/>
       <c r="Y119" s="51"/>
-      <c r="Z119" s="111"/>
-      <c r="AA119" s="112"/>
-      <c r="AB119" s="112"/>
-      <c r="AC119" s="112"/>
-      <c r="AD119" s="112"/>
-      <c r="AE119" s="112"/>
-      <c r="AF119" s="112"/>
-      <c r="AG119" s="112"/>
-      <c r="AH119" s="112"/>
-      <c r="AI119" s="112"/>
-      <c r="AJ119" s="112"/>
-      <c r="AK119" s="112"/>
-      <c r="AL119" s="112"/>
-      <c r="AM119" s="112"/>
-      <c r="AN119" s="113"/>
-      <c r="AO119" s="113"/>
-      <c r="AP119" s="113"/>
-      <c r="AQ119" s="113"/>
-      <c r="AR119" s="113"/>
-      <c r="AS119" s="113"/>
-      <c r="AT119" s="114"/>
+      <c r="Z119" s="147"/>
+      <c r="AA119" s="118"/>
+      <c r="AB119" s="118"/>
+      <c r="AC119" s="118"/>
+      <c r="AD119" s="118"/>
+      <c r="AE119" s="118"/>
+      <c r="AF119" s="118"/>
+      <c r="AG119" s="118"/>
+      <c r="AH119" s="118"/>
+      <c r="AI119" s="118"/>
+      <c r="AJ119" s="118"/>
+      <c r="AK119" s="118"/>
+      <c r="AL119" s="118"/>
+      <c r="AM119" s="118"/>
+      <c r="AN119" s="180"/>
+      <c r="AO119" s="180"/>
+      <c r="AP119" s="180"/>
+      <c r="AQ119" s="180"/>
+      <c r="AR119" s="180"/>
+      <c r="AS119" s="180"/>
+      <c r="AT119" s="181"/>
       <c r="AU119" s="8"/>
     </row>
     <row r="120" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
-      <c r="B120" s="111"/>
-      <c r="C120" s="112"/>
-      <c r="D120" s="112"/>
-      <c r="E120" s="112"/>
-      <c r="F120" s="112"/>
-      <c r="G120" s="112"/>
-      <c r="H120" s="112"/>
-      <c r="I120" s="112"/>
-      <c r="J120" s="112"/>
-      <c r="K120" s="112"/>
-      <c r="L120" s="112"/>
-      <c r="M120" s="112"/>
-      <c r="N120" s="112"/>
-      <c r="O120" s="112"/>
-      <c r="P120" s="112"/>
-      <c r="Q120" s="112"/>
-      <c r="R120" s="113"/>
-      <c r="S120" s="113"/>
-      <c r="T120" s="113"/>
-      <c r="U120" s="113"/>
-      <c r="V120" s="113"/>
-      <c r="W120" s="113"/>
-      <c r="X120" s="114"/>
+      <c r="B120" s="147"/>
+      <c r="C120" s="118"/>
+      <c r="D120" s="118"/>
+      <c r="E120" s="118"/>
+      <c r="F120" s="118"/>
+      <c r="G120" s="118"/>
+      <c r="H120" s="118"/>
+      <c r="I120" s="118"/>
+      <c r="J120" s="118"/>
+      <c r="K120" s="118"/>
+      <c r="L120" s="118"/>
+      <c r="M120" s="118"/>
+      <c r="N120" s="118"/>
+      <c r="O120" s="118"/>
+      <c r="P120" s="118"/>
+      <c r="Q120" s="118"/>
+      <c r="R120" s="180"/>
+      <c r="S120" s="180"/>
+      <c r="T120" s="180"/>
+      <c r="U120" s="180"/>
+      <c r="V120" s="180"/>
+      <c r="W120" s="180"/>
+      <c r="X120" s="181"/>
       <c r="Y120" s="51"/>
-      <c r="Z120" s="111"/>
-      <c r="AA120" s="112"/>
-      <c r="AB120" s="112"/>
-      <c r="AC120" s="112"/>
-      <c r="AD120" s="112"/>
-      <c r="AE120" s="112"/>
-      <c r="AF120" s="112"/>
-      <c r="AG120" s="112"/>
-      <c r="AH120" s="112"/>
-      <c r="AI120" s="112"/>
-      <c r="AJ120" s="112"/>
-      <c r="AK120" s="112"/>
-      <c r="AL120" s="112"/>
-      <c r="AM120" s="112"/>
-      <c r="AN120" s="113"/>
-      <c r="AO120" s="113"/>
-      <c r="AP120" s="113"/>
-      <c r="AQ120" s="113"/>
-      <c r="AR120" s="113"/>
-      <c r="AS120" s="113"/>
-      <c r="AT120" s="114"/>
+      <c r="Z120" s="147"/>
+      <c r="AA120" s="118"/>
+      <c r="AB120" s="118"/>
+      <c r="AC120" s="118"/>
+      <c r="AD120" s="118"/>
+      <c r="AE120" s="118"/>
+      <c r="AF120" s="118"/>
+      <c r="AG120" s="118"/>
+      <c r="AH120" s="118"/>
+      <c r="AI120" s="118"/>
+      <c r="AJ120" s="118"/>
+      <c r="AK120" s="118"/>
+      <c r="AL120" s="118"/>
+      <c r="AM120" s="118"/>
+      <c r="AN120" s="180"/>
+      <c r="AO120" s="180"/>
+      <c r="AP120" s="180"/>
+      <c r="AQ120" s="180"/>
+      <c r="AR120" s="180"/>
+      <c r="AS120" s="180"/>
+      <c r="AT120" s="181"/>
       <c r="AU120" s="8"/>
     </row>
     <row r="121" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
-      <c r="B121" s="124"/>
-      <c r="C121" s="125"/>
-      <c r="D121" s="125"/>
-      <c r="E121" s="125"/>
-      <c r="F121" s="125"/>
-      <c r="G121" s="125"/>
-      <c r="H121" s="125"/>
-      <c r="I121" s="125"/>
-      <c r="J121" s="125"/>
-      <c r="K121" s="125"/>
-      <c r="L121" s="125"/>
-      <c r="M121" s="125"/>
-      <c r="N121" s="125"/>
-      <c r="O121" s="125"/>
-      <c r="P121" s="125"/>
-      <c r="Q121" s="125"/>
-      <c r="R121" s="126"/>
-      <c r="S121" s="126"/>
-      <c r="T121" s="126"/>
-      <c r="U121" s="126"/>
-      <c r="V121" s="126"/>
-      <c r="W121" s="126"/>
-      <c r="X121" s="127"/>
+      <c r="B121" s="121"/>
+      <c r="C121" s="122"/>
+      <c r="D121" s="122"/>
+      <c r="E121" s="122"/>
+      <c r="F121" s="122"/>
+      <c r="G121" s="122"/>
+      <c r="H121" s="122"/>
+      <c r="I121" s="122"/>
+      <c r="J121" s="122"/>
+      <c r="K121" s="122"/>
+      <c r="L121" s="122"/>
+      <c r="M121" s="122"/>
+      <c r="N121" s="122"/>
+      <c r="O121" s="122"/>
+      <c r="P121" s="122"/>
+      <c r="Q121" s="122"/>
+      <c r="R121" s="182"/>
+      <c r="S121" s="182"/>
+      <c r="T121" s="182"/>
+      <c r="U121" s="182"/>
+      <c r="V121" s="182"/>
+      <c r="W121" s="182"/>
+      <c r="X121" s="183"/>
       <c r="Y121" s="51"/>
-      <c r="Z121" s="124"/>
-      <c r="AA121" s="125"/>
-      <c r="AB121" s="125"/>
-      <c r="AC121" s="125"/>
-      <c r="AD121" s="125"/>
-      <c r="AE121" s="125"/>
-      <c r="AF121" s="125"/>
-      <c r="AG121" s="125"/>
-      <c r="AH121" s="125"/>
-      <c r="AI121" s="125"/>
-      <c r="AJ121" s="125"/>
-      <c r="AK121" s="125"/>
-      <c r="AL121" s="125"/>
-      <c r="AM121" s="125"/>
-      <c r="AN121" s="126"/>
-      <c r="AO121" s="126"/>
-      <c r="AP121" s="126"/>
-      <c r="AQ121" s="126"/>
-      <c r="AR121" s="126"/>
-      <c r="AS121" s="126"/>
-      <c r="AT121" s="127"/>
+      <c r="Z121" s="121"/>
+      <c r="AA121" s="122"/>
+      <c r="AB121" s="122"/>
+      <c r="AC121" s="122"/>
+      <c r="AD121" s="122"/>
+      <c r="AE121" s="122"/>
+      <c r="AF121" s="122"/>
+      <c r="AG121" s="122"/>
+      <c r="AH121" s="122"/>
+      <c r="AI121" s="122"/>
+      <c r="AJ121" s="122"/>
+      <c r="AK121" s="122"/>
+      <c r="AL121" s="122"/>
+      <c r="AM121" s="122"/>
+      <c r="AN121" s="182"/>
+      <c r="AO121" s="182"/>
+      <c r="AP121" s="182"/>
+      <c r="AQ121" s="182"/>
+      <c r="AR121" s="182"/>
+      <c r="AS121" s="182"/>
+      <c r="AT121" s="183"/>
       <c r="AU121" s="8"/>
     </row>
     <row r="122" spans="1:47" s="20" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8482,53 +8482,53 @@
     </row>
     <row r="123" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
-      <c r="B123" s="130" t="s">
+      <c r="B123" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="131"/>
-      <c r="D123" s="131"/>
-      <c r="E123" s="131"/>
-      <c r="F123" s="131"/>
-      <c r="G123" s="131"/>
-      <c r="H123" s="131"/>
-      <c r="I123" s="131"/>
-      <c r="J123" s="131"/>
-      <c r="K123" s="131"/>
-      <c r="L123" s="131"/>
-      <c r="M123" s="131"/>
-      <c r="N123" s="131"/>
-      <c r="O123" s="131"/>
-      <c r="P123" s="131"/>
-      <c r="Q123" s="131"/>
-      <c r="R123" s="131"/>
-      <c r="S123" s="131"/>
-      <c r="T123" s="131"/>
-      <c r="U123" s="131"/>
-      <c r="V123" s="131"/>
-      <c r="W123" s="131"/>
-      <c r="X123" s="131"/>
-      <c r="Y123" s="131"/>
-      <c r="Z123" s="131"/>
-      <c r="AA123" s="131"/>
-      <c r="AB123" s="131"/>
-      <c r="AC123" s="131"/>
-      <c r="AD123" s="131"/>
-      <c r="AE123" s="131"/>
-      <c r="AF123" s="131"/>
-      <c r="AG123" s="131"/>
-      <c r="AH123" s="131"/>
-      <c r="AI123" s="131"/>
-      <c r="AJ123" s="131"/>
-      <c r="AK123" s="131"/>
-      <c r="AL123" s="131"/>
-      <c r="AM123" s="131"/>
-      <c r="AN123" s="131"/>
-      <c r="AO123" s="131"/>
-      <c r="AP123" s="131"/>
-      <c r="AQ123" s="131"/>
-      <c r="AR123" s="131"/>
-      <c r="AS123" s="131"/>
-      <c r="AT123" s="132"/>
+      <c r="C123" s="155"/>
+      <c r="D123" s="155"/>
+      <c r="E123" s="155"/>
+      <c r="F123" s="155"/>
+      <c r="G123" s="155"/>
+      <c r="H123" s="155"/>
+      <c r="I123" s="155"/>
+      <c r="J123" s="155"/>
+      <c r="K123" s="155"/>
+      <c r="L123" s="155"/>
+      <c r="M123" s="155"/>
+      <c r="N123" s="155"/>
+      <c r="O123" s="155"/>
+      <c r="P123" s="155"/>
+      <c r="Q123" s="155"/>
+      <c r="R123" s="155"/>
+      <c r="S123" s="155"/>
+      <c r="T123" s="155"/>
+      <c r="U123" s="155"/>
+      <c r="V123" s="155"/>
+      <c r="W123" s="155"/>
+      <c r="X123" s="155"/>
+      <c r="Y123" s="155"/>
+      <c r="Z123" s="155"/>
+      <c r="AA123" s="155"/>
+      <c r="AB123" s="155"/>
+      <c r="AC123" s="155"/>
+      <c r="AD123" s="155"/>
+      <c r="AE123" s="155"/>
+      <c r="AF123" s="155"/>
+      <c r="AG123" s="155"/>
+      <c r="AH123" s="155"/>
+      <c r="AI123" s="155"/>
+      <c r="AJ123" s="155"/>
+      <c r="AK123" s="155"/>
+      <c r="AL123" s="155"/>
+      <c r="AM123" s="155"/>
+      <c r="AN123" s="155"/>
+      <c r="AO123" s="155"/>
+      <c r="AP123" s="155"/>
+      <c r="AQ123" s="155"/>
+      <c r="AR123" s="155"/>
+      <c r="AS123" s="155"/>
+      <c r="AT123" s="156"/>
       <c r="AU123" s="8"/>
     </row>
     <row r="124" spans="1:47" s="20" customFormat="1" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8582,361 +8582,361 @@
     </row>
     <row r="125" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
-      <c r="B125" s="128" t="s">
+      <c r="B125" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
-      <c r="G125" s="108" t="s">
+      <c r="C125" s="158"/>
+      <c r="D125" s="158"/>
+      <c r="E125" s="158"/>
+      <c r="F125" s="158"/>
+      <c r="G125" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="H125" s="108"/>
-      <c r="I125" s="108"/>
-      <c r="J125" s="108"/>
-      <c r="K125" s="108"/>
-      <c r="L125" s="108"/>
-      <c r="M125" s="108"/>
-      <c r="N125" s="108"/>
-      <c r="O125" s="108"/>
-      <c r="P125" s="108"/>
-      <c r="Q125" s="108"/>
-      <c r="R125" s="109" t="s">
+      <c r="H125" s="158"/>
+      <c r="I125" s="158"/>
+      <c r="J125" s="158"/>
+      <c r="K125" s="158"/>
+      <c r="L125" s="158"/>
+      <c r="M125" s="158"/>
+      <c r="N125" s="158"/>
+      <c r="O125" s="158"/>
+      <c r="P125" s="158"/>
+      <c r="Q125" s="158"/>
+      <c r="R125" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="S125" s="109"/>
-      <c r="T125" s="109"/>
-      <c r="U125" s="109"/>
-      <c r="V125" s="109" t="s">
+      <c r="S125" s="159"/>
+      <c r="T125" s="159"/>
+      <c r="U125" s="159"/>
+      <c r="V125" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="W125" s="109"/>
-      <c r="X125" s="110"/>
+      <c r="W125" s="159"/>
+      <c r="X125" s="160"/>
       <c r="Y125" s="13"/>
-      <c r="Z125" s="128" t="s">
+      <c r="Z125" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="AA125" s="108"/>
-      <c r="AB125" s="108"/>
-      <c r="AC125" s="108"/>
-      <c r="AD125" s="108" t="s">
+      <c r="AA125" s="158"/>
+      <c r="AB125" s="158"/>
+      <c r="AC125" s="158"/>
+      <c r="AD125" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="AE125" s="108"/>
-      <c r="AF125" s="108"/>
-      <c r="AG125" s="108"/>
-      <c r="AH125" s="108"/>
-      <c r="AI125" s="108"/>
-      <c r="AJ125" s="108"/>
-      <c r="AK125" s="108"/>
-      <c r="AL125" s="108"/>
-      <c r="AM125" s="108"/>
-      <c r="AN125" s="109" t="s">
+      <c r="AE125" s="158"/>
+      <c r="AF125" s="158"/>
+      <c r="AG125" s="158"/>
+      <c r="AH125" s="158"/>
+      <c r="AI125" s="158"/>
+      <c r="AJ125" s="158"/>
+      <c r="AK125" s="158"/>
+      <c r="AL125" s="158"/>
+      <c r="AM125" s="158"/>
+      <c r="AN125" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="AO125" s="109"/>
-      <c r="AP125" s="109"/>
-      <c r="AQ125" s="109"/>
-      <c r="AR125" s="109" t="s">
+      <c r="AO125" s="159"/>
+      <c r="AP125" s="159"/>
+      <c r="AQ125" s="159"/>
+      <c r="AR125" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="AS125" s="109"/>
-      <c r="AT125" s="110"/>
+      <c r="AS125" s="159"/>
+      <c r="AT125" s="160"/>
       <c r="AU125" s="8"/>
     </row>
     <row r="126" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
-      <c r="B126" s="111"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="112"/>
-      <c r="E126" s="112"/>
-      <c r="F126" s="112"/>
-      <c r="G126" s="112"/>
-      <c r="H126" s="112"/>
-      <c r="I126" s="112"/>
-      <c r="J126" s="112"/>
-      <c r="K126" s="112"/>
-      <c r="L126" s="112"/>
-      <c r="M126" s="112"/>
-      <c r="N126" s="112"/>
-      <c r="O126" s="112"/>
-      <c r="P126" s="112"/>
-      <c r="Q126" s="112"/>
-      <c r="R126" s="113"/>
-      <c r="S126" s="113"/>
-      <c r="T126" s="113"/>
-      <c r="U126" s="113"/>
-      <c r="V126" s="113"/>
-      <c r="W126" s="113"/>
-      <c r="X126" s="114"/>
+      <c r="B126" s="147"/>
+      <c r="C126" s="118"/>
+      <c r="D126" s="118"/>
+      <c r="E126" s="118"/>
+      <c r="F126" s="118"/>
+      <c r="G126" s="118"/>
+      <c r="H126" s="118"/>
+      <c r="I126" s="118"/>
+      <c r="J126" s="118"/>
+      <c r="K126" s="118"/>
+      <c r="L126" s="118"/>
+      <c r="M126" s="118"/>
+      <c r="N126" s="118"/>
+      <c r="O126" s="118"/>
+      <c r="P126" s="118"/>
+      <c r="Q126" s="118"/>
+      <c r="R126" s="180"/>
+      <c r="S126" s="180"/>
+      <c r="T126" s="180"/>
+      <c r="U126" s="180"/>
+      <c r="V126" s="180"/>
+      <c r="W126" s="180"/>
+      <c r="X126" s="181"/>
       <c r="Y126" s="51"/>
-      <c r="Z126" s="111"/>
-      <c r="AA126" s="112"/>
-      <c r="AB126" s="112"/>
-      <c r="AC126" s="112"/>
-      <c r="AD126" s="112"/>
-      <c r="AE126" s="112"/>
-      <c r="AF126" s="112"/>
-      <c r="AG126" s="112"/>
-      <c r="AH126" s="112"/>
-      <c r="AI126" s="112"/>
-      <c r="AJ126" s="112"/>
-      <c r="AK126" s="112"/>
-      <c r="AL126" s="112"/>
-      <c r="AM126" s="112"/>
-      <c r="AN126" s="113"/>
-      <c r="AO126" s="113"/>
-      <c r="AP126" s="113"/>
-      <c r="AQ126" s="113"/>
-      <c r="AR126" s="113"/>
-      <c r="AS126" s="113"/>
-      <c r="AT126" s="114"/>
+      <c r="Z126" s="147"/>
+      <c r="AA126" s="118"/>
+      <c r="AB126" s="118"/>
+      <c r="AC126" s="118"/>
+      <c r="AD126" s="118"/>
+      <c r="AE126" s="118"/>
+      <c r="AF126" s="118"/>
+      <c r="AG126" s="118"/>
+      <c r="AH126" s="118"/>
+      <c r="AI126" s="118"/>
+      <c r="AJ126" s="118"/>
+      <c r="AK126" s="118"/>
+      <c r="AL126" s="118"/>
+      <c r="AM126" s="118"/>
+      <c r="AN126" s="180"/>
+      <c r="AO126" s="180"/>
+      <c r="AP126" s="180"/>
+      <c r="AQ126" s="180"/>
+      <c r="AR126" s="180"/>
+      <c r="AS126" s="180"/>
+      <c r="AT126" s="181"/>
       <c r="AU126" s="8"/>
     </row>
     <row r="127" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
-      <c r="B127" s="111"/>
-      <c r="C127" s="112"/>
-      <c r="D127" s="112"/>
-      <c r="E127" s="112"/>
-      <c r="F127" s="112"/>
-      <c r="G127" s="112"/>
-      <c r="H127" s="112"/>
-      <c r="I127" s="112"/>
-      <c r="J127" s="112"/>
-      <c r="K127" s="112"/>
-      <c r="L127" s="112"/>
-      <c r="M127" s="112"/>
-      <c r="N127" s="112"/>
-      <c r="O127" s="112"/>
-      <c r="P127" s="112"/>
-      <c r="Q127" s="112"/>
-      <c r="R127" s="113"/>
-      <c r="S127" s="113"/>
-      <c r="T127" s="113"/>
-      <c r="U127" s="113"/>
-      <c r="V127" s="113"/>
-      <c r="W127" s="113"/>
-      <c r="X127" s="114"/>
+      <c r="B127" s="147"/>
+      <c r="C127" s="118"/>
+      <c r="D127" s="118"/>
+      <c r="E127" s="118"/>
+      <c r="F127" s="118"/>
+      <c r="G127" s="118"/>
+      <c r="H127" s="118"/>
+      <c r="I127" s="118"/>
+      <c r="J127" s="118"/>
+      <c r="K127" s="118"/>
+      <c r="L127" s="118"/>
+      <c r="M127" s="118"/>
+      <c r="N127" s="118"/>
+      <c r="O127" s="118"/>
+      <c r="P127" s="118"/>
+      <c r="Q127" s="118"/>
+      <c r="R127" s="180"/>
+      <c r="S127" s="180"/>
+      <c r="T127" s="180"/>
+      <c r="U127" s="180"/>
+      <c r="V127" s="180"/>
+      <c r="W127" s="180"/>
+      <c r="X127" s="181"/>
       <c r="Y127" s="51"/>
-      <c r="Z127" s="111"/>
-      <c r="AA127" s="112"/>
-      <c r="AB127" s="112"/>
-      <c r="AC127" s="112"/>
-      <c r="AD127" s="112"/>
-      <c r="AE127" s="112"/>
-      <c r="AF127" s="112"/>
-      <c r="AG127" s="112"/>
-      <c r="AH127" s="112"/>
-      <c r="AI127" s="112"/>
-      <c r="AJ127" s="112"/>
-      <c r="AK127" s="112"/>
-      <c r="AL127" s="112"/>
-      <c r="AM127" s="112"/>
-      <c r="AN127" s="113"/>
-      <c r="AO127" s="113"/>
-      <c r="AP127" s="113"/>
-      <c r="AQ127" s="113"/>
-      <c r="AR127" s="113"/>
-      <c r="AS127" s="113"/>
-      <c r="AT127" s="114"/>
+      <c r="Z127" s="147"/>
+      <c r="AA127" s="118"/>
+      <c r="AB127" s="118"/>
+      <c r="AC127" s="118"/>
+      <c r="AD127" s="118"/>
+      <c r="AE127" s="118"/>
+      <c r="AF127" s="118"/>
+      <c r="AG127" s="118"/>
+      <c r="AH127" s="118"/>
+      <c r="AI127" s="118"/>
+      <c r="AJ127" s="118"/>
+      <c r="AK127" s="118"/>
+      <c r="AL127" s="118"/>
+      <c r="AM127" s="118"/>
+      <c r="AN127" s="180"/>
+      <c r="AO127" s="180"/>
+      <c r="AP127" s="180"/>
+      <c r="AQ127" s="180"/>
+      <c r="AR127" s="180"/>
+      <c r="AS127" s="180"/>
+      <c r="AT127" s="181"/>
       <c r="AU127" s="8"/>
     </row>
     <row r="128" spans="1:47" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
-      <c r="B128" s="111"/>
-      <c r="C128" s="112"/>
-      <c r="D128" s="112"/>
-      <c r="E128" s="112"/>
-      <c r="F128" s="112"/>
-      <c r="G128" s="112"/>
-      <c r="H128" s="112"/>
-      <c r="I128" s="112"/>
-      <c r="J128" s="112"/>
-      <c r="K128" s="112"/>
-      <c r="L128" s="112"/>
-      <c r="M128" s="112"/>
-      <c r="N128" s="112"/>
-      <c r="O128" s="112"/>
-      <c r="P128" s="112"/>
-      <c r="Q128" s="112"/>
-      <c r="R128" s="113"/>
-      <c r="S128" s="113"/>
-      <c r="T128" s="113"/>
-      <c r="U128" s="113"/>
-      <c r="V128" s="113"/>
-      <c r="W128" s="113"/>
-      <c r="X128" s="114"/>
+      <c r="B128" s="147"/>
+      <c r="C128" s="118"/>
+      <c r="D128" s="118"/>
+      <c r="E128" s="118"/>
+      <c r="F128" s="118"/>
+      <c r="G128" s="118"/>
+      <c r="H128" s="118"/>
+      <c r="I128" s="118"/>
+      <c r="J128" s="118"/>
+      <c r="K128" s="118"/>
+      <c r="L128" s="118"/>
+      <c r="M128" s="118"/>
+      <c r="N128" s="118"/>
+      <c r="O128" s="118"/>
+      <c r="P128" s="118"/>
+      <c r="Q128" s="118"/>
+      <c r="R128" s="180"/>
+      <c r="S128" s="180"/>
+      <c r="T128" s="180"/>
+      <c r="U128" s="180"/>
+      <c r="V128" s="180"/>
+      <c r="W128" s="180"/>
+      <c r="X128" s="181"/>
       <c r="Y128" s="51"/>
-      <c r="Z128" s="111"/>
-      <c r="AA128" s="112"/>
-      <c r="AB128" s="112"/>
-      <c r="AC128" s="112"/>
-      <c r="AD128" s="112"/>
-      <c r="AE128" s="112"/>
-      <c r="AF128" s="112"/>
-      <c r="AG128" s="112"/>
-      <c r="AH128" s="112"/>
-      <c r="AI128" s="112"/>
-      <c r="AJ128" s="112"/>
-      <c r="AK128" s="112"/>
-      <c r="AL128" s="112"/>
-      <c r="AM128" s="112"/>
-      <c r="AN128" s="113"/>
-      <c r="AO128" s="113"/>
-      <c r="AP128" s="113"/>
-      <c r="AQ128" s="113"/>
-      <c r="AR128" s="113"/>
-      <c r="AS128" s="113"/>
-      <c r="AT128" s="114"/>
+      <c r="Z128" s="147"/>
+      <c r="AA128" s="118"/>
+      <c r="AB128" s="118"/>
+      <c r="AC128" s="118"/>
+      <c r="AD128" s="118"/>
+      <c r="AE128" s="118"/>
+      <c r="AF128" s="118"/>
+      <c r="AG128" s="118"/>
+      <c r="AH128" s="118"/>
+      <c r="AI128" s="118"/>
+      <c r="AJ128" s="118"/>
+      <c r="AK128" s="118"/>
+      <c r="AL128" s="118"/>
+      <c r="AM128" s="118"/>
+      <c r="AN128" s="180"/>
+      <c r="AO128" s="180"/>
+      <c r="AP128" s="180"/>
+      <c r="AQ128" s="180"/>
+      <c r="AR128" s="180"/>
+      <c r="AS128" s="180"/>
+      <c r="AT128" s="181"/>
       <c r="AU128" s="8"/>
     </row>
     <row r="129" spans="1:56" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
-      <c r="B129" s="111"/>
-      <c r="C129" s="112"/>
-      <c r="D129" s="112"/>
-      <c r="E129" s="112"/>
-      <c r="F129" s="112"/>
-      <c r="G129" s="112"/>
-      <c r="H129" s="112"/>
-      <c r="I129" s="112"/>
-      <c r="J129" s="112"/>
-      <c r="K129" s="112"/>
-      <c r="L129" s="112"/>
-      <c r="M129" s="112"/>
-      <c r="N129" s="112"/>
-      <c r="O129" s="112"/>
-      <c r="P129" s="112"/>
-      <c r="Q129" s="112"/>
-      <c r="R129" s="113"/>
-      <c r="S129" s="113"/>
-      <c r="T129" s="113"/>
-      <c r="U129" s="113"/>
-      <c r="V129" s="113"/>
-      <c r="W129" s="113"/>
-      <c r="X129" s="114"/>
+      <c r="B129" s="147"/>
+      <c r="C129" s="118"/>
+      <c r="D129" s="118"/>
+      <c r="E129" s="118"/>
+      <c r="F129" s="118"/>
+      <c r="G129" s="118"/>
+      <c r="H129" s="118"/>
+      <c r="I129" s="118"/>
+      <c r="J129" s="118"/>
+      <c r="K129" s="118"/>
+      <c r="L129" s="118"/>
+      <c r="M129" s="118"/>
+      <c r="N129" s="118"/>
+      <c r="O129" s="118"/>
+      <c r="P129" s="118"/>
+      <c r="Q129" s="118"/>
+      <c r="R129" s="180"/>
+      <c r="S129" s="180"/>
+      <c r="T129" s="180"/>
+      <c r="U129" s="180"/>
+      <c r="V129" s="180"/>
+      <c r="W129" s="180"/>
+      <c r="X129" s="181"/>
       <c r="Y129" s="51"/>
-      <c r="Z129" s="111"/>
-      <c r="AA129" s="112"/>
-      <c r="AB129" s="112"/>
-      <c r="AC129" s="112"/>
-      <c r="AD129" s="112"/>
-      <c r="AE129" s="112"/>
-      <c r="AF129" s="112"/>
-      <c r="AG129" s="112"/>
-      <c r="AH129" s="112"/>
-      <c r="AI129" s="112"/>
-      <c r="AJ129" s="112"/>
-      <c r="AK129" s="112"/>
-      <c r="AL129" s="112"/>
-      <c r="AM129" s="112"/>
-      <c r="AN129" s="113"/>
-      <c r="AO129" s="113"/>
-      <c r="AP129" s="113"/>
-      <c r="AQ129" s="113"/>
-      <c r="AR129" s="113"/>
-      <c r="AS129" s="113"/>
-      <c r="AT129" s="114"/>
+      <c r="Z129" s="147"/>
+      <c r="AA129" s="118"/>
+      <c r="AB129" s="118"/>
+      <c r="AC129" s="118"/>
+      <c r="AD129" s="118"/>
+      <c r="AE129" s="118"/>
+      <c r="AF129" s="118"/>
+      <c r="AG129" s="118"/>
+      <c r="AH129" s="118"/>
+      <c r="AI129" s="118"/>
+      <c r="AJ129" s="118"/>
+      <c r="AK129" s="118"/>
+      <c r="AL129" s="118"/>
+      <c r="AM129" s="118"/>
+      <c r="AN129" s="180"/>
+      <c r="AO129" s="180"/>
+      <c r="AP129" s="180"/>
+      <c r="AQ129" s="180"/>
+      <c r="AR129" s="180"/>
+      <c r="AS129" s="180"/>
+      <c r="AT129" s="181"/>
       <c r="AU129" s="8"/>
     </row>
     <row r="130" spans="1:56" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
-      <c r="B130" s="111"/>
-      <c r="C130" s="112"/>
-      <c r="D130" s="112"/>
-      <c r="E130" s="112"/>
-      <c r="F130" s="112"/>
-      <c r="G130" s="112"/>
-      <c r="H130" s="112"/>
-      <c r="I130" s="112"/>
-      <c r="J130" s="112"/>
-      <c r="K130" s="112"/>
-      <c r="L130" s="112"/>
-      <c r="M130" s="112"/>
-      <c r="N130" s="112"/>
-      <c r="O130" s="112"/>
-      <c r="P130" s="112"/>
-      <c r="Q130" s="112"/>
-      <c r="R130" s="113"/>
-      <c r="S130" s="113"/>
-      <c r="T130" s="113"/>
-      <c r="U130" s="113"/>
-      <c r="V130" s="113"/>
-      <c r="W130" s="113"/>
-      <c r="X130" s="114"/>
+      <c r="B130" s="147"/>
+      <c r="C130" s="118"/>
+      <c r="D130" s="118"/>
+      <c r="E130" s="118"/>
+      <c r="F130" s="118"/>
+      <c r="G130" s="118"/>
+      <c r="H130" s="118"/>
+      <c r="I130" s="118"/>
+      <c r="J130" s="118"/>
+      <c r="K130" s="118"/>
+      <c r="L130" s="118"/>
+      <c r="M130" s="118"/>
+      <c r="N130" s="118"/>
+      <c r="O130" s="118"/>
+      <c r="P130" s="118"/>
+      <c r="Q130" s="118"/>
+      <c r="R130" s="180"/>
+      <c r="S130" s="180"/>
+      <c r="T130" s="180"/>
+      <c r="U130" s="180"/>
+      <c r="V130" s="180"/>
+      <c r="W130" s="180"/>
+      <c r="X130" s="181"/>
       <c r="Y130" s="51"/>
-      <c r="Z130" s="111"/>
-      <c r="AA130" s="112"/>
-      <c r="AB130" s="112"/>
-      <c r="AC130" s="112"/>
-      <c r="AD130" s="112"/>
-      <c r="AE130" s="112"/>
-      <c r="AF130" s="112"/>
-      <c r="AG130" s="112"/>
-      <c r="AH130" s="112"/>
-      <c r="AI130" s="112"/>
-      <c r="AJ130" s="112"/>
-      <c r="AK130" s="112"/>
-      <c r="AL130" s="112"/>
-      <c r="AM130" s="112"/>
-      <c r="AN130" s="113"/>
-      <c r="AO130" s="113"/>
-      <c r="AP130" s="113"/>
-      <c r="AQ130" s="113"/>
-      <c r="AR130" s="113"/>
-      <c r="AS130" s="113"/>
-      <c r="AT130" s="114"/>
+      <c r="Z130" s="147"/>
+      <c r="AA130" s="118"/>
+      <c r="AB130" s="118"/>
+      <c r="AC130" s="118"/>
+      <c r="AD130" s="118"/>
+      <c r="AE130" s="118"/>
+      <c r="AF130" s="118"/>
+      <c r="AG130" s="118"/>
+      <c r="AH130" s="118"/>
+      <c r="AI130" s="118"/>
+      <c r="AJ130" s="118"/>
+      <c r="AK130" s="118"/>
+      <c r="AL130" s="118"/>
+      <c r="AM130" s="118"/>
+      <c r="AN130" s="180"/>
+      <c r="AO130" s="180"/>
+      <c r="AP130" s="180"/>
+      <c r="AQ130" s="180"/>
+      <c r="AR130" s="180"/>
+      <c r="AS130" s="180"/>
+      <c r="AT130" s="181"/>
       <c r="AU130" s="8"/>
     </row>
     <row r="131" spans="1:56" s="28" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
-      <c r="B131" s="124"/>
-      <c r="C131" s="125"/>
-      <c r="D131" s="125"/>
-      <c r="E131" s="125"/>
-      <c r="F131" s="125"/>
-      <c r="G131" s="125"/>
-      <c r="H131" s="125"/>
-      <c r="I131" s="125"/>
-      <c r="J131" s="125"/>
-      <c r="K131" s="125"/>
-      <c r="L131" s="125"/>
-      <c r="M131" s="125"/>
-      <c r="N131" s="125"/>
-      <c r="O131" s="125"/>
-      <c r="P131" s="125"/>
-      <c r="Q131" s="125"/>
-      <c r="R131" s="126"/>
-      <c r="S131" s="126"/>
-      <c r="T131" s="126"/>
-      <c r="U131" s="126"/>
-      <c r="V131" s="126"/>
-      <c r="W131" s="126"/>
-      <c r="X131" s="127"/>
+      <c r="B131" s="121"/>
+      <c r="C131" s="122"/>
+      <c r="D131" s="122"/>
+      <c r="E131" s="122"/>
+      <c r="F131" s="122"/>
+      <c r="G131" s="122"/>
+      <c r="H131" s="122"/>
+      <c r="I131" s="122"/>
+      <c r="J131" s="122"/>
+      <c r="K131" s="122"/>
+      <c r="L131" s="122"/>
+      <c r="M131" s="122"/>
+      <c r="N131" s="122"/>
+      <c r="O131" s="122"/>
+      <c r="P131" s="122"/>
+      <c r="Q131" s="122"/>
+      <c r="R131" s="182"/>
+      <c r="S131" s="182"/>
+      <c r="T131" s="182"/>
+      <c r="U131" s="182"/>
+      <c r="V131" s="182"/>
+      <c r="W131" s="182"/>
+      <c r="X131" s="183"/>
       <c r="Y131" s="51"/>
-      <c r="Z131" s="124"/>
-      <c r="AA131" s="125"/>
-      <c r="AB131" s="125"/>
-      <c r="AC131" s="125"/>
-      <c r="AD131" s="125"/>
-      <c r="AE131" s="125"/>
-      <c r="AF131" s="125"/>
-      <c r="AG131" s="125"/>
-      <c r="AH131" s="125"/>
-      <c r="AI131" s="125"/>
-      <c r="AJ131" s="125"/>
-      <c r="AK131" s="125"/>
-      <c r="AL131" s="125"/>
-      <c r="AM131" s="125"/>
-      <c r="AN131" s="126"/>
-      <c r="AO131" s="126"/>
-      <c r="AP131" s="126"/>
-      <c r="AQ131" s="126"/>
-      <c r="AR131" s="126"/>
-      <c r="AS131" s="126"/>
-      <c r="AT131" s="127"/>
+      <c r="Z131" s="121"/>
+      <c r="AA131" s="122"/>
+      <c r="AB131" s="122"/>
+      <c r="AC131" s="122"/>
+      <c r="AD131" s="122"/>
+      <c r="AE131" s="122"/>
+      <c r="AF131" s="122"/>
+      <c r="AG131" s="122"/>
+      <c r="AH131" s="122"/>
+      <c r="AI131" s="122"/>
+      <c r="AJ131" s="122"/>
+      <c r="AK131" s="122"/>
+      <c r="AL131" s="122"/>
+      <c r="AM131" s="122"/>
+      <c r="AN131" s="182"/>
+      <c r="AO131" s="182"/>
+      <c r="AP131" s="182"/>
+      <c r="AQ131" s="182"/>
+      <c r="AR131" s="182"/>
+      <c r="AS131" s="182"/>
+      <c r="AT131" s="183"/>
       <c r="AU131" s="8"/>
     </row>
     <row r="132" spans="1:56" s="20" customFormat="1" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8946,51 +8946,51 @@
     <row r="133" spans="1:56" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="157" t="s">
+      <c r="C133" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="D133" s="157"/>
-      <c r="E133" s="157"/>
-      <c r="F133" s="157"/>
-      <c r="G133" s="157"/>
-      <c r="H133" s="157"/>
-      <c r="I133" s="157"/>
-      <c r="J133" s="157"/>
-      <c r="K133" s="157"/>
-      <c r="L133" s="157"/>
-      <c r="M133" s="157"/>
-      <c r="N133" s="157"/>
-      <c r="O133" s="157"/>
-      <c r="P133" s="157"/>
-      <c r="Q133" s="157"/>
-      <c r="R133" s="157"/>
-      <c r="S133" s="157"/>
-      <c r="T133" s="157"/>
-      <c r="U133" s="157"/>
-      <c r="V133" s="157"/>
-      <c r="W133" s="157"/>
-      <c r="X133" s="157"/>
-      <c r="Y133" s="157"/>
-      <c r="Z133" s="157"/>
-      <c r="AA133" s="157"/>
-      <c r="AB133" s="157"/>
-      <c r="AC133" s="157"/>
-      <c r="AD133" s="157"/>
-      <c r="AE133" s="157"/>
-      <c r="AF133" s="157"/>
-      <c r="AG133" s="157"/>
-      <c r="AH133" s="157"/>
-      <c r="AI133" s="157"/>
-      <c r="AJ133" s="157"/>
-      <c r="AK133" s="157"/>
-      <c r="AL133" s="157"/>
-      <c r="AM133" s="157"/>
-      <c r="AN133" s="157"/>
-      <c r="AO133" s="157"/>
-      <c r="AP133" s="157"/>
-      <c r="AQ133" s="157"/>
-      <c r="AR133" s="157"/>
-      <c r="AS133" s="157"/>
+      <c r="D133" s="115"/>
+      <c r="E133" s="115"/>
+      <c r="F133" s="115"/>
+      <c r="G133" s="115"/>
+      <c r="H133" s="115"/>
+      <c r="I133" s="115"/>
+      <c r="J133" s="115"/>
+      <c r="K133" s="115"/>
+      <c r="L133" s="115"/>
+      <c r="M133" s="115"/>
+      <c r="N133" s="115"/>
+      <c r="O133" s="115"/>
+      <c r="P133" s="115"/>
+      <c r="Q133" s="115"/>
+      <c r="R133" s="115"/>
+      <c r="S133" s="115"/>
+      <c r="T133" s="115"/>
+      <c r="U133" s="115"/>
+      <c r="V133" s="115"/>
+      <c r="W133" s="115"/>
+      <c r="X133" s="115"/>
+      <c r="Y133" s="115"/>
+      <c r="Z133" s="115"/>
+      <c r="AA133" s="115"/>
+      <c r="AB133" s="115"/>
+      <c r="AC133" s="115"/>
+      <c r="AD133" s="115"/>
+      <c r="AE133" s="115"/>
+      <c r="AF133" s="115"/>
+      <c r="AG133" s="115"/>
+      <c r="AH133" s="115"/>
+      <c r="AI133" s="115"/>
+      <c r="AJ133" s="115"/>
+      <c r="AK133" s="115"/>
+      <c r="AL133" s="115"/>
+      <c r="AM133" s="115"/>
+      <c r="AN133" s="115"/>
+      <c r="AO133" s="115"/>
+      <c r="AP133" s="115"/>
+      <c r="AQ133" s="115"/>
+      <c r="AR133" s="115"/>
+      <c r="AS133" s="115"/>
       <c r="AT133" s="18"/>
       <c r="AU133" s="8"/>
     </row>
@@ -9088,15 +9088,15 @@
       <c r="AM135" s="29"/>
       <c r="AN135" s="29"/>
       <c r="AO135" s="29"/>
-      <c r="AP135" s="158" t="s">
+      <c r="AP135" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="AQ135" s="158"/>
+      <c r="AQ135" s="172"/>
       <c r="AR135" s="27"/>
-      <c r="AS135" s="158" t="s">
+      <c r="AS135" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="AT135" s="158"/>
+      <c r="AT135" s="172"/>
       <c r="AU135" s="8"/>
       <c r="AV135" s="23"/>
     </row>
@@ -9149,16 +9149,16 @@
       </c>
       <c r="M137" s="21"/>
       <c r="N137" s="49"/>
-      <c r="P137" s="163"/>
-      <c r="Q137" s="163"/>
-      <c r="R137" s="163"/>
-      <c r="S137" s="163"/>
-      <c r="T137" s="163"/>
-      <c r="U137" s="163"/>
-      <c r="V137" s="163"/>
-      <c r="W137" s="163"/>
-      <c r="X137" s="163"/>
-      <c r="Y137" s="163"/>
+      <c r="P137" s="153"/>
+      <c r="Q137" s="153"/>
+      <c r="R137" s="153"/>
+      <c r="S137" s="153"/>
+      <c r="T137" s="153"/>
+      <c r="U137" s="153"/>
+      <c r="V137" s="153"/>
+      <c r="W137" s="153"/>
+      <c r="X137" s="153"/>
+      <c r="Y137" s="153"/>
       <c r="Z137" s="31" t="s">
         <v>129</v>
       </c>
@@ -9176,11 +9176,11 @@
       <c r="AM137" s="8"/>
       <c r="AN137" s="8"/>
       <c r="AO137" s="8"/>
-      <c r="AP137" s="161"/>
-      <c r="AQ137" s="161"/>
+      <c r="AP137" s="114"/>
+      <c r="AQ137" s="114"/>
       <c r="AR137" s="8"/>
-      <c r="AS137" s="161"/>
-      <c r="AT137" s="161"/>
+      <c r="AS137" s="114"/>
+      <c r="AT137" s="114"/>
       <c r="AU137" s="8"/>
     </row>
     <row r="138" spans="1:56" s="20" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2">
@@ -9243,16 +9243,16 @@
       </c>
       <c r="M139" s="21"/>
       <c r="N139" s="49"/>
-      <c r="P139" s="163"/>
-      <c r="Q139" s="163"/>
-      <c r="R139" s="163"/>
-      <c r="S139" s="163"/>
-      <c r="T139" s="163"/>
-      <c r="U139" s="163"/>
-      <c r="V139" s="163"/>
-      <c r="W139" s="163"/>
-      <c r="X139" s="163"/>
-      <c r="Y139" s="163"/>
+      <c r="P139" s="153"/>
+      <c r="Q139" s="153"/>
+      <c r="R139" s="153"/>
+      <c r="S139" s="153"/>
+      <c r="T139" s="153"/>
+      <c r="U139" s="153"/>
+      <c r="V139" s="153"/>
+      <c r="W139" s="153"/>
+      <c r="X139" s="153"/>
+      <c r="Y139" s="153"/>
       <c r="Z139" s="31" t="s">
         <v>131</v>
       </c>
@@ -9264,17 +9264,17 @@
       <c r="AG139" s="6"/>
       <c r="AH139" s="6"/>
       <c r="AI139" s="6"/>
-      <c r="AJ139" s="162"/>
-      <c r="AK139" s="162"/>
-      <c r="AL139" s="162"/>
-      <c r="AM139" s="162"/>
-      <c r="AN139" s="162"/>
-      <c r="AO139" s="162"/>
-      <c r="AP139" s="162"/>
-      <c r="AQ139" s="162"/>
-      <c r="AR139" s="162"/>
-      <c r="AS139" s="162"/>
-      <c r="AT139" s="162"/>
+      <c r="AJ139" s="152"/>
+      <c r="AK139" s="152"/>
+      <c r="AL139" s="152"/>
+      <c r="AM139" s="152"/>
+      <c r="AN139" s="152"/>
+      <c r="AO139" s="152"/>
+      <c r="AP139" s="152"/>
+      <c r="AQ139" s="152"/>
+      <c r="AR139" s="152"/>
+      <c r="AS139" s="152"/>
+      <c r="AT139" s="152"/>
       <c r="AU139" s="8"/>
     </row>
     <row r="140" spans="1:56" s="20" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2">
@@ -9404,44 +9404,44 @@
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
       <c r="O143" s="18"/>
-      <c r="P143" s="115" t="s">
+      <c r="P143" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="Q143" s="115"/>
-      <c r="R143" s="115"/>
-      <c r="S143" s="115"/>
-      <c r="T143" s="115"/>
-      <c r="U143" s="115"/>
-      <c r="V143" s="115"/>
-      <c r="W143" s="115"/>
-      <c r="X143" s="115"/>
-      <c r="Y143" s="115"/>
-      <c r="Z143" s="115"/>
-      <c r="AA143" s="115"/>
-      <c r="AB143" s="115"/>
-      <c r="AC143" s="115"/>
-      <c r="AD143" s="115"/>
-      <c r="AE143" s="115"/>
-      <c r="AF143" s="115"/>
-      <c r="AG143" s="115"/>
-      <c r="AH143" s="115"/>
-      <c r="AI143" s="115"/>
+      <c r="Q143" s="142"/>
+      <c r="R143" s="142"/>
+      <c r="S143" s="142"/>
+      <c r="T143" s="142"/>
+      <c r="U143" s="142"/>
+      <c r="V143" s="142"/>
+      <c r="W143" s="142"/>
+      <c r="X143" s="142"/>
+      <c r="Y143" s="142"/>
+      <c r="Z143" s="142"/>
+      <c r="AA143" s="142"/>
+      <c r="AB143" s="142"/>
+      <c r="AC143" s="142"/>
+      <c r="AD143" s="142"/>
+      <c r="AE143" s="142"/>
+      <c r="AF143" s="142"/>
+      <c r="AG143" s="142"/>
+      <c r="AH143" s="142"/>
+      <c r="AI143" s="142"/>
       <c r="AJ143" s="18"/>
-      <c r="AK143" s="116" t="s">
+      <c r="AK143" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="AL143" s="117"/>
-      <c r="AM143" s="117"/>
-      <c r="AN143" s="150" t="str">
+      <c r="AL143" s="134"/>
+      <c r="AM143" s="134"/>
+      <c r="AN143" s="148" t="str">
         <f>AN2</f>
         <v>SJI-YY-NNN-M</v>
       </c>
-      <c r="AO143" s="150"/>
-      <c r="AP143" s="150"/>
-      <c r="AQ143" s="150"/>
-      <c r="AR143" s="150"/>
-      <c r="AS143" s="150"/>
-      <c r="AT143" s="151"/>
+      <c r="AO143" s="148"/>
+      <c r="AP143" s="148"/>
+      <c r="AQ143" s="148"/>
+      <c r="AR143" s="148"/>
+      <c r="AS143" s="148"/>
+      <c r="AT143" s="149"/>
       <c r="AU143" s="1"/>
       <c r="AV143" s="20"/>
       <c r="AW143" s="20"/>
@@ -9468,39 +9468,39 @@
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
       <c r="O144" s="18"/>
-      <c r="P144" s="115" t="s">
+      <c r="P144" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="Q144" s="115"/>
-      <c r="R144" s="115"/>
-      <c r="S144" s="115"/>
-      <c r="T144" s="115"/>
-      <c r="U144" s="115"/>
-      <c r="V144" s="115"/>
-      <c r="W144" s="115"/>
-      <c r="X144" s="115"/>
-      <c r="Y144" s="115"/>
-      <c r="Z144" s="115"/>
-      <c r="AA144" s="115"/>
-      <c r="AB144" s="115"/>
-      <c r="AC144" s="115"/>
-      <c r="AD144" s="115"/>
-      <c r="AE144" s="115"/>
-      <c r="AF144" s="115"/>
-      <c r="AG144" s="115"/>
-      <c r="AH144" s="115"/>
-      <c r="AI144" s="115"/>
+      <c r="Q144" s="142"/>
+      <c r="R144" s="142"/>
+      <c r="S144" s="142"/>
+      <c r="T144" s="142"/>
+      <c r="U144" s="142"/>
+      <c r="V144" s="142"/>
+      <c r="W144" s="142"/>
+      <c r="X144" s="142"/>
+      <c r="Y144" s="142"/>
+      <c r="Z144" s="142"/>
+      <c r="AA144" s="142"/>
+      <c r="AB144" s="142"/>
+      <c r="AC144" s="142"/>
+      <c r="AD144" s="142"/>
+      <c r="AE144" s="142"/>
+      <c r="AF144" s="142"/>
+      <c r="AG144" s="142"/>
+      <c r="AH144" s="142"/>
+      <c r="AI144" s="142"/>
       <c r="AJ144" s="18"/>
-      <c r="AK144" s="118"/>
-      <c r="AL144" s="119"/>
-      <c r="AM144" s="119"/>
-      <c r="AN144" s="152"/>
-      <c r="AO144" s="152"/>
-      <c r="AP144" s="152"/>
-      <c r="AQ144" s="152"/>
-      <c r="AR144" s="152"/>
-      <c r="AS144" s="152"/>
-      <c r="AT144" s="153"/>
+      <c r="AK144" s="135"/>
+      <c r="AL144" s="136"/>
+      <c r="AM144" s="136"/>
+      <c r="AN144" s="150"/>
+      <c r="AO144" s="150"/>
+      <c r="AP144" s="150"/>
+      <c r="AQ144" s="150"/>
+      <c r="AR144" s="150"/>
+      <c r="AS144" s="150"/>
+      <c r="AT144" s="151"/>
       <c r="AU144" s="1"/>
       <c r="AV144" s="20"/>
       <c r="AW144" s="20"/>
@@ -9530,51 +9530,51 @@
     <row r="146" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="157" t="s">
+      <c r="C146" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="D146" s="157"/>
-      <c r="E146" s="157"/>
-      <c r="F146" s="157"/>
-      <c r="G146" s="157"/>
-      <c r="H146" s="157"/>
-      <c r="I146" s="157"/>
-      <c r="J146" s="157"/>
-      <c r="K146" s="157"/>
-      <c r="L146" s="157"/>
-      <c r="M146" s="157"/>
-      <c r="N146" s="157"/>
-      <c r="O146" s="157"/>
-      <c r="P146" s="157"/>
-      <c r="Q146" s="157"/>
-      <c r="R146" s="157"/>
-      <c r="S146" s="157"/>
-      <c r="T146" s="157"/>
-      <c r="U146" s="157"/>
-      <c r="V146" s="157"/>
-      <c r="W146" s="157"/>
-      <c r="X146" s="157"/>
-      <c r="Y146" s="157"/>
-      <c r="Z146" s="157"/>
-      <c r="AA146" s="157"/>
-      <c r="AB146" s="157"/>
-      <c r="AC146" s="157"/>
-      <c r="AD146" s="157"/>
-      <c r="AE146" s="157"/>
-      <c r="AF146" s="157"/>
-      <c r="AG146" s="157"/>
-      <c r="AH146" s="157"/>
-      <c r="AI146" s="157"/>
-      <c r="AJ146" s="157"/>
-      <c r="AK146" s="157"/>
-      <c r="AL146" s="157"/>
-      <c r="AM146" s="157"/>
-      <c r="AN146" s="157"/>
-      <c r="AO146" s="157"/>
-      <c r="AP146" s="157"/>
-      <c r="AQ146" s="157"/>
-      <c r="AR146" s="157"/>
-      <c r="AS146" s="157"/>
+      <c r="D146" s="115"/>
+      <c r="E146" s="115"/>
+      <c r="F146" s="115"/>
+      <c r="G146" s="115"/>
+      <c r="H146" s="115"/>
+      <c r="I146" s="115"/>
+      <c r="J146" s="115"/>
+      <c r="K146" s="115"/>
+      <c r="L146" s="115"/>
+      <c r="M146" s="115"/>
+      <c r="N146" s="115"/>
+      <c r="O146" s="115"/>
+      <c r="P146" s="115"/>
+      <c r="Q146" s="115"/>
+      <c r="R146" s="115"/>
+      <c r="S146" s="115"/>
+      <c r="T146" s="115"/>
+      <c r="U146" s="115"/>
+      <c r="V146" s="115"/>
+      <c r="W146" s="115"/>
+      <c r="X146" s="115"/>
+      <c r="Y146" s="115"/>
+      <c r="Z146" s="115"/>
+      <c r="AA146" s="115"/>
+      <c r="AB146" s="115"/>
+      <c r="AC146" s="115"/>
+      <c r="AD146" s="115"/>
+      <c r="AE146" s="115"/>
+      <c r="AF146" s="115"/>
+      <c r="AG146" s="115"/>
+      <c r="AH146" s="115"/>
+      <c r="AI146" s="115"/>
+      <c r="AJ146" s="115"/>
+      <c r="AK146" s="115"/>
+      <c r="AL146" s="115"/>
+      <c r="AM146" s="115"/>
+      <c r="AN146" s="115"/>
+      <c r="AO146" s="115"/>
+      <c r="AP146" s="115"/>
+      <c r="AQ146" s="115"/>
+      <c r="AR146" s="115"/>
+      <c r="AS146" s="115"/>
       <c r="AT146" s="18"/>
       <c r="AU146" s="1"/>
       <c r="AV146" s="20"/>
@@ -12847,44 +12847,44 @@
       <c r="M213" s="18"/>
       <c r="N213" s="18"/>
       <c r="O213" s="18"/>
-      <c r="P213" s="115" t="s">
+      <c r="P213" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="Q213" s="115"/>
-      <c r="R213" s="115"/>
-      <c r="S213" s="115"/>
-      <c r="T213" s="115"/>
-      <c r="U213" s="115"/>
-      <c r="V213" s="115"/>
-      <c r="W213" s="115"/>
-      <c r="X213" s="115"/>
-      <c r="Y213" s="115"/>
-      <c r="Z213" s="115"/>
-      <c r="AA213" s="115"/>
-      <c r="AB213" s="115"/>
-      <c r="AC213" s="115"/>
-      <c r="AD213" s="115"/>
-      <c r="AE213" s="115"/>
-      <c r="AF213" s="115"/>
-      <c r="AG213" s="115"/>
-      <c r="AH213" s="115"/>
-      <c r="AI213" s="115"/>
+      <c r="Q213" s="142"/>
+      <c r="R213" s="142"/>
+      <c r="S213" s="142"/>
+      <c r="T213" s="142"/>
+      <c r="U213" s="142"/>
+      <c r="V213" s="142"/>
+      <c r="W213" s="142"/>
+      <c r="X213" s="142"/>
+      <c r="Y213" s="142"/>
+      <c r="Z213" s="142"/>
+      <c r="AA213" s="142"/>
+      <c r="AB213" s="142"/>
+      <c r="AC213" s="142"/>
+      <c r="AD213" s="142"/>
+      <c r="AE213" s="142"/>
+      <c r="AF213" s="142"/>
+      <c r="AG213" s="142"/>
+      <c r="AH213" s="142"/>
+      <c r="AI213" s="142"/>
       <c r="AJ213" s="18"/>
-      <c r="AK213" s="116" t="s">
+      <c r="AK213" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="AL213" s="117"/>
-      <c r="AM213" s="117"/>
-      <c r="AN213" s="150" t="str">
+      <c r="AL213" s="134"/>
+      <c r="AM213" s="134"/>
+      <c r="AN213" s="148" t="str">
         <f>AN2</f>
         <v>SJI-YY-NNN-M</v>
       </c>
-      <c r="AO213" s="150"/>
-      <c r="AP213" s="150"/>
-      <c r="AQ213" s="150"/>
-      <c r="AR213" s="150"/>
-      <c r="AS213" s="150"/>
-      <c r="AT213" s="151"/>
+      <c r="AO213" s="148"/>
+      <c r="AP213" s="148"/>
+      <c r="AQ213" s="148"/>
+      <c r="AR213" s="148"/>
+      <c r="AS213" s="148"/>
+      <c r="AT213" s="149"/>
       <c r="AU213" s="1"/>
       <c r="AV213" s="20"/>
       <c r="AW213" s="20"/>
@@ -12911,39 +12911,39 @@
       <c r="M214" s="18"/>
       <c r="N214" s="18"/>
       <c r="O214" s="18"/>
-      <c r="P214" s="115" t="s">
+      <c r="P214" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="Q214" s="115"/>
-      <c r="R214" s="115"/>
-      <c r="S214" s="115"/>
-      <c r="T214" s="115"/>
-      <c r="U214" s="115"/>
-      <c r="V214" s="115"/>
-      <c r="W214" s="115"/>
-      <c r="X214" s="115"/>
-      <c r="Y214" s="115"/>
-      <c r="Z214" s="115"/>
-      <c r="AA214" s="115"/>
-      <c r="AB214" s="115"/>
-      <c r="AC214" s="115"/>
-      <c r="AD214" s="115"/>
-      <c r="AE214" s="115"/>
-      <c r="AF214" s="115"/>
-      <c r="AG214" s="115"/>
-      <c r="AH214" s="115"/>
-      <c r="AI214" s="115"/>
+      <c r="Q214" s="142"/>
+      <c r="R214" s="142"/>
+      <c r="S214" s="142"/>
+      <c r="T214" s="142"/>
+      <c r="U214" s="142"/>
+      <c r="V214" s="142"/>
+      <c r="W214" s="142"/>
+      <c r="X214" s="142"/>
+      <c r="Y214" s="142"/>
+      <c r="Z214" s="142"/>
+      <c r="AA214" s="142"/>
+      <c r="AB214" s="142"/>
+      <c r="AC214" s="142"/>
+      <c r="AD214" s="142"/>
+      <c r="AE214" s="142"/>
+      <c r="AF214" s="142"/>
+      <c r="AG214" s="142"/>
+      <c r="AH214" s="142"/>
+      <c r="AI214" s="142"/>
       <c r="AJ214" s="18"/>
-      <c r="AK214" s="118"/>
-      <c r="AL214" s="119"/>
-      <c r="AM214" s="119"/>
-      <c r="AN214" s="152"/>
-      <c r="AO214" s="152"/>
-      <c r="AP214" s="152"/>
-      <c r="AQ214" s="152"/>
-      <c r="AR214" s="152"/>
-      <c r="AS214" s="152"/>
-      <c r="AT214" s="153"/>
+      <c r="AK214" s="135"/>
+      <c r="AL214" s="136"/>
+      <c r="AM214" s="136"/>
+      <c r="AN214" s="150"/>
+      <c r="AO214" s="150"/>
+      <c r="AP214" s="150"/>
+      <c r="AQ214" s="150"/>
+      <c r="AR214" s="150"/>
+      <c r="AS214" s="150"/>
+      <c r="AT214" s="151"/>
       <c r="AU214" s="1"/>
       <c r="AV214" s="20"/>
       <c r="AW214" s="20"/>
@@ -12973,51 +12973,51 @@
     <row r="216" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
-      <c r="C216" s="157" t="s">
+      <c r="C216" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="D216" s="157"/>
-      <c r="E216" s="157"/>
-      <c r="F216" s="157"/>
-      <c r="G216" s="157"/>
-      <c r="H216" s="157"/>
-      <c r="I216" s="157"/>
-      <c r="J216" s="157"/>
-      <c r="K216" s="157"/>
-      <c r="L216" s="157"/>
-      <c r="M216" s="157"/>
-      <c r="N216" s="157"/>
-      <c r="O216" s="157"/>
-      <c r="P216" s="157"/>
-      <c r="Q216" s="157"/>
-      <c r="R216" s="157"/>
-      <c r="S216" s="157"/>
-      <c r="T216" s="157"/>
-      <c r="U216" s="157"/>
-      <c r="V216" s="157"/>
-      <c r="W216" s="157"/>
-      <c r="X216" s="157"/>
-      <c r="Y216" s="157"/>
-      <c r="Z216" s="157"/>
-      <c r="AA216" s="157"/>
-      <c r="AB216" s="157"/>
-      <c r="AC216" s="157"/>
-      <c r="AD216" s="157"/>
-      <c r="AE216" s="157"/>
-      <c r="AF216" s="157"/>
-      <c r="AG216" s="157"/>
-      <c r="AH216" s="157"/>
-      <c r="AI216" s="157"/>
-      <c r="AJ216" s="157"/>
-      <c r="AK216" s="157"/>
-      <c r="AL216" s="157"/>
-      <c r="AM216" s="157"/>
-      <c r="AN216" s="157"/>
-      <c r="AO216" s="157"/>
-      <c r="AP216" s="157"/>
-      <c r="AQ216" s="157"/>
-      <c r="AR216" s="157"/>
-      <c r="AS216" s="157"/>
+      <c r="D216" s="115"/>
+      <c r="E216" s="115"/>
+      <c r="F216" s="115"/>
+      <c r="G216" s="115"/>
+      <c r="H216" s="115"/>
+      <c r="I216" s="115"/>
+      <c r="J216" s="115"/>
+      <c r="K216" s="115"/>
+      <c r="L216" s="115"/>
+      <c r="M216" s="115"/>
+      <c r="N216" s="115"/>
+      <c r="O216" s="115"/>
+      <c r="P216" s="115"/>
+      <c r="Q216" s="115"/>
+      <c r="R216" s="115"/>
+      <c r="S216" s="115"/>
+      <c r="T216" s="115"/>
+      <c r="U216" s="115"/>
+      <c r="V216" s="115"/>
+      <c r="W216" s="115"/>
+      <c r="X216" s="115"/>
+      <c r="Y216" s="115"/>
+      <c r="Z216" s="115"/>
+      <c r="AA216" s="115"/>
+      <c r="AB216" s="115"/>
+      <c r="AC216" s="115"/>
+      <c r="AD216" s="115"/>
+      <c r="AE216" s="115"/>
+      <c r="AF216" s="115"/>
+      <c r="AG216" s="115"/>
+      <c r="AH216" s="115"/>
+      <c r="AI216" s="115"/>
+      <c r="AJ216" s="115"/>
+      <c r="AK216" s="115"/>
+      <c r="AL216" s="115"/>
+      <c r="AM216" s="115"/>
+      <c r="AN216" s="115"/>
+      <c r="AO216" s="115"/>
+      <c r="AP216" s="115"/>
+      <c r="AQ216" s="115"/>
+      <c r="AR216" s="115"/>
+      <c r="AS216" s="115"/>
       <c r="AT216" s="18"/>
       <c r="AU216" s="1"/>
       <c r="AV216" s="20"/>
@@ -16028,6 +16028,338 @@
   </protectedRanges>
   <dataConsolidate/>
   <mergeCells count="356">
+    <mergeCell ref="AD111:AM111"/>
+    <mergeCell ref="AN111:AQ111"/>
+    <mergeCell ref="AR111:AT111"/>
+    <mergeCell ref="Z112:AC112"/>
+    <mergeCell ref="AD112:AM112"/>
+    <mergeCell ref="AN112:AQ112"/>
+    <mergeCell ref="AR112:AT112"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="G118:Q118"/>
+    <mergeCell ref="R118:U118"/>
+    <mergeCell ref="Z118:AC118"/>
+    <mergeCell ref="AD118:AM118"/>
+    <mergeCell ref="AN118:AQ118"/>
+    <mergeCell ref="AR118:AT118"/>
+    <mergeCell ref="V118:X118"/>
+    <mergeCell ref="AD113:AM113"/>
+    <mergeCell ref="AN113:AQ113"/>
+    <mergeCell ref="AR113:AT113"/>
+    <mergeCell ref="Z114:AC114"/>
+    <mergeCell ref="AD114:AM114"/>
+    <mergeCell ref="AN114:AQ114"/>
+    <mergeCell ref="AR114:AT114"/>
+    <mergeCell ref="R115:U115"/>
+    <mergeCell ref="V115:X115"/>
+    <mergeCell ref="P74:AI74"/>
+    <mergeCell ref="AK74:AM75"/>
+    <mergeCell ref="AN74:AT75"/>
+    <mergeCell ref="P75:AI75"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="G107:Q107"/>
+    <mergeCell ref="R107:U107"/>
+    <mergeCell ref="V107:X107"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="G106:Q106"/>
+    <mergeCell ref="Z107:AC107"/>
+    <mergeCell ref="AD107:AM107"/>
+    <mergeCell ref="AN107:AQ107"/>
+    <mergeCell ref="AR107:AT107"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="G101:Q101"/>
+    <mergeCell ref="R101:U101"/>
+    <mergeCell ref="V101:X101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="G102:Q102"/>
+    <mergeCell ref="R106:U106"/>
+    <mergeCell ref="V105:X105"/>
+    <mergeCell ref="R102:U102"/>
+    <mergeCell ref="V102:X102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="G103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:X103"/>
+    <mergeCell ref="V106:X106"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="G104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="V104:X104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="G105:Q105"/>
+    <mergeCell ref="R105:U105"/>
+    <mergeCell ref="AD121:AM121"/>
+    <mergeCell ref="AN121:AQ121"/>
+    <mergeCell ref="AR121:AT121"/>
+    <mergeCell ref="Z101:AC101"/>
+    <mergeCell ref="AD101:AM101"/>
+    <mergeCell ref="AN101:AQ101"/>
+    <mergeCell ref="AR101:AT101"/>
+    <mergeCell ref="Z102:AC102"/>
+    <mergeCell ref="AD102:AM102"/>
+    <mergeCell ref="AN102:AQ102"/>
+    <mergeCell ref="AR102:AT102"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AM103"/>
+    <mergeCell ref="AN103:AQ103"/>
+    <mergeCell ref="AR103:AT103"/>
+    <mergeCell ref="Z104:AC104"/>
+    <mergeCell ref="AD120:AM120"/>
+    <mergeCell ref="AN120:AQ120"/>
+    <mergeCell ref="AR120:AT120"/>
+    <mergeCell ref="AD117:AM117"/>
+    <mergeCell ref="AN117:AQ117"/>
+    <mergeCell ref="AR117:AT117"/>
+    <mergeCell ref="Z119:AC119"/>
+    <mergeCell ref="AD119:AM119"/>
+    <mergeCell ref="AN119:AQ119"/>
+    <mergeCell ref="AR119:AT119"/>
+    <mergeCell ref="AD115:AM115"/>
+    <mergeCell ref="AN115:AQ115"/>
+    <mergeCell ref="AR115:AT115"/>
+    <mergeCell ref="Z116:AC116"/>
+    <mergeCell ref="AD116:AM116"/>
+    <mergeCell ref="AN116:AQ116"/>
+    <mergeCell ref="AR116:AT116"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="G121:Q121"/>
+    <mergeCell ref="R121:U121"/>
+    <mergeCell ref="V121:X121"/>
+    <mergeCell ref="Z111:AC111"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="Z115:AC115"/>
+    <mergeCell ref="Z117:AC117"/>
+    <mergeCell ref="Z120:AC120"/>
+    <mergeCell ref="Z121:AC121"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="G120:Q120"/>
+    <mergeCell ref="R120:U120"/>
+    <mergeCell ref="V120:X120"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="G117:Q117"/>
+    <mergeCell ref="R117:U117"/>
+    <mergeCell ref="V117:X117"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="G119:Q119"/>
+    <mergeCell ref="R119:U119"/>
+    <mergeCell ref="V119:X119"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="G115:Q115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="G116:Q116"/>
+    <mergeCell ref="R116:U116"/>
+    <mergeCell ref="V116:X116"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="G113:Q113"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="V113:X113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="G114:Q114"/>
+    <mergeCell ref="R114:U114"/>
+    <mergeCell ref="V114:X114"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="G111:Q111"/>
+    <mergeCell ref="R111:U111"/>
+    <mergeCell ref="V111:X111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="G112:Q112"/>
+    <mergeCell ref="R112:U112"/>
+    <mergeCell ref="V112:X112"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="G131:Q131"/>
+    <mergeCell ref="R131:U131"/>
+    <mergeCell ref="V131:X131"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="G130:Q130"/>
+    <mergeCell ref="R130:U130"/>
+    <mergeCell ref="V130:X130"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="G128:Q128"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="V128:X128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="G129:Q129"/>
+    <mergeCell ref="R129:U129"/>
+    <mergeCell ref="V129:X129"/>
+    <mergeCell ref="Z131:AC131"/>
+    <mergeCell ref="AD131:AM131"/>
+    <mergeCell ref="AN131:AQ131"/>
+    <mergeCell ref="AR131:AT131"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="G125:Q125"/>
+    <mergeCell ref="R125:U125"/>
+    <mergeCell ref="V125:X125"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="G126:Q126"/>
+    <mergeCell ref="R126:U126"/>
+    <mergeCell ref="V126:X126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="G127:Q127"/>
+    <mergeCell ref="R127:U127"/>
+    <mergeCell ref="V127:X127"/>
+    <mergeCell ref="Z129:AC129"/>
+    <mergeCell ref="AD129:AM129"/>
+    <mergeCell ref="AN129:AQ129"/>
+    <mergeCell ref="AR129:AT129"/>
+    <mergeCell ref="Z130:AC130"/>
+    <mergeCell ref="AD130:AM130"/>
+    <mergeCell ref="AN130:AQ130"/>
+    <mergeCell ref="AR130:AT130"/>
+    <mergeCell ref="Z127:AC127"/>
+    <mergeCell ref="AD127:AM127"/>
+    <mergeCell ref="AN127:AQ127"/>
+    <mergeCell ref="AR127:AT127"/>
+    <mergeCell ref="Z128:AC128"/>
+    <mergeCell ref="AD128:AM128"/>
+    <mergeCell ref="AN128:AQ128"/>
+    <mergeCell ref="AR128:AT128"/>
+    <mergeCell ref="Z126:AC126"/>
+    <mergeCell ref="AD126:AM126"/>
+    <mergeCell ref="AN126:AQ126"/>
+    <mergeCell ref="AR126:AT126"/>
+    <mergeCell ref="B109:AT109"/>
+    <mergeCell ref="AD104:AM104"/>
+    <mergeCell ref="AN104:AQ104"/>
+    <mergeCell ref="AR104:AT104"/>
+    <mergeCell ref="Z105:AC105"/>
+    <mergeCell ref="AD105:AM105"/>
+    <mergeCell ref="AN105:AQ105"/>
+    <mergeCell ref="AR105:AT105"/>
+    <mergeCell ref="Z106:AC106"/>
+    <mergeCell ref="AD106:AM106"/>
+    <mergeCell ref="AN106:AQ106"/>
+    <mergeCell ref="AR106:AT106"/>
+    <mergeCell ref="X88:AI88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="X89:AI89"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="O88:W88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="O89:W89"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="X86:AI86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="X87:AI87"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="O86:W86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="O87:W87"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="X84:AI84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="X85:AI85"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="AJ79:AJ84"/>
+    <mergeCell ref="AK79:AK84"/>
+    <mergeCell ref="AL79:AL84"/>
+    <mergeCell ref="O84:W84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="O85:W85"/>
+    <mergeCell ref="AM79:AM84"/>
+    <mergeCell ref="AN79:AN84"/>
+    <mergeCell ref="AO79:AO84"/>
+    <mergeCell ref="AP79:AP84"/>
+    <mergeCell ref="AQ79:AQ84"/>
+    <mergeCell ref="AR79:AR84"/>
+    <mergeCell ref="AS79:AS84"/>
+    <mergeCell ref="AT79:AT84"/>
+    <mergeCell ref="P143:AI143"/>
+    <mergeCell ref="AK143:AM144"/>
+    <mergeCell ref="AN143:AT144"/>
+    <mergeCell ref="P144:AI144"/>
+    <mergeCell ref="X90:AI90"/>
+    <mergeCell ref="X91:AI91"/>
+    <mergeCell ref="X92:AI92"/>
+    <mergeCell ref="C133:AS133"/>
+    <mergeCell ref="AP135:AQ135"/>
+    <mergeCell ref="AS135:AT135"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="O93:W93"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="C216:AS216"/>
+    <mergeCell ref="C146:AS146"/>
+    <mergeCell ref="P213:AI213"/>
+    <mergeCell ref="AK213:AM214"/>
+    <mergeCell ref="AN213:AT214"/>
+    <mergeCell ref="P214:AI214"/>
+    <mergeCell ref="AS137:AT137"/>
+    <mergeCell ref="AJ139:AT139"/>
+    <mergeCell ref="P137:Y137"/>
+    <mergeCell ref="P139:Y139"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="O92:W92"/>
+    <mergeCell ref="B123:AT123"/>
+    <mergeCell ref="Z125:AC125"/>
+    <mergeCell ref="AD125:AM125"/>
+    <mergeCell ref="AN125:AQ125"/>
+    <mergeCell ref="AR125:AT125"/>
+    <mergeCell ref="B95:AT95"/>
+    <mergeCell ref="B96:AT96"/>
+    <mergeCell ref="C97:AS97"/>
+    <mergeCell ref="B99:AT99"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AT3"/>
+    <mergeCell ref="AL9:AT9"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="H13:AT13"/>
+    <mergeCell ref="P2:AI2"/>
+    <mergeCell ref="P3:AI3"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="H7:Q7"/>
+    <mergeCell ref="X9:AF9"/>
+    <mergeCell ref="X7:AF7"/>
+    <mergeCell ref="H11:AF11"/>
+    <mergeCell ref="AL11:AT11"/>
+    <mergeCell ref="C5:AS5"/>
+    <mergeCell ref="I50:W50"/>
+    <mergeCell ref="AB50:AH50"/>
+    <mergeCell ref="AP26:AT26"/>
+    <mergeCell ref="AP18:AT18"/>
+    <mergeCell ref="AP24:AT24"/>
+    <mergeCell ref="AJ16:AT16"/>
+    <mergeCell ref="AP46:AT46"/>
+    <mergeCell ref="AP44:AT44"/>
+    <mergeCell ref="AP20:AT20"/>
+    <mergeCell ref="AP22:AT22"/>
+    <mergeCell ref="AP30:AT30"/>
+    <mergeCell ref="AP36:AT36"/>
+    <mergeCell ref="AP34:AT34"/>
+    <mergeCell ref="AP42:AT42"/>
+    <mergeCell ref="AP28:AT28"/>
+    <mergeCell ref="AP38:AT38"/>
+    <mergeCell ref="AP32:AT32"/>
+    <mergeCell ref="B17:AH25"/>
+    <mergeCell ref="B26:AH33"/>
+    <mergeCell ref="B34:AH47"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="AD69:AH69"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="AD57:AH57"/>
+    <mergeCell ref="AD59:AH59"/>
+    <mergeCell ref="AD61:AH61"/>
+    <mergeCell ref="AD63:AH63"/>
+    <mergeCell ref="AD65:AH65"/>
+    <mergeCell ref="AD67:AH67"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="S61:U61"/>
     <mergeCell ref="AO55:AR55"/>
     <mergeCell ref="AO57:AR57"/>
     <mergeCell ref="AO59:AR59"/>
@@ -16052,338 +16384,6 @@
     <mergeCell ref="X93:AI93"/>
     <mergeCell ref="G93:I93"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="AD69:AH69"/>
-    <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="AD57:AH57"/>
-    <mergeCell ref="AD59:AH59"/>
-    <mergeCell ref="AD61:AH61"/>
-    <mergeCell ref="AD63:AH63"/>
-    <mergeCell ref="AD65:AH65"/>
-    <mergeCell ref="AD67:AH67"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="I50:W50"/>
-    <mergeCell ref="AB50:AH50"/>
-    <mergeCell ref="AP26:AT26"/>
-    <mergeCell ref="AP18:AT18"/>
-    <mergeCell ref="AP24:AT24"/>
-    <mergeCell ref="AJ16:AT16"/>
-    <mergeCell ref="AP46:AT46"/>
-    <mergeCell ref="AP44:AT44"/>
-    <mergeCell ref="AP20:AT20"/>
-    <mergeCell ref="AP22:AT22"/>
-    <mergeCell ref="AP30:AT30"/>
-    <mergeCell ref="AP36:AT36"/>
-    <mergeCell ref="AP34:AT34"/>
-    <mergeCell ref="AP42:AT42"/>
-    <mergeCell ref="AP28:AT28"/>
-    <mergeCell ref="AP38:AT38"/>
-    <mergeCell ref="AP32:AT32"/>
-    <mergeCell ref="B17:AH25"/>
-    <mergeCell ref="B26:AH33"/>
-    <mergeCell ref="B34:AH47"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AT3"/>
-    <mergeCell ref="AL9:AT9"/>
-    <mergeCell ref="AL7:AT7"/>
-    <mergeCell ref="H13:AT13"/>
-    <mergeCell ref="P2:AI2"/>
-    <mergeCell ref="P3:AI3"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="H7:Q7"/>
-    <mergeCell ref="X9:AF9"/>
-    <mergeCell ref="X7:AF7"/>
-    <mergeCell ref="H11:AF11"/>
-    <mergeCell ref="AL11:AT11"/>
-    <mergeCell ref="C5:AS5"/>
-    <mergeCell ref="O93:W93"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="C216:AS216"/>
-    <mergeCell ref="C146:AS146"/>
-    <mergeCell ref="P213:AI213"/>
-    <mergeCell ref="AK213:AM214"/>
-    <mergeCell ref="AN213:AT214"/>
-    <mergeCell ref="P214:AI214"/>
-    <mergeCell ref="AS137:AT137"/>
-    <mergeCell ref="AJ139:AT139"/>
-    <mergeCell ref="P137:Y137"/>
-    <mergeCell ref="P139:Y139"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="O92:W92"/>
-    <mergeCell ref="B123:AT123"/>
-    <mergeCell ref="Z125:AC125"/>
-    <mergeCell ref="AD125:AM125"/>
-    <mergeCell ref="AN125:AQ125"/>
-    <mergeCell ref="AR125:AT125"/>
-    <mergeCell ref="B95:AT95"/>
-    <mergeCell ref="B96:AT96"/>
-    <mergeCell ref="C97:AS97"/>
-    <mergeCell ref="B99:AT99"/>
-    <mergeCell ref="AM79:AM84"/>
-    <mergeCell ref="AN79:AN84"/>
-    <mergeCell ref="AO79:AO84"/>
-    <mergeCell ref="AP79:AP84"/>
-    <mergeCell ref="AQ79:AQ84"/>
-    <mergeCell ref="AR79:AR84"/>
-    <mergeCell ref="AS79:AS84"/>
-    <mergeCell ref="AT79:AT84"/>
-    <mergeCell ref="P143:AI143"/>
-    <mergeCell ref="AK143:AM144"/>
-    <mergeCell ref="AN143:AT144"/>
-    <mergeCell ref="P144:AI144"/>
-    <mergeCell ref="X90:AI90"/>
-    <mergeCell ref="X91:AI91"/>
-    <mergeCell ref="X92:AI92"/>
-    <mergeCell ref="C133:AS133"/>
-    <mergeCell ref="AP135:AQ135"/>
-    <mergeCell ref="AS135:AT135"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:W91"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="X84:AI84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="X85:AI85"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="AJ79:AJ84"/>
-    <mergeCell ref="AK79:AK84"/>
-    <mergeCell ref="AL79:AL84"/>
-    <mergeCell ref="O84:W84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="O85:W85"/>
-    <mergeCell ref="X86:AI86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="X87:AI87"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="O86:W86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="O87:W87"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="X88:AI88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="X89:AI89"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="O88:W88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="O89:W89"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B109:AT109"/>
-    <mergeCell ref="AD104:AM104"/>
-    <mergeCell ref="AN104:AQ104"/>
-    <mergeCell ref="AR104:AT104"/>
-    <mergeCell ref="Z105:AC105"/>
-    <mergeCell ref="AD105:AM105"/>
-    <mergeCell ref="AN105:AQ105"/>
-    <mergeCell ref="AR105:AT105"/>
-    <mergeCell ref="Z106:AC106"/>
-    <mergeCell ref="AD106:AM106"/>
-    <mergeCell ref="AN106:AQ106"/>
-    <mergeCell ref="AR106:AT106"/>
-    <mergeCell ref="Z127:AC127"/>
-    <mergeCell ref="AD127:AM127"/>
-    <mergeCell ref="AN127:AQ127"/>
-    <mergeCell ref="AR127:AT127"/>
-    <mergeCell ref="Z128:AC128"/>
-    <mergeCell ref="AD128:AM128"/>
-    <mergeCell ref="AN128:AQ128"/>
-    <mergeCell ref="AR128:AT128"/>
-    <mergeCell ref="Z126:AC126"/>
-    <mergeCell ref="AD126:AM126"/>
-    <mergeCell ref="AN126:AQ126"/>
-    <mergeCell ref="AR126:AT126"/>
-    <mergeCell ref="Z131:AC131"/>
-    <mergeCell ref="AD131:AM131"/>
-    <mergeCell ref="AN131:AQ131"/>
-    <mergeCell ref="AR131:AT131"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="G125:Q125"/>
-    <mergeCell ref="R125:U125"/>
-    <mergeCell ref="V125:X125"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="G126:Q126"/>
-    <mergeCell ref="R126:U126"/>
-    <mergeCell ref="V126:X126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="G127:Q127"/>
-    <mergeCell ref="R127:U127"/>
-    <mergeCell ref="V127:X127"/>
-    <mergeCell ref="Z129:AC129"/>
-    <mergeCell ref="AD129:AM129"/>
-    <mergeCell ref="AN129:AQ129"/>
-    <mergeCell ref="AR129:AT129"/>
-    <mergeCell ref="Z130:AC130"/>
-    <mergeCell ref="AD130:AM130"/>
-    <mergeCell ref="AN130:AQ130"/>
-    <mergeCell ref="AR130:AT130"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="G111:Q111"/>
-    <mergeCell ref="R111:U111"/>
-    <mergeCell ref="V111:X111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="G112:Q112"/>
-    <mergeCell ref="R112:U112"/>
-    <mergeCell ref="V112:X112"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="G131:Q131"/>
-    <mergeCell ref="R131:U131"/>
-    <mergeCell ref="V131:X131"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="G130:Q130"/>
-    <mergeCell ref="R130:U130"/>
-    <mergeCell ref="V130:X130"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="G128:Q128"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="V128:X128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="G129:Q129"/>
-    <mergeCell ref="R129:U129"/>
-    <mergeCell ref="V129:X129"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="G116:Q116"/>
-    <mergeCell ref="R116:U116"/>
-    <mergeCell ref="V116:X116"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="G113:Q113"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="V113:X113"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="G114:Q114"/>
-    <mergeCell ref="R114:U114"/>
-    <mergeCell ref="V114:X114"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="G121:Q121"/>
-    <mergeCell ref="R121:U121"/>
-    <mergeCell ref="V121:X121"/>
-    <mergeCell ref="Z111:AC111"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="Z115:AC115"/>
-    <mergeCell ref="Z117:AC117"/>
-    <mergeCell ref="Z120:AC120"/>
-    <mergeCell ref="Z121:AC121"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="G120:Q120"/>
-    <mergeCell ref="R120:U120"/>
-    <mergeCell ref="V120:X120"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="G117:Q117"/>
-    <mergeCell ref="R117:U117"/>
-    <mergeCell ref="V117:X117"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="G119:Q119"/>
-    <mergeCell ref="R119:U119"/>
-    <mergeCell ref="V119:X119"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="G115:Q115"/>
-    <mergeCell ref="AN119:AQ119"/>
-    <mergeCell ref="AR119:AT119"/>
-    <mergeCell ref="AD115:AM115"/>
-    <mergeCell ref="AN115:AQ115"/>
-    <mergeCell ref="AR115:AT115"/>
-    <mergeCell ref="Z116:AC116"/>
-    <mergeCell ref="AD116:AM116"/>
-    <mergeCell ref="AN116:AQ116"/>
-    <mergeCell ref="AR116:AT116"/>
-    <mergeCell ref="AD121:AM121"/>
-    <mergeCell ref="AN121:AQ121"/>
-    <mergeCell ref="AR121:AT121"/>
-    <mergeCell ref="Z101:AC101"/>
-    <mergeCell ref="AD101:AM101"/>
-    <mergeCell ref="AN101:AQ101"/>
-    <mergeCell ref="AR101:AT101"/>
-    <mergeCell ref="Z102:AC102"/>
-    <mergeCell ref="AD102:AM102"/>
-    <mergeCell ref="AN102:AQ102"/>
-    <mergeCell ref="AR102:AT102"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AM103"/>
-    <mergeCell ref="AN103:AQ103"/>
-    <mergeCell ref="AR103:AT103"/>
-    <mergeCell ref="Z104:AC104"/>
-    <mergeCell ref="AD120:AM120"/>
-    <mergeCell ref="AN120:AQ120"/>
-    <mergeCell ref="AR120:AT120"/>
-    <mergeCell ref="AD117:AM117"/>
-    <mergeCell ref="AN117:AQ117"/>
-    <mergeCell ref="AR117:AT117"/>
-    <mergeCell ref="Z119:AC119"/>
-    <mergeCell ref="AD119:AM119"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="G103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:X103"/>
-    <mergeCell ref="V106:X106"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="G104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="V104:X104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="G105:Q105"/>
-    <mergeCell ref="R105:U105"/>
-    <mergeCell ref="P74:AI74"/>
-    <mergeCell ref="AK74:AM75"/>
-    <mergeCell ref="AN74:AT75"/>
-    <mergeCell ref="P75:AI75"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="G107:Q107"/>
-    <mergeCell ref="R107:U107"/>
-    <mergeCell ref="V107:X107"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="G106:Q106"/>
-    <mergeCell ref="Z107:AC107"/>
-    <mergeCell ref="AD107:AM107"/>
-    <mergeCell ref="AN107:AQ107"/>
-    <mergeCell ref="AR107:AT107"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="G101:Q101"/>
-    <mergeCell ref="R101:U101"/>
-    <mergeCell ref="V101:X101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="G102:Q102"/>
-    <mergeCell ref="R106:U106"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="R102:U102"/>
-    <mergeCell ref="V102:X102"/>
-    <mergeCell ref="AD111:AM111"/>
-    <mergeCell ref="AN111:AQ111"/>
-    <mergeCell ref="AR111:AT111"/>
-    <mergeCell ref="Z112:AC112"/>
-    <mergeCell ref="AD112:AM112"/>
-    <mergeCell ref="AN112:AQ112"/>
-    <mergeCell ref="AR112:AT112"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="G118:Q118"/>
-    <mergeCell ref="R118:U118"/>
-    <mergeCell ref="Z118:AC118"/>
-    <mergeCell ref="AD118:AM118"/>
-    <mergeCell ref="AN118:AQ118"/>
-    <mergeCell ref="AR118:AT118"/>
-    <mergeCell ref="V118:X118"/>
-    <mergeCell ref="AD113:AM113"/>
-    <mergeCell ref="AN113:AQ113"/>
-    <mergeCell ref="AR113:AT113"/>
-    <mergeCell ref="Z114:AC114"/>
-    <mergeCell ref="AD114:AM114"/>
-    <mergeCell ref="AN114:AQ114"/>
-    <mergeCell ref="AR114:AT114"/>
-    <mergeCell ref="R115:U115"/>
-    <mergeCell ref="V115:X115"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.22053571428571428" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16419,13 +16419,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="185" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="181"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="187"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
